--- a/Game simulations/Week 16/Steelers at Chiefs.xlsx
+++ b/Game simulations/Week 16/Steelers at Chiefs.xlsx
@@ -57,16 +57,16 @@
     <t>ChiefsAvg. FPTS</t>
   </si>
   <si>
-    <t>JSU(0.15813074173808941, 4.31080282744643, -0.24311926251093186, 51.42828580719711)</t>
-  </si>
-  <si>
-    <t>10 5 5 13 -7 -4 -6 9 4 10 6 -6 5 6 13 -25 20 15 9 -1 17 4 3 11 -17 16 -23 6 -6 -3 -14 -15 -5 -3 15 -15 7 -3 -6 -9 -9 -11 18 -20 -6 -8 -8 7 -2 -6 2 -16 -3 15 -3 1 -10 -11 9 6 6 7 -6 -7 5 5 4 -9 -3 20 -1 -7 3 27 3 8 -10 -17 -3 -25 -14 5 2 -3 -9 13 22 7 -13 -5 -19 -14 -7 3 -14 -3 1 -14 -28 3 -19 -27 -19 -3 -5 1 -10 -24 -4 -3 -4 -7 17 -3 -6 -6 4 11 -1 -10 3 -6 -5 7 -18 4 -3 -14 -13 -6 -3 10 14 -16 -5 9 -17 17 -24 -4 3 6 -13 4 -16 -3 28 6 13 -3 10 6 -5 10 5 -6 4 7 -3 11 -6 -14 -14 -13 -3 -17 -28 2 5 -26 -13 6 13 -4 3 -22 -7 -21 12 -3 -1 -7 -3 7 -30 12 6 3 3 1 -7 -21 17 -17 -14 -3 -10 -17 7 -1 -4 3 21 17 -15 -6 -3 3 3 -22 -3 -3 3 5 3 8 -13 -3 -12 -27 -16 -6 -11 -3 0 3 4 6 -9 -6 7 -14 3 13 -5 23 -3 -3 -8 -3 13 15 -8 -38 3 0 -7 -11 -3 -6 6 -8 2 1 -3 -2 -6 20 3 -6 5 -4 22 24 3 -21 -3 -11 16 -15 -9 -4 -7 26 -3 -7 -7 -10 -5 -17 3 -12 -6 7 -19 -20 -13 -21 -16 26 12 -8 10 13 9 -21 20 -11 -14 6 23 7 -3 -6 -4 -6 12 4 -9 10 -6 1 13 26 5 6 -12 8 -15 -3 -3 -12 19 -28 2 3 -25 -6 -5 -7 -3 -5 -41 -7 38 -3 -16 -2 -8 6 9 -16 -7 7 5 17 21 -7 -3 3 -10 14 -3 18 -1 7 -20 12 -14 -15 11 11 -1 5 -14 5 5 -19 2 9 10 11 -13 -25 -14 16 -6 -31 -16 8 -16 -22 -9 -2 5 -7 -10 7 15 -8 -3 4 7 3 -6 10 -10 -3 4 20 -2 -7 -4 -3 -13 -16 -10 -14 -3 6 11 7 7 31 -2 4 15 -9 -13 18 -14 -10 5 -11 -5 -7 -10 13 -3 3 -17 -4 -13 -17 17 -1 -21 16 3 -19 -8 -4 -1 13 6 -18 -7 -13 -3 -1 3 -6 -7 1 5 11 -3 8 10 -5 7 -1 -3 20 -2 18 28 7 -13 14 6 6 -3 6 2 -7 -7 6 -11 3 -17 3 -3 -6 -21 -2 20 -13 -7 11 3 13 4 3 -2 24 -15 -24 -6 2 -10 -1 15 23 -7 -18 3 38 7 -16 -12 -7 -16 -28 -3 -11 -17 -10 0 9 -24 12 1 -11 -10 -9 -3 5 -7 -14 1 -6 -7 -4 18 -4 4 -15 -11 19 3 9 -1 13 -6 17 6 15 18 -24 -13 -11 -10 -3 -14 -4 3 -15 -1 -11 -4 -8 8 -28 6 5 -6 18 3 -29 -7 -11 -1 -24 15 12 -2 -24 3 -17 15 3 18 7 -9 12 15 4 13 -21 -21 -12 -7 -16 -9 6 -35 -8 3 -3 -3 -6 -7 14 -17 7 -21 3 -8 -17 3 16 9 6 8 7 -7 -7 -10 -23 19 -3 -5 8 -8 -2 -16 4 -6 2 -1 -28 -13 8 -3 3 12 10 -10 -9 -15 -30 -11 -4 -6 3 3 -1 -11 7 4 -3 -3 -6 -5 -14 -12 21 -12 5 -7 -27 -18 3 1 -9 -11 3 7 0 -3 14 -18 -14 5 -5 -2 3 14 12 6 -9 5 -6 22 -14 -11 20 10 6 -8 -8 -12 13 -7 12 30 -14 -21 11 1 -8 -1 4 -7 5 -6 20 7 3 -30 -15 1 -9 5 -23 11 6 -11 12 -7 14 -6 7 -7 9 -1 -12 6 -11 21 12 1 -13 -2 22 5 3 -25 -10 -16 21 13 -6 -5 3 6 6 -6 3 8 -19 3 -21 -13 21 2 -10 -23 -3 3 -6 5 -5 8 14 7 -4 3 0 7 17 15 10 -14 3 -6 3 -8 1 11 8 6 -14 15 -20 -4 -4 10 5 8 6 -26 -24 -19 -8 18 -5 -13 5 -9 -31 -6 6 -21 -20 2 -4 -11 19 1 6 -11 -3 3 -14 -10 4 8 24 -25 4 2 11 -3 3 -5 -6 -6 -6 22 3 -8 10 -10 13 -8 3 -7 7 5 9 -3 -4 -11 17 -13 -13 -1 -13 10 -10 9 -10 -14 9 3 -3 -5 -4 -6 10 11 -10 10 -9 -18 23 -3 -8 -15 -6 3 -6 -24 10 8 -25 -34 -3 -22 -8 18 3 -7 -4 -16 -4 -6 15 23 -9 19 -20 8 4 -9 5 -6 -16 1 -10 12 17 1 -3 3 3 -4 -3 10 -12 -3 -4 -3 -16 9 -4 -3 -6 5 28 2 -24 36 -30 25 -10 -10 13 4 -21 4 -9 -8 13 12 -7 -12 19 -3 -17 1 -7 -3 -12 -10 -3 12 -3 -6 -20 -2 -3 7 -4 -14 13 -7 -17 3 -3 -14 12 7 -7 -8 -3 -7 -8 -10 -1 -3 3 9 8 -20 -10 -6 -5 8 -18 -11 -4 -9 5 0 -18 -22 -8 5 -4 -14 -12 -11 -17 -32 20 -14 14 -25 -8 -4 5 6 -10 5 -3 7 2 -9 8 3 18 5 -7 10 3 -1 -6 6 -4 30 1 -4 7 -6 5 -3 -18 -18 -15 -2 -14 10 -3 -25 -17 13 -4 -11 -14 3 -1 -4 -8 -14 23 11 7 2 10 -4 -17 -7 -6 -6 14 -2 -18 -14 -14 11 1 -1 3 21 -7 3 6 9 5 13 -4 7 -1 3 12 -11 -12 -14 -7 -3 -12 -15 -3 -2 7 -6 -6 24 -7 11 -9 19 2 3 -7 -1 -12 -15 16 -8 -9 8 -23 9 -13 -3 6 -29 11 14 6 -3 9 -6 -7 -1 -5 -6 7 -6 10 -7 -6 -17 19 -6 11 -3 -9 -25 15 -7 11 4 -8 -5 3 -10 -6 -15 -6 3 -3 4 3 -14 -17 3 -2 11 5 8 6 -8 -6 -8 -3 16 14 -13 7 -3 3 9 -2 17 -3 -24 19 11 -5 2 -14 24 9 1 2 -13 -8 7 -1 -6 -1 21 -3 7 -18 4 6 -19 2 -5 -4 8 5 -3 7 14 -11 -16 3 -4 -3 7 -18 3 -17 -17 -2 -3 3 15 -7 16 -11 -17 -3 -17 -5 6 -22 -3 -11 -24 -3 -5 6 -6 -2 -1 7 -2 -17 11 -4 -14 -21 -13 13 -3 -17 -21 -11 9 -4 -6 -21 -14 -7 -7 5 14 -20 8 -17 -15 -11 -7 15 -18 -12 -14 7 -3 -2 1 10 -14 0 7 -12 -4 -17 21 17 -8 -2 -6 -13 -4 7 -7 -6 -19 -7 4 -27 -7 8 14 -5 3 -41 28 -7 -8 6 7 12 7 -16 7 -19 4 -13 18 -26 7 -9 -20 14 10 4 -1 3 4 19 -17 -6 7 6 -3 15 -14 -9 -5 -20 -14 -11 9 -8 -8 -7 -1 -4 18 3 2 0 23 19 11 10 6 -16 -27 9 -6 -3 -5 7 17 4 7 -3 -18 -14 -2 -4 7 -8 -4 7 -18 25 -17 9 7 -29 -6 17 13 20 -6 6 -5 25 3 -8 -7 -2 17 -17 -14 17 -17 -3 -13 -6 10 -2 5 6 17 13 3 -23 -15 -4 -24 0 -7 10 -6 -8 3 -3 -7 6 3 4 -7 1 14 -10 6 -15 -8 -20 9 14 -21 -9 -12 11 3 10 5 14 8 -9 7 8 -20 3 15 -4 -20 -6 5 21 -17 7 -6 11 -3 -7 10 1 -3 -1 -9 -25 -18 3 3 14 -19 -10 11 3 -13 -3 14 -11 -2 -3 -3 -2 -1 -9 7 -21 -3 -7 -15 4 -8 3 -9 6 -2 -10 -2 16 4 -5 -5 5 -3 24 6 3 -7 -9 10 5 8 -13 9 7 10 -25 -10 -8 -11 17 6 5 -18 -10 4 -5 -4 -28 23 4 -12 -3 -21 3 2 20 -10 22 3 -11 1 -15 -8 -3 -9 -15 -13 -9 14 -17 -10 -8 3 17 -5 -7 10 5 3 7 -7 6 -3 13 -2 -15 -8 10 -6 5 6 -14 -18 -7 4 7 -7 -2 5 -20 15 3 -14 -10 -5 12 -19 -3 -20 18 -3 -2 -9 -16 -4 7 3 9 -2 12 -12 -7 -8 -27 -13 3 -6 -22 -15 3 14 3 10 13 -3 2 -19 3 -34 -7 -2 -3 -5 -8 -3 19 6 4 9 -33 -2 -10 -6 -2 8 -7 -7 7 4 18 11 3 -17 -6 6 -21 -6 4 10 14 -7 -3 7 12 6 -27 -7 12 22 14 -19 11 5 8 9 9 -5 -3 -6 -22 3 -17 4 2 -16 -13 3 -4 -1 -3 -10 -29 -6 -9 -7 -11 3 -15 17 -24 13 24 2 15 9 -7 4 -6 -20 10 5 -10 20 6 -6 -3 -20 -1 -34 3 6 32 -7 10 28 -13 9 5 -7 -5 -26 -20 -24 -3 -17 -8 -9 -5 3 24 3 -3 14 -4 7 -6 6 -8 -21 21 -7 20 -16 -3 -4 -8 6 11 10 1 4 3 7 -22 -7 -10 -5 7 -6 20 3 7 -12 14 -7 -36 -27 -10 -1 -3 7 -4 3 3 2 6 11 -3 -10 -17 -24 -4 -17 -7 -6 -26 10 3 1 -7 -6 14 -1 -2 -8 18 13 6 0 -7 24 4 20 13 -3 2 -23 -4 -12 -4 -3 5 -11 -11 -35 2 14 4 -7 -15 -14 6 -4 -17 2 18 10 -9 -13 10 13 -17 -16 13 -4 -11 11 22 -22 -17 -8 -13 -3 3 5 -26 9 6 5 -18 -10 24 11 -11 -3 -1 19 -20 -1 3 -12 -10 -3 -13 3 5 -17 6 -6 3 -1 -5 2 2 6 11 1 -7 -3 3 -7 -10 -3 11 -3 -14 -15 21 -16 4 2 3 7 -14 7 3 -4 10 -31 17 -2 -2 27 12 -2 -17 -20 -7 13 -8 6 -14 7 3 7 19 -3 -8 -33 11 -10 -5 -15 -5 -16 -6 -9 -9 -5 7 -13 -12 -1 3 -1 -14 6 7 -11 10 3 -7 -1 -14 -4 7 -3 -17 -14 -11 6 -10 3 18 38 -6 -3 -6 8 20 7 5 4 14 -8 -3 28 -9 -7 10 16 6 1 -18 -18 6 -7 -6 3 -3 7 7 5 -9 17 -2 -3 -14 -21 -4 -2 -7 2 -2 -1 -4 -11 -5 -2 6 -3 16 -16 21 -14 -3 7 -14 -4 5 -31 -3 -18 27 7 -18 -6 -17 -21 -14 -13 6 17 -9 -6 10 -28 -17 -30 -7 -9 -11 -13 -2 -3 6 32 36 -7 3 2 3 4 -4 -3 -12 28 -7 -10 -26 0 -14 6 11 -5 -4 -3 -3 6 -3 8 -6 3 -7 7 19 -10 -27 -15 3 -27 10 6 16 3 14 -11 -14 4 14 -2 -20 4 -2 -3 14 -4 0 12 15 -24 3 6 3 -2 -8 13 2 -14 -7 -13 10 -12 -13 -31 3 -5 -6 -14 6 6 7 4 7 11 15 8 -6 -5 -8 18 -14 3 -2 4 -8 6 7 7 -23 3 1 -8 28 -3 -11 6 7 -7 -8 19 -8 -11 19 -12 -18 -17 -2 -4 -34 3 16 -25 -10 -20 -1 -3 1 -6 43 6 -1 2 -14 -20 0 7 14 -11 0 4 15 -28 -7 -13 -7 -10 -9 -3 9 8 -1 17 4 -3 -15 -1 -4 -10 -25 -11 9 3 -21 -12 8 -15 -1 -3 5 13 8 7 13 1 7 4 21 -19 3 -3 6 8 11 -6 -1 3 -3 -15 -8 10 21 -2 4 -3 16 -11 -1 13 -6 -20 3 -6 7 3 -16 -5 -11 -14 3 4 14 13 0 -10 5 11 -7 10 -7 -8 11 -17 -2 3 6 6 0 11 15 -16 -17 12 -10 11 4 -8 9 -2 -1 3 -5 29 4 7 6 12 4 7 4 -8 7 5 20 3 3 -4 -2 15 1 8 8 -1 17 -3 -16 -6 -5 -21 -6 4 3 -14 32 8 5 3 18 -1 18 -11 6 -14 10 -3 3 -18 5 -1 -3 2 -10 3 -6 10 -14 0 -7 -16 -12 22 7 4 -25 2 19 -3 -3 -14 5 -4 5 18 18 -6 10 -10 2 2 2 -26 -1 14 -6 -24 -2 3 -7 24 18 -23 -10 7 4 11 -1 7 -24 14 -30 -2 4 -18 7 3 -3 4 4 6 3 -29 -11 0 -20 2 4 -12 -1 -8 -26 2 8 -14 11 -2 -10 17 -20 -18 2 -16 5 10 2 5 -13 -13 3 -7 -3 1 -24 9 -8 3 18 -7 5 -8 18 10 23 3 -11 25 -10 14 8 -17 -10 -19 8 5 5 4 -10 -19 -10 -4 11 14 -17 -4 11 10 8 -8 -2 -6 8 -23 -20 7 27 -6 7 4 4 0 -23 -3 3 -17 -32 20 -17 4 -2 -15 -9 -7 3 -3 -4 -18 3 -30 3 -6 -3 -5 -5 -7 -20 -17 3 -10 -1 19 -5 3 -20 4 4 25 -2 -3 -3 25 -8 18 -20 -2 6 7 -4 -10 14 -14 19 -7 8 5 4 7 -14 -9 6 6 -3 -21 -4 9 -3 -29 10 -3 -18 5 9 -6 -32 20 -3 1 3 10 -35 -24 19 7 -6 28 3 -17 -3 32 3 -2 7 3 10 -14 -10 -25 -21 -13 -14 4 6 6 -5 -12 -14 -13 -14 -4 -16 11 -7 15 -12 -6 -3 -5 14 4 7 7 -6 -14 6 16 15 -3 20 4 -10 -4 -1 -8 -21 -32 -3 4 -1 5 -3 -8 17 -6 21 -13 28 16 -14 22 -2 -11 -14 -4 -20 -12 -3 14 4 25 40 -3 3 3 -1 8 -18 6 -5 -6 -13 -5 -3 7 -7 -6 23 20 -17 -6 15 17 -15 -5 15 -11 -1 -6 -10 -2 -14 23 -7 -11 -7 -5 -4 -24 14 -8 -11 -6 -10 3 -6 -3 35 -6 21 -7 5 15 -5 3 4 -3 7 8 -3 -30 18 2 11 -8 3 -19 7 -13 -9 -3 -4 -8 -9 -15 8 -13 -4 -11 17 10 -7 -9 -3 -18 3 -24 4 10 -2 -6 -1 5 3 10 -3 10 -13 31 -7 -5 -17 1 12 -18 3 -9 3 -25 -13 12 -17 -3 -24 -18 -18 17 10 -21 -24 3 7 -5 1 5 -9 -3 -7 7 -31 3 -3 12 15 -7 -8 -18 -9 4 40 17 -16 3 11 3 7 -4 -7 13 7 3 -22 -3 -7 -22 -11 1 1 24 1 3 -7 1 -8 8 12 6 -8 7 17 18 27 8 2 -6 -10 4 13 9 -17 -3 6 -20 1 13 3 -13 -32 32 -3 -2 7 6 -18 10 2 -12 7 7 -23 -14 -7 -5 -11 -12 -9 11 30 -17 18 -4 10 7 -25 1 16 7 -13 3 -15 -5 -7 -30 -9 4 -15 -8 5 -31 4 -24 -3 1 -5 -4 10 -7 1 -23 -11 11 -9 10 -15 13 6 3 1 -3 6 14 -14 18 10 -1 17 -24 -5 6 14 19 -44 -16 3 -17 9 3 11 -6 -7 3 -3 -15 -6 2 -17 12 -7 14 10 -23 20 -15 2 6 9 14 -7 -4 -6 -14 -16 -5 -3 20 -3 9 -6 -3 14 -4 -39 -20 4 8 15 13 -11 -3 5 -3 10 14 -14 -11 -17 21 -26 -24 31 3 -2 -20 -3 3 -4 -3 -9 16 4 -7 -6 -22 4 -7 -2 -3 -12 13 3 -14 -3 -14 7 -9 4 -3 10 6 3 -27 5 -3 -4 3 -10 -9 37 1 -3 -3 -7 -9 2 -7 12 27 -7 -3 -2 26 -4 14 6 28 -3 -3 -17 -11 -5 -7 14 -7 6 19 -27 13 -3 9 -6 9 -24 -28 5 -14 -14 -15 -15 -7 5 -7 -8 17 -18 -6 -18 -17 27 -21 -17 -10 -3 -16 -14 -14 8 -4 3 -8 11 -1 -23 6 -22 3 -1 17 -25 -9 -12 7 8 24 -25 -14 -4 -13 -6 -13 17 -30 8 -14 -16 8 3 -3 24 1 7 -19 -3 2 -3 17 -5 10 -3 -9 -17 -3 -18 -7 -12 -4 -14 10 -10 21 21 6 3 -27 -10 -5 13 -3 6 -11 15 11 -6 -27 -6 22 -23 7 -17 -2 -16 -19 -14 12 10 -4 -41 -10 12 -5 -3 -2 21 29 -18 -31 -6 -16 26 -3 -7 -1 -11 -2 3 3 -11 -9 3 2 3 14 14 -28 -7 17 -23 -20 -15 -7 0 7 7 -6 -5 -20 14 -32 -10 -9 7 -3 3 3 15 5 14 -20 5 6 10 3 -18 -4 22 15 -18 -11 -3 0 -6 3 -7 -5 5 3 -29 8 3 12 18 -18 -18 -21 26 -5 -9 -4 -10 4 -1 -14 8 13 -3 -24 6 -8 -10 6 6 -6 4 0 -3 -20 3 -4 -21 -3 -7 -3 -2 15 4 8 7 -10 16 -4 27 24 9 -3 10 -9 4 -11 -10 -7 7 16 -1 8 -7 -4 1 -6 3 3 -7 -22 -26 21 -8 9 -3 20 11 -34 13 -3 3 -4 -17 -7 -7 1 -24 17 -17 -3 20 3 -6 -6 3 -8 3 -19 16 10 -17 6 24 3 3 -15 11 5 -5 -2 -6 -3 -34 7 -1 -22 3 -6 3 6 13 -1 -9 -3 -6 -9 -16 -3 -13 1 -21 -2 6 -4 2 11 7 1 3 6 14 -9 -3 -2 6 13 -3 -18 -2 -7 -12 -3 -14 -27 -21 -1 2 -5 -20 5 -13 -9 -11 -2 -13 -6 10 3 3 0 6 4 4 -5 -15 -4 3 5 -24 -18 -28 17 4 -3 3 9 -24 -29 -23 -6 -6 -38 6 8 -3 7 -8 5 -10 9 -14 -5 1 24 4 22 27 -7 -1 -8 1 -10 -9 4 -3 -10 -4 -5 -13 -1 -11 11 -3 15 35 -28 3 -20 -7 21 -10 -6 -5 4 8 -5 3 4 3 1 -3 13 28 9 -4 17 -28 4 -5 -35 -23 -8 -16 -7 7 -19 -13 -1 -17 -3 -3 9 -12 -15 24 -3 -6 -23 -27 7 -2 47 7 8 -13 16 -12 9 11 -13 9 -9 1 -13 -22 4 3 17 5 -24 8 -10 10 37 -23 -5 21 -10 -26 3 10 -17 -13 7 3 3 -4 10 -12 6 2 -27 21 1 -5 -17 4 -18 -11 -14 -2 33 -5 -2 3 -3 -7 -7 -6 -27 16 11 6 18 11 -14 -19 5 2 7 -2 7 -7 -6 -7 -21 -4 -3 -17 -8 5 11 3 -9 8 4 -22 17 -33 -8 21 -6 -11 3 -9 -3 7 2 12 6 4 1 10 3 10 17 -3 4 7 -1 -3 2 -4 7 -8 17 4 2 13 -14 -7 -10 -5 4 3 -3 0 -11 3 -17 -3 -6 -9 6 -14 1 3 7 -7 -5 -4 -3 7 3 21 5 -10 -11 -26 -10 6 -9 7 10 11 -12 -4 -3 1 8 0 -4 -3 7 -25 3 -14 0 20 -14 10 4 8 -11 1 4 11 -12 2 -21 -28 -7 -5 7 3 -7 12 4 -18 -17 -16 -17 3 3 -11 -13 -4 7 3 8 -3 5 -6 -17 5 2 -12 -5 -2 -3 -19 8 -20 -12 -4 -7 3 20 14 -2 7 -9 11 -15 -6 -5 7 -2 -22 -10 -4 4 4 29 -3 -1 8 -3 -9 -14 -21 6 14 3 3 -13 -3 2 12 -7 3 8 -6 8 3 -3 4 5 -6 3 -4 2 8 21 -14 -8 17 3 14 3 -5 -25 -10 -11 -21 -22 3 -6 10 -8 -5 10 -3 13 20 -17 8 -6 -3 7 -13 -17 7 3 8 -3 3 7 -27 -14 -9 13 1 37 -1 -31 -17 -5 -11 -6 -12 -7 6 3 14 17 -3 -4 3 -7 -25 3 -6 -11 -10 12 -16 -9 1 31 7 -17 -11 30 -3 3 -4 3 6 3 -6 11 -20 3 -28 -7 -13 -21 6 15 28 10 3 -14 8 1 7 -4 5 -18 -3 -6 10 10 3 -6 -1 21 3 3 -3 -10 7 7 13 12 17 -1 -5 24 17 3 -3 -9 -7 -6 -20 -3 -6 3 -8 4 16 6 -3 10 5 8 8 -14 -20 14 3 5 -4 10 -1 6 6 -1 -3 5 -9 4 -4 -14 17 2 24 7 20 23 1 -26 -9 -7 -6 17 15 3 -25 -3 -24 -15 3 11 4 17 -12 -3 -8 -6 -8 -2 -11 -4 -5 6 8 -14 5 8 -7 7 -32 -5 2 -8 -3 -14 -18 7 -12 -7 -18 -3 3 -4 -6 7 12 6 -5 -3 9 1 10 3 7 4 -6 -3 3 -3 -11 9 -3 -6 4 5 3 15 -11 6 -11 -3 -9 -12 -1 -13 -6 9 18 3 5 -3 -10 17 -17 -2 -3 -24 -18 -11 24 13 -3 -3 -17 18 5 7 15 -21 3 3 7 -11 -5 6 -8 -5 -3 -8 -7 -15 -1 1 3 7 15 15 3 2 -19 -13 -8 -7 4 -4 -22 9 -22 -8 -2 10 -21 -9 4 4 18 -2 9 -15 -13 -3 7 -17 -3 -1 -8 -7 7 6 13 -32 -17 -14 2 -5 -11 5 3 2 4 7 -18 3 10 -3 14 -11 -7 -3 2 -6 -11 17 25 -7 3 3 5 -3 3 1 -3 -34 -4 -5 -13 -5 -7 3 25 -3 -3 6 -13 -26 -10 -7 -21 -2 25 23 -22 4 7 -3 -6 -14 -18 -3 14 3 -3 -3 5 3 -8 6 -3 6 -7 28 -4 2 4 3 3 11 19 -4 26 -7 -31 10 -3 4 7 4 11 -16 7 -16 -7 -10 10 -8 0 -17 3 -29 9 -14 -31 17 -4 12 14 -4 9 4 -17 -7 6 18 -42 -3 -38 -10 -9 22 -17 13 -4 8 6 -12 4 -14 -7 1 -7 -16 16 2 10 20 -17 -7 -17 -3 3 4 19 13 -10 -14 -15 8 -20 15 -2 16 -17 -3 11 24 -6 -20 4 -27 -7 9 15 -16 -3 -16 3 9 3 -30 14 3 -2 7 -7 6 -7 11 -9 -3 -9 -7 16 8 10 8 -10 3 3 -27 15 -11 -8 -14 13 -14 -3 -13 22 -14 7 3 -3 3 7 -17 -3 13 9 -3 -19 -4 -2 -28 2 -14 -10 5 -10 16 14 -2 -6 10 -20 19 -12 1 -3 -6 -7 14 -25 -27 -12 -19 -2 3 -4 -6 -5 -3 -1 -12 -6 5 -6 -7 -13 -18 -8 -9 -7 28 -3 10 4 -7 14 13 -22 -15 -27 7 3 -8 -13 -19 -15 4 -7 7 1 -14 3 -3 -26 -29 -6 -3 -3 -6 -4 10 8 -7 -14 -12 4 -22 -16 -25 5 -6 19 3 -17 4 -9 6 -10 -15 -12 -1 -4 -10 12 -7 2 -9 -9 -3 2 -11 11 14 -3 1 -11 8 -8 -7 -3 4 -16 -14 -14 -7 3 4 -5 14 -29 10 -25 -10 -10 -4 6 10 24 3 -10 27 -6 -30 24 7 8 -11 1 -8 8 1 2 -7 -10 29 -3 -17 -29 -14 -17 0 -26 7 -2 -17 4 10 -24 -28 -19 3 -10 15 6 -22 13 -40 -4 -20 3 -2 15 6 -5 -18 7 -17 11 -5 -10 2 -1 10 3 17 -6 -8 -3 -32 -1 -7 -6 7 -3 22 -9 -3 10 16 -5 -23 -20 -27 16 19 -15 17 -25 19 3 -24 -19 3 1 -14 -6 11 9 11 5 -3 1 -10 -14 6 11 -4 -3 -9 17 4 4 -18 -41 -27 1 -17 -7 -16 13 -16 -2 -5 3 -4 -7 -15 27 -17 -13 4 6 7 -5 1 3 -17 -8 9 5 -18 6 32 9 -15 -3 -8 3 -9 -6 -22 20 -12 -12 -7 -24 -6 -6 -4 -19 11 14 -6 17 11 -3 -12 -1 -9 9 -23 -25 15 -11 8 -23 -17 -7 -11 -14 -6 -6 21 -18 -8 -25 -12 3 -23 -21 11 -21 17 -13 -26 -8 5 5 -8 -3 -17 16 -5 -6 3 4 -2 -5 6 16 4 7 6 8 -28 12 -6 -15 -5 6 -14 -7 12 -16 -8 -6 -9 -12 17 -26 -17 -14 20 -10 10 3 -16 -14 -2 -1 -3 -8 -8 5 9 -14 14 7 -22 -2 -1 7 -8 -13 -3 3 -11 -8 4 -16 7 3 -17 -18 3 -10 -15 -21 -14 3 -5 6 -3 -1 7 7 -16 -9 -20 -4 -3 -3 -18 -2 6 20 -3 -35 -3 8 -9 -1 4 -28 14 -6 -7 -13 -7 4 20 -16 3 35 4 -3 -4 -17 -29 -5 -6 12 16 -11 8 -7 4 13 6 -20 -2 10 6 -6 -9 3 7 -10 4 -24 -14 -2 -11 -15 4 5 -5 -8 2 -12 18 4 -4 -9 -9 17 -9 5 -1 -20 20 -3 -11 -17 7 -18 -8 1 12 2 -6 -3 3 -25 -22 -13 6 -3 -14 -10 8 -10 -13 7 -18 11 17 -3 12 -22 -15 14 3 -12 -8 -17 -9 -8 -13 -10 4 11 0 -4 14 -10 -4 -7 -4 8 -3 8 3 -15 -26 11 -12 -5 34 -27 14 13 -3 -27 6 -8 7 -3 6 -7 -7 21 3 6 24 8 -3 10 -3 13 -9 -7 -6 -13 6 3 3 5 0 -3 -2 3 -14 -6 -4 7 21 -1 -27 6 -13 -11 -37 7 -3 -6 22 -3 -13 6 -4 3 9 6 1 8 3 -52 2 3 7 -9 -2 -8 -11 -10 -20 7 -11 13 -6 -12 24 16 0 18 -6 6 8 -34 -7 -1 -3 24 -31 2 18 2 -6 3 -4 -4 13 -13 -6 17 10 -17 7 -23 4 -9 4 -14 10 27 10 -28 8 -25 -15 10 -28 -8 -8 -2 -14 3 -6 -12 10 -4 -8 -3 -8 -3 16 32 1 -40 -4 8 2 -10 -14 -15 -9 -9 4 6 6 5 3 6 7 -12 -3 5 -2 1 -8 1 17 -3 4 -19 13 -3 3 6 5 1 17 -11 10 -5 -7 -3 -13 -11 -14 3 -33 8 -20 4 -10 4 -3 -10 -16 -14 -4 -14 21 -3 6 1 -5 -17 -24 -9 -4 3 -3 14 3 -31 -18 3 -2 9 -3 -6 -5 -3 -8 16 -11 -24 2 -2 -3 3 -14 7 -4 15 7 -8 -12 8 14 14 -3 27 3 27 18 -28 22 8 -3 -18 -8 6 -6 -7 5 16 -4 -24 -14 6 -2 7 3 2 -1 -9 -5 3 4 -8 10 11 4 -5 -3 2 -6 -3 1 2 -28 5 1 -9 -7 -19 3 6 1 -8 24 -20 5 -3 7 -15 -5 3 9 4 9 -6 -13 18 35 -24 -28 -7 -10 5 7 -18 3 -10 -30 14 -20 9 3 -6 -5 6 -11 6 -12 -35 -7 -22 -16 -17 -8 -3 -11 -3 -22 7 -27 -7 4 -7 2 -14 8 -10 24 7 8 28 -3 -6 -15 -4 -5 22 -4 3 -21 -3 3 14 -6 -14 3 -3 -8 -18 -8 -6 3 -17 3 -25 14 1 10 3 -3 7 -6 2 3 -15 -3 -2 9 5 1 10 -3 -6 11 3 -7 6 -3 18 7 -8 -15 22 -8 -7 5 -8 -15 16 7 -4 -7 0 3 3 -26 -2 9 -5 -33 -7 -31 10 -3 12 -25 2 -3 -6 -10 -27 12 3 -5 10 -6 10 -10 2 -30 -18 5 17 -3 5 1 5 -8 -1 20 -13 -14 11 -18 -6 6 -17 3 -6 7 -11 -16 19 1 -24 15 19 -1 4 -15 -19 -17 -10 -10 17 -7 3 -5 -29 -7 -11 -11 6 -3 14 -3 -13 -11 3 -24 4 13 3 9 24 3 -8 -3 -12 -3 14 22 -5 -3 -18 -18 -18 6 -17 -4 -3 -14 -13 6 8 4 -3 -7 -6 -11 -6 31 4 -4 -13 -10 16 -19 10 -7 -18 -4 14 -21 -18 7 -28 14 10 6 -5 -6 1 -23 -12 -2 -7 -17 -36 3 18 9 3 -3 2 -3 -6 -14 8 3 18 -11 -1 -4 -6 -10 -2 -24 -3 12 -21 14 9 10 -3 -6 0 -34 -27 -24 -13 -27 -13 -1 7 17 -14 -3 -3 -9 3 -3 8 -27 -6 18 16 3 -28 -11 -11 6 6 -15 3 -31 -21 3 -1 6 -8 17 -3 6 -5 -7 5 14 -8 3 -8 -7 -7 -14 -2 -13 -10 18 -11 13 2 -4 -28 -6 -17 1 -7 3 3 -4 -22 -14 0 12 -7 -8 -4 -8 23 -11 27 -3 -20 -7 -13 5 -11 -19 7 1 -18 -9 -1 -24 3 -2 -8 3 -16 -8 3 -23 2 -7 -7 6 -3 -12 18 15 7 -24 -3 -14 6 -10 -9 -14 21 -7 5 -1 3 5 -10 -21 -5 -7 3 -5 -3 -7 25 -7 -9 11 -5 13 -5 3 3 -3 -23 -8 -27 -3 -27 14 6 -1 -3 -2 2 -7 6 -27 -21 0 -21 -7 -3 -14 4 -9 6 -11 9 -8 45 -6 2 2 24 3 -22 -7 -27 -18 -18 -7 3 13 -5 4 14 -9 -4 4 5 16 -21 3 12 3 -8 4 -14 -11 1 7 5 -5 6 3 -7 7 -3 -3 1 -10 -26 0 37 4 -15 25 -3 21 -1 11 24 -14 11 4 -9 -13 10 -10 -18 14 6 10 4 -24 -7 -17 -7 11 -4 -17 -9 6 -4 -6 -21 12 -5 5 10 3 13 -26 1 -8 -4 -10 14 -3 14 -21 -10 -24 -7 -8 1 19 -18 10 20 -31 3 1 6 -8 -7 -3 7 -20 11 -28 -17 -11 -9 -7 11 17 12 10 -2 -13 -10 3 3 2 9 -20 0 -7 -3 -3 -17 -9 -20 -10 1 14 -8 -3 1 -4 15 10 4 -13 3 3 -13 -9 -17 -3 3 -5 -22 -9 4 -11 -28 -26 -28 -8 -8 -2 6 -14 -4 -7 -11 -24 -7 9 -7 15 8 -3 24 3 -4 -6 -3 -14 5 -14 3 17 -3 -31 -1 2 7 4 -11 -7 3 14 -6 -2 -22 -10 -12 -11 11 -7 -17 -1 6 -14 -17 3 -22 -4 -9 -3 -3 -1 -9 20 20 -17 -14 24 9 -7 -9 10 -14 -4 -14 -15 7 -13 -16 -9 -31 2 -24 -3 2 3 -31 4 -6 -15 -24 6 -8 -2 5 3 -5 3 -36 -5 3 -16 8 -15 -6 7 -25 -17 -10 -20 3 -15 12 -9 -10 -7 4 -29 -6 -6 3 7 -7 -41 10 0 6 12 -4 -3 6 3 6 -22 -2 4 -19 3 14 -4 -4 -17 13 7 5 13 3 14 3 3 17 -32 7 -27 3 -29 -25 -1 15 1 -7 -17 8 -21 -22 -3 3 1 -7 -17 -30 3 -7 1 -31 -1 16 -3 21 -6 -3 6 1 4 -20 -16 8 -18 -25 -2 -17 1 -21 3 -6 8 -16 15 19 -6 -1 22 4 8 -8 -3 3 17 -1 7 10 -3 13 3 14 -13 -5 -14 -17 4 -4 -3 -35 7 -25 6 18 10 -4 3 -6 18 6 15 3 23 -3 -7 -13 6 -14 -3 10 -6 -22 -20 -3 8 3 2 15 -11 19 -3 -1 7 -4 -16 -3 14 -7 3 -8 7 9 -6 -7 -14 14 -3 -9 -6 17 -4 4 -8 5 20 -10 2 14 -16 4 6 5 -13 -17 4 -2 8 -16 -8 -22 -6 -5 4 8 -30 11 4 4 3 -17 10 3 10 -22 -7 -19 3 6 28 -14 -7 -3 -21 -21 -4 7 -15 9 6 -17 -7 6 3 -4 -3 5 -13 -4 -14 -20 -9 -9 -7 -17 7 -38 1 -6 14 -12 -22 -1 3 14 1 12 9 -3 6 -7 3 -4 4 2 -3 -10 23 -8 -10 -20 -13 3 -17 -8 3 -12 4 -14 11 5 1 -3 -18 10 3 -22 6 -27 3 -29 -7 -18 7 -4 -20 2 -4 -3 -3 -13 3 -7 6 6 3 10 -3 24 6 -6 -3 -3 -27 -8 -7 -2 -9 -10 2 -7 -19 5 15 5 -29 -1 -9 3 7 -2 -10 -14 18 7 1 -17 7 -2 -3 -14 -24 -10 -14 -2 -6 -1 0 -30 -6 -6 -2 -13 -11 13 4 5 -3 -23 -13 12 -4 -2 -13 -6 2 -1 -3 2 1 12 14 -7 -3 -6 -6 6 -16 7 -12 -1 -14 11 12 7 6 -14 -4 -1 -9 3 3 -7 -7 -1 -7 -9 12 -3 0 -24 -14 -4 -4 -5 -8 20 -25 -9 -4 7 3 4 -14 -14 4 -6 4 -14 13 2 7 11 -7 -11 -21 4 -12 -7 -4 15 -10 6 5 -24 10 -10 6 -30 -11 17 4 5 15 -14 -8 8 3 -5 18 8 -12 7 -11 -15 -1 4 6 -13 -4 -14 16 -9 -4 3 -3 -8 -14 3 0 6 7 -3 2 13 -6 -3 3 -9 -3 2 8 -13 -16 -18 -4 7 -5 4 -9 -8 -11 7 5 -15 -11 -27 -4 6 5 -6 -21 -8 6 -7 10 17 -3 -9 12 -19 -4 3 -3 4 -8 0 10 4 11 -3 -7 -24 -3 7 18 6 3 2 -16 5 15 -1 13 -7 -6 7 12 8 13 5 -7 3 -8 10 -16 -11 20 -5 -1 -9 -3 3 -14 18 -2 -25 -14 -21 -8 -10 -12 14 6 -10 0 -19 13 -18 -5 -2 12 -17 -7 -2 10 -7 -3 -14 -1 26 -11 -6 -15 -7 8 13 3 -17 13 -17 -11 7 -3 15 8 -4 -15 -10 13 -2 -2 -1 -28 3 3 -14 -4 3 10 -14 -14 -6 -3 10 -16 -25 -3 -27 -3 11 22 -21 5 -1 15 -7 -3 -21 -7 -8 -11 3 -3 -3 13 4 -14 3 -3 -29 -14 -4 -2 24 -1 -24 4 -17 10 -12 -10 -25 -6 3 1 -15 -38 6 -5 22 7 10 -1 -7 -3 1 7 -9 1 -11 -5 10 -7 -1 3 -13 -12 17 -8 18 -11 9 -1 3 -7 -11 -25 4 14 6 9 26 -7 1 10 -10 2 -28 -13 0 3 8 -6 5 -20 6 6 17 1 3 -10 9 11 -13 -3 -3 -9 -5 -3 -7 -2 -10 -27 16 14 -17 -17 5 -26 -8 -6 -19 -13 -5 3 10 13 -22 -13 2 6 13 10 1 -7 -8 -7 -3 3 4 -11 -4 3 37 -6 9 -7 -21 -22 -21 7 -5 -23 -3 2 -3 28 7 -16 2 19 -7 -13 6 -17 -28 -21 29 -20 -3 -23 -7 6 -32 -33 -23 -31 3 -9 -5 -13 8 -8 7 16 13 -3 -1 7 10 -14 -3 17 7 -20 -8 -15 -3 -31 -5 6 -2 7 -3 -7 9 7 -5 -17 -3 -16 20 2 -5 -22 -25 -14 13 -4 -18 5 -7 -17 -19 33 -3 14 -11 -14 6 12 -16 -35 6 17 4 -5 -6 -3 3 -10 6 -9 10 14 -7 -4 5 -10 2 -14 12 -4 -3 2 -9 -28 3 3 4 4 -11 -8 -24 -27 -8 -3 16 -16 -17 -5 16 -4 -5 -17 7 -3 -2 -12 -3 12 -17 10 -3 -31 3 1 -20 -20 -21 -6 -7 -6 8 3 8 30 14 4 -32 -5 -3 4 5 15 1 16 -7 -3 -3 -4 -17 -25 -3 -10 -5 -28 3 3 5 -9 4 -19 23 -8 5 5 -3 6 7 6 14 -11 2 -18 4 7 9 -7 -6 -6 3 -14 -7 11 14 -6 3 -18 10 -5 26 -6 20 -24 3 -9 -41 -7 1 -2 -4 3 -3 -17 -5 -7 10 -4 18 3 -13 15 -6 3 -3 3 6 -10 -7 -11 -6 10 -3 -8 16 6 -7 8 6 -37 -13 -7 -11 3 14 12 -4 -16 3 3 -4 6 -1 -4 -9 -14 -3 1 -20 10 21 -16 9 8 -10 10 -10 -6 5 -12 -11 18 3 -21 -25 -6 10 -6 -7 3 -1 6 -14 2 4 -22 -14 3 6 9 4 -23 17 -19 -17 -16 10 -3 -5 -13 2 -2 10 12 -3 -6 7 -11 3 -7 -24 4 -3 0 -17 -38 -9 -8 -32 -18 -7 -10 -7 -14 13 -9 -22 15 -8 -11 10 17 -11 10 25 14 5 3 -3 2 -6 -6 3 2 3 -11 10 -21 8 -16 -3 14 -2 23 9 -3 3 3 -14 -3 -2 18 28 -4 -5 4 13 7 5 2 -21 9 -17 -13 -28 -9 -1 3 8 7 -12 -3 -7 -8 -14 11 3 -8 -10 18 -10 -2 -14 -7 -13 -4 -6 -12 -5 11 -5 -3 13 -5 -3 -25 2 -3 9 -11 -21 4 7 2 -13 6 3 9 -18 4 4 -24 -11 -15 -2 -10 -3 -7 -5 -8 4 -2 0 -34 -30 14 2 -8 15 -15 -3 6 -5 -3 3 -4 -4 6 17 -13 -8 -6 -16 33 4 -4 -19 -10 6 -18 -12 4 4 -3 -24 -4 -4 -16 -4 5 1 -14 -3 0 1 -5 -32 -6 -14 3 10 -4 -4 11 4 7 -11 11 3 8 -7 -12 -11 -19 2 3 -2 -2 -24 -23 -10 7 -3 -4 -6 -7 -3 -7 -2 3 -5 -3 -15 -11 13 -9 -6 -13 3 6 -11 -5 4 -3 27 -18 -10 5 11 -5 -14 37 7 -17 -33 11 -1 -18 10 -20 7 -12 -4 10 10 -10 -6 -22 -18 -2 20 -1 7 -7 -22 -26 27 14 -7 -6 14 4 -10 -3 -4 11 -11 -6 -3 -1 3 -27 -14 -8 4 -2 3 -10 -4 -3 -18 3 -1 -14 7 -6 3 -5 -10 -6 -6 -3 -15 -7 3 9 3 -4 7 12 -20 -31 -3 21 15 -3 -9 3 19 -36 -12 -7 -3 -1 -3 7 5 -13 -7 3 -3 6 -7 -10 -11 -3 -22 -3 -10 4 3 2 -3 3 -7 -8 -10 -10 -4 13 -22 11 14 -17 32 3 3 -14 -38 22 -21 -18 -10 -4 4 -9 7 7 -7 -7 13 30 8 -4 3 -7 -19 14 19 4 -7 7 -3 17 10 -3 -3 -25 -10 -31 23 3 17 -1 2 -15 -31 -11 1 3 14 6 3 -8 9 4 15 -3 6 0 -21 -5 7 -18 -19 27 -1 -3 6 3 -14 -6 0 10 -26 6 -13 -10 -11 -13 -9 17 -16 2 -17 -28 2 3 -15 -4 9 -4 6 -11 6 -7 8 -12 1 -3 7 -6 -6 6 -4 -11 8 -15 18 -13 -3 -13 -18 15 -4 -7 14 -27 5 7 -17 -8 38 -8 0 -10 -3 11 -17 3 3 6 -3 -3 6 26 -4 -4 -14 3 -14 9 -4 -10 -3 -3 7 -16 -6 6 -13 3 5 -16 -31 -10 -11 -14 -7 -6 -24 17 -20 -17 -5 -34 -3 3 -2 -3 -6 -2 -6 16 -14 -5 3 8 -15 -9 -15 -3 16 6 5 -4 -4 -17 -1 -6 -19 -3 3 -6 -6 14 -1 -15 -3 -2 -13 10 4 4 -7 -17 -16 -3 14 -10 -21 15 -3 1 6 -6 -21 7 9 6 -30 -17 6 6 -2 3 -6 -3 3 6 6 -12 -6 -7 10 -14 18 17 -37 -13 -3 -9 -25 -18 16 -12 -7 7 13 -8 11 -6 -18 -6 3 1 -8 -9 6 -7 2 -19 -29 -7 -5 -8 10 3 -3 11 6 -21 7 -7 -4 10 10 28 11 -1 -1 6 -1 28 -10 -10 -6 -10 -11 -4 -33 10 -9 7 1 3 7 1 -1 31 3 -17 -11 20 -7 -17 -14 3 14 4 10 -2 10 -8 -16 -5 -25 6 -23 3 -6 -20 3 -1 -3 -7 8 9 17 -45 -14 -14 -8 25 -6 10 -1 -3 -18 -2 -3 -9 -3 3 -2 -16 25 -7 3 1 4 -14 -2 6 -11 -10 6 -22 -6 -14 -17 3 7 -10 -20 11 -28 -13 -18 -13 18 12 -15 20 4 -7 -23 7 12 -18 1 17 -31 -25 -8 10 17 -10 -17 -23 -6 -25 4 -17 3 1 1 -7 -6 20 -6 -4 -24 3 -6 -8 -16 -2 30 -8 -21 6 -3 -10 10 -2 13 -22 -14 -13 8 -27 -7 -6 -3 16 9 -3 -2 -2 13 -10 -6 6 1 -22 -5 -10 1 -15 10 -12 14 8 -2 10 3 3 -6 -31 24 15 7 4 -10 -10 16 7 -3 -27 -13 -2 10 -1 12 -13 10 19 -6 -1 1 -17 -3 3 22 -28 17 7 11 3 -5 -14 -21 -11 6 5 20 -22 -25 -5 0 7 -24 3 23 17 26 -10 -15 4 -7 -13 -6 -28 -18 6 -8 7 3 -9 -5 -3 3 2 -3 -4 17 -10 -14 6 -19 3 -5 1 13 -9 14 -9 -20 21 -9 24 13 -9 -30 -16 -7 -3 20 -8 7 12 6 3 -10 -17 11 6 7 10 -21 -3 5 -4 13 -20 6 -22 -3 -3 3 -6 -13 -17 8 20 11 -15 -10 -3 -3 -1 -3 17 -7 -11 -12 -4 4 -5 -12 9 4 -38 -3 9 -16 31 4 -4 14 -6 3 3 7 -10 3 6 -1 -7 -18 -8 -6 7 -3 16 15 -8 -7 4 -10 -3 20 -14 -1 -3 3 17 -28 14 3 10 20 7 7 -2 -1 -37 -13 -14 -4 -13 -5 -13 -5 28 -20 2 5 3 1 3 -5 24 23 16 11 -33 -2 -17 13 -14 -3 -7 11 -8 6 -20 -9 21 1 17 12 -17 2 3 21 20 0 20 -7 9 -13 -3 -3 -28 -11 -2 -5 -3 -24 -6 7 -2 -3 -15 18 10 -9 4 8 7 -26 -20 3 -15 -3 24 -27 -3 -5 17 5 -3 13 27 -14 7 9 17 -6 -12 -29 -17 -3 -10 -7 3 7 -6 -13 -3 -3 -6 -18 5 3 -9 -16 7 -4 -13 -7 -6 6 6 -10 23 -17 2 -15 12 -8 2 -4 17 -1 -27 3 -5 -8 -9 2 3 -19 20 2 -20 6 11 14 6 -3 -3 -6 17 -6 6 -10 3 -8 12 -15 -10 24 -17 -3 -12 6 3 -17 8 -31 -3 -4 -3 -6 -10 -15 4 -4 -24 -7 -14 -15 11 -10 1 -3 -10 -7 31 13 -10 -18 -11 3 -8 5 6 6 6 5 5 -5 -19 9 14 11 7 -10 -4 3 3 -7 -10 -13 -18 -6 11 -9 14 -7 -3 11 -10 -3 1 10 -8 9 -29 -6 -4 17 -8 3 -10 -3 -7 3 6 6 10 -7 -15 11 -10 -10 -3 -7 10 6 7 6 -26 -10 -13 5 3 8 -21 -18 -23 -9 12 14 -14 -19 -6 -3 16 -18 -28 2 -14 -3 -7 17 -11 -7 -13 18 7 1 -15 -10 3 2 15 -13 -14 -7 21 -12 -9 7 -25 6 -7 -18 3 -4 7 -4 3 4 -9 -3 -26 -5 6 6 -30 -4 -12 -3 -21 3 -20 -27 9 1 18 -17 -10 -13 8 -3 -1 -8 1 10 24 -7 -7 -10 -5 4 2 -28 -7 4 -5 -17 5 -17 -4 -2 13 -8 9 2 19 -7 -3 3 -14 -2 8 -15 -23 3 -11 7 14 11 3 -17 -4 22 -20 6 4 -4 -16 -10 -3 4 18 24 4 -3 -1 7 1 11 1 -17 -7 4 -3 -3 -7 21 -9 -24 -5 -8 -3 -10 -11 7 -6 -2 -6 -13 8 12 -24 -7 -7 3 21 -3 -22 -21 -35 -8 5 -21 -8 -27 -3 3 7 -21 -1 -11 -4 -2 -6 -10 -7 -24 -12 -14 -3 -29 10 -24 2 1 -10 -1 -6 -3 -21 7 6 11 22 -12 7 6 -6 -2 -5 29 -5 -15 -20 -3 -17 2 3 6 -25 -9 -11 -17 13 3 6 -10 14 3 7 -3 17 5 24 -17 21 1 -13 -23 9 -10 -11 -7 8 8 13 6 -13 -3 7 -7 -3 -4 2 -6 -21 10 -3 -3 10 5 -24 -6 15 7 2 -9 2 15 4 -9 -21 2 -16 -15 -11 2 -11 3 -16 -7 17 6 17 -3 -24 23 -27 -10 -17 -27 4 9 -7 3 -6 -3 11 -11 12 -34 -18 -4 -11 3 4 4 7 3 -24 8 9 4 -13 9 -5 7 -13 -11 -14 -10 -17 -20 -5 4 -14 3 -1 14 3 -24 -1 -6 -4 -3 -10 3 -6 -14 5 3 -11 -8 -13 -6 -12 -1 -17 -13 -21 -20 -15 -13 -3 0 -11 6 6 19 -20 -10 -16 -11 -4 -3 9 7 2 11 5 8 7 30 -7 6 -11 3 3 -11 7 14 -14 -9 -15 -8 -3 -4 -17 -7 14 1 2 -12 -11 26 23 10 -4 4 -6 -3 3 -5 -3 -12 27 13 -15 -3 -17 3 -19 -3 -17 13 -21 -6 1 -16 -9 7 -25 -3 -13 -2 40 -10 -5 -17 7 -4 13 -7 -3 -15 -25 -9 -1 -5 0 -3 6 -10 3 -14 11 4 -3 7 4 -24 -9 -7 -6 17 -14 -1 3 6 3 -13 20 27 0 5 -8 21 -3 -7 12 -7 0 -3 13 7 -27 18 18 -4 13 1 15 -23 -1 -8 -17 -3 7 -1 -9 -17 -13 12 -22 3 6 3 28 -1 -7 -20 -2 7 -15 -6 3 3 -28 -1 -8 -7 15 -8 3 -3 -7 -3 3 -13 -17 -26 -9 -23 -7 19 7 -3 -3 -2 -3 -17 -11 -3 21 16 -11 17 -16 -7 3 -17 -7 10 -3 2 3 -20 27 -3 13 3 6 -7 3 4 4 18 3 6 3 -24 -6 -14 -22 6 -21 -3 -15 1 10 -13 10 13 -15 -3 -14 -16 3 11 -41 0 -7 -13 9 -18 15 14 -3 -3 1 -25 3 6 -26 -2 9 25 -12 -10 -11 29 -11 -2 -15 -6 1 6 -17 -2 -9 2 1 3 -5 14 9 -42 -11 -6 3 28 11 -21 -7 3 -18 -10 -3 -2 27 6 -11 22 -3 -3 2 -10 7 5 -14 3 13 -4 -18 5 12 -13 -6 8 -3 -9 3 28 -5 -18 -24 -3 -17 -1 10 -6 7 -4 -6 -10 3 4 11 -10 4 11 31 2 -11 -12 -19 -8 3 3 8 -2 -15 4 8 -6 5 10 -19 -6 12 -3 -22 -13 8 -20 -18 -17 -11 7 -11 14 -17 5 -3 19 3 -7 5 -5 -28 4 18 6 26 3 -6 -3 -21 -4 -1 4 -12 2 -3 -3 3 6 -17 -7 -3 -21 37 -1 -3 -9 -1 15 6 4 3 -17 3 -25 -7 -3 1 -4 5 7 -8 4 -21 -9 6 -10 17 7 10 -8 -3 -13 2 -18 -20 -4 -8 25 -7 1 -15 -21 3 20 -3 -17 -3 -15 6 -8 -3 3 1 -3 18 -13 -4 17 -17 -5 11 1 18 25 17 7 7 -3 6 -17 1 36 -3 12 7 -2 -11 3 10 6 -11 -24 9 -17 -5 -10 6 -24 2 -4 -3 -3 4 14 -14 -4 -16 -15 21 6 -14 -15 -15 9 6 11 -18 1 -3 -11 -14 -4 2 5 -6 2 2 7 -3 6 -22 -14 -14 -19 3 -17 -4 2 17 -4 -2 -3 -3 -3 -3 10 15 -35 -10 -14 15 1 -2 -4 16 4 -11 25 1 -9 -20 -27 -4 -10 31 -4 -2 -10 -29 30 -12 11 -3 10 -6 18 -3 -4 -5 -24 27 2 15 13 -3 20 -7 9 -10 3 -10 -4 -4 -5 -11 -30 -3 23 12 14 4 12 18 16 7 -15 6 20 -6 -15 7 5 -1 1 -6 -9 3 -3 -27 3 7 -8 -7 6 -6 -17 -20 0 1 -15 -1 -2 10 12 -10 17 3 -5 -21 4 -7 18 -3 -1 20 3 -6 3 25 -6 -5 8 -24 7 -6 -4 -17 3 2 -27 4 16 -7 -1 -8 3 3 10 6 10 -3 8 -12 -4 -8 -11 13 -7 2 21 -4 -3 3 6 16 -42 -2 -9 16 -22 -14 -10 26 2 -4 7 -3 17 -10 -17 -9 6 11 -13 -7 -7 -3 11 7 0 3 -7 13 -7 11 -3 17 -9 -3 -6 24 -17 -12 -4 23 14 -21 -3 6 -5 -38 -3 7 -14 21 18 -3 9 -18 -1 -10 2 -3 -11 -5 11 -4 -1 -4 2 -2 17 -6 -15 -17 1 -4 -3 -6 -13 -20 7 -21 -19 -19 -34 -6 22 -9 2 -16 7 -15 -12 15 -12 14 -2 11 3 -10 -2 6 7 1 -1 17 4 -7 -14 -4 -10 1 10 -6 -23 4 -2 -14 2 -29 0 -8 6 -13 -3 -20 -11 -4 2 4 -3 -6 10 -2 7 3 3 5 3 -5 6 -7 5 9 -3 -9 20 -12 -17 13 11 -17 3 4 11 -13 6 -7 1 14 11 1 -15 24 -6 -10 -4 -35 -15 7 -5 -14 -6 -5 10 -19 -1 23 13 17 -3 -2 7 -24 -6 -34 -15 -14 -7 3 3 6 -27 15 15 -6 6 -7 -10 -3 10 17 -9 -19 8 14 -3 23 -5 -17 -29 -10 -7 -1 -14 12 -23 3 18 -6 9 -16 3 4 -8 3 -2 -3 -7 -6 -16 -15 4 14 -14 12 16 7 4 -9 -23 3 -7 -11 3 20 -31 15 -10 -10 16 -14 10 -5 18 -7 -2 -2 -3 -24 -2 -26 13 11 0 3 -10 -6 -6 -17 -12 -11 6 -34 3 13 -8 -8 -15 -18 7 3 32 -21 -1 -7 21 -6 -11 -7 -30 -17 3 3 -17 8 17 11 -5 -17 1 -3 -3 13 -4 0 -10 1 -23 -25 2 -5 14 0 -5 20 -6 -15 -27 -14 7 -1 3 -10 10 -12 6 3 -23 -8 -3 3 3 -10 -20 -8 -12 3 -17 8 13 -3 -7 -5 -8 -3 3 -5 -2 -8 -7 -2 -7 19 -6 14 3 5 -21 -4 -8 -4 -6 11 -28 -6 -4 -16 -38 -22 19 -24 12 14 10 11 -3 -4 10 24 -3 -15 4 -6 12 -15 3 -8 3 27 11 -3 -20 -6 4 -10 18 12 3 -6 -4 17 25 -24 -3 15 10 -2 -3 -1 6 2 9 -13 3 -10 -9 5 2 -14 -34 -13 -28 1 -6 -7 -7 -6 9 -18 -8 6 -3 -5 -11 -20 9 10 6 3 15 -7 2 -3 3 -11 -6 -3 7 -20 10 -3 -10 -12 10 8 -20 7 -1 -11 -3 10 -6 4 -13 -28 3 -21 -7 4 -14 -10 6 -14 4 10 -6 3 -3 -34 3 14 -12 14 2 -44 -4 -14 -3 6 -18 4 -19 -22 3 1 24 16 8 14 10 10 5 -3 6 -3 30 -8 -14 -29 -17 -7 -3 -9 4 -4 -8 -17 26 -10 -9 4 15 -30 3 21 -13 7 -2 -6 -8 -17 6 -17 -12 2 6 -5 -11 -6 10 20 8 -3 20 -1 -24 -4 4 -21 -4 -7 -3 -4 -1 -7 10 -11 -5 -3 10 -7 14 -3 18 -4 2 -6 -10 3 -8 10 18 -11 -1 16 11 5 2 -3 7 -6 -15 -17 3 7 -14 -6 -10 -6 -3 14 -10 -6 -6 -1 4 1 9 23 11 -20 -21 -1 -16 -17 -8 -14 5 -3 3 6 -2 8 -4 -20 -11 -4 -6 -31 -9 -17 -2 9 7 10 22 -17 -1 -22 -3 -15 -3 4 -28 5 -3 7 18 -3 -14 4 -7 -1 16 -6 -21 -27 6 5 4 -17 -1 -23 5 -10 6 -6 -15 -16 -11 7 -15 -3 9 20 12 -10 -2 -10 -3 3 -8 12 -4 -17 -8 11 -11 7 -22 -3 -11 -10 10 -3 -19 11 -19 -29 17 3 -10 -14 -4 1 11 6 -11 11 -3 -6 -18 6 -11 -21 6 12 -7 22 10 7 3 -4 24 -8 -1 11 -1 8 9 4 -3 3 6 -11 8 19 1 6 5 21 7 -3 2 -3 -11 -3 -24 -5 -3 -3 -12 -13 -1 6 7 -6 6 -15 17 -12 -3 -3 -2 4 8 -10 2 -17 3 -20 -31 -10 -10 -6 -10 11 -6 -6 13 -13 -10 -9 -12 -20 20 4 -26 -7 -14 -20 12 -10 -11 -14 11 23 3 -3 -4 -11 -9 5 -10 -5 10 15 -10 -7 -14 -8 17 -21 8 14 -5 -3 19 7 -3 3 -15 4 -3 -4 -3 -7 -3 13 -3 -17 2 13 7 -3 2 -6 -3 12 -4 -9 -35 21 -4 15 3 -4 30 10 2 -4 -3 3 4 -7 7 -3 2 3 3 7 6 -20 -4 -7 17 17 -18 0 3 -18 9 -3 -1 -21 10 10 -3 15 -11 -20 -4 10 13 -7 -31 -8 -22 -29 -5 -6 -3 -25 17 -10 14 -11 -7 4 6 9 4 -1 32 -6 -1 -4 3 -25 3 4 -3 15 -20 -3 -15 17 3 -6 -6 -27 5 -15 14 -1 2 -10 27 -6 -6 8 3 11 -7 -17 -3 3 -9 -7 -3 -29 -6 3 -3 8 12 -3 3 -7 7 13 15 17 9 -5 -21 -7 13 4 23 -3 15 10 -6 -9 9 -11 11 -14 17 21 18 -7 22 -15 8 6 -7 -11 20 29 -27 10 9 -16 21 -7 -14 -8 -7 -9 -21 24 -9 -9 14 22 -2 14 -10 13 17 -6 8 -22 14 -18 13 -12 -24 20 3 -10 -8 11 2 -1 6 -11 3 10 -3 7 -13 -24 -14 -8 -1 -3 2</t>
-  </si>
-  <si>
-    <t>JSB(8.758823358620953, 10.985702508887112, -123.29415485650813, 522.5764983392829)</t>
-  </si>
-  <si>
-    <t>36 39 33 27 33 44 26 29 24 38 40 38 35 26 27 45 48 43 37 33 43 52 37 41 47 36 53 32 28 49 54 33 49 37 41 41 33 37 40 29 51 45 34 48 46 30 30 33 26 40 44 42 27 47 37 47 60 59 37 56 48 33 26 25 29 51 52 51 37 40 31 27 35 33 37 26 16 23 45 45 40 29 32 49 49 41 54 27 27 37 37 40 55 35 38 29 33 34 40 51 43 27 35 43 29 27 30 58 44 49 28 33 43 57 56 26 32 37 45 38 29 46 35 33 56 22 45 34 47 48 57 28 28 52 47 47 51 51 30 36 37 26 33 46 44 45 40 54 33 51 30 40 49 32 41 32 16 19 45 51 26 34 40 47 49 47 48 40 35 40 33 40 41 30 51 36 41 55 50 55 47 19 3 33 50 32 40 35 41 49 41 41 43 29 28 43 38 31 41 35 44 43 47 35 41 32 29 37 43 40 43 43 37 29 31 26 13 49 36 53 28 34 35 37 34 17 36 60 35 40 33 26 37 33 63 45 29 35 46 35 25 43 44 44 37 20 49 37 73 34 24 40 38 33 51 40 34 54 57 50 29 36 58 56 37 35 31 31 34 43 39 16 41 46 27 35 33 42 35 43 29 40 40 49 37 48 47 47 66 48 44 32 36 41 43 53 26 27 32 34 43 49 29 46 16 34 36 24 23 44 42 47 33 54 61 38 44 32 33 51 51 48 47 40 18 61 45 40 51 41 37 25 47 35 38 39 46 28 32 26 33 30 47 47 45 51 27 47 49 49 44 32 43 56 33 35 32 40 34 27 43 35 33 45 34 39 51 43 16 45 22 31 25 51 42 38 26 45 36 38 44 50 29 36 53 19 30 49 43 26 43 30 33 29 48 24 24 31 50 34 42 41 24 51 41 50 22 34 49 40 37 41 27 45 36 36 39 49 25 28 48 44 33 37 35 33 44 41 51 43 49 44 53 37 23 33 35 36 43 47 34 44 61 47 34 30 19 61 31 19 23 32 55 27 47 37 57 40 28 39 55 39 43 38 36 30 40 35 19 40 38 32 29 40 30 33 25 46 59 29 37 43 37 32 53 44 54 39 27 45 37 33 52 59 40 36 29 30 38 36 46 27 47 39 49 44 55 60 41 36 38 39 72 48 37 29 23 52 32 29 38 46 27 51 24 23 41 39 61 34 33 36 27 28 52 58 30 47 31 55 51 39 33 53 48 43 26 43 50 36 47 41 36 43 44 36 43 43 41 31 22 26 26 40 40 33 34 50 29 47 47 43 41 30 33 32 38 44 29 57 27 67 46 39 37 58 53 30 33 33 27 26 19 44 43 46 41 24 45 45 29 32 53 42 37 41 47 45 46 43 43 44 39 26 40 45 41 19 30 37 57 37 47 40 46 30 36 30 32 32 41 40 41 46 35 37 30 38 36 35 39 44 47 52 48 39 35 33 37 45 16 23 37 48 43 34 26 33 36 41 19 47 30 51 33 29 59 37 29 20 49 48 56 32 45 43 40 21 26 36 48 43 39 46 42 26 37 26 36 34 44 38 44 47 47 38 44 40 35 37 41 40 31 44 27 49 32 34 35 41 50 27 47 33 51 23 35 40 31 62 41 26 40 47 25 43 39 30 40 51 37 58 53 19 46 48 35 57 37 16 50 33 55 26 47 35 34 18 52 43 48 43 37 41 39 39 40 44 45 37 49 40 51 31 28 32 19 36 29 32 33 49 39 16 54 43 34 31 32 45 29 54 34 20 35 54 28 42 36 47 32 46 44 30 37 40 44 33 41 47 33 45 32 28 35 42 36 30 43 51 27 38 31 29 59 48 44 30 40 38 57 22 26 31 29 43 43 32 26 38 40 45 58 38 42 47 36 37 47 41 49 37 37 42 43 37 41 19 41 59 44 30 23 38 54 51 33 35 39 50 38 30 23 28 52 29 52 37 45 32 35 32 55 48 44 52 32 45 46 51 44 46 52 35 39 36 36 38 46 43 37 43 33 40 54 36 39 37 50 60 47 36 44 49 29 21 51 57 38 51 16 52 37 50 21 36 29 48 47 44 49 34 50 30 50 46 49 58 44 41 30 41 30 43 38 27 32 27 42 49 37 49 41 33 37 56 42 43 40 51 40 42 22 29 49 36 26 41 41 31 23 49 66 40 39 41 34 53 45 36 38 55 45 21 47 38 56 48 42 37 34 44 59 36 53 39 48 32 46 54 35 42 46 12 37 43 38 20 54 34 47 34 24 37 38 24 39 45 45 16 37 52 29 24 29 41 44 37 47 46 26 58 44 41 44 47 28 35 37 50 30 41 34 20 20 29 57 23 47 30 29 28 29 25 38 32 26 29 55 33 32 30 50 29 41 60 34 34 28 44 42 20 57 33 27 23 41 33 51 26 51 33 53 30 27 39 35 46 35 50 32 33 43 58 53 49 36 33 20 34 42 33 37 27 43 42 15 25 29 40 25 44 46 47 42 29 39 33 37 40 43 43 34 24 37 35 32 55 19 33 48 35 34 44 39 34 31 57 32 37 29 45 61 27 39 51 58 38 43 43 50 20 33 40 51 51 50 53 26 37 37 36 23 43 26 44 40 32 38 51 30 54 13 41 29 37 41 36 37 17 38 47 31 37 36 40 30 29 39 36 27 40 41 25 50 47 47 29 33 44 44 40 51 26 43 38 32 61 23 27 40 35 34 51 42 43 41 56 23 57 23 36 45 29 29 51 36 23 29 43 31 37 42 40 35 43 50 45 33 40 48 48 27 13 44 41 43 22 32 41 33 69 65 37 49 37 29 44 48 53 34 41 27 41 62 26 62 45 53 37 47 35 50 32 34 41 37 38 39 30 56 40 41 32 52 37 47 33 26 22 48 39 28 41 55 58 33 33 30 45 51 42 40 29 23 41 54 27 32 54 19 40 13 30 33 35 16 25 62 68 55 37 40 34 34 44 27 31 44 33 45 20 41 48 23 33 40 27 35 40 34 31 37 46 54 13 25 44 24 15 44 26 49 49 37 44 20 50 39 45 62 29 33 33 43 30 35 31 50 48 36 30 19 62 38 25 30 51 65 23 33 53 46 37 33 40 32 26 47 43 39 42 33 50 43 37 46 31 43 29 39 52 36 60 37 38 29 41 51 51 47 38 36 46 49 16 46 26 23 29 39 12 37 36 47 33 48 50 40 43 40 34 45 46 27 55 40 31 37 42 33 28 32 45 47 46 48 45 51 30 26 34 37 41 37 25 48 57 51 47 30 43 59 33 45 57 50 23 43 26 33 36 45 51 41 29 20 35 38 23 23 58 49 25 27 27 55 41 45 44 26 37 37 52 50 44 54 44 50 55 51 23 29 42 20 37 27 53 30 51 28 53 21 41 50 51 16 46 43 51 40 43 50 44 44 37 42 42 23 36 26 37 55 45 30 54 38 46 43 61 45 37 40 39 51 25 27 23 48 37 52 38 45 49 51 47 44 39 43 49 47 26 51 43 30 33 50 36 26 47 40 28 30 33 22 51 59 28 43 26 55 43 56 44 47 26 39 37 62 38 31 30 57 22 48 33 37 29 42 44 50 35 40 41 27 45 20 40 33 45 48 45 50 53 43 58 37 45 62 41 26 31 39 46 29 25 60 36 39 33 28 38 40 44 38 33 33 39 28 30 43 45 45 12 26 33 20 30 36 40 27 51 27 38 18 41 13 30 34 40 53 51 49 34 33 57 37 65 38 54 43 43 24 42 28 33 37 30 35 45 36 53 40 45 21 37 29 61 49 50 39 52 22 51 27 35 38 40 46 38 35 36 48 38 40 37 48 57 46 45 40 44 55 22 34 63 21 39 33 45 38 40 56 51 51 54 41 47 31 52 23 37 46 44 47 38 26 46 35 41 55 34 30 45 48 48 34 31 66 35 44 37 27 52 41 52 43 55 42 34 33 33 48 34 25 36 61 36 27 39 35 44 59 43 22 52 37 37 44 35 56 44 43 41 44 32 36 31 15 35 62 42 47 38 48 48 41 32 54 39 38 30 48 27 59 32 51 30 26 24 45 49 31 43 47 30 38 44 41 33 44 50 22 29 40 44 66 25 33 16 45 31 46 61 50 55 37 44 40 29 46 27 35 43 65 26 43 26 43 46 44 36 31 49 37 41 33 62 51 37 26 42 29 39 51 29 51 34 52 43 33 37 46 30 34 43 33 35 37 49 41 30 31 35 43 32 61 39 44 52 50 29 41 34 41 43 52 42 45 37 40 16 39 38 46 37 32 47 45 44 20 24 41 23 27 37 37 52 49 29 38 33 33 25 42 48 29 51 31 27 39 32 19 45 41 54 56 33 51 50 29 55 41 48 36 33 37 41 62 23 40 50 43 36 58 54 45 52 68 50 49 31 46 34 32 31 54 51 41 44 50 18 47 42 56 48 27 20 51 45 49 27 33 37 39 56 31 48 39 48 36 41 38 22 33 30 51 33 46 6 21 44 58 47 40 27 33 62 30 45 51 51 30 33 27 44 46 37 33 34 27 32 29 43 26 50 40 23 66 47 29 37 27 46 23 52 44 50 41 29 16 45 36 28 37 32 42 13 64 40 56 40 20 43 39 28 31 37 26 9 32 32 31 45 33 57 38 41 35 37 41 44 48 38 31 40 45 52 50 32 50 32 44 56 37 48 28 40 38 45 52 43 18 43 40 50 41 42 26 33 53 30 40 19 37 33 37 28 40 48 46 33 42 61 37 55 54 30 51 32 40 28 61 22 30 34 44 25 47 47 51 25 48 54 49 23 46 41 33 52 39 20 37 33 30 50 43 16 44 40 35 30 43 36 26 25 29 47 56 55 54 33 46 48 48 34 25 40 43 40 16 39 40 25 41 39 30 21 45 37 36 47 43 30 23 59 41 44 38 51 49 51 51 55 30 52 43 55 43 63 55 38 47 55 47 27 44 41 55 29 43 46 38 35 40 47 9 43 39 32 52 47 36 22 29 36 37 53 39 32 50 43 34 27 51 50 35 43 34 49 38 26 33 34 30 39 37 41 52 39 58 49 23 50 49 34 46 40 57 27 36 43 58 38 37 58 54 25 44 25 37 47 47 30 35 20 40 16 39 30 42 47 25 34 31 57 30 52 33 43 26 52 43 53 45 44 58 45 47 32 30 43 40 44 26 39 37 44 37 42 23 34 26 16 37 37 36 47 39 45 54 50 43 26 38 44 46 47 52 26 52 25 44 31 22 61 37 37 34 43 44 23 36 36 26 44 36 52 58 52 50 47 42 40 52 46 37 39 30 50 61 46 47 30 51 47 19 42 62 44 30 36 38 31 49 23 38 28 48 37 67 35 40 40 44 30 26 41 46 40 44 26 48 51 36 30 37 40 50 36 52 25 50 16 39 31 41 23 35 57 43 36 53 32 35 32 55 35 40 38 30 37 37 31 37 42 68 34 43 22 43 52 43 29 52 44 39 36 30 37 32 29 16 37 22 40 36 36 40 50 51 40 39 41 32 51 58 28 42 29 57 51 29 52 40 45 36 40 53 35 19 51 51 38 44 43 44 65 42 37 25 57 55 40 23 31 22 43 47 37 51 34 38 38 39 36 31 37 49 48 44 34 28 48 27 36 38 34 26 33 53 54 37 30 49 34 59 48 56 37 47 36 23 37 61 44 37 30 53 43 34 70 34 43 35 23 52 41 30 43 33 36 40 37 43 35 44 35 28 41 43 38 48 62 63 35 27 40 36 26 32 43 44 40 55 32 58 44 25 27 35 44 50 45 61 46 50 33 47 18 48 48 36 43 45 26 22 58 44 33 40 53 36 45 36 31 57 41 36 57 40 47 33 40 22 48 50 36 29 46 16 32 44 31 40 36 37 40 53 35 33 39 40 38 48 33 34 19 55 29 25 41 28 65 42 43 26 33 45 41 49 29 31 41 46 44 52 34 29 41 39 25 43 22 36 34 22 41 26 44 45 52 57 41 40 33 33 45 43 37 31 50 37 13 34 45 44 30 56 23 40 37 37 47 53 51 35 30 26 35 41 40 41 44 39 37 44 27 47 49 44 35 44 30 24 40 46 33 29 37 34 49 30 13 37 27 37 29 47 44 36 25 21 49 31 25 26 37 43 44 42 46 37 44 55 24 43 47 31 41 25 43 37 41 27 51 45 45 18 47 35 40 24 39 38 40 43 30 21 29 23 41 30 33 19 27 43 46 37 31 46 65 27 25 44 47 23 39 53 20 26 46 20 48 41 51 32 27 44 22 26 36 44 53 45 43 57 32 40 39 47 43 33 44 44 53 40 35 42 36 44 42 44 53 39 59 46 33 29 17 40 45 33 50 43 24 44 36 31 43 61 36 47 27 49 27 33 41 54 51 36 39 32 51 51 50 44 29 53 65 48 46 27 25 53 37 29 41 44 41 41 40 29 25 59 40 32 34 42 30 27 23 52 43 48 48 39 44 22 49 37 49 17 37 26 41 43 51 41 48 44 43 40 25 44 24 29 34 55 40 46 35 34 33 24 42 40 22 31 29 32 49 29 40 51 48 30 51 34 28 46 41 25 37 29 37 29 28 46 28 23 37 41 40 44 43 59 26 40 29 51 58 43 29 50 44 39 48 28 22 27 32 29 36 19 43 40 57 32 63 33 50 21 62 32 37 27 17 43 30 53 36 49 51 47 43 43 33 43 16 41 48 39 25 51 50 26 52 46 36 34 27 39 43 35 47 25 62 35 34 19 47 33 31 59 54 37 44 54 43 32 54 41 35 21 29 55 38 29 44 40 46 37 39 47 43 30 49 38 28 26 20 30 37 26 51 55 23 34 52 31 27 35 51 31 52 49 34 36 59 32 44 39 34 25 37 30 22 34 22 38 35 29 44 25 55 43 51 42 37 31 29 24 39 35 45 29 36 39 38 28 48 30 50 33 61 32 43 45 30 51 39 43 32 25 53 37 26 33 48 40 43 49 29 46 36 51 28 46 44 52 53 50 48 23 57 36 39 41 30 43 40 44 44 23 47 31 31 54 31 43 29 39 45 22 37 26 46 42 41 65 51 40 39 41 60 21 59 34 49 34 42 58 44 35 41 23 31 31 43 43 48 40 43 40 16 23 52 22 46 27 44 29 43 48 34 57 19 57 33 49 55 20 31 40 28 50 48 33 40 43 45 30 38 30 33 14 40 47 41 38 54 26 44 46 24 40 36 24 15 46 51 30 41 37 33 43 40 27 36 52 41 16 30 44 33 50 47 43 44 45 30 45 52 41 41 36 19 30 33 30 49 40 43 29 35 34 44 55 26 23 29 40 23 48 55 37 43 44 31 41 19 33 44 37 51 55 40 51 34 46 37 32 45 43 30 36 29 50 30 35 43 41 31 25 43 36 48 43 34 39 19 40 31 32 51 40 33 33 23 29 50 47 16 29 41 25 27 54 40 44 28 29 27 25 35 32 34 51 23 56 52 33 43 48 42 47 36 37 40 33 33 39 58 45 38 37 67 63 45 36 47 18 38 35 33 34 20 44 30 25 35 38 37 37 58 58 52 43 36 51 37 39 30 59 33 40 40 52 26 54 37 27 40 49 30 45 40 31 41 38 36 54 41 25 27 26 19 52 29 28 65 38 44 37 25 25 43 23 37 47 41 42 31 40 41 43 44 32 35 22 32 47 43 38 57 47 59 41 48 51 50 43 54 44 49 47 39 54 46 35 33 45 39 25 37 43 21 37 50 41 42 37 44 53 33 19 38 61 45 48 39 36 50 37 43 33 15 29 41 33 54 36 37 37 35 36 36 42 28 37 43 43 47 44 46 31 44 51 39 49 45 9 30 46 40 34 46 41 27 45 37 43 44 36 23 42 42 51 33 30 59 51 19 33 34 53 16 37 40 38 23 40 47 37 50 21 40 47 49 48 33 33 44 43 43 26 19 37 37 41 46 16 36 57 33 20 45 52 35 37 37 71 41 36 46 40 36 55 36 23 30 31 45 44 41 33 41 32 36 49 40 31 44 66 39 34 35 36 37 36 43 51 40 31 31 37 53 38 49 46 40 41 43 33 33 31 48 9 41 31 33 45 36 43 48 30 34 37 27 38 37 30 38 29 33 48 38 50 31 33 37 43 40 42 46 34 16 36 40 39 27 30 37 40 22 51 34 33 25 33 37 27 44 44 44 29 44 51 31 37 37 41 16 19 37 40 37 31 26 31 29 36 40 45 42 37 33 34 26 32 36 33 43 50 48 18 55 43 43 33 26 19 33 30 48 22 24 64 38 29 31 19 26 23 39 46 45 46 34 51 23 33 43 46 36 47 37 32 24 36 41 63 42 43 44 51 16 36 46 27 34 38 23 43 40 37 41 43 38 35 35 44 65 28 50 56 29 44 43 41 46 45 38 20 29 27 39 43 21 29 40 35 51 41 41 34 63 41 33 53 33 43 37 39 29 70 30 47 36 35 40 37 15 44 29 27 37 31 26 45 24 32 44 29 57 37 19 53 31 52 51 31 44 37 32 37 40 37 46 23 54 33 39 35 48 47 34 44 39 40 46 27 55 44 25 30 29 52 42 34 51 54 27 49 51 61 25 36 27 27 53 54 37 33 39 30 29 27 59 37 49 34 46 51 32 43 32 22 30 26 43 36 37 36 38 28 48 46 29 35 22 36 33 32 34 33 29 51 29 44 36 26 43 52 52 19 46 35 41 32 53 41 62 45 63 37 45 43 38 33 37 57 42 49 40 29 26 46 36 68 23 30 29 54 40 34 47 40 41 13 44 33 38 32 35 26 44 49 30 53 50 39 43 36 30 33 52 40 55 37 39 51 22 39 19 36 40 23 29 37 43 37 57 40 30 49 37 39 37 40 37 29 47 30 37 33 50 49 44 59 53 37 36 37 43 30 43 42 36 37 36 47 51 37 37 24 41 41 39 41 23 29 27 43 29 18 32 35 43 20 61 51 59 47 29 27 29 43 31 30 33 25 28 41 10 22 46 39 46 40 44 24 27 23 30 38 44 36 51 39 39 45 47 37 43 55 58 33 63 40 47 48 37 48 42 37 45 35 57 28 30 41 52 53 36 49 48 43 27 43 36 34 45 49 45 47 51 43 35 39 37 47 43 40 44 31 41 39 41 51 51 43 59 34 19 42 58 55 35 56 43 39 54 56 41 43 34 54 30 43 40 29 37 41 45 51 46 48 37 50 55 62 30 42 50 47 35 35 37 44 38 33 51 48 43 44 35 22 29 50 49 36 33 38 38 32 40 43 35 47 37 54 45 31 38 40 48 44 43 24 23 35 44 52 58 37 44 42 59 54 43 33 30 40 40 30 58 48 27 45 41 50 30 68 42 46 29 41 45 37 51 36 33 43 52 46 43 26 20 33 22 32 51 53 37 60 52 26 30 41 41 37 45 42 31 42 43 51 51 30 46 37 46 27 55 40 41 43 29 37 23 27 36 54 44 38 48 31 29 47 43 45 28 40 13 48 35 13 36 40 33 17 37 29 41 53 51 61 29 23 25 44 36 46 32 48 44 33 36 16 34 40 40 50 46 43 44 29 43 48 47 34 31 39 48 31 52 41 22 36 31 37 49 36 34 47 70 47 33 38 44 35 39 34 35 38 30 33 48 33 34 33 41 33 29 26 27 49 39 36 35 19 47 48 37 37 60 59 32 49 31 26 36 44 68 19 32 44 38 34 30 31 37 38 43 37 47 38 41 26 36 47 26 41 28 30 12 47 42 53 39 29 32 23 59 34 43 19 41 48 22 33 43 44 42 28 42 27 51 30 19 14 45 60 43 44 36 50 46 30 42 43 24 27 32 44 30 33 40 35 25 26 40 13 30 35 30 47 53 51 49 48 49 54 26 19 50 29 36 42 30 40 41 45 36 41 34 48 39 40 36 40 45 44 55 50 43 38 27 37 43 39 50 50 33 16 43 51 68 34 29 44 43 25 40 49 23 40 37 43 38 44 43 43 46 53 36 33 45 35 37 55 51 46 35 23 33 26 48 43 43 57 49 37 55 58 48 34 37 30 43 55 37 22 38 30 55 33 33 41 43 36 41 34 22 39 45 44 49 33 39 23 33 36 52 47 45 33 35 51 38 29 39 24 46 38 53 41 49 22 29 29 40 40 56 50 26 19 44 32 32 38 39 23 26 54 51 51 47 36 45 37 51 43 37 41 43 40 41 17 33 37 42 34 48 33 36 24 43 46 49 29 61 23 49 37 27 40 48 29 43 54 43 37 44 53 34 57 30 36 29 26 30 38 41 56 62 54 32 26 51 43 38 40 41 44 30 32 42 47 58 37 50 29 26 48 44 36 45 16 38 36 51 37 54 48 47 43 48 26 39 50 30 47 27 40 27 37 37 31 34 30 36 33 29 37 44 29 56 47 33 46 49 33 54 43 39 33 41 38 9 48 30 31 23 32 38 26 34 35 41 31 46 29 53 30 46 40 50 13 55 55 52 34 30 61 35 24 57 22 37 47 35 48 44 22 43 44 27 30 27 34 38 36 36 40 48 29 23 31 32 42 30 40 36 31 19 36 31 39 34 30 46 36 28 30 37 51 59 43 47 55 40 54 43 37 43 49 44 20 43 36 44 52 41 59 43 40 45 40 47 48 30 46 32 47 53 58 43 43 35 50 36 29 46 59 32 34 17 41 26 41 44 28 31 46 38 28 36 36 39 36 40 37 54 55 47 44 51 38 43 34 47 54 13 23 33 32 32 47 25 20 41 21 33 43 34 50 30 45 44 39 19 29 47 42 39 64 31 35 43 26 45 50 35 34 40 44 55 41 55 39 24 39 23 43 55 29 34 38 39 25 40 40 51 37 42 47 34 37 72 56 37 27 23 40 54 37 30 40 27 43 33 48 42 36 36 46 52 42 34 46 54 27 41 37 38 37 56 44 56 38 51 56 46 33 41 46 37 58 45 35 29 30 31 42 40 44 33 16 48 32 49 39 42 40 26 32 36 40 37 38 44 50 36 42 21 38 37 22 50 33 86 16 44 40 44 62 51 51 45 30 42 36 39 37 28 41 26 43 53 62 47 34 41 29 39 50 47 61 45 51 50 47 45 37 29 22 35 45 29 53 31 26 23 33 36 34 44 46 38 43 30 36 26 38 34 55 9 46 35 57 37 24 29 30 51 51 54 47 51 50 43 30 21 43 58 25 37 26 60 51 58 70 42 29 57 54 55 22 61 51 34 26 40 26 40 29 59 39 49 30 46 34 30 35 36 40 46 52 39 29 46 44 38 48 32 42 47 37 54 43 41 29 51 36 48 50 43 38 29 43 54 54 63 61 22 56 35 41 39 33 49 43 32 33 32 48 46 31 29 41 73 53 49 37 40 39 38 55 38 49 36 40 35 50 33 33 42 37 58 42 34 38 33 53 42 51 48 31 48 36 41 19 34 44 23 62 35 37 49 40 35 55 27 16 39 36 36 54 44 36 33 54 34 37 46 45 44 33 42 48 37 45 51 29 54 46 40 37 43 32 36 20 32 57 37 23 61 48 39 38 29 37 41 20 66 37 47 43 44 41 41 47 44 23 54 43 37 27 40 29 38 49 36 41 44 46 33 53 46 35 30 19 42 45 26 35 49 50 28 51 33 33 49 43 36 37 24 43 30 43 38 36 39 42 15 43 36 26 62 24 36 30 30 29 45 37 51 47 43 20 33 38 33 32 37 34 54 34 51 43 26 39 51 32 51 41 50 55 51 55 44 33 43 29 30 42 49 47 59 39 29 45 43 37 34 45 46 41 41 35 33 50 52 63 43 37 24 35 46 31 42 37 48 36 57 45 48 42 58 32 51 36 57 34 47 40 40 56 51 31 26 51 48 37 16 16 41 38 28 39 52 27 30 38 40 47 46 27 40 54 30 46 23 34 19 57 36 38 47 57 36 29 48 29 43 43 60 49 40 28 44 33 50 31 47 42 34 16 36 44 35 70 27 34 23 50 35 40 40 70 27 30 47 27 27 45 27 51 54 51 35 49 37 45 34 33 34 36 36 51 56 43 31 34 32 59 35 51 33 29 25 54 26 31 29 26 59 39 57 52 40 31 24 41 61 48 42 25 38 36 43 33 56 30 62 32 43 35 47 23 37 30 58 38 40 44 41 34 36 38 37 51 41 43 26 49 41 51 17 41 41 33 56 43 49 50 45 36 40 51 28 40 43 43 52 33 41 60 37 44 44 33 55 50 43 54 52 30 21 26 39 19 35 41 29 23 52 41 39 33 37 23 41 41 51 41 29 59 35 31 31 37 43 49 67 34 39 51 33 48 38 45 21 40 44 39 46 55 47 32 51 41 51 34 30 23 40 57 37 28 45 46 40 22 44 29 48 33 47 36 52 41 37 41 43 16 40 45 30 50 31 36 55 65 42 43 48 24 40 51 41 33 39 29 34 45 33 33 43 29 33 50 48 54 65 44 33 37 37 33 51 43 38 64 51 42 37 27 50 36 36 34 52 44 36 42 47 29 33 37 22 37 23 32 28 46 39 56 43 39 36 43 39 52 33 54 30 30 34 51 48 27 30 50 47 40 49 37 24 44 46 59 31 25 40 40 33 23 13 26 51 34 37 23 45 41 43 37 46 44 56 41 36 23 37 46 29 32 48 27 29 37 37 27 32 24 47 20 26 43 41 30 51 30 42 39 41 41 55 53 41 23 43 33 40 51 50 65 48 40 54 46 54 26 50 56 50 33 23 44 39 57 33 43 36 31 44 39 36 48 15 48 37 40 39 43 29 45 25 32 31 36 23 47 37 46 46 16 36 36 30 57 43 47 51 33 26 54 31 45 40 36 49 45 35 29 23 48 32 65 48 44 35 27 29 16 38 30 40 39 27 57 30 21 49 44 50 15 44 37 37 28 42 47 52 40 44 28 43 37 35 37 54 53 37 36 40 27 40 33 43 43 36 34 45 41 36 45 22 31 36 65 56 32 41 49 41 41 52 34 34 46 36 37 32 43 40 40 48 30 61 37 48 16 30 57 41 39 25 33 31 28 37 65 23 58 21 33 43 47 49 27 55 27 53 37 36 41 52 53 37 55 41 35 30 45 33 23 51 43 44 21 33 54 45 50 27 30 40 46 40 44 37 28 37 31 33 35 34 46 28 27 33 26 63 34 36 48 40 45 51 45 51 27 50 51 39 17 38 41 33 42 37 60 30 23 69 41 45 44 34 44 42 43 32 38 34 39 31 37 51 27 55 48 40 59 36 26 46 40 23 38 43 50 39 31 57 29 35 19 52 44 57 50 27 23 26 41 35 42 39 48 40 59 57 46 43 42 44 46 25 26 30 36 34 58 44 40 33 27 37 38 36 54 36 32 52 48 35 34 26 42 45 44 44 41 29 44 37 56 40 47 49 23 38 42 54 25 37 55 35 34 33 41 31 48 57 33 32 37 36 43 39 55 52 40 32 43 33 41 31 25 44 29 20 38 18 48 39 35 62 39 12 43 31 34 39 43 52 44 58 59 30 37 48 22 54 41 47 51 24 37 38 44 40 23 29 19 29 52 30 45 42 46 39 37 41 41 38 39 38 40 46 36 45 31 47 23 27 50 38 29 36 45 36 32 32 41 51 47 28 47 44 29 22 36 39 39 57 39 51 29 33 43 37 19 28 66 40 24 41 25 37 47 26 41 26 30 38 42 26 48 33 28 44 42 34 36 33 29 41 44 33 55 43 27 26 36 22 61 26 36 47 45 50 25 50 26 47 37 36 46 52 36 45 32 47 40 51 48 47 54 32 44 45 37 37 37 55 27 41 31 21 40 31 40 24 54 52 30 35 26 46 37 51 36 41 51 36 60 40 36 48 36 32 55 44 35 37 35 57 33 36 36 27 50 33 32 46 33 42 50 30 34 50 29 29 58 43 33 52 40 42 31 47 48 40 56 27 31 33 33 44 20 33 36 26 30 41 24 37 31 50 52 47 48 26 41 15 42 53 34 33 31 45 37 58 32 33 30 50 46 47 39 44 29 34 31 33 43 59 35 33 42 42 31 28 33 40 26 41 38 45 43 31 36 31 44 21 67 38 66 26 42 16 43 29 41 44 29 33 36 20 49 46 30 57 29 43 39 43 42 21 40 32 19 23 33 37 34 30 30 37 48 49 27 23 43 37 48 44 42 51 28 49 40 42 44 46 48 50 46 19 37 50 43 30 26 45 35 46 36 35 43 46 47 40 37 40 41 35 40 27 37 65 41 45 37 41 37 41 40 30 33 30 19 40 44 33 48 23 51 20 36 49 36 48 40 32 23 38 32 37 43 39 39 29 38 47 43 41 47 33 51 51 41 32 43 37 43 45 47 50 48 31 51 59 34 38 30 36 59 44 36 23 38 54 38 43 40 39 41 45 52 28 41 40 39 42 35 41 23 33 33 37 33 35 25 52 47 47 37 19 40 51 20 36 31 37 33 49 27 43 31 48 14 54 43 26 19 39 44 42 44 42 25 34 37 36 34 55 40 40 46 37 27 49 36 51 37 33 43 29 33 43 45 47 42 50 51 44 34 23 37 47 44 38 40 37 27 29 37 64 25 46 61 22 40 25 38 39 37 40 39 53 21 44 37 30 37 61 52 39 41 39 40 49 35 33 51 29 46 37 48 27 44 36 25 27 19 34 59 60 33 29 54 43 29 51 40 50 45 37 37 47 31 35 33 40 34 21 58 39 43 31 41 44 32 49 29 55 62 34 53 31 45 39 48 44 69 29 49 29 53 25 29 43 38 40 44 37 64 43 46 33 36 46 53 33 59 37 39 29 34 37 62 48 32 16 53 32 45 44 47 32 51 37 16 32 15 36 40 47 44 43 44 16 40 42 30 29 44 49 54 37 29 50 50 45 54 30 59 42 29 58 64 35 37 34 42 25 57 45 51 30 46 51 40 65 30 43 45 51 33 54 20 55 26 41 34 30 37 46 58 54 30 38 47 43 50 49 41 23 44 25 43 37 30 43 37 29 50 39 54 43 45 37 43 78 43 29 40 49 33 43 56 55 30 40 37 40 44 24 41 37 35 34 38 17 28 47 37 32 66 41 58 38 37 26 46 40 42 45 27 53 31 33 52 52 29 37 43 57 33 30 36 44 51 27 41 34 37 43 45 46 44 25 43 46 30 35 22 50 60 27 44 48 57 27 33 23 45 34 54 42 44 51 51 10 42 33 44 29 40 27 27 48 42 21 28 37 26 36 52 30 46 51 30 37 44 37 39 31 20 16 32 19 37 35 20 42 44 38 40 38 45 34 29 30 51 23 51 41 52 28 43 29 33 22 40 44 46 31 34 33 39 37 27 58 36 39 48 37 38 43 48 32 48 27 36 41 54 31 51 42 29 36 37 36 37 57 24 43 48 25 37 37 28 40 36 37 44 23 23 30 53 46 46 37 20 28 49 37 57 41 51 62 29 50 56 34 24 29 30 33 33 33 46 41 53 57 41 46 41 41 35 36 39 44 37 27 38 34 51 37 56 38 44 46 52 28 33 33 36 46 18 43 51 51 41 47 37 51 43 42 29 43 43 35 36 35 40 53 52 29 27 36 50 38 44 57 43 34 44 45 27 39 64 50 36 46 46 36 34 50 40 37 41 49 34 49 49 37 48 30 32 29 53 40 36 30 59 30 36 49 38 40 58 40 30 44 35 50 36 36 36 36 31 33 34 29 48 33 43 62 34 26 37 52 38 44 23 30 41 23 41 29 26 27 40 23 41 44 29 28 30 48 43 44 33 31 30 26 47 35 47 42 45 57 45 53 37 33 35 40 27 31 46 23 33 30 37 33 44 46 37 49 33 34 43 39 29 33 37 33 30 30 34 39 58 50 36 38 44 6 36 44 50 34 41 41 25 52 56 39 32 41 42 34 30 44 23 56 51 37 34 37 39 59 39 34 34 30 58 29 38 36 37 36 31 47 34 33 34 37 33 30 46 60 43 43 27 29 29 49 42 41 26 40 37 37 27 47 29 43 37 33 48 38 33 37 25 23 33 47 39 63 49 29 26 33 30 23 45 46 37 42 52 43 30 35 43 33 66 44 44 24 33 34 43 34 49 38 29 49 48 38 38 41 24 50 38 36 37 33 41 41 41 25 36 40 34 31 41 39 34 47 36 27 25 35 43 38 45 63 43 52 31 37 45 29 41 46 35 51 43 45 51 82 34 45 32 43 44 39 37 26 40 27 25 41 36 25 43 25 31 26 51 20 32 32 10 44 52 39 16 51 41 41 29 52 30 51 40 36 37 35 30 43 52 26 29 46 41 26 46 33 61 33 38 48 18 30 43 40 29 24 39 47 33 56 39 44 47 48 33 37 51 17 46 44 40 38 38 49 39 31 51 29 32 29 9 32 68 44 38 34 59 48 43 28 36 45 31 33 44 18 32 33 53 53 44 51 36 37 48 33 38 52 37 40 43 49 48 45 59 38 37 40 50 12 44 40 37 45 40 39 43 43 29 36 38 33 36 36 23 39 40 57 29 49 48 46 34 41 37 43 58 33 52 30 30 39 45 52 37 34 54 35 53 45 31 48 38 41 33 29 52 36 41 40 36 54 17 48 29 31 46 44 36 38 33 38 26 52 29 37 23 57 35 37 38 44 32 27 33 37 32 21 48 66 26 43 33 34 49 34 33 36 45 47 47 35 42 30 43 35 37 46 41 61 41 44 46 36 34 37 33 25 34 61 40 30 38 40 28 37 44 53 28 45 35 41 37 31 39 27 45 37 57 35 48 35 53 40 37 40 42 48 42 22 46 30 33 45 62 29 45 54 26 49 33 37 13 32 53 37 63 34 32 40 37 20 38 47 43 48 50 23 51 57 39 44 44 51 47 31 53 36 32 60 60 57 36 60 54 36 28 29 45 41 38 34 37 48 39 52 35 44 56 41 54 44 25 59 33 44 44 41 43 35 57 34 38 31 24 37 37 40 61 22 51 37 39 55 37 34 26 54 54 30 43 46 34 30 48 52 54 33 52 35 58 64 30 41 44 40 61 32 55 33 46 45 50 41 23 36 44 25 52 26 40 59 40 25 30 35 49 36 44 56 28 36 36 51 29 34 45 52 33 35 30 44 44 30 33 37 55 19 36 30 33 30 47 44 55 38 57 33 45 43 45 40 56 37 21 31 45 43 46 55 43 54 47 40 54 37 29 44 43 24 51 43 23 32 44 53 36 49 41 40 48 30 30 36 49 29 51 39 29 35 30 37 16 37 44 40 48 37 15 57 49 27 43 48 53 34 41 15 40 55 37 30 36 41 37 62 54 47 30 48 51 30 31 31 40 41 16 49 31 47 30 41 42 48 40 43 37 43 50 19 49 40 40 37 29 30 37 29 19 43 29 47 23 36 44 22 39 36 51 36 44 35 51 30 35 44 44 40 46 43 49 33 30 43 40 29 19 30 38 52 41 45 52 55 36 41 36 30 55 40 46 53 29 23 53 34 40 35 44 40 33 47 48 39 37 41 34 30 33 37 47 29 62 46 36 31 41 19 39 47 24 29 30 31 65 36 53 33 48 37 47 37 34 40 48 49 33 41 29 36 37 52 45 33 48 52 26 47 23 27 49 59 34 43 66 43 35 52 20 35 42 45 53 30 44 37 30 28 33 54 26 37 27 35 44 61 23 33 45 35 51 55 33 48 63 33 59 64 48 55 29 37 10 33 45 33 26 81 49 51 60 42 39 31 23 50 69 38 47 47 48 38 40 38 29 37 54 41 46 30 42 32 37 33 45 23 31 40 37 44 59 37 40 22 34 40 43 40 44 39 23 38 17 38 34 52 39 42 26 41 44 44 45 29 40 48 23 31 34 37 41 44 29 46 42 53 30 58 36 61 56 47 59 44 33 35 44 41 37 19 44 30 37 35 40 61 46 20 48 35 37 35 43 45 20 53 33 46 44 37 31 47 44 47 36 40 51 35 48 41 41 51 24 45 13 44 22 53 41 42 44 43 32 43 50 55 41 37 34 40 38 35 35 51 44 36 29 39 50 40 33 62 42 22 19 33 49 48 51 50 33 49 56 48 56 51 46 27 38 42 40 42 40 37 47 37 41 25 47 30 55 33 51 38 45 32 39 39 34 49 33 30 23 41 57 32 49 50 37 30 63 22 37 58 45 23 38 35 42 52 36 36 48 31 47 35 48 49 55 43 30 53 44 33 26 45 27 42 33 38 36 33 49 30 39 50 42 54 41 38 63 37 39 51 50 40 69 40 37 40 47 33 37 41 38 22 66 47 45 37 35 47 26 51 51 51 36 40 32 54 34 44 16 44 59 36 24 24 62 41 29 19 33 37 21 29 35 58 29 29 19 21 35 30 19 20 29 30 23 41 54 36 46 33 38 30 30 41 27 51 35 41 60 41 41 20 39 41 40 49 37 43 63 33 33 51 50 50 38 24 33 46 44 34 43 43 36 48 36 27 52 25 28 43 67 27 34 35 52 26 27 48 44 24 25 37 51 43 40 29 47 56 37 48 37 35 37 43 55 45 32 50 56 29 27 43 29 39 52 45 47 45 27 67 47 40 43 39 34 40 27 52 45 23 49 41 51 30 30 42 27 38 31 23 36 57 30 54 55 39 28 39 30 59 22 25 33 36 22 43 51 30 43 17 36 55 37 54 51 35 46 29 39 16 41 49 16 29 47 37 20 37 55 45 50 40 50 36 37 43 22 30 49 35 30 44 37 30 27 37 25 47 27 31 48 36 29 34 45 30 20 43 39 40 45 50 27 50 44 37 50 45 20 34 31 29 37 48 47 20 42 53 29 19 47 38 41 39 51 46 51 20 40 51 56 30 28 65 44 37 27 41 42 29 33 26 33 38 55 40 29 37 65 45 33 56 40 47 37 38 29 30 49 41 34 19 50 42 49 64 35 60 36 36 26 43 65 39 37 58 55 45 29 49 23 37 33 43 57 41 33 40 27 58 37 39 43 35 55 44 46 46 37 43 41 30 53 41 51 49 65 31 27 19 26 51 54 50 45 48 37 38 29 27 36 38 51 41 34 31 34 33 43 26 37 33 46 41 46 33 26 35 43 31 52 39 40 37 25 55 33 44 50 42 27 57 29 35 19 20 35 65 19 27 39 37 47 26 48 35 36 43 54 19 47 26 48 55 43 32 51 37 34 37 20 47 61 40 45 47 39 23 43 33 45 44 39 29 25 49 41 41 43 72 23 57 43 43 41 16 37 39 44 33 37 37 35 30 37 50 37 40 33 49 47 23 38 33 37 30 42 30 41 40 37 36 52 32 62 52 41 35 27 33 58 41 38 25 33 37 40 46 23 51 41 40 55 25 15 22 33 26 39 53 41 37 41 40 50 22 37 31 48 24 51 47 29 36 63 46 25 26 51 40 45 38 33 15 45 26 35 48 29 34 29 34 37 41 33 51 42 30 31 22 41 46 45 48 37 37 50 30 41 37 26 37 39 32 56 49 32 41 34 36 31 29 45 28 37 30 30 57 23 39 44 56 47 38 46 52 29 42 25 30 42 37 37 26 45 32 43 42 35 49 48 30 33 28 34 32 37 22 37 46 44 37 52 33 20 40 44 51 51 33 31 60 43 47 29 55 43 47 25 33 54 36 42 50 26 41 32 29 33 36 19 44 44 44 23 37 53 26 37 27 43 33 51 27 43 37 31 33 34 44 23 23 37 59 53 51 25 42 39 19 36 36 41 39 44 38 37 47 50 54 37 33 44 50 40 30 30 45 45 47 37 39 23 64 35 23 59 35 40 32 37 37 31 45 30 41 22 43 45 41 45 45 36 37 59 55 33 45 40 29 39 50 45 46 39 44 45 35 36 46 49 42 39 37 23 30 26 36 36 16 37 49 36 34 42 36 44 35 33 40 38 39 61 37 34 43 36 39 31 51 34 44 58 39 62 28 50 35 43 40 46 48 52 41 45 51 44 42 43 50 36 31 43 51 31 34 33 41 16 40 45 45 54 36 22 28 51 53 61 49 34 41 58 22 37 44 44 44 49 36 36 57 23 36 48 50 37 30 43 44 55 42 33 33 59 48 41 33 36 39 44 44 36 43 37 62 29 43 40 34 44 44 36 36 41 43 54 56 46 47 27 51 31 31 40 23 29 43 47 45 33 32 33 26 76 45 50 20 47 47 43 44 16 48 22 23 37 43 35 42 65 36 31 41 40 43 60 37 35 26 47 44 36 33 48 22 51 51 42 47 58 50 63 31 26 37 43 44 20 44 37 22 50 24 46 43 33 31 36 33 52 43 37 46 36 48 42 37 44 48 40 44 48 50 44 61 59 31 52 37 29 40 37 33 33 47 51 59 41 40 37 41 39 41 43 51 43 47 37 40 64 51 72 16 45 34 27 37 32 33 50 45 25 40 41 30 23 49 30 33 50 22 23 37 19 29 50 33 50 36 44 51 68 47 43 47 30 39 32 61 26 43 39 33 37 54 48 54 23 36 36 33 47 36 27 40 34 64 43 31 36 32 48 35 19 41 31 36 47 40 38 30 33 30 42 45 36 50 48 56 35 46 48 26 39 51 40 43 58 36 52 41 40 36 26 33 37 51 43 43 45 52 39 53 35 35 25 34 26 37 41 43 51 57 22 31 27 24 47 47 52 31 47 45 30 46 36 58 41 47 47 47 20 56 39 56 57 47 43 53 29 31 58 25 30 40 40 35 34 39 17 51 54 45 43 39 20 32 33 38 53 36 51 43 39 36 70 51 43 43 51 45 28 33 25 48 54 23 43 42 38 29 42 37 30 32 37 54 49 35 46 46 39 42 48 40 46 44 69 50 49 43 15 27 23 53 26 51 43 24 38 50 32 42 43 30 19 48 28 35 50 40 56 41 33 34 45 38 46 32 31 34 29 38 40 23 33 32 34 33 42 35 43 38 39 33 55 35 30 45 47 56 23 51 37 31 52 51 37 53 45 19 31 31 63 30 40 42 33 53 51 32 29 32 40 15 32 48 27 47 34 47 47 51 38 58 36 40 43 45 34 23 53 29 50 26 48 48 37 31 60 47 37 41 47 26 31 43 43 22 26 47 30 41 49 20 34 37 33 35 36 46 30 34 69 62 40 44 46 44 40 45 36 32 26 52 29 45 34 44 54 45 39 42 48 24 47 45 40 43 33 37 45 46 32 38 44 36 46 35 40 56 31 31 58 17 53 30 30 43 35 54 36 29 27 35 36 41 33 40 54 48 25 48 39 34 45 19 46 33 30 36 18 23 43 37 34 37 38 12 21 33 41 30 43 43 51 20 45 27 34 52 49 44 32 36 56 40 33 35 37 43 38 40 36 33 46 37 57 55 32 40 38 32 40 36 22 38 47 43 46 49 34 36 40 40 58 52 48 37 32 44 44 35 36 29 39 50 28 54 26 30 44 53 47 26 43 50 46 52 47 37 37 31 43 24 44 26 37 26 44 51 36 29 44 53 27 27 33 50 54 32 31 40 51 50 58 40 23 43 34 28 26 20 43 40 47 30 16 36 41 28 39 43 38 33 55 22 37 29 29 24 25 48 23 40 30 42 38 10 43 34 38 30 37 27 52 51 49 30 31 49 68 39 37 35 25 26 20 22 28 45 34 30 26 62 33 16 45 23 35 23 26 39 27 60 31 54 46 29 45 31 40 38 32 24 40 43 28 40 37 15 35 36 43 33 30 40 39 55 48 51 33 29 44 48 45 47 47 30 49 20 38 13 33 40 34 61 53 34 39 18 37 19 43 43 36 26 38 33 42 63 47 45 29 37 34 50 44 48 30 43 31 32 46 36 45 54 37 29 41 60 49 37 58 22 37 33 37 33 51 55 45 42 34 30 61 23 26 31 39 17 46 36 32 51 41 32 24 41 36 44 35 51 24 50 32 33 17 33 36 51 36 43 23 22 35 40 31 47 34 25 47 33 29 22 31 23 37 44 39 23 29 46 39 33 40 33 62 54 33 43 26 37 51 34 44 32 38 24 37 29 34 59 30 44 52 66 43 26 32 33 33 24 23 18 36 52 30 26 35 34 40 38 28 29 34 43 37 37 37 36 23 37 43 66 57 58 49 36 27 54 34 45 35 34 40 35 53 51 27 33 37 33 30 35 30 29 33 9 31 31 49 16 33 33 23 44 34 49 26 16 47 47 27 36 49 55 32 36 36 28 38 51 23 10 41 31 35 38 51 51 27 26 42 54 55 23 31 50 40 39 44 23 51 19 45 36 50 37 29 51 26 36 50 47 39 31 40 50 29 25 52 63 37 51 38 34 45 35 52 66 49 22 33 44 40 41 38 31 45 35 36 37 41 34 39 21 45 37 40 40 41 65 31 20 49 30 58 33 48 18 20 39 53 41 51 51 23 37 27 45 43 44 57 35 48 46 29 23 55 21 41 53 37 61 39 47 19 61 30 49 41 29 22 26 37 37 17 35 48 45 55 38 33 34 35 34 48 41 41 32 41 39 38 35 38 49 25 40 50 45 39 39 50 23 37 40 36 36 42 30 13 29 40 22 48 48 50 33 40 24 56 45 38 38 47 22 39 26 49 43 34 57 55 33 58 48 32 43 43 38</t>
+    <t>JSU(0.43293060412601436, 6.521633824401786, 2.7744106573247924, 79.1713959008355)</t>
+  </si>
+  <si>
+    <t>-14 19 -7 -13 8 11 8 18 -3 -22 -20 -3 7 14 2 -21 -15 -3 0 1 -15 4 15 -3 -19 -21 -3 8 2 -6 0 3 9 -1 -3 -3 10 -17 12 27 -6 -3 11 5 -15 6 -3 -11 5 -13 -7 -3 -3 13 11 -18 14 6 -4 24 -3 14 -9 -10 -6 -7 -3 -7 14 -7 7 -11 -2 -6 7 -5 3 -28 -4 -10 -22 11 -7 -6 -18 5 14 -8 6 0 -7 -11 -6 3 -3 3 -7 20 -4 3 -24 -17 -17 10 -26 3 -1 9 7 3 -17 -4 -10 6 12 11 -5 15 -3 -16 23 -14 4 -2 1 -9 -7 -3 -20 -3 -15 2 -11 -1 22 -17 -11 -10 -19 3 -3 1 -3 10 2 -9 5 -3 -3 -1 -19 -3 6 -2 -7 -7 -18 0 9 -8 3 10 -3 -18 -5 10 -17 7 -24 11 -3 3 13 -8 -10 -6 -7 4 3 -35 -9 -4 -10 -14 -11 -4 -14 -7 -16 3 11 -11 -12 10 -7 -7 11 -3 18 8 -3 -2 -8 -7 -10 -5 1 3 -20 -7 14 28 0 -10 -8 7 -4 -3 5 3 -5 10 19 -14 -14 -8 24 -4 7 7 13 -8 1 -4 -4 3 -3 6 -6 -7 3 -30 7 -5 -2 -3 -21 -19 17 3 12 -8 -14 12 -14 -6 -17 16 22 -1 -9 2 12 -4 -18 11 -9 -38 13 17 3 3 19 20 28 -13 -18 16 -8 -15 10 10 -26 -14 -21 7 1 10 -11 -4 11 -10 -19 -2 -14 -15 -17 13 10 -13 -10 -7 -3 -3 4 -21 -9 2 41 -19 -3 20 -14 -1 27 4 -11 -8 3 4 -11 4 -17 -17 2 4 -20 8 -17 -3 3 -11 -6 -1 -12 -5 -7 17 19 -16 -13 -17 3 -18 -5 7 4 -8 -3 -6 -19 10 3 -19 -9 -29 -6 -7 -7 -4 -20 -3 -18 -2 -2 -7 6 -5 20 2 -6 -3 -10 -1 -14 5 -14 -3 5 -7 11 -12 -6 -3 -7 -10 -14 -7 10 -8 -6 5 -3 -3 -21 6 -7 -10 -7 17 1 6 26 -17 -3 14 -17 1 3 -6 14 3 15 -3 24 21 13 -1 -7 -8 -1 -4 3 -29 -8 6 3 -13 -10 17 -18 -7 13 -17 -7 -18 12 -8 4 13 -3 10 27 -5 -6 7 -14 13 10 18 -5 6 -25 12 3 3 -3 -2 -34 -6 -22 -13 -18 7 -5 -15 5 -10 10 2 -12 6 -1 5 8 -7 -11 -34 6 -20 -14 -15 4 -3 -17 -17 7 -34 3 -30 4 9 3 -28 -16 -19 4 -7 7 32 -3 14 -22 -22 12 -3 -2 10 -3 4 -7 -3 -9 -5 -15 -8 -14 -1 -7 7 7 -14 -3 2 -17 -6 14 5 3 -7 18 12 -7 -4 -14 -3 -10 -4 22 5 -11 -15 16 5 -6 13 -12 -10 -6 4 -15 8 -10 -15 -4 -17 23 -21 9 -22 -32 5 19 -23 -24 -7 -12 24 -13 6 -15 -27 0 -20 -3 1 -7 -8 -3 -13 6 -3 7 -3 -14 -22 -7 -11 -4 7 -18 14 17 -13 17 -3 -14 -7 -1 14 -3 2 -6 7 -3 10 -8 25 -17 22 -17 17 3 -1 3 1 0 14 -5 18 -6 7 -4 -21 -3 16 -3 -5 -15 -8 -3 -3 7 19 15 -2 -21 -14 -23 -5 -3 9 -25 -8 -2 7 -10 8 -3 12 7 -6 -10 -3 12 -1 -7 -24 -18 -23 -4 -10 -7 -20 4 -5 -2 10 -3 3 5 -23 -7 5 -3 4 -6 -6 -3 -10 14 -6 9 12 -3 15 -7 -14 14 3 -29 -13 -10 3 -7 -3 4 -13 10 -6 5 8 3 17 -3 -32 -3 7 -8 -6 2 -11 1 3 -22 -8 6 -9 24 5 -4 -14 3 19 -3 -15 -30 -4 -3 2 28 -12 -7 5 -6 -5 7 -9 -14 15 -8 -6 17 12 -9 -5 -19 17 -3 19 -5 -4 -14 -28 -3 -20 -9 1 -7 -8 -21 -15 -10 -27 6 13 -7 3 10 7 -7 -13 -6 6 -6 14 24 -2 -1 18 4 -11 6 -21 -9 11 7 -1 5 5 14 3 6 -24 -17 10 17 -3 -6 15 8 15 6 6 -6 10 -17 10 9 -8 28 6 -20 14 -27 -21 14 -13 -19 -35 -19 -3 -12 -1 -24 -3 3 7 -5 -9 10 18 -5 -12 6 -10 6 13 -14 3 -5 -7 9 27 13 -10 0 -5 -3 8 14 -8 -6 7 10 7 11 15 17 -11 8 3 -4 -17 16 14 8 13 -21 -27 -5 -25 -8 -14 -5 -6 -2 -15 6 -19 5 -13 -3 -5 -12 -8 -8 -5 -27 -3 -20 13 -7 7 -13 -13 10 -20 -4 -10 -13 -8 -3 -6 -6 3 13 -4 -8 -14 -20 8 -3 -5 -12 -29 23 11 27 3 20 -11 -3 -4 -26 6 6 -1 23 3 -7 24 6 -6 -21 6 -7 -3 -7 -21 6 -3 -19 -13 10 -5 -28 -19 -8 5 -12 -23 -24 4 22 16 10 -19 14 2 8 -10 -7 3 -3 -7 -17 11 -17 3 -7 -6 -17 3 -7 -1 6 17 -3 -24 3 -4 2 7 -17 -21 -17 2 -4 -3 7 3 6 -10 -14 -15 -4 -11 3 -13 17 2 4 10 6 -2 -5 -42 -16 -7 3 -24 26 1 10 32 -3 -11 -30 -12 -21 -1 3 20 -20 -6 -13 -7 14 7 -5 -4 -20 3 -10 4 9 -1 3 7 11 -11 -7 7 -14 3 3 -3 19 -8 -2 11 1 -3 -22 -8 3 -1 3 -15 -8 -3 -9 -4 -4 1 10 3 -9 6 -2 -17 -28 -7 -6 -21 3 10 -14 -18 -7 -19 -4 13 5 10 5 -7 11 -1 5 -2 -15 -18 3 4 12 10 7 3 -4 -37 18 -19 -3 -21 -9 -7 -3 12 8 -9 -10 3 7 -8 -17 7 -7 18 -9 -15 -13 -7 3 -7 3 -4 -11 4 -5 5 7 -2 -14 5 3 6 19 -13 16 -4 -13 -13 -10 28 20 13 9 3 -6 15 -22 -7 -15 -9 5 4 3 -1 -34 3 -12 -16 -6 10 5 5 -3 -5 -15 9 11 3 9 15 -26 3 -2 7 -21 6 10 3 2 -20 -15 2 -24 22 22 5 -15 -8 -8 -21 1 -3 -12 -5 3 -4 3 -6 10 3 -20 10 3 14 -4 -2 -39 -5 3 7 -4 13 -4 11 -10 -30 -7 25 -11 3 2 3 -3 9 -14 -23 -10 4 -10 -21 -4 -17 -10 -14 -9 5 -6 -9 14 -1 4 -14 0 6 6 -7 -6 12 26 3 22 -18 -15 -21 11 -7 -27 -10 14 3 -30 -4 9 5 -4 -13 14 3 10 -3 2 -4 -4 -4 -18 -4 10 5 -6 -8 8 -11 3 8 21 -18 3 -20 -3 -15 18 20 2 -15 -8 9 -13 4 -7 -6 -7 6 4 -43 -17 19 -10 -4 11 -18 -26 -18 -5 -7 34 -6 -7 16 9 4 4 5 5 1 29 15 9 5 -14 -18 -11 6 4 1 -6 -6 -2 4 -14 -12 -12 10 -3 9 -5 9 -10 -17 6 -12 10 -2 -6 -3 -6 -36 9 17 -7 14 11 -3 -27 -10 -5 -11 -5 21 -7 -11 7 16 -13 -3 -13 -17 3 2 -3 -2 -5 12 -10 20 -3 -3 -19 3 6 4 -9 2 6 1 -11 6 -29 -3 7 -4 -3 16 -4 3 -23 -14 1 -5 -12 -3 -4 -2 -9 -21 5 -21 9 -34 9 -24 -17 16 7 -13 3 -3 1 -2 -2 8 -17 19 3 7 4 7 1 4 -7 -15 5 -12 -22 6 -3 -3 -7 -7 3 12 -23 14 2 -24 -13 -16 -14 -11 -13 -8 -5 -2 -3 -24 14 -6 -6 -14 -16 -4 -2 -3 -10 10 -3 13 -4 8 -24 16 -3 -9 -16 -6 -7 2 -12 -2 3 6 -10 -19 11 3 15 -6 -9 3 -3 -4 -1 4 -14 -3 -19 7 17 -3 -21 7 -17 -35 -3 -9 -9 -11 -13 -14 -2 28 -3 -9 6 3 -12 -4 -2 -18 -40 -6 -33 -3 10 -3 20 -10 -6 -12 -17 -5 -16 -10 10 -3 -13 18 -4 11 -7 -3 -11 -27 13 -4 3 -17 -11 -18 -2 -19 -8 -6 -11 -6 10 22 -17 14 3 1 14 -1 21 3 -14 -18 20 -34 -15 1 16 -6 -3 -3 9 3 -7 -8 -4 -31 -6 3 -1 -14 5 -1 27 -8 8 -7 6 -3 3 7 11 3 -13 7 -2 -5 -9 2 -18 -10 -27 0 -14 6 10 -10 12 -30 -5 6 10 7 9 -11 -7 -5 7 7 14 29 -18 -14 3 -3 -5 3 -18 9 -14 10 -6 3 2 6 6 -8 -18 -15 -9 -22 -7 -5 5 4 -14 -14 10 3 7 -1 -3 4 -9 -2 6 -2 17 -12 4 6 -7 -6 -3 3 6 -19 8 -7 10 -26 -5 -23 -8 -15 21 14 -10 -6 -5 -7 8 4 6 -5 -13 -18 6 -4 -4 3 -11 13 -8 13 3 4 -3 7 8 2 12 -8 -6 14 11 5 3 -26 14 -13 -3 -3 14 3 -23 -8 -10 5 -10 7 -10 -11 -3 2 7 2 7 -2 -28 -4 -14 -4 17 3 6 3 14 -4 -3 -6 1 2 14 4 -6 -25 7 -10 6 7 -3 -7 -12 1 14 -14 9 -31 1 2 -8 -24 -7 7 -1 -9 -18 -4 -14 3 -3 -3 -17 -7 -27 8 -5 -4 -18 1 5 8 3 13 7 3 -18 7 -15 -20 8 -22 -16 8 -6 -3 -3 -4 -6 5 16 -19 -22 -14 -3 6 -11 -11 -4 2 10 17 -3 -9 -8 -23 12 -2 -4 9 3 -9 18 -10 13 -14 -4 -32 -18 -5 10 -5 3 3 6 14 3 -6 -6 -6 14 13 -8 -21 6 -18 -5 -4 12 -7 -11 -21 2 -9 3 11 10 -12 7 5 12 11 3 -19 -1 24 -3 -23 3 10 -6 -8 28 -5 -3 -17 -4 6 6 6 7 -6 -28 20 -37 -3 -6 -8 10 4 -1 7 1 -19 -6 -17 3 -21 -14 -23 3 -4 -13 -3 -4 -8 -5 -13 -12 -17 26 9 -7 -3 -2 -15 5 -14 -8 -13 -12 6 -14 -3 9 -3 2 3 -1 -17 1 -19 6 2 -3 1 3 -4 4 -4 -14 -21 -12 -7 -19 -13 -18 11 -3 -1 7 18 6 5 -6 6 -19 -11 12 -14 4 -6 -23 -25 -10 -3 5 -5 3 -3 -7 5 -10 -11 -15 -7 3 -21 8 -13 11 10 -19 -5 -18 -13 -5 7 -24 14 23 -20 -2 -20 -19 -1 3 -10 1 6 -16 -13 -13 -10 -11 6 -17 3 10 -5 -16 -17 -7 -7 -3 7 7 -8 -18 -3 -4 -13 -3 3 -19 -3 3 -21 -6 28 23 10 -26 -5 -11 9 -8 12 -29 7 -3 -8 -3 3 3 -6 -15 14 4 -3 -21 10 -22 -3 26 12 -2 -20 -21 -8 11 3 -5 6 -7 -19 -20 -10 -18 -6 3 15 -4 3 -8 -13 -6 11 -2 7 -6 3 19 -4 -28 8 8 -18 -3 -6 14 14 -17 2 -3 3 6 3 -3 -21 -24 14 -17 -13 -6 -7 8 3 10 -14 3 -10 -21 -12 -10 -9 -13 3 -18 10 -10 23 17 -13 -3 -14 -15 -31 8 24 -17 -6 -6 8 7 13 -22 3 18 3 1 -4 -11 13 23 7 15 -16 -15 -3 7 18 -17 21 -19 4 3 3 -18 -3 4 -9 -19 -13 -14 1 10 -15 -20 -20 -4 -5 3 -4 3 -26 -13 3 -6 13 -13 21 10 -11 -9 8 6 4 -2 -5 11 4 7 25 3 -21 -11 -18 -31 11 6 -17 -13 7 9 -6 11 12 5 -3 -7 -3 3 -7 -17 -13 -2 -28 -21 -3 6 -29 8 -22 17 -13 -11 11 -13 -11 -13 -38 -13 17 6 13 -7 6 2 -3 6 19 -15 10 5 -6 2 4 -14 5 -10 7 -23 6 6 17 -28 -19 8 -13 -4 -22 2 -27 -25 -5 -14 -6 17 17 6 -17 16 -16 0 15 -5 -14 -7 -3 3 -21 -7 -6 8 -23 4 -14 -23 -13 -16 1 8 8 -10 6 10 -18 10 7 -22 23 -11 -10 -7 30 -25 6 -18 2 24 -14 7 -3 24 -24 -13 8 -21 -24 10 18 -17 -7 -15 -3 -19 -6 10 1 2 -8 11 10 11 -10 3 -5 -7 -6 24 18 -14 10 15 -2 -7 -7 3 7 5 -14 -2 6 -26 7 -20 13 -11 -9 0 -10 18 -6 -21 -14 -6 -3 -7 1 -9 -4 -3 6 11 -10 -3 18 -6 -10 -4 18 -17 -5 -3 3 -11 -1 7 -8 21 -19 -3 -17 -10 5 3 -19 -13 3 12 16 -17 -14 -14 -9 7 -3 -8 -3 14 -1 -5 3 -3 3 -2 17 -16 3 -31 -6 -21 -17 3 -21 1 -3 -6 -14 13 -7 -14 -2 6 -13 -1 -18 5 14 2 12 3 -10 13 -20 -6 -13 -18 -3 -24 9 15 -20 27 17 -21 7 -13 10 -6 3 5 -12 20 -17 -10 -1 -6 4 -15 3 -2 13 -20 -11 21 10 4 1 12 -14 -2 -9 6 20 10 3 5 -1 -15 16 7 -14 4 -3 -7 -17 -14 -24 -5 -21 -3 -6 -6 -10 33 6 -10 -9 -20 23 -9 -2 -4 -28 -20 -10 -18 -25 6 -10 -17 -16 15 7 -4 -20 28 14 14 -13 7 3 1 -11 -2 -7 -14 -10 -1 17 1 -7 2 3 3 -3 -11 -23 -18 -3 -3 5 -6 -4 1 8 -7 7 -6 3 -4 3 3 -11 -3 24 10 -6 37 3 -10 3 -27 10 -27 -11 7 -22 17 -3 -20 -16 3 18 -3 11 -17 7 -10 -13 1 -6 7 -5 15 -5 -6 -8 1 -6 -7 3 6 -3 -3 19 -3 12 -11 6 -9 -9 -13 -17 -3 -5 -25 -10 -2 -25 -21 -3 -10 -2 4 -4 25 5 -15 14 3 7 -15 -9 -1 2 6 -6 1 -2 6 -25 -8 -3 -4 -20 -3 -5 -10 22 3 4 2 8 -12 -20 10 10 3 -3 -23 -24 -8 -1 -1 -4 9 -11 3 12 -10 -7 15 -8 21 -13 -25 3 17 -23 -4 -10 -10 -27 7 -7 15 -9 -7 6 -3 -10 20 -14 -3 4 -15 5 1 3 -15 3 -24 -3 13 -7 4 5 -7 -4 -10 3 -3 -17 -3 6 -8 -12 -23 -10 -14 -13 15 4 -3 -27 -13 14 8 3 -14 -3 -10 -12 3 -6 10 -11 22 -6 15 -3 3 4 -29 -3 -7 31 -3 6 14 -6 18 -20 11 -15 3 3 -7 15 19 -12 3 11 3 -3 24 6 -20 28 29 3 -5 3 -13 8 -14 -6 -15 -3 3 -21 15 -14 -13 -7 -3 9 -31 -3 2 -3 10 -18 -1 7 -24 5 -18 -4 -6 3 5 -16 -7 15 3 7 -18 -3 9 16 -13 8 -27 -8 -3 7 6 7 2 -14 7 -1 -12 -6 1 -6 28 -7 8 6 -4 2 -17 2 -3 9 17 -13 9 10 -1 -4 3 -15 -21 -3 -3 -5 -6 29 -4 -4 -21 6 -13 3 11 3 -26 3 25 6 -3 -20 1 -3 -11 2 -4 -11 19 -7 -14 5 -6 7 -15 -31 -11 -27 -11 -6 6 21 -17 -3 -3 -5 5 3 -7 -14 -10 6 7 -3 14 24 -20 4 -23 -23 -10 -22 10 17 -27 -4 8 5 -3 3 -12 9 -9 8 -9 -27 -18 13 4 -8 -12 -18 31 -1 -11 3 -14 -5 -10 -7 -8 -4 -3 -1 -7 -14 -24 -23 -1 -11 3 -15 10 -9 -3 -10 -28 -14 -16 -3 3 8 -31 -3 3 -5 39 3 -7 -7 -27 7 27 -3 -2 -8 4 -4 10 12 -7 -10 -6 -18 17 -32 -1 15 -3 -5 14 -3 3 17 -3 -14 2 -6 1 -6 -3 2 -11 7 3 -18 6 -15 -9 -14 -25 24 13 -18 -5 2 -8 -17 -3 7 -3 -3 -13 -14 -6 21 -12 -5 2 15 10 -28 6 -21 -3 10 15 -5 -21 -4 -9 5 -11 -13 -7 18 6 -7 18 5 -16 21 18 4 6 4 -10 0 3 -14 10 -13 8 -10 -28 10 5 -22 -24 16 -21 -4 5 -7 -11 -7 9 -2 11 -6 20 -27 -17 -17 5 -10 7 -6 8 -12 -7 21 -8 -3 -33 4 -11 -30 7 4 -11 7 5 1 9 -13 -12 8 -15 16 -19 -3 22 8 -11 -3 -10 -5 14 -13 7 6 3 -20 3 -6 -4 10 -17 -41 5 5 12 -9 -5 -18 8 -17 6 -27 -9 6 -9 -6 -14 -21 -25 -14 15 -22 10 -5 -6 -2 25 20 -5 -9 -20 -18 -17 -14 7 6 23 10 -6 9 17 -7 8 -3 -10 -18 -11 17 -9 -3 -1 -11 10 -11 -11 6 -24 5 11 -20 20 -3 -11 -8 4 14 5 -10 -9 -7 13 3 10 -1 -13 -3 -5 -11 -17 23 19 -24 -7 7 3 6 6 -9 2 16 -7 -24 2 24 -15 -4 3 -16 -17 -7 -14 -7 -27 -22 21 -9 -6 -14 3 23 11 -6 -7 -4 -21 10 4 -3 20 16 -2 7 -13 -14 -10 6 9 1 -10 -2 -4 7 6 -11 4 -4 10 -11 8 16 -13 -8 -10 0 3 6 5 -13 -3 -8 -3 -6 3 7 -17 -3 -4 -21 2 -4 -19 -6 3 3 -5 -3 -2 4 -10 -10 17 4 -7 25 9 20 -3 -14 -9 17 -3 -4 -17 -12 -2 -14 -3 1 -7 7 -12 -10 -13 25 3 10 -12 -9 3 3 -13 11 12 10 -5 6 -23 10 -7 13 3 -17 -17 3 -17 -3 13 -22 3 7 -2 -3 -11 -11 -7 -3 4 4 -20 -18 4 -4 13 20 7 -17 -11 -18 -3 8 -11 17 -17 -7 -11 -1 -8 3 3 18 4 -1 -8 -8 -18 1 20 36 14 6 9 -19 -13 17 -4 13 11 12 10 15 8 7 1 2 -3 -7 3 -19 3 -10 7 -7 -13 -14 -20 -4 -14 7 -6 6 -4 -2 -22 1 -18 -14 -1 4 -11 -4 -10 6 -15 3 -3 3 -16 9 10 -14 3 -2 17 -20 4 12 1 -5 4 10 -7 -14 -3 -4 -4 3 -14 3 -10 6 3 7 -18 3 -14 -1 5 -7 3 -1 -10 20 -7 -10 -16 -12 -6 2 -14 -7 9 -3 2 -13 -6 9 10 -6 -6 -3 -4 -3 8 -14 -9 3 -36 23 19 -8 -14 -4 -20 -7 -27 -13 13 -27 -9 -3 -11 16 6 -6 -7 -4 14 16 15 -10 -3 -13 2 -6 -5 -14 -15 -6 8 7 19 -10 8 9 -4 -20 -5 2 -4 -26 14 10 6 -32 -7 2 -11 -24 -20 3 -10 -12 -3 -7 17 -38 -7 3 3 6 -42 -11 -24 11 16 -20 3 -18 12 -11 1 -6 5 -2 8 11 -6 -21 11 -3 -11 10 5 -25 11 7 11 6 -3 17 5 -11 10 7 -24 -20 -6 5 -21 5 -5 20 -15 14 -17 3 -2 7 -3 -30 18 -13 -14 -2 -1 -25 -6 -4 -10 -4 7 -18 -23 -8 -3 6 -9 -7 16 7 4 3 0 3 10 9 9 2 18 -14 -18 -27 -27 3 -5 -3 -7 16 -11 -7 -14 -20 9 -10 -3 6 -10 -3 -24 5 -7 23 31 -14 2 -12 4 24 -32 3 -16 -2 5 6 -9 -18 7 10 -10 -6 -5 -10 3 4 -8 18 5 -8 -15 -7 -5 -17 -4 8 -12 -3 -6 -6 -3 4 6 15 -3 -35 -3 17 -1 -4 -9 -13 5 11 7 6 -14 -22 4 -28 4 -4 -3 -38 1 -3 16 -11 -11 1 -37 -12 -22 -18 22 -8 7 -18 -12 2 4 3 14 1 2 -21 3 -3 -14 1 29 -13 -11 -4 3 7 -19 -1 -11 -9 -25 -24 -7 -10 5 -3 -7 -34 -3 -3 -15 1 -5 -6 3 6 9 -3 -11 5 -6 -3 14 -4 -10 -10 21 -6 -29 13 3 8 -20 -7 -18 -5 -5 -3 -12 -7 -11 -3 20 -13 -3 6 -16 -5 8 -13 -31 0 3 16 10 3 -18 -3 15 -3 -5 -7 3 9 -3 -9 -3 3 -19 -7 -10 -6 3 11 -7 7 -5 13 3 3 2 -17 -4 7 12 -11 -5 -3 14 -14 2 11 -14 15 27 -6 -17 -5 11 -3 -10 -4 -2 19 -12 6 -25 -3 -9 -24 -4 -10 16 -17 6 -8 11 5 25 -17 12 3 11 11 6 -5 -17 18 7 -7 -10 -34 17 6 -4 -22 -5 8 1 7 -1 6 0 -4 6 -7 -1 3 19 14 -11 -37 -13 -2 18 -21 -18 -15 -11 -26 -17 -38 11 -3 -15 4 -5 -18 -1 18 4 3 -3 14 2 1 -18 0 27 21 11 -24 -6 -4 3 -4 -10 -10 -1 -7 -4 -8 -9 -24 -5 -23 -12 13 1 -32 -7 -10 32 -3 -7 -23 -19 3 -13 -2 7 4 -3 -7 -3 7 -13 -10 14 -1 3 -25 -18 -3 -20 15 -13 3 -3 -3 -3 -17 9 -17 6 -3 -9 15 5 3 3 7 7 -22 -6 7 7 -3 3 -3 6 -25 -18 3 -38 18 -7 3 -4 -19 3 -22 -1 3 3 -6 -24 7 3 5 3 -13 3 -9 7 2 -4 21 -17 -5 -14 8 7 -3 -6 6 -21 -3 5 -3 -6 -5 3 -5 -6 -3 -18 15 -22 -6 -19 -4 -9 21 4 14 6 7 20 19 -7 -9 -17 4 -15 -18 18 -13 -8 -13 -14 -2 -16 -3 19 -12 -19 4 7 -13 14 -7 -3 -6 1 -3 -28 -3 -13 6 -8 -17 4 -3 17 3 -7 -10 -9 3 25 16 -17 -3 -8 -3 17 -9 -3 25 -4 -35 -3 1 6 24 -6 3 -13 -6 4 -10 -10 11 -27 -12 -18 3 23 -8 -7 -27 -6 14 18 -14 -4 11 53 3 8 -3 -21 -13 14 -3 -14 -4 -6 1 3 6 25 -16 14 -19 3 4 -8 13 -13 8 -17 -11 31 2 -1 -14 -3 3 -14 9 12 5 16 -15 -6 -3 -3 -20 -2 -5 -5 17 -22 -10 -3 4 9 9 -34 -7 -6 -13 3 -4 31 -7 7 4 5 -17 11 -2 13 -12 -2 -19 9 -23 -6 -10 -14 6 20 10 13 3 -3 2 -41 -18 9 6 -2 -1 3 2 -18 4 6 -15 -3 -32 -24 -11 -5 -8 13 1 23 -3 -1 -23 14 -6 -10 -7 -2 -10 -6 -9 13 -24 -21 -7 3 2 -6 -20 -33 10 -34 9 25 -8 -16 3 17 -8 -28 21 -15 -3 -7 17 -31 -12 -18 -7 -10 -5 9 -21 -5 -18 11 -23 -15 -3 7 15 9 1 -31 7 6 -6 -5 20 -24 -21 -1 -20 -13 15 -2 -4 -12 -11 4 14 -7 3 -12 -11 -32 27 -6 13 -28 -14 6 -17 -10 7 -18 -6 -1 -4 -14 4 -2 -3 17 -14 -7 3 -3 -6 3 -35 -4 -6 -28 -23 -11 21 3 21 6 -14 16 -3 -3 -1 7 -6 15 -21 -16 -8 -27 2 -13 5 7 3 -4 7 25 3 -17 -11 14 2 11 1 -7 5 -7 -12 5 -10 -7 -8 -11 -18 3 -7 13 13 6 4 -4 -3 -17 5 13 18 11 -7 -22 6 -3 -20 -3 10 11 -13 -14 22 -10 -3 -16 -3 30 16 -2 -19 2 -2 -2 3 -4 -9 -14 6 3 -2 9 20 11 -3 3 -5 -6 5 16 7 -17 -14 -3 -7 -3 21 3 19 -3 3 -4 3 -29 12 3 -4 -7 -26 17 17 -8 -6 -8 -1 7 7 6 -9 11 13 -22 4 -6 7 9 7 23 7 -18 -3 -7 -10 -27 -29 4 -11 -1 -5 -16 3 -4 -17 3 3 -21 11 6 3 -3 3 -3 -9 8 -14 4 -19 -17 -26 14 -27 -1 -10 -6 1 10 -3 3 10 -14 -7 8 -19 7 -11 16 0 9 -3 -1 3 -6 -3 5 -17 -15 -1 -15 -11 -3 30 -6 -10 3 13 -12 7 -9 14 -17 -7 3 -11 -11 -6 -10 -18 28 -10 -7 -10 5 -13 -6 -1 -11 17 -2 -6 -18 -1 -15 3 -3 -17 14 -10 3 -17 3 -2 -7 -20 -3 3 -20 14 -3 -3 20 4 -16 -9 13 -15 -3 -3 -3 6 -23 -3 -29 20 -11 6 1 6 -26 -1 -14 4 -9 -10 7 -42 -21 -5 -10 2 -4 -13 6 -5 -4 14 7 -11 3 -3 11 -11 -8 -16 22 -14 -21 -19 15 -8 -3 39 -4 9 -2 -2 22 6 -13 13 4 -8 -17 4 0 10 9 -6 8 37 3 -18 -14 -17 13 14 9 15 -3 -4 5 -28 -17 -1 3 4 5 -13 -3 5 -7 -14 3 8 -9 1 -4 5 -9 -19 7 -10 -6 3 6 9 4 3 4 -6 -29 8 12 12 -25 -1 -26 -13 -3 -7 -24 -20 6 12 -20 3 11 -3 -14 3 4 -15 -23 8 7 -3 -3 -17 -8 17 -11 -8 -16 6 -10 -21 -17 -1 -6 -10 9 -14 -7 -8 3 -20 11 -17 3 -24 18 1 -9 -11 -10 14 -10 3 -4 -4 -7 7 11 5 -4 -2 2 13 13 -11 -6 -2 -4 8 7 -8 16 -10 -8 -11 12 19 6 -6 -3 2 1 -1 -4 13 -9 -4 -27 14 14 -4 -4 -4 -17 5 -11 -9 -18 8 -8 3 -35 3 -24 4 -14 -7 -2 10 -24 7 17 -3 13 -3 5 7 -10 -9 -15 3 3 -3 -4 14 -21 -18 10 -14 14 -4 -3 3 3 17 -7 3 10 -7 -14 13 -3 -19 -1 -6 6 -27 5 15 -12 -10 21 -7 -7 3 6 17 7 -1 7 -20 -3 3 3 -3 -4 20 -5 -6 5 17 7 -14 -3 4 1 -3 -3 16 -11 -25 -17 3 -17 -7 -10 -14 22 -25 7 3 -3 -3 3 -1 18 -13 -8 -7 -4 -6 -2 -9 2 -3 7 -7 -5 4 -24 -4 11 -3 4 13 6 3 -2 -3 -5 -23 4 -12 -3 23 -2 4 4 -4 -6 -6 -12 -6 6 6 -2 3 -12 -3 -6 -38 -10 20 -2 -21 2 -3 -29 -11 -17 -38 31 4 -4 18 4 -26 10 -3 -12 -10 -8 13 -5 -11 -10 8 -27 -18 -16 -4 -3 -25 7 17 -7 -16 -13 -14 3 6 19 6 -9 -3 -3 11 -11 -15 -9 -6 21 4 -14 3 -7 -18 -3 3 2 -1 -13 -28 -7 3 8 7 -2 -34 -9 11 -16 -2 6 -3 -11 7 -4 7 -4 3 -6 3 11 2 6 -14 -3 4 6 -13 4 14 8 14 -11 6 -25 -19 0 -4 -6 -28 -11 29 -13 -7 -4 -6 9 23 -6 6 -10 4 -5 1 -8 24 3 -12 -3 6 -7 -4 19 -13 10 -4 17 30 -3 7 10 -24 -19 4 17 -3 3 10 -8 3 -5 1 -12 7 26 -27 10 31 5 12 13 -32 6 -5 17 -1 -11 -17 3 7 -9 -3 -7 13 3 14 -10 -14 4 -3 6 -24 5 19 10 -9 -5 -3 1 6 -7 -11 -16 -19 -17 3 3 3 5 -10 -3 -23 -16 10 -4 -20 -16 -16 -3 -31 -3 -16 10 -13 5 18 -14 1 10 -10 3 -6 -6 -15 6 -14 -17 -1 -9 8 -3 19 3 -11 22 -10 -11 22 3 -3 -3 -3 -18 -1 3 -3 1 -19 -5 7 -4 10 3 -22 -10 14 3 -11 -8 -3 3 -5 -7 -12 -4 -14 -21 -11 -24 -4 3 -27 -19 -3 14 -3 -21 14 -10 -5 -21 -22 -2 -12 -4 -21 -4 7 8 11 6 14 -4 -7 24 14 -6 15 10 -7 27 -31 1 4 21 -9 2 -6 7 2 19 6 21 4 -3 -4 -6 13 -2 -16 3 17 7 19 -6 -3 7 10 -12 -12 -3 14 6 -13 -3 -4 3 7 6 -6 15 -15 1 -22 12 -35 19 -8 16 -6 -6 10 -6 8 6 4 17 23 5 -14 -3 -6 -22 -12 3 -26 -7 -14 3 2 18 -7 -16 -8 3 -10 2 3 -10 -13 14 -9 20 3 -8 13 17 17 -7 -12 -13 17 -16 8 -11 -17 -8 3 -14 -9 2 -4 11 -8 -3 20 21 -11 -16 3 -3 -13 10 8 3 13 14 3 -2 -5 3 3 -5 -8 -3 -3 8 -6 11 9 -14 -3 -7 -21 -14 -8 5 28 -14 -6 -24 20 3 9 -3 12 -1 -4 13 -15 7 -13 -12 6 -1 -10 7 2 -8 3 -4 7 2 -5 -7 10 -20 4 11 -7 -8 14 17 14 -13 25 -7 -5 3 15 6 -13 6 -5 -7 16 4 12 -7 9 1 1 -7 -6 20 1 -11 -4 -30 -18 -14 -21 7 -2 -2 -21 3 -4 -1 25 -8 3 -4 10 -3 -14 3 -4 18 20 -16 -3 5 -9 3 -14 -18 -18 -14 -7 -9 -26 18 -6 10 -7 -34 22 -14 -14 -3 10 6 2 9 -6 -14 -18 9 3 3 -10 3 -7 21 4 -10 -10 -3 -7 17 -3 -17 2 5 -24 -1 -19 -5 -2 3 11 8 -3 -10 27 -9 20 10 -8 -12 -5 -6 -5 -15 8 10 -20 -8 -13 -3 -5 11 -4 24 -7 16 6 -3 2 -15 13 -14 6 -6 6 2 5 -3 -11 21 20 -7 10 -6 -10 -10 -5 -8 2 -1 3 -7 -17 5 3 -11 1 -7 -6 -10 -8 11 -5 -6 -10 -6 -19 -7 -6 7 -30 -3 17 30 6 -3 28 -6 -7 26 -14 -1 13 -15 -20 -15 -3 -18 17 16 -13 14 -5 -18 -1 -17 3 9 -8 -17 -3 -3 5 -21 -13 9 -20 7 -3 -21 -4 7 -8 -3 -3 3 -41 -16 -7 -3 -3 2 -3 -30 8 6 -31 -1 -27 -18 -7 -7 -31 -4 7 -7 3 -6 3 3 -17 -6 -6 7 4 -32 5 -8 -21 -5 -10 -11 0 3 -8 -33 3 -15 -4 11 -3 4 -43 -3 -2 5 18 2 4 5 -15 18 -7 -14 19 -2 6 -12 -31 -3 13 -1 -9 11 -7 20 1 -4 -8 -8 1 -6 -8 -18 13 14 6 10 -2 -7 -5 -7 -5 8 -14 3 7 -25 -8 -3 -14 -28 -15 -19 -4 5 -3 13 -3 -2 2 -11 -10 27 -29 -14 -3 3 -5 3 1 4 -6 -2 16 -3 -10 6 -3 -11 17 3 -9 -6 7 -27 6 -19 -18 7 -1 -28 -25 3 -4 -8 -3 -6 -6 -2 3 -14 -3 -19 -32 -7 -21 7 -3 2 -16 6 -4 -11 -16 -4 -23 22 -3 -4 -11 8 -15 -10 -16 11 -3 -6 -23 -5 -9 14 1 -3 19 10 -13 -7 -24 -3 -8 33 25 21 -10 -27 -7 3 -14 6 3 3 -10 -3 -33 -12 -10 6 16 -22 -2 -8 13 -12 -28 2 -6 -9 -7 -7 -19 0 -3 17 -3 7 -3 -9 5 6 -3 3 -24 3 11 -12 -5 7 10 9 6 3 6 -11 3 -24 -18 4 16 0 14 -4 19 11 2 3 3 -17 -3 6 -3 -23 -9 -10 3 -11 6 -3 -17 -2 -17 3 -13 2 -31 6 6 3 -25 10 -7 -17 7 3 4 2 3 -11 -4 -20 18 -6 11 -26 -9 3 10 -5 5 0 -5 -20 18 -3 24 -5 9 1 -7 -18 18 -4 -7 -3 6 -18 24 2 -24 -9 21 14 -9 -3 -10 3 0 -7 -6 6 4 -27 -9 -5 -13 -28 4 4 -1 10 8 4 6 -4 -3 3 -8 3 -17 4 3 12 0 3 -49 3 13 -4 20 -6 8 -8 -27 -12 11 -7 10 3 -3 -31 -24 3 -6 -17 -11 -19 -11 -16 4 3 10 -29 7 -34 -21 13 11 3 -6 34 -5 17 -19 7 -7 3 3 -10 -10 -7 9 10 17 9 10 14 3 21 6 16 -8 -21 -22 -8 11 -7 -24 19 -3 -14 9 -12 -14 -15 17 -12 -6 3 -23 -14 -9 1 21 12 1 4 -7 4 3 -5 -16 -9 3 5 5 0 -4 13 7 -20 1 -4 7 7 1 -28 -14 -4 -5 -15 -10 -6 -11 5 -18 15 11 1 -31 1 -18 -10 1 13 -7 -18 -7 2 18 -21 9 -13 1 -3 -16 -3 2 -8 -35 -3 -15 -3 7 -3 -18 -13 8 4 -10 6 2 -34 -9 -2 -11 -6 8 5 31 -15 6 -14 14 16 -20 -11 -7 -3 0 10 1 -10 -14 3 -14 -41 7 -2 -8 -9 14 -3 24 3 5 9 -3 6 -7 -1 1 2 9 -37 -21 -13 -14 3 -10 2 -1 17 -1 9 28 -14 17 -11 -3 -4 3 -14 3 -11 -8 -24 -6 -20 -11 23 3 7 8 -13 -4 13 22 -17 10 -11 24 -14 -2 -3 -5 -6 12 -17 -17 -13 -7 7 4 -4 11 -2 18 -14 -15 3 7 -13 -6 -25 -5 1 3 -2 18 -5 -3 3 3 11 -6 -3 6 -17 -7 -14 24 10 -6 -12 8 10 6 14 -3 6 -5 7 -18 -3 -14 -14 19 -5 -10 28 8 2 -7 -9 -13 15 7 -7 23 -13 -2 -14 11 -7 3 -17 2 -3 -35 -26 8 -28 -20 -14 -10 5 10 -8 -6 8 2 -15 -2 -13 -8 -17 9 14 -3 -14 -20 10 -8 -3 -21 -17 -20 -13 -14 -15 8 1 -3 -25 -16 -17 4 -3 -28 20 4 16 -17 -17 17 -17 19 3 -6 -18 10 7 4 -14 -4 -7 -24 -6 5 0 17 -3 6 7 -22 5 -14 -44 -9 5 3 12 -10 -13 -5 -2 -11 21 -18 -3 -27 -12 1 -21 3 6 -8 -3 -21 -6 -16 26 -4 28 -16 11 -17 -12 17 -17 2 12 -18 -2 -6 7 -18 13 -11 -32 13 9 -25 2 3 10 19 -27 -10 2 11 1 -10 -27 -13 -20 -14 5 -5 7 -38 18 -3 7 -26 9 0 -3 5 -9 -7 -23 -7 6 2 6 -6 -11 -3 -7 -8 -3 2 10 3 -11 5 7 -2 -15 22 -2 -25 -3 -11 -26 -24 2 -13 12 -26 -2 -18 2 3 1 -3 7 -7 -3 6 13 -23 5 -11 -5 -33 -4 -32 -19 -15 -12 13 3 -12 -26 -10 -15 -7 -15 15 0 8 -6 13 10 17 10 -2 -3 3 7 -3 -14 -12 4 5 11 -21 7 -16 -2 13 -3 2 -7 -18 -1 -7 -14 -1 -23 13 -3 3 -8 -14 -4 24 -5 -10 4 4 15 7 -3 10 -20 -14 -17 -15 2 -6 4 -6 7 -18 5 -12 -4 -11 -9 -21 -3 19 -7 13 21 -4 -24 15 -6 -5 -4 3 -7 3 -11 3 -11 -12 10 24 5 -21 1 -14 1 3 -10 15 -25 13 7 -4 7 -14 4 -9 11 -5 21 -7 4 3 3 -21 -12 -3 -5 2 -7 0 -29 -32 -18 -5 4 -3 -8 18 2 -15 -4 -6 3 6 -21 20 3 6 -6 -17 -3 13 -12 6 -10 -14 25 -21 16 14 -4 3 -2 -8 -3 -9 -8 17 -3 -24 17 -17 -11 -14 -8 -32 -1 2 -13 -3 1 -11 -4 2 -4 -12 -4 -23 -11 -7 7 3 5 6 -7 -21 -3 3 9 -21 12 -13 -19 -13 7 -6 15 17 -7 -6 -6 -4 -20 -14 -1 14 -4 -2 -3 6 -15 17 -1 10 3 7 -25 -2 9 7 -2 13 20 -3 -23 -6 -20 -7 -3 6 3 3 -5 -16 -6 7 4 -3 -10 -7 14 -10 10 -5 7 -19 -2 -15 -4 3 -11 -5 -25 -9 -28 -10 3 -11 5 21 -4 -17 -15 -3 -7 -3 12 17 -19 -3 3 -3 -31 -7 5 7 -10 8 -4 -3 -11 -7 4 -10 7 -30 1 -1 -4 -14 -35 -3 10 14 6 17 -24 -15 -14 -8 6 -3 -12 18 14 5 27 -3 -2 -1 7 22 -5 3 11 24 -8 -4 -18 -10 11 13 3 -3 -14 13 6 -5 -4 26 -7 -4 -17 -17 -7 -6 -11 -17 5 4 -3 -6 -7 21 -6 14 3 9 -6 22 -3 -3 -6 -17 3 3 -6 6 -11 7 6 -2 -6 -5 12 -16 -16 -3 -7 -6 -21 7 4 12 -18 6 -21 3 -5 -10 -7 11 -3 34 4 -9 20 3 -1 11 -6 8 7 -6 15 -20 -2 -2 27 3 -9 9 14 8 6 4 3 -5 2 17 -3 1 -10 -25 9 11 -7 -28 3 -18 6 2 3 6 -9 -7 2 -13 3 -27 16 -3 -11 -7 2 -2 6 14 3 4 -7 4 -7 -20 -27 6 -13 -28 -9 -5 -4 5 -8 -37 -21 7 -7 -10 7 -24 -3 -3 -11 -6 -7 3 -3 24 9 -6 6 37 3 -3 -4 16 -3 8 9 -31 20 -3 -19 3 -3 10 3 6 14 -10 9 -9 -7 -10 -5 4 11 -9 8 -13 -7 -3 -2 22 -7 3 10 6 -20 3 7 7 11 7 3 11 -6 -15 -25 -15 7 -3 3 -2 -6 4 -14 18 3 -13 -24 -28 -13 -7 -22 -7 -14 3 19 -3 7 17 -6 -33 -3 6 -3 8 9 17 -20 14 -3 -10 -26 -3 -3 -2 7 3 7 -3 -3 25 -17 3 2 -3 1 -12 -28 -3 14 -13 -21 -6 6 -6 -14 3 -11 -11 0 -16 -3 3 -6 4 -10 -9 -1 3 3 6 7 -9 25 7 -3 2 -18 -15 14 -9 -2 7 -14 -16 -5 6 -3 -5 7 16 -3 -17 -4 3 -14 -11 -9 -3 -24 -3 -5 14 -13 -23 3 -35 -26 1 7 -10 6 10 -2 15 13 -14 11 -28 2 -9 12 -5 -3 -5 -17 -19 1 -27 -9 26 -17 23 -34 3 -1 3 -7 5 -1 3 3 2 11 -18 -3 -21 -8 -17 -6 -10 10 -16 8 -3 3 -12 -4 14 3 -3 -6 20 -3 -15 -3 -7 10 9 -6 -8 -3 -5 -12 -9 -7 3 13 -14 -2 5 -2 4 -22 11 -15 3 -11 -2 17 -6 -28 -3 -20 -20 6 -17 7 14 -32 19 3 -5 -6 -9 17 2 -8 22 -6 -12 4 -3 21 -5 17 8 -3 -7 -5 -7 7 -8 -9 4 -3 -21 7 14 -28 19 5 -10 17 3 10 -7 3 -3 -3 20 -20 -2 15 -11 -17 -7 -3 -22 -5 -7 7 -6 -9 -14 -8 3 3 11 -10 3 -15 -3 -4 -3 8 -3 -25 -13 7 -3 -17 1 -13 -23 13 11 3 -8 -13 -23 -14 -3 -28 -14 10 -9 14 -3 4 -17 -6 4 31 -11 17 17 15 6 -9 -17 -6 -4 -3 -17 13 -31 12 -20 -9 3 6 -24 -24 -3 -7 -8 -4 -14 4 3 6 3 -3 -21 14 26 -10 3 -8 7 -15 5 -3 10 -3 3 -3 -8 -3 -7 14 -7 -6 10 13 -4 6 -4 -10 20 -10 8 6 23 -14 35 -3 -24 -12 2 -10 4 -24 23 9 -5 -3 -4 10 -7 19 -8 19 -14 -3 -5 -3 11 -7 6 -21 -4 3 -7 -3 -4 7 -7 -3 -3 -31 -13 4 -15 -6 4 -6 -7 3 -17 4 -14 -6 -10 3 2 3 -17 3 -25 -2 11 14 -6 -2 -6 2 -1 -17 -11 -1 -3 -3 -3 -21 -2 3 -4 4 -3 -14 -9 11 4 -13 -10 -7 10 -20 -4 12 -22 -15 7 -9 -14 27 -28 3 -14 16 17 -9 -6 7 -10 -25 -4 -16 11 14 -25 -3 11 -13 -14 -9 -13 -1 -7 -17 -24 2 -17 2 15 -3 -6 -7 13 3 14 -3 4 21 7 -6 5 10 -10 -3 4 -10 -16 -2 -30 -4 11 3 -11 -13 -3 -27 4 -21 15 2 -6 -20 33 7 6 -5 -21 10 -25 11 4 -37 17 18 10 -6 18 -6 10 -15 -18 27 -31 25 -7 14 -3 -1 32 3 -1 7 -12 -27 3 17 4 -7 10 -15 -10 -2 -10 3 25 -12 -5 3 -16 7 -4 12 6 -8 -2 12 6 11 -6 6 10 4 -12 -3 -3 -8 6 -6 -6 -9 -8 -10 -10 -24 6 6 6 -11 -8 -6 -7 3 -7 6 -4 -6 8 3 3 7 -14 1 -13 -2 0 0 -9 9 -10 -7 -10 3 -13 23 -3 -11 3 -3 18 -21 3 3 7 -10 -8 31 5 14 -24 -14 18 -16 7 -30 24 -19 -8 -7 24 15 -19 -3 14 -4 3 -6 3 7 -20 -3 6 18 4 18 5 -3 9 -2 -7 16 -1 3 -5 7 -9 6 6 -17 -1 -10 -8 -5 -26 -8 -11 11 6 -4 -3 -18 16 -3 36 6 5 19 -16 3 4 21 21 -3 -22 3 3 2 7 7 2 -7 -3 5 8 10 -2 -9 -18 7 -17 -10 -6 8 -10 -5 -15 -1 1 -16 11 -2 -22 -7 26 3 -11 11 -1 -3 -18 14 -8 -17 15 -3 -3 25 -31 -7 -7 -17 6 5 0 -3 -6 -9 -20 3 9 2 -18 -9 -7 -10 12 4 -7 3 -3 17 11 -7 -18 10 -11 3 20 -15 3 -10 5 -13 -19 -15 -7 33 13 18 -6 -15 3 -24 2 15 -11 7 21 10 8 -5 -12 -17 -14 17 -21 -18 10 -11 12 -11 12 13 -3 -4 7 -27 -25 -8 4 17 -21 -3 6 3 14 8 3 6 -10 -18 -16 -9 -29 7 3 -5 9 7 10 5 6 5 3 -17 7 -13 -9 -19 -1 13 -18 -5 -6 -10 14 10 -7 -5 1 6 -2 -3 6 -3 5 16 11 3 -25 -6 -13 -17 -4 3 14 6 -2 -18 -3 11 -6 -13 13 -10 -2 -3 5 -3 -24 7 -7 -3 -7 12 -2 11 -4 -3 -18 3 -21 9 3 1 11 6 -11 14 -12 -7 -15 2 4 -6 -13 -3 8 3 4 -16 -5 3 -9 8 -8 -6 -21 -3 11 4 3 -6 -3 -10 0 1 1 -16 -4 -9 5 -23 -16 -22 12 -4 -25 -7 -14 13 0 9 16 7 -26 -6 -40 4 -8 -3 -47 -23 2 1 -10 -6 -3 -39 -3 7 1 -2 -3 -3 -3 18 -4 3 -3 17 0 7 -16 25 7 -11 -6 -5 7 -7 -6 -17 -2 4 5 -32 -3 -21 -3 17 -1 18 7 13 2 -3 -5 10 -3 18 -7 9 -14 -19 -11 -7 -10 11 -3 7 7 -17 -4 -20 17 -3 -22 -7 10 5 27 2 -11 -27 -3 -18 -31 17 -3 10 11 -24 -15 11 14 -4 -14 -6 6 10 7 -17 -20 3 2 -1 6 -6 -6 -9 -3 -13 -24 -3 14 24 4 10 -13 -1 -14 -2 -21 9 -3 -14 19 -6 1 -20 3 -15 -7 -17 -3 -2 6 -4 10 -9 -13 -29 14 -33 7 6 12 -16 7 3 -7 7 -14 -4 20 4 -6 -3 -3 -6 -35 -5 3 3 10 21 8 -16 -6 7 -10 -37 -18 6 -16 -13 -4 3 -4 -11 3 -3 -14 -18 7 6 14 -14 -13 -24 -6 7 17 8 8 -11 5 4 -6 -3 24 -3 18 13 -7 5 -2 4 -2 -3 8 -5 13 21 -16 -13 -9 8 -4 -18 3 4 -35 35 -7 23 3 16 -1 -17 7 -7 -14 -22 -3 -15 1 -6 7 -27 11 -6 -15 -21 -11 -1 -6 -28 1 1 -13 -7 2 -2 5 -10 -27 -2 -6 -20 -22 -16 7 -3 27 6 2 -4 -34 6 -7 14 -11 -2 -7 -7 15 -6 2 -26 -5 5 9 8 3 -7 -1 -4 -7 1 16 14 -17 -13 13 17 -6 6 -22 9 -8 3 -5 -13 -5 -3 -22 10 14 17 7 12 -11 25 11 -1 -6 -3 -8 -10 37 11 -13 -30 4 -6 -10 13 -8 8 8 2 11 -17 -3 11 -25 30 6 11 3 4 10 5 -1 -1 -11 13 -23 -3 -3 3 -8 13 8 17 0 17 -21 17 -3 17 10 13 5 4 -7 -3 -14 -7 4 4 -11 16 -22 -14 -9 -3 3 5 -3 -13 7 3 -14 -12 10 -5 -13 5 -6 10 -5 24 5 -6 16 -3 -3 -18 5 -3 -3 4 5 -3 -22 13 -13 24 -21 -27 5 3 -4 -19 -3 31 9 -34 -3 -13 8 -7 -34 3 -5 -8 -12 -24 -10 28 6 -3 -20 8 2 11 -2 -7 -10 17 -29 -7 -13 -10 -7 -10 4 18 -4 -3 -4 -5 -32 -6 22 -3 -7 -1 2 4 -3 18 -20 -4 -8 5 -10 3 -4 -6 -7 -24 3 -17 -28 -12 -6 12 -17 -10 -21 -3 17 -12 17 3 7 -14 7 -17 -34 -8 6 3 -2 12 -13 -5 -9 -2 -8 12 10 -32 -20 -5 -7 -7 -7 13 9 -10 -3 11 -29 -10 -10 13 -9 -15 -10 8 -14 -20 -2 -10 19 -3 -3 -6 3 3 7 13 3 -11 14 8 -3 -8 13 -3 -24 -19 -17 -14 -3 -2 -21 8 -21 -18 4 -14 10 5 15 -7 16 -27 -6 5 -20 -6 3 -13 -10 -6 -3 -1 -13 -14 5 7 -21 -3 12 2 -29 -6 9 5 3 -24 -4 -17 -16 -14 3 -14 1 -8 1 12 5 -3 3 -7 -8 -21 -4 9 -6 -4 -3 4 9 7 9 -2 3 10 2 9 7 -4 6 -13 1 -3 -3 12 17 -22 -35 -8 11 11 -10 -1 -12 -6 -19 -1 -3 19 13 7 8 -8 -20 -4 15 -8 3 7 -3 -13 11 3 -7 3 20 -3 -10 -11 -7 4 3 -4 3 -16 2 -3 -18 -16 3 16 -19 3 18 -1 -7 -24 -13 -21 -27 -6 -12 -13 -3 6 -14 7 -10 3 -9 20 3 -20 -7 -1 14 -3 8 3 6 -17 -31 -23 -3 1 -5 -6 3 4 6 10 3 -14 -5 -2 -22 -1 20 5 10 7 19 -4 -6 -21 -16 10 -4 7 18 -4 -26 -12 -6 1 -20 -10 -15 13 10 -2 1 -9 -11 8 -33 16 -7 3 19 10 -11 3 -27 -3 -6 -1 1 -7 -14 -3 -20 -5 -4 -11 5 -7 -1 -19 3 -17 -7 17 7 -29 -9 18 -34 -20 7 2 -18 20 -1 -8 -7 14 -5 -10 -8 -21 17 -6 7 -15 -20 3 3 -18 -3 3 18 -7 -3 -13 -19 6 -6 23 1 -9 25 5 6 11 -14 7 32 -6 -2 20 20 32 -3 -7 13 -11 -17 34 -10 3 3 18 2 -7 -19 -7 -4 16 -6 -6 -3 -4 6 -1 6 -20 5 6 3 -3 -10 5 5 -16 12 17 3 -2 6 8 -16 -6 18 14 6 -9 -6 -6 -4 -16 13 -24 -3 -12 -16 -7 10 18 -3 6 9 6 -10 5 -21 -17 7 -7 -12 12 16 -3 -23 -7 6 17 -6 14 11 -6 -7 -3 -3 -3 -10 -3 6 -5 5 -5 -3 7 -6 -11 6 -9 3 4 1 15 -13 -3 3 12 -12 3 -4 -12 -6 3 7 3 -2 19 7 -25 3 -7 12 -2 6 10 3 -7 10 6 -3 -7 -1 -21 2 8 -2 6 -7 -10 6 -7 -7 3 1 23 -3 -11 11 -7 -4 -11 6 -17 -5 5 -10 6 -11 -17 -9 -6 4 0 8 6 -36 11 -27 5 0 -2 3 5 4 -11 7 1 -14 -15 -1 -15 -3 1 -4 -3 -30 -10 3 -4 -8 -18 -9 -2 -5 -7 -11 -6 -21 -4 -6 -2 -11 -21 -8 6 17 -20 20 -39 7 14 4 16 -7 -24 3 -10 1 6 3 13 21 -20 6 3 -7 7 3 1 6 -26 6 10 13 1 20 5 22 -9 17 -1 -6 -13 -3 -1 28 -9 -3 10 -7 -10 7 7 -1 -7 -17 7 -15 -13 -2 -3 5 -4 -13 -19 -14 -10 -14 -6 3 28 4 -20 -24 -6 -17 9 4 2 12 7 2 -11 7 -6 39 -7 28 -11 -19 6 3 -8 -1 -7 20 -5 -7 -10 -7 -4 -4 -8 3 -10 3 -19 -27 -10 -4 -2 22 -3 3 -17 -11 7 13 -14 -23 -13 -24 11 -3 -21 6 -17 -1 6 -9 -8 3 3 -11 4 -1 9 -10 -10 -24 3 -6 7 -6 -3 -12 -2 6 -6 -17 -22 -24 -17 -3 -19 -6 24 5 8 12 -14 -29 -15 -26 -14 11 6 3 18 -14 6 -14 -6 19 3 -20 -5 4 -3 -17 1 -28 6 -13 11 14 -10 0 3 -3 -4 -23 7 -19 3 17 3 3 -4 11 -17 3 18 -21 -11 3 -4 -5 -9 17 6 3 4 10 13 -18 3 -4 -1 4 2 10 10 8 -3 -12 9 -7 -13 -10 27 -14 -7 -25 -3 -20 3 -5 -13 10 -7 -5 -15 8 -31 11 -11 8 18 -4 -3 4 -4 3 -16 2 -17 1 -15 1 2 6 -7 6 6 4 3 -24 14 8 10 -12 -22 3 7 -17 -6 -10 5 -22 4 -3 -8 3 14 10 4 -28 -4 -21 -10 -3 1 -17 3 4 -2 8 6 21 2 0 -10 21 11 -7 -12 6 -5 -14 -24 21 -6 -17 -8 -12 3 -3 -8 -4 -16 -11 7 -3 3 5 -14 -6 -10 -20 -3 5 -20 14 3 -11 -9 2 -18 -5 -12 -18 -7 -3 21 11 -1 -3 -13 2 9 -13 6 -4 -34 14 10 -10 -14 18 2 -10 -4 -25 2 -4 -3 7 -10 27 7 -11 -15 -3 -9 -1 20 3 -29 5 4 -16 6 -21 21 -4 15 -3 2 10 -10 22 7 4 -14 -18 4 -3 2 24 -18 3 -4 -10 -4 3 18 -3 -3 4 -1 -9 6 -7 -18 -18 -21 10 -14 1 0 -38 7 -23 21 -15 -38 28 -10 -4 -7 -10 -10 2 4 -12 7 11 13 -16 -5 -19 -21 -8 7 0 6 -27 5 -4 7 -17 6 -4 -18 3 -3 -5 -6 -8 1 13 -6 -4 -3 -1 -11 -6 7 3 -9 4 -3 -1 4 -3 10 4 7 -4 7 -16 6 -13 -7 -14 0 17 -20 -10 5 -7 -16 -3 -11 -4 19 -9 -5 13 6 6 3 -23 11 -3 6 -17 -12 24 21 3 -21 22 -3 25 -3 14 6 -35 4 7 -2 21 14 6 7 10 -10 20 20 -27 16 6 0 -8 -12 -14 6 -9 -15 3 -8 29 3 4 -6 -1 6 -21 15 9 6 -8 3 -8 -12 6 -3 10 7 5 7 -17 -23 5 -21 -3 8 -14 17 22 7 -15 27 -18 17 3 -4 7 -5 -20 2 -10 2 3 -10 14 -3 -7 -7 -9 13 -6 -13 11 4 -19 -6 7 14 -6 4 3 23 9 -3 11 10 17 -3 3 -15 -9 4 -8 -4 -4 -16 -6 3 -10 -24 -3 -16 -4 -6 23 -1 13 10 -10 7 -10 -18 -9 3 3 -14 -3 13 10 -4 -6 -1 -14 3 13 3 14 -3 -3 4 -12 -18 2 -3 -3 -17 6 -3 -4 1 -21 1 -18 14 12 -3 -7 -14 -3 6 -23 -5 -14 -10 2 19 -13 -17 -10 -3 -14 -7 -5 -11 -4 -8 6 -21 -9 -15 -8 -10 -14 -6 8 3 -11 -10 -10 -7 -33 -7 17 -19 -14 18 -14 -17 -18 3 -17 10 25 10 10 10 -17 -9 -20 -17 3 2 13 11 24 -27 -17 3 -9 12 -9 8 -17 -2 -3 -17 4 -21 -14 -6 20 -7 -6 -2 -3 -10 4 -17 -16 4 -3 -3 -11 17 6 9 -3 -18 -1 6 -26 -10 -6 -10 -18 -5 -1 16 1 -28 -21 1 -23 6 -8 -10 6 17 -12 -3 3 -7 11 3 9 11 4 -5 7 2 3 17 6 12 -9 -16 -21 -8 3 4 10 9 4 9 15 -16 -5 1 2 -14 -15 -13 -33 5 3 17 6 2 -6 -5 13 -12 15 -21 8 -10 -1 -19 -3 -1 -24 14 -16 20 8 3 -17 -20 -20 -17 -31 -7 8 6 15 2 13 -1 10 -3 2 7 7 24 30 -21 -6 14 7 -18 6 13 -15 8 -8 -17 -10 14 -17 -7 11 -27 23 -10 8 12 -13 -15 -20 3 -6 6 3 -21 20 -2 3 -35 -10 -10 1 -17 -11 18 4 9 -5 8 -31 13 -7 -5 11 -17 -9 -14 11 -6 5 -3 7 -3 12 -7 -7 -3 3 -6 -9 -8 11 21 -1 -8 -3 -3 3 -18 -10 -11 11 26 -5 -5 10 1 5 -20 -17 8 -3 -7 -17 -15 -9 -9 10 6 -7 -7 -9 20 -14 5 -17 3 -6 -4 -13 18 14 3 -3 -21 -6 -17 -14 -14 7 20 -14 -15 6 -12 -16 -34 3 -27 16 -6 0 -3 -2 10 3 -15 -7 6 12 -4 -24 -7 2 -46 5 25 10 -27 -1 3 -1 18 -2 21 -8 -19 -35 -7 -3 -14 -7 -12 -29 10 4 -6 -1 7 4 -4 14 6 18 -6 13 -1 -3</t>
+  </si>
+  <si>
+    <t>EXN(0.44687607763791615, 35.36215730098252, 9.231084577417668)</t>
+  </si>
+  <si>
+    <t>54 43 41 53 22 29 46 50 29 50 40 51 39 26 26 35 41 45 48 47 47 44 33 43 47 45 43 54 30 34 40 29 35 33 59 43 16 37 32 47 56 37 45 37 25 26 45 31 35 41 41 45 37 39 45 30 40 40 30 36 37 42 53 30 50 41 29 33 26 47 39 43 36 32 27 33 37 48 44 64 46 31 33 42 24 39 28 34 62 20 47 43 42 31 59 51 51 46 22 41 38 35 29 38 64 35 35 31 49 43 39 42 58 48 40 51 53 39 37 40 37 28 30 34 19 23 33 49 32 45 41 36 65 39 60 43 57 50 61 51 45 27 57 58 38 43 37 43 43 57 57 29 26 48 19 47 30 40 43 26 37 22 43 38 31 36 31 33 36 43 37 43 19 34 36 34 33 16 49 53 37 30 42 46 59 28 46 41 44 23 35 59 38 36 41 27 57 45 50 38 29 38 40 33 60 53 39 49 26 25 46 48 42 44 40 27 34 59 37 37 43 40 53 64 46 46 42 30 47 27 27 28 39 38 44 43 45 62 40 33 43 30 41 39 36 37 41 33 49 23 30 32 48 36 40 26 51 44 42 47 15 44 30 52 34 45 29 44 25 31 37 45 51 40 34 39 44 50 26 33 36 30 42 34 47 47 25 44 37 48 45 38 51 28 42 47 37 41 46 55 38 47 29 37 28 41 27 30 47 39 23 46 34 39 41 22 43 20 45 36 37 36 37 29 32 58 20 34 23 49 37 23 32 39 36 33 61 51 33 44 39 37 53 38 43 27 28 32 37 48 31 44 41 57 21 47 34 33 39 30 42 31 22 34 44 47 26 25 42 44 28 35 52 41 48 33 34 29 43 41 29 44 50 37 49 46 40 41 28 20 26 25 43 51 27 34 27 38 33 37 47 40 56 23 29 46 37 53 37 34 40 43 33 57 36 69 41 27 27 46 39 16 37 45 40 34 45 55 30 37 30 25 47 35 25 44 32 34 38 57 17 36 33 43 26 43 40 33 44 36 33 24 55 40 57 15 37 40 40 32 46 61 36 41 49 39 49 50 66 40 40 26 27 35 40 47 47 40 30 26 20 37 36 37 23 35 47 48 37 46 38 29 73 48 42 39 30 47 31 50 23 40 38 34 32 31 30 44 41 28 33 51 49 33 39 42 54 33 19 47 35 40 29 36 35 34 48 53 37 43 48 40 35 30 48 51 44 24 38 49 29 39 30 33 48 33 50 42 48 30 41 34 30 29 44 29 23 53 35 34 38 47 43 29 52 33 32 30 33 48 47 47 54 48 35 53 41 54 51 39 34 45 33 37 38 34 33 17 44 31 50 48 51 47 23 39 40 39 27 40 51 46 52 49 43 52 40 45 29 48 51 23 37 27 45 59 42 26 43 38 32 33 36 55 45 36 57 33 41 40 41 43 49 33 33 46 33 44 37 39 45 45 45 48 46 39 32 32 23 26 33 26 44 31 32 33 33 30 38 37 36 36 35 40 30 35 56 24 17 27 43 47 49 43 57 30 26 42 53 50 46 48 37 50 29 41 53 34 48 37 47 27 28 51 55 29 32 41 42 32 51 34 23 29 43 66 39 35 46 46 50 43 49 51 56 26 40 49 42 35 44 34 37 37 31 31 58 44 39 50 46 30 39 39 48 57 19 43 56 15 32 46 49 28 49 39 29 37 45 33 25 50 32 34 33 40 43 41 27 26 27 47 44 39 48 33 55 51 44 61 35 41 34 52 48 38 36 38 25 40 36 43 50 27 39 37 35 39 33 29 48 23 32 42 37 60 23 45 40 37 30 39 40 32 34 30 37 42 23 40 40 36 32 26 41 47 34 41 49 47 61 39 30 27 44 37 29 53 23 53 44 30 33 40 46 36 48 25 36 59 51 51 51 33 47 42 62 59 41 38 26 32 42 27 30 35 45 43 65 47 46 45 30 37 30 32 26 45 41 33 47 59 46 26 37 20 40 61 34 35 45 47 37 41 46 40 38 39 47 37 40 19 31 47 25 49 22 56 44 30 33 24 43 34 46 37 33 44 46 54 48 34 35 39 38 29 51 23 39 45 34 37 9 36 48 48 26 41 45 37 27 36 32 46 41 36 39 39 41 39 38 29 37 61 36 47 28 37 44 29 24 35 70 34 34 44 24 51 40 56 26 50 33 39 39 41 29 37 43 23 33 40 43 37 53 27 40 47 43 44 37 50 32 41 37 49 57 44 36 49 31 29 48 42 48 33 44 51 31 33 29 50 38 44 46 30 43 42 40 41 49 44 38 33 30 58 45 31 30 32 41 33 37 26 34 12 45 27 26 27 41 24 48 37 42 64 41 33 43 25 43 43 27 41 34 37 23 37 39 46 40 37 39 41 48 36 51 61 45 41 34 31 47 38 58 49 30 41 29 50 36 45 54 41 38 27 51 44 40 30 33 35 30 47 59 36 47 39 51 33 33 36 43 44 49 36 46 52 27 51 38 49 44 55 31 41 43 41 37 52 44 35 42 37 39 40 37 33 33 30 35 33 55 27 45 55 31 36 37 36 47 37 49 30 34 37 37 26 41 31 60 30 49 33 36 40 60 25 35 43 36 35 40 45 49 29 51 42 43 39 48 15 60 32 34 30 29 47 43 37 53 29 43 45 53 39 58 37 62 61 27 48 50 37 22 50 27 32 50 32 48 43 49 28 40 47 27 45 56 29 37 42 21 46 30 43 40 44 41 34 30 54 51 49 63 41 50 39 36 31 48 44 13 31 37 47 28 37 37 43 28 37 44 40 36 41 44 57 16 20 51 43 26 43 42 43 44 20 34 40 56 47 28 32 50 65 34 46 27 39 39 49 41 38 40 29 44 44 49 43 30 55 46 43 36 29 28 50 30 36 68 46 44 29 54 26 40 29 35 26 35 38 43 54 31 33 44 46 36 39 44 43 13 24 33 26 55 52 36 55 45 55 36 24 43 36 40 38 37 31 46 34 33 36 23 36 44 37 39 43 35 47 49 43 34 58 37 38 36 47 12 40 46 22 38 32 30 22 59 61 43 29 28 43 44 44 30 46 64 29 48 48 39 51 55 42 23 51 41 38 33 31 49 33 35 29 55 36 49 43 41 23 37 30 23 44 41 32 30 38 37 57 19 31 56 30 37 42 56 27 37 52 47 37 53 24 35 46 36 23 37 40 33 31 36 33 38 44 43 47 29 21 37 54 43 44 51 38 33 33 43 35 27 54 22 40 37 49 45 47 38 41 19 36 41 33 39 30 44 34 37 29 53 41 43 54 29 32 36 42 31 32 34 41 27 32 33 46 29 36 20 48 26 40 44 50 30 29 44 44 43 33 32 26 24 30 37 25 22 32 47 36 26 42 41 48 38 47 37 35 39 26 37 23 35 30 35 36 48 33 43 49 51 29 41 55 43 41 41 33 37 45 19 40 42 54 37 59 46 29 58 22 32 48 58 40 47 37 54 43 38 58 12 56 29 47 44 28 44 45 47 56 30 49 33 35 37 41 27 58 23 43 51 50 30 47 48 32 29 34 38 42 39 68 37 35 48 45 41 45 34 52 40 40 45 47 58 40 37 29 37 37 25 38 44 51 40 49 39 26 43 39 47 40 40 27 68 37 39 33 43 31 27 47 46 47 23 36 38 38 27 34 48 40 24 48 26 60 37 40 16 39 49 23 47 23 33 27 32 41 38 42 37 37 51 45 50 29 62 22 26 31 30 52 40 26 36 47 29 48 13 35 49 28 48 40 38 29 41 41 49 44 37 30 62 34 43 38 30 36 27 32 57 17 48 19 32 55 44 32 29 59 68 47 55 40 36 26 43 39 30 58 40 47 61 64 32 30 36 59 23 41 32 47 39 30 45 55 26 42 32 48 26 40 35 19 37 44 48 39 37 37 46 15 61 54 52 43 42 53 30 29 51 40 27 40 33 44 34 16 48 30 29 57 40 43 62 28 29 32 33 42 58 36 40 45 13 30 38 41 37 33 30 35 34 34 35 37 51 46 40 56 47 49 33 23 30 38 34 29 31 43 29 33 27 32 31 44 44 45 39 42 37 33 41 51 52 55 45 42 58 44 36 32 42 37 21 44 42 37 50 41 44 26 45 52 41 37 36 32 44 51 51 51 44 49 44 44 36 51 45 37 56 36 39 28 36 48 36 33 44 33 35 35 38 34 37 40 56 24 26 33 52 33 40 50 37 14 46 39 49 55 46 37 37 43 30 44 41 35 24 43 51 49 27 36 29 53 31 44 44 30 34 43 51 43 16 34 48 34 33 48 48 32 37 29 40 26 22 50 33 27 19 35 48 57 35 35 28 37 39 30 45 47 16 48 29 41 30 29 32 35 33 43 30 47 57 54 40 47 44 20 20 51 39 37 30 45 19 37 41 57 46 44 37 41 43 36 10 44 46 47 54 33 49 47 30 31 37 25 49 30 28 37 38 46 53 43 40 32 52 34 39 59 58 43 59 27 37 45 41 43 44 57 39 27 37 47 40 43 31 30 41 45 44 25 19 55 36 48 23 26 22 48 33 33 23 38 41 40 46 27 33 50 29 54 51 37 30 23 52 35 27 47 45 27 33 54 38 31 28 47 39 45 57 57 51 41 40 48 51 38 40 47 51 47 52 68 57 41 57 40 37 23 21 42 59 48 46 43 33 44 40 37 48 58 20 48 27 40 37 51 27 34 41 37 40 36 36 40 45 45 36 31 34 53 42 45 44 33 40 37 59 42 48 26 38 30 43 48 20 40 51 58 37 59 32 45 43 55 60 34 43 41 26 47 40 51 50 20 51 30 33 50 36 47 53 29 44 24 54 23 23 33 37 28 41 43 34 38 51 26 32 48 41 33 42 37 44 57 27 30 43 53 41 35 47 46 35 51 41 46 37 53 35 42 45 49 48 23 28 29 49 31 54 33 44 51 54 48 30 25 57 30 37 36 59 37 34 33 39 33 58 31 53 40 48 44 40 15 51 42 33 51 43 55 51 30 43 37 46 37 19 27 27 54 51 18 25 43 41 59 37 49 23 31 32 34 33 29 38 35 38 40 47 33 37 23 25 49 33 50 47 37 26 33 33 40 36 51 54 45 33 36 33 32 40 30 62 43 30 33 43 18 46 45 34 57 28 47 60 54 44 39 37 29 40 40 45 35 40 59 60 52 46 41 29 42 55 31 37 47 33 38 26 35 30 48 47 39 30 33 48 40 38 34 30 50 36 41 40 59 17 38 47 64 49 54 38 46 36 34 53 37 30 48 55 40 41 30 44 42 45 25 41 49 49 44 30 39 48 32 29 44 51 30 51 29 33 18 44 24 26 44 43 34 27 27 37 33 35 40 36 38 62 55 64 33 35 49 12 16 58 40 41 40 48 37 41 55 49 38 67 38 37 50 23 38 26 38 22 36 37 43 29 29 17 33 41 20 47 39 37 57 38 35 41 57 47 37 38 44 49 44 58 41 27 65 40 37 40 41 33 51 43 37 34 37 30 41 43 44 27 43 43 27 33 51 34 34 27 31 34 48 20 25 45 36 19 40 42 50 21 30 41 54 48 33 30 43 52 41 29 26 55 23 33 49 33 72 20 15 37 58 40 37 30 39 56 36 43 29 62 55 42 43 41 30 32 41 34 48 50 39 36 40 44 63 23 47 33 22 47 34 52 45 39 29 26 38 39 55 31 34 34 22 47 30 30 23 34 29 37 46 38 48 48 40 30 47 42 22 37 36 41 35 48 34 40 54 48 45 39 41 53 43 34 33 48 30 41 37 33 41 38 57 51 35 43 29 30 45 51 49 26 44 31 42 33 33 46 23 22 29 37 43 35 50 30 32 57 51 22 43 47 30 55 41 27 74 45 37 62 16 37 36 39 29 45 49 22 19 47 26 47 33 51 49 42 36 29 42 61 37 40 15 37 25 45 58 29 6 23 41 33 51 37 45 51 44 44 47 55 21 52 52 36 38 51 45 43 48 43 33 33 49 33 46 26 36 47 36 38 43 40 37 30 32 37 39 30 46 37 28 56 52 26 32 42 30 35 29 23 36 40 39 39 52 45 37 23 36 52 47 37 40 27 47 39 59 45 23 44 30 52 33 35 41 41 25 41 40 49 28 40 26 37 36 39 37 39 45 29 49 38 45 33 47 52 25 41 16 64 23 23 31 29 46 38 40 43 46 40 27 41 30 51 63 55 54 36 37 38 57 52 50 37 32 44 43 50 48 33 29 31 28 47 43 33 37 37 48 40 26 50 54 35 19 43 47 53 33 37 68 35 29 37 57 36 46 40 48 61 29 47 49 39 40 56 40 41 29 41 41 55 40 47 53 57 63 73 51 30 29 22 30 41 33 38 29 58 42 46 57 39 30 47 29 31 41 30 51 51 44 33 32 33 52 9 33 34 33 18 26 47 35 40 46 47 48 48 55 40 34 22 46 31 50 29 49 29 33 39 24 41 36 29 47 41 29 65 33 40 41 36 38 41 48 43 51 31 37 42 29 31 40 41 48 19 51 23 46 38 45 33 47 26 39 46 35 41 51 37 39 67 26 42 33 31 57 37 49 31 43 33 42 38 46 43 45 32 44 48 38 41 45 44 40 38 51 41 38 34 43 31 37 32 61 45 26 37 49 50 41 22 20 36 56 57 43 29 29 62 51 28 41 40 24 57 19 33 40 36 37 49 29 51 51 36 55 31 50 54 40 42 31 59 40 37 23 9 29 65 57 27 47 41 19 27 49 38 40 30 36 30 44 41 38 40 30 37 38 33 55 35 43 26 45 37 57 35 54 38 20 41 40 37 32 37 27 51 52 42 51 37 32 43 62 49 50 35 30 28 31 71 41 45 45 27 48 42 39 36 39 40 41 22 34 48 41 43 30 37 37 53 36 23 35 51 69 19 50 38 39 44 33 22 27 30 46 36 38 44 32 51 54 30 27 26 44 54 30 33 36 38 22 33 44 49 27 29 41 45 30 37 20 40 33 35 31 33 48 55 32 40 46 41 33 38 35 63 48 31 44 49 52 51 49 47 53 37 49 38 44 45 30 43 37 48 52 35 31 34 53 40 39 47 20 23 48 29 60 28 30 29 57 51 43 32 35 39 36 40 51 32 33 39 46 49 46 48 27 59 26 69 34 44 39 40 22 51 26 35 29 34 36 29 40 49 40 37 30 40 47 57 41 40 37 44 36 37 37 29 29 27 31 50 43 37 34 58 41 43 48 52 41 45 64 36 62 25 28 39 33 25 49 44 39 33 49 29 31 31 37 43 42 61 47 37 36 32 51 32 50 25 36 42 30 41 50 31 44 49 39 48 39 41 54 55 51 34 46 29 51 51 62 41 50 39 42 22 35 40 44 28 25 49 32 36 48 23 25 36 30 52 39 34 29 34 50 44 35 26 30 33 52 44 54 21 46 39 47 49 36 23 42 21 41 31 51 52 33 50 22 25 32 29 37 33 63 36 30 38 44 23 44 37 49 15 32 29 54 33 43 59 42 45 60 52 42 45 33 49 39 46 36 27 31 37 22 42 47 37 37 13 31 54 44 29 40 23 22 33 33 31 37 51 43 51 21 27 48 63 41 36 43 51 37 35 29 36 30 26 44 44 16 33 26 41 31 43 58 49 32 31 51 45 41 37 39 54 37 47 40 36 41 32 56 44 27 44 48 42 40 37 31 47 51 30 27 59 38 42 27 40 41 45 36 51 35 49 41 53 50 47 33 19 34 40 38 40 55 62 68 30 28 54 53 36 26 33 28 51 36 50 32 47 37 45 37 48 43 24 46 35 30 49 56 22 26 35 37 22 30 33 34 57 44 30 43 42 43 44 20 37 35 64 43 34 39 37 41 51 53 16 42 33 44 30 54 38 44 26 25 37 47 22 47 20 59 36 52 34 51 30 51 40 46 27 51 42 49 43 48 28 44 32 41 41 43 53 49 43 31 43 58 44 40 25 50 40 50 39 44 43 27 16 46 39 56 33 48 52 27 45 50 32 51 38 40 43 32 36 42 48 36 48 44 49 64 51 66 50 51 36 40 37 47 43 50 19 37 37 38 42 55 64 29 44 34 31 50 46 37 41 40 37 44 30 37 46 55 45 33 23 26 37 57 31 41 35 48 51 23 55 37 58 19 38 20 28 49 47 29 53 48 41 40 51 65 44 47 37 50 38 33 40 46 33 37 40 44 44 36 41 38 29 36 37 32 49 33 36 41 50 45 42 23 44 15 45 44 34 48 36 51 39 31 41 37 27 30 43 27 42 42 35 24 29 24 48 43 30 37 41 51 31 40 40 56 36 44 50 51 38 30 23 62 49 44 41 52 30 24 29 30 37 36 46 52 33 40 41 33 39 59 16 26 40 23 20 34 15 24 52 27 37 55 59 45 39 30 51 49 51 31 39 46 26 66 44 54 42 30 45 44 27 35 30 23 37 33 49 26 48 36 40 48 25 38 36 42 44 37 62 45 44 47 35 51 20 37 53 33 37 16 29 55 29 49 43 39 57 52 19 44 61 31 33 46 31 41 41 25 41 50 43 26 47 29 23 39 54 15 40 46 36 30 41 26 53 33 59 46 26 13 36 31 37 35 50 33 45 51 34 33 31 40 22 33 26 49 37 40 37 44 22 37 44 43 35 45 23 53 29 37 37 29 37 43 33 35 44 20 43 43 33 27 35 43 45 43 44 23 34 39 48 29 35 51 54 48 38 41 28 47 47 36 37 33 43 29 44 30 26 31 32 38 37 31 33 48 36 36 30 39 42 46 43 19 51 35 26 35 57 23 34 45 43 38 27 35 28 48 37 48 38 58 25 32 39 33 33 34 40 36 46 19 33 37 43 46 37 43 45 36 44 39 38 27 37 58 43 52 29 37 43 28 43 30 35 38 36 43 45 48 36 25 38 40 33 49 37 38 40 30 37 38 38 36 47 35 38 26 43 24 31 29 44 13 45 38 41 50 50 35 33 39 47 35 63 36 27 36 57 35 37 61 27 58 42 41 43 53 50 45 62 29 47 45 51 51 17 57 29 29 34 43 45 47 29 29 43 23 41 40 32 39 33 31 37 37 34 43 50 67 50 50 51 37 58 35 35 48 55 43 51 40 58 63 29 39 45 31 43 37 51 30 36 27 31 59 42 26 47 59 40 48 47 43 31 49 34 33 35 29 32 23 30 61 40 40 49 52 51 41 42 48 54 33 38 33 19 23 23 30 55 38 50 47 38 55 46 36 52 51 51 32 25 44 31 33 34 19 59 32 47 51 46 47 61 40 34 45 38 29 37 35 41 52 23 51 51 58 37 29 38 43 51 45 35 31 52 41 63 47 58 74 40 43 41 38 50 42 38 41 55 50 30 51 37 38 41 33 40 62 30 60 44 51 73 29 46 59 27 19 26 45 40 50 34 47 37 46 37 36 46 47 53 44 46 39 47 40 37 17 51 28 19 48 29 59 50 33 26 45 16 47 62 43 51 54 30 51 43 43 54 30 35 28 29 43 34 47 74 47 45 52 45 19 33 42 29 37 37 48 19 36 40 41 35 49 46 44 20 52 64 24 43 29 37 36 47 44 35 58 36 27 29 42 62 44 48 41 37 52 50 57 39 26 41 33 65 35 45 37 34 48 44 33 42 36 54 29 27 50 49 37 15 40 42 64 33 30 40 23 43 32 36 45 45 34 34 55 35 57 31 41 45 40 42 45 50 23 63 33 57 24 37 29 53 37 47 43 29 13 31 47 34 54 29 40 44 55 41 46 39 45 22 36 62 37 16 20 21 31 54 41 44 33 44 55 60 34 40 35 30 41 50 44 33 50 54 42 36 59 43 28 19 37 29 34 37 69 52 26 54 39 29 55 37 39 34 26 46 57 29 33 47 54 35 49 50 48 47 26 47 53 47 43 32 33 53 43 59 29 46 46 43 47 35 19 33 36 47 30 27 46 41 36 29 41 39 39 26 30 50 39 39 43 39 36 25 69 34 24 51 32 37 42 37 25 34 40 28 37 44 51 44 44 30 33 28 38 50 9 28 37 32 34 43 32 51 70 41 29 43 49 34 47 42 47 37 48 37 39 35 33 43 47 45 31 28 51 55 50 37 42 33 50 43 37 48 40 62 31 33 47 42 37 37 47 36 42 52 33 29 41 37 61 58 51 41 38 33 53 30 37 27 37 22 31 52 43 37 37 27 43 32 51 35 29 37 51 30 40 38 55 37 40 28 47 39 22 34 53 24 29 37 38 26 31 36 41 33 37 44 48 59 37 35 43 20 57 23 57 47 27 41 37 43 44 48 22 57 19 40 63 61 32 37 39 17 31 31 52 42 52 34 46 47 36 49 33 52 47 37 43 50 40 36 55 49 41 43 43 36 36 15 37 49 50 41 20 43 51 26 48 23 43 38 28 62 23 39 35 37 37 43 34 39 23 41 34 45 54 31 40 32 51 34 44 35 36 39 42 35 35 44 56 44 41 34 43 22 34 47 31 37 49 37 23 26 42 50 38 43 49 45 36 29 55 28 37 16 36 44 12 39 31 50 40 57 50 66 44 23 40 48 57 51 38 40 51 39 34 37 39 29 38 33 34 37 39 45 22 39 53 23 35 33 34 37 50 35 55 30 19 51 43 49 36 40 51 26 45 50 43 30 12 41 46 30 38 57 41 32 39 25 33 50 54 40 36 32 45 39 43 48 51 30 27 37 32 33 43 43 51 50 37 43 40 36 40 30 33 37 39 52 22 37 26 49 32 57 42 43 31 23 50 56 33 29 29 24 26 42 45 22 22 37 33 43 47 30 30 44 47 27 49 32 34 38 36 33 34 22 58 40 37 32 53 50 26 35 50 27 47 30 33 37 22 47 34 40 50 38 44 37 41 37 39 30 26 36 35 55 29 64 28 48 25 30 30 36 33 37 49 33 37 23 53 28 37 41 37 41 45 38 40 47 24 38 34 40 30 43 31 31 37 33 21 30 33 26 49 15 61 39 48 32 27 43 35 26 44 33 39 41 41 48 37 39 55 39 34 51 45 37 51 30 40 33 20 39 37 41 26 43 38 39 37 55 36 37 37 43 45 57 33 36 40 34 51 41 43 23 41 37 29 44 53 40 35 38 50 40 39 42 49 47 55 33 16 30 36 37 43 54 47 34 65 22 35 41 29 22 42 31 29 42 44 44 38 34 62 50 38 32 24 44 37 26 51 46 52 30 34 36 55 44 31 71 23 37 44 53 30 48 50 34 50 52 43 26 34 46 25 33 37 52 46 47 50 42 36 17 51 55 29 25 40 25 26 29 48 53 40 47 45 51 53 31 41 23 34 35 22 20 35 13 46 37 23 44 47 33 40 33 49 40 39 44 46 37 37 42 40 18 63 37 49 58 27 24 51 42 43 45 36 20 40 31 44 32 41 36 48 34 40 31 30 51 43 56 38 40 48 29 47 39 41 44 26 23 51 40 26 30 38 33 47 30 52 29 50 37 32 33 50 25 41 50 36 59 58 43 27 22 38 57 48 43 43 55 36 34 37 35 41 54 45 40 27 30 37 31 46 19 48 48 47 37 47 37 43 23 19 29 29 49 33 37 48 30 34 50 37 34 44 65 57 44 51 41 29 33 38 25 51 36 39 59 37 37 47 43 44 17 29 36 50 36 62 42 44 45 51 23 28 30 55 45 38 54 41 42 44 43 40 34 43 46 48 37 31 29 34 39 57 55 45 50 30 41 40 37 35 37 37 36 19 29 37 33 31 33 41 30 44 23 22 24 40 43 37 40 45 55 55 27 40 24 20 41 59 44 38 43 47 65 33 34 29 35 48 30 33 33 40 56 36 44 33 44 47 46 37 20 56 44 35 30 40 46 41 36 19 41 31 31 30 41 45 28 26 47 40 57 48 53 36 43 16 32 25 36 46 23 45 31 41 26 51 47 30 38 30 17 48 40 33 23 30 31 35 44 26 33 27 19 34 26 61 39 40 36 36 48 36 66 38 6 36 49 53 49 32 23 32 44 32 43 44 33 34 43 30 42 45 44 40 43 54 30 45 30 55 40 23 34 35 40 55 45 37 13 36 39 37 52 46 43 49 26 37 40 45 48 38 23 20 57 48 41 37 44 51 37 39 36 40 31 39 32 37 30 35 37 29 35 54 45 51 24 52 43 57 40 29 43 53 56 30 43 46 48 44 36 34 45 37 29 42 55 44 61 37 19 27 44 56 33 52 41 30 54 45 44 37 30 47 35 44 60 44 29 27 40 40 43 40 33 43 47 37 65 43 32 55 20 43 41 22 52 38 41 43 21 33 25 26 42 47 23 30 42 42 48 39 27 50 48 55 51 46 47 43 20 37 36 30 51 40 23 30 30 20 50 35 29 31 45 34 44 44 48 33 37 44 44 42 42 33 52 34 26 42 59 44 60 52 43 40 40 38 37 29 43 36 29 27 39 44 44 38 53 21 51 29 47 22 43 30 45 55 47 22 51 45 40 41 44 47 49 42 24 42 26 51 50 39 41 40 42 26 48 33 45 29 23 28 64 55 38 20 43 36 41 19 34 44 40 40 44 31 23 37 39 48 39 30 40 44 44 49 40 50 33 43 55 59 63 65 23 39 33 26 36 34 35 37 40 16 68 47 33 34 39 52 43 37 44 42 43 40 54 27 46 40 25 33 33 34 49 53 44 67 42 25 34 35 52 33 37 49 29 40 43 41 49 47 47 45 47 46 19 51 35 44 35 26 37 17 51 53 22 19 37 35 42 23 44 36 48 37 19 61 50 33 41 59 30 33 25 59 20 59 23 43 34 38 41 22 58 19 30 47 35 44 45 32 39 40 33 23 33 50 43 37 22 49 37 30 43 42 40 64 37 47 44 47 48 39 26 46 46 51 43 47 41 45 29 33 34 47 24 40 52 29 40 48 24 41 42 34 38 36 55 37 19 51 46 48 49 41 37 30 49 40 48 33 51 52 41 45 55 43 32 40 43 36 41 43 40 49 31 43 31 41 58 56 22 44 23 44 46 43 45 23 23 29 24 41 49 42 43 44 37 47 34 31 31 28 40 23 32 26 50 29 28 59 33 38 47 27 41 59 60 32 30 50 37 30 44 53 46 45 30 45 32 33 50 30 37 29 46 37 43 29 48 31 39 29 36 33 19 52 45 40 47 43 55 36 47 67 45 26 46 31 43 36 51 47 32 36 32 48 52 16 32 39 40 40 22 26 31 39 31 47 48 37 37 29 39 29 37 49 52 57 51 58 45 43 36 35 45 36 51 54 43 68 51 37 50 56 30 30 20 54 50 35 43 58 45 45 59 31 26 29 51 43 36 59 59 38 37 51 46 23 29 33 40 51 46 20 37 37 32 47 37 27 39 22 50 37 51 50 54 36 42 49 50 47 45 22 43 57 46 41 20 58 29 36 37 37 47 39 44 44 30 39 57 34 50 36 42 48 43 53 48 39 29 50 61 26 49 46 48 30 33 59 65 41 52 38 52 19 44 30 22 56 30 45 65 40 59 51 28 29 36 52 41 69 45 47 42 32 38 32 54 39 26 57 47 44 43 29 49 36 31 40 37 57 37 49 30 36 37 52 61 33 60 41 27 43 51 46 48 47 37 39 41 33 37 35 30 44 47 35 30 23 25 44 48 39 35 40 22 30 39 40 54 65 53 44 37 29 40 43 40 30 31 23 44 54 37 41 62 51 51 41 44 25 36 33 44 71 37 42 53 39 33 57 54 36 39 27 32 47 22 39 41 45 46 40 38 31 47 10 34 35 33 56 33 35 47 51 39 36 44 31 39 55 52 41 40 58 49 37 41 13 39 60 45 30 24 63 51 33 43 35 29 50 25 38 38 38 40 44 62 23 36 37 40 34 43 37 73 40 32 40 36 32 43 33 43 26 44 25 36 34 49 62 41 41 30 34 35 36 51 50 51 55 43 37 42 19 33 47 50 37 51 33 33 28 51 44 36 25 31 41 57 46 40 59 45 59 36 53 42 23 49 34 24 38 40 17 59 31 33 26 61 24 41 22 29 56 37 30 40 36 35 43 42 46 17 37 39 33 35 22 30 37 42 48 40 41 31 47 41 36 57 49 41 35 36 30 37 31 57 45 43 60 39 34 43 39 48 52 42 40 50 36 42 48 34 43 40 19 31 36 39 20 40 51 29 30 34 40 44 27 45 27 43 25 33 35 27 42 58 23 27 29 51 36 43 41 40 40 34 48 34 48 51 28 30 50 26 52 69 30 39 54 23 35 34 43 20 34 58 40 37 45 65 50 47 46 47 46 39 39 65 44 55 36 51 46 34 30 58 23 31 37 37 35 51 34 44 36 39 30 46 36 47 24 24 51 48 45 35 48 45 54 39 54 44 39 19 23 40 50 39 47 36 57 33 44 43 53 32 45 47 51 56 32 31 47 46 28 26 42 40 44 51 37 50 37 35 36 48 38 50 26 33 30 43 37 52 41 49 45 30 59 16 41 69 22 8 29 51 44 33 33 40 34 23 25 49 50 78 31 33 40 37 62 51 31 37 33 51 47 32 40 40 48 35 35 35 34 37 46 38 49 23 47 27 22 47 46 22 51 35 29 44 36 58 33 26 48 42 38 28 43 27 29 41 27 37 40 41 35 37 45 43 47 30 44 49 47 18 61 29 30 68 28 31 35 41 47 40 32 40 33 44 51 38 48 55 49 19 57 28 40 50 49 45 41 27 30 36 47 43 30 27 46 43 49 42 39 37 55 37 57 48 26 28 36 49 58 38 44 37 19 59 30 48 32 31 47 22 18 30 54 33 64 25 32 38 37 57 51 45 41 33 19 45 36 42 21 26 51 36 59 39 29 43 49 45 44 36 48 37 41 41 54 27 45 56 47 43 41 55 38 41 26 16 67 29 39 39 45 38 45 23 39 44 29 37 36 41 54 41 44 64 43 36 43 54 60 36 31 30 32 37 32 41 20 45 40 40 37 37 41 48 40 38 28 43 41 22 40 30 49 36 48 43 33 46 45 37 38 53 45 49 48 40 58 39 46 27 35 29 45 36 30 36 50 22 37 53 41 39 43 37 42 37 33 43 31 39 47 16 41 51 33 41 26 33 23 35 42 18 22 26 48 49 28 52 36 57 48 53 37 39 38 65 47 37 36 29 39 54 39 34 45 57 60 34 41 29 62 43 23 37 40 26 25 50 35 42 47 42 22 38 63 35 31 32 35 30 37 31 43 51 65 50 36 37 51 21 55 22 37 29 45 33 51 48 43 35 37 23 49 45 47 53 49 24 46 30 43 63 49 16 22 61 42 39 33 28 40 41 29 30 34 34 31 44 55 42 40 26 51 40 30 34 33 47 51 42 33 47 36 39 35 43 36 26 44 38 30 43 33 51 23 54 27 34 23 38 40 27 46 35 23 33 46 43 73 39 44 51 46 41 41 56 36 43 45 34 50 43 51 54 45 43 43 46 32 37 27 38 42 54 37 30 30 36 29 35 48 41 25 28 50 30 34 27 47 35 44 33 29 41 54 36 45 48 31 33 57 32 38 39 76 45 40 38 36 27 51 39 47 40 54 32 50 15 39 16 45 51 49 50 39 37 43 47 40 37 36 34 44 51 34 33 27 38 33 23 47 44 37 43 33 50 28 20 48 51 30 39 44 47 34 33 34 33 34 43 33 30 31 48 43 41 39 39 30 47 50 57 43 37 36 41 49 45 30 37 54 32 49 43 45 30 44 29 62 31 45 54 43 43 31 29 36 63 48 56 22 27 47 41 30 23 36 25 23 32 33 33 51 44 36 35 31 24 40 34 45 49 43 37 39 43 45 34 47 49 37 33 59 43 42 32 24 46 30 51 33 36 60 39 27 52 33 26 31 39 31 19 43 34 47 43 48 31 40 37 31 40 48 53 50 42 37 45 36 45 29 41 37 37 43 23 63 22 43 47 32 40 49 48 41 21 46 40 46 42 31 37 43 26 50 37 23 68 28 36 47 43 35 43 34 21 43 57 41 43 42 52 47 32 45 40 41 62 42 51 32 43 57 49 30 37 53 38 51 40 45 49 45 42 45 23 40 47 39 51 41 40 31 27 22 54 30 28 55 47 34 43 48 36 45 32 43 51 25 47 35 41 41 29 58 29 59 40 37 33 37 37 37 13 43 49 30 43 50 35 41 20 51 26 36 30 46 34 37 29 36 30 62 37 43 48 42 49 27 35 41 44 23 34 40 45 39 22 53 53 45 13 40 40 33 30 30 44 37 41 35 51 42 29 46 34 39 32 40 38 45 47 46 52 57 23 25 40 37 45 40 34 40 34 56 44 43 47 39 45 40 37 33 29 33 39 54 43 36 57 39 41 28 40 47 49 34 31 49 58 25 31 43 31 48 40 34 49 37 37 33 43 34 37 47 53 42 29 26 44 43 43 65 36 29 69 57 24 51 20 45 37 27 25 35 59 19 33 57 39 45 37 34 19 51 54 65 54 40 42 37 34 43 56 29 40 44 35 51 31 49 53 44 51 23 44 50 23 43 39 57 36 38 53 37 50 50 42 29 33 44 36 34 44 51 54 49 29 41 32 58 44 43 52 47 33 33 37 36 51 37 35 48 57 39 48 13 36 44 43 24 34 30 36 32 30 42 26 43 40 47 57 44 44 28 36 22 38 37 29 47 45 28 30 41 43 38 51 48 31 43 37 43 41 48 61 30 51 27 29 30 27 55 35 43 37 31 56 53 62 30 34 33 35 43 22 40 26 38 43 26 37 57 37 37 32 43 20 40 30 40 42 19 45 23 29 57 31 31 33 36 37 36 44 37 40 43 41 24 31 30 61 44 52 46 46 56 33 27 37 34 39 40 45 28 44 45 45 40 35 30 51 22 30 37 40 43 37 29 47 48 45 47 39 41 51 30 46 31 42 47 59 42 27 25 35 40 43 44 39 49 48 37 50 38 37 24 30 36 34 44 30 39 45 29 41 37 39 36 45 27 28 54 36 51 39 40 35 27 36 37 29 36 37 37 44 28 18 56 20 44 39 44 41 51 63 41 46 29 39 58 51 31 21 40 47 51 37 30 41 44 33 30 50 22 43 45 30 47 57 42 47 30 42 34 34 40 32 40 23 40 48 36 36 32 45 29 48 38 44 40 53 34 52 44 24 40 42 40 51 34 26 41 45 41 42 38 34 32 43 35 53 34 19 39 64 38 40 43 45 36 41 30 37 39 51 51 23 43 49 48 47 51 37 47 38 26 65 29 62 46 26 24 36 39 36 36 47 26 47 36 43 37 39 32 64 29 20 41 33 40 37 18 52 36 30 49 37 41 36 33 30 33 23 57 33 35 26 46 49 45 52 36 43 58 34 29 43 32 38 49 56 44 37 48 40 51 49 36 45 30 41 27 23 44 37 65 46 19 49 42 41 23 37 44 38 50 29 48 35 31 30 48 26 44 25 63 39 39 44 51 40 28 47 48 35 37 45 33 23 24 20 40 23 29 57 43 49 51 13 47 37 34 39 40 37 32 39 38 67 37 48 30 29 55 32 12 22 53 51 45 23 29 47 36 38 31 57 42 47 37 36 25 31 57 53 47 55 33 52 40 53 29 64 42 61 45 55 27 66 40 49 26 45 34 29 33 36 36 43 42 17 36 49 43 42 27 33 41 38 34 43 41 43 26 27 34 60 35 62 22 44 46 29 41 19 37 49 29 47 38 35 50 53 45 45 47 45 27 25 61 39 44 43 32 36 56 30 55 33 33 36 44 37 54 53 29 44 35 15 31 40 33 51 36 31 40 32 40 38 47 37 48 39 25 42 50 43 39 39 44 27 47 33 25 46 36 57 36 57 30 29 41 37 37 23 31 34 23 26 42 27 33 36 38 38 19 47 36 37 30 36 39 37 37 46 34 34 41 43 43 30 45 32 21 38 40 49 41 38 44 45 49 51 36 34 36 30 31 35 34 47 46 51 38 19 58 32 60 44 38 35 53 43 28 47 38 20 49 51 51 27 53 22 59 37 37 44 44 37 35 31 48 25 36 43 29 37 52 47 35 33 40 43 46 36 51 44 37 47 51 37 39 44 41 33 38 37 43 38 43 32 33 33 28 33 39 41 44 45 43 41 55 45 28 54 51 45 66 41 28 37 33 36 29 41 51 50 31 37 35 44 47 50 59 45 42 38 48 58 48 50 33 37 54 49 54 39 48 40 48 33 43 33 28 17 40 52 24 22 39 41 40 44 37 43 29 40 41 40 51 38 37 29 27 51 53 36 48 28 30 35 55 59 56 43 41 46 54 36 33 37 43 33 24 22 34 22 34 29 43 48 41 37 9 35 38 33 40 60 34 25 36 37 38 26 44 39 30 37 52 37 37 29 42 34 41 38 20 32 27 36 68 33 43 46 40 29 37 38 18 31 56 55 50 47 33 35 22 28 48 23 32 47 37 33 56 59 43 40 30 62 29 44 41 41 47 51 51 44 35 37 33 63 40 40 39 29 35 46 49 27 31 24 61 41 31 33 34 54 39 39 47 33 26 42 47 30 33 36 48 40 34 46 61 45 39 26 28 38 40 48 47 42 37 30 55 49 47 46 32 48 21 37 33 40 23 35 53 36 27 33 28 26 29 29 49 43 48 36 46 41 32 37 51 33 29 45 44 30 40 57 41 48 29 37 37 35 26 57 32 42 43 23 27 44 44 52 44 61 40 72 60 66 31 45 71 37 49 44 26 23 31 38 42 31 33 39 59 27 35 23 41 43 26 47 30 31 40 57 41 51 57 35 36 33 39 38 35 51 34 39 30 50 45 36 54 32 49 23 35 39 35 33 55 43 26 30 52 35 27 33 40 30 43 44 19 48 30 35 43 50 33 41 43 30 31 23 48 33 53 50 39 33 33 23 30 43 57 43 43 48 35 53 46 27 46 43 53 40 42 58 44 34 38 51 34 46 44 31 28 33 36 43 61 49 45 24 35 46 44 22 28 39 38 35 44 46 48 55 19 25 44 44 49 38 32 52 28 29 66 73 44 62 35 44 43 37 42 40 54 58 31 44 33 43 23 40 31 35 53 44 41 45 48 48 44 37 16 26 49 35 49 32 26 40 22 44 46 53 41 35 47 13 45 44 37 29 61 46 30 33 53 45 36 26 48 32 48 24 45 29 39 48 37 51 57 25 31 43 34 40 49 40 41 51 52 47 35 42 45 44 55 26 35 56 34 40 30 33 43 31 44 27 26 47 34 34 39 47 44 34 37 33 27 34 43 55 33 31 42 44 35 48 49 23 43 44 28 49 36 42 57 32 33 48 39 44 53 43 51 33 40 21 24 43 48 16 47 22 31 25 47 28 23 42 40 53 41 52 38 19 25 37 37 36 45 30 55 40 57 45 36 41 46 46 37 41 37 31 33 41 34 46 32 30 33 40 37 41 43 13 43 45 41 51 62 51 30 43 47 44 57 38 33 44 54 45 38 42 45 28 31 23 36 27 41 30 29 47 41 34 36 33 35 40 34 27 36 23 57 34 23 60 41 39 40 29 26 45 38 71 37 67 45 55 51 48 51 28 34 46 51 34 47 30 52 31 26 19 34 33 37 58 32 39 44 44 52 19 44 36 40 42 44 45 48 30 51 37 38 44 35 29 51 54 33 44 39 37 43 44 31 35 39 25 34 35 41 33 38 37 54 37 22 31 25 41 47 25 51 23 49 23 47 53 33 64 34 32 55 36 30 40 57 54 43 46 39 38 46 41 31 40 35 33 26 45 41 52 55 43 50 39 47 27 51 42 40 29 37 23 43 63 32 49 34 39 62 40 48 40 32 38 39 27 55 37 39 48 44 51 45 38 44 55 33 27 44 58 38 42 29 46 34 39 32 20 49 26 37 23 66 33 39 44 34 23 31 44 46 46 36 32 44 68 26 51 18 32 22 30 47 30 23 36 50 53 36 38 31 40 39 48 58 33 55 43 47 35 36 54 52 39 59 39 42 43 38 34 31 46 19 43 51 37 36 33 48 51 33 23 37 47 52 43 26 15 23 38 43 15 33 43 43 42 32 45 42 38 38 43 39 39 30 25 49 51 31 47 40 36 50 22 37 33 22 32 37 33 39 41 44 22 30 26 33 36 34 49 55 43 13 43 39 43 59 29 46 43 40 43 75 33 52 20 41 31 37 48 38 38 26 38 60 59 53 11 34 38 45 37 50 17 41 33 54 55 33 33 37 59 36 31 44 44 49 44 40 50 47 46 53 47 29 26 55 36 26 36 51 41 32 34 45 40 34 45 41 40 44 30 33 44 49 44 39 48 49 47 47 46 42 37 19 33 45 47 34 48 48 48 59 33 34 37 40 53 43 59 32 33 29 57 34 41 45 38 55 52 19 33 33 19 45 51 33 39 32 45 31 42 25 55 32 42 40 62 21 42 36 34 30 40 29 27 44 44 40 45 30 29 35 42 77 19 42 43 53 48 33 48 33 61 40 43 39 36 33 22 36 48 51 42 43 37 39 36 42 50 48 41 43 43 37 51 39 34 43 47 24 45 45 33 26 57 33 42 37 48 37 37 45 30 55 37 38 52 46 37 48 47 34 45 30 36 48 46 37 42 44 31 37 25 34 44 37 40 40 48 57 59 68 40 43 54 37 44 46 48 42 38 47 43 26 35 44 27 37 33 62 46 27 27 34 28 48 45 29 30 29 47 45 21 53 37 45 16 45 45 43 36 41 35 35 36 19 47 29 30 43 22 22 39 48 37 30 37 36 36 44 44 48 31 46 51 27 33 36 33 34 55 43 23 32 43 33 47 44 47 21 35 40 37 37 43 38 44 44 43 30 30 29 28 46 57 47 47 31 40 34 41 46 20 44 51 44 34 32 36 32 48 51 41 59 38 56 35 48 50 37 40 41 32 32 42 48 22 27 30 31 33 35 23 30 56 26 44 27 28 26 38 33 35 55 48 54 63 42 44 49 54 51 48 42 37 31 40 44 38 31 33 51 37 35 34 34 44 38 43 41 42 42 31 31 59 60 38 33 36 38 47 43 47 35 47 31 49 26 35 33 48 42 56 34 60 44 34 32 30 42 38 31 22 36 37 27 38 33 33 31 33 23 55 41 48 71 35 53 44 38 32 27 59 30 41 45 22 36 30 46 33 44 26 30 58 31 36 50 30 17 38 42 44 65 50 37 51 38 39 57 40 33 56 44 55 24 48 33 38 50 7 35 41 41 56 34 32 52 41 38 30 36 24 32 27 45 41 40 23 47 55 40 41 26 60 47 47 38 55 57 20 18 30 51 37 41 48 34 41 27 40 30 31 33 37 20 47 37 67 30 25 27 50 23 44 22 41 30 47 58 40 41 55 40 32 35 34 28 43 27 36 65 37 30 45 23 23 41 26 40 35 43 29 37 62 31 40 38 55 37 47 40 37 51 21 46 64 47 30 33 16 27 34 12 45 30 44 32 32 39 22 40 34 46 18 42 46 37 39 37 20 61 17 32 48 41 46 47 53 37 54 32 29 40 66 40 15 46 35 47 61 59 37 39 33 49 40 40 35 52 45 35 33 30 37 31 36 13 19 32 54 36 48 59 66 48 71 41 27 37 33 32 41 31 36 37 26 41 26 40 50 43 45 61 31 43 30 23 43 49 35 49 42 34 30 38 52 32 29 44 38 53 52 38 40 35 39 41 38 52 37 44 30 23 23 37 26 37 39 30 50 34 55 42 43 27 43 44 37 51 30 58 44 36 35 35 51 26 43 36 33 21 33 44 46 18 45 27 26 29 42 49 29 28 44 22 49 39 35 42 43 34 41 47 37 44 40 12 41 37 41 50 34 48 42 34 23 35 44 44 27 49 41 29 43 42 32 34 37 50 29 23 38 31 46 28 48 37 49 34 53 37 44 27 37 44 33 43 37 57 32 47 26 51 36 45 35 30 41 34 34 40 41 38 38 41 38 38 23 40 10 31 31 37 37 48 35 51 42 47 46 32 30 38 36 48 39 33 36 57 34 27 39 49 40 62 30 40 43 34 57 43 27 17 21 35 29 36 43 39 36 37 31 46 26 31 38 49 26 23 44 38 29 34 39 27 36 37 47 42 34 41 39 47 33 37 31 60 42 20 23 33 36 29 47 46 36 47 33 37 49 30 56 60 46 38 37 29 40 46 29 37 47 34 24 47 56 39 29 36 27 50 25 27 44 66 33 34 46 31 38 26 33 43 32 32 35 42 26 57 37 43 55 29 36 38 46 39 27 62 37 38 46 49 31 20 52 51 41 44 38 25 51 69 36 56 45 57 34 31 43 47 33 43 31 39 56 29 34 19 43 49 37 36 41 41 43 25 46 47 32 37 41 29 38 43 37 29 52 60 45 53 44 25 39 58 35 57 26 31 46 51 47 43 35 29 37 44 60 55 41 45 56 40 47 37 15 46 44 41 40 26 35 41 55 20 31 34 34 41 26 48 33 40 46 22 34 45 47 52 40 42 43 46 30 45 43 41 46 26 30 24 35 36 52 51 29 30 41 35 37 41 50 22 49 40 61 47 33 43 40 33 50 43 22 28 40 55 41 36 16 40 26 36 46 47 33 37</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(1.9748672425288436, 3.0712212840016075, -18.868813177769574, 107.36310580999222)</t>
-  </si>
-  <si>
-    <t>23 22 19 20 13 20 10 19 14 24 23 16 20 16 20 10 34 29 23 16 30 28 20 26 15 26 15 19 11 23 20 9 22 17 28 13 20 17 17 10 21 17 26 14 20 11 11 20 12 17 23 13 12 31 17 24 25 24 23 31 27 20 10 9 17 28 28 21 17 30 15 10 19 30 20 17 3 3 21 10 13 17 17 23 20 27 38 17 7 16 9 13 24 19 12 13 17 10 6 27 12 0 8 20 12 14 10 17 20 23 12 13 30 27 25 10 18 24 22 14 16 20 15 20 19 13 21 10 17 21 27 19 21 18 21 28 17 34 3 16 20 16 10 25 14 21 34 30 23 24 20 23 22 21 23 13 10 13 21 31 10 10 13 17 23 15 10 21 20 7 10 23 27 13 27 7 17 17 31 26 23 6 0 20 10 22 23 19 22 25 17 10 30 6 7 20 14 7 24 17 20 23 34 26 13 13 13 20 23 9 20 20 20 17 17 17 0 23 12 13 6 14 12 17 17 10 20 33 13 17 20 6 20 23 29 34 13 16 19 16 19 29 18 3 20 10 21 13 35 14 15 16 20 17 24 19 14 37 30 22 17 16 40 40 20 7 14 10 25 14 15 6 17 36 12 14 13 16 15 13 16 14 17 28 9 14 17 13 25 37 28 12 23 27 26 16 23 8 9 20 33 28 13 20 6 14 24 14 7 27 18 24 23 40 33 22 16 20 9 24 24 18 33 6 10 32 10 17 23 17 17 10 3 14 38 18 15 13 12 16 21 7 20 27 25 34 24 20 23 26 17 23 20 37 16 21 6 26 10 6 27 23 16 25 10 22 28 12 9 27 16 21 6 13 14 27 10 7 10 23 14 14 10 17 29 6 10 28 29 9 20 17 20 16 21 17 7 14 27 27 20 17 10 24 14 17 6 10 23 23 24 24 17 38 17 20 27 20 6 23 17 17 19 13 15 13 17 27 24 23 16 20 20 10 20 16 7 26 23 14 13 20 30 30 20 6 6 24 14 9 13 13 24 14 26 24 27 24 19 17 31 19 20 29 17 24 34 21 3 27 22 19 13 23 16 13 9 26 24 16 10 23 17 13 16 21 37 13 10 28 20 23 28 31 19 30 7 3 16 19 18 13 31 31 21 13 29 49 24 10 13 16 28 10 17 9 3 21 16 19 7 29 14 20 7 7 19 22 27 10 17 15 10 12 35 27 17 16 10 37 27 24 16 33 21 30 16 29 34 6 17 15 13 20 15 16 23 14 20 10 9 9 17 6 23 19 14 34 16 9 20 16 20 3 24 22 18 10 16 20 21 35 32 23 14 35 34 17 23 6 3 7 6 14 17 26 3 8 24 21 13 13 23 28 10 24 13 24 19 13 23 30 24 16 24 26 17 6 10 7 38 17 21 24 19 14 10 17 13 17 20 6 14 27 16 20 21 24 13 13 12 7 18 24 21 21 19 16 13 26 10 10 17 21 19 10 7 27 12 23 6 10 6 27 17 10 24 20 18 10 23 31 19 9 25 19 19 12 20 24 27 17 22 20 32 6 13 23 23 20 18 15 16 30 20 25 37 13 7 24 21 16 15 24 10 27 13 27 21 22 10 6 24 12 28 0 23 23 10 37 17 20 17 27 9 26 19 9 23 20 29 35 27 3 22 35 20 30 6 3 17 27 34 10 21 19 20 12 23 23 28 12 20 10 13 30 21 17 11 17 26 17 28 13 18 23 13 16 16 16 20 33 27 13 20 23 14 17 12 23 20 31 20 3 25 17 12 19 23 26 20 26 9 3 9 16 31 14 14 26 12 7 13 17 7 11 19 13 16 35 14 22 10 13 31 17 17 17 24 31 16 13 14 21 13 23 19 13 10 16 31 24 25 24 16 30 14 20 20 24 27 23 17 19 16 27 14 3 20 23 27 10 16 14 20 30 18 16 17 23 16 20 17 9 31 10 17 30 21 12 10 13 29 21 10 31 20 10 6 24 11 19 35 19 16 16 10 17 20 29 30 17 26 10 31 20 15 21 22 22 24 13 28 33 15 9 27 30 17 24 13 20 17 23 9 10 19 22 22 19 27 31 26 3 43 8 37 24 17 27 17 10 17 17 15 20 22 10 15 34 17 16 21 13 17 22 16 20 26 24 17 11 10 13 28 16 6 27 17 7 13 23 26 26 23 17 13 25 19 14 14 27 21 12 28 23 18 19 18 16 21 13 24 16 22 22 24 7 12 23 20 19 16 0 13 13 3 20 20 24 11 13 10 21 22 7 22 21 26 9 14 30 16 21 17 17 27 20 23 20 16 27 37 21 20 27 11 20 17 16 6 13 16 3 15 13 16 3 30 13 9 7 16 12 17 12 6 26 33 20 17 20 23 6 17 27 14 24 13 13 14 3 34 17 13 13 31 13 27 16 30 19 33 13 17 19 19 29 12 19 9 13 20 23 19 23 17 20 7 14 33 13 24 9 31 22 9 9 14 14 5 30 19 19 25 3 24 10 17 23 7 27 24 15 17 22 13 24 9 14 21 21 14 27 16 14 7 38 13 24 13 18 18 21 16 31 31 15 19 23 20 7 9 17 27 24 27 28 6 10 20 17 17 24 17 25 16 13 15 24 23 34 0 24 13 20 25 17 27 7 7 33 21 16 19 13 27 19 20 19 7 16 24 12 22 23 34 13 20 13 24 23 16 14 19 17 20 33 10 17 27 12 9 27 19 20 24 19 13 20 3 17 21 16 22 22 26 6 6 20 7 16 24 9 16 16 13 21 14 23 21 23 13 10 21 12 27 9 9 10 10 41 31 10 14 13 19 20 21 16 10 17 10 23 38 3 35 14 19 13 20 25 16 10 10 24 17 18 20 20 21 20 24 10 24 10 34 25 9 10 21 13 12 24 24 26 7 13 17 9 22 25 27 12 13 0 41 10 12 30 13 26 10 7 20 8 10 6 40 21 31 14 10 24 22 24 13 17 24 26 14 7 24 27 10 24 13 9 15 10 10 10 23 19 23 3 12 20 21 9 23 13 36 34 24 27 13 17 6 27 28 13 14 20 30 17 21 14 16 17 17 13 13 27 17 16 6 38 24 16 20 12 20 27 23 30 13 16 21 34 21 17 13 24 30 10 16 24 13 13 13 23 23 29 21 22 23 27 27 14 16 17 6 23 21 13 20 9 13 13 16 9 20 20 20 17 31 20 23 14 16 7 27 30 3 23 14 21 20 26 19 21 20 18 27 27 14 24 33 13 3 14 21 31 10 16 21 34 24 20 20 22 28 16 18 16 16 13 23 20 7 13 28 27 14 13 17 12 18 10 10 28 24 8 17 3 26 17 15 24 9 20 14 29 24 17 26 30 27 25 23 14 13 33 13 20 10 22 20 28 18 20 15 24 30 13 3 19 16 34 23 24 16 17 24 16 19 7 23 20 7 17 17 24 16 37 14 34 23 25 23 11 16 18 21 5 7 7 31 10 21 15 24 33 23 20 27 22 23 28 20 16 24 28 14 9 21 23 10 26 23 7 6 13 13 29 26 13 24 3 35 23 21 17 21 19 10 17 21 28 14 14 24 3 22 20 20 19 20 28 19 14 16 7 7 24 7 9 9 24 31 24 30 33 20 30 9 24 14 17 12 14 17 19 13 22 33 20 24 0 13 14 17 21 23 13 13 23 16 24 27 24 14 3 16 6 7 17 23 27 10 24 17 25 12 7 3 21 28 27 17 31 27 21 21 33 16 31 16 16 23 13 14 22 6 10 20 13 17 21 13 12 17 18 7 13 16 23 33 13 26 38 12 33 18 14 21 17 13 24 20 13 34 22 17 17 14 28 6 24 23 38 24 16 31 25 15 22 13 20 6 10 16 24 17 23 16 21 17 38 13 17 30 20 27 16 16 19 7 31 24 27 7 21 22 20 20 21 38 18 24 20 17 15 17 21 19 31 18 27 18 20 18 24 9 0 17 13 13 18 21 20 31 23 12 29 24 17 17 9 16 20 13 17 19 3 23 17 8 14 28 28 23 18 20 33 27 19 27 16 31 17 34 20 28 17 14 13 7 10 21 27 10 16 6 16 26 24 17 9 15 28 9 6 21 31 38 8 10 13 29 7 15 37 23 22 24 33 9 6 19 7 16 23 35 0 26 16 24 14 17 30 21 19 17 20 26 21 25 20 7 16 13 13 27 17 17 20 23 23 16 16 24 16 20 27 17 14 17 26 17 10 14 23 20 9 23 30 14 28 26 16 24 10 24 23 24 26 7 27 19 7 33 25 22 10 6 20 29 18 13 5 24 13 17 28 17 22 8 20 14 14 9 10 13 21 10 21 13 17 13 10 9 24 20 20 31 20 20 30 16 24 20 17 16 20 17 12 24 6 23 20 23 27 48 24 21 23 38 35 28 18 25 24 12 14 41 21 17 27 33 12 24 12 19 27 10 7 27 21 28 17 19 14 28 27 14 17 9 22 17 17 20 10 16 13 20 14 22 6 9 30 21 34 13 12 20 24 13 25 10 24 6 30 17 13 20 10 6 10 7 19 23 17 10 30 6 3 18 20 10 13 7 22 10 29 38 43 17 16 9 24 20 12 17 10 35 3 27 7 28 13 13 27 17 12 14 17 16 3 20 13 17 19 20 38 14 7 10 20 7 27 27 27 17 27 17 19 27 23 24 6 24 27 17 31 12 20 25 30 14 23 12 23 19 21 27 22 6 13 20 20 14 3 3 18 16 11 13 27 26 20 23 34 24 35 31 12 23 12 29 7 32 10 17 13 25 16 27 12 27 13 20 41 23 6 26 24 13 22 29 6 13 26 9 16 13 7 20 3 19 23 9 13 3 12 13 24 25 49 30 16 24 17 14 17 16 27 16 20 10 27 6 9 14 16 10 6 21 23 22 23 30 17 10 22 20 20 14 13 19 30 27 17 9 30 14 27 20 34 34 23 27 34 24 17 24 31 18 16 20 26 23 23 17 23 6 20 12 12 31 34 17 13 13 26 13 26 26 13 15 23 14 17 27 17 15 16 10 26 21 20 23 17 10 22 24 17 31 16 25 30 3 24 26 20 26 20 34 21 10 13 35 14 24 31 23 17 21 12 20 21 38 17 21 13 26 10 23 17 17 27 15 27 17 30 13 25 24 22 17 30 21 35 21 14 26 20 13 13 17 23 13 38 17 22 20 31 18 30 6 20 6 13 17 20 9 26 19 21 28 20 23 10 24 15 23 20 18 7 37 16 24 3 12 40 17 17 10 24 20 14 27 27 10 27 13 27 30 27 12 23 28 17 14 22 20 16 27 34 19 18 27 17 31 23 13 9 38 7 14 20 10 19 26 10 21 16 27 20 19 12 20 10 23 17 7 20 19 7 23 17 17 31 17 10 27 10 16 19 18 15 30 9 22 9 14 13 14 27 22 6 31 12 19 25 24 20 16 28 20 30 20 10 31 16 41 21 13 6 12 30 24 17 28 17 10 13 13 24 23 6 6 24 16 24 14 17 17 29 14 10 23 34 13 29 31 16 21 3 27 27 6 10 30 14 20 19 19 13 6 27 24 17 13 23 7 34 18 17 10 26 24 10 3 17 6 21 33 16 27 7 21 21 32 17 14 17 37 20 31 7 13 27 17 16 14 24 6 26 23 31 21 17 28 10 25 27 31 17 13 16 16 17 16 27 17 6 29 26 14 19 27 20 18 13 31 3 3 31 20 15 34 20 13 16 38 19 13 24 23 24 17 26 19 7 7 13 20 16 19 19 16 13 21 9 27 14 18 10 25 16 22 21 28 30 27 20 27 6 17 27 26 29 21 23 13 24 20 16 16 16 2 21 20 15 31 19 14 37 17 34 10 34 19 17 36 17 9 16 6 6 16 14 27 20 31 40 25 19 18 19 24 10 27 14 14 3 25 13 16 17 11 44 31 13 10 24 31 13 22 22 10 20 20 17 25 10 26 17 14 9 19 9 6 24 7 15 10 17 24 23 27 38 17 27 13 25 29 16 17 27 17 10 21 21 7 24 29 17 16 20 9 27 20 21 16 13 9 13 13 24 14 20 14 27 27 10 19 23 13 19 10 17 17 19 20 16 17 20 22 23 20 0 34 10 16 6 24 28 9 14 6 26 3 6 19 10 20 10 12 14 27 27 17 0 23 27 13 21 15 17 17 17 17 10 24 21 15 31 14 16 3 15 21 40 30 7 12 20 13 24 13 13 16 17 23 12 17 12 12 27 14 13 34 24 13 16 27 6 17 29 13 20 24 34 25 27 26 12 10 13 24 33 27 13 27 19 10 20 30 23 10 6 38 25 19 21 24 9 27 22 16 30 23 18 16 13 12 3 14 18 22 40 13 21 20 23 19 9 31 26 27 7 26 6 14 17 12 21 20 12 12 28 10 27 10 13 27 30 22 28 10 13 15 13 20 16 27 13 27 23 16 13 28 23 23 10 30 20 13 20 14 19 27 31 29 0 3 26 10 29 10 24 10 17 23 24 13 21 23 13 26 9 29 17 3 27 20 21 26 22 24 13 10 18 13 3 13 13 26 23 19 17 24 31 13 6 7 16 27 28 19 13 13 21 13 19 30 7 6 10 31 7 10 37 31 12 10 13 27 27 20 10 33 24 16 21 3 13 10 15 13 12 16 23 13 27 9 35 12 27 9 36 19 20 0 11 20 13 28 13 20 44 24 20 20 13 17 9 17 30 33 9 24 24 26 24 30 21 31 12 18 13 12 21 9 38 14 20 19 10 23 14 34 24 23 10 13 24 9 20 13 10 7 17 24 15 23 13 17 14 10 33 13 13 10 23 11 7 6 14 13 20 9 31 27 0 20 15 17 13 26 13 11 20 28 21 30 17 9 20 13 14 6 27 0 15 10 3 23 19 13 34 13 31 12 24 22 17 24 12 17 18 13 14 13 9 16 13 12 17 20 20 27 41 19 23 9 10 23 26 20 19 7 34 24 10 3 21 31 10 28 6 22 10 16 7 29 27 24 6 20 30 9 27 17 30 35 6 6 17 14 35 10 20 15 10 26 17 23 9 15 24 12 20 20 30 7 17 41 14 10 12 17 30 14 33 14 22 7 28 13 17 13 24 10 17 17 29 24 31 10 24 23 13 13 17 9 34 21 13 9 20 24 14 30 6 26 19 26 13 14 17 26 23 16 15 6 33 19 18 13 14 17 16 0 24 30 19 7 30 9 17 26 15 17 20 12 6 13 27 13 10 17 13 20 19 21 20 30 24 3 23 20 30 37 28 20 27 18 17 17 21 17 24 26 9 19 13 13 25 17 23 16 14 6 9 38 9 16 13 30 17 7 34 17 23 20 7 17 6 17 10 27 17 26 30 27 14 20 20 12 24 12 23 23 6 28 27 19 23 13 21 15 19 17 21 20 0 23 9 9 17 13 27 23 23 16 7 13 22 19 0 13 14 13 3 26 23 20 15 20 17 13 19 19 24 21 10 27 29 23 20 15 20 20 12 17 13 3 6 19 30 20 9 21 27 27 17 17 17 6 24 19 18 17 13 24 17 10 10 17 20 21 17 20 12 30 20 24 20 24 3 15 5 17 17 7 16 31 17 17 16 27 10 27 13 13 21 31 20 38 34 9 13 9 10 21 10 16 31 14 20 16 6 12 16 17 17 31 38 7 17 10 17 32 17 13 15 13 20 21 23 21 30 24 28 27 38 30 23 30 13 24 22 6 8 23 15 14 20 13 13 12 10 20 9 23 19 13 33 17 19 15 3 13 18 54 26 28 13 26 19 23 27 10 12 10 21 10 16 20 20 27 20 6 22 16 19 37 10 19 34 17 10 17 27 17 13 28 24 6 13 28 14 20 24 7 24 23 16 13 24 9 6 14 20 42 14 14 31 24 6 13 14 13 16 24 23 28 17 13 14 21 26 14 19 27 21 21 13 6 20 20 13 9 12 24 20 16 27 10 7 37 0 6 33 23 12 20 14 34 24 19 29 23 20 28 23 13 20 24 21 24 24 16 19 17 16 28 16 24 24 34 26 10 14 13 16 20 23 24 20 10 17 10 25 16 20 26 13 21 23 20 13 13 22 3 24 17 27 25 13 16 11 10 20 14 17 24 24 9 17 13 17 28 19 23 14 20 6 23 13 21 33 10 13 20 24 14 14 17 24 14 12 15 3 13 10 20 20 10 28 24 13 6 14 17 17 20 13 14 6 13 20 24 17 18 10 7 17 19 14 20 20 17 7 21 3 10 16 13 23 35 31 8 31 17 27 9 10 7 20 14 13 6 10 34 21 29 14 9 17 10 15 16 12 26 24 27 13 10 20 24 24 20 20 20 9 22 22 30 23 24 19 27 6 19 27 24 10 15 20 23 27 20 18 9 14 12 7 11 34 11 30 24 12 27 20 27 33 14 23 7 13 17 13 13 14 16 24 16 27 24 7 10 27 27 17 45 16 6 10 17 9 32 9 20 21 19 27 27 6 20 16 10 6 17 10 17 7 22 14 10 29 34 13 18 10 41 24 17 20 20 19 20 17 24 13 13 13 13 13 7 27 31 31 27 21 13 27 14 31 20 15 6 13 23 26 22 27 24 13 35 27 32 11 13 17 17 33 33 27 16 17 27 23 15 28 14 21 14 13 24 13 23 12 13 23 16 20 23 21 22 23 7 14 30 16 20 9 23 16 19 20 16 13 28 10 24 16 6 30 27 38 13 33 29 21 3 22 17 28 31 39 20 10 20 7 9 20 34 23 33 14 13 9 20 14 33 6 13 12 30 24 10 26 24 17 10 6 14 20 12 16 6 13 28 9 23 16 18 23 16 12 20 32 23 25 17 24 26 16 21 13 20 17 10 16 17 16 23 27 17 17 27 20 27 13 23 13 13 19 9 18 10 22 29 31 31 29 17 13 27 13 14 20 9 9 13 30 30 24 17 10 21 23 24 27 10 13 16 17 16 12 12 12 15 20 6 27 18 29 24 16 17 22 29 17 16 7 6 10 17 7 9 12 24 12 16 21 17 3 7 17 21 31 17 30 12 13 21 27 10 20 27 25 13 35 23 30 8 10 17 22 16 17 20 30 15 17 24 17 28 23 23 31 16 10 20 19 14 17 33 35 20 27 23 20 18 20 24 20 3 20 13 14 17 17 27 38 20 28 20 3 8 24 24 7 27 34 31 16 30 24 20 14 20 6 20 27 16 17 19 25 27 19 27 17 28 24 45 13 22 27 25 19 23 28 20 32 13 10 29 20 24 21 13 20 17 28 10 13 14 24 12 20 13 19 9 23 20 7 24 17 26 31 20 26 14 3 14 25 35 8 17 3 16 25 38 13 23 13 24 23 9 31 17 10 23 17 17 23 35 26 33 6 17 14 17 27 20 26 28 21 16 14 17 0 24 10 24 17 25 24 42 23 3 17 7 17 23 30 13 14 13 23 30 27 0 30 20 22 17 24 23 17 27 10 17 7 10 26 31 27 23 19 17 16 10 29 17 10 13 13 17 16 0 29 13 20 10 17 16 24 18 24 37 19 10 3 20 17 9 17 17 17 19 13 16 24 19 17 30 13 31 16 15 20 21 20 24 3 6 18 6 25 22 9 15 13 17 24 12 14 26 32 20 10 10 18 13 16 31 16 24 17 13 31 23 6 9 7 20 16 9 7 15 12 20 14 13 24 17 20 17 17 15 13 23 14 10 16 27 38 6 9 16 21 6 7 3 21 16 31 20 15 21 16 16 13 16 7 20 12 10 12 20 22 22 15 13 17 6 35 24 20 10 15 28 7 13 20 24 13 7 14 10 27 17 7 14 8 35 9 17 13 23 26 20 33 23 7 27 13 7 27 20 24 12 13 9 24 7 16 14 10 38 25 17 10 17 16 27 0 13 24 6 20 26 3 6 11 24 13 28 20 13 26 0 16 10 24 21 35 28 19 10 17 10 27 17 20 26 16 13 23 34 31 13 13 6 21 9 17 28 10 31 14 20 24 30 19 10 13 13 26 26 15 26 6 37 27 11 8 13 17 6 21 27 26 34 27 17 28 24 17 20 24 13 20 23 27 13 21 6 7 3 17 12 18 10 27 9 10 17 24 20 21 9 33 3 10 20 29 27 20 17 19 17 15 19 22 3 26 35 31 13 23 7 16 10 17 9 38 19 7 6 10 13 13 17 10 17 20 24 34 31 22 12 22 14 30 10 6 28 16 24 9 0 13 13 14 14 21 27 9 8 9 17 26 3 20 17 14 27 7 7 20 17 24 23 20 10 30 24 14 30 17 17 12 16 23 21 24 31 35 13 22 10 18 19 22 13 17 28 7 12 18 19 23 27 12 6 6 34 17 23 24 0 12 17 25 17 23 20 26 26 17 20 23 14 14 23 17 16 7 17 20 10 13 17 10 20 16 10 13 16 23 16 6 16 26 14 30 20 19 20 24 11 0 14 13 14 10 7 18 16 27 16 3 14 27 10 26 17 9 27 22 3 21 24 28 27 7 32 35 14 27 9 10 9 15 21 28 19 16 26 10 17 20 20 9 17 23 23 21 10 13 19 11 23 3 13 17 10 2 20 18 17 13 16 17 27 16 13 14 21 38 17 26 27 10 37 20 13 13 28 13 6 22 24 23 23 19 31 9 9 16 23 22 17 10 27 11 17 30 20 27 30 16 31 7 7 30 31 10 13 0 16 9 14 17 16 21 23 17 21 13 16 16 16 24 17 31 29 16 9 31 13 19 34 10 34 13 10 3 19 12 27 11 13 17 7 27 23 20 37 19 21 27 18 16 10 20 18 13 35 17 19 24 13 21 24 19 10 17 20 31 31 27 6 15 13 6 3 31 13 14 30 18 6 23 18 27 23 24 24 21 20 10 29 20 17 7 19 23 13 10 10 17 16 23 21 15 30 26 23 35 18 20 27 10 10 20 17 31 3 29 31 29 16 27 26 21 23 14 20 27 34 14 21 3 17 11 23 13 27 30 13 10 20 12 12 26 6 9 12 17 13 20 16 16 30 16 17 9 15 17 19 41 17 23 6 26 21 17 24 18 21 18 17 24 21 22 20 17 24 7 20 29 30 24 13 21 23 18 27 14 37 21 27 28 26 23 27 9 16 15 19 13 20 10 6 13 0 22 7 24 18 21 20 10 10 6 17 10 38 3 26 18 26 10 0 10 13 27 24 34 25 10 16 23 14 15 20 26 10 17 9 38 20 17 36 20 13 30 20 31 9 38 29 13 7 24 20 27 13 43 21 38 24 9 28 19 16 9 16 26 23 16 17 31 20 7 17 19 20 27 20 28 21 16 12 27 20 20 30 27 21 12 20 28 24 30 31 12 14 20 21 15 13 15 23 19 17 12 36 13 18 13 24 29 24 26 23 22 24 16 21 28 42 6 6 14 20 19 20 12 20 24 6 24 9 21 28 18 23 27 10 27 12 3 6 6 14 3 27 16 13 23 9 21 14 10 10 16 19 11 31 17 30 20 31 31 17 20 15 20 14 32 22 20 12 24 16 34 20 13 20 20 12 9 6 13 30 10 13 18 31 20 24 16 17 24 7 34 20 16 20 21 25 23 24 27 10 24 27 20 10 23 13 28 28 14 13 33 19 13 29 19 10 23 13 19 19 13 19 26 12 13 30 14 0 21 6 23 17 18 9 16 20 16 13 6 27 9 19 23 10 36 7 19 0 6 17 31 17 28 24 24 6 16 29 10 9 24 8 24 20 17 23 10 23 20 8 35 21 13 35 35 27 24 9 12 6 10 16 33 20 31 17 0 19 16 13 20 21 30 19 14 12 18 13 28 38 23 23 24 19 19 14 15 17 31 29 26 21 15 12 20 19 17 16 27 10 17 23 24 30 24 12 10 20 21 34 10 6 14 14 22 10 31 10 6 17 27 13 14 17 6 34 20 26 9 14 10 17 12 18 20 20 0 16 33 19 23 20 31 23 17 7 26 18 34 10 23 19 14 3 17 10 16 41 3 24 16 30 16 17 20 18 0 3 17 0 7 22 17 34 20 24 16 20 20 21 21 3 14 27 26 27 14 16 10 20 19 22 19 10 6 16 12 30 9 24 13 16 27 16 31 33 16 17 8 17 27 17 20 6 14 27 16 23 29 13 17 13 13 18 20 13 20 13 18 12 20 28 17 13 16 15 30 20 34 20 3 21 14 28 3 11 24 17 19 17 24 13 24 17 16 27 6 16 23 10 27 13 17 33 17 16 31 24 31 13 20 20 29 10 6 6 30 6 20 20 16 14 21 10 17 13 20 9 19 17 38 17 10 35 15 22 13 20 23 23 22 13 6 24 3 31 22 22 9 19 23 16 26 14 13 16 15 17 24 10 17 7 23 23 23 10 45 20 21 12 34 16 13 13 10 9 17 17 20 27 19 10 27 18 13 27 18 26 17 34 27 23 20 14 13 20 21 20 22 12 20 24 13 20 20 13 17 20 11 27 51 24 9 31 17 27 25 27 31 25 31 23 14 7 30 13 9 24 29 27 20 9 20 6 13 24 9 10 7 19 12 20 9 34 19 22 23 23 26 13 17 23 13 10 24 24 31 3 10 13 20 16 25 28 3 27 33 14 17 13 23 16 13 10 10 3 31 3 10 6 18 17 27 27 29 27 27 14 13 13 20 24 19 6 24 10 13 17 10 9 6 7 24 17 9 20 21 13 33 20 23 13 22 22 21 22 12 10 23 14 9 21 27 27 10 7 13 19 23 12 28 21 23 13 6 10 16 33 13 29 22 14 34 21 16 21 6 17 21 13 21 30 13 7 12 17 19 20 6 20 20 30 20 7 7 13 9 23 27 20 17 16 16 20 7 24 9 16 20 21 16 14 7 34 26 24 17 34 22 10 10 13 12 13 13 12 17 22 7 6 9 23 13 6 23 20 3 16 18 16 14 23 18 13 24 20 15 20 9 24 20 10 24 6 17 20 9 13 13 7 24 13 24 18 6 12 20 18 25 13 22 28 17 0 31 17 20 29 16 17 19 23 23 9 23 17 21 20 31 6 13 20 27 23 15 23 17 21 20 34 20 13 14 3 23 9 12 13 35 14 23 10 22 10 15 25 20 28 17 9 0 24 13 12 10 21 30 9 27 24 21 28 14 17 10 15 24 13 6 13 10 16 6 19 14 27 6 21 26 10 31 28 20 28 16 21 27 31 25 17 30 24 26 10 26 14 14 14 10 32 13 10 17 24 10 25 26 27 19 23 13 28 20 27 17 30 24 10 21 27 13 28 23 10 12 10 10 23 23 26 27 10 38 13 17 13 24 14 27 32 10 13 9 24 22 18 16 17 27 28 24 20 30 19 24 19 15 23 10 19 24 21 24 23 19 7 10 21 17 31 10 12 15 21 15 19 17 6 28 24 24 22 6 27 20 33 9 20 15 13 22 35 20 9 17 17 7 15 20 13 20 27 20 13 19 20 16 20 22 21 24 13 6 17 12 17 7 16 3 15 7 26 3 13 19 19 38 20 12 26 14 20 16 23 24 24 30 28 10 30 20 6 17 14 25 17 8 20 13 24 13 17 17 10 13 17 20 24 10 26 6 20 6 17 10 23 17 10 24 16 21 14 17 13 10 28 22 16 23 21 30 19 13 19 24 10 10 20 21 10 6 19 16 10 31 27 28 0 16 17 20 13 13 28 13 21 24 13 10 27 12 19 6 3 14 14 12 21 16 14 7 18 14 17 10 9 27 24 19 26 10 7 19 16 10 24 10 19 23 21 26 13 31 20 20 17 15 20 29 10 26 10 23 13 31 30 27 30 9 20 22 14 20 20 24 10 20 12 6 26 14 20 0 20 24 13 15 9 33 6 21 16 24 27 20 23 13 20 21 20 9 34 23 21 24 14 23 6 20 12 10 23 24 11 26 19 9 30 10 20 10 9 23 31 24 24 19 16 25 17 21 33 24 22 17 10 9 16 24 13 10 16 6 23 16 10 20 14 21 19 25 24 16 24 6 22 33 14 15 17 18 17 30 20 10 7 16 21 27 17 24 10 13 10 20 24 22 12 3 19 24 18 11 6 16 16 17 24 31 20 11 24 6 20 12 32 21 29 13 26 10 27 13 17 10 13 20 27 13 26 24 7 31 22 21 26 18 18 14 26 20 16 14 13 20 13 20 7 13 34 22 13 7 20 20 17 31 20 13 7 14 16 16 16 30 27 20 23 0 25 16 19 14 19 14 14 22 23 14 20 16 23 33 13 17 13 14 24 20 20 24 27 14 13 24 17 28 24 13 9 10 16 19 21 16 10 13 27 3 16 26 23 17 13 13 10 24 8 6 20 6 18 20 30 13 24 20 31 13 24 15 17 12 16 20 20 21 30 27 17 17 24 15 10 17 14 30 29 10 20 3 24 21 14 9 17 21 21 15 7 17 18 31 23 26 17 17 10 17 20 14 17 12 10 31 20 23 20 3 14 34 6 27 10 23 16 26 10 16 3 26 14 30 26 26 6 20 27 16 23 7 6 17 20 22 14 30 10 23 26 27 14 26 13 30 24 10 20 13 12 19 21 20 20 20 12 30 24 3 10 26 9 15 17 9 7 12 20 37 19 12 24 12 23 19 24 20 15 16 16 25 12 24 13 13 20 49 23 24 17 9 9 14 21 14 14 13 24 17 38 17 14 19 22 10 3 20 21 16 6 29 17 20 3 22 23 9 6 7 3 25 11 15 10 24 13 14 37 26 20 15 24 27 9 23 23 31 21 13 19 14 7 17 27 21 38 13 21 19 30 10 6 20 11 30 23 16 21 9 16 23 16 14 29 13 21 9 36 13 24 13 24 27 22 0 9 19 31 24 21 13 24 20 3 19 3 23 27 20 20 24 17 9 13 27 13 13 23 20 13 20 16 27 27 17 23 3 16 17 13 37 24 9 16 25 19 10 20 26 24 14 17 24 26 24 20 20 7 27 17 17 0 17 10 17 14 19 20 27 44 34 17 3 21 20 27 27 28 12 30 9 20 17 13 13 6 13 20 17 13 23 24 21 17 41 12 26 16 27 19 20 31 31 18 27 13 21 13 14 24 23 14 14 16 10 7 20 24 23 30 22 20 24 16 26 20 30 9 24 9 6 12 17 25 24 16 17 13 26 13 20 16 31 27 7 28 14 20 20 24 26 17 9 16 20 20 16 7 33 33 10 26 27 10 7 13 6 24 24 33 19 14 27 27 3 24 16 20 10 13 12 14 14 26 21 6 23 17 13 31 10 20 28 9 13 31 20 9 3 7 13 13 6 20 17 13 14 23 21 9 12 24 20 19 17 14 20 16 12 18 19 20 12 10 12 19 27 29 14 14 20 14 20 10 17 20 18 24 10 0 17 20 0 15 10 13 17 20 22 21 10 22 14 13 23 27 23 17 34 31 15 20 17 15 17 15 20 23 13 6 20 16 27 15 17 17 13 36 23 27 22 27 24 13 24 37 31 10 12 17 23 20 19 24 10 31 20 14 9 16 20 19 22 23 16 17 10 15 10 31 20 24 14 31 18 25 7 13 10 16 20 3 19 31 23 19 30 16 24 9 22 13 26 16 7 20 21 21 20 29 16 18 9 27 21 10 23 14 16 17 21 10 17 28 27 17 23 6 3 24 26 16 26 13 23 20 22 23 20 22 13 19 23 20 16 15 7 46 17 16 15 14 23 20 14 17 24 16 13 16 16 10 16 18 17 10 13 24 17 19 15 14 6 20 31 17 20 17 17 24 6 26 16 17 10 14 6 11 23 16 13 14 12 10 17 20 14 13 10 20 16 20 20 24 26 21 19 13 23 13 17 7 17 26 6 14 17 17 30 13 18 21 30 14 10 40 23 6 0 24 16 6 20 7 23 23 23 23 24 17 0 7 13 24 27 20 24 9 15 15 33 23 17 18 24 17 17 10 26 31 13 14 17 19 31 6 10 13 17 28 16 14 16 17 9 17 23 10 20 14 20 14 10 20 27 20 14 10 16 19 26 19 24 19 10 3 17 24 31 13 17 20 26 6 13 13 17 12 10 20 26 13 28 26 13 16 13 10 6 21 12 17 16 28 23 16 16 23 13 29 17 17 10 23 6 27 24 16 35 16 26 17 0 30 10 3 20 17 20 14 20 24 17 17 19 33 24 15 17 17 10 24 33 20 10 16 16 30 24 21 30 9 21 0 30 24 23 20 24 10 10 16 23 27 48 20 24 12 26 24 27 17 16 20 3 10 24 9 3 35 12 14 16 27 3 13 16 10 9 29 13 3 20 14 16 23 18 16 17 6 19 20 10 13 26 24 16 9 26 17 17 17 17 29 20 16 21 12 13 16 24 7 21 13 22 10 19 27 20 20 31 3 21 29 0 19 41 16 19 14 23 25 7 27 16 19 13 3 19 47 20 17 10 31 17 26 12 13 21 14 20 14 6 19 10 28 29 14 10 13 13 17 13 16 14 27 10 13 22 7 21 31 18 17 17 24 3 30 13 16 24 24 12 17 14 13 26 22 19 16 16 3 19 17 19 13 26 21 20 24 20 11 20 28 10 31 17 17 16 14 18 17 24 22 7 34 21 16 27 16 10 20 19 29 3 12 23 21 26 10 21 13 17 26 25 12 16 13 24 6 35 23 0 5 27 13 6 10 30 10 10 20 25 12 16 21 24 10 23 17 13 20 20 13 19 13 9 20 15 17 20 23 16 24 26 10 34 17 20 28 23 31 24 16 12 20 30 34 10 14 17 9 13 20 10 19 18 21 21 20 19 20 13 38 20 20 12 34 14 18 13 20 27 23 29 20 16 19 7 14 10 34 3 24 24 3 26 16 17 3 20 31 27 9 10 9 16 31 7 24 23 20 15 24 10 21 27 21 21 14 38 20 17 27 20 9 29 33 23 13 33 16 15 7 6 24 24 14 7 24 10 13 17 11 31 34 13 37 24 9 18 20 28 13 21 30 2 16 13 24 24 7 10 7 17 18 13 17 20 20 28 15 14 23 24 25 3 23 20 13 7 23 41 23 6 29 16 24 37 14 27 11 13 24 20 14 13 20 21 33 25 10 17 21 19 21 10 23 30 9 10 10 18 17 23 16 35 18 17 23 27 16 14 7 38 24 21 17 17 17 23 20 17 14 3 17 20 16 21 17 27 37 16 28 17 14 20 24 31 14 27 14 21 24 19 16 17 16 30 26 30 16 6 12 22 25 0 27 33 20 29 17 19 20 21 14 17 10 6 18 14 28 16 21 17 13 19 16 17 6 27 17 13 27 9 9 26 25 20 17 31 22 7 31 3 32 34 14 0 10 17 17 41 23 27 21 27 27 10 7 21 23 24 13 14 14 26 13 27 11 27 9 20 17 23 22 3 16 24 30 24 7 10 17 13 9 20 23 20 6 12 20 13 17 12 30 20 3 16 30 7 33 24 20 27 20 23 26 20 10 23 23 14 6 6 15 23 24 21 34 35 14 17 20 10 26 30 16 26 13 13 35 3 27 19 27 30 20 27 23 19 0 14 10 13 10 16 17 12 45 13 19 18 22 10 21 21 24 26 23 21 16 17 18 23 17 17 20 24 13 23 14 20 27 21 23 24 10 27 24 27 34 26 23 20 16 7 23 28 3 16 32 19 16 14 7 21 20 21 19 24 27 14 17 18 20 14 3 20 6 16 34 17 10 14 31 20 24 34 30 17 35 21 38 29 18 13 6 17 0 13 24 20 10 34 23 24 27 12 22 17 7 17 38 17 17 20 21 22 23 14 26 10 28 13 29 11 22 14 27 16 9 13 13 16 14 23 31 9 30 12 7 23 27 27 25 18 10 16 17 16 20 21 21 17 19 13 17 34 14 13 14 27 13 7 21 3 19 20 13 20 16 19 17 27 6 27 21 16 35 17 17 16 17 17 34 16 17 6 13 19 16 33 26 13 27 20 21 15 12 27 17 32 20 18 20 20 17 20 17 17 9 17 31 13 31 17 19 31 7 21 7 27 7 31 6 18 20 30 12 23 20 26 17 20 20 23 24 14 10 31 17 13 13 16 30 23 20 34 8 6 3 19 26 28 15 16 5 20 34 31 21 16 20 12 27 12 6 22 13 17 20 27 15 9 17 24 31 17 18 14 24 17 27 13 10 21 27 9 7 24 16 19 21 16 20 13 35 9 20 31 18 10 6 15 24 29 3 16 18 14 13 19 14 11 32 22 24 18 17 10 17 21 13 17 17 24 30 13 21 10 17 27 22 13 17 21 29 10 22 17 23 19 41 16 23 21 33 13 17 22 12 10 37 16 11 20 12 27 20 31 27 17 16 31 6 30 19 20 0 17 28 20 21 24 33 19 14 13 17 24 11 6 14 31 13 13 6 21 13 3 7 6 13 10 6 24 24 17 20 10 23 21 3 17 10 27 28 19 19 10 3 6 22 10 16 11 17 23 35 6 16 20 23 24 16 7 13 11 16 10 20 7 23 12 19 14 21 12 11 20 23 17 20 23 37 7 17 27 19 11 10 33 23 14 10 13 15 29 20 27 6 13 13 13 34 24 19 20 35 16 17 20 23 22 38 14 34 23 7 22 28 15 16 16 21 24 20 29 16 10 28 17 24 13 16 18 3 24 14 10 23 31 3 24 35 23 15 15 16 37 13 8 6 19 3 14 20 16 16 10 10 24 27 30 34 16 11 26 6 3 12 11 10 19 20 20 7 17 33 17 31 3 16 16 13 23 13 17 28 19 3 26 23 17 7 23 10 27 7 10 17 13 6 7 20 17 3 23 19 27 24 13 13 22 20 17 20 24 7 10 18 16 13 20 17 7 15 26 6 3 13 9 13 13 24 23 20 13 23 35 18 10 6 27 20 17 18 24 22 20 19 17 20 34 24 23 9 20 34 17 20 35 13 19 11 15 13 13 16 17 24 10 26 15 19 45 29 35 16 20 10 20 34 17 17 23 41 29 7 23 3 20 7 20 20 27 6 17 14 21 14 23 9 16 21 21 43 18 16 13 24 13 33 17 24 17 20 11 13 7 13 24 30 20 24 17 24 21 13 17 20 7 21 17 14 24 10 16 23 16 20 10 33 34 23 19 9 28 20 12 32 16 20 17 19 31 3 31 34 19 20 29 22 6 9 6 9 31 13 13 15 10 17 19 13 19 21 23 41 9 20 3 23 31 14 13 27 20 3 18 6 20 38 16 24 22 16 10 23 10 14 9 15 3 9 34 24 19 20 35 10 20 16 20 31 16 13 28 14 13 20 10 14 20 17 26 20 10 30 23 30 13 22 13 20 17 23 24 22 23 20 6 23 9 20 29 10 16 6 17 34 14 24 19 9 17 13 15 13 31 0 20 24 6 12 2 24 20 18 25 21 6 22 23 12 10 23 28 18 7 20 38 9 17 24 20 13 16 17 19 18 20 17 9 20 20 22 3 9 14 16 31 24 10 13 27 12 10 14 10 34 26 17 35 17 17 26 10 24 21 6 20 26 14 19 27 22 14 14 22 14 10 24 28 16 6 3 27 3 19 27 25 27 17 20 21 16 23 18 10 23 24 34 14 17 10 12 17 19 26 28 14 9 16 21 13 21 16 9 20 28 17 15 10 14 10 13 17 20 20 10 37 13 26 13 37 23 20 15 14 13 20 30 28 26 22 13 13 6 16 9 24 16 23 10 17 28 16 10 10 20 6 44 13 20 14 15 24 20 24 13 3 20 17 23 24 13 19 22 13 14 20 10 15 25 14 27 27 30 23 17 10 23 16 10 13 11 35 19 24 11 9 13 42 16 3 28 10 23 12 17 20 16 21 24 14 9 30 14 18 28 23 27 31 38 31 20 21 23 6 20 43 21 29 23 21 17 19 23 26 19 9 24 10 9 10 16 6 19 6 17 23 20 24 14 16 14 10 27 23 12 12 23 23 20 27 9 20 14 20 10 20 30 22 28 15 26 21 20 23 12 17 19 11 24 17 20 22 30 23 17 14 20 24 14 22 24 3 3 13 30 23 26 16 19 16 20 39 31 20 7 7 27 6 34 20 21 17 10 33 12 34 10 23 21 34 17 13 19 10 41 22 24 23 28 34 17 21 13 21 17 20 16 19 13 16 13 33 26 24 24 28 27 26 24 14 30 38 20 16 17 28 15 16 17 7 16 20 10 24 20 12 13 16 35 14 15 10 24 16 21 21 13 30 6 20 20 19 7 23 29 27 14 20 30 23 27 20 30 10 21 26 6 20 21 9 17 27 22 10 31 33 28 15 9 20 23 27 13 27 17 15 19 10 19 16 23 12 19 27 24 20 20 26 26 3 20 14 30 13 13 17 37 26 20 34 28 24 21 10 10 23 24 10 13 20 24 35 24 20 20 17 26 17 27 24 30 19 17 17 44 17 30 6 34 24 3 17 19 14 6 21 16 13 31 24 10 29 6 16 20 12 10 13 7 20 23 16 23 19 21 34 31 16 13 24 13 18 13 24 3 25 9 7 9 10 21 38 7 19 10 20 16 12 21 14 24 31 27 17 13 15 27 21 10 20 24 20 20 13 17 10 17 20 18 11 20 24 17 29 3 23 20 16 13 24 10 16 27 19 28 19 17 23 12 20 20 27 24 23 20 29 16 29 22 16 8 27 7 10 27 27 17 30 13 21 7 15 20 24 33 21 24 15 27 20 13 27 3 16 27 21 3 25 17 33 19 23 33 33 23 14 28 16 3 17 3 10 10 16 10 27 30 9 29 27 7 19 13 14 25 23 34 17 10 22 42 24 33 19 17 8 9 13 12 17 33 0 23 30 16 19 13 20 17 12 20 26 23 14 20 15 12 23 31 13 29 30 38 27 20 10 9 10 6 28 23 10 29 7 14 33 9 26 19 24 6 23 13 16 13 19 15 27 22 17 24 14 20 13 7 11 9 22 3 13 23 12 13 9 12 21 23 35 9 16 24 28 12 17 20 13 3 27 20 7 30 34 24 24 14 10 14 14 38 13 20 16 17 15 13 17 12 23 20 5 26 21 6 10 10 27 23 27 14 34 12 23 23 11 13 10 28 16 20 3 20 18 20 7 34 30 17 17 21 9 14 23 19 10 9 20 14 17 34 7 24 20 19 7 16 19 13 14 40 17 17 20 15 3 9 32 6 22 20 31 20 21 15 27 39 21 12 23 21 18 16 24 16 23 30 24 21 13 13 21 17 27 29 19 17 26 24 28 17 7 34 20 14 20 17 30 19 19 7 19 13 16 19 21 20 7 6 10 20 14 19 6 20 21 6 14 12 10 19 13 7 23 24 9 12 24 17 16 20 23 20 7 21 17 7 31 23 17 10 23 32 10 20 17 13 20 24 17 20 10 9 20 18 24 18 13 14 19 13 20 16 16 25 20 6 26 24 12 27 21 7 24 17 17 19 13 24 8 7 16 20 37 22 31 20 20 27 29 22 16 20 40 19 19 9 10 15 14 17 14 20 9 10 26 17 21 20 22 7 28 24 7 20 24 24 12 7 23 17 19 30 23 9 16 14 19 23 14 20 30 23 3 6 20 10 12 16 20 17 16 24 16 13 12 13 17 9 31 10 29 13 22 16 0 23 13 24 24 13 13 34 31 27 16 14 28 31 12 10 19 16 6 7 6 11 21 24 10 10 28 16 10 23 16 29 17 3 9 13 22 7 23 16 17 21 17 23 18 20 10 10 16 12 17 3 3 9 17 26 20 20 31 11 27 13 24 9 13 24 10 25 22 27 24 23 3 21 3 16 28 14 20 13 20 22 11 10 9 10 24 13 16 16 9 13 26 27 15 13 23 27 31 17 23 10 20 17 12 29 16 14 23 24 9 24 19 23 13 24 16 17 7 24 7 11 36 24 16 10 13 31 17 16 10 25 7 20 9 19 20 10 19 18 17 29 27 21 27 10 37 12 16 14 16 22 30 20 20 13 14 12 24 25 24 20 15 34 20 13 12 14 6 17 10 17 10 13 17 13 16 23 20 28 30 9 30 7 17 24 16 24 20 14 13 10 16 7 14 10 17 23 28 27 10 13 23 10 7 7 3 8 36 17 0 14 10 10 25 9 9 10 27 30 20 17 16 6 14 24 28 26 34 32 13 10 20 13 31 7 21 27 15 25 35 17 15 20 9 17 16 13 13 13 3 22 14 16 9 23 20 10 23 14 23 19 6 19 6 24 16 32 29 14 33 23 15 17 24 13 7 17 19 16 20 27 27 17 16 11 25 24 20 24 16 20 21 13 16 24 9 12 23 30 17 22 20 3 16 30 30 16 0 16 14 0 10 23 30 6 34 14 24 17 14 28 36 29 13 16 38 17 20 17 17 10 19 20 17 28 7 18 3 31 20 17 17 7 35 8 17 24 16 24 30 21 6 14 21 32 17 17 24 13 14 10 21 7 19 30 16 28 29 13 13 24 14 27 34 27 35 17 13 6 37 17 36 19 22 16 10 14 23 3 23 17 31 38 28 13 28 10 21 27 17 15 26 35 6 24 22 11 35 9 13 21 19 15 9 37 7 14 27 29 17 28 10 13 23 17 15 13 31 16 23 14 0 38 24 14 15 29 12 19 16 19 23 22 27 31 10 17 17 12 21 20 20</t>
-  </si>
-  <si>
-    <t>JSB(9.819895051468038, 12.18470062381138, -55.6100027478912, 259.8282971712965)</t>
-  </si>
-  <si>
-    <t>24 26 30 27 24 27 19 27 19 27 25 27 25 26 29 20 31 32 20 18 25 20 28 15 24 32 25 33 26 24 19 20 25 22 28 33 25 24 22 23 23 32 29 31 28 23 19 21 20 27 28 26 23 34 27 26 24 30 28 26 27 26 24 21 21 23 28 23 25 25 20 24 23 22 24 20 14 28 22 25 30 22 20 32 35 28 24 23 18 25 16 32 36 20 20 28 21 21 23 23 30 23 32 34 23 30 18 25 23 29 20 19 28 17 22 31 21 30 21 31 29 30 17 24 33 21 29 29 24 22 29 26 21 26 21 27 26 31 18 23 16 18 19 26 21 29 36 25 23 25 22 22 28 23 17 25 19 21 23 32 17 31 28 28 24 25 23 25 16 27 19 24 35 18 30 25 19 31 19 28 24 21 25 27 20 17 23 23 29 30 13 23 30 16 27 15 29 23 26 23 30 26 36 23 26 32 21 22 25 19 26 20 26 18 27 21 25 32 25 27 16 38 29 25 27 21 30 30 21 29 30 28 26 24 21 31 21 23 24 25 22 23 25 18 30 32 27 24 33 22 28 31 22 20 32 22 23 31 25 23 23 18 31 33 29 29 28 24 24 23 28 20 28 24 24 25 18 25 24 16 28 19 25 27 25 22 26 21 24 34 27 23 19 26 27 20 34 29 26 30 26 29 24 30 11 29 30 23 19 20 22 25 27 29 22 32 23 20 18 29 26 23 24 14 19 24 17 26 28 22 28 23 23 16 35 24 26 20 26 23 23 26 31 20 20 30 24 22 29 27 25 32 19 35 27 21 19 25 24 28 25 28 28 31 28 34 21 23 19 32 26 30 14 27 24 30 23 27 21 22 23 25 19 21 32 19 21 27 28 18 31 23 24 29 23 29 17 24 28 25 29 17 24 19 25 22 27 25 24 31 25 34 21 31 21 23 24 34 22 24 28 28 23 26 31 13 20 30 28 25 31 25 30 24 25 18 28 22 20 29 27 22 28 24 22 21 27 30 22 22 26 26 30 24 25 26 28 27 26 19 23 26 23 31 24 34 32 22 26 21 38 23 25 31 21 18 17 27 23 27 24 29 24 17 27 23 29 26 15 25 32 27 26 35 25 26 23 17 26 24 33 25 29 32 17 25 28 32 24 24 25 24 31 31 20 26 19 26 19 31 26 30 24 31 24 16 24 28 28 18 17 24 25 29 25 31 20 23 24 37 26 28 26 26 31 29 22 20 29 26 18 22 24 19 24 22 27 27 24 23 27 19 23 24 27 20 23 22 30 20 25 29 25 25 20 26 25 27 19 25 25 26 22 25 22 25 24 17 29 25 16 30 20 27 24 28 19 21 22 25 19 26 21 23 28 29 29 26 25 27 26 33 31 17 21 21 21 13 22 22 25 30 20 22 25 20 16 26 18 18 23 24 21 25 24 23 34 23 23 26 29 23 28 24 24 19 25 26 26 25 24 22 17 25 23 20 21 23 28 25 17 27 19 37 28 30 27 20 24 29 29 26 28 17 26 26 23 17 23 24 24 31 20 22 30 16 19 28 20 31 21 23 26 27 27 21 28 27 27 23 27 29 21 26 26 29 14 28 24 30 31 22 23 19 32 20 21 24 29 30 20 24 29 26 23 28 28 15 28 27 30 29 19 26 21 30 26 29 24 26 27 24 25 16 20 19 21 30 22 24 29 27 25 18 26 24 17 31 27 29 24 20 17 21 17 26 24 29 35 30 16 21 29 20 25 28 33 25 26 26 22 24 31 25 29 31 27 26 32 23 26 35 23 29 20 26 30 23 23 25 19 21 22 25 23 19 27 24 34 27 29 21 18 15 28 28 32 24 23 31 26 28 27 27 25 19 16 20 16 17 24 27 29 27 25 23 21 23 26 30 21 28 30 29 28 25 16 29 25 22 24 20 21 29 17 19 17 21 17 34 26 24 25 26 26 21 32 34 26 28 30 27 32 27 20 26 18 27 32 20 26 24 31 38 21 21 23 26 31 34 28 23 27 23 33 21 36 23 29 27 32 22 27 25 26 27 24 23 32 22 32 25 23 21 22 22 20 29 26 21 25 29 27 28 27 21 29 29 27 26 25 20 26 30 20 31 25 21 28 30 15 26 21 16 26 29 25 22 26 23 19 31 20 26 25 27 20 35 23 27 24 23 26 26 29 22 21 31 26 25 33 22 27 24 26 29 28 26 30 21 18 28 30 23 30 23 28 19 25 24 27 31 22 12 19 29 20 36 22 23 26 29 14 17 23 17 23 21 26 27 26 23 27 29 29 28 23 28 21 32 25 22 29 20 25 20 24 15 20 21 22 22 29 18 20 26 35 15 30 22 18 22 24 23 28 19 15 27 24 21 24 23 24 23 24 26 24 25 24 18 19 22 25 19 24 22 27 22 21 23 29 31 26 22 28 22 25 27 30 28 21 19 28 31 35 28 20 20 19 20 29 25 24 18 25 22 15 21 20 23 19 26 24 23 25 19 30 30 22 26 26 24 32 34 20 17 28 23 22 22 26 28 36 25 26 17 20 26 30 26 18 27 26 22 27 28 26 24 21 24 21 21 29 24 29 30 23 26 20 26 30 18 31 21 18 24 27 23 28 26 23 31 17 22 20 22 25 18 28 25 27 30 29 21 23 29 33 25 23 25 31 28 27 21 24 17 22 26 27 22 23 25 22 21 24 22 21 28 17 26 29 23 22 26 24 27 15 33 20 24 22 21 28 25 26 23 26 18 22 18 20 22 30 25 25 27 26 27 22 19 25 19 33 19 23 25 24 28 29 19 34 27 28 22 30 22 22 29 21 26 24 26 19 21 31 21 40 31 19 23 28 34 22 20 25 25 18 26 29 26 27 34 28 16 15 29 24 35 25 17 31 18 21 30 26 27 17 22 27 17 25 15 24 24 21 16 41 25 17 25 25 26 24 18 24 24 22 27 28 23 28 23 25 22 24 29 21 26 32 28 22 24 30 33 23 27 22 18 20 23 26 25 33 28 26 16 18 19 26 19 22 32 29 29 20 31 21 21 21 27 31 29 21 20 24 27 23 29 28 29 30 16 27 23 21 18 21 33 33 27 19 32 24 28 20 22 17 26 27 29 23 26 16 23 33 23 25 27 25 24 21 29 26 31 25 32 28 24 24 26 24 29 22 29 25 24 22 30 20 21 24 20 24 29 22 20 30 20 25 25 23 24 25 34 19 23 26 18 30 28 25 32 22 22 19 24 22 27 29 20 21 22 18 26 25 22 26 31 25 24 23 21 25 30 34 22 21 26 24 25 20 21 28 24 28 31 23 24 28 26 21 31 33 25 28 29 33 26 22 28 21 20 29 32 21 27 19 21 27 28 31 27 22 30 27 18 16 33 18 28 30 34 20 24 23 27 23 32 30 28 27 24 24 32 25 35 24 20 29 22 24 24 21 24 29 28 19 27 27 27 28 25 17 19 23 25 24 25 20 19 29 21 29 26 29 22 25 24 22 18 27 27 25 24 22 24 30 30 23 23 27 25 21 24 31 25 26 21 29 21 27 22 38 20 22 22 24 20 26 28 18 22 21 18 22 20 17 26 28 28 39 19 24 30 24 27 24 22 25 27 33 21 28 27 20 31 22 25 25 25 27 22 21 27 33 28 28 23 26 15 32 24 21 20 29 27 22 18 32 29 27 28 28 20 29 17 28 19 28 31 27 29 20 22 22 21 18 21 26 19 17 26 22 27 25 27 20 35 24 30 23 23 23 33 25 17 28 30 22 25 16 21 19 28 22 18 20 33 24 32 17 29 27 22 20 32 23 26 20 23 26 28 33 32 17 21 30 30 25 20 40 33 29 20 21 30 23 21 22 27 27 23 23 32 31 36 26 23 28 35 25 30 26 32 31 25 23 18 20 26 33 26 22 22 30 29 27 32 33 21 27 28 24 23 29 24 25 22 29 24 21 21 32 23 22 15 24 27 23 30 24 20 24 24 25 22 20 14 29 30 19 21 25 23 20 16 27 24 14 21 27 21 17 18 18 28 18 25 29 22 29 29 32 25 20 21 18 24 17 21 27 25 18 27 21 21 26 26 26 20 25 23 28 28 29 33 27 24 28 14 25 22 22 34 33 25 21 26 30 23 28 18 26 22 31 21 23 26 29 15 23 30 21 30 24 29 35 18 25 18 23 23 31 30 24 20 23 26 29 23 31 24 25 19 20 28 26 24 34 27 27 25 22 27 25 23 25 26 29 24 26 30 27 23 24 23 20 23 23 24 27 20 24 32 23 27 23 24 26 27 26 21 23 23 22 27 21 22 16 29 29 24 29 23 18 24 23 21 21 24 18 26 17 24 27 18 31 21 24 33 22 21 24 31 28 25 26 32 32 17 23 20 27 25 36 23 26 23 33 31 27 24 27 22 16 24 33 29 22 22 26 26 35 32 31 25 18 21 29 24 25 30 26 28 23 25 26 28 33 27 18 24 20 20 22 28 26 21 24 23 20 23 24 27 18 20 28 42 28 22 20 19 21 30 27 30 26 28 20 26 21 33 27 24 17 31 26 24 32 18 21 22 22 21 25 28 30 33 20 28 17 21 28 22 28 19 25 16 25 18 26 27 22 22 29 28 24 27 21 23 22 24 22 21 25 31 26 24 22 20 21 26 21 24 17 24 22 29 30 17 26 25 23 21 20 28 21 32 20 27 32 26 20 27 19 27 32 30 21 20 20 21 12 19 21 31 25 25 22 28 30 30 20 20 22 36 23 21 32 17 26 26 30 17 25 20 19 18 32 31 26 28 30 29 34 29 22 22 16 26 33 22 21 18 16 25 28 28 25 20 25 21 32 27 21 26 18 21 26 30 23 25 26 28 33 27 21 33 23 30 20 20 27 23 26 30 27 19 24 23 22 25 20 24 24 24 28 20 25 22 25 25 23 28 21 26 22 27 25 22 33 16 22 29 25 26 19 26 31 22 21 21 21 29 28 29 19 30 28 23 25 30 20 22 24 24 22 25 23 27 24 18 20 26 22 19 20 20 18 34 22 27 25 26 23 24 20 23 22 24 28 26 22 21 22 31 29 23 29 28 22 23 34 34 24 25 28 28 22 19 23 27 27 22 20 27 23 26 19 20 21 25 28 30 26 28 33 26 16 24 19 23 22 30 31 24 28 24 39 21 27 30 26 27 29 22 24 27 18 27 19 26 19 26 27 23 32 25 28 22 26 30 26 17 28 23 33 19 27 19 28 23 22 24 17 27 25 29 26 17 18 12 33 31 26 26 20 22 23 24 29 25 26 25 23 32 26 22 25 29 38 26 31 32 30 24 29 27 33 32 26 15 20 24 29 20 24 25 27 27 27 19 32 20 34 26 20 29 25 22 23 23 18 26 26 23 26 24 24 20 28 33 26 10 22 19 32 26 25 23 20 22 26 19 28 23 20 20 25 32 27 37 24 27 32 25 28 29 22 18 22 28 27 26 24 26 25 16 22 21 25 20 20 20 17 26 14 18 26 23 20 24 27 29 16 30 33 19 26 20 20 22 21 27 34 29 26 27 21 22 21 30 25 26 24 21 23 28 18 29 22 21 24 22 21 29 22 24 30 20 31 18 28 28 31 24 20 25 22 21 23 27 23 21 22 30 25 24 21 29 23 27 25 15 27 24 31 17 29 29 31 19 26 25 31 29 23 30 26 30 18 25 27 25 22 23 28 19 28 27 31 25 26 24 21 32 21 30 24 27 30 28 22 21 30 24 32 30 31 25 32 31 26 31 26 23 29 23 24 22 31 27 26 26 31 28 25 30 28 19 17 21 30 24 21 29 12 17 25 24 20 20 22 26 26 24 23 21 21 26 30 30 20 32 27 21 36 24 26 23 22 20 24 18 27 20 32 38 26 22 20 23 32 17 29 21 30 19 32 35 25 28 24 27 35 21 14 28 26 27 32 21 20 23 29 20 23 17 26 21 16 25 20 27 31 24 18 27 21 27 21 21 33 25 23 28 19 32 20 29 20 31 24 21 19 22 21 25 22 24 21 30 20 26 28 23 19 17 28 27 16 32 17 25 33 26 17 25 19 26 27 17 24 24 17 31 27 16 24 19 30 28 26 18 31 29 22 18 25 27 30 23 22 33 28 23 25 26 32 29 23 16 31 34 15 25 30 25 19 24 22 18 19 23 23 27 30 27 31 22 24 25 17 22 22 30 26 12 27 26 23 24 29 27 24 29 27 29 31 24 29 37 22 26 31 29 27 24 32 21 25 25 26 28 25 31 23 30 24 23 24 28 20 33 28 17 30 30 29 21 25 25 22 19 40 27 32 28 25 29 18 22 34 22 21 26 25 22 27 27 8 26 28 35 19 28 28 22 33 30 28 29 21 20 22 22 22 24 28 29 22 18 34 21 31 23 22 18 20 28 29 28 31 24 22 18 24 24 23 31 25 21 23 16 30 18 25 17 27 28 16 24 28 20 21 29 21 24 24 35 19 25 17 27 24 26 19 23 31 37 24 21 32 20 26 21 23 22 28 18 26 22 31 26 27 23 25 23 32 22 27 20 16 21 34 26 26 24 23 18 24 19 20 20 31 22 26 28 23 17 30 16 26 24 20 32 23 25 21 25 25 28 26 25 27 24 20 28 25 15 24 21 16 24 22 25 19 23 23 32 27 27 30 30 16 30 19 17 16 20 28 23 31 31 26 29 27 26 17 29 20 26 28 27 26 22 24 27 31 19 32 24 26 25 18 20 23 29 24 24 29 26 32 22 27 24 32 32 22 28 15 35 23 23 28 17 22 21 23 28 21 26 24 36 23 29 32 32 30 24 20 26 24 18 17 26 29 18 24 22 23 27 25 22 18 18 24 22 32 28 23 16 31 19 18 24 23 23 21 23 25 28 22 29 23 31 22 26 28 25 29 29 22 24 19 25 27 22 20 29 22 23 25 25 27 22 16 25 24 27 26 24 23 25 21 26 23 16 25 30 38 22 32 26 21 20 24 23 26 29 15 22 31 17 26 18 25 29 22 23 25 28 19 21 31 21 22 24 32 24 20 19 36 29 26 22 23 33 25 28 21 24 18 25 27 34 21 21 23 23 30 33 35 20 30 25 20 23 24 26 27 25 21 20 36 26 29 21 24 25 26 23 25 28 30 22 27 27 31 30 17 30 26 30 31 27 22 21 24 34 24 20 28 30 25 28 23 24 30 24 29 35 21 31 25 27 33 27 34 17 21 27 25 28 17 17 22 22 27 20 19 27 24 33 23 28 37 30 27 25 24 27 23 22 26 26 27 27 27 25 23 26 23 22 27 20 26 27 27 28 23 21 34 21 22 36 22 29 22 25 18 12 20 18 35 28 19 26 28 23 24 23 28 28 25 30 27 22 26 26 32 26 22 30 22 18 23 27 29 20 22 23 21 27 15 25 18 22 25 24 24 28 23 17 18 26 24 30 24 23 31 22 22 22 22 15 24 33 31 22 23 34 21 24 22 24 18 26 25 28 12 18 22 22 16 28 30 31 21 34 20 20 27 21 24 16 31 22 22 23 24 21 22 26 21 24 17 24 26 22 21 19 24 21 18 20 25 32 18 28 25 26 24 29 25 24 32 24 21 20 23 15 30 25 20 21 23 23 23 25 21 23 23 27 28 12 29 30 14 28 27 38 24 20 21 23 33 28 24 24 27 25 21 24 27 36 23 26 27 33 29 25 24 22 20 17 15 21 28 28 22 22 33 19 25 14 24 21 26 25 26 30 22 20 25 26 16 24 34 28 32 23 22 20 25 24 29 19 23 29 20 27 25 27 30 31 21 27 25 25 30 13 28 25 26 23 32 28 27 16 27 29 25 14 18 28 24 19 27 30 27 29 27 22 36 24 32 23 28 21 29 30 35 17 22 28 21 30 14 23 29 23 19 32 23 25 24 33 24 24 29 29 27 30 23 27 31 31 32 30 21 22 18 30 28 20 27 37 15 29 23 20 30 15 27 29 23 22 26 28 22 24 29 20 23 25 15 27 22 23 27 23 31 23 31 27 24 21 19 23 24 22 29 27 20 23 21 33 25 23 28 24 23 25 27 28 21 18 22 21 19 29 22 21 18 30 17 32 36 17 20 31 23 30 22 20 35 26 24 29 24 22 21 26 28 33 22 19 22 25 22 22 14 27 16 27 25 24 30 20 19 24 26 20 22 18 21 25 23 20 21 25 24 18 27 24 25 26 23 25 18 20 30 22 24 27 15 23 15 20 20 25 27 31 29 25 28 27 23 30 28 25 22 22 21 23 23 23 26 23 31 27 17 25 26 23 22 27 29 28 29 25 21 24 26 29 22 19 22 16 23 29 29 24 24 25 26 24 26 26 26 23 22 23 26 29 23 21 25 33 23 25 26 34 26 24 30 31 28 27 26 26 23 26 26 32 18 24 24 25 28 30 25 31 31 14 31 30 27 24 34 22 25 18 28 21 28 25 20 28 22 28 28 28 27 27 20 18 24 25 33 14 26 24 23 21 25 16 33 27 29 22 17 27 23 23 21 31 27 28 27 28 21 20 28 35 28 30 19 33 17 23 24 30 27 27 22 27 27 27 28 27 28 30 29 24 34 29 19 30 26 27 28 31 16 27 28 26 20 31 20 19 24 34 25 23 26 22 19 27 26 24 23 22 30 27 27 29 15 26 26 19 23 25 22 26 13 24 21 16 28 21 16 23 21 32 27 28 23 26 24 27 25 30 28 28 23 18 20 25 15 31 29 21 31 31 15 21 28 20 26 20 26 31 22 24 16 24 22 25 18 29 28 26 27 25 25 20 29 20 20 27 22 23 29 22 25 31 27 36 21 16 18 27 28 26 26 24 19 27 14 34 20 21 25 25 26 17 26 28 28 26 26 27 25 22 29 31 28 23 32 34 24 25 31 27 23 25 27 16 31 30 29 29 29 21 29 29 19 25 29 26 24 31 27 20 16 23 26 16 15 22 27 27 22 29 28 30 27 25 20 22 20 18 32 23 20 25 22 33 29 21 23 25 25 24 27 27 17 18 35 27 30 24 29 29 21 23 27 26 26 27 16 28 20 23 16 28 24 32 20 24 21 22 27 23 14 23 26 17 19 13 19 30 28 26 20 32 25 24 23 27 22 26 21 23 32 20 23 27 31 32 24 28 27 22 21 25 22 19 30 31 29 25 27 23 25 19 23 21 22 25 22 26 35 23 20 27 22 27 28 25 36 25 32 29 22 23 20 33 22 28 17 30 31 18 28 30 27 17 28 24 28 21 20 26 21 30 23 27 24 24 32 26 24 16 28 20 17 23 27 20 29 35 30 20 30 20 24 34 26 24 27 23 21 23 19 24 28 19 20 24 19 27 31 35 26 29 20 25 26 35 23 25 18 25 18 30 19 30 22 20 34 28 29 26 30 27 18 15 33 28 24 33 21 16 25 23 29 36 26 26 22 25 21 25 35 28 25 24 21 18 18 32 22 31 25 27 23 30 21 26 27 17 18 21 18 23 14 27 29 27 22 23 24 33 27 22 30 17 22 21 17 20 24 15 32 27 21 21 25 29 31 17 20 19 32 21 27 25 26 22 27 22 26 31 16 22 26 21 31 26 25 20 27 29 23 26 21 20 15 21 27 17 25 30 30 17 20 40 30 29 27 23 19 28 19 25 28 27 29 26 21 19 22 27 26 24 19 22 17 18 22 29 25 26 24 14 28 24 19 32 28 19 23 28 32 26 32 31 24 21 28 19 23 21 26 21 25 24 24 21 20 23 21 26 19 30 22 28 29 16 22 24 30 26 18 21 30 27 21 16 22 21 31 28 27 20 24 18 26 29 28 24 26 20 21 24 27 27 23 23 16 22 18 33 24 25 34 27 24 23 25 20 36 15 23 24 24 27 24 12 23 22 25 21 26 27 26 25 24 24 26 28 16 29 31 31 27 20 25 25 20 26 28 22 28 27 31 25 22 25 18 18 25 20 23 15 26 23 21 30 30 28 23 27 24 30 20 19 34 16 27 26 27 21 28 21 23 31 27 28 25 24 27 26 24 29 30 28 24 22 27 26 21 23 17 25 23 30 22 25 27 31 18 21 28 29 14 27 21 29 21 25 20 26 30 26 24 21 34 28 30 23 24 31 32 31 25 25 23 25 22 28 21 32 31 14 15 32 27 22 20 18 26 28 27 30 25 30 21 20 30 25 25 19 23 23 20 22 24 26 23 19 25 34 22 21 12 20 24 29 25 31 27 29 25 29 27 24 25 25 26 26 24 26 31 18 26 22 19 18 29 23 24 17 24 22 22 27 22 30 30 23 22 25 26 15 13 20 29 44 21 26 11 20 25 20 25 23 20 22 21 25 21 28 21 26 32 27 18 23 23 26 25 24 17 27 30 29 25 23 21 23 19 28 18 20 24 35 23 26 25 25 17 33 28 30 21 19 30 18 26 21 21 19 21 29 20 24 24 19 20 26 24 30 28 27 27 30 14 30 27 27 24 25 34 35 29 31 26 16 20 22 30 22 23 32 23 25 21 27 26 27 22 26 23 29 16 25 25 27 24 25 23 23 25 20 22 29 21 17 28 22 24 23 28 18 22 28 28 25 31 19 31 29 30 20 21 30 24 27 20 26 25 17 24 24 18 32 22 23 34 19 23 23 24 25 24 26 29 24 22 27 23 32 27 23 18 22 21 16 14 26 21 23 37 23 26 19 25 22 18 21 26 29 26 25 25 31 22 31 26 21 29 23 24 20 19 24 29 24 25 21 19 26 25 34 25 22 27 24 21 28 23 21 24 25 26 25 28 21 28 20 26 23 20 25 24 24 31 28 30 26 28 26 26 23 26 29 32 21 20 26 19 27 28 25 25 20 23 26 32 22 24 27 21 22 20 19 15 26 18 30 19 30 31 26 26 30 18 33 32 20 21 27 19 32 18 26 30 25 22 33 25 24 20 23 26 29 29 28 26 17 27 14 18 19 23 26 32 18 20 26 28 30 18 21 24 25 30 24 20 23 17 30 22 16 22 23 24 29 18 30 26 20 19 24 27 32 22 24 19 27 19 29 27 28 27 23 25 29 22 22 27 19 28 24 21 21 24 26 25 32 23 26 24 16 22 22 28 25 24 19 27 21 19 29 23 27 29 28 22 28 17 21 25 25 26 12 24 27 33 32 16 16 23 24 34 30 25 32 30 20 24 26 26 31 23 23 21 32 24 31 27 22 23 33 27 24 22 33 31 19 24 26 25 25 28 36 25 26 28 29 26 25 24 22 26 17 29 24 21 27 25 21 23 24 25 37 21 30 25 24 24 31 28 20 36 24 30 28 21 27 29 28 30 28 31 26 26 20 21 28 21 26 27 24 29 25 22 25 22 31 29 28 27 24 14 19 30 28 36 18 29 18 29 28 25 17 27 34 21 24 22 21 22 28 21 21 32 28 30 21 27 28 24 25 22 26 24 18 23 27 29 27 26 23 21 28 28 21 30 26 27 30 22 21 24 28 17 28 23 23 22 22 20 18 17 19 23 27 25 24 18 27 32 21 26 21 28 25 23 31 26 27 21 17 19 24 23 29 25 26 27 26 30 27 29 20 24 20 26 30 28 22 21 23 20 22 25 26 17 25 28 27 26 25 26 25 22 18 27 22 19 19 29 24 20 26 22 22 19 24 21 21 17 20 21 16 19 23 27 17 20 23 24 30 25 24 26 20 22 23 25 20 16 25 22 19 27 17 26 18 28 38 28 21 22 28 29 30 23 28 19 33 17 28 28 30 27 32 22 22 27 30 16 22 22 26 29 28 19 27 19 25 33 17 23 32 28 28 31 31 18 30 34 24 31 31 28 25 28 30 27 31 20 34 27 29 30 25 24 30 28 24 30 17 25 23 23 23 28 29 12 22 23 21 19 23 20 28 34 18 23 25 23 17 18 24 27 21 28 18 32 35 25 26 26 29 22 20 18 26 33 25 19 25 28 17 20 15 24 23 31 28 28 22 21 26 30 26 30 17 19 29 16 24 22 29 31 18 31 29 21 19 23 30 20 24 24 19 29 37 29 23 28 23 27 29 22 32 21 21 26 18 32 24 30 23 20 27 25 28 26 24 16 27 22 30 20 34 25 26 31 24 21 21 18 29 24 26 24 26 25 24 23 33 28 27 26 21 24 24 31 30 23 16 24 21 27 23 21 26 20 24 33 25 30 18 32 24 35 30 33 28 20 26 18 30 27 20 28 28 28 30 19 29 30 27 31 26 23 35 25 21 25 34 22 32 15 27 27 28 19 18 19 26 20 21 20 20 17 26 28 28 19 35 24 20 31 17 22 24 28 17 33 27 28 26 27 21 33 26 29 28 15 22 23 26 39 30 21 29 32 24 28 27 18 24 26 29 29 32 26 19 23 23 19 25 22 16 33 24 28 25 25 31 29 28 28 22 24 22 25 28 17 27 33 26 27 29 27 32 28 23 34 35 24 25 26 37 27 24 30 27 35 19 25 19 28 31 28 18 25 20 26 21 26 24 25 24 25 27 13 18 21 18 28 33 22 25 28 26 26 25 31 24 32 25 19 27 27 23 16 17 24 22 25 33 23 24 20 26 22 27 25 27 25 20 21 23 17 25 25 24 27 32 21 25 21 25 31 31 22 16 24 22 23 19 16 31 18 19 33 26 18 19 23 24 20 28 28 26 24 23 25 28 24 22 28 30 36 30 26 21 24 17 28 22 24 24 33 25 20 31 20 28 26 18 31 16 23 32 27 24 36 24 33 23 27 22 31 21 23 26 28 23 26 25 27 15 21 20 27 21 16 24 25 31 23 21 25 25 21 29 24 32 25 22 21 29 21 30 25 24 24 24 19 21 26 30 22 22 22 22 26 30 26 22 30 23 26 24 36 26 18 26 29 23 19 27 18 15 20 24 32 27 22 20 17 20 24 25 21 22 26 28 25 27 17 21 24 13 22 26 18 34 22 15 37 25 21 21 19 24 25 18 31 21 17 32 26 29 18 30 29 23 26 25 24 24 23 32 30 27 23 30 22 25 22 28 32 24 17 21 22 26 19 19 22 26 27 33 26 25 17 16 30 28 23 17 30 26 25 21 22 17 27 22 23 21 25 28 30 27 28 26 32 32 26 24 31 19 20 25 23 24 23 25 25 22 26 15 23 32 23 24 21 28 24 28 30 20 30 21 16 24 29 25 25 27 27 21 21 26 26 27 14 22 27 18 21 38 23 24 31 17 32 24 26 27 35 33 19 30 25 25 27 22 22 25 25 29 31 26 21 30 25 19 22 24 23 30 20 23 29 22 18 23 18 27 24 14 29 29 25 22 26 28 22 26 33 25 30 18 25 23 29 29 27 19 18 23 28 26 22 28 29 25 27 27 23 31 21 34 24 27 25 27 28 25 26 24 19 22 25 28 34 24 22 26 23 22 20 22 22 26 33 27 21 21 24 23 22 25 29 27 19 26 23 15 24 18 15 23 24 20 31 19 26 22 27 25 23 28 25 27 14 23 25 29 29 28 23 26 31 24 22 27 21 23 31 20 26 22 25 27 21 24 15 23 18 17 25 28 19 27 30 19 26 24 21 28 13 24 20 32 29 27 14 28 26 28 19 24 21 28 21 25 26 28 24 16 21 16 19 23 29 25 21 29 32 29 24 16 23 22 20 23 32 21 24 31 28 18 26 21 30 34 23 20 22 15 22 26 28 22 31 17 23 24 25 25 18 24 31 19 30 26 13 22 29 13 26 22 29 26 22 24 22 25 23 23 26 26 22 26 26 22 24 20 25 24 33 14 25 27 30 28 32 23 20 38 20 21 26 17 22 24 37 25 21 25 25 21 24 34 21 20 22 20 26 28 24 24 22 14 37 21 22 22 23 22 17 29 20 22 26 30 33 22 25 21 26 27 27 24 21 26 30 21 21 25 25 23 29 20 23 19 29 18 27 22 16 22 26 22 24 25 23 21 25 26 21 26 24 26 31 22 21 25 24 24 32 20 21 31 34 26 26 15 27 23 22 27 18 23 23 26 20 28 21 29 26 20 22 22 21 20 24 29 24 32 22 27 24 25 28 20 20 26 27 18 32 29 34 25 31 25 23 22 25 16 19 21 29 27 23 21 25 21 34 24 26 21 30 21 32 22 16 19 24 21 19 22 28 27 15 25 27 29 26 31 17 27 21 19 20 22 22 19 31 23 26 26 26 19 20 16 22 18 23 33 23 29 29 28 22 30 26 17 25 19 28 20 22 30 33 21 25 25 29 30 32 24 24 24 23 26 23 28 33 27 28 22 23 23 26 26 27 21 22 24 27 32 28 20 23 26 31 25 19 27 29 19 26 30 27 21 36 27 30 33 30 22 30 21 23 27 29 24 17 32 23 21 26 19 25 24 27 29 21 21 21 19 26 30 19 25 20 24 18 22 15 23 20 27 19 35 19 26 25 24 29 13 21 26 33 25 17 21 26 22 26 21 22 23 34 26 24 26 17 21 22 16 25 19 28 31 18 31 14 22 24 25 37 25 10 21 31 23 27 25 22 26 32 27 29 23 27 18 21 33 27 14 15 30 23 19 23 17 21 20 25 25 26 28 30 24 24 28 23 26 27 26 25 29 25 26 19 23 28 39 28 26 23 22 30 24 25 17 34 22 25 23 34 23 21 23 24 27 14 26 32 23 23 30 20 24 24 29 26 18 22 18 17 30 24 22 19 26 18 22 24 27 23 17 26 26 24 26 27 25 28 20 21 14 25 30 27 31 32 19 23 25 23 17 17 26 31 25 23 29 24 27 26 20 25 16 30 21 27 16 34 21 29 18 31 23 35 19 19 23 25 25 28 25 29 22 19 25 18 23 25 26 19 24 23 28 22 23 24 27 25 25 24 24 25 21 26 30 27 25 15 19 25 23 26 26 24 31 23 14 23 29 23 25 23 25 27 28 28 18 27 25 22 27 24 35 21 22 19 21 27 18 28 30 21 24 24 31 24 20 31 23 29 20 30 26 27 24 26 19 31 24 22 28 22 21 19 28 25 35 27 31 23 26 26 27 24 18 24 17 14 18 25 24 25 19 20 29 20 22 22 23 27 22 21 26 30 29 29 32 26 16 28 25 25 26 37 21 30 33 22 26 17 21 22 26 29 24 26 26 30 23 28 22 34 20 24 24 22 19 24 25 31 18 22 23 18 24 23 20 31 27 30 21 27 26 30 28 24 20 25 19 24 26 19 20 29 25 18 32 25 24 29 15 25 26 19 28 35 30 28 22 23 34 19 24 28 20 19 22 26 22 23 20 20 20 21 27 22 22 27 19 29 16 23 20 28 25 26 28 26 24 22 20 16 22 30 25 16 26 23 20 23 24 26 30 25 24 23 24 20 22 23 24 27 20 28 21 18 24 18 30 30 22 33 23 24 25 20 26 29 22 25 21 29 30 32 23 27 19 34 21 24 25 25 26 22 22 34 23 24 27 25 29 32 22 23 35 25 31 25 27 26 22 21 27 21 28 19 17 23 22 25 29 27 17 30 33 29 20 19 33 24 20 24 24 22 24 21 31 28 29 26 25 25 36 27 21 28 24 19 24 27 22 13 18 24 28 19 24 20 34 20 22 26 25 29 31 20 30 20 25 23 30 26 19 26 23 22 34 21 23 25 32 30 24 24 24 22 30 36 27 23 28 23 30 32 20 20 26 20 32 21 30 32 25 28 24 29 21 24 16 22 27 20 17 23 22 21 26 31 17 26 25 25 16 20 27 29 25 29 26 28 17 16 23 22 13 24 34 21 23 23 24 22 18 29 24 19 24 25 31 29 22 18 21 31 20 21 16 20 27 19 23 25 19 17 22 33 21 33 24 29 19 19 28 23 27 24 25 33 26 24 19 23 30 19 27 26 30 30 26 25 36 25 21 18 24 23 22 24 25 27 22 23 26 20 27 26 21 25 24 25 26 24 26 24 19 21 28 25 17 25 24 26 21 26 30 21 28 14 24 18 21 21 28 26 22 16 27 22 29 28 24 28 21 32 22 23 26 25 24 23 30 28 28 22 24 24 23 12 16 25 27 18 26 30 26 21 29 22 18 27 24 21 21 36 26 28 24 30 34 27 26 25 24 29 21 23 25 23 22 18 23 29 24 20 20 23 27 25 24 28 25 29 32 19 21 29 28 29 27 22 20 27 35 20 32 18 26 25 23 23 20 24 23 33 28 16 24 23 24 33 24 32 25 27 24 25 23 30 25 39 23 28 30 23 15 23 37 19 23 25 26 14 19 27 27 23 24 27 21 27 20 24 24 23 18 23 23 22 27 23 34 24 19 32 24 22 26 25 27 19 26 21 27 25 14 21 23 22 34 24 31 18 27 33 20 28 29 26 34 30 25 26 13 25 22 27 17 18 23 30 28 19 21 25 33 27 22 27 22 29 24 17 20 25 26 32 27 29 25 20 21 32 16 26 16 24 24 24 27 30 27 31 24 28 37 21 19 27 24 26 30 28 27 26 28 24 24 25 25 20 23 28 18 23 25 21 32 23 20 25 26 31 26 28 23 24 23 27 20 20 31 28 28 23 20 30 16 25 32 24 23 23 21 30 27 24 28 29 23 23 20 21 21 28 29 26 21 17 33 26 19 27 21 17 24 20 30 32 23 23 22 24 23 24 19 21 36 29 25 33 25 22 20 24 21 20 29 21 21 22 17 29 21 24 26 16 28 20 26 23 24 27 25 24 36 27 30 37 28 26 27 20 27 27 21 26 34 29 30 21 23 28 20 31 25 28 21 26 31 29 26 25 29 23 29 27 23 28 23 23 23 27 21 28 29 15 25 29 23 15 15 22 26 30 23 23 25 29 14 26 31 26 25 24 16 22 29 26 22 28 32 24 20 24 22 19 25 32 31 23 31 25 21 26 23 22 36 23 26 30 25 27 25 24 24 23 18 36 27 30 22 21 23 30 32 20 19 23 21 23 25 24 25 15 21 23 27 22 26 23 30 25 25 28 31 23 15 27 18 20 15 24 29 27 24 19 20 32 23 16 24 19 30 29 29 23 27 33 23 28 20 17 29 32 21 35 11 24 21 28 24 23 32 27 19 25 36 20 26 25 28 23 18 22 17 19 25 25 24 20 35 22 28 27 22 25 23 22 20 22 27 25 29 27 24 27 27 29 30 33 25 22 24 28 25 23 24 28 23 21 28 19 19 22 29 26 21 33 27 29 23 23 26 23 13 28 23 31 25 22 28 24 23 25 25 21 22 23 18 26 24 22 23 27 33 30 26 27 19 23 22 33 24 28 26 33 33 19 23 21 26 22 25 23 26 27 29 23 18 20 24 20 28 23 28 23 22 27 26 33 23 18 26 24 28 25 17 27 26 30 25 14 17 20 23 16 28 24 24 34 21 33 20 28 25 27 19 13 22 30 31 29 26 22 28 26 22 24 29 28 28 30 30 22 26 27 27 20 22 21 31 17 21 25 18 27 32 28 20 23 23 28 25 25 29 24 30 20 17 25 25 22 18 16 19 25 18 22 22 35 29 24 25 27 29 30 25 32 27 21 25 25 13 34 24 22 23 23 22 22 22 24 28 31 30 26 21 31 18 26 23 31 28 26 35 21 21 18 28 24 26 23 23 21 26 27 23 26 24 29 32 27 24 16 25 20 14 25 19 19 20 29 26 19 25 25 29 27 26 29 21 29 26 33 29 24 20 29 32 21 20 28 18 22 25 24 29 26 25 24 17 23 29 26 22 26 22 21 24 25 26 28 26 25 29 22 25 20 29 23 25 23 34 19 21 22 27 23 27 22 22 23 28 27 22 30 20 23 34 23 26 26 31 31 26 26 11 22 37 17 24 31 27 24 19 22 23 20 22 25 27 18 19 19 21 24 26 30 29 36 22 28 21 24 23 31 28 35 22 21 16 21 27 21 21 30 20 32 28 22 27 25 28 22 33 30 33 24 23 26 27 31 21 23 19 29 27 25 24 26 26 22 26 18 27 18 32 21 30 18 31 27 24 21 27 18 26 23 29 22 23 25 22 31 23 26 30 23 26 17 27 22 24 22 22 23 23 32 21 30 27 25 32 24 19 23 26 26 28 21 25 27 25 23 23 23 27 23 19 29 26 29 21 28 23 20 26 30 31 20 23 34 20 23 31 20 19 30 25 26 29 25 27 28 22 19 29 16 25 21 19 26 32 22 25 25 26 25 33 27 19 22 27 24 28 25 26 33 18 27 29 17 19 23 25 25 22 25 20 27 26 22 24 24 29 29 27 25 31 26 25 25 29 27 22 24 20 25 23 23 28 18 25 24 26 22 35 30 21 23 28 25 26 26 28 32 24 29 24 28 30 24 23 31 32 26 25 23 32 23 25 21 16 24 25 21 25 23 30 21 21 31 28 20 28 22 26 26 26 29 20 23 16 32 21 23 22 31 33 33 22 19 25 21 22 23 24 19 28 26 23 23 17 23 23 24 26 18 24 19 30 31 26 25 36 23 29 24 22 29 25 28 33 20 25 20 23 20 30 26 24 25 22 20 23 29 24 29 30 26 24 26 24 37 24 31 28 29 24 17 26 28 25 21 24 23 21 22 25 34 26 25 30 26 25 20 18 27 27 11 18 27 23 25 28 33 18 19 28 19 25 28 19 28 28 20 16 22 19 23 24 27 18 24 38 27 27 23 27 25 20 30 30 19 21 26 22 26 27 26 20 30 16 31 26 20 25 23 26 26 24 19 16 26 33 25 22 19 22 25 20 22 23 22 24 23 27 28 25 24 28 34 26 22 21 23 30 32 27 22 30 15 34 25 27 16 23 29 21 26 20 24 18 19 12 26 35 27 20 25 30 30 21 15 24 29 26 25 26 21 26 25 25 20 34 19 29 26 33 29 30 15 25 18 24 23 22 30 23 29 19 27 19 24 34 26 32 22 20 26 21 24 22 34 23 21 33 27 34 20 29 16 27 18 26 25 37 24 29 26 31 24 30 26 21 29 31 25 30 34 25 26 21 27 30 29 27 25 30 25 20 24 22 25 25 24 13 19 27 30 26 23 32 22 28 24 23 19 16 25 16 25 24 28 28 27 20 22 28 25 19 32 27 30 23 23 33 11 31 32 24 33 34 28 17 24 23 26 29 27 30 16 24 22 23 19 32 21 22 31 25 24 19 26 24 28 21 26 25 25 22 17 26 31 23 21 22 17 22 20 28 19 21 24 33 20 30 22 31 24 18 16 29 23 27 27 29 31 27 26 27 25 30 20 20 19 33 17 16 30 28 36 24 26 27 18 24 24 28 27 24 32 27 23 27 21 31 24 25 23 24 32 21 31 30 16 21 22 27 28 28 26 30 26 19 30 28 25 19 22 32 25 22 20 29 25 22 29 33 30 24 22 25 23 31 27 19 28 25 34 18 27 26 20 22 26 24 25 21 24 21 26 31 26 25 15 25 25 13 26 22 34 23 22 22 24 17 23 27 33 24 25 34 23 21 26 22 32 24 18 26 23 28 25 34 30 20 18 34 26 20 22 24 24 29 28 33 30 23 27 26 23 29 28 17 29 21 21 19 28 24 33 22 33 28 35 23 20 17 26 28 24 26 23 31 21 28 24 27 29 24 26 24 24 27 26 25 20 20 26 25 26 20 25 18 26 37 21 18 23 22 28 18 24 29 17 23 31 21 29 17 21 22 30 21 26 24 24 20 23 23 18 24 31 31 31 27 25 24 30 29 17 24 25 27 23 16 26 23 31 25 24 31 27 23 30 24 16 31 23 24 13 28 21 30 29 19 31 31 22 26 23 25 27 31 24 37 27 21 30 23 21 31 29 26 28 31 31 27 19 31 21 30 19 25 28 21 32 26 21 23 32 18 18 23 27 24 17 28 25 23 22 29 24 26 22 26 19 27 33 23 25 24 25 26 22 23 29 25 24 33 27 24 23 30 27 29 14 23 17 22 18 20 32 21 28 33 27 27 26 28 29 30 29 28 24 25 27 26 26 23 33 27 23 24 20 22 28 33 29 24 26 20 26 17 32 27 28 22 23 31 19 22 23 24 29 29 22 23 22 25 30 23 29 20 33 31 21 25 22 22 31 19 23 31 24 25 20 33 19 24 30 32 24 28 23 18 33 33 33 25 17 22 28 23 21 13 28 26 21 26 26 19 23 23 27 27 31 26 23 31 25 29 18 24 25 27 24 35 27 32 17 29 28 23 28 30 23 21 21 27 24 24 20 28 29 22 26 21 20 26 21 21 18 22 23 20 25 21 15 27 31 24 33 18 23 25 29 27 20 30 27 23 22 31 23 17 22 21 24 23 21 23 22 30 26 31 20 24 31 20 20 27 27 22 28 20 22 30 25 29 25 27 32 31 23 28 41 27 24 23 36 33 28 28 25 21 25 27 26 20 14 27 25 27 29 23 22 27 16 29 34 21 25 23 17 22 21 17 21 24 31 29 38 25 18 21 27 20 26 20 19 26 28 25 26 22 29 28 23 25 21 22 24 25 21 20 26 21 26 22 22 25 32 29 21 25 30 21 27 23 26 22 20 23 29 28 25 28 18 24 13 27 31 26 17 30 27 36 27 26 28 23 31 24 27 24 22 22 19 43 26 29 20 28 23 20 30 23 25 31 19 28 18 27 18 25 22 23 26 25 28 20 26 22 27 30 16 21 26 29 30 22 30 30 17 25 29 25 27 30 23 22 24 28 22 14 20 18 26 31 18 24 25 27 24 22 19 28 26 37 25 28 34 18 34 24 21 27 25 30 31 31 17 29 28 21 24 17 22 19 25 30 24 32 22 24 26 23 22 22 25 27 23 29 25 20 30 27 29 19 30 24 23 25 28 29 28 20 20 23 25 24 23 24 27 34 15 21 20 27 27 25 20 21 28 28 25 25 27 15 22 22 20 26 22 19 28 26 18 27 21 23 25 20 31 21 19 32 18 36 25 25 26 29 16 24 26 22 23 25 29 20 29 31 27 25 31 28 28 28 26 18 26 26 26 23 20 26 21 25 22 25 27 29 17 17 27 38 27 27 26 26 22 14 25 16 26 23 31 25 25 30 29 24 24 20 32 18 24 24 18 30 29 26 30 19 23 27 29 18 28 22 24 23 29 34 22 20 13 23 28 25 25 29 29 26 24 28 24 18 34 28 27 26 18 26 24 25 33 25 28 28 28 19 26 23 23 26 28 26 21 24 20 26 21 18 25 19 21 32 22 29 16 23 21 27 23 30 23 19 28 25 13 22 24 28 18 17 26 24 20 29 27 21 29 21 22 25 25 24 19 25 16 23 27 29 20 15 24 27 29 25 18 29 19 24 21 25 26 24 28 22 27 22 21 23 27 22 18 27 20 32 23 23 18 22 24 17 27 28 27 27 26 21 26 25 22 23 17 20 21 31 28 25 18 28 20 30 25 24 29 26 28 28 27 27 24 25 30 26 25 20 25 30 32 28 25 20 20 28 22 31 23 28 28 14 26 25 23 29 16 17 27 28 19 28 20 22 33 23 20 22 27 25 25 25 21 20 27 25 26 21 23 24 24 25 28 28 28 22 28 29 15 30 19 25 29 19 20 19 29 22 23 28 27 24 31 29 24 22 28 28 21 32 23 27 17 20 26 24 22 22 25 25 27 27 29 24 29 17 33 26 22 27 30 31 23 23 28 24 29 19 29 23 25 21 20 28 31 20 24 22 21 18 28 28 18 30 27 30 22 27 28 18 24 17 28 25 25 25 24 24 25 23 31 29 25 19 30 26 23 26 24 23 19 27 16 21 17 16 25 30 19 24 11 26 29 21 28 25 18 25 22 24 29 26 28 24 22 25 31 26 24 30 26 22 28 26 35 18 21 21 30 32 22 23 27 24 25 28 25 27 20 20 22 33 25 27 22 19 28 27 30 27 23 39 19 29 20 22 26 23 16 21 27 21 23 23 33 33 20 23 30 23 23 26 24 31 27 23 24 17 25 27 34 29 23 19 30 28 37 29 20 32 24 26 26 25 24 25 25 29 17 25 23 30 23 30 29 27 28 25 20 20 19 15 28 25 21 21 20 20 28 26 26 19 20 28 32 22 21 24 30 26 27 29 19 30 29 30 16 36 33 32 20 18 24 22 30 26 16 21 24 26 24 18 25 22 21 29 27 20 20 22 25 26 26 25 18 25 27 30 34 20 36 23 27 30 20 38 21 24 20 23 29 26 28 29 25 27 41 22 23 21 23 19 20 37 26 24 29 23 20 19 28 19 21 26 27 20 24 27 18 19 21 25 21 28 29 24 16 20 27 26 28 26 19 28 23 20 24 24 24 12 22 32 23 25 22 25 20 27 23 20 26 21 26 16 24 26 18 25 17 26 21 26 31 28 31 34 35 27 26 19 27 21 25 26 21 30 23 22 15 25 30 24 27 22 16 26 28 17 33 25 25 27 16 25 21 22 17 35 26 21 19 24 23 26 25 34 30 37 32 22 19 23 20 18 27 19 29 28 31 28 24 24 26 21 21 16 25 30 28 13 24 25 23 24 33 23 26 30 29 34 23 22 23 24 23 13 16 23 36 23 28 24 27 20 21 27 23 23 24 30 24 17 21 25 20 23 27 24</t>
-  </si>
-  <si>
-    <t>GAM(94.7811173588296, -20.419145865492347, 0.5985131572692113)</t>
-  </si>
-  <si>
-    <t>35 40 40 34 33 38 26 44 26 43 38 37 34 35 39 28 42 40 29 26 31 31 39 27 38 44 46 45 36 34 28 40 38 34 35 45 38 36 30 31 31 45 44 40 38 30 28 31 37 40 38 46 33 46 35 37 34 40 37 33 35 35 37 27 29 28 39 36 32 36 30 37 34 32 39 28 23 42 37 40 51 33 29 42 50 44 29 35 34 36 32 48 52 36 32 39 30 36 34 30 46 41 54 46 32 38 29 44 39 36 28 30 43 28 33 41 31 38 25 44 39 44 31 40 45 27 36 42 37 33 40 37 32 39 32 35 41 42 39 37 31 27 28 38 37 39 45 30 42 33 33 31 42 36 29 34 26 31 38 43 29 38 42 42 32 39 47 31 27 41 32 36 47 26 46 42 32 42 30 46 33 40 34 33 41 27 39 32 42 41 42 30 42 34 37 24 38 35 35 36 34 41 45 27 40 44 33 31 32 33 35 40 44 30 36 28 39 49 40 42 28 49 46 35 45 32 35 42 32 43 38 40 36 35 29 37 38 32 40 32 36 34 35 33 35 45 36 36 43 37 42 41 37 27 44 27 33 36 36 31 34 29 36 43 42 46 35 43 35 35 37 34 40 35 36 38 32 40 32 29 40 29 38 35 45 34 43 32 41 44 35 37 31 39 39 35 43 47 38 37 38 40 39 42 24 39 39 26 25 35 36 32 32 38 37 43 36 26 30 40 41 41 32 27 29 28 29 40 40 35 40 30 34 27 41 39 39 30 33 34 33 35 40 31 26 41 34 32 40 40 45 39 28 48 33 28 29 37 38 38 32 37 47 46 48 44 33 35 29 43 35 46 34 40 37 37 40 45 36 32 35 40 32 33 48 31 35 41 37 26 38 36 34 41 35 35 28 34 37 35 37 27 37 37 37 31 44 34 36 48 31 45 37 39 36 33 37 44 31 40 42 41 37 36 46 27 33 40 46 31 46 31 44 39 38 27 42 28 28 38 47 27 37 32 34 33 41 46 27 30 38 37 45 41 34 42 38 36 39 30 29 38 36 46 35 46 42 30 46 25 49 33 39 45 29 31 37 40 29 40 42 38 33 24 44 41 43 37 27 33 47 35 39 44 38 44 34 26 34 29 52 41 36 36 20 43 42 36 35 33 42 39 49 48 36 38 33 40 25 43 35 41 28 41 42 27 34 36 38 27 28 35 37 40 35 41 26 36 36 49 39 32 33 36 40 39 35 28 46 40 28 30 40 30 33 32 39 45 34 35 41 32 27 35 37 35 35 29 37 32 41 39 33 39 31 40 36 43 30 42 38 33 32 36 34 30 31 23 40 46 28 43 34 36 31 40 31 34 35 34 30 46 33 31 34 42 49 32 40 38 38 41 40 30 31 36 29 26 28 37 33 40 32 31 42 31 31 33 30 29 32 35 27 36 34 29 47 34 31 45 41 37 39 34 34 28 33 38 33 41 35 32 27 43 38 38 37 35 43 32 27 49 27 46 39 41 38 29 31 47 43 35 51 28 32 34 43 32 34 33 40 44 29 33 37 31 29 36 35 39 38 36 40 40 40 31 40 43 37 36 40 36 32 42 37 39 26 36 36 41 46 36 32 38 39 39 32 37 39 45 28 36 44 37 34 39 40 24 42 46 39 39 27 40 29 40 41 48 38 40 41 33 34 24 28 30 30 41 30 34 39 45 36 29 38 36 21 48 43 38 32 32 24 33 27 33 33 38 47 38 25 33 46 31 37 42 41 40 38 36 32 37 46 37 44 45 39 37 38 39 36 49 38 42 30 42 40 28 34 45 33 37 38 42 35 34 36 29 58 32 38 35 30 30 38 36 43 28 33 43 42 39 34 36 37 27 22 33 30 29 29 34 40 35 36 31 31 31 39 39 31 39 44 43 37 30 28 46 34 36 36 32 38 42 30 32 26 29 29 49 38 37 33 39 33 32 49 47 34 44 48 38 44 40 37 37 26 40 51 29 39 37 43 57 32 29 32 37 42 46 38 34 40 43 40 34 48 34 44 39 44 36 35 35 33 42 29 34 41 31 45 38 38 28 34 37 31 43 41 31 33 38 36 51 37 35 38 33 36 37 33 28 37 44 29 41 35 33 43 40 24 40 34 28 37 47 36 36 38 31 36 40 30 42 34 39 34 41 37 41 36 32 41 38 41 31 33 41 39 38 48 33 41 34 35 34 42 36 38 35 30 43 40 38 42 39 38 34 38 34 36 40 34 24 31 43 32 45 30 30 36 38 33 25 36 23 31 37 42 44 35 37 36 42 41 39 37 36 32 39 39 31 37 31 35 25 33 22 31 34 42 35 37 27 29 42 62 25 39 32 31 38 41 30 34 39 27 37 35 39 37 32 35 31 33 43 28 33 37 25 29 37 30 29 36 34 37 37 35 40 36 38 37 34 41 31 34 34 45 39 33 31 35 48 48 43 32 38 28 33 36 37 31 23 34 32 27 26 30 40 35 33 39 36 34 30 40 48 30 42 37 29 44 49 32 26 43 34 38 30 40 34 54 36 43 28 33 35 44 33 30 45 37 32 34 41 32 40 33 36 33 37 45 38 39 36 32 33 38 42 47 27 42 30 27 30 38 34 41 37 33 36 24 33 31 35 34 24 39 40 36 41 38 32 32 45 42 34 31 41 48 37 32 38 31 29 31 36 40 35 35 38 31 32 32 31 24 34 23 35 34 41 43 36 40 39 30 40 28 39 40 33 36 34 40 40 43 29 37 27 37 33 39 43 35 46 45 38 34 32 39 28 41 34 29 44 36 37 40 30 52 38 40 35 43 32 36 39 32 36 36 34 28 31 41 36 52 45 37 40 38 44 42 29 33 29 29 36 41 36 38 41 42 27 24 47 36 44 38 25 42 27 35 40 37 41 26 40 39 32 34 26 37 38 33 29 48 43 33 40 40 38 40 32 34 51 28 40 39 37 38 31 44 32 34 34 35 35 38 42 33 30 43 45 33 34 37 27 29 46 44 34 50 36 34 23 30 34 36 25 24 48 38 41 25 43 27 31 44 35 40 43 31 29 37 35 34 41 38 37 42 29 37 33 33 31 41 43 48 33 29 44 30 41 31 30 29 39 39 38 25 35 25 31 41 38 34 36 36 33 33 39 41 41 35 40 47 27 38 42 36 44 39 42 42 36 34 40 34 33 36 37 30 40 35 29 37 31 37 34 37 34 34 43 32 38 37 26 38 36 31 43 31 29 26 34 34 45 40 30 36 28 22 36 41 30 37 39 35 29 33 33 34 42 46 42 30 39 30 36 43 33 38 33 41 47 32 38 43 37 28 47 48 37 35 41 49 33 36 38 32 29 42 41 34 44 29 31 38 37 43 41 30 37 37 30 28 46 34 33 37 54 39 36 34 48 33 40 45 39 35 37 41 52 37 50 41 29 39 31 35 31 33 35 37 41 33 35 37 39 46 42 29 31 33 40 28 37 26 30 39 38 41 35 43 32 37 38 34 25 40 40 35 29 32 38 44 42 32 34 47 40 37 41 43 39 41 35 38 30 38 35 57 32 33 31 41 31 45 35 34 32 29 29 37 29 28 32 34 32 48 31 41 51 41 36 34 38 34 37 46 27 36 43 32 37 33 36 38 42 37 37 30 40 43 43 38 32 37 29 42 35 30 29 41 38 34 27 41 34 39 38 39 36 44 31 34 26 39 45 38 41 30 31 32 42 34 30 35 32 30 32 32 30 37 36 31 50 32 50 33 41 35 41 42 29 37 39 33 36 32 39 33 36 35 35 28 41 33 45 33 31 37 38 30 46 41 35 34 31 36 36 39 40 26 33 42 39 41 27 51 42 36 28 28 54 40 26 40 38 44 38 40 40 45 51 48 32 42 48 31 36 34 41 42 38 33 29 35 37 43 36 33 35 45 43 40 51 38 31 36 40 32 27 43 43 33 26 46 31 29 29 47 31 37 31 37 37 31 46 34 30 34 33 41 35 28 25 45 39 41 37 31 32 28 33 36 37 27 32 37 37 24 31 28 36 24 36 40 38 36 41 42 38 25 32 30 38 29 36 39 34 27 45 36 37 39 41 37 33 37 28 37 41 38 39 38 34 39 20 37 33 32 47 40 35 35 36 42 39 46 30 37 33 41 30 37 36 40 28 35 40 32 41 34 42 39 32 37 27 37 38 38 41 34 35 35 36 41 31 42 41 37 30 32 38 33 38 49 37 37 43 35 35 37 39 31 39 40 38 35 42 33 38 28 38 30 32 35 29 42 29 33 43 33 34 31 37 39 37 34 33 32 37 28 33 30 30 32 43 39 31 42 40 24 34 39 27 37 33 29 39 33 32 41 29 42 32 42 45 34 26 38 42 40 35 35 39 46 30 37 34 42 36 42 28 38 38 38 44 32 41 35 33 27 34 41 45 33 31 36 37 51 47 49 32 27 36 43 34 30 45 42 41 32 36 36 43 49 39 27 36 31 33 34 44 37 29 29 33 30 32 33 36 31 28 41 58 36 27 40 28 33 38 40 38 30 43 35 48 35 43 43 39 30 40 51 39 45 35 33 32 41 32 31 43 43 42 24 41 28 35 37 30 35 33 37 29 33 34 31 39 29 31 39 44 38 38 32 38 31 38 35 39 35 39 35 38 41 28 37 41 31 37 30 27 32 44 37 24 39 39 33 33 32 37 41 42 33 36 43 41 35 36 30 34 41 41 38 34 35 28 25 32 35 37 34 42 36 41 46 40 30 27 33 38 35 36 39 27 38 42 34 23 34 30 26 28 36 50 34 38 42 47 48 44 31 31 29 34 42 34 35 29 26 37 46 41 40 47 31 28 47 43 45 44 27 32 46 39 26 36 37 45 49 38 30 44 34 42 32 25 37 33 42 42 45 33 33 39 35 36 30 30 36 35 32 28 38 30 40 33 36 41 36 33 31 32 41 38 40 24 34 38 33 38 32 38 49 32 30 34 32 41 39 46 36 47 49 37 31 39 30 27 33 32 33 31 28 38 30 29 34 31 32 31 27 37 24 40 37 34 42 41 44 33 30 31 32 35 38 41 38 37 31 37 37 36 38 35 32 38 43 48 37 34 40 37 33 35 33 46 39 32 24 37 33 39 33 30 31 39 39 39 37 39 45 41 24 30 27 30 30 38 45 40 42 36 60 34 43 44 39 39 40 27 35 39 38 37 32 34 29 39 40 31 43 34 38 35 38 44 39 30 38 36 52 26 38 30 43 33 31 39 31 35 35 41 44 25 32 19 45 44 37 36 36 27 29 37 37 32 38 40 42 48 34 30 42 42 50 35 41 40 46 35 42 46 40 50 34 28 33 38 37 32 31 37 35 45 47 35 54 34 42 41 33 46 37 40 34 30 29 37 39 35 36 42 39 26 44 42 35 25 28 33 44 37 39 36 33 38 36 32 39 38 28 33 38 35 35 50 32 39 45 43 39 43 37 33 36 37 33 32 35 46 38 35 35 28 39 43 28 27 34 33 25 26 48 33 35 41 41 36 31 38 42 23 42 33 35 37 44 46 41 45 31 38 32 32 38 48 31 40 37 36 37 38 27 41 29 31 33 39 46 37 30 37 39 32 37 36 38 34 39 33 32 34 36 30 31 38 32 38 26 51 40 33 36 38 30 32 32 26 34 43 41 27 47 39 43 35 37 29 46 38 30 46 36 43 29 37 42 36 36 30 39 35 45 37 43 40 34 33 34 45 29 45 40 35 40 35 30 33 50 45 46 46 33 38 45 38 35 50 39 39 40 31 36 37 43 37 34 42 39 34 34 41 42 29 26 30 40 39 35 41 25 32 35 39 35 37 38 36 38 36 35 38 31 33 48 46 31 45 43 37 48 38 44 32 40 36 34 25 35 29 49 48 37 40 35 31 42 30 33 32 37 37 46 45 36 40 33 37 41 32 29 41 36 37 48 34 33 32 40 36 37 33 39 26 22 37 31 37 52 31 31 37 31 39 38 36 41 35 35 42 27 44 32 42 32 47 36 33 27 32 40 32 29 35 31 42 36 39 44 32 26 33 41 38 31 45 29 34 48 38 32 36 37 41 45 29 40 33 24 47 39 33 33 31 44 45 36 30 39 42 32 38 34 37 45 31 42 44 44 34 36 40 38 37 36 27 43 42 28 41 42 32 33 32 36 39 30 40 32 44 41 36 41 33 35 38 32 34 30 37 36 25 40 38 34 30 37 38 34 37 38 45 41 40 47 57 39 41 41 40 37 35 45 32 33 40 42 43 35 39 39 43 35 37 40 41 28 40 37 30 37 53 44 30 37 40 36 35 53 38 47 38 34 42 25 32 44 33 32 39 43 40 40 46 16 39 35 48 34 40 43 33 43 45 40 37 30 33 42 39 37 34 46 35 36 34 52 29 47 40 37 29 29 42 41 36 48 33 34 22 40 37 26 39 35 29 35 30 41 26 36 38 42 42 31 34 45 41 33 34 38 43 41 45 32 36 22 33 34 40 35 37 42 46 32 34 47 33 35 27 37 34 45 30 34 38 43 36 43 33 35 37 40 32 32 31 26 32 45 33 41 40 29 28 30 25 28 28 45 31 35 38 36 25 45 28 42 35 30 40 31 40 38 35 34 37 35 36 36 31 30 39 34 21 38 35 33 43 30 35 34 33 29 48 43 38 47 40 31 47 39 32 24 27 43 32 44 39 39 42 43 39 31 41 33 37 39 41 34 29 36 34 46 31 45 36 37 39 32 31 40 36 36 34 47 45 42 31 36 38 45 50 34 35 27 47 35 36 41 26 31 32 33 40 35 45 37 49 38 40 40 40 40 31 34 39 35 29 30 34 38 34 36 36 35 44 34 44 35 34 36 30 38 37 37 29 51 28 29 26 36 35 37 37 37 44 36 38 31 41 31 42 40 32 37 41 31 33 38 42 29 34 33 44 33 36 37 37 33 31 29 29 40 40 34 35 35 29 29 30 34 34 45 47 47 40 39 40 35 31 36 39 39 41 29 43 41 22 38 33 34 44 32 35 37 44 32 28 49 27 37 35 39 36 30 31 53 38 34 34 34 41 33 39 29 37 34 36 33 49 29 32 38 36 44 47 48 28 46 33 30 34 32 38 32 40 35 27 48 41 40 37 36 37 39 43 39 38 44 34 36 38 50 42 29 43 36 45 40 39 35 37 41 48 31 27 41 41 36 38 39 34 42 36 41 50 34 50 35 40 44 36 47 28 34 36 39 50 33 28 42 36 36 29 30 37 36 40 36 37 49 38 39 35 34 36 31 32 37 37 33 40 37 40 29 44 32 39 31 29 42 37 39 43 30 30 39 28 47 52 34 42 32 33 30 25 36 36 45 41 26 34 38 36 29 31 36 37 40 38 39 45 33 42 44 35 34 41 32 35 30 37 40 34 33 34 35 37 26 35 32 30 43 35 34 38 29 34 32 46 38 44 38 35 39 38 27 37 33 27 35 45 47 31 37 43 31 36 30 32 27 37 42 44 29 30 36 29 30 43 43 40 34 44 29 34 31 32 29 29 46 30 25 32 37 32 27 36 33 37 29 44 32 32 29 30 33 40 37 39 40 42 41 35 29 39 35 45 34 38 37 39 33 33 31 18 38 35 31 32 35 33 35 35 31 38 31 37 41 26 43 40 20 38 32 45 39 31 34 33 45 38 38 39 34 33 27 37 38 48 34 35 37 40 39 39 37 38 31 31 27 40 45 40 32 36 46 36 39 33 35 30 38 45 36 45 35 30 39 46 19 36 43 33 42 40 37 34 31 37 43 32 39 42 37 48 36 39 42 38 32 35 46 32 39 24 45 37 37 35 47 37 38 27 37 38 43 27 22 37 35 26 42 44 32 37 43 33 49 39 51 38 41 32 40 40 45 30 31 40 35 45 23 34 40 37 29 42 37 38 33 45 36 34 40 42 42 39 34 43 45 46 45 41 29 31 27 44 37 29 38 51 33 42 37 32 40 21 39 37 38 31 34 40 32 35 41 33 30 37 33 40 32 33 41 38 40 35 38 41 38 33 34 37 35 33 41 37 36 29 31 42 35 30 35 34 33 41 33 41 33 34 36 33 29 45 28 28 29 45 29 41 48 31 25 44 40 38 36 33 43 37 35 41 35 32 33 36 38 40 29 31 28 30 34 35 26 45 25 43 36 40 36 43 30 34 34 31 33 34 34 41 28 31 33 35 32 23 39 34 33 31 31 35 31 29 35 33 35 34 26 36 26 32 37 32 40 42 36 32 42 33 38 44 42 35 31 34 33 31 42 44 38 28 46 40 33 38 41 35 36 44 42 38 43 31 31 31 31 37 33 31 32 26 31 48 35 40 32 35 36 35 34 36 35 39 31 34 35 37 32 34 42 44 30 42 39 41 38 32 43 45 39 39 35 38 36 37 36 45 28 37 40 36 38 46 37 37 45 23 44 55 39 28 42 33 40 29 45 28 44 42 32 39 34 39 35 43 36 46 34 26 30 39 52 22 35 42 35 34 37 24 46 35 39 31 32 39 37 34 31 44 40 40 40 37 27 33 38 43 40 37 27 45 28 30 32 36 41 43 32 46 45 36 37 39 37 48 34 36 48 44 30 44 41 38 36 40 28 41 46 38 36 36 29 26 40 49 34 36 40 38 31 42 40 37 32 32 44 43 46 38 31 36 33 32 38 33 33 35 28 36 31 26 34 34 28 34 33 41 38 38 32 35 38 37 36 39 38 38 26 27 35 42 30 37 40 28 47 38 27 33 40 29 38 32 34 47 30 35 32 33 26 36 32 45 42 38 42 37 39 34 39 36 34 40 30 34 37 36 36 42 31 45 34 33 30 42 34 43 33 35 29 33 25 48 30 35 35 37 33 28 33 43 42 39 42 38 39 35 43 44 47 25 37 46 30 40 46 38 32 37 35 27 45 42 39 41 44 32 47 32 32 35 42 34 37 42 40 32 26 29 38 22 30 34 35 37 35 38 39 45 34 34 27 32 34 28 46 36 35 40 30 42 39 35 33 37 41 35 38 42 30 31 53 37 37 32 41 36 31 31 37 35 35 39 29 46 33 29 27 37 32 43 32 29 28 32 39 29 31 36 41 26 34 21 28 45 40 35 27 47 40 35 43 40 30 43 35 32 44 30 36 38 43 39 31 39 41 34 36 49 32 33 40 41 34 39 37 33 43 27 37 33 32 33 34 31 50 36 27 34 32 39 37 31 44 45 38 36 32 33 29 43 36 45 25 48 43 34 35 40 36 24 39 33 43 34 33 34 38 45 35 38 41 31 42 36 36 28 38 29 28 36 38 34 41 41 39 30 43 38 39 53 35 39 37 37 35 40 32 33 41 39 33 37 31 41 37 46 35 41 28 35 33 43 30 43 28 39 35 52 31 38 28 35 44 39 41 30 35 46 35 26 51 39 33 42 39 24 36 33 39 48 36 40 30 34 30 41 40 36 33 39 30 33 26 47 27 41 34 38 32 42 31 43 46 33 27 27 28 34 30 37 49 35 35 33 35 45 42 35 40 24 33 39 30 28 41 23 46 41 32 32 43 37 48 24 30 35 40 31 37 35 48 33 37 33 44 44 33 34 42 30 39 41 31 34 37 39 32 38 39 30 28 33 45 28 35 39 37 27 30 44 41 43 44 40 27 33 32 40 42 40 40 45 34 30 30 40 43 41 30 32 29 26 31 41 35 36 42 27 31 34 34 40 42 30 41 38 38 44 44 47 30 30 51 30 32 38 37 31 36 37 36 28 34 32 32 36 33 37 38 37 44 31 38 40 39 46 28 33 48 31 31 28 37 33 37 42 36 30 31 32 38 34 35 45 32 28 32 33 39 37 36 33 23 33 38 46 34 38 40 42 32 37 33 28 50 27 36 38 37 33 35 22 42 32 37 38 32 38 43 37 34 36 38 35 24 41 44 44 37 28 35 35 31 46 41 33 37 37 39 35 34 31 39 32 45 28 37 27 36 34 33 37 41 41 33 40 40 44 30 32 45 26 36 40 44 34 41 36 40 45 41 39 31 30 38 38 33 45 47 36 32 38 38 38 34 31 36 35 39 39 39 35 36 43 32 35 45 45 23 38 36 41 37 47 30 36 44 33 39 28 41 33 47 36 46 47 44 43 38 32 33 38 34 47 31 41 49 27 26 54 37 36 27 29 33 36 36 35 32 43 30 34 43 34 47 33 26 31 31 34 56 39 38 30 37 46 30 30 30 37 33 42 37 40 39 44 30 42 49 35 30 32 37 32 36 47 38 32 34 29 29 25 41 37 33 25 29 29 35 39 31 45 34 33 37 32 33 28 28 27 42 55 29 37 23 29 34 30 40 33 32 32 31 37 39 43 29 40 41 40 33 29 39 36 41 38 32 40 40 40 41 34 31 29 28 38 30 32 31 51 37 45 42 33 27 41 44 42 29 32 48 33 35 30 32 35 35 39 28 40 30 34 31 33 34 39 42 45 29 38 22 39 38 31 38 37 43 45 33 45 34 33 38 33 42 32 32 48 39 32 33 43 35 41 34 42 35 38 32 31 30 40 30 41 39 39 42 31 36 42 32 31 37 34 37 38 39 32 33 39 42 32 42 33 38 38 49 29 28 49 31 39 31 39 34 26 36 42 33 48 30 35 47 29 29 30 38 36 34 43 38 40 31 46 35 42 32 37 27 31 35 28 20 39 29 32 52 30 33 30 44 35 31 33 37 39 31 34 38 40 41 50 33 35 42 36 43 28 27 35 37 41 33 30 32 35 34 45 31 35 38 30 31 40 33 33 37 36 31 34 39 29 40 35 39 30 32 38 37 31 38 43 47 35 44 46 35 31 36 42 40 29 31 36 28 38 41 31 36 28 30 48 43 32 35 41 39 29 35 29 26 34 28 43 35 51 39 37 39 43 27 41 42 39 33 34 30 44 35 33 41 30 29 44 37 36 31 31 34 36 44 37 32 27 38 31 30 31 34 34 42 38 26 41 42 38 36 37 41 35 45 31 34 36 31 37 28 27 38 29 39 41 38 45 38 31 26 37 38 41 30 39 29 38 29 46 37 38 35 36 32 42 35 29 40 27 34 34 27 40 33 41 34 38 36 32 33 36 29 31 40 34 33 31 44 30 33 37 36 36 40 37 34 41 35 36 32 39 37 21 27 43 46 59 31 25 36 34 44 43 37 43 50 28 35 40 35 46 34 34 32 37 42 42 36 31 35 44 38 29 36 48 38 31 32 39 30 36 38 46 35 36 34 44 36 37 37 35 34 22 36 38 31 34 35 34 34 41 37 47 29 44 31 37 39 36 41 33 50 38 38 40 35 33 41 38 45 38 43 36 37 38 36 43 27 38 40 34 38 39 34 32 34 45 38 39 33 34 25 32 37 33 40 29 48 29 37 39 35 29 37 52 41 36 36 33 31 36 32 26 41 36 36 35 41 50 37 37 33 38 39 28 34 38 46 39 40 34 30 42 34 33 39 35 38 38 38 31 39 34 23 44 32 34 39 37 35 25 33 40 32 39 37 34 35 39 40 39 38 31 37 34 34 48 40 36 36 27 28 34 35 38 35 33 43 36 39 34 37 34 32 27 35 40 35 38 36 38 29 33 30 32 28 42 40 43 36 37 37 40 40 24 37 33 34 27 44 33 26 42 37 34 37 37 33 38 27 27 31 34 33 34 43 29 33 34 32 42 36 33 32 33 37 36 39 33 32 37 42 28 39 28 34 30 34 53 42 30 32 43 34 40 34 43 33 50 30 36 39 42 43 50 36 38 43 46 26 24 38 33 46 39 35 41 31 38 45 25 34 47 41 38 44 46 36 34 43 35 40 41 47 41 38 43 47 47 42 48 32 38 39 33 34 48 39 37 41 29 36 37 36 33 45 40 18 39 27 29 35 38 29 41 38 25 36 37 38 27 28 40 40 35 39 35 44 50 37 34 38 34 27 28 24 35 46 37 41 36 45 30 30 29 42 39 37 37 39 30 31 42 39 38 51 37 36 38 38 39 31 35 41 31 45 41 37 30 38 40 34 37 31 33 37 55 40 36 40 39 42 37 31 51 33 32 34 30 44 35 42 31 34 31 32 40 39 38 26 36 29 41 33 49 33 37 38 31 30 36 28 41 38 40 29 36 37 40 33 43 45 35 33 34 38 39 55 44 29 25 38 30 44 34 36 36 31 38 46 34 40 23 47 44 48 46 40 38 37 36 28 44 38 29 41 38 41 40 31 40 44 40 43 40 35 48 39 34 38 43 31 45 28 34 38 34 34 25 27 34 28 31 28 33 32 40 37 36 35 52 34 40 42 27 31 30 39 29 42 39 40 42 49 32 48 39 41 39 31 33 39 35 56 43 30 39 43 32 41 36 27 33 38 43 50 47 34 27 34 36 30 32 31 24 43 35 37 38 37 40 45 42 40 37 37 38 33 34 29 45 43 45 35 40 41 47 44 39 43 47 34 37 39 49 35 32 39 31 50 30 30 30 41 41 45 30 34 25 30 33 41 36 44 33 32 42 31 26 27 30 39 49 33 37 40 30 44 32 43 35 44 34 32 42 35 25 30 31 35 34 31 42 30 36 30 35 38 39 45 38 35 33 44 36 28 38 47 42 46 45 32 32 34 39 38 40 34 28 35 30 32 31 30 50 28 31 42 38 34 33 37 36 24 41 46 37 32 39 37 37 38 31 37 45 46 46 35 36 35 30 35 32 32 40 51 39 35 43 33 34 43 29 38 33 33 45 37 36 55 34 42 32 32 34 42 33 37 39 46 32 31 34 48 28 26 30 35 35 25 31 37 44 38 30 41 34 35 42 33 45 42 32 36 39 28 45 36 39 32 36 32 34 36 40 31 34 28 29 38 43 36 37 47 31 44 36 52 41 24 44 47 29 34 41 33 34 27 34 60 42 37 30 31 28 30 37 30 40 34 40 41 35 27 33 37 29 35 31 27 42 38 22 45 33 31 30 34 37 36 27 41 35 30 37 39 40 29 40 43 40 41 35 43 34 30 44 41 33 36 39 32 31 32 42 37 38 23 27 32 33 28 25 43 31 42 44 37 32 27 30 50 41 44 34 48 40 33 32 37 24 44 35 45 35 38 39 40 31 40 46 46 39 36 34 53 28 34 38 30 37 34 49 34 29 33 29 29 42 34 31 30 39 32 47 42 30 36 32 26 34 48 30 29 35 44 31 29 43 36 40 21 38 36 28 28 49 35 37 40 31 40 38 34 35 47 45 32 43 37 38 43 40 37 38 35 46 37 46 30 37 40 26 36 35 35 42 31 32 42 36 28 37 31 33 32 23 38 36 35 27 35 39 28 39 43 34 45 36 34 31 43 33 40 29 38 29 45 31 36 44 49 42 40 41 34 39 40 43 31 33 42 42 41 34 32 49 34 35 40 43 44 37 35 39 40 39 31 26 31 33 46 41 35 36 39 33 33 36 41 37 31 35 33 29 31 31 26 35 32 32 41 32 46 31 41 38 33 43 33 37 29 36 31 39 38 36 36 41 39 37 41 46 35 27 43 31 32 34 37 37 41 32 25 34 30 31 34 42 24 47 39 32 35 37 27 38 24 33 32 44 42 42 25 36 34 38 31 31 30 37 26 36 35 43 37 30 30 26 31 38 43 34 31 40 39 41 34 32 30 30 29 34 45 37 36 36 34 32 33 26 39 43 36 35 33 27 31 39 40 31 39 28 37 44 31 32 25 30 41 43 47 42 18 39 48 36 46 33 45 36 30 34 37 35 34 35 38 36 37 34 42 26 35 29 33 33 40 25 37 35 44 38 39 32 29 45 38 33 38 26 31 38 52 44 28 30 33 28 41 44 30 26 35 27 36 47 34 36 31 29 45 37 30 38 38 35 27 41 32 36 37 42 45 33 35 33 29 42 36 47 37 39 41 28 31 39 39 34 35 30 30 26 43 29 41 32 27 31 32 34 36 35 31 32 36 38 33 36 34 39 48 31 30 38 37 35 41 37 32 42 46 38 36 30 39 40 34 37 28 36 35 35 33 41 30 44 38 35 30 36 27 29 37 36 37 43 32 35 34 36 42 33 32 39 31 25 41 48 43 37 46 36 32 44 36 28 27 40 37 39 38 32 41 32 46 31 40 32 41 29 39 31 25 24 37 30 28 40 39 40 29 33 36 44 37 38 22 42 37 31 28 35 35 28 44 34 36 39 44 26 37 28 28 29 42 47 34 37 42 42 35 44 41 25 36 29 42 29 29 43 45 34 35 33 38 38 37 39 37 35 33 37 33 40 49 35 42 41 34 34 36 35 38 33 38 37 43 44 36 30 34 36 38 31 25 42 40 32 33 47 33 35 52 45 47 48 38 27 48 32 32 40 45 34 28 39 31 32 35 29 29 41 38 37 33 29 37 28 39 40 25 42 34 33 26 29 29 34 28 37 29 51 26 39 41 32 39 22 31 35 47 33 29 32 34 39 41 33 40 35 42 35 44 36 30 30 33 32 33 35 43 43 28 39 21 38 37 35 44 33 21 32 40 31 37 38 36 35 46 48 45 31 42 31 35 43 39 25 23 36 36 28 40 30 34 31 32 36 36 46 40 31 38 43 34 38 33 45 35 40 36 33 36 37 40 50 38 37 35 41 47 32 32 32 54 37 36 37 45 30 33 31 31 40 28 33 44 37 36 41 33 39 42 41 37 37 37 38 29 40 35 28 29 35 28 32 34 34 31 31 32 34 36 36 36 36 43 27 31 27 41 39 35 39 39 29 38 35 35 29 29 45 50 32 34 39 33 40 35 29 35 27 40 30 40 29 44 27 35 32 40 35 47 43 31 39 40 42 40 36 39 32 32 34 27 32 37 38 32 36 33 35 35 34 35 37 42 34 35 33 38 30 32 43 39 35 28 28 38 31 45 39 37 43 31 27 40 40 36 37 39 35 39 35 37 32 48 40 30 39 38 51 29 36 31 29 36 29 37 43 37 38 31 39 37 28 39 39 41 34 40 40 36 34 40 30 40 35 38 44 33 26 38 41 48 46 40 40 36 43 41 35 36 25 32 25 24 27 34 36 41 32 31 38 26 39 31 34 45 38 36 34 41 40 41 36 40 24 44 41 40 35 46 32 41 48 40 35 25 28 33 34 36 40 34 33 44 38 33 37 62 32 34 32 36 31 32 37 41 23 34 37 38 35 36 32 37 37 41 33 39 37 47 42 36 32 31 36 39 38 31 31 42 40 32 47 37 41 38 29 34 29 29 39 44 38 39 29 34 44 27 36 40 29 35 33 41 31 35 37 26 27 33 44 37 32 40 24 45 30 33 35 34 33 39 31 40 32 35 33 29 33 38 41 25 35 31 28 41 34 32 36 49 38 35 32 30 28 34 35 37 26 43 29 24 42 30 38 42 37 47 32 42 35 36 43 39 40 36 30 43 41 48 37 32 26 46 36 37 41 34 33 32 33 43 37 31 50 37 42 46 32 36 50 34 51 39 42 42 30 37 37 32 40 36 32 32 37 31 39 39 28 38 51 36 29 30 54 38 27 34 34 34 38 36 41 42 42 47 34 39 50 41 37 35 37 25 33 34 35 24 34 34 42 28 38 34 44 27 35 37 35 45 46 36 44 36 40 32 37 36 30 42 38 35 48 26 35 44 44 44 36 38 37 30 42 42 35 36 42 32 40 43 29 27 35 31 52 35 45 45 42 38 35 43 29 42 26 34 42 31 33 37 34 32 36 38 28 35 36 33 23 29 41 38 37 39 38 46 29 34 40 36 23 42 52 27 34 40 35 32 26 38 31 27 38 42 37 40 29 25 28 40 39 34 26 31 32 38 38 37 32 23 32 55 32 43 42 42 30 27 42 39 37 38 35 45 33 35 28 42 47 30 35 42 42 42 32 42 45 37 29 27 33 29 35 36 33 35 34 32 41 32 44 45 38 34 35 37 36 29 40 39 31 34 40 35 31 38 43 39 39 36 40 31 46 26 37 22 30 34 38 36 36 26 44 34 41 37 35 38 29 56 31 36 38 37 31 35 41 39 39 34 39 31 38 23 29 41 33 34 37 44 33 28 44 29 28 40 37 32 37 41 43 41 37 52 47 42 37 39 36 38 30 31 42 28 33 27 31 35 38 35 33 30 39 42 35 40 44 34 42 34 35 42 35 41 40 32 31 44 52 37 44 28 32 34 32 36 38 33 32 38 37 30 35 41 33 38 32 38 36 36 44 38 33 40 37 46 41 36 45 33 22 35 48 35 44 38 39 30 25 43 41 37 35 35 34 41 30 38 37 36 22 36 31 34 38 36 48 30 29 44 31 39 39 36 37 32 39 34 34 37 22 31 34 28 49 37 36 36 33 43 31 43 45 35 46 56 34 36 22 39 38 40 29 32 34 41 42 30 41 32 40 37 32 38 34 37 36 25 30 39 41 42 40 51 44 29 31 47 25 36 29 32 36 38 39 40 37 42 30 39 47 35 33 35 37 42 36 34 41 34 43 40 32 31 40 35 38 37 28 34 33 32 44 33 33 38 38 47 40 38 39 35 36 36 35 36 43 40 36 34 31 35 26 39 48 30 41 32 29 41 48 45 36 34 40 38 27 31 29 36 37 38 36 27 44 42 32 39 41 29 37 33 51 45 28 40 35 36 37 35 32 29 50 40 33 44 38 36 29 40 32 43 45 36 36 33 29 41 41 36 36 35 33 30 45 33 38 33 32 36 43 35 36 43 47 40 39 28 41 37 34 37 51 33 46 31 34 35 39 42 37 47 29 41 47 38 41 37 42 33 38 41 33 39 33 39 37 39 38 37 44 33 40 44 32 27 29 31 34 41 34 33 33 33 22 37 48 40 42 32 26 33 41 34 36 38 42 39 35 33 33 34 36 50 42 39 40 41 31 35 42 34 45 33 36 34 41 45 38 38 34 32 31 49 46 38 35 32 33 53 44 26 38 34 28 35 36 35 36 25 32 34 31 35 43 34 39 39 36 42 44 30 27 43 29 36 30 36 40 33 35 30 27 40 30 24 34 41 42 45 39 32 41 47 30 47 28 23 43 40 35 47 23 35 30 51 32 34 41 35 28 38 43 31 39 35 33 37 27 45 25 30 33 35 36 36 41 34 44 44 34 37 31 32 26 31 35 31 41 38 32 38 33 36 36 50 41 34 31 42 35 36 32 42 32 31 39 32 30 36 49 37 38 42 39 42 35 36 41 31 20 40 35 49 39 39 39 32 28 34 29 40 36 35 29 43 29 39 40 36 49 40 38 40 32 32 34 39 40 38 35 41 45 32 37 29 38 30 36 33 34 34 39 30 27 36 42 28 37 34 41 38 35 37 29 53 34 38 42 37 41 38 37 41 35 44 35 24 29 35 33 25 42 37 38 48 25 40 32 45 37 35 27 28 29 36 47 46 34 30 35 35 30 31 39 50 39 41 36 36 37 35 42 29 28 27 38 28 34 36 30 36 42 41 31 39 43 36 32 32 45 33 40 30 27 35 39 35 31 28 29 39 31 35 36 44 45 31 43 46 45 37 36 46 41 32 32 42 22 46 34 32 31 29 30 35 35 41 39 38 43 38 33 54 24 30 35 33 44 42 51 35 32 23 43 36 41 30 34 31 43 33 25 37 37 42 39 35 38 29 37 29 27 38 31 34 38 43 39 33 36 37 38 36 32 35 41 36 35 42 32 33 33 45 41 37 31 36 35 39 38 33 35 38 36 40 24 33 45 35 30 39 42 36 33 36 44 42 41 37 38 31 37 34 41 40 37 39 47 29 35 39 39 30 46 29 31 36 39 41 32 38 31 35 46 31 39 36 46 36 44 41 21 40 46 29 36 45 38 32 28 37 37 29 29 32 41 33 31 26 29 39 36 44 43 41 32 35 30 31 32 46 42 45 33 36 29 32 33 30 32 39 31 46 44 39 33 40 33 30 47 41 45 33 37 38 36 49 29 28 35 38 37 37 31 35 35 31 35 32 34 34 43 31 41 29 40 35 37 33 40 32 33 32 41 35 34 35 30 43 30 34 40 34 35 40 38 37 34 32 25 34 41 42 35 39 34 44 49 39 32 33 41 36 35 37 34 37 42 34 39 36 35 32 25 44 37 36 29 38 33 29 39 38 40 26 31 54 28 36 45 35 33 37 37 32 38 35 45 45 31 26 45 29 39 34 24 39 41 38 38 31 38 34 44 39 31 36 42 36 37 40 33 42 28 35 39 32 32 33 41 34 28 39 42 39 37 31 35 33 47 45 34 38 48 35 35 39 41 38 24 38 40 41 40 33 39 28 42 35 34 33 46 40 32 32 38 32 37 32 37 37 36 39 35 39 40 36 38 47 47 35 38 35 42 36 38 29 27 43 39 33 38 37 43 32 41 44 38 33 38 39 39 34 37 44 31 47 32 37 30 35 33 40 45 47 39 31 38 30 29 27 37 32 54 41 32 39 31 31 38 38 35 25 40 31 44 46 38 35 50 33 40 27 31 40 42 47 47 29 39 37 37 28 40 45 31 39 35 36 41 43 30 44 41 40 38 31 39 44 29 34 42 40 36 30 41 36 43 32 34 31 30 34 33 44 45 31 50 46 39 30 34 40 38 25 24 36 36 35 38 44 28 29 42 33 39 34 26 43 42 33 28 33 33 34 34 44 34 32 46 32 38 38 40 43 32 41 40 31 31 40 32 41 36 41 32 39 37 47 37 34 39 34 37 30 39 33 25 39 44 34 31 29 35 29 39 30 39 35 49 33 34 42 36 40 38 42 37 36 36 30 39 45 39 33 45 31 46 36 41 25 39 41 32 38 38 47 35 37 21 43 48 34 29 42 37 49 36 26 30 44 35 38 37 32 37 38 40 25 45 30 37 43 39 38 41 22 34 27 38 38 31 40 35 51 34 37 20 37 45 35 39 38 26 40 29 34 33 48 33 34 45 34 46 32 45 30 42 34 34 38 50 41 46 39 52 37 37 41 33 42 40 40 37 46 42 39 34 39 40 41 39 39 37 36 30 35 35 33 36 35 22 26 33 42 36 32 45 32 46 32 30 25 28 38 26 34 45 38 30 40 32 35 34 39 24 44 41 44 32 35 40 26 42 45 37 46 44 46 27 36 38 40 35 42 42 27 37 34 38 30 40 34 30 43 40 35 31 40 34 41 27 40 31 38 33 28 34 43 34 27 28 29 38 26 40 29 38 41 48 38 40 28 42 32 23 29 41 38 44 38 37 43 36 42 45 33 46 34 31 44 43 24 29 44 41 47 35 35 38 33 29 32 39 42 43 39 46 41 47 33 40 35 36 36 35 46 32 37 40 25 35 35 40 34 38 46 42 36 29 40 42 37 25 33 43 36 35 35 37 40 36 37 48 39 35 35 31 34 48 39 28 40 41 48 29 41 35 33 38 39 33 34 36 36 34 35 41 36 38 29 33 40 28 37 38 49 33 33 30 30 24 36 41 39 27 33 41 35 30 45 30 43 35 33 37 28 42 40 47 45 30 33 49 34 28 32 33 32 42 48 49 43 30 38 41 39 41 37 30 42 31 41 30 39 33 39 30 46 35 45 33 32 30 39 46 28 37 38 45 29 38 37 33 41 32 34 30 38 35 38 32 29 25 42 39 40 31 35 29 30 54 36 32 42 36 39 30 40 42 27 40 48 29 38 31 33 34 41 36 40 41 37 29 35 37 30 36 38 39 43 33 40 37 40 41 25 38 39 44 36 24 38 39 41 35 38 47 35 38 46 34 22 44 39 32 28 47 30 43 41 32 38 48 27 42 36 34 35 46 34 50 41 34 49 31 31 49 43 41 41 37 43 40 28 40 28 35 34 37 34 29 43 38 27 38 46 24 25 38 40 33 26 36 37 34 33 35 30 36 28 39 34 41 45 38 42 36 38 35 36 35 41 39 36 49 37 32 37 36 35 38 24 31 23 33 29 31 41 28 41 55 39 35 35 36 44 41 44 45 41 39 36 40 39 38 35 41 35 38 34 37 44 44 41 38 46 34 35 36 44 44 35 29 37 41 34 30 39 36 41 44 28 34 36 36 38 33 35 36 48 46 24 37 34 33 40 31 36 45 42 41 34 41 37 39 36 37 33 41 38 31 40 45 43 36 30 32 40 36 30 23 40 37 30 37 42 30 35 35 36 39 51 41 33 39 34 37 26 34 38 44 30 51 41 46 24 44 32 34 35 41 41 31 27 40 35 37 37 41 42 45 47 27 30 48 38 30 32 34 38 26 39 28 28 41 42 33 45 26 41 37 35 40 35 43 37 35 33 49 32 32 30 39 31 40 34 36 28 36 36 41 39 35 47 40 31 44 33 37 45 34 29 40 32 41 31 37 45 38 39 37 56 39 43 35 43 47 41 35 31 31 42 39 40 37 32 40 32 33 46 30 33 35 36 43 43 41 38 39 28 32 34 30 34 40 39 41 49 42 34 26 38 29 37 30 26 32 45 42 35 37 41 33 35 32 32 32 38 40 28 29 42 27 34 41 32 32 39 45 36 31 40 33 38 33 35 30 29 35 40 45 36 35 31 40 29 43 45 34 35 44 38 48 34 34 35 26 44 37 42 38 29 33 27 56 39 39 28 34 32 36 45 33 36 43 36 45 36 42 29 34 32 32 36 36 38 34 36 32 37 49 29 32 42 36 39 35 39 48 24 33 39 36 31 40 32 36 37 38 39 21 35 31 40 42 34 38 37 44 37 34 32 35 38 51 41 37 40 30 50 38 29 38 32 47 47 41 34 41 41 38 35 31 32 29 41 41 31 47 32 30 40 32 33 31 37 43 40 37 35 26 47 40 39 32 45 46 35 39 39 36 37 31 37 44 39 36 39 36 49 43 28 27 25 38 37 35 30 34 41 39 34 38 36 34 37 34 26 39 38 23 41 35 28 42 38 30 34 32 47 29 35 40 32 50 34 37 43 35 28 38 36 29 34 36 38 27 44 43 34 34 40 40 39 41 36 25 48 43 39 32 27 38 32 36 35 36 39 31 28 27 42 53 42 43 47 40 31 21 40 31 35 35 49 38 28 36 37 37 37 33 45 30 36 34 27 38 44 35 43 25 34 39 40 26 45 37 38 37 40 54 30 33 26 40 37 38 38 45 39 33 33 36 37 28 39 43 42 39 26 34 39 32 45 34 42 38 38 29 37 32 39 36 39 46 36 38 33 33 32 30 34 24 27 45 34 43 24 32 38 47 34 40 31 24 43 41 29 37 38 39 29 26 40 35 28 45 37 36 39 34 38 32 34 38 26 40 34 30 35 39 34 26 39 34 45 31 30 41 31 35 37 43 37 31 43 35 37 28 28 30 46 37 30 32 26 50 33 32 26 27 33 28 39 44 43 32 33 38 42 34 46 31 30 32 32 42 32 42 33 44 32 43 30 35 40 39 39 39 38 37 38 27 45 40 38 38 33 48 46 33 30 30 32 39 32 40 33 38 42 21 36 40 35 38 32 30 45 37 32 43 31 32 41 32 33 30 39 40 39 35 30 32 39 35 37 35 34 35 30 35 36 39 43 32 42 41 22 39 35 41 40 35 33 29 44 40 31 38 43 42 41 40 33 30 40 36 27 44 41 36 29 35 37 35 32 39 34 41 38 34 39 31 40 29 46 36 33 40 39 42 41 35 36 35 41 24 41 37 31 36 32 44 38 35 35 36 31 27 47 37 26 38 44 49 35 38 44 32 36 28 39 39 40 36 40 35 35 39 40 39 35 28 46 32 33 33 40 38 33 33 30 34 30 33 40 43 28 44 21 37 39 30 42 33 33 42 26 38 40 40 42 38 34 33 43 41 38 43 37 32 43 38 46 34 37 34 41 42 34 33 36 31 40 40 34 38 30 36 32 43 40 39 30 26 36 41 42 42 35 51 27 39 30 35 39 27 28 33 36 29 31 35 42 45 30 35 42 37 33 41 36 42 43 39 34 23 38 41 45 41 39 28 42 35 42 42 31 48 33 37 34 38 39 35 43 39 28 40 31 47 35 43 40 40 41 38 35 26 30 24 44 34 28 33 26 32 37 39 39 27 39 35 44 32 31 36 45 38 39 39 32 46 43 47 25 50 47 42 36 23 32 33 36 38 24 36 35 35 31 29 38 33 29 46 40 31 40 35 36 38 40 33 28 35 38 44 44 38 47 34 34 39 34 51 33 33 32 35 37 38 38 43 38 36 52 34 32 40 39 31 24 45 34 32 38 31 29 26 44 30 43 38 32 28 29 36 38 27 33 33 35 45 43 37 36 39 33 33 40 38 28 42 43 36 33 39 35 21 28 46 42 32 34 34 33 34 37 29 34 31 38 30 38 33 29 40 28 30 30 41 40 41 37 41 46 40 36 32 37 27 38 36 33 47 34 28 25 44 41 36 37 33 31 33 42 23 42 34 34 31 23 43 35 29 26 48 42 32 33 38 35 34 40 41 36 45 42 31 24 33 41 28 37 37 36 42 42 42 36 35 38 29 32 28 38 41 39 28 30 44 32 35 45 33 33 35 45 49 32 30 36 36 44 25 29 40 43 30 32 35 35 31 28 40 33 38 31 39 35 34 29 38 35 32 34 32</t>
-  </si>
-  <si>
-    <t>JSB(2.2947355942956826, 5.966254155725073, -233.67619186826914, 1173.1590392494543)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 262 276 235 226 227 179 273 208 295 243 282 238 241 298 177 289 298 184 159 256 215 264 145 211 320 212 297 288 230 194 205 260 219 284 354 245 213 205 220 233 321 325 297 288 245 181 229 178 290 260 244 233 350 235 269 252 298 312 268 242 233 210 188 236 221 292 240 237 275 188 236 230 242 229 195 138 257 225 243 317 219 215 328 313 280 246 255 181 257 162 286 356 190 175 282 185 194 233 253 279 217 314 338 228 283 207 228 236 269 199 190 266 191 214 286 242 277 227 296 245 324 164 237 333 223 294 259 219 216 308 236 207 291 168 282 280 338 157 250 161 204 171 263 202 316 349 280 210 275 229 214 267 226 189 242 186 179 217 334 142 318 315 261 238 265 211 275 163 228 182 283 347 188 294 256 185 311 187 283 223 217 244 229 200 175 238 229 290 273 132 229 283 147 271 155 286 245 261 233 288 275 367 236 268 314 206 224 233 185 259 186 245 169 292 222 252 300 233 278 140 301 315 225 308 205 304 336 201 290 324 274 254 229 207 309 202 261 233 264 250 244 245 146 277 347 258 219 333 242 236 308 204 163 333 216 208 296 249 209 220 171 304 353 277 270 269 232 226 240 295 201 236 203 220 264 164 297 246 148 311 183 208 270 248 190 238 189 243 333 259 232 196 280 281 229 332 291 257 300 257 283 235 279 137 359 289 224 194 235 223 236 248 274 215 322 236 212 182 256 275 200 245 149 168 274 162 237 279 215 250 231 244 168 311 234 236 171 246 254 278 241 309 197 169 305 223 229 287 263 224 291 173 373 290 224 205 239 241 232 254 259 272 295 287 333 195 266 207 320 267 320 130 240 210 275 213 290 208 211 257 260 174 231 298 168 191 279 284 180 304 259 247 282 231 305 188 233 264 268 268 194 230 190 241 222 260 246 229 351 282 297 186 275 186 200 238 349 220 272 273 270 241 295 265 160 191 301 237 262 289 247 292 216 207 172 272 218 181 319 252 214 287 252 238 212 243 295 227 170 256 240 293 238 269 229 278 247 227 187 233 251 213 311 267 321 335 241 239 226 343 269 260 268 235 208 152 243 255 286 253 278 246 177 278 231 283 221 173 222 288 259 270 362 225 282 196 163 253 240 297 268 297 296 196 233 298 317 224 251 236 204 321 313 200 230 171 270 189 300 254 316 210 313 217 145 252 302 273 172 174 226 204 277 235 333 140 248 223 353 236 309 280 292 313 282 227 176 269 213 196 211 222 176 208 225 266 273 228 233 234 206 201 203 262 193 222 215 271 176 238 281 242 259 207 270 269 263 189 246 241 266 195 236 220 276 252 171 271 222 169 304 213 254 237 294 146 170 225 244 164 269 224 260 292 312 273 234 224 212 282 327 276 202 232 238 211 123 195 184 309 263 216 203 227 213 156 280 176 190 250 234 243 260 237 211 354 245 267 216 237 238 280 237 243 216 274 286 239 226 223 188 168 267 255 231 210 239 279 249 162 245 183 321 253 299 254 204 243 294 321 270 260 181 266 258 207 182 253 235 259 311 185 205 305 138 197 287 209 291 203 244 271 258 261 250 260 278 228 235 277 304 267 276 213 298 135 267 244 295 304 215 221 218 340 163 203 239 256 300 200 238 254 252 206 271 278 139 290 258 325 302 184 215 202 315 233 291 227 248 272 217 290 160 210 193 235 279 224 269 280 261 224 183 257 241 147 339 253 299 267 195 176 203 170 285 224 298 346 342 136 205 318 183 235 330 328 238 263 296 229 275 273 236 337 294 262 235 349 218 238 292 209 271 190 257 268 214 207 277 187 197 188 239 217 175 258 271 302 277 282 200 201 160 272 314 328 249 224 289 239 282 256 258 271 181 159 215 163 180 241 269 303 282 253 245 202 221 267 304 213 322 274 304 289 251 131 272 229 218 237 194 220 268 168 225 168 224 133 328 239 243 262 239 280 188 316 361 228 257 261 270 352 265 184 300 178 257 302 192 261 245 294 350 215 160 267 252 291 370 293 234 284 207 347 189 316 244 274 262 272 222 263 251 216 248 227 207 296 206 262 238 208 245 200 180 208 270 240 205 236 323 251 260 285 199 287 292 290 247 229 174 245 314 174 312 233 218 243 306 137 240 207 183 263 250 225 228 272 219 214 291 202 252 258 309 186 339 225 269 230 229 310 255 277 203 186 309 266 244 329 229 284 221 289 266 272 268 299 193 188 259 282 200 283 214 252 155 274 232 262 298 209 110 161 275 182 331 204 216 253 278 152 158 223 150 209 194 292 275 230 233 265 264 295 263 236 285 186 326 244 217 270 173 227 194 237 153 195 213 222 219 274 136 175 233 338 180 302 194 173 212 259 206 278 208 155 259 246 237 229 217 228 219 221 258 263 269 244 169 175 215 238 173 209 211 272 259 225 245 277 317 242 196 263 201 249 272 293 268 220 204 267 305 324 307 190 186 166 188 312 239 229 194 202 202 128 176 198 251 143 256 246 240 215 201 316 269 216 240 271 259 338 350 185 183 331 215 233 240 289 303 326 235 238 133 190 246 275 249 188 258 249 196 274 250 244 214 201 264 215 214 232 242 312 256 222 240 192 261 329 213 296 223 169 269 291 218 271 273 232 321 169 228 222 215 197 185 270 245 255 325 270 198 192 281 302 254 242 238 292 263 278 199 243 159 206 257 303 209 230 243 235 212 213 214 233 249 165 248 259 233 243 269 243 282 167 334 181 215 208 208 272 234 259 238 255 170 174 200 218 199 267 231 238 250 263 253 194 177 258 203 329 163 263 237 226 278 282 198 311 264 274 227 308 217 213 308 205 269 236 250 180 207 276 194 399 290 183 227 276 345 191 186 235 237 199 252 259 267 238 307 274 138 143 288 224 367 245 160 318 183 215 298 257 261 176 242 246 129 238 126 242 233 221 141 392 211 192 260 218 266 249 169 226 211 202 250 291 233 326 199 227 199 257 285 197 239 320 274 219 223 291 308 196 294 229 181 205 237 240 272 300 298 243 193 195 164 234 176 235 295 269 311 206 325 245 214 196 284 285 285 212 189 226 262 226 288 234 280 298 165 287 204 209 170 210 317 323 243 169 286 240 273 253 223 148 251 255 317 249 242 173 220 278 216 208 287 259 216 197 275 295 318 244 294 308 231 228 268 213 264 218 316 214 250 194 302 222 207 208 191 223 274 195 192 310 201 242 216 215 243 223 301 185 246 275 176 288 300 217 333 192 228 171 248 251 243 326 161 187 191 201 286 236 232 245 329 235 246 235 191 239 313 317 224 203 242 240 264 183 230 231 248 248 317 210 217 276 249 205 315 339 219 279 309 315 278 181 276 231 186 271 281 185 219 182 188 269 257 331 251 234 277 255 174 151 366 172 282 327 303 204 254 235 300 222 289 290 296 255 237 267 293 261 337 226 203 283 212 194 234 200 240 291 232 201 281 306 311 277 225 193 190 222 233 228 246 206 224 299 189 255 260 253 245 267 261 219 192 241 285 260 250 234 224 261 277 219 212 247 235 189 235 288 250 247 202 260 211 276 218 400 215 232 222 239 173 233 272 146 193 180 165 231 175 188 250 269 281 365 189 233 272 222 262 231 214 272 224 330 200 275 292 182 376 236 273 252 255 262 240 232 260 336 268 285 234 315 107 286 244 219 196 260 225 220 174 338 257 300 280 285 208 289 177 313 175 278 306 235 305 200 222 211 202 138 206 243 198 177 236 226 227 250 241 221 273 219 306 197 227 218 286 253 148 303 258 248 218 155 226 192 291 190 177 188 306 240 305 136 305 293 229 184 301 222 223 216 236 216 311 316 315 146 209 313 316 263 212 375 305 309 210 249 328 195 219 214 252 264 210 221 323 260 352 257 259 286 351 215 300 242 279 287 252 264 206 194 243 293 262 221 227 278 262 238 297 356 180 279 276 250 201 295 197 261 232 303 270 178 190 310 220 239 143 259 259 231 241 214 205 240 216 242 235 188 145 296 300 193 207 256 242 203 157 223 272 178 248 227 252 193 181 184 299 157 254 316 187 309 302 353 267 195 191 182 234 192 202 266 292 159 275 209 206 267 257 222 170 225 226 290 289 272 311 290 221 254 134 259 230 200 343 296 216 223 280 289 212 278 167 219 181 316 210 256 222 264 137 249 322 201 295 223 272 375 149 265 162 190 244 280 294 180 223 238 243 266 232 318 212 262 184 167 251 241 236 344 278 239 260 218 247 217 234 273 260 283 231 263 262 274 232 246 251 219 250 211 220 267 166 220 276 236 244 207 244 279 220 236 246 245 251 216 299 199 239 152 260 309 204 282 234 168 236 254 208 219 220 158 219 150 290 263 192 327 218 246 320 241 209 223 301 285 277 261 286 329 162 228 196 247 244 359 202 231 259 294 346 247 277 235 187 133 191 338 246 211 219 272 283 353 263 318 272 176 210 299 236 259 283 266 308 289 233 239 291 296 270 179 243 203 192 203 237 241 224 229 265 206 242 203 300 197 151 242 362 258 204 196 204 214 296 274 296 271 302 175 256 216 372 258 220 193 303 210 230 341 183 221 207 213 207 237 258 262 342 196 245 168 212 266 194 257 187 228 141 266 207 254 304 223 235 242 251 203 301 191 219 236 224 261 183 247 309 262 250 262 194 198 239 217 236 174 226 270 288 275 187 242 251 254 223 192 276 228 356 218 290 301 233 192 285 203 251 352 289 200 179 211 207 124 165 194 254 242 226 230 256 340 274 209 187 239 308 256 222 296 184 253 248 320 187 246 187 195 213 295 286 263 299 286 237 294 281 206 240 187 273 305 212 226 168 165 254 236 235 260 202 231 223 292 246 208 222 183 236 300 328 247 263 245 319 282 288 199 314 213 304 195 199 259 218 248 316 229 194 264 241 217 239 204 255 225 254 255 182 254 217 242 316 246 272 238 225 241 250 262 196 371 175 226 285 230 222 186 274 322 204 219 220 199 284 301 309 193 290 263 231 244 307 172 222 235 225 239 226 273 281 203 197 203 219 217 177 187 204 150 363 283 234 260 272 232 266 186 246 195 242 293 252 211 236 196 308 313 234 278 279 183 182 315 302 233 240 294 275 193 181 247 237 292 214 185 255 226 256 183 185 214 272 308 260 280 275 291 234 158 239 187 247 199 296 325 234 276 256 381 216 246 272 224 272 306 218 246 273 208 299 169 244 176 275 258 209 325 253 267 209 229 294 258 171 240 204 310 203 269 190 288 264 224 257 171 307 215 263 258 146 172 121 336 271 243 231 179 233 218 226 287 270 242 255 194 303 219 205 290 261 364 247 297 296 309 253 272 270 325 274 266 152 236 198 299 188 235 286 241 233 270 187 311 202 310 271 201 263 267 246 263 199 172 270 238 235 243 238 292 202 273 309 275 98 207 186 312 229 206 264 215 178 257 174 277 231 167 257 255 332 256 331 215 261 315 240 282 304 199 185 200 280 256 253 220 248 237 157 209 188 229 195 192 213 177 231 155 169 240 220 198 223 271 309 168 258 313 176 234 178 214 218 206 229 317 321 286 258 211 203 223 303 261 269 229 222 233 302 185 290 222 220 272 217 185 293 213 217 300 208 279 163 265 267 335 214 159 257 260 229 209 249 232 206 198 302 257 217 202 263 226 249 250 186 245 256 313 167 327 280 309 198 284 270 286 298 201 288 239 323 159 266 268 255 266 241 279 159 278 295 294 263 268 234 218 320 223 279 252 258 268 267 199 188 311 242 287 264 317 227 299 245 233 328 292 220 316 238 239 185 285 254 253 251 284 281 284 281 294 226 161 225 286 216 196 278 138 151 237 212 203 193 197 276 253 218 264 201 199 243 283 334 227 307 294 220 352 243 262 216 237 207 214 157 229 202 346 347 252 221 188 262 320 175 252 194 289 176 280 316 249 279 224 279 332 225 121 302 259 274 322 222 188 229 262 184 237 155 276 237 212 241 202 238 284 260 180 271 210 272 208 197 322 239 248 267 203 337 188 286 210 329 222 211 174 204 210 286 196 239 185 323 199 267 299 214 168 154 250 271 197 320 162 202 327 240 148 285 160 256 269 142 278 235 165 288 325 153 211 188 321 286 261 168 310 294 268 182 278 236 330 218 230 329 256 233 244 235 324 269 244 179 288 333 123 245 313 258 211 203 227 175 190 240 209 256 270 297 281 220 256 230 184 232 233 343 284 140 250 232 221 227 263 260 232 286 251 312 286 230 250 337 226 262 309 275 259 217 311 193 236 288 260 286 243 284 206 259 206 212 212 264 175 283 277 157 294 291 293 201 245 258 221 237 378 256 328 253 288 281 155 200 314 280 196 273 250 194 236 247 73 286 271 389 184 296 242 192 349 266 282 288 230 187 244 184 219 217 304 317 231 197 291 229 270 212 216 176 217 276 296 267 295 236 222 175 233 264 224 264 240 234 230 173 287 212 246 173 260 288 177 213 274 204 175 306 189 209 216 331 216 257 168 295 217 285 210 240 322 346 195 246 347 195 256 205 247 205 286 177 285 219 314 250 253 226 223 209 301 225 250 209 175 188 355 292 271 220 230 200 247 205 186 170 327 192 249 282 227 150 276 166 268 231 172 288 211 250 188 269 270 278 239 231 226 224 213 255 227 133 223 201 154 226 227 201 166 224 233 334 266 271 278 262 186 301 194 187 145 170 296 229 327 306 253 267 296 249 148 301 200 284 262 265 239 240 252 267 271 198 326 217 191 248 190 212 199 277 246 245 270 303 315 252 280 265 334 297 202 264 151 326 229 209 269 160 204 209 232 249 191 253 232 369 197 373 321 314 289 247 198 296 246 184 172 286 315 167 263 261 227 264 265 215 173 166 261 194 296 267 240 155 284 172 179 245 232 230 205 289 282 293 225 310 245 323 213 275 243 209 270 255 239 229 171 268 259 210 226 300 236 230 251 240 321 223 148 249 235 283 249 258 216 211 191 285 272 151 265 287 357 225 309 223 233 217 237 208 250 293 157 205 299 157 246 208 253 309 216 223 259 273 205 236 300 165 234 224 292 227 187 217 331 309 245 201 265 298 222 273 196 231 163 224 237 334 222 257 215 203 303 332 328 179 303 258 192 196 247 224 255 249 197 174 383 281 280 176 248 253 228 220 236 260 289 227 284 245 322 286 189 284 237 281 284 257 244 235 214 320 263 201 279 303 231 256 229 208 321 235 273 369 177 295 237 263 322 279 320 148 203 257 227 273 173 186 216 223 259 198 200 252 202 286 223 272 398 308 288 286 248 253 247 214 265 243 269 234 247 250 204 241 283 201 226 182 268 252 258 244 212 227 319 194 203 351 198 328 219 280 167 114 206 173 320 254 230 247 262 183 258 228 250 307 252 279 269 207 274 271 305 268 238 318 242 172 183 213 303 200 239 227 178 260 133 249 202 228 270 231 216 272 255 140 178 264 225 250 274 247 337 223 248 220 231 160 222 316 259 224 255 321 233 247 224 250 208 262 258 260 132 220 232 250 131 291 303 307 232 305 168 175 224 195 248 145 303 196 235 217 260 234 196 279 187 243 187 250 236 219 257 165 262 204 190 189 235 289 153 228 272 253 245 238 262 223 288 230 224 188 242 145 309 276 193 196 215 183 238 236 204 252 213 253 247 121 255 278 132 250 260 356 226 190 217 216 339 224 234 259 281 247 204 227 235 336 250 279 259 333 274 255 259 217 200 196 143 179 269 273 203 233 295 195 244 146 215 238 279 230 232 324 238 178 199 223 138 229 325 256 304 205 236 162 206 240 270 209 238 308 194 233 258 266 267 275 171 279 245 250 292 112 260 241 256 202 310 269 289 138 260 261 259 125 206 273 216 208 250 307 250 242 239 213 373 247 296 278 264 225 284 346 300 156 238 275 196 302 138 231 260 219 192 316 218 238 233 294 220 214 306 322 261 295 206 246 280 260 318 255 194 212 202 282 294 169 267 383 177 301 192 163 290 180 260 279 240 208 246 282 212 255 266 207 224 261 142 262 209 248 284 228 309 238 323 300 235 231 180 239 252 225 323 232 193 204 159 294 216 235 330 230 234 220 236 255 203 150 217 199 207 301 249 200 197 274 143 303 349 188 217 298 245 282 231 186 345 264 227 278 274 237 196 242 282 339 197 159 197 232 197 216 129 280 169 257 273 210 319 187 195 227 261 197 223 166 226 236 223 245 232 238 218 167 219 250 250 234 210 233 217 191 287 175 246 255 170 252 159 183 205 238 306 297 321 263 281 285 222 262 256 219 222 230 199 248 202 228 273 237 311 248 141 259 259 208 251 239 282 285 257 244 218 235 249 272 226 207 229 170 216 285 271 257 262 224 243 237 252 271 254 209 256 245 274 259 220 259 243 291 189 251 215 322 228 221 315 290 237 300 262 258 259 272 245 352 169 226 200 207 253 319 252 305 289 128 274 301 287 240 319 214 236 175 234 188 292 295 226 299 220 264 288 315 307 243 192 174 238 214 316 135 266 222 236 189 234 185 273 323 303 231 177 241 234 213 215 305 266 268 264 268 177 234 279 342 253 301 197 322 183 200 270 352 289 265 240 266 278 292 281 265 308 336 294 287 300 285 188 302 238 286 227 332 129 281 245 274 213 295 169 192 234 328 254 214 259 210 204 285 277 245 220 248 319 282 253 319 136 263 252 196 211 244 214 258 146 238 184 130 281 210 158 230 259 321 254 279 219 276 187 289 259 331 290 276 210 176 190 263 158 291 297 198 302 307 143 230 259 175 256 177 279 282 278 249 164 233 196 229 185 274 282 267 266 222 228 211 324 162 224 267 222 208 271 219 251 291 245 311 195 154 174 258 218 262 263 216 187 246 149 344 219 242 251 260 227 169 243 257 283 275 300 270 255 232 247 312 262 228 356 302 201 270 298 283 260 276 256 138 302 285 271 249 288 182 295 237 217 269 289 280 246 317 294 192 209 204 241 163 137 229 251 292 198 250 270 286 295 259 187 185 186 195 302 241 177 266 242 295 259 212 252 227 271 249 288 256 149 185 348 259 294 189 264 264 196 225 245 273 250 257 155 257 162 212 141 256 229 349 231 210 212 214 258 227 176 253 245 171 180 145 167 310 313 258 226 297 232 242 175 267 210 248 226 189 313 183 246 246 266 320 215 266 278 206 178 257 205 197 297 313 287 248 258 221 256 164 232 175 229 262 229 267 304 196 191 247 221 277 310 250 391 241 313 283 208 236 191 350 213 330 159 295 306 174 260 272 233 181 255 261 291 177 204 266 228 295 236 275 210 240 331 279 206 152 257 195 178 239 240 172 289 354 322 178 276 175 231 358 247 209 258 202 208 262 172 206 281 210 192 255 180 266 286 332 231 271 240 266 257 377 231 208 167 237 160 262 184 285 231 190 296 254 329 251 289 245 196 157 309 252 248 299 208 152 272 239 293 364 243 285 202 257 225 260 326 274 248 228 173 179 226 355 239 281 231 293 235 313 219 237 274 166 174 228 151 213 145 264 288 275 243 213 211 295 305 213 308 188 204 241 146 189 239 143 297 268 167 211 292 296 296 186 208 175 312 193 245 265 290 240 236 185 257 307 176 203 223 185 238 226 233 207 264 280 222 277 228 185 151 212 232 194 278 287 254 145 201 367 271 272 241 243 182 269 189 226 288 242 281 241 174 190 237 302 238 227 198 194 195 168 220 267 274 268 207 161 283 231 214 304 246 204 246 282 293 312 285 317 197 222 270 161 240 202 214 216 237 244 236 214 182 258 196 259 178 296 215 279 328 139 192 248 302 229 192 220 271 266 213 155 224 172 316 270 292 166 275 172 279 317 242 232 302 217 239 253 247 244 215 200 148 243 173 330 246 258 364 263 227 219 283 225 334 147 247 220 254 243 240 131 205 210 262 199 251 229 230 269 231 257 244 244 173 273 294 290 253 194 229 227 225 252 279 219 304 269 334 272 204 225 184 179 230 224 252 160 262 233 198 292 283 312 216 274 199 261 202 167 317 159 258 224 222 189 279 201 227 332 278 261 254 260 276 268 229 269 310 251 258 266 292 272 201 209 177 260 208 287 255 252 256 303 174 205 250 272 142 252 208 305 162 245 225 226 300 279 215 207 299 266 281 243 210 283 296 342 249 280 203 240 232 243 214 269 305 142 169 283 247 216 199 181 259 260 242 259 255 305 211 224 314 252 231 193 239 244 214 189 270 233 220 180 223 321 208 196 126 179 234 269 241 334 266 264 278 241 254 208 228 216 249 255 220 277 296 191 258 192 190 159 260 196 222 179 255 248 229 299 200 315 300 211 221 284 260 157 145 186 262 400 226 248 72 182 237 197 258 217 170 217 184 214 202 270 200 221 294 306 171 212 247 268 273 233 175 274 314 247 215 232 211 181 188 269 134 184 207 319 233 263 251 270 147 300 278 279 194 217 230 195 251 200 208 202 209 300 172 215 263 208 203 296 243 306 219 244 270 302 131 301 260 297 255 243 320 388 347 317 257 154 208 238 321 218 220 307 247 218 195 256 252 239 220 271 202 223 149 256 245 269 244 211 252 198 248 182 240 242 234 161 301 203 231 203 240 205 201 303 289 255 307 206 292 290 284 208 199 279 234 266 196 290 252 159 217 217 160 301 237 195 313 149 215 242 211 234 263 254 324 253 213 249 237 316 277 226 192 205 236 161 143 268 198 200 349 228 236 184 218 239 176 212 236 276 261 270 240 286 202 301 249 223 306 205 240 181 191 240 269 211 243 212 177 270 229 357 251 225 265 220 267 282 215 181 242 243 232 229 248 202 290 222 281 233 189 214 227 216 318 277 281 235 273 235 250 260 249 282 290 198 181 259 177 256 292 244 232 209 224 263 318 229 240 257 214 244 211 188 131 221 194 312 148 289 266 224 255 313 160 318 296 182 184 250 174 328 171 243 305 238 211 345 240 254 203 189 254 304 264 243 244 146 266 138 188 174 276 226 339 208 207 252 250 300 190 180 231 225 286 229 189 222 166 280 211 139 197 222 224 290 193 308 220 231 223 277 248 301 195 225 192 275 202 307 292 265 252 220 274 291 193 228 255 178 280 251 196 208 252 254 183 332 277 290 241 156 199 209 300 256 263 177 237 202 176 271 223 290 247 292 212 285 210 183 247 278 263 112 202 243 365 343 159 113 251 238 292 297 223 325 271 188 233 245 251 287 208 252 205 296 231 329 343 221 233 320 315 240 215 288 303 201 230 239 232 265 293 356 249 273 268 263 294 254 235 213 246 159 293 268 206 249 256 198 205 253 249 379 202 299 259 239 254 285 257 184 315 212 284 226 186 289 255 277 292 292 267 277 226 196 230 279 215 255 239 225 298 273 198 278 209 323 335 287 247 241 126 228 289 277 355 166 252 191 285 267 261 154 254 349 213 227 201 216 269 265 213 253 304 252 256 186 248 265 239 219 235 245 237 167 198 266 280 240 230 206 224 248 295 197 269 286 228 290 176 189 245 304 172 260 214 238 183 207 206 174 163 192 211 273 232 256 197 277 299 180 261 188 286 239 236 305 224 280 210 164 182 225 235 240 288 243 261 247 310 261 249 208 214 205 236 281 263 201 219 242 184 229 265 286 156 265 258 265 220 241 302 258 226 195 268 220 164 194 292 225 204 294 197 186 197 231 197 200 196 180 220 143 178 272 276 199 190 224 209 302 265 231 253 230 181 253 235 199 161 273 224 180 246 182 301 180 273 349 250 204 199 280 323 296 232 256 202 321 155 244 241 270 257 322 211 192 271 314 125 201 239 238 280 290 187 244 177 258 396 161 245 349 270 241 303 311 198 301 322 246 310 285 262 279 267 281 281 307 194 305 242 277 312 234 209 303 279 250 276 170 244 222 207 265 279 291 113 194 240 200 169 231 212 277 358 162 217 233 220 153 161 213 256 249 251 176 288 378 258 277 263 303 217 200 166 244 296 282 176 237 255 144 171 167 240 207 304 277 299 226 210 262 250 255 283 169 194 255 154 243 240 270 288 174 276 256 213 190 211 311 184 218 278 148 310 362 264 215 286 213 295 278 224 354 185 236 280 198 330 235 306 232 202 251 234 284 232 246 165 259 207 262 178 342 230 284 299 232 231 230 185 299 278 292 206 228 242 268 225 274 323 229 236 197 241 246 287 298 232 138 212 231 287 197 193 242 183 262 271 227 246 191 319 210 361 306 334 278 225 237 186 272 267 207 270 273 308 275 183 292 267 239 321 256 255 384 229 217 250 341 221 287 153 294 276 282 182 197 184 278 223 178 227 185 164 224 274 263 194 344 224 179 243 173 244 251 268 152 299 343 271 247 255 191 322 277 292 281 118 224 260 242 360 315 216 294 317 267 296 248 222 273 243 289 292 283 269 174 224 218 197 250 214 166 329 241 237 229 281 258 290 278 301 236 272 272 241 253 148 316 355 287 268 288 241 306 261 213 332 347 223 246 258 299 265 256 270 265 337 213 234 181 289 319 268 178 231 239 262 214 262 264 241 251 254 279 131 166 221 205 257 309 224 235 272 287 270 261 308 250 280 230 197 241 259 235 184 186 248 211 253 357 221 213 176 226 234 273 263 249 237 153 225 244 153 261 258 219 225 334 178 262 221 274 300 276 211 172 254 201 218 191 153 257 164 181 339 257 186 188 208 246 190 315 249 251 234 234 236 256 235 218 265 310 340 311 244 213 243 179 321 201 253 253 319 226 241 283 219 300 278 180 310 164 200 283 293 266 360 223 327 221 293 240 282 202 209 265 237 242 258 245 255 197 198 180 234 208 161 262 200 290 218 236 215 248 223 283 228 274 281 203 223 291 204 283 279 223 238 247 161 186 247 332 230 205 216 240 249 292 273 220 270 223 268 269 374 239 174 222 279 239 191 315 152 126 202 266 291 272 233 203 159 189 226 243 210 190 252 256 233 235 191 247 219 134 212 241 178 314 207 137 354 226 234 199 203 246 228 178 348 228 153 297 246 269 178 277 261 251 247 207 230 263 191 296 291 274 212 303 225 224 200 257 323 234 165 206 268 276 195 182 207 288 273 287 249 252 155 150 283 309 243 156 297 272 269 213 229 184 241 231 211 234 241 270 254 263 257 253 327 302 215 270 303 203 194 257 249 210 270 205 256 189 256 154 238 298 203 258 218 272 236 283 290 199 289 216 131 234 291 201 219 259 272 200 171 252 265 240 132 215 288 162 221 319 260 232 258 228 331 315 284 244 318 312 188 312 243 250 280 238 195 239 252 279 279 267 226 275 230 221 199 236 222 295 180 243 345 177 190 209 144 273 235 176 291 295 217 225 250 319 217 289 301 232 288 186 214 236 255 269 265 209 159 220 273 270 217 294 241 277 267 258 222 288 177 305 210 256 249 288 283 244 267 256 230 225 267 307 369 259 204 227 199 183 200 211 192 229 329 255 168 215 216 249 198 238 288 268 178 266 208 150 227 157 151 211 250 200 280 209 226 266 263 235 227 249 265 243 144 256 243 328 292 271 232 230 277 251 202 290 213 201 329 171 249 223 270 276 208 216 121 215 192 172 245 249 190 276 293 176 252 239 197 240 122 242 175 338 282 260 130 273 293 285 185 218 178 277 210 242 248 280 249 129 234 182 183 221 295 237 219 290 322 303 239 172 217 188 185 232 304 197 270 318 228 201 273 203 286 296 235 184 240 159 234 211 264 207 291 186 223 217 211 248 183 220 281 193 305 249 119 226 296 150 268 211 303 262 205 228 231 239 220 197 256 264 211 260 243 222 238 208 228 244 312 149 259 238 291 294 321 224 197 354 176 188 281 154 209 223 344 248 207 258 245 235 205 287 205 202 261 170 267 293 219 226 249 131 327 199 216 228 208 199 151 300 198 200 233 290 313 208 285 208 280 265 284 251 183 285 274 215 211 262 256 201 229 166 240 190 286 164 234 204 149 218 252 196 214 251 229 213 259 231 204 258 216 242 290 208 204 243 251 240 344 188 182 295 375 242 249 133 249 255 233 245 192 214 259 259 205 240 228 274 253 181 272 204 213 163 218 316 214 283 229 234 265 248 264 207 162 230 263 159 364 279 324 249 310 275 214 204 270 160 227 227 279 282 229 226 277 237 347 226 250 198 276 229 328 214 155 186 268 218 183 217 326 310 184 251 261 304 253 288 156 258 195 178 199 211 190 202 306 227 220 247 238 167 201 180 211 181 212 310 216 256 258 290 220 284 239 172 234 202 264 216 210 273 313 195 265 219 262 300 301 230 252 244 232 245 251 265 284 276 302 207 205 243 262 279 221 193 219 283 232 292 294 198 261 232 287 228 181 246 302 168 268 327 302 199 382 270 355 333 281 234 267 247 210 233 256 238 197 334 265 173 260 164 220 228 275 301 215 185 223 217 220 313 175 239 196 234 152 182 127 221 223 250 194 321 208 257 232 248 319 97 210 314 351 230 137 221 284 207 210 223 227 258 278 279 274 255 191 224 220 187 231 178 241 300 214 288 136 230 262 271 322 227 95 217 326 250 261 223 221 247 289 245 288 211 237 169 184 274 258 121 145 263 226 197 206 149 183 162 243 273 241 259 259 226 254 239 225 261 287 255 243 305 256 265 162 218 286 381 305 260 217 227 323 193 227 145 299 239 210 233 340 221 213 232 265 255 154 234 322 220 218 334 189 222 208 276 273 193 210 210 153 301 192 213 183 275 189 204 230 251 245 163 281 280 249 251 271 217 278 213 190 135 223 251 276 288 292 221 220 230 242 186 162 213 292 252 227 277 231 262 263 163 261 169 338 191 238 171 331 167 279 182 299 218 363 159 200 203 285 249 279 236 280 232 145 282 175 208 231 242 171 219 208 286 246 241 274 261 235 257 215 233 234 208 270 272 248 238 170 160 257 207 243 243 224 316 248 159 225 282 250 212 233 229 284 275 273 211 270 265 231 242 244 352 208 241 193 229 254 191 247 307 211 240 261 258 222 238 299 218 295 204 308 218 259 227 217 196 316 261 198 269 239 223 179 288 264 349 290 307 188 315 234 296 257 159 222 148 140 150 255 273 233 215 213 291 237 208 220 194 295 237 237 267 259 277 276 315 255 140 245 261 256 249 315 266 318 288 203 267 161 215 188 267 291 248 241 249 257 242 264 244 322 197 244 223 222 204 223 245 338 189 264 235 169 254 206 170 285 249 304 213 268 271 283 275 206 192 258 187 254 224 215 187 289 250 180 341 221 224 241 116 237 216 179 247 362 252 258 218 204 324 185 220 256 221 205 248 294 196 183 217 181 223 195 309 219 212 254 179 285 148 254 186 277 244 263 288 275 248 217 229 177 203 278 289 161 256 234 177 241 220 245 269 247 218 196 201 212 241 229 247 270 169 260 203 175 260 152 302 286 231 297 218 245 267 185 284 284 258 241 249 285 293 306 250 274 195 299 229 259 247 239 233 204 180 354 247 221 269 224 318 299 245 177 315 256 284 261 280 231 191 213 264 192 275 193 174 203 201 290 332 243 184 281 304 254 221 188 315 235 177 210 255 235 239 210 337 313 286 260 231 225 374 244 230 250 248 215 229 250 199 125 176 217 263 189 252 211 308 189 218 265 218 283 331 226 286 197 240 255 331 237 186 242 243 200 340 193 221 267 265 335 209 241 241 202 280 338 293 218 264 212 286 321 208 209 286 198 304 207 296 295 258 255 245 302 225 251 174 203 242 203 161 240 216 244 265 307 204 234 220 236 154 205 255 236 216 264 233 267 151 150 230 186 140 227 362 206 211 222 220 229 173 321 247 185 280 232 257 258 207 188 237 302 191 225 182 142 271 188 208 229 186 169 208 325 203 291 201 325 167 199 275 201 232 217 259 310 224 255 171 214 312 204 305 236 302 293 257 220 344 252 198 211 247 238 237 210 231 266 218 230 293 214 276 269 219 232 238 262 263 226 280 214 179 181 287 243 161 223 255 222 197 272 293 197 285 141 200 180 217 226 272 253 207 146 229 232 271 222 263 276 207 309 217 236 265 251 231 189 303 244 290 224 245 228 214 120 154 246 300 189 232 294 260 216 276 196 161 255 211 186 230 328 255 281 291 256 330 259 258 287 208 308 166 246 285 208 215 159 244 285 267 206 166 244 287 257 248 287 241 259 290 212 179 301 249 285 258 194 194 261 344 180 280 159 253 241 219 231 165 217 223 323 253 143 207 260 273 329 242 312 239 254 254 264 254 307 263 343 215 264 288 219 153 222 319 199 213 287 232 129 205 250 240 257 240 252 189 251 176 260 236 231 162 247 216 229 266 221 343 210 223 333 271 252 240 250 288 156 260 206 291 260 137 198 227 233 312 243 312 168 295 344 198 293 256 236 335 257 250 218 149 235 207 276 172 161 212 285 254 178 191 259 300 272 210 248 215 277 222 162 190 255 262 271 294 258 216 212 175 303 153 273 140 213 217 232 274 282 278 305 235 267 350 219 192 283 225 260 306 260 247 279 304 231 232 252 234 179 205 245 179 204 267 197 354 213 211 275 218 327 238 238 198 224 186 284 187 215 280 333 242 231 213 290 161 255 306 237 206 218 225 274 259 253 285 305 234 231 155 211 223 301 273 236 244 156 301 242 184 288 172 162 221 223 276 316 233 229 219 235 227 239 226 243 353 282 232 312 259 213 224 228 209 199 281 209 197 192 167 270 202 206 252 153 289 192 301 207 241 254 267 220 280 254 299 334 277 274 220 195 234 261 198 248 318 245 276 199 235 267 219 341 275 280 218 265 272 293 242 225 263 231 299 225 198 270 228 223 243 265 179 287 295 147 260 259 201 158 137 235 227 296 188 198 223 272 147 235 282 275 237 288 151 206 284 237 229 260 293 246 203 253 228 195 258 349 286 250 307 227 233 244 205 226 354 217 270 332 246 245 254 219 267 233 150 339 274 305 215 208 248 295 250 190 181 241 212 259 245 244 230 149 227 231 271 234 287 245 278 221 231 265 291 224 150 289 190 188 149 235 308 232 222 218 180 324 225 168 240 204 280 269 292 236 242 334 240 268 213 161 297 338 196 316 107 254 219 267 239 215 304 252 197 216 368 186 257 247 287 215 210 205 185 231 253 245 253 201 344 220 284 230 205 241 215 184 194 172 282 263 316 277 212 248 230 204 298 302 271 249 225 267 249 197 224 244 281 190 265 189 170 193 306 242 203 327 295 313 204 184 226 208 138 240 219 282 216 228 268 268 225 248 251 226 224 193 176 234 210 205 233 288 339 258 275 275 201 216 217 299 248 264 231 273 321 192 227 196 241 234 284 250 249 262 250 227 177 192 220 177 286 248 282 212 196 265 239 319 248 183 321 215 304 251 157 222 240 338 224 107 138 176 216 148 258 241 250 301 190 324 197 273 241 253 184 137 173 276 320 293 275 187 299 254 193 254 263 284 290 245 283 226 288 281 261 202 205 208 289 186 211 234 199 256 288 268 205 239 236 263 233 203 279 262 260 203 229 229 241 188 163 180 195 220 217 188 197 398 276 227 245 269 258 299 251 312 277 216 238 240 160 349 270 211 253 254 203 226 223 263 294 285 306 236 188 310 177 257 227 306 263 272 305 254 225 162 301 225 231 246 231 200 268 262 252 257 234 314 297 304 209 141 215 205 145 250 174 191 196 267 255 175 226 259 289 228 255 272 235 299 298 317 288 245 209 234 303 224 188 269 200 197 247 227 252 271 213 231 186 225 316 269 204 241 223 232 239 235 245 281 269 252 282 239 241 193 282 214 238 212 326 176 185 215 223 201 280 218 209 236 261 299 229 334 211 235 313 200 251 273 287 267 269 279 130 237 304 177 245 283 250 185 200 214 212 195 232 241 281 132 201 207 195 211 238 279 280 350 212 284 202 215 218 336 285 334 222 202 172 200 263 226 194 253 217 289 278 210 295 235 235 244 293 302 324 249 202 257 263 273 220 258 216 284 277 262 252 247 267 208 253 193 291 174 305 246 310 149 321 240 235 225 259 181 280 244 295 233 214 236 185 277 232 245 277 198 267 206 255 259 237 235 263 232 259 321 209 280 279 246 284 253 172 248 215 252 285 198 269 291 239 242 200 256 246 201 169 305 283 266 212 274 197 198 242 313 275 194 259 314 181 244 271 171 140 265 283 236 292 269 284 267 217 171 256 173 240 218 176 245 291 217 224 235 263 243 313 268 180 210 242 224 238 225 262 317 149 261 295 141 175 228 243 245 163 297 226 268 228 231 231 214 255 261 290 265 304 240 227 233 280 251 242 239 208 262 219 242 286 218 233 238 279 223 352 287 190 206 258 244 212 245 290 327 226 305 216 260 323 231 223 277 329 244 200 166 313 216 224 229 174 277 205 209 231 244 321 191 245 287 283 165 244 208 229 265 262 281 165 250 135 308 181 222 231 315 307 318 213 194 247 227 200 189 204 174 296 294 237 246 156 225 219 288 273 197 215 166 301 317 283 252 343 255 265 219 205 285 279 251 318 157 230 190 </t>
-  </si>
-  <si>
-    <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
-  </si>
-  <si>
-    <t>1 1 1 0 1 2 1 1 0 2 2 1 0 0 2 0 4 2 2 0 1 1 2 2 1 1 2 2 1 3 2 0 1 0 0 1 1 1 2 0 3 2 2 1 1 1 1 1 1 2 2 1 0 4 2 1 3 2 2 3 3 1 0 0 0 3 2 2 1 2 0 0 1 2 2 0 0 0 2 1 0 1 1 1 2 3 4 0 1 1 0 1 2 0 0 0 2 1 0 0 1 0 1 2 2 1 0 2 2 1 0 1 1 1 1 1 1 1 0 2 1 1 1 1 1 0 2 1 1 3 3 0 2 1 2 4 0 3 0 0 1 1 1 1 1 3 4 2 2 1 1 1 2 1 2 1 1 1 2 3 1 1 0 2 0 2 1 1 1 0 0 2 0 0 2 0 1 2 2 3 2 0 0 2 1 2 2 0 1 2 1 1 3 0 1 1 1 0 2 2 2 1 2 3 0 1 1 1 1 0 1 1 1 1 1 1 0 2 1 1 0 1 1 1 2 0 2 2 1 2 3 0 1 0 2 2 1 0 1 1 1 1 2 0 2 1 1 1 4 1 1 1 2 1 2 1 1 2 2 3 1 2 4 3 1 1 1 0 2 1 2 0 0 3 0 1 0 1 1 1 1 2 2 2 0 2 2 1 3 4 4 1 1 1 0 1 2 1 1 1 4 4 0 1 0 0 1 2 0 0 2 2 2 2 2 2 0 1 0 3 0 0 2 0 0 3 1 2 2 2 2 1 0 2 2 2 2 0 2 1 2 1 1 2 1 3 1 2 2 1 2 1 2 3 0 2 0 0 1 1 2 2 0 1 1 1 4 0 0 1 0 2 0 2 0 3 0 0 1 2 0 1 1 1 1 0 1 2 1 0 2 2 1 1 3 1 1 2 3 2 2 1 1 1 1 2 0 1 1 2 2 3 0 5 2 1 4 2 0 2 2 1 1 0 1 0 1 3 3 0 2 1 3 0 1 0 1 2 0 1 1 1 1 3 2 0 0 1 2 0 0 0 2 1 1 2 3 2 0 1 1 2 2 2 1 2 2 2 0 1 2 1 1 1 1 1 0 1 2 1 1 2 2 0 1 1 3 2 1 2 2 2 2 2 2 2 1 0 0 2 2 0 4 2 1 2 3 5 0 1 1 1 2 1 0 0 0 3 1 1 1 1 2 1 0 1 1 0 0 0 0 0 0 0 1 3 1 0 0 4 2 2 1 2 2 1 0 2 3 0 0 1 2 2 1 1 1 1 1 0 0 0 1 1 2 1 1 3 1 1 1 1 1 0 3 0 2 1 1 1 2 4 3 1 2 4 2 1 2 0 0 1 0 2 1 1 0 1 1 2 0 0 1 0 0 3 0 3 1 2 2 1 2 0 2 3 1 0 1 1 4 2 1 2 1 1 1 2 0 2 2 0 2 3 1 1 0 1 0 1 1 1 2 1 2 1 0 1 2 3 1 1 0 2 2 1 1 1 1 2 0 0 0 2 2 0 1 1 0 1 0 3 2 0 0 2 2 0 0 3 2 2 2 1 3 0 1 2 3 2 2 2 2 1 1 1 3 1 0 1 1 1 1 1 1 0 1 3 2 2 1 0 0 0 2 0 1 1 0 2 1 0 1 1 0 2 1 0 2 1 1 4 4 0 1 3 1 2 0 0 1 2 3 1 2 1 1 0 0 2 3 1 2 1 1 1 2 1 1 1 0 2 2 1 0 0 1 1 1 0 1 0 1 1 2 1 2 2 0 2 2 1 2 0 3 2 0 0 2 2 2 3 1 0 0 1 3 2 2 2 0 1 1 2 1 1 2 1 2 3 1 1 0 0 3 2 1 2 2 2 2 1 2 2 0 1 1 0 1 1 0 2 2 1 1 2 2 1 1 3 0 1 1 1 1 3 1 0 2 0 1 0 1 2 1 1 2 1 1 3 1 0 2 1 1 1 1 2 2 0 0 1 3 3 1 3 1 1 0 2 1 2 3 1 0 1 1 2 1 1 1 1 1 1 1 1 0 0 1 3 3 1 1 2 1 0 1 2 2 3 1 3 2 3 0 1 1 0 2 1 2 2 2 0 3 0 2 2 2 2 2 1 1 2 0 2 3 1 2 3 2 2 2 1 2 3 1 1 2 1 2 1 1 0 2 1 0 1 2 0 0 1 2 1 1 1 1 2 1 2 1 1 2 0 3 3 1 2 2 2 2 2 1 1 3 2 3 1 1 2 2 0 1 0 1 0 0 2 2 2 1 0 0 2 2 1 2 1 1 0 1 2 1 3 1 2 0 1 1 2 1 2 1 0 2 2 1 0 1 0 0 1 2 0 0 0 2 0 3 0 0 1 1 1 1 1 0 1 1 0 2 1 0 0 2 2 2 2 1 1 2 0 2 2 1 1 3 0 2 1 2 1 2 0 1 1 2 1 1 2 0 1 1 2 2 1 2 0 1 1 3 1 1 0 4 1 0 1 1 0 0 0 0 1 1 0 3 1 1 1 0 2 1 0 2 0 1 3 0 2 3 2 2 3 1 1 1 1 2 2 0 2 2 2 1 2 2 1 1 1 1 0 1 1 1 3 2 2 0 0 2 0 0 2 2 1 0 1 2 2 2 3 0 2 0 1 2 1 2 1 0 3 1 1 2 1 2 2 0 1 0 2 3 0 0 2 0 2 1 1 3 0 1 2 0 1 1 4 1 2 2 0 0 3 1 2 1 2 0 2 0 1 3 1 0 1 1 0 0 1 0 1 2 0 1 1 1 2 2 0 3 2 1 1 3 1 1 0 0 1 1 4 0 0 2 1 0 2 2 1 1 1 0 2 4 0 5 2 2 1 0 1 1 1 0 1 1 1 1 1 2 1 2 1 1 1 2 1 0 0 3 1 0 2 2 2 1 1 2 0 2 0 1 1 0 0 5 1 0 1 1 1 0 1 1 1 1 0 3 3 4 2 1 2 2 3 1 2 1 0 2 0 1 2 1 2 0 0 1 1 1 1 1 2 2 0 1 2 2 0 0 0 3 1 2 0 1 2 1 1 2 1 1 1 2 0 3 2 2 1 2 1 1 1 1 1 0 3 2 2 0 1 2 1 0 1 1 1 1 1 1 2 0 1 3 1 1 2 0 1 1 2 1 3 2 2 2 1 2 1 1 1 0 0 2 1 0 1 0 0 1 0 0 3 2 2 2 1 2 1 2 1 3 1 0 1 2 1 2 1 0 1 2 1 1 2 2 1 4 1 0 2 0 2 1 1 2 2 1 1 2 1 4 0 2 1 1 0 1 2 0 0 2 1 2 0 2 1 0 0 0 4 1 0 1 0 3 1 1 1 0 2 1 3 2 2 3 2 4 3 2 0 0 4 1 2 0 3 2 2 1 1 0 2 0 0 0 2 2 3 1 1 1 2 2 2 1 1 3 0 1 1 1 1 1 3 1 3 2 1 2 1 0 0 3 0 1 0 1 1 2 1 2 3 3 0 1 2 2 1 2 2 2 3 2 0 3 1 0 0 2 1 0 0 0 2 2 1 3 0 1 1 0 2 3 2 0 0 1 2 2 2 2 0 1 2 1 0 1 0 2 1 2 1 1 2 1 0 0 3 2 2 2 1 2 4 1 2 2 1 2 1 0 1 1 0 3 1 0 0 1 1 1 3 1 1 0 2 1 1 3 2 1 0 1 0 0 2 1 2 1 1 1 1 0 0 0 2 1 1 2 3 3 2 2 3 0 3 1 2 0 1 2 2 0 1 0 1 1 2 0 1 2 1 1 1 1 3 3 1 2 5 0 2 0 2 3 2 1 1 0 1 2 2 1 2 2 3 0 0 3 3 2 1 1 3 0 2 0 3 0 0 0 2 1 2 1 2 1 2 1 1 1 2 1 1 1 0 1 3 2 1 1 2 0 1 1 1 3 1 2 1 2 2 2 3 2 0 2 1 0 2 1 1 0 0 2 1 0 1 0 0 4 1 0 2 3 2 2 0 0 2 1 1 0 0 1 1 0 1 3 2 0 1 1 1 2 1 1 1 2 2 1 2 2 2 0 0 0 1 1 1 1 0 0 0 2 3 2 0 0 3 0 0 1 3 4 1 1 1 2 1 2 3 3 2 2 2 1 0 1 1 1 1 5 0 2 1 2 0 2 2 1 2 0 1 3 2 2 2 1 1 1 0 2 1 1 2 2 2 1 1 1 1 1 2 2 1 1 1 2 0 1 1 1 0 3 1 2 4 2 1 2 1 3 1 1 2 1 1 1 1 0 1 1 1 0 0 1 2 1 0 1 1 1 3 0 2 0 1 1 2 0 0 1 3 0 1 1 2 1 1 0 2 1 0 3 1 1 3 1 2 2 2 2 0 1 0 3 0 0 2 2 2 3 3 3 2 5 3 4 1 2 1 1 1 3 3 1 2 2 0 2 1 1 2 0 0 2 3 2 0 2 2 3 3 1 2 1 1 2 1 1 1 1 1 2 1 3 0 0 1 2 4 0 0 2 3 1 1 0 2 0 3 2 1 2 1 0 1 1 2 2 2 0 3 1 0 2 2 1 1 1 1 1 1 4 3 2 0 0 2 1 1 1 0 1 0 2 1 2 1 1 1 0 0 2 2 1 0 1 0 2 1 2 2 1 1 0 2 1 2 1 2 2 1 2 2 3 2 2 0 3 2 1 3 0 1 1 2 2 1 0 1 2 3 3 2 0 1 3 1 1 0 0 1 2 1 1 1 2 2 1 2 1 3 3 1 3 0 1 1 2 1 2 1 3 1 4 1 2 1 1 1 0 1 2 2 0 3 3 0 0 1 0 1 2 0 1 0 1 2 1 1 0 0 0 1 3 2 1 2 2 2 1 2 1 2 1 2 1 1 0 0 1 2 1 0 3 2 3 2 1 0 1 2 1 2 1 0 1 0 3 2 0 3 1 2 1 1 1 1 2 2 3 2 1 3 2 0 0 1 1 1 1 2 0 0 0 0 3 1 1 1 1 2 0 2 1 1 2 1 2 1 3 1 2 2 0 2 0 2 2 2 1 3 2 2 1 2 2 2 0 3 3 2 2 1 3 2 0 0 3 2 2 3 1 1 3 1 0 2 1 2 1 1 2 1 2 2 1 1 0 3 1 1 1 2 1 1 1 2 0 4 3 1 2 2 1 1 1 1 1 2 1 0 2 2 1 2 0 2 0 1 0 2 1 0 2 2 3 3 3 1 3 1 2 1 1 1 2 1 0 0 0 2 2 1 1 1 0 0 3 2 0 3 0 1 4 1 1 2 2 1 1 1 1 1 1 2 2 2 3 2 1 1 0 1 3 1 1 0 1 2 1 0 2 1 2 3 2 1 1 0 2 2 0 2 1 1 1 0 1 3 2 1 1 1 1 1 2 1 2 0 1 0 2 1 1 3 0 0 4 0 0 0 1 1 1 4 1 3 1 1 3 1 4 2 1 0 0 2 2 2 3 1 0 1 0 2 1 0 0 0 0 2 1 0 2 2 1 1 3 2 0 2 3 1 3 0 1 2 0 1 3 1 2 3 0 2 0 3 1 0 1 2 0 4 0 2 1 1 2 1 0 1 0 1 4 1 0 1 2 2 2 1 0 0 3 2 3 1 2 3 1 1 0 2 0 1 2 4 0 1 2 0 3 2 3 2 1 0 0 1 2 3 1 0 1 1 1 3 3 1 0 0 1 0 0 4 1 0 2 1 1 2 2 0 1 3 2 1 2 2 2 1 1 1 0 2 0 1 1 1 3 0 2 2 0 0 2 1 2 2 3 2 2 2 3 0 1 0 0 1 1 2 2 1 1 1 2 0 0 2 1 1 2 1 1 2 2 2 1 3 0 1 3 2 1 1 0 0 1 2 2 1 2 3 3 1 1 1 2 1 3 2 2 0 2 1 1 1 1 4 3 1 0 2 3 1 2 2 0 1 1 2 3 0 1 1 1 0 2 0 0 2 0 1 0 2 1 0 3 3 0 3 1 1 2 1 0 2 1 1 1 1 1 1 2 1 2 0 0 1 2 2 0 1 0 1 0 3 2 1 2 2 2 1 1 1 0 2 1 1 0 2 1 0 1 0 0 1 1 0 4 1 0 0 0 3 1 2 0 2 0 0 0 1 2 1 1 2 2 1 1 0 2 2 1 2 0 2 1 2 2 1 1 2 1 3 0 0 0 2 1 2 1 0 0 1 1 3 0 2 0 2 1 0 2 0 1 4 1 1 2 2 0 0 1 0 2 2 1 1 2 3 1 2 1 0 1 0 2 4 2 0 2 1 0 0 3 2 1 0 4 2 0 2 3 0 2 1 1 3 1 2 1 1 1 0 1 2 1 4 0 1 1 2 1 1 3 0 1 0 2 0 1 1 0 2 2 0 0 1 0 1 0 1 1 2 2 4 1 1 1 0 2 1 3 1 1 1 0 1 3 0 1 0 3 1 1 1 1 1 2 1 1 0 0 2 0 2 0 2 1 2 1 2 1 3 1 1 3 0 1 0 0 2 2 1 1 2 3 1 1 1 1 0 1 1 3 0 0 2 2 3 0 1 1 2 2 2 1 1 1 1 1 1 2 1 1 1 2 1 1 3 3 2 0 1 2 1 1 0 2 2 1 3 0 0 1 0 1 0 1 0 0 1 1 4 0 2 0 3 0 1 0 0 1 1 2 1 2 3 1 3 2 0 1 0 1 2 2 0 1 2 0 2 4 1 4 1 2 1 0 1 0 3 1 1 0 1 2 0 2 2 1 1 2 1 1 2 0 1 1 1 3 1 1 1 1 1 1 3 1 1 0 3 1 0 0 1 1 0 0 2 4 0 1 0 0 1 2 1 0 1 3 2 2 1 0 1 1 1 0 1 0 0 1 0 3 1 1 3 1 3 0 1 1 0 1 1 2 2 1 2 1 0 2 0 0 2 0 2 1 1 1 2 1 1 2 1 2 2 1 2 3 0 0 2 2 1 4 0 1 1 1 0 2 2 1 0 2 2 0 1 2 2 2 0 0 1 1 1 0 0 0 1 2 1 1 0 1 3 0 2 0 4 1 1 3 1 1 0 0 2 1 4 2 1 1 2 2 2 1 2 0 1 1 4 2 2 1 2 2 0 1 0 0 2 3 1 1 1 2 1 3 0 2 2 2 0 2 2 2 2 1 0 0 1 2 1 2 2 0 0 0 3 2 1 0 4 0 2 2 1 2 0 0 0 2 2 1 1 1 0 2 1 1 2 2 3 0 1 1 3 5 3 2 1 1 1 2 1 1 1 1 0 0 1 1 2 1 2 1 1 0 0 3 1 1 0 2 2 1 4 2 2 2 0 1 0 0 1 3 1 3 1 2 1 0 0 0 1 1 1 0 0 3 2 1 2 1 2 1 2 1 2 2 0 2 1 0 2 0 2 1 2 1 1 0 3 2 0 0 2 1 0 2 1 1 0 2 2 1 0 2 3 2 1 2 2 0 2 2 0 1 1 1 1 0 0 1 1 0 0 2 2 0 2 1 1 0 1 2 0 1 1 2 1 0 0 0 2 2 1 2 1 2 3 2 1 1 0 1 0 2 2 0 1 3 2 0 2 3 1 1 1 0 3 0 2 2 3 0 0 1 1 2 1 0 3 2 2 1 0 1 2 1 2 3 2 0 1 0 2 3 2 0 1 0 1 2 1 3 3 2 0 2 3 3 2 2 1 3 2 0 1 2 2 1 1 1 1 0 1 1 0 1 2 1 4 2 1 2 0 1 1 6 3 2 1 1 2 3 2 1 1 1 2 0 2 2 1 2 1 0 2 1 1 2 0 1 3 1 1 2 3 1 0 2 1 0 0 3 1 1 2 1 3 2 2 1 2 1 0 2 1 3 1 1 4 2 0 0 1 2 1 2 2 2 2 1 2 1 2 1 1 2 3 3 2 0 1 1 1 1 0 2 1 1 1 0 1 2 0 0 3 2 0 2 1 2 1 1 1 0 1 3 1 1 1 2 0 3 2 1 1 1 1 1 1 2 2 3 2 1 2 1 1 1 0 1 1 0 1 1 3 0 2 0 0 1 0 1 0 1 1 0 2 2 1 1 1 1 1 1 1 2 1 3 3 0 1 1 2 4 0 1 1 1 0 1 1 2 3 1 0 1 2 2 1 1 2 2 0 1 0 1 1 0 2 1 1 2 1 0 2 2 1 0 1 1 0 1 1 3 1 1 1 1 2 1 2 1 2 1 1 3 0 0 0 1 2 3 2 0 2 2 1 0 0 1 1 1 0 0 1 2 3 0 0 0 2 1 1 1 0 1 2 3 1 1 1 2 1 2 0 1 0 0 2 3 2 2 0 2 0 1 2 1 1 0 1 1 0 1 1 1 2 1 1 1 3 0 1 2 1 1 1 3 2 1 0 1 0 0 2 1 0 1 2 1 2 3 1 1 3 1 2 4 1 0 1 2 0 3 0 1 2 0 2 2 0 2 0 0 0 1 1 1 0 2 0 1 2 2 0 1 1 3 2 1 2 1 1 2 0 2 1 0 1 0 1 1 2 3 3 1 3 1 3 0 2 1 0 0 1 1 1 1 2 2 0 3 3 3 1 0 2 1 3 3 2 0 2 3 1 0 3 2 1 1 1 2 2 1 1 1 2 1 2 2 3 1 1 1 2 0 1 2 0 2 1 1 0 0 1 2 1 0 0 0 2 1 1 0 2 1 1 0 2 2 2 2 4 1 0 0 1 0 1 3 3 2 2 1 0 2 2 3 0 1 0 2 2 1 2 2 2 0 0 2 0 1 0 1 1 1 0 1 1 1 2 0 0 2 3 1 2 1 1 3 1 2 1 2 2 1 0 0 2 2 3 1 2 3 0 2 1 0 1 1 2 0 1 1 3 2 1 4 3 0 1 2 1 2 1 0 0 2 2 2 3 1 0 1 2 1 2 1 0 0 2 1 0 1 0 1 0 0 2 2 2 2 1 1 1 2 1 0 0 0 1 1 0 0 0 2 2 2 1 2 0 0 2 2 3 1 0 1 1 3 2 1 1 3 3 1 3 3 1 1 1 2 2 1 2 2 3 0 0 1 1 2 1 1 2 2 1 0 0 1 0 3 0 0 2 2 1 2 2 2 2 0 1 1 2 1 1 2 3 0 2 1 0 1 2 1 0 1 2 4 1 2 2 1 2 0 0 1 3 1 2 1 1 3 2 2 1 1 1 4 0 2 2 3 1 0 1 2 1 0 1 1 1 1 2 1 1 2 3 1 1 2 1 1 2 0 1 0 1 2 1 2 1 2 2 0 0 2 0 2 2 4 1 2 0 1 2 2 1 1 1 2 2 1 2 2 1 1 2 0 1 3 2 3 0 2 0 2 2 2 1 2 1 1 2 1 0 1 0 2 2 2 2 5 2 0 1 1 0 2 3 0 1 1 2 1 2 0 3 2 1 0 3 2 1 2 0 1 1 0 0 1 3 1 2 1 1 0 2 2 1 1 1 1 1 0 1 1 1 1 2 1 2 0 3 2 2 1 0 1 1 1 1 2 2 1 0 1 2 2 1 2 1 3 1 2 1 3 1 2 0 0 1 0 1 0 0 1 1 0 1 0 2 1 1 1 1 1 1 1 1 2 1 3 2 0 3 3 0 0 1 2 1 0 1 2 2 1 1 1 3 1 1 2 1 2 1 0 1 1 0 2 2 0 0 2 2 1 1 0 2 0 1 1 1 2 1 1 2 2 1 2 0 0 0 1 1 3 1 1 2 0 0 2 2 0 2 3 0 1 1 2 1 1 1 1 3 2 0 0 1 4 1 1 1 1 2 1 1 2 0 1 1 0 1 2 3 1 1 1 2 0 0 1 0 4 2 2 1 1 1 2 0 1 2 0 2 1 0 0 1 3 1 4 1 1 1 0 0 1 2 1 1 3 1 1 0 1 1 1 1 0 0 0 1 2 2 1 1 0 1 0 1 3 1 4 1 2 3 3 1 0 0 1 2 1 1 1 0 3 2 1 1 1 2 0 1 1 2 1 0 1 3 1 1 2 2 1 1 1 1 1 2 0 1 0 2 1 1 1 3 1 1 1 2 1 3 0 1 0 1 1 3 3 3 0 0 2 2 1 1 0 2 2 3 0 1 1 1 0 2 0 4 2 1 0 0 1 0 2 0 1 1 3 3 2 1 0 2 2 2 1 0 3 1 2 0 0 1 0 2 2 2 2 1 0 1 2 1 0 2 1 1 2 1 1 1 2 3 2 2 0 1 3 1 2 1 1 1 1 1 1 1 3 3 1 1 1 2 2 2 1 2 3 0 0 2 2 2 3 0 0 0 0 1 1 1 0 1 1 3 1 2 2 2 2 1 2 1 1 2 1 1 1 1 1 2 1 1 2 1 1 2 1 1 1 2 0 0 1 1 1 2 0 1 2 3 1 0 1 1 0 0 1 1 1 1 0 0 1 3 1 1 1 1 3 2 0 1 2 4 2 1 3 3 2 2 0 0 0 1 1 4 0 2 1 1 1 1 1 1 1 3 1 2 0 0 1 1 1 0 1 2 1 0 1 1 1 1 1 2 0 0 1 2 3 3 1 2 4 1 2 2 2 1 1 0 0 2 1 2 3 1 3 0 0 1 2 0 2 1 3 0 1 3 1 1 2 1 3 1 0 2 4 1 1 0 1 0 1 2 1 1 1 1 0 0 1 0 1 1 2 2 3 2 0 3 1 1 0 1 4 1 1 0 1 1 3 0 1 2 1 1 2 2 0 0 2 3 2 1 1 2 1 1 3 1 1 2 1 2 3 1 1 2 2 3 3 2 0 1 1 1 0 1 0 1 2 0 0 1 2 1 1 0 2 3 0 1 2 1 0 1 1 2 1 0 1 1 0 2 1 1 1 2 1 2 1 1 2 1 1 0 1 3 0 2 1 2 0 1 1 2 2 0 2 2 4 2 1 0 1 1 2 1 1 2 1 1 1 0 1 2 0 0 1 2 1 2 1 1 1 0 1 0 0 2 2 3 0 1 0 0 2 0 3 2 2 2 2 2 2 2 2 2 3 1 3 1 4 1 1 2 1 1 2 2 3 3 1 2 1 1 1 0 1 1 2 0 1 0 0 1 0 1 0 2 0 2 2 1 1 0 1 1 4 0 2 2 3 1 0 1 0 2 2 3 0 1 2 1 0 0 1 2 1 0 0 3 0 1 3 2 1 2 1 3 0 2 1 1 1 3 2 3 1 3 2 2 0 0 1 1 0 1 1 2 2 1 1 2 0 0 2 1 3 0 2 0 2 2 0 3 2 1 2 2 2 1 1 1 2 1 4 0 1 1 3 1 1 1 2 1 1 1 2 1 1 1 2 3 2 2 2 1 2 0 3 2 3 0 0 1 3 1 2 0 1 3 0 1 1 3 2 2 0 2 1 1 1 0 0 0 0 0 0 1 0 2 1 1 2 1 1 1 1 1 2 2 2 2 3 4 2 2 2 3 1 2 0 1 1 1 1 1 1 1 2 2 0 0 0 1 1 1 1 2 1 1 1 1 1 2 1 4 2 1 2 3 2 3 3 4 1 3 3 2 0 0 1 2 2 2 1 2 1 1 1 2 0 1 0 2 2 0 1 1 1 1 1 0 0 1 1 2 1 1 1 1 2 0 1 0 2 1 0 2 1 1 1 1 0 0 1 4 0 2 1 2 0 1 3 1 0 2 1 2 1 2 2 1 1 2 0 2 2 2 4 3 1 3 0 1 0 1 2 3 1 2 1 0 3 2 1 2 2 2 1 1 0 1 1 3 3 2 0 3 1 1 1 1 1 0 1 3 1 0 1 2 1 1 1 3 0 2 0 3 2 1 1 1 2 1 2 1 0 1 0 1 1 3 0 0 1 1 1 1 2 0 4 1 1 1 1 0 1 0 1 2 2 0 1 3 1 1 2 3 1 2 1 2 1 2 1 3 2 1 0 2 1 2 4 0 2 1 0 2 1 1 2 0 0 2 0 0 0 1 3 1 2 1 1 1 2 2 0 0 1 1 3 2 1 0 1 2 1 1 1 1 0 0 1 0 1 0 1 2 1 3 3 1 0 0 1 2 1 2 1 1 2 2 2 1 0 2 0 1 0 2 1 3 1 0 1 1 1 2 1 1 1 1 3 3 2 0 2 1 3 0 1 2 1 2 2 3 2 1 2 2 0 0 1 0 1 3 0 2 3 1 2 1 2 3 1 2 2 2 0 0 0 3 0 1 2 1 2 3 0 1 0 1 1 1 2 3 1 0 3 1 2 1 2 1 0 2 1 0 1 0 1 2 1 0 2 2 2 2 1 1 1 2 2 0 0 2 1 2 3 1 1 5 1 1 0 3 0 1 1 0 0 2 1 1 1 1 0 2 2 0 3 1 1 0 2 2 1 1 2 0 1 2 2 1 0 0 3 1 2 2 1 1 1 1 2 5 2 1 2 2 2 1 3 4 3 2 2 2 1 4 1 0 2 0 1 3 1 1 1 1 2 0 0 0 2 0 2 1 2 2 2 1 1 1 1 1 3 1 1 2 1 2 0 0 2 2 2 3 1 0 3 2 0 0 1 1 2 1 1 0 0 4 0 1 0 2 0 3 2 1 1 3 2 1 0 2 1 1 0 2 1 0 2 0 0 0 1 3 1 0 1 2 1 3 2 1 1 1 1 2 2 0 1 2 0 1 2 4 3 1 0 1 0 3 0 2 3 1 1 1 1 1 2 1 2 2 2 0 1 1 3 0 1 3 1 2 2 0 1 0 1 1 1 0 1 1 1 3 1 0 1 0 1 2 0 2 0 1 1 1 0 0 1 1 3 1 1 0 3 2 2 2 1 1 1 1 1 1 1 1 0 2 2 1 0 0 2 1 0 1 0 0 0 2 2 2 2 2 1 2 0 1 2 0 3 1 1 1 0 0 1 0 0 1 0 2 0 2 2 0 0 1 1 3 1 2 1 1 0 2 1 2 2 1 2 0 1 2 1 2 2 1 2 4 0 1 2 3 2 1 0 0 1 1 2 1 1 1 0 2 0 1 1 5 2 1 0 0 1 1 2 2 1 0 0 0 2 0 1 1 2 1 0 1 1 1 1 1 2 1 1 1 1 0 2 1 0 0 0 1 4 0 1 3 1 3 3 2 4 2 2 0 3 2 0 1 2 3 1 2 1 1 1 0 3 1 0 2 2 0 2 2 2 0 2 0 3 2 2 0 2 3 1 2 2 1 1 1 1 0 1 1 1 2 2 1 0 3 1 1 1 2 1 1 1 1 1 1 2 1 0 1 2 2 3 0 2 3 2 2 2 0 1 0 1 1 3 2 0 0 1 0 2 1 4 1 1 1 0 0 0 2 0 2 2 2 2 0 1 2 4 0 0 1 0 0 2 2 0 0 1 0 0 1 1 1 1 0 0 2 1 1 2 1 3 3 1 1 1 0 2 1 2 0 1 0 0 0 2 1 1 1 1 0 2 1 1 1 2 3 3 2 2 1 2 2 0 2 1 1 1 0 1 1 3 1 1 2 1 1 0 1 2 1 2 0 2 1 1 1 1 1 1 2 1 3 2 0 1 0 3 2 0 1 3 0 0 1 1 2 1 1 2 2 1 0 0 1 1 4 3 2 0 1 2 2 0 0 3 1 3 3 2 1 1 0 0 1 0 0 2 0 2 2 2 1 1 1 1 1 1 3 2 0 0 1 1 0 0 1 2 0 1 2 2 2 1 4 2 1 2 2 2 1 1 3 0 2 1 3 3 2 2 0 1 2 2 1 0 3 1 1 0 0 2 0 2 0 1 1 1 2 1 1 0 2 1 2 0 1 2 1 2 3 2 0 4 2 1 2 1 0 0 2 1 1 2 0 1 2 1 1 2 1 1 1 0 1 2 1 1 2 2 2 1 3 1 2 3 2 0 0 1 2 0 1 1 0 2 0 1 1 1 2 1 2 1 1 1 0 1 2 2 0 1 1 1 1 2 1 1 0 2 3 1 3 0 0 1 1 3 1 1 0 2 2 0 0 1 1 1 1 1 2 0 1 3 0 2 0 2 3 3 1 3 0 0 1 2 0 0 0 1 0 1 2 1 3 1 0 2 2 1 1 2 2 1 1 1 2 1 0 1 0 3 2 1 1 1 1 2 3 2 1 0 0 0 1 1 1 2 1 1 0 0 2 1 1 1 1 2 1 1 1 1 1 0 3 1 2 1 2 2 2 2 2 3 1 0 3 1 3 2 2 0 1 0 1 2 0 1 1 2 0 1 2 2 0 1 1 1 1 1 0 1 0 0 1 2 1 1 1 3 0 3 2 1 0 1 0 2 2 3 2 1 2 3 1 1 2 1 2 2 1 1 0 3 2 0 1 0 2 2 1 1 2 2 1 1 1 2 1 0 1 1 1 2 1 1 3 0 0 1 0 0 3 0 2 1 2 1 3 0 1 0 2 2 2 2 0 0 0 2 0 2 1 1 1 0 2 1 3 0 0 4 1 1 1 1 1 1 0 2 0 1 2 2 1 2 2 0 3 2 0 1 2 0 2 2 0 1 1 1 3 1 1 3 0 2 1 2 1 1 0 1 2 0 3 0 1 2 6 2 2 0 1 0 2 0 1 1 1 2 1 4 0 1 2 0 1 0 2 3 2 0 2 2 2 0 3 3 1 0 1 0 2 1 0 1 2 1 1 3 2 1 0 2 1 1 2 2 2 1 1 2 0 1 2 1 2 4 0 0 1 1 0 0 0 1 0 2 1 3 1 1 3 1 1 0 1 2 0 2 1 1 1 3 2 1 0 1 1 1 3 2 0 1 1 0 0 0 0 1 2 0 1 1 0 1 1 0 0 1 1 2 2 1 2 3 2 2 0 1 0 1 2 1 1 1 2 1 0 2 2 1 2 2 2 1 3 2 1 1 3 1 2 0 1 0 2 1 0 2 2 3 1 1 0 2 1 2 2 2 0 3 0 2 2 0 1 0 0 1 1 1 2 1 1 1 4 1 2 1 0 2 2 2 2 1 2 1 1 1 1 1 2 1 1 1 1 1 2 3 1 1 0 2 3 1 1 2 1 1 1 0 1 0 2 2 2 1 1 0 2 1 2 0 3 3 0 3 2 0 2 1 2 1 0 1 1 1 1 0 1 3 1 1 2 1 1 1 0 2 2 3 0 1 2 3 0 1 1 1 0 1 0 0 2 3 2 0 2 1 2 3 0 1 2 0 0 2 2 1 0 1 1 1 0 1 2 0 2 2 3 0 1 2 2 1 1 2 2 2 1 1 0 2 0 0 0 1 1 1 1 2 1 1 2 1 2 1 2 2 1 0 1 3 0 1 0 0 2 2 1 1 1 2 1 1 2 2 2 1 4 2 1 1 1 0 2 0 1 2 0 0 0 2 2 2 2 1 1 2 1 3 1 1 2 1 3 3 2 1 0 2 2 1 1 3 1 1 2 1 0 1 3 1 2 2 1 2 0 1 1 3 2 3 0 2 2 1 0 1 1 0 2 0 0 2 0 0 2 0 3 0 2 1 2 1 1 2 2 2 1 2 1 1 0 2 3 1 1 1 1 2 2 1 2 3 3 1 1 0 0 2 2 2 2 1 1 1 3 2 0 1 1 2 1 1 2 2 1 3 1 0 1 0 1 3 0 2 2 1 1 0 1 1 1 1 2 1 1 2 0 2 2 1 0 2 2 2 2 2 2 2 0 1 0 2 1 2 0 1 1 1 1 1 1 0 1 2 0 0 1 1 0 2 1 2 3 1 2 1 2 1 2 0 1 1 0 1 0 2 1 1 1 3 3 1 0 2 1 0 0 1 2 0 2 1 2 3 1 2 1 0 0 1 2 2 3 2 3 0 1 1 3 0 1 0 2 1 0 1 2 3 0 2 0 1 2 0 1 1 2 2 2 2 1 1 0 2 2 0 1 2 0 2 1 1 1 2 2 0 1 0 1 0 2 1 1 0 2 1 3 1 2 2 1 0 1 1 1 0 1 2 1 0 2 2 1 1 1 1 0 1 1 2 2 3 1 1 1 3 0 2 1 0 1 2 0 2 3 2 4 0 3 1 0 0 1 0 2 2 2 2 1 2 2 2 0 0 3 1 1 1 1 2 3 1 1 0 1 3 2 3 2 1 2 0 3 2 2 2 1 1 1 1 1 3 5 1 2 0 0 3 1 2 1 1 0 0 1 1 0 3 1 2 2 2 0 0 2 1 0 2 1 0 2 0 1 3 1 0 2 0 2 0 0 0 3 2 1 0 2 2 2 1 1 2 2 2 1 0 0 1 2 0 2 1 2 1 2 1 2 1 3 0 1 1 0 1 3 1 2 2 0 2 0 2 0 2 1 0 1 3 2 1 1 3 1 0 0 1 1 2 0 0 0 1 1 2 2 1 1 0 0 1 1 2 2 1 1 1 0 1 1 3 1 2 2 1 0 1 2 2 3 3 1 2 0 1 3 2 1 1 1 0 0 2 2 0 0 1 1 2 1 1 2 1 1 2 0 1 0 1 2 1 2 1 0 2 2 1 1 1 1 0 1 2 0 1 1 1 2 0 1 0 1 2 1 1 1 0 2 0 2 2 0 0 2 0 0 0 2 1 0 1 2 1 2 2 2 1 2 0 1 2 1 1 1 1 0 0 1 1 1 1 1 3 2 1 1 2 0 2 1 3 1 1 0 2 3 3 0 1 2 0 2 1 1 1 2 2 2 1 2 2 1 1 1 2 1 2 2 2 1 2 1 1 1 1 1 1 0 2 1 4 0 1 3 0 1 1 1 0 0 2 2 1 1 0 2 1 1 1 1 1 2 2 0 1 3 2 2 1 3 2 1 2 1 0 2 1 2 1 2 1 0 1 0 2 3 2 1 0 1 1 1 1 2 1 1 2 3 0 1 0 2 1 2 1 0 0 0 1 2 1 1 1 1 1 0 2 1 1 3 0 2 2 1 2 0 1 1 0 0 0 1 1 0 4 1 3 3 0 3 1 1 3 1 0 1 2 2 1 3 0 1 1 1 2 0 1 0 1 0 1 1 1 2 1 4 0 1 1 1 0 0 1 2 3 1 1 1 1 1 2 2 2 0 0 1 0 1 1 1 2 1 3 2 2 2 2 2 1 1 1 3 1 1 1 1 1 1 2 1 1 0 0 0 0 0 2 4 0 1 1 1 1 2 0 2 1 1 0 2 1 1 1 2 1 1 1 1 0 2 2 1 2 0 0 4 2 0 2 1 2 1 3 0 1 1 2 0 0 1 0 2 1 1 2 2 2 1 0 2 2 1 1 1 1 1 0 1 1 2 0 2 2 1 1 0 2 2 2 2 1 0 0 1 0 1 1 2 0 1 1 0 2 0 1 0 0 1 3 1 2 3 2 1 1 0 1 2 1 2 3 1 0 1 1 1 1 2 1 3 1 1 2 1 3 2 1 1 1 0 3 0 2 1 2 2 2 1 3 2 0 2 0 2 1 1 2 1 2 1 1 1 1 1 2 2 1 1 3 2 2 0 2 1 2 1 1 3 1 3 1 1 3 3 2 1 1 2 2 2 3 1 2 3 0 0 2 3 0 0 3 1 1 2 0 2 1 2 1 2 3 1 2 1 1 1 0 1 0 1 1 1 0 1 1 3 3 4 3 1 3 2 3 3 1 1 0 1 0 1 2 1 0 3 2 2 0 1 2 0 0 1 5 0 1 1 2 3 2 1 2 0 1 1 3 1 0 2 2 0 0 1 1 1 0 0 2 1 1 0 1 1 0 0 1 2 1 0 2 2 0 3 2 2 1 1 1 3 1 1 0 1 1 1 2 0 1 1 1 1 0 1 1 0 0 2 3 1 5 2 1 1 1 1 2 1 2 0 0 0 1 1 1 0 2 0 2 0 0 1 0 2 1 1 2 2 0 1 2 1 0 2 2 1 1 1 1 3 1 0 0 2 1 3 0 2 2 2 1 1 3 1 1 2 1 2 1 2 0 3 1 0 1 2 3 2 1 3 1 0 0 1 2 2 1 0 0 1 3 2 1 2 1 0 3 1 0 1 1 1 1 2 1 0 1 3 4 2 2 2 3 2 2 1 0 0 3 0 1 2 2 2 1 2 1 0 4 0 1 2 1 1 0 1 1 2 0 0 1 1 2 2 1 1 3 2 3 0 2 0 2 2 0 0 2 2 3 0 3 1 0 2 0 0 2 2 2 1 2 1 2 1 3 1 2 3 1 1 2 2 0 1 4 2 1 2 1 2 2 3 0 1 1 2 0 2 2 2 0 1 2 2 2 3 4 1 2 1 0 3 0 0 2 3 0 1 0 0 1 0 0 0 1 1 1 2 2 1 1 1 1 0 0 1 1 3 2 0 2 1 0 0 3 1 1 1 1 3 3 0 1 1 1 2 1 1 0 1 1 0 2 1 2 0 0 1 2 1 1 2 1 2 0 2 4 1 2 2 2 0 1 4 3 0 1 1 1 3 2 1 0 0 1 1 0 1 1 1 1 1 1 2 2 2 1 2 2 1 0 2 4 1 0 0 2 2 1 3 1 0 2 2 1 0 0 2 0 2 1 1 0 3 0 3 4 1 0 1 0 2 1 0 0 0 0 1 1 1 2 1 1 1 3 2 1 1 1 0 0 0 1 1 0 1 1 1 0 2 2 2 2 0 2 1 1 1 0 1 3 1 0 2 1 2 0 2 1 2 1 0 0 0 0 0 1 1 0 1 1 2 2 2 1 2 1 2 2 1 1 1 1 1 1 0 1 1 1 2 0 0 1 1 1 1 2 1 2 0 0 5 2 0 0 3 2 1 0 1 2 2 2 1 2 2 0 2 0 2 4 1 2 3 0 1 1 1 1 1 1 0 1 1 1 1 2 3 2 3 1 2 1 2 3 1 1 2 4 2 0 1 0 1 1 0 1 2 0 2 2 2 1 2 1 1 3 3 3 1 1 0 3 0 2 2 1 1 1 1 1 1 1 2 2 2 2 0 1 3 1 2 2 0 2 1 2 1 1 0 2 0 2 1 1 4 1 1 0 4 1 1 2 2 2 2 0 3 0 3 4 1 2 3 2 0 1 0 0 3 1 0 0 1 0 1 0 1 1 1 5 0 0 0 2 3 1 1 2 2 0 0 0 1 5 1 3 0 1 1 1 1 2 0 1 0 0 3 1 2 3 2 1 2 1 2 2 1 1 3 2 1 2 1 1 1 1 2 1 0 1 2 2 0 2 0 2 1 1 1 1 1 1 0 1 0 2 3 1 1 0 1 2 2 2 1 0 1 1 1 1 3 0 2 2 0 0 0 2 2 2 2 1 0 2 0 0 0 2 3 2 1 1 3 1 1 3 2 1 1 2 1 2 2 1 0 2 1 2 0 0 1 0 1 2 1 0 3 1 0 1 1 3 2 2 2 2 1 2 1 2 3 0 2 2 1 1 3 1 1 2 1 1 1 3 2 0 0 0 1 0 0 1 2 3 1 2 2 1 1 1 1 2 2 2 1 2 1 0 0 0 2 2 1 0 1 1 0 1 1 0 2 4 1 2 1 0 1 1 1 2 0 1 3 1 1 1 3 2 1 1 1 0 1 2 1 1 1 2 1 0 1 0 2 1 2 0 1 0 0 1 0 2 1 3 1 2 1 0 2 2 2 0 0 2 2 1 3 1 0 3 1 2 2 1 1 1 1 1 2 2 1 1 1 2 1 1 0 0 1 0 1 1 0 1 2 1 0 3 1 0 1 0 2 1 2 2 2 0 1 1 2 1 2 3 3 2 4 2 1 2 0 1 4 0 2 2 2 0 1 2 2 2 0 2 1 0 0 0 0 2 0 1 2 1 2 2 1 2 1 2 1 0 0 2 2 1 3 0 2 1 2 1 1 1 1 2 1 3 3 1 1 1 2 1 0 2 2 2 2 2 2 2 1 2 3 2 1 2 0 0 1 4 2 0 1 0 1 2 4 3 1 1 1 1 0 4 1 3 1 1 3 0 3 0 2 2 3 2 1 2 1 2 1 2 0 3 3 1 2 0 3 1 2 1 2 1 2 0 1 1 1 2 3 3 1 2 1 3 2 2 1 1 3 0 1 0 1 1 2 1 1 2 0 1 0 3 2 2 1 2 1 2 2 0 2 0 2 2 3 1 1 1 3 1 1 1 2 0 2 2 1 0 2 0 2 1 1 2 1 1 1 1 1 1 0 1 2 1 1 0 2 1 1 2 1 1 0 2 0 1 2 3 2 0 2 0 0 2 1 2 0 1 1 2 2 2 2 2 2 2 1 1 1 3 1 1 1 2 4 2 2 2 1 2 1 0 1 1 2 1 2 3 2 4 1 3 3 0 2 2 0 1 1 1 1 4 1 1 2 0 2 2 0 1 1 1 1 2 0 0 0 1 3 2 0 2 3 1 2 0 0 0 3 0 1 0 1 3 2 0 1 0 0 0 1 2 0 1 1 1 1 1 1 2 2 0 1 2 2 2 0 2 1 2 0 2 1 2 3 2 2 0 1 1 1 0 2 1 2 2 1 2 1 2 1 1 0 2 2 0 2 2 2 0 3 0 0 1 1 1 1 1 3 1 2 0 2 0 1 2 1 1 2 2 2 2 2 0 2 0 1 1 1 0 3 1 1 3 0 2 2 2 1 3 0 0 0 0 0 1 1 0 2 3 0 2 2 1 1 1 1 1 2 4 0 1 1 2 3 1 1 2 1 0 1 0 0 2 0 2 0 0 0 0 1 2 1 1 3 1 1 3 1 1 1 2 0 3 2 4 3 1 1 0 0 0 3 1 1 2 1 1 0 1 1 2 3 1 2 2 1 1 1 1 1 1 1 2 1 2 1 1 0 1 1 0 0 1 0 1 0 0 1 1 4 0 1 2 1 0 1 1 1 0 2 1 1 1 1 2 2 1 1 1 0 4 0 1 1 2 1 2 1 1 0 1 0 1 2 0 1 1 2 3 3 1 1 0 3 1 1 1 1 3 0 2 0 2 0 2 0 2 3 1 2 1 1 1 1 0 0 0 2 2 2 3 0 3 0 1 1 1 0 0 0 4 2 2 1 0 0 1 2 0 0 2 2 0 3 0 1 2 1 0 2 1 1 1 2 1 1 2 3 2 2 2 1 1 1 0 0 2 3 0 3 2 0 5 2 1 2 1 2 0 0 1 1 0 1 1 2 2 1 0 0 2 1 1 0 1 2 0 2 0 1 2 1 1 0 2 0 0 2 1 1 2 2 2 1 2 2 1 2 1 1 1 1 1 1 1 2 1 1 1 2 1 1 0 2 2 2 1 1 2 1 1 0 1 0 2 1 0 1 2 0 3 1 1 2 1 0 0 2 2 1 1 0 1 2 1 3 2 1 3 4 1 1 0 3 2 2 1 1 2 1 2 2 1 0 0 3 1 1 2 1 1 1 2 0 2 2 2 1 0 1 0 2 2 1 1 1 1 1 2 2 2 2 1 0 0 2 1 0 1 0 1 1 1 2 1 0 1 2 0 2 0 0 1 1 0 0 1 1 2 2 1 1 2 3 1 1 2 3 2 0 1 0 0 0 0 0 0 2 1 1 1 2 1 0 3 1 1 0 0 0 1 3 1 2 2 2 3 1 2 1 2 0 1 1 1 1 0 0 0 2 1 2 1 3 1 2 1 3 0 1 1 0 1 2 1 2 1 0 1 0 1 4 2 1 2 1 0 1 1 0 0 2 0 1 2 0 0 1 1 1 1 1 0 2 0 0 1 2 1 0 2 1 1 2 3 1 3 1 1 1 2 1 1 1 2 0 1 2 2 1 1 1 1 1 0 0 2 1 2 0 0 1 0 1 1 2 2 1 1 1 1 4 1 1 1 0 1 2 2 0 1 2 1 2 3 2 1 0 3 1 1 0 1 0 1 1 1 1 1 1 2 1 0 2 2 1 1 3 1 1 3 1 2 2 2 1 1 1 0 2 1 1 3 4 1 1 0 1 1 1 0 0 1 2 0 0 1 0 1 1 0 0 1 2 1 0 1 1 0 1 2 3 2 3 2 1 0 1 0 2 1 2 3 1 3 2 1 0 1 1 2 0 0 1 1 0 1 1 1 0 1 2 0 2 1 2 1 0 2 0 1 0 4 1 0 3 0 1 1 3 1 1 0 1 0 1 3 1 2 2 1 1 1 0 1 0 1 2 1 1 1 0 1 2 2 2 1 2 0 2 4 4 1 0 2 2 0 0 2 3 0 2 1 2 2 1 2 5 2 0 1 4 2 2 2 1 1 2 2 1 3 0 1 0 2 0 1 2 1 1 1 1 3 1 3 2 3 0 0 2 3 1 2 2 0 2 0 3 1 2 2 1 2 3 1 1 1 0 2 3 3 3 1 1 0 4 1 3 1 1 1 1 2 1 0 3 1 4 4 3 1 4 0 2 1 2 2 3 1 0 3 1 1 1 1 0 1 2 1 0 0 0 1 3 3 2 4 0 0 1 1 1 0 4 1 2 1 0 3 1 1 1 1 0 1 1 1 2 1 1 3 0 2 1 1 1 2 0</t>
-  </si>
-  <si>
-    <t>JSU(-8.737639437922104, 0.3314372890219724, -1.141835620668591e-06, 1.0643091093862506e-14)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 1 0 1 3 0 1 0 0 0 0 0 0 1 2 0 0 1 0 2 0 0 0 0 1 2 1 2 1 2 0 0 0 0 1 0 0 0 0 1 1 2 1 1 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 1 2 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 2 1 1 0 1 0 2 1 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 1 0 0 1 0 1 1 0 2 1 0 1 1 0 0 0 1 2 0 3 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 1 2 0 1 1 1 0 1 2 2 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 1 2 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 0 1 1 2 1 0 1 1 1 1 2 2 0 1 0 1 0 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 2 0 0 0 0 0 4 2 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 2 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 2 0 0 1 4 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 2 0 0 2 1 0 0 0 0 0 1 0 1 1 0 3 1 0 2 1 2 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 2 0 2 0 0 0 1 1 1 1 1 1 2 0 0 1 1 2 2 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 2 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 2 1 2 0 1 0 0 1 1 2 2 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 2 2 0 0 1 1 1 0 1 1 0 0 1 0 1 2 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 2 0 1 2 1 0 0 0 1 0 2 0 0 0 3 0 0 2 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 2 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 1 1 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 2 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 3 0 0 0 0 0 1 1 0 0 3 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 2 1 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 3 1 1 1 0 0 0 0 0 0 0 0 1 1 0 2 0 4 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 3 3 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 1 0 1 2 0 0 0 1 0 1 4 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 2 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 2 0 2 1 0 1 0 3 1 3 2 0 2 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 2 2 1 1 0 0 1 0 0 1 0 0 1 1 0 2 0 0 1 0 0 3 1 1 1 0 1 1 0 2 0 0 1 0 0 0 0 0 2 0 0 2 2 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 1 3 4 1 0 0 0 1 0 1 0 0 0 1 0 0 3 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 2 0 0 1 1 1 0 0 2 0 0 0 0 0 2 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 2 1 0 0 1 1 2 0 0 0 0 0 0 2 0 0 0 2 1 0 1 1 0 1 2 0 0 0 0 2 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 1 0 0 1 0 2 0 0 0 0 1 0 1 1 0 1 3 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 1 1 0 2 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 0 1 0 3 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 3 1 0 1 2 0 0 0 3 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 1 3 1 0 0 0 1 0 1 0 1 2 1 1 0 0 0 0 0 2 1 0 1 1 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 4 1 2 0 2 0 0 1 2 0 1 0 0 0 0 0 0 0 2 1 1 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 0 0 1 2 0 2 1 0 0 0 1 0 0 3 1 0 1 3 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 0 1 2 0 1 1 0 1 0 0 0 1 0 0 0 0 2 1 0 0 0 2 0 1 1 0 1 1 0 0 3 0 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 1 1 0 1 0 2 0 1 2 0 3 0 0 1 0 1 1 1 0 0 0 1 1 0 2 0 0 2 0 2 0 0 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 2 2 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 2 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 2 0 1 0 0 0 2 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 0 0 1 1 0 1 1 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 2 2 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 1 2 2 0 3 0 0 0 0 2 1 1 0 1 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 3 0 0 0 3 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 1 1 0 0 2 0 0 1 1 1 1 0 1 4 0 0 0 3 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 2 0 0 2 0 1 0 0 0 0 0 0 1 2 1 0 0 1 0 1 1 1 1 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 1 0 0 1 1 0 0 0 1 1 1 1 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 2 0 0 0 1 0 0 0 2 1 1 0 0 0 1 1 0 0 1 0 0 1 1 2 2 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 2 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 3 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 2 1 0 2 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 2 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 1 0 1 0 2 0 1 1 0 0 0 1 0 0 0 1 0 0 4 3 0 0 1 1 1 2 0 1 1 2 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 2 1 2 1 0 1 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 0 2 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 2 1 0 1 0 1 0 2 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 2 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 1 0 2 0 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 1 3 0 1 2 1 2 1 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 1 1 1 1 0 1 1 1 0 2 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 2 0 0 0 1 0 2 0 1 1 0 0 0 0 1 0 1 0 2 1 2 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 3 2 1 0 1 1 0 3 3 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 1 0 0 1 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 1 2 0 0 3 1 0 1 0 0 1 0 1 2 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 2 1 0 2 0 0 0 0 0 1 0 0 3 0 2 0 1 0 4 0 0 0 0 1 0 0 1 0 0 0 0 2 1 1 1 0 0 0 0 1 1 0 1 2 1 1 1 0 0 0 2 2 1 0 1 2 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 2 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 3 0 0 1 0 1 2 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 2 0 1 2 1 0 0 1 0 0 1 0 1 1 0 0 1 0 2 0 0 0 1 0 0 0 1 0 1 0 2 1 1 0 1 0 1 0 0 0 0 0 2 2 0 2 0 1 0 0 0 0 0 0 3 0 1 0 1 0 1 0 1 2 0 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 2 0 3 0 1 0 1 1 0 0 1 1 0 0 2 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 2 2 1 0 2 1 2 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 2 1 0 1 0 0 0 1 1 1 1 1 0 0 1 3 0 1 0 2 1 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 2 1 1 0 0 2 0 0 0 2 0 3 0 0 2 2 2 0 3 0 2 0 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 1 3 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 2 1 0 0 0 0 0 0 0 0 2 0 2 0 1 1 0 0 2 0 0 0 0 2 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 2 1 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 1 1 1 0 0 1 0 2 0 0 0 1 1 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 1 2 3 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 2 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 2 2 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 1 0 1 1 0 1 0 0 2 0 1 1 1 1 1 0 2 1 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 3 0 0 0 2 0 2 0 1 0 0 1 1 1 0 1 0 0 1 2 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 2 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 1 0 2 0 0 1 0 0 2 1 1 1 0 0 0 0 0 1 0 1 0 3 1 1 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 2 0 1 1 0 1 2 1 2 0 2 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 1 2 2 0 1 0 0 2 0 1 0 2 0 1 0 0 1 0 2 0 1 1 0 3 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 1 2 0 0 1 0 2 2 1 0 1 0 0 0 1 0 1 0 1 2 1 0 1 1 0 1 1 0 0 0 0 1 1 2 0 4 2 0 1 3 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 1 0 0 0 0 0 0 3 0 1 0 0 0 1 0 1 1 1 0 0 0 0 2 1 0 0 2 1 2 0 0 0 0 0 2 1 1 0 1 1 0 2 1 1 0 0 0 0 1 1 0 0 0 3 0 0 1 2 0 0 0 0 1 0 1 0 2 1 0 1 1 0 2 1 1 3 1 1 1 1 0 1 2 1 2 0 2 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 4 0 0 0 1 0 0 2 0 1 0 1 1 0 0 1 0 0 1 0 0 2 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 2 0 2 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 3 0 1 2 0 0 0 0 0 4 2 0 1 0 0 2 0 0 1 1 0 0 1 0 1 0 1 0 2 0 1 0 0 1 2 0 0 2 0 2 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 3 0 1 2 1 0 1 0 0 2 0 1 1 0 0 1 0 1 1 0 1 0 0 1 1 0 2 0 2 1 0 0 0 0 1 2 0 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 2 1 0 0 0 0 0 0 0 0 2 1 0 2 0 1 1 1 0 0 1 0 1 0 1 1 1 1 0 2 3 0 1 0 0 0 3 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 2 0 1 1 0 1 1 0 0 0 1 1 1 1 0 1 2 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 2 0 2 1 1 0 0 1 1 1 1 0 0 2 1 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 2 0 0 2 2 0 1 1 0 0 0 0 0 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 2 1 1 1 0 1 1 1 4 1 1 0 0 1 1 2 0 3 4 0 1 0 0 1 0 0 0 0 2 0 0 0 0 2 0 0 3 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 4 0 0 0 1 0 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 1 0 1 0 0 1 2 1 1 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 3 1 1 0 1 2 1 1 0 1 1 0 0 0 0 2 1 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 2 0 0 0 1 0 1 1 0 0 0 0 2 1 1 1 0 1 1 0 0 0 0 0 2 1 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 1 2 3 2 0 2 0 2 0 0 0 0 0 0 0 0 2 0 0 2 1 1 1 2 2 0 1 1 1 1 2 3 1 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 2 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 2 1 1 0 0 0 0 3 1 2 0 2 0 1 1 0 1 2 0 0 2 1 1 2 1 0 0 2 1 1 3 0 2 2 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 2 0 0 1 0 0 0 2 2 0 1 1 0 0 3 0 0 0 0 1 1 1 0 3 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 1 1 0 1 0 1 1 0 0 3 0 1 3 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 1 0 2 2 0 1 1 0 0 0 1 0 1 2 0 1 0 1 1 2 0 0 0 1 1 1 2 2 1 1 0 0 0 0 2 1 1 1 0 0 0 1 0 3 0 0 0 2 0 0 2 0 0 1 0 1 1 2 0 0 0 0 1 0 0 1 0 1 1 0 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 2 0 0 0 0 0 2 0 1 2 1 2 0 1 1 0 0 1 0 0 3 2 4 0 3 0 0 0 0 1 0 0 3 0 0 0 2 1 0 0 0 4 0 4 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 3 2 0 0 1 1 0 0 2 0 0 1 0 1 1 1 0 1 1 0 0 2 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 2 0 1 0 0 2 1 0 1 0 0 1 0 1 1 1 0 2 1 1 1 2 1 1 1 2 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 1 2 1 1 0 1 2 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 1 0 1 2 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 2 0 1 0 2 1 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 4 1 0 0 1 2 0 0 1 0 0 0 0 2 1 0 1 0 1 0 0 1 0 2 2 1 1 0 1 1 1 0 0 0 3 1 1 1 0 0 1 1 0 1 0 2 0 0 4 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 1 0 1 1 1 0 0 0 1 0 2 1 0 1 0 0 2 1 0 1 1 0 1 0 0 1 0 0 2 0 0 2 1 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 2 1 0 0 1 2 0 1 1 1 2 0 0 0 1 0 0 1 1 0 0 1 0 0 2 0 0 1 2 0 1 1 2 0 2 1 1 0 0 0 1 0 0 0 3 1 1 1 1 1 0 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 2 2 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 1 0 1 2 3 2 1 0 0 0 0 2 1 0 0 0 1 1 1 0 0 1 0 1 2 0 2 1 0 1 1 1 0 0 0 1 2 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 3 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 2 0 1 1 1 0 1 1 3 3 0 0 0 0 1 1 2 0 2 1 0 1 0 1 1 0 2 0 0 1 2 1 1 0 0 2 0 0 1 0 0 0 2 0 4 2 1 0 1 2 0 0 0 1 1 0 0 1 1 0 3 0 1 2 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 1 2 1 0 1 0 0 0 0 1 1 0 0 2 1 0 0 1 1 1 0 0 1 1 0 0 4 2 0 0 1 0 0 0 0 0 0 2 1 0 0 1 2 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 0 2 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 2 0 0 1 0 0 1 1 1 1 0 0 1 1 2 0 0 2 0 0 0 1 0 0 0 0 0 1 1 1 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 2 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 3 1 1 0 1 3 2 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 2 0 3 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 2 2 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 2 0 0 0 0 0 2 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 3 1 2 2 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 2 0 1 1 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 3 0 0 0 0 1 0 2 2 2 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 2 0 0 1 1 1 4 0 0 0 0 0 0 1 2 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 2 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 2 0 1 1 0 2 2 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 2 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 1 1 2 2 1 1 1 1 2 0 0 1 0 1 1 0 0 0 1 0 1 2 1 2 1 1 0 0 0 0 2 0 1 0 1 0 1 1 0 0 0 2 0 2 0 0 1 1 0 1 0 0 0 0 0 0 2 0 3 0 0 1 1 0 1 0 0 1 0 1 0 1 1 1 0 0 0 1 1 0 2 0 1 0 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 1 1 1 3 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 1 1 1 0 0 0 2 1 0 0 1 2 1 0 1 0 1 0 0 2 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 2 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 0 3 2 1 1 1 0 0 1 0 1 0 0 1 1 2 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 2 1 0 0 1 0 0 3 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 3 0 0 1 2 1 0 2 3 0 2 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 2 0 1 0 0 0 0 1 0 3 0 1 3 0 0 1 0 1 0 0 1 1 0 1 0 3 0 0 1 1 1 1 1 2 1 0 1 1 0 0 1 0 2 0 1 1 1 2 0 0 1 0 1 3 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 0 2 3 0 0 0 2 1 2 2 0 0 2 0 0 2 0 1 1 1 2 0 0 0 1 0 1 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 1 0 2 1 1 0 0 2 0 0 1 0 2 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 2 1 1 0 1 0 3 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 3 0 0 1 1 0 1 1 0 2 1 0 0 0 0 1 1 0 1 0 0 0 0 2 0 1 1 0 0 2 1 1 1 1 0 1 1 0 0 2 0 1 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 2 0 1 2 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 2 0 0 1 1 1 1 0 0 1 3 0 0 1 0 1 0 2 1 0 0 0 1 0 0 2 2 0 0 2 2 0 0 1 0 1 1 1 1 1 1 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 2 1 1 1 1 1 0 2 0 1 0 0 1 1 1 1 0 0 2 1 0 0 1 0 1 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 1 1 3 1 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 2 2 1 1 2 0 0 1 2 0 0 0 0 0 1 0 0 0 0 2 0 2 1 1 2 2 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 2 4 3 0 0 0 0 0 0 0 2 0 0 0 4 2 0 0 0 3 1 0 1 2 1 1 3 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 2 1 0 0 3 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 0 1 1 1 0 1 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 3 0 1 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 3 0 1 1 2 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 1 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 2 0 2 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 2 3 1 0 1 2 1 0 0 0 1 1 1 0 0 0 2 0 1 0 1 2 0 1 0 1 1 1 1 0 0 1 1 0 3 0 1 3 0 0 1 0 1 0 0 2 0 1 0 0 0 1 0 0 0 1 1 2 0 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 3 0 1 1 0 2 1 2 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 2 0 0 2 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 2 3 1 0 2 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 1 2 0 0 1 0 2 0 0 1 1 1 1 3 1 1 1 0 2 0 1 2 0 0 1 0 1 2 2 1 0 2 0 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 2 1 0 0 0 4 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 4 0 0 1 0 1 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 1 1 0 0 2 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 2 1 0 1 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 1 1 1 2 1 0 0 0 0 1 2 0 0 1 0 0 1 1 0 1 1 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 1 1 0 0 0 2 0 0 0 2 0 2 0 0 1 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 1 1 1 1 0 2 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 2 0 0 1 2 1 0 0 2 0 0 0 0 0 0 1 2 1 0 0 0 2 0 1 0 0 0 2 0 0 2 0 1 1 1 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 1 0 1 3 2 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 2 0 0 1 1 1 0 3 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 3 0 0 1 0 0 1 0 0 1 0 0 2 0 1 2 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 2 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 0 1 2 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 2 0 0 0 2 0 0 1 0 0 0 1 2 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 2 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 2 1 2 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 1 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 2 1 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 2 1 1 1 0 0 2 1 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 4 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 1 0 1 2 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 0 0 2 0 1 0 1 1 1 0 0 0 1 1 0 1 1 2 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 1 1 0 1 1 2 2 1 1 1 1 1 0 0 1 1 0 0 0 0 0 0 3 0 0 1 1 0 2 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 1 1 1 2 0 0 0 0 0 2 2 2 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 2 2 0 1 0 0 0 0 0 1 2 0 0 2 0 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 0 2 0 0 1 1 2 1 0 1 0 1 0 1 0 0 1 0 0 2 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 1 2 0 0 0 1 0 2 1 0 0 1 0 2 1 1 0 1 0 1 1 0 1 1 2 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 3 1 1 2 1 1 1 1 0 1 0 0 0 0 0 1 1 2 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 1 2 1 0 0 0 0 0 0 0 1 1 0 1 2 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 2 1 2 1 0 0 0 0 2 1 0 0 0 1 1 1 2 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 2 0 1 0 1 1 2 0 0 1 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 2 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 2 0 0 1 0 0 1 0 1 0 2 0 0 0 1 0 0 1 0 0 2 0 0 1 1 1 0 0 1 1 3 0 1 1 2 0 0 0 1 2 0 0 0 0 0 2 1 0 0 2 1 0 1 0 1 0 1 0 0 1 0 0 0 3 0 1 0 1 1 1 0 0 0 1 2 1 3 1 0 0 0 1 2 0 0 0 3 3 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 4 0 0 0 0 0 0 0 2 1 0 1 1 1 0 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 2 1 1 1 2 0 0 2 0 1 1 0 1 1 0 0 0 0 1 0 2 0 1 0 1 0 0 0 1 0 0 1 1 2 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 1 1 1 2 0 2 1 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 2 0 0 1 0 1 0 0 0 1 0 0 1 3 0 1 2 0 1 1 2 1 0 2 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1</t>
-  </si>
-  <si>
-    <t>JSB(1.471132518059396, 2.3016630460949994, -42.3640454464947, 381.289673246216)</t>
-  </si>
-  <si>
-    <t>85 58 102 84 85 89 91 98 128 99 101 85 112 76 134 79 71 88 107 96 114 131 122 138 74 106 23 130 88 91 93 76 118 164 127 46 76 130 79 49 77 40 108 95 54 76 67 129 59 65 53 49 148 102 87 104 8 75 91 81 77 88 52 82 133 111 104 81 127 77 96 53 75 112 96 85 49 36 85 51 71 54 113 87 85 67 135 70 47 75 104 46 98 121 123 113 67 74 51 93 38 53 26 90 60 49 70 59 69 139 99 34 130 157 106 45 125 84 134 63 140 81 91 103 58 70 68 60 39 122 67 154 97 66 133 61 34 71 39 81 165 108 52 168 41 75 125 118 111 97 104 156 86 93 137 83 121 120 53 128 48 90 82 42 114 35 67 120 112 74 80 74 72 98 84 74 126 82 127 79 130 69 59 77 65 132 58 129 91 115 63 58 113 58 91 120 36 81 98 76 82 195 93 150 101 68 52 112 97 68 61 70 163 112 100 117 50 49 27 36 65 51 95 99 70 106 108 111 70 85 63 67 97 133 124 160 34 103 78 77 120 167 53 67 149 89 117 51 89 59 90 100 89 110 84 79 114 175 144 110 84 134 89 121 105 74 110 78 115 50 103 31 110 144 65 94 85 38 106 150 45 126 40 54 101 67 103 59 52 98 103 95 177 187 95 95 95 61 60 76 160 134 177 91 77 53 136 115 95 133 27 132 87 104 124 148 125 132 61 68 101 113 92 45 154 129 92 52 77 131 79 93 46 143 157 52 17 155 81 43 97 66 112 79 125 153 160 79 92 119 84 61 110 96 77 134 97 186 93 78 160 98 99 71 71 40 116 68 51 77 102 85 130 71 91 151 105 25 54 130 68 49 65 95 140 119 107 102 139 88 88 73 114 102 86 96 28 69 89 95 53 107 57 103 78 120 28 62 90 127 109 103 85 132 90 92 78 58 36 123 58 48 132 123 120 106 65 115 51 83 70 120 101 70 101 53 20 78 86 88 20 69 66 91 123 60 47 85 40 182 48 77 65 74 123 96 109 103 104 102 90 93 88 106 44 85 113 72 100 134 104 162 55 56 92 81 85 83 50 116 35 125 69 79 33 124 162 82 36 115 87 108 131 45 106 86 68 66 62 66 56 96 62 149 99 25 160 139 114 46 50 101 69 18 106 68 65 82 128 78 63 104 133 81 72 80 123 96 84 39 86 30 89 150 199 88 144 103 98 86 167 108 110 54 86 130 80 176 98 66 180 137 37 58 56 53 134 31 116 79 91 57 135 20 103 114 78 105 115 75 99 109 99 30 78 107 56 32 84 83 59 154 148 115 87 85 213 138 104 108 40 75 50 35 23 73 15 48 102 87 117 90 100 76 61 35 75 115 87 52 114 84 139 180 108 53 99 98 106 83 171 81 69 120 75 141 33 159 40 71 97 11 99 81 78 140 63 118 61 70 54 29 67 173 49 116 98 100 71 105 138 49 113 84 86 80 122 123 60 76 70 59 30 83 63 116 101 86 130 81 102 106 82 57 99 34 115 38 148 109 104 50 173 87 108 118 46 129 188 107 53 47 71 154 73 59 157 26 61 89 120 88 117 83 105 136 58 110 149 120 33 84 103 82 101 97 135 159 51 93 75 103 71 108 51 76 79 70 72 108 160 75 136 82 181 104 79 86 25 45 90 145 102 95 70 154 97 45 167 124 42 11 77 35 78 107 180 27 5 157 86 110 143 118 174 96 123 55 74 93 105 150 68 40 93 118 93 61 48 162 110 126 89 65 67 42 96 77 76 96 146 107 23 26 49 66 67 70 44 118 93 41 54 100 57 13 66 87 27 120 89 156 51 115 93 54 79 99 104 137 38 69 98 89 77 122 145 125 51 137 152 106 34 113 53 121 129 159 92 139 129 119 61 83 90 146 95 61 85 171 120 105 117 98 80 126 89 116 89 74 59 78 130 70 133 104 65 144 96 85 64 67 57 109 25 76 163 41 65 126 21 106 110 124 137 120 73 109 52 129 105 82 108 59 110 119 24 69 90 46 58 90 110 125 112 93 143 113 82 115 82 23 75 70 80 58 115 131 116 106 103 97 66 20 126 105 133 93 50 91 71 76 73 54 109 122 71 44 88 109 130 98 93 102 148 44 90 85 115 121 93 9 64 120 151 56 67 65 70 30 90 125 101 123 75 87 81 98 86 49 23 106 80 116 193 126 72 104 64 91 115 41 110 104 45 51 80 74 39 41 86 108 63 86 98 36 33 73 56 106 30 82 102 87 97 96 154 120 121 88 78 115 89 92 109 119 170 97 133 97 100 125 130 125 65 75 86 101 68 57 63 55 116 136 103 166 46 80 153 98 127 36 88 101 88 98 96 87 103 89 71 95 136 63 105 105 95 116 101 119 27 133 116 103 131 69 143 91 164 105 86 116 86 144 83 59 80 132 19 102 64 123 124 47 97 70 76 142 101 78 137 111 112 80 132 74 85 97 86 101 76 120 57 163 95 44 89 56 131 70 41 74 107 81 64 135 53 107 68 51 81 124 24 120 111 80 65 135 96 108 164 67 44 168 71 164 130 51 106 146 124 125 24 94 117 118 85 103 30 60 83 118 56 130 78 142 91 105 48 67 101 70 72 80 77 128 127 100 113 32 56 131 112 78 127 45 97 92 80 82 62 51 73 129 75 134 125 59 80 58 115 59 68 62 142 142 121 190 121 82 143 108 69 115 137 111 104 21 88 61 57 45 81 106 99 70 150 40 107 84 41 82 93 55 69 96 75 129 104 190 125 158 122 42 84 39 128 128 61 83 61 168 91 66 38 104 109 54 87 23 56 48 67 129 102 39 85 44 69 85 91 112 87 76 84 99 52 95 70 123 41 73 96 107 140 18 153 83 108 56 54 84 70 114 35 87 73 71 67 28 108 159 103 31 61 44 69 94 78 87 45 32 96 66 135 59 51 63 125 106 100 73 38 134 113 112 104 38 94 134 69 95 79 81 40 90 65 71 64 53 70 107 47 62 118 48 131 70 152 46 81 124 138 116 165 148 105 159 35 145 80 40 101 161 109 87 71 83 56 60 111 92 118 149 98 123 58 159 52 80 129 31 50 114 140 130 52 163 119 97 68 133 56 116 139 115 81 90 64 45 48 115 176 93 127 106 129 206 124 32 10 125 31 127 118 103 139 43 120 74 63 111 140 82 75 153 99 108 92 56 96 61 108 147 67 66 97 168 73 107 105 93 56 52 184 94 29 99 86 107 57 98 157 136 50 110 111 105 127 114 128 107 126 124 28 48 100 57 168 83 108 95 81 113 59 106 119 93 78 36 74 95 79 99 76 65 37 81 41 79 89 115 30 133 188 84 126 120 57 103 46 118 87 85 93 69 143 88 84 138 53 33 91 95 102 84 63 35 70 112 105 67 69 53 101 36 74 90 146 115 89 116 99 86 19 125 164 82 76 79 93 60 110 121 89 29 90 78 111 54 54 121 83 127 78 89 81 80 91 108 79 207 61 104 146 89 72 71 82 103 36 57 85 90 128 109 63 60 94 59 80 105 77 89 51 73 64 108 75 118 98 112 79 45 115 135 143 129 87 123 48 31 110 47 41 128 64 34 92 102 65 66 103 137 128 49 24 154 98 51 83 125 72 71 123 71 51 88 94 38 51 71 95 96 133 58 103 172 101 166 99 96 87 79 92 32 55 104 63 121 71 50 90 109 74 52 95 150 106 171 106 172 68 83 71 115 97 58 69 34 151 34 101 78 67 85 64 54 47 131 137 30 72 56 82 90 76 82 109 16 160 105 98 133 134 56 122 49 89 126 97 87 114 49 76 75 70 118 30 101 118 135 151 57 117 33 103 108 78 105 38 53 74 61 49 26 72 100 100 149 82 79 152 76 121 47 140 132 60 141 82 108 21 150 122 37 95 105 104 126 74 142 114 71 36 56 47 155 76 123 111 122 57 74 80 22 57 67 81 93 169 109 166 132 76 108 98 94 42 19 187 58 70 87 106 30 111 129 106 123 91 102 141 105 111 140 194 120 129 101 181 48 126 119 111 36 68 103 75 62 126 150 74 78 37 48 182 52 91 45 64 109 72 42 65 146 156 88 100 161 107 66 38 90 49 137 91 171 64 62 87 48 94 85 108 64 124 73 111 31 61 134 121 71 96 97 126 125 98 183 22 74 116 61 145 132 33 121 78 119 88 92 123 61 123 114 144 98 66 95 105 55 64 92 117 139 144 99 66 183 114 34 104 82 105 113 118 69 22 105 110 71 191 121 95 38 46 177 89 107 73 29 138 98 126 105 110 84 36 72 53 83 105 38 69 91 41 122 98 79 72 63 88 129 133 114 97 90 99 102 83 105 78 28 117 43 95 61 39 61 115 95 140 123 112 126 133 83 97 91 144 55 132 136 74 123 73 56 124 43 104 71 114 24 29 86 64 94 103 134 118 66 99 72 103 76 83 85 90 85 77 47 95 60 132 111 63 90 82 67 79 134 112 175 134 41 110 33 108 140 38 90 59 117 139 71 65 42 34 39 67 77 151 113 48 65 48 64 33 101 56 90 75 144 95 134 134 97 86 49 155 100 56 89 124 135 120 56 111 41 137 35 73 53 111 96 79 120 105 67 113 59 133 161 121 96 69 71 69 71 53 113 139 149 117 113 86 98 83 143 45 52 95 104 109 131 119 85 78 62 53 127 90 102 102 36 139 72 61 56 130 164 116 41 30 109 91 166 72 96 131 85 132 218 82 122 101 92 71 92 113 61 129 112 89 64 142 88 106 24 108 81 61 148 132 90 160 114 156 59 128 63 54 182 110 60 61 72 80 54 97 82 19 69 51 80 91 69 92 170 152 151 138 59 74 91 129 84 42 97 120 145 17 59 51 53 62 100 75 145 165 91 143 87 37 49 64 88 86 149 80 118 135 48 57 137 25 177 146 173 82 134 115 102 83 120 96 99 93 90 153 166 79 60 69 103 106 73 92 78 145 154 125 100 86 191 78 117 135 46 75 211 90 105 149 67 85 45 104 131 98 131 120 111 65 69 122 128 206 126 73 107 28 83 150 95 118 112 103 126 62 97 73 116 82 62 87 91 142 138 123 69 148 62 115 116 82 74 138 122 76 113 81 105 109 122 54 145 158 145 135 112 89 125 81 85 86 64 14 60 100 85 26 135 45 121 67 131 86 158 91 142 69 47 105 113 94 137 125 108 137 120 79 90 92 59 76 171 77 64 128 84 130 46 125 121 157 68 49 131 120 102 58 101 112 101 87 118 111 115 28 142 75 89 33 117 99 84 124 88 46 51 132 66 92 125 77 32 111 39 99 154 48 168 77 142 86 95 152 65 35 100 84 62 92 57 79 78 90 24 109 119 122 139 51 51 123 74 36 158 41 83 106 123 138 89 68 108 88 124 104 46 116 85 101 163 123 61 85 108 66 120 109 102 123 84 72 84 129 44 56 99 76 101 97 47 88 138 60 174 108 79 99 138 117 108 52 103 115 155 17 37 78 83 78 96 109 94 148 18 138 76 31 119 111 32 60 70 119 65 95 123 109 95 103 78 47 91 109 48 84 124 70 44 82 59 100 130 143 176 90 68 80 100 90 84 137 110 145 84 111 62 62 118 124 121 49 168 79 87 127 136 103 89 152 100 50 222 125 72 52 121 124 58 17 66 100 75 170 67 67 9 131 108 155 104 175 87 42 66 90 122 123 145 58 79 202 128 102 106 63 109 111 128 81 77 58 46 99 81 105 90 110 17 133 65 133 29 183 85 149 96 113 60 90 148 123 122 108 114 129 113 98 82 99 175 63 145 110 63 79 134 12 76 102 59 100 120 106 104 72 60 94 54 71 87 141 56 86 67 77 88 139 98 135 68 60 75 98 114 70 96 80 97 94 66 16 64 49 54 105 69 71 129 68 130 69 53 104 79 125 99 77 113 52 91 75 49 79 108 83 137 96 157 33 139 73 104 89 118 136 129 70 215 171 132 113 95 165 98 113 79 99 70 179 166 26 74 131 67 137 98 46 131 66 85 75 70 76 117 19 36 32 125 82 49 237 85 112 87 53 109 36 73 151 83 73 123 121 138 74 120 78 65 113 74 144 31 138 85 57 75 37 121 62 43 171 62 92 10 1 43 95 68 97 79 101 86 77 62 144 144 86 110 89 15 120 46 114 121 91 60 35 72 131 149 96 129 119 130 89 95 40 74 122 105 94 65 128 136 60 47 109 33 88 107 107 98 98 69 79 110 63 77 91 123 132 116 160 80 73 163 195 114 124 47 64 145 83 117 141 126 34 46 73 45 41 136 80 73 132 96 96 139 168 120 104 56 66 91 99 59 160 84 38 107 120 145 88 27 126 122 88 66 134 54 90 99 82 89 81 75 62 102 46 127 76 72 111 92 95 119 37 98 32 110 77 84 158 72 162 142 74 138 87 198 98 85 155 95 83 108 66 54 95 88 163 24 130 78 75 98 111 113 75 74 127 87 60 42 110 45 50 153 151 84 40 96 24 163 74 73 87 81 44 77 98 133 65 102 87 146 164 74 33 118 86 49 64 82 93 133 89 145 87 170 37 76 104 48 29 54 124 63 68 115 147 103 93 59 145 101 118 70 93 113 147 69 126 104 32 127 61 57 134 153 91 102 80 146 77 80 132 160 132 134 94 64 119 128 87 46 43 142 103 30 115 129 130 83 58 100 65 100 85 94 116 110 143 108 97 75 167 38 102 87 95 139 89 130 109 48 84 89 110 66 134 49 17 74 56 38 55 77 32 137 125 103 166 40 99 39 18 47 89 23 67 66 75 79 82 55 49 82 114 98 106 59 96 104 80 99 98 32 84 46 55 106 169 21 43 97 91 134 50 80 57 96 87 28 82 80 113 100 90 33 156 59 132 102 148 93 91 86 67 54 99 8 82 93 68 136 110 77 116 148 115 95 42 51 101 127 160 95 97 143 130 64 51 65 96 76 100 35 97 72 108 59 92 105 126 16 68 124 80 118 72 127 139 53 34 114 54 165 74 129 34 73 120 52 116 78 52 65 90 75 97 78 15 86 158 70 42 57 65 119 86 84 101 149 43 59 48 65 66 92 114 77 188 173 78 77 62 65 107 82 128 87 74 118 121 87 73 69 161 113 170 92 103 78 153 51 68 67 102 179 86 35 50 148 65 136 118 94 136 87 28 124 94 106 76 133 110 52 80 167 55 100 46 112 40 116 55 103 84 138 116 117 76 52 130 85 28 96 110 111 70 98 81 87 119 97 112 109 117 91 132 112 76 80 142 68 111 167 98 94 89 75 147 51 83 81 78 93 49 89 95 164 55 44 83 74 75 95 113 30 90 85 99 158 99 117 51 133 17 83 84 79 146 157 121 53 45 75 89 71 78 34 97 58 93 100 119 106 143 67 69 163 69 48 58 85 94 91 56 65 76 25 117 71 78 98 116 96 87 98 85 94 54 94 52 86 199 61 26 123 123 78 147 21 66 61 142 129 100 46 103 97 122 116 49 95 97 115 105 72 116 107 119 94 99 84 121 82 104 31 92 49 166 117 109 112 172 59 103 55 86 64 68 57 121 123 78 81 103 81 109 86 91 147 128 146 75 137 68 75 59 145 71 60 92 100 56 107 51 88 153 112 75 63 127 140 82 115 77 86 143 57 42 62 89 101 75 59 97 96 111 127 169 114 100 108 106 90 104 88 40 18 102 21 28 108 34 18 110 131 113 60 110 46 146 133 49 60 27 42 115 138 162 59 98 81 130 139 130 78 93 83 107 111 49 89 87 115 64 152 18 115 59 155 126 118 123 128 75 47 119 99 56 60 94 89 63 56 146 78 102 117 33 64 94 48 73 153 19 91 67 76 108 90 118 87 40 154 109 93 30 132 117 98 86 129 81 16 123 107 66 48 174 82 119 63 28 96 78 52 51 95 61 104 133 162 73 60 140 37 63 120 139 60 159 98 133 146 92 109 143 118 124 74 90 118 133 70 100 68 128 62 67 54 132 62 113 77 89 70 55 101 115 64 114 129 58 162 119 67 86 89 134 63 75 85 82 131 138 76 126 169 76 81 88 78 148 95 100 40 60 65 69 115 130 47 75 84 102 89 60 189 125 122 71 68 84 57 141 107 118 117 164 82 92 132 119 74 109 74 34 31 105 60 91 97 109 181 102 81 14 63 57 74 104 38 64 61 101 117 49 44 119 95 69 140 98 130 117 82 88 53 109 15 64 119 82 94 64 160 106 78 55 74 63 34 31 97 87 64 78 51 92 77 171 96 157 79 88 112 68 27 112 103 113 80 124 62 51 112 70 112 83 62 118 76 91 124 46 98 100 60 110 127 129 68 107 117 166 105 109 104 58 6 141 46 31 108 132 134 57 81 167 58 93 161 75 119 113 79 51 24 51 152 102 75 116 128 55 70 55 99 118 107 161 121 26 82 69 106 100 69 70 87 140 94 68 70 102 77 57 38 77 76 58 84 59 28 85 96 149 165 108 32 158 75 76 46 244 78 104 38 140 70 193 56 74 93 81 101 79 113 218 56 133 152 103 73 102 76 70 113 87 72 54 97 92 54 103 102 143 63 97 34 142 84 202 60 89 81 122 95 148 153 94 88 61 87 64 89 128 105 78 95 79 92 117 98 104 64 33 31 165 132 102 70 87 83 102 120 156 55 146 43 116 143 51 130 80 106 100 124 150 84 53 95 129 85 152 187 118 91 175 89 94 112 131 115 111 40 106 43 22 91 77 104 73 116 70 84 48 153 166 65 96 33 40 55 43 96 133 86 111 58 86 71 157 103 84 85 97 61 151 40 109 181 230 78 107 110 112 86 92 90 104 34 122 46 101 62 160 86 104 58 66 33 87 91 47 108 63 116 88 223 82 116 140 21 98 76 58 68 47 37 75 143 106 97 61 67 93 126 152 99 25 90 111 103 93 99 146 122 142 143 58 106 26 145 136 82 70 100 91 90 94 32 102 43 86 104 77 46 82 44 63 129 70 9 97 73 79 137 155 100 82 87 122 146 46 124 163 123 77 173 115 126 16 65 101 97 93 90 159 124 98 65 65 102 195 147 143 106 85 86 158 70 139 69 121 135 61 116 201 73 99 99 105 82 18 162 71 27 88 85 94 108 65 103 79 57 45 93 101 72 83 119 167 84 89 114 115 111 74 39 65 107 81 55 109 139 153 60 117 86 73 145 141 139 88 62 73 63 123 104 105 82 170 22 90 44 102 81 107 142 80 59 105 93 73 58 64 112 58 125 86 145 46 29 149 144 129 101 99 176 97 41 94 73 108 14 69 18 74 68 111 58 114 156 132 86 47 93 55 110 154 44 99 72 88 71 160 49 141 57 97 73 87 149 133 72 33 35 102 35 169 70 99 66 129 154 82 64 55 123 92 85 105 160 78 109 82 71 143 47 60 81 95 152 181 92 69 43 58 59 151 104 82 73 134 120 113 82 72 91 114 73 76 95 84 38 120 95 74 140 96 107 66 122 130 106 31 83 183 65 76 40 142 120 24 135 94 122 161 143 113 85 83 92 111 59 102 81 88 74 42 75 143 57 28 82 48 157 128 77 117 80 119 152 46 48 139 102 72 45 89 99 131 102 158 41 122 152 89 112 127 91 105 27 156 101 88 60 52 31 70 96 88 143 74 98 146 71 41 133 141 143 66 55 74 108 77 64 46 96 57 48 46 50 81 104 101 92 140 41 108 42 120 31 66 77 45 113 81 89 42 76 92 65 92 113 119 110 93 43 97 107 156 139 72 105 28 99 53 133 57 129 93 20 108 26 62 107 124 130 127 144 99 73 122 103 27 110 58 135 28 107 139 92 111 64 93 20 124 134 62 15 73 74 92 36 93 94 63 98 132 61 42 34 98 63 110 81 112 153 22 112 105 100 131 145 101 94 84 46 44 181 62 85 118 37 134 78 80 97 70 48 84 113 56 134 160 90 125 57 123 55 100 122 69 38 24 115 142 142 107 51 171 132 33 33 87 92 56 107 164 110 103 88 80 74 106 35 89 88 91 60 109 133 84 126 46 17 32 62 41 50 60 71 75 76 92 151 111 52 71 81 109 57 116 105 60 43 103 191 64 83 56 89 63 109 117 132 132 99 88 84 105 81 35 95 63 42 53 37 178 69 65 106 135 68 84 186 49 52 74 77 61 153 21 33 113 88 151 30 16 71 28 49 94 40 105 62 111 56 43 49 49 37 87 93 144 40 56 95 84 152 75 70 38 131 87 88 71 114 77 93 91 115 139 75 105 116 79 141 98 76 76 86 42 50 145 51 129 83 64 21 188 80 37 51 169 82 71 83 73 118 129 100 100 194 147 111 107 43 100 117 38 142 74 22 76 50 74 101 61 103 122 118 104 102 109 118 82 10 40 41 68 72 102 165 71 74 93 135 34 52 55 67 115 63 21 112 110 119 123 44 117 121 68 91 48 31 135 41 131 105 101 84 127 57 66 167 89 76 76 91 52 69 82 139 102 8 76 79 143 163 133 29 98 88 160 77 96 146 120 50 117 32 35 115 54 45 110 82 88 82 112 25 149 123 114 44 50 109 58 82 106 64 107 69 33 70 166 80 79 103 112 75 132 144 153 53 62 29 57 218 85 87 117 62 69 72 71 165 96 41 129 30 103 84 103 72 67 82 109 153 80 90 74 133 163 79 131 70 118 104 86 121 92 95 126 95 50 118 64 101 114 35 97 90 43 68 113 73 130 62 111 106 122 85 151 97 197 180 94 141 59 131 107 152 36 67 149 79 124 165 154 127 109 78 114 96 86 177 83 92 42 121 39 48 13 136 98 104 159 46 57 95 60 91 147 144 96 74 77 51 54 100 121 56 68 102 90 74 83 99 96 96 111 62 141 127 135 64 144 68 81 81 48 84 58 50 45 86 94 118 112 117 68 97 119 119 97 130 104 71 105 96 123 86 88 74 105 154 52 7 132 56 26 144 67 87 117 112 32 106 129 82 142 52 60 67 83 93 123 119 122 98 70 134 147 120 47 40 93 85 58 117 63 77 85 122 116 56 48 157 99 70 70 98 94 112 108 45 169 42 132 110 116 111 162 28 102 63 73 101 73 121 68 54 29 89 84 113 142 115 89 78 13 101 76 40 122 70 153 96 60 32 27 51 60 122 125 110 134 19 52 172 129 129 66 60 70 112 87 186 107 54 85 108 90 102 67 126 122 136 95 165 25 137 124 236 91 118 94 133 117 17 173 98 85 64 90 154 105 67 88 128 176 50 78 149 98 43 90 97 79 53 60 85 55 116 119 122 118 133 85 113 92 58 36 99 18 57 81 44 39 81 174 102 107 69 148 36 118 119 108 21 104 93 70 135 73 105 14 127 107 170 54 163 70 83 118 30 85 61 36 140 71 55 117 140 113 130 92 126 116 47 82 71 58 71 150 58 51 105 35 83 72 43 107 94 119 82 90 118 140 71 119 110 90 146 43 101 44 135 150 100 58 136 119 208 82 115 130 100 80 14 80 52 170 57 91 74 108 107 91 100 137 55 115 181 120 117 163 87 99 98 150 157 45 84 44 108 102 93 87 148 108 75 96 163 139 89 112 33 101 156 70 49 86 115 78 141 67 87 113 119 14 135 12 87 82 124 92 132 90 146 99 44 183 107 92 164 126 83 36 100 43 84 106 61 94 143 106 100 79 76 136 96 72 104 55 147 105 111 104 55 91 22 37 160 81 17 79 101 94 105 118 69 57 54 49 75 35 94 47 57 110 33 128 126 56 70 67 52 107 107 38 91 81 146 122 60 74 61 158 34 85 146 90 70 103 54 47 65 83 104 74 78 48 64 88 73 86 106 136 56 106 48 93 141 96 95 105 93 27 106 64 80 51 189 49 85 116 35 119 125 135 103 118 153 96 68 83 78 72 68 116 63 89 145 104 46 109 67 140 94 106 137 131 86 58 134 88 99 39 89 161 44 75 84 96 64 51 136 24 39 44 29 74 51 59 103 133 79 58 101 81 146 68 76 60 58 106 204 48 40 76 81 85 135 46 113 68 29 113 94 118 104 119 91 107 128 122 144 82 42 138 84 85 79 143 86 66 65 122 68 67 139 103 71 124 71 117 106 60 89 108 52 105 153 121 105 67 104 113 156 50 150 82 72 72 64 61 94 32 115 87 23 146 104 14 111 74 64 110 69 64 102 66 135 86 83 104 98 83 200 126 90 63 82 50 157 56 89 60 81 88 108 150 159 90 38 60 82 89 99 82 132 83 148 116 57 111 180 114 125 98 95 87 50 85 45 127 26 154 100 68 61 139 51 90 88 49 93 47 60 93 111 47 100 47 94 10 99 92 115 56 82 77 107 95 28 38 47 84 102 72 190 92 61 104 103 72 99 99 58 95 91 81 88 87 80 63 122 85 186 152 104 110 97 85 113 111 79 50 92 71 32 110 141 94 65 164 102 116 102 136 149 68 159 114 69 69 71 65 58 117 108 131 129 10 107 23 42 127 113 79 105 122 108 117 32 171 88 66 94 156 124 56 117 58 139 93 147 95 194 80 154 66 105 104 74 159 40 116 88 70 36 38 63 90 146 62 99 46 66 39 28 75 53 142 181 102 123 90 91 23 95 52 65 125 130 29 113 100 140 55 67 68 55 56 100 107 66 74 68 122 79 78 76 55 125 148 29 69 60 38 103 93 41 75 79 134 31 43 66 103 97 124 102 66 114 46 76 98 70 126 105 73 103 134 74 77 106 89 48 125 132 44 74 72 103 37 82 67 132 110 60 142 110 100 30 24 77 103 92 37 81 71 51 121 126 130 60 70 75 108 63 92 56 111 64 88 173 81 93 182 50 86 101 50 60 48 72 63 54 69 73 57 56 81 18 92 103 125 97 103 67 63 53 100 95 128 165 66 47 131 23 58 93 116 144 53 86 89 75 45 94 53 109 42 137 38 83 39 135 39 67 71 130 112 95 63 124 97 162 146 110 59 111 47 68 57 91 99 65 60 129 91 155 30 107 165 65 141 109 170 56 103 146 96 103 15 92 54 28 107 205 112 159 68 86 56 31 77 49 134 121 92 71 108 112 82 65 90 144 42 154 40 47 103 81 55 53 36 97 85 26 64 31 33 50 86 88 92 36 136 100 70 157 81 118 87 53 55 134 102 74 193 98 124 143 93 67 54 63 103 31 104 38 63 83 73 91 139 47 100 144 76 117 58 70 69 94 111 72 123 52 117 41 93 135 105 52 79 61 78 102 102 103 70 138 105 113 85 61 75 81 127 75 85 62 98 56 147 111 85 111 147 111 73 169 126 85 27 108 84 79 39 116 58 86 131 149 81 102 115 82 129 74 81 24 53 86 231 50 20 110 33 146 59 72 58 80 117 44 96 117 98 99 110 111 90 102 54 79 115 107 64 112 161 86 120 156 97 62 96 94 75 127 42 21 137 88 113 81 67 40 95 118 145 20 72 106 63 142 94 102 78 79 133 83 51 71 37 80 134 60 158 62 31 51 39 93 73 120 123 99 99 83 104 112 111 107 62 117 138 86 97 55 78 2 94 46 106 128 51 105 90 46 51 98 50 40 98 109 95 98 106 151 105 76 89 100 35 85 98 80 70 81 81 82 70 94 113 79 44 95 108 135 96 96 64 118 114 67 48 61 127 75 116 92 24 62 84 67 132 118 130 27 58 48 102 53 43 101 130 192 85 71 68 89 72 70 68 135 69 83 107 117 114 65 104 90 79 56 82 126 71 102 44 64 33 127 144 95 162 127 95 83 67 115 69 112 93 82 119 58 91 94 140 33 32 91 99 55 55 79 69 41 118 176 150 99 97 99 91 107 85 58 115 121 132 115 149 126 48 68 111 65 72 86 77 196 83 118 85 37 60 33 101 65 40 78 220 64 46 175 104 122 173 121 48 93 110 82 130 150 131 55 55 93 120 63 111 144 73 54 75 102 61 129 54 76 102 116 69 118 64 45 53 164 131 111 60 54 109 89 112 119 89 64 53 58 118 48 67 42 117 91 91 136 43 72 97 63 115 185 137 58 119 45 112 108 126 112 80 78 56 97 80 53 72 77 43 68 172 55 130 110 66 122 81 115 109 68 54 92 92 74 132 149 81 217 123 79 71 85 186 73 118 48 157 80 112 76 111 101 51 151 136 67 62 116 73 74 159 14 54 55 75 103 145 101 92 43 68 116 93 79 86 128 75 53 69 131 129 142 76 54 62 75 79 113 49 113 66 87 84 78 112 124 71 91 15 99 27 33 138 109 137 69 37 101 72 74 85 42 71 67 45 87 138 105 103 110 89 136 79 52 131 73 43 79 78 83 123 91 82 142 79 29 57 81 63 79 112 58 70 58 146 43 54 22 77 121 108 41 8 63 139 123 147 159 68 174 111 63 51 51 101 35 105 96 143 108 125 133 84 147 42 82 57 104 83 100 56 91 31 96 90 93 108 136 68 115 104 99 163 77 44 82 181 86 103 125 76 76 123 172 151 112 41 113 118 77 82 97 114 24 68 131 62 93 55 65 146 76 72 121 32 63 87 62 85 112 131 98 151 8 87 80 145 105 69 85 72 76 68 74 57 154 62 119 85 95 122 140 89 32 35 113 120 85 49 104 55 72 113 128 80 59 108 60 90 106 33 61 35 126 93 38 48 49 109 45 51 57 133 88 47 105 176 97 63 80 107 70 102 81 127 101 49 58 114 110 85 75 80 169 36 55 123 107 87 53 95 98 120 131 58 85 21 83 141 74 70 32 40 99 81 81 107 152 67 73 75 98 67 101 50 125 96 85 31 105 123 79 90 100 51 101 103 46 20 85 189 69 132 105 121 70 70 132 92 125 82 105 26 129 54 85 153 26 74 51 56 94 64 150 94 39 66 97 105 107 99 79 141 75 70 110 117 69 88 98 40 94 63 45 32 65 154 152 74 90 78 121 104 165 49 34 66 82 161 112 124 91 88 102 86 86 83 32 43 60 59 62 109 86 140 103 80 111 66 84 66 95 97 112 151 111 90 141 51 80 98 86 113 90 91 108 141 91 60 72 96 84 85 152 64 158 91 131 58 128 19 144 90 76 58 60 53 115 82 83 59 129 92 75 107 80 96 20 163 87 154 70 115 133 78 106 97 90 86 55 74 132 113 70 75 75 43 33 75 65 107 168 161 157 52 72 94 41 150 117 114 73 23 105 68 53 123 142 95 43 138 61 167 53 159 107 110 99 60 63 30 64 118 55 42 69 95 84 90 80 134 191 65 39 196 68 79 65 27 153 95 26 21 103 120 90 58 82 84 83 105 49 87 88 61 75 89 47 134 93 125 75 29 65 56 7 38 60 69 80 84 110 100 46 104 86 41 54 163 59 172 105 83 112 161 125 68 85 74 91 54 118 58 141 23 127 64 70 85 87 157 169 91 98 160 83 115 136 63 157 109 82 41 84 57 140 95 48 86 114 51 73 86 158 140 102 166 53 57 103 77 62 118 70 153 120 160 85 124 107 114 73 89 178 26 87 140 76 70 83 66 142 33 90 119 100 33 92 115 80 105 117 167 166 180 78 133 64 42 107 86 35 66 86 67 77 114 55 97 161 16 40 125 42 80 161 137 45 143 12 81 145 45 72 99 132 92 92 47 21 107 72 111 82 142 58 20 75 88 91 67 31 104 59 73 80 87 99 56 72 106 65 142 35 98 90 104 150 85 76 102 104 124 114 90 151 142 95 125 56 47 146 104 107 108 58 39 142 52 76 95 94 130 65 37 125 69 151 59 33 83 62 70 40 87 93 165 71 78 127 76 92 84 70 74 157 55 52 133 120 49 19 106 59 71 91 66 91 82 146 55 79 85 85 22 41 162 101 61 168 83 46 24 110 114 94 133 139 63 111 146 64 114 133 65 75 107 158 29 76 100 137 89 55 60 52 95 49 75 70 88 123 55 131 54 82 113 77 108 51 116 103 113 125 79 93 63 67 49 94 127 125 119 54 108 107 32 65 90 92 80 96 118 93 37 138 66 63 194 132 71 103 99 79 118 38 58 152 62 65 70 60 91 54 95 80 133 77 83 99 103 122 161 83 88 50 117 83 78 56 98 99 81 106 49 72 135 117 167 106 65 136 60 64 98 118 92 90 98 65 59 72 118 158 50 19 58 94 236 124 179 102 104 101 70 155 70 202 115 160 133 147 107 115 78 112 167 80 69 165 31 61 81 63 68 83 140 87 80 86 122 19 74 91 97 124 65 100 109 61 110 66 16 129 139 94 126 126 86 145 100 132 79 60 61 92 112 47 63 96 137 87 91 129 41 123 84 92 79 98 99 77 147 118 72 60 101 61 56 121 71 51 41 111 99 61 105 147 68 87 107 140 111 70 121 75 107 65 165 105 44 98 91 152 76 64 37 59 128 47 27 40 56 136 48 93 59 85 161 53 64 134 18 130 135 130 63 62 115 53 141 75 37 92 92 56 85 100 84 130 72 94 145 128 39 80 70 45 112 118 116 147 209 72 24 95 101 119 101 115 116 96 52 31 106 91 146 62 125 95 52 140 100 56 108 131 133 48 55 64 87 81 122 135 101 125 115 89 92 92 90 140 59 160 78 28 61 108 57 49 51 169 69 98 96 152 24 81 36 41 50 146 70 111 118 112 100 96 23 61 116 83 78 105 169 104 114 91 103 123 90 114 109 90 118 130 148 64 177 80 136 77 84 104 120 44 72 40 92 93 96 66 120 103 34 72 133 105 59 113 127 58 91 50 61 117 75 46 124 113 98 117 54 38 67 51 111 57 86 140 93 100 82 66 155 139 35 115 76 58 128 79 153 80 152 55 92 76 152 119 66 80 33 160 37 132 121 73 46 138 118 49 97 91 35 91 95 93 134 59 97 30 118 61 83 32 49 112 183 56 178 69 91 52 106 97 44 111 76 52 49 87 139 163 58 52 38 106 27 132 103 112 112 87 97 134 124 56 154 47 175 141 143 79 44 144 91 39 114 97 94 157 69 99 10 61 39 110 100 81 34 111 109 103 114 68 79 86 42 108 56 162 27 47 71 93 66 132 89 60 71 55 102 152 132 150 59 163 126 119 103 79 74 85 101 103 51 67 134 162 105 156 118 167 111 113 158 97 73 76 105 92 26 77 62 111 72 94 109 127 117 135 129 82 67 60 129 110 81 31 120 70 167 158 124 55 85 117 97 27 71 39 148 93 126 106 104 79 129 98 77 105 97 138 49 112 98 83 125 84 72 122 102 172 111 90 118 56 94 125 108 34 42 62 110 143 106 135 171 106 132 129 87 101 112 91 88 28 108 104 69 163 38 184 30 58 153 81 94 57 35 110 87 120 90 128 103 120 65 56 99 40 77 48 80 108 74 54 156 172 20 100 129 11 158 115 68 101 89 136 52 84 41 90 125 127 36 110 49 81 94 99 133 83 54 68 117 66 156 96 36 39 119 123 141 0 146 137 119 77 97 154 31 86 42 100 81 32 52 81 50 105 99 25 159 111 111 129 137 54 91 102 119 67 51 84 42 81 66 87 106 131 83 142 51 31 96 113 138 138 28 133 90 146 74 115 72 44 109 55 88 103 56 61 108 138 134 47 56 90 80 53 41 91 123 97 135 143 72 41 51 81 71 48 157 70 111 87 112 75 99 86 120 52 76 47 92 97 68 82 49 100 81 108 97 88 77 131 66 116 151 89 72 129 56 53 166 120 73 103 97 95 116 122 138 42 123 85 111 63 158 112 139 166 41 61 78 73 110 108 131 82 161 102 48 73 44 124 125 49 58 53 89 75 90 112 95 79 76 166 86 128 59 128 60 107 104 67 102 52 90 37 65 74 152 78 128 157 43 149 22 58 107 73 93 90 140 110 111 42 66 51 100 121 108 62 113 188 116 103 70 61 61 119 152 155 58 33 53 60 79 93 51 138 40 54 58 75 165 72 142 131 69 66 105 50 103 110 49 55 124 148 101 41 84 122 32 87 154 106 137 66 42 124 144 111 43 104 102 42 113 107 3 64 74 68 92 110 54 64 30 144 99 107 143 14 106 149 124 78 42 58 73 78 55 118 97 105 75 129 60 114 55 37 61 116 79 27 43 144 137 84 103 113 27 102 127 73 66 104 120 92 122 101 80 93 62 100 184 83 37 99 122 45 113 93 40 52 70 105 88 42 41 59 152 103 60 73 94 157 107 113 128 15 156 126 64 64 34 159 66 66 88 58 134 109 202 77 105 101 127 87 77 68 62 67 125 52 59 89 47 96 115 144 98 68 142 167 79 72 57 71 58 38 88 130 99 142 98 72 54 42 88 68 113 65 41 133 77 59 103 92 68 45 70 121 87 41 101 50 79 54 142 50 66 76 87 68 50 126 119 83 77 24 63 68 91 67 84 29 69 119 106 35 85 54 77 81 133 64 103 34 50 102 81 43 104 117 116 59 100 73 123 96 53 74 100 43 128 32 103 117 50 145 70 99 95 42 31 76 82 134 148 124 28 92 97 66 91 112 99 68 142 65 82 106 89 94 153 55 114 47 77 39 94 27 111 84 62 124 193 122 37 57 75 69 84 66 154 75 69 119 54 108 64 125 24 62 131 120 108 55 79 130 86 154 34 164 43 98 108 115 56 120 71 154 102 110 130 56 27 88 63 83 52 58 119 98 38 164 70 132 63 74 42 57 27 80 82 68 92 65 105 75 45 98 76 58 95 86 64 141 82 133 93 37 38 31 137 71 78 103 56 100 80 47 58 156 85 113 84 130 44 75 82 69 61 100 82 57 29 91 86 35 74 38 56 133 47 78 24 66 150 104 25 72 92 91 92 129 145 124 133 66 123 73 142 90 114 68 59 61 148 38 130 162 73 104 53 70 44 128 62 116 82 88 123 42 77 206 201 158 101 146 77 126 75 67 142 96 167 83 75 95 59 75 125 155 62 131 58 71 57 13 14 168 32 100 37 103 159 41 39 57 96 48 109 81 86 58 56 74 77 111 113 105 135 125 154 87 116 107 53 107 83 75 54 107 122 78 106 138 118 66 83 48 133 87 142 144 76 158 67 143 101 74 107 60 98 126 53 125 143 46 88 73 98 67 82 15 108 63 150 120 70 39 68 136 121 71 122 125 35 89 126 72 129 128 88 71 97 127 39 119 104 90 156 83 44 101 83 114 118 51 65 78 82 30 93 94 84 48 136 171 85 69 96 80 95 124 61 151 60 77 134 9 132 73 110 80 110 71 71 105 96 94 65 105 108 132 86 139 73 75 50 16 68 52 101 110 15 111 58 101 102 36 120 171 125 104 62 31 101 127 67 143 61 51 93 78 109 137 95 72 124 87 178 122 72 59 94 105 60 79 92 130 56 109 51 54 80 79 80 85 38 107 104 69 95 134 113 26 48 85 74 110 136 62 124 119 64 111 101 117 81 55 41 160 94 88 135 55 54 115 40 89 114 126 136 116 86 81 71 118 110 107 75 107 46 74 43 109 98 112 133 100 60 116 76 77 120 73 78 157 120 83 132 95 46 77 47 90 77 141 95 91 92 69 73 84 79 55 55 98 128 117 37 64 75 60 87 85 77 74 48 78 106 105 123 111 136 76 90 71 48 102 128 145 140 54 121 76 23 80 101 108 47 66 162 86 97 136 28 77 124 67 123 69 111 79 65 81 143 92 59 41 63 23 120 91 73 155 67 85 89 61 56 63 109 92 122 103 102 115 87 62 61 121 18 37 94 139 83 96 48 37 155 127 80 71 91 79 126 101 86 159 77 80 95 28 68 109 60 48 168 103 128 163 168 71 72 98 123 90 125 154 61 140 76 77 45 87 128 109 87 123 148 67 67 55 211 70 101 103 89 155 192 115 66 117 47 74 90 84 89 25 64 58 117 85 59 156 117 97 59 107 46 120 96 115 141 91 95 127 35 95 41 46 95 26 98 93 120 111 44 61 49 98 80 127 108 27 86 56 142 111 105 134 123 126 154 97 100 106 38 92 133 90 84 66 170 117 70 116 96 119 64 127 47 92 96 58 80 66 86 68 96 125 97 104 93 176 91 127 102 75 89 87 74 25 114 84 135 144 150 71 170 98 167 76 113 148 94 87 111 91 82 59 54 80 49 72 93 90 118 67 83 149 128 66 31 99 107 87 128 123 87 150 48 123 88 54 82 80 193 61 56 118 110 106 110 112 93 68 103 100 31 56 47 96 100 148 89 58 112 148 98 140 95 122 87 183 87 119 54 106 51 72 67 78 120 66 170 139 68 98 79 39 102 31 70 51 87 70 124 53 126 142 94 102 111 134 48 33 68 134 97 56 43 142 88 112 90 103 140 135 59 82 155 85 87 51 209 61 74 25 157 93 181 187 19 51 79 87 11 73 92 34 103 86 115 60 23 92 82 119 88 104 124 132 133 98 108 136 75 58 72 121 84 78 94 127 107 74 34 121 71 52 43 117 46 137 71 134 113 56 121 76 148 53 152 144 144 76 119 62 103 46 90 133 115 68 89 113 88 41 112 103 114 56 59 54 102 129 60 131 49 71 52 70 58 45 143 80 102 100 98 105 51 159 172 97 123 65 58 76 133 138 131 168 51 70 122 53 193 106 116 85 54 73 85 103 137 182 144 117 116 90 134 79 91 101 56 53 121 105 98 69 91 111 62 112 158 72 61 80 88 93 51 121 23 110 41 90 95 120 123 29 130 80 63 111 94 24 117 56 99 99 4 138 178 77 182 49 100 19 119 63 68 159 106 13 123 130 119 95 95 62 30 62 90 128 89 76 133 64 33 118 162 158 85 98 169 151 79 50 84 58 55 76 104 29 223 51 75 139 30 97 61 88 88 105 110 63 35 115 50 160 121 75 81 33 70 95 67 70 59 198 14 83 102 114 83 73 61 93 103 188 52 109 145 166 106 91 98 81 41 126 91 41 141 168 146 49 65 70 101 160 76 62 112 95 69 24 28 130 57 122 151 71 126 69 105 53 29 92 54 110 126 172 41 76 116 40 66 69 96 132 44 23 98 112 72 24 100 158 62 111 60 39 78 188 57 70 104 92 65 94 135 69 55 70 114 80 123 112 114 99 83 57 130 126 146 52 31 158 21 43 106 158 180 108 119 127 109 125 60 50 93 71 92 82 73 160 147 140 105 56 108 194 42 95 127 117 79 59 138 75 50 55 140 120 87 65 71 111 170 78 33 73 65 53 76 111 52 61 51 78 109 54 155 99 79 115 91 99 148 42 34 79 92 137 100 84 132 77 86 131 138 117 94 77 131 112 89 118 181 77 105 95 95 34 83 105 120 123 120 82 108 118 32 51 84 109 81 54 60 87 75 110 135 150 135 62 45 100 189 69 112 72 33 120 84 95 131 31 108 59 71 92 106 119 141 114 128 76 128 113 73 119 74 140 30 71 26 64 70 65 74 108 56 65 81 114 110 104 127 113 12 149 169 68 120 65 139 81 78 81 150 48 142 91 64 69 114 137 94 89 93 93 89 81 24 62 49 94 86 81 122 76 74 90 111 95 111 80 64 85 96 105 68 99 69 87 103 38 102 119 94 101 101 124 128 155 40 77 203 56 61 134 129 100 45 60 62 113 131 44 34 136 53 127 30 75 136 86 90 23 94 44 45 112 103 112 102 145 43 91 110 154 106 82 80 91 48 52 85 54 67 129 151 142 39 46 104 63 95 126 119 76 66 58 104 60 76 117 158 53 57 117 52 47 73 89 121 97 47 121 72 85 123 121 119 70 78 120 149 57 171 70 133</t>
-  </si>
-  <si>
-    <t>MIE(0.30692418686860296, 2.5247202073599535, -1.289697820143026e-30, 1.0170790759509312)</t>
-  </si>
-  <si>
-    <t>1 0 1 2 0 0 0 0 2 1 1 0 2 1 0 1 0 1 0 1 2 1 0 1 0 2 0 0 0 0 1 0 2 2 4 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 1 1 1 0 2 1 2 1 1 1 0 1 0 1 0 2 0 0 1 0 1 1 1 1 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 3 0 0 0 0 0 1 1 0 0 1 0 0 2 2 2 0 0 2 2 0 0 1 1 1 1 1 1 0 1 0 0 2 1 1 1 0 1 1 0 1 2 1 0 2 0 0 0 1 0 2 1 1 0 2 0 0 0 0 0 1 0 0 1 0 2 0 0 2 1 1 1 0 3 1 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 3 0 1 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 2 2 2 0 1 1 0 0 2 0 0 0 0 1 0 1 1 0 0 1 1 0 1 1 3 1 0 1 0 1 1 1 0 1 1 0 1 0 0 2 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 3 0 1 0 0 0 0 0 1 1 0 0 2 0 1 2 0 1 0 2 2 0 1 1 0 0 3 1 2 0 1 1 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 1 1 1 1 2 0 0 1 0 1 0 2 1 0 0 3 0 0 0 0 1 1 0 1 0 0 0 2 1 1 0 0 1 0 1 1 0 0 2 1 0 1 2 0 0 2 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 2 1 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 2 0 1 0 1 1 1 0 1 2 1 0 1 3 0 0 0 0 2 0 0 1 1 1 1 1 1 0 1 1 1 3 0 0 1 1 1 2 1 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 2 0 0 2 2 0 1 0 0 1 0 0 1 0 2 2 0 0 2 2 0 0 0 1 0 2 1 0 0 0 1 0 2 0 1 1 0 1 2 3 1 2 0 1 0 4 0 1 1 1 1 1 1 1 2 1 2 1 1 1 0 2 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 1 0 0 1 1 1 0 0 2 0 0 0 1 1 1 0 1 0 0 3 1 1 0 0 0 0 0 1 1 0 0 2 1 1 1 2 3 1 0 1 0 1 0 0 2 0 1 1 0 1 0 0 0 1 0 2 1 1 1 0 0 1 0 1 0 0 0 0 1 2 1 1 1 0 0 0 2 1 2 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 1 0 1 2 0 1 0 2 1 0 1 2 0 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 1 0 1 2 1 1 0 2 0 3 0 0 1 0 0 0 3 1 2 0 1 1 1 2 0 2 1 2 0 0 0 0 0 1 2 1 0 0 0 2 1 1 0 0 1 1 1 0 1 1 1 1 3 0 1 0 0 0 0 2 1 0 0 1 2 0 2 0 1 2 0 1 0 1 1 2 2 0 0 1 0 0 1 1 0 3 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 1 0 1 2 0 0 0 1 1 1 1 1 0 0 4 1 1 1 1 2 0 1 1 0 4 1 1 0 1 0 1 0 0 2 2 1 0 0 1 2 0 0 1 0 1 2 0 0 3 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 2 0 1 0 0 0 1 1 2 1 1 0 3 0 0 3 1 0 0 0 3 2 0 0 2 1 0 0 0 0 0 0 0 0 0 2 0 2 1 2 0 0 2 0 2 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 2 0 0 0 1 2 1 0 2 0 1 1 1 1 1 1 1 0 1 0 0 1 2 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 2 0 1 1 0 0 1 0 2 1 1 0 0 1 3 1 1 1 0 2 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 2 2 0 1 2 0 0 1 0 1 0 0 0 0 3 0 0 0 1 1 1 0 2 0 1 1 1 0 0 3 0 1 0 0 1 1 0 1 0 1 0 0 1 0 2 0 0 0 0 0 1 2 0 4 1 0 1 0 0 0 1 1 1 1 2 1 0 2 0 0 0 0 0 1 0 0 0 0 0 4 0 1 1 0 0 1 1 2 2 0 0 1 1 1 0 0 2 0 2 2 0 1 0 2 2 1 0 2 2 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 2 1 0 0 1 0 3 0 1 0 0 0 3 0 4 0 1 0 0 2 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 2 0 2 0 0 2 1 0 1 0 0 0 0 0 0 3 0 1 0 0 0 0 2 0 0 0 0 2 4 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 2 1 0 0 1 2 1 1 1 1 0 1 1 0 2 0 2 1 0 1 0 0 0 1 0 1 0 0 0 1 1 2 2 0 1 0 0 0 0 2 0 1 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 2 2 0 1 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 2 1 1 3 1 3 0 0 0 2 2 0 1 2 1 2 0 0 0 1 0 0 0 2 1 0 0 2 0 0 2 0 1 1 2 2 0 0 2 3 2 0 1 2 1 0 0 1 1 0 0 1 1 1 0 0 1 2 1 0 0 1 0 2 1 0 3 0 1 1 1 0 2 0 0 0 2 1 0 1 0 0 0 2 0 2 0 2 0 2 1 1 0 1 2 1 0 2 1 0 0 0 3 2 0 0 1 2 2 1 0 0 0 1 0 1 1 1 2 0 1 1 2 1 0 1 0 0 0 1 1 0 2 1 1 0 0 1 0 2 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 1 3 1 0 0 0 1 1 2 0 0 1 0 1 0 0 2 0 1 1 2 0 2 1 1 0 2 0 0 1 2 0 0 0 1 3 0 1 1 1 2 0 2 2 0 0 2 0 0 0 1 0 0 0 1 1 3 0 0 0 1 1 1 0 0 0 0 2 1 3 0 0 0 1 2 1 2 0 0 1 0 0 0 1 1 1 4 0 1 0 0 0 1 0 0 0 0 2 1 1 2 0 0 0 1 0 1 0 0 2 0 0 1 1 1 3 0 0 1 1 0 1 0 1 0 0 2 0 1 1 0 0 0 1 0 1 1 0 2 1 1 0 1 0 1 3 2 0 1 0 0 1 1 1 1 1 0 2 0 0 0 0 0 2 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 2 2 0 2 0 1 0 0 1 0 3 0 2 1 0 3 0 0 0 1 0 0 1 1 1 0 1 0 1 1 3 1 1 2 0 2 0 0 1 0 1 1 2 0 0 2 0 1 2 2 0 1 1 0 0 0 0 0 4 0 2 2 0 1 1 0 0 0 0 1 0 2 2 0 1 0 1 0 0 0 1 1 0 0 1 2 0 1 1 0 1 0 2 3 1 1 2 1 0 2 0 2 0 3 0 1 0 2 1 1 0 1 2 0 1 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 2 0 2 1 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 2 0 1 1 0 0 1 2 0 1 1 1 1 0 0 2 0 0 1 0 1 0 0 1 1 0 0 1 0 0 3 1 2 0 0 2 2 0 0 0 2 0 1 1 1 1 0 1 1 0 1 1 0 0 1 2 0 0 0 0 0 1 1 2 1 1 1 1 0 1 0 0 0 2 1 0 0 0 2 0 0 1 3 0 0 1 0 2 0 1 0 1 0 1 2 0 1 1 2 0 1 0 1 1 1 1 1 0 1 2 1 0 0 1 0 0 0 2 0 1 1 0 0 0 1 1 0 0 0 2 1 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 2 1 1 0 1 0 1 1 0 1 1 4 0 1 0 1 0 0 2 2 0 0 0 0 0 1 1 0 1 0 3 1 0 1 0 0 1 2 1 0 2 0 0 0 0 1 0 0 1 1 1 1 1 1 1 0 2 0 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 1 3 2 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 4 3 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 2 0 3 3 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 2 2 0 0 1 0 1 1 1 3 0 0 0 1 1 1 1 3 3 2 1 1 0 0 2 1 0 1 2 1 2 1 1 0 0 2 0 1 1 3 1 1 0 1 1 2 1 0 0 1 0 1 0 1 0 0 1 1 3 0 1 0 0 0 1 0 3 0 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 2 1 0 0 2 1 4 0 0 0 0 0 1 0 1 2 1 0 0 2 0 1 2 1 1 1 3 1 0 0 1 0 0 0 1 1 0 3 1 1 0 2 0 2 0 0 0 1 2 0 0 3 0 1 1 0 0 0 0 1 0 1 1 0 2 0 3 0 0 3 0 1 0 2 2 2 0 1 1 0 1 2 0 2 0 0 2 1 0 1 1 0 2 2 0 0 0 0 3 1 1 0 2 0 1 2 0 0 2 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 2 1 1 0 0 2 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 2 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 2 1 0 1 1 1 0 1 1 1 0 0 3 1 1 1 2 0 1 0 0 0 2 1 1 1 0 0 0 2 1 0 0 0 0 0 0 2 0 0 0 2 2 0 0 1 1 2 0 0 2 1 0 0 1 0 2 0 0 3 0 0 0 1 1 1 2 1 0 1 0 0 0 1 0 2 1 0 1 1 0 3 1 2 1 0 2 0 0 1 1 2 1 0 0 1 0 2 1 1 0 0 2 1 1 3 0 0 0 1 0 2 1 0 0 3 1 0 0 0 2 0 1 0 0 0 0 2 0 1 1 1 0 0 0 2 0 1 1 0 0 1 0 1 1 1 0 0 0 1 3 2 1 2 0 0 2 1 0 0 1 0 1 1 0 2 1 1 2 0 2 0 1 1 1 2 0 0 0 0 0 0 0 1 1 2 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 2 1 0 1 1 0 0 0 0 1 1 1 0 0 1 2 1 1 0 0 0 0 1 1 0 1 0 2 2 0 2 2 0 0 2 1 0 1 2 1 0 2 1 0 2 2 1 0 2 0 1 0 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 1 2 0 1 2 1 2 2 1 1 0 1 0 1 0 3 1 0 0 0 1 0 0 1 0 0 0 0 0 1 2 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 2 1 0 0 2 3 2 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 2 1 1 2 2 0 0 2 0 1 1 1 1 1 1 0 0 1 1 0 1 1 1 1 1 2 1 0 0 0 1 0 3 1 0 0 1 1 1 1 2 0 1 0 0 0 1 0 1 1 1 2 1 0 0 0 1 2 2 1 0 0 1 0 0 1 0 0 0 3 1 2 1 0 2 2 1 0 0 1 0 1 0 0 0 0 2 2 1 0 0 3 1 1 1 1 0 1 1 0 1 3 1 0 0 1 1 1 1 1 0 0 1 1 0 0 1 0 0 0 2 2 0 1 0 2 2 0 0 0 0 1 0 0 1 0 0 2 2 0 1 0 1 0 0 0 1 2 0 0 0 2 0 1 1 0 0 0 2 0 0 1 1 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 0 0 2 1 2 0 0 0 2 0 2 1 0 0 0 1 0 0 0 0 2 2 0 0 1 1 0 1 1 1 0 2 1 2 1 0 1 0 0 0 0 0 2 0 2 0 0 1 0 0 2 2 1 1 0 0 2 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 2 1 2 0 0 1 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 2 0 0 0 0 0 0 0 2 0 1 1 2 0 2 1 0 0 0 0 0 0 1 0 1 0 0 2 0 2 4 0 1 0 0 1 2 0 0 0 2 0 1 0 1 2 0 0 0 1 0 1 1 0 1 2 0 0 2 0 2 0 1 1 0 0 1 1 4 1 2 0 0 1 1 2 0 0 0 0 0 2 0 0 1 2 1 0 1 2 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 1 2 0 1 1 1 0 2 0 2 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 1 2 0 2 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 1 1 0 1 2 0 1 0 0 1 1 0 0 1 0 2 1 1 0 2 1 1 1 0 1 0 0 0 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 1 0 2 1 1 2 2 1 2 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 2 2 2 1 0 2 1 0 1 0 0 0 0 2 2 0 1 2 2 0 1 1 0 2 0 1 1 0 1 1 1 1 2 0 1 0 0 0 2 0 1 1 2 0 1 0 0 0 1 0 1 0 2 0 0 0 2 0 2 0 4 1 3 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 3 1 1 1 0 1 0 1 0 1 1 1 1 0 0 1 4 1 2 0 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 2 0 0 1 0 0 0 1 1 0 0 1 1 2 0 0 1 0 2 1 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 3 1 1 0 1 0 1 0 0 0 1 0 2 0 0 0 2 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 2 1 0 2 0 0 1 0 0 0 1 3 2 0 2 2 1 1 1 0 1 1 3 0 0 1 1 1 1 2 0 1 1 1 1 0 0 0 0 2 2 1 1 1 1 0 0 1 1 3 1 2 2 2 1 1 0 0 1 0 2 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 2 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 0 3 1 0 0 0 0 1 2 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 2 2 0 2 0 2 0 1 0 1 1 1 1 0 3 0 2 1 0 0 0 0 0 0 2 1 0 0 0 1 1 2 0 2 1 0 2 0 1 1 1 1 1 0 1 1 2 0 1 1 0 3 1 1 0 0 0 0 0 1 1 2 1 0 2 1 0 1 1 2 0 1 0 0 0 2 0 1 0 1 0 0 0 0 2 0 2 0 0 0 0 1 1 0 1 0 1 1 1 0 1 1 1 0 1 0 1 1 0 0 0 0 2 1 1 0 3 1 1 0 1 1 0 2 1 0 1 0 1 0 0 1 1 1 2 0 1 0 2 2 1 1 0 0 1 2 0 1 1 1 2 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 2 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 2 1 0 2 0 3 1 0 1 3 4 1 1 1 2 0 1 0 2 2 2 1 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 2 0 2 0 0 2 0 2 1 1 0 1 0 0 0 2 1 0 0 0 0 1 0 1 0 0 1 2 0 1 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 1 3 0 0 2 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 2 1 0 1 1 0 0 0 0 1 0 2 0 1 0 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 1 0 0 2 0 0 1 0 1 1 1 3 0 0 0 1 0 1 1 0 0 2 0 2 0 0 0 1 1 0 0 0 0 2 2 1 2 1 1 2 0 0 2 2 1 2 1 5 3 0 1 1 0 0 1 0 0 1 0 0 1 0 1 2 2 1 1 0 0 0 2 1 3 2 0 0 1 1 1 0 2 0 1 1 0 0 0 1 0 0 1 1 2 2 2 1 1 1 0 0 2 1 0 2 1 0 1 1 2 0 0 1 0 1 0 0 0 2 0 0 2 0 0 1 0 0 1 1 0 2 2 2 0 0 0 1 1 0 0 0 1 1 3 0 1 0 1 0 0 2 0 0 2 0 2 1 2 1 0 0 0 2 0 1 0 1 2 2 0 0 1 0 2 1 1 0 1 1 1 0 0 1 0 2 0 0 1 1 0 0 2 0 0 0 0 1 2 0 0 1 1 1 1 0 1 2 3 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 0 1 0 0 0 1 2 0 2 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 2 1 0 0 0 1 2 0 0 2 3 1 0 0 0 1 1 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 2 0 0 1 1 2 0 0 0 1 0 0 0 1 1 3 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 5 1 0 1 0 1 1 0 2 1 0 0 1 0 1 0 1 0 0 1 0 1 0 2 1 1 3 0 1 2 0 1 2 0 0 0 0 0 1 1 1 1 1 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 2 4 1 1 0 2 0 2 1 1 2 1 1 1 2 1 0 0 0 2 1 1 0 0 0 1 0 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 2 0 3 3 1 1 2 1 0 1 0 1 1 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 1 0 0 2 1 0 0 0 2 0 1 3 1 1 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 1 1 2 0 0 2 0 0 0 0 1 2 0 1 1 1 1 0 0 1 2 2 1 2 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 4 1 1 1 0 0 1 0 1 0 1 1 0 1 0 2 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 1 2 2 0 0 0 0 0 0 0 2 1 0 1 0 2 1 0 0 0 0 1 1 0 0 1 0 2 1 0 1 0 1 2 0 1 0 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 3 1 1 0 0 1 1 1 0 0 2 0 0 0 3 1 0 0 2 0 0 0 0 0 0 0 1 2 0 0 0 1 1 1 2 2 2 0 1 0 1 2 0 0 0 0 0 0 1 0 1 2 1 1 3 1 0 1 1 2 0 1 0 0 0 1 0 1 4 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 5 1 1 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 3 1 1 1 0 0 1 0 2 1 3 1 0 2 0 2 1 2 0 0 1 0 1 0 1 1 0 2 0 2 1 1 1 1 1 1 0 0 2 1 0 0 2 3 2 2 2 1 1 0 2 0 1 0 0 2 0 1 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 2 2 2 0 2 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 2 0 1 1 1 1 0 1 0 2 2 2 2 2 0 0 0 0 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 1 3 0 0 2 2 1 1 2 0 2 0 2 2 1 2 1 0 1 1 1 0 3 2 0 0 0 0 1 0 1 1 2 3 0 3 1 1 0 1 1 1 0 1 2 2 1 0 0 0 3 0 4 1 0 0 0 0 1 1 1 1 0 1 1 1 2 0 0 0 1 0 0 0 1 0 0 1 0 2 1 0 0 1 0 1 1 0 2 1 1 0 2 3 0 0 1 0 0 0 1 1 0 0 2 0 0 2 0 2 1 0 2 0 0 0 0 2 0 3 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 2 1 0 2 0 3 1 0 0 0 0 0 0 0 2 0 0 0 3 1 2 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 2 0 0 1 0 0 2 0 1 1 1 0 0 1 0 1 0 0 3 2 0 2 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 4 0 0 0 0 1 0 2 2 2 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 1 3 1 0 1 2 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 2 0 2 0 0 0 0 1 1 4 1 0 0 2 0 0 0 1 0 0 1 0 2 0 1 2 0 0 0 0 2 0 0 1 1 0 0 1 1 0 1 2 1 1 0 0 0 1 2 0 1 1 1 1 0 0 0 0 0 1 1 1 0 1 2 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 1 0 3 0 1 1 0 0 0 0 0 1 3 1 1 1 1 0 1 1 0 1 0 2 2 1 0 0 1 1 1 0 2 0 0 0 1 0 2 0 2 1 0 1 0 1 1 1 2 0 1 1 1 0 0 1 2 0 0 1 1 0 1 1 2 0 0 0 0 2 0 1 3 0 0 1 1 2 0 2 1 0 0 1 1 0 0 1 1 0 0 0 0 2 0 0 2 0 1 2 0 0 1 0 0 1 0 3 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 1 1 2 0 1 0 0 2 2 0 0 0 2 0 3 0 1 1 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 1 0 1 1 2 0 1 1 0 0 1 0 0 1 1 2 1 1 1 0 1 0 0 1 2 2 1 1 1 0 1 1 1 1 1 1 2 0 0 0 0 0 1 1 0 1 2 1 0 2 0 1 2 0 0 0 2 0 0 0 0 0 0 1 2 2 0 0 1 0 0 1 0 1 1 0 0 0 0 2 0 0 1 1 2 0 1 0 0 0 1 2 2 0 1 0 0 0 1 3 0 0 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 2 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 2 1 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 3 2 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1 2 0 0 1 0 0 2 1 2 0 1 0 1 0 3 0 0 1 0 0 1 1 1 1 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 2 0 0 0 0 0 0 1 2 0 0 0 0 1 0 2 0 2 1 0 1 1 1 0 1 1 0 0 0 1 1 0 0 1 2 1 0 2 1 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 2 2 2 1 2 1 1 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 3 2 0 0 1 1 0 0 1 3 0 2 1 1 1 1 0 0 0 2 0 0 0 0 1 0 1 1 0 0 2 0 0 1 1 0 0 0 0 3 1 0 2 2 0 0 0 0 0 1 1 1 1 0 1 0 1 1 1 1 2 1 0 1 0 0 1 2 1 0 0 0 1 0 3 2 0 1 0 0 1 0 0 2 1 2 0 1 0 1 1 2 3 0 1 0 1 2 1 0 0 1 1 3 1 0 0 1 1 0 1 1 0 2 0 1 2 1 0 1 0 1 0 0 0 0 2 0 1 0 0 2 1 1 1 0 2 0 0 0 2 0 1 2 3 0 0 2 1 1 1 1 0 1 2 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 3 0 0 1 0 4 2 0 0 1 1 1 1 0 0 1 1 0 2 0 1 0 1 2 1 1 1 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 2 0 1 1 1 1 1 0 4 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 1 2 1 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 2 2 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 1 2 0 1 0 0 1 2 0 0 1 0 0 1 1 0 0 1 2 0 0 0 3 0 0 1 1 3 2 1 0 0 0 0 0 0 0 2 1 1 2 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 1 2 2 2 0 0 0 1 0 3 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 1 1 1 0 2 0 1 2 0 1 1 1 1 2 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 2 2 2 0 0 0 0 0 2 0 1 0 0 1 3 0 0 1 1 2 2 1 2 1 0 1 0 3 0 0 1 0 1 0 1 1 0 0 0 2 0 1 1 0 0 0 1 1 0 1 1 0 1 2 1 0 0 2 0 1 2 0 2 0 0 1 1 1 0 2 1 1 1 1 2 2 0 0 0 0 1 0 0 1 0 1 1 0 1 1 1 0 1 0 1 1 1 1 0 0 1 0 1 0 0 2 0 0 0 2 0 0 1 0 1 1 2 0 2 1 1 1 0 0 1 0 1 1 1 1 0 2 1 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 2 1 0 1 0 0 0 3 1 1 0 1 1 1 1 0 0 0 0 1 2 2 1 0 2 1 0 1 0 0 0 0 1 0 0 1 0 1 1 2 0 2 1 1 1 0 0 1 2 0 1 0 1 2 0 2 1 1 0 2 2 1 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 2 0 0 0 3 1 0 0 1 1 1 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 1 2 0 1 1 2 1 0 0 2 0 0 2 1 1 1 3 0 2 1 0 2 0 3 0 1 0 0 0 0 0 1 3 0 0 0 2 0 2 0 0 1 1 0 0 0 3 0 1 1 2 1 0 1 0 2 2 0 2 2 1 0 0 2 1 1 1 1 0 0 0 1 0 0 1 0 0 1 0 2 2 0 0 1 0 1 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 2 3 1 0 1 1 1 1 2 0 0 0 0 0 1 0 0 1 1 1 0 0 2 1 1 2 0 0 0 4 0 0 2 2 1 1 0 2 0 1 2 0 1 1 0 0 0 0 0 1 2 1 1 0 0 2 0 2 0 2 0 0 0 0 1 1 0 1 1 0 0 0 1 1 0 1 1 0 2 0 1 1 0 0 0 1 1 0 1 2 1 0 2 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 1 0 0 2 0 0 1 0 0 1 0 1 1 0 2 1 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 2 2 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 2 0 1 1 0 0 1 1 1 0 2 0 0 1 0 0 0 1 0 1 0 2 0 1 0 0 1 1 2 2 0 0 2 1 0 0 1 2 0 0 0 1 1 1 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 2 0 2 1 0 0 1 0 0 1 2 2 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 0 1 0 2 1 0 0 1 0 0 0 2 1 0 0 0 3 1 1 1 2 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 0 0 1 0 1 2 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 0 2 1 0 1 0 0 0 0 0 1 1 2 0 1 2 0 2 0 0 0 1 1 1 2 1 0 0 2 0 0 0 0 0 0 2 0 2 2 0 0 0 1 0 0 0 0 1 1 1 2 1 2 1 1 2 0 1 1 1 0 2 1 2 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 2 0 0 1 2 0 0 1 0 1 1 1 1 0 0 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 2 0 0 0 1 0 0 1 1 1 1 0 4 0 0 0 0 0 0 1 1 0 0 1 3 0 0 1 1 0 1 1 1 0 1 0 0 1 0 2 0 0 0 0 1 0 0 2 0 0 0 1 0 1 1 1 0 3 0 2 0 0 1 0 1 2 0 0 2 0 0 0 2 0 1 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 2 1 1 1 1 1 1 0 0 0 1 1 2 0 0 1 1 1 0 1 1 1 0 0 0 0 2 0 1 1 0 2 1 0 1 2 0 0 0 2 0 1 1 1 0 0 0 0 2 0 1 0 1 1 2 1 0 1 0 2 2 0 0 0 1 1 0 0 1 1 1 0 0 0 3 0 0 2 0 1 1 1 0 0 2 0 2 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 1 2 1 1 1 1 0 0 2 0 2 2 1 1 1 0 1 0 1 1 2 1 0 2 0 0 3 1 1 0 0 1 1 0 1 2 1 1 1 2 0 0 1 1 0 3 0 0 0 1 1 0 1 2 0 1 1 0 0 0 1 1 0 1 2 0 1 1 0 1 0 0 2 0 1 1 1 0 0 1 0 3 0 3 2 1 1 2 0 1 1 1 1 1 1 0 1 0 2 0 1 0 1 1 1 0 0 0 4 1 0 0 2 0 0 0 0 2 1 2 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 2 2 1 0 0 0 0 3 0 1 1 1 0 1 1 2 0 1 1 1 2 0 1 1 1 0 2 3 1 0 2 0 1 0 0 1 0 0 0 3 0 1 1 0 2 3 0 3 0 0 1 1 2 0 1 3 0 1 1 2 0 0 0 0 1 1 1 0 1 1 1 0 0 0 1 1 0 1 1 1 1 2 4 2 0 0 0 0 1 2 0 0 0 0 1 2 0 0 1 2 0 1 1 2 0 0 1 1 3 0 1 0 0 1 0 0 1 1 1 2 2 1 2 0 3 0 2 1 1 1 1 0 0 0 0 2 1 1 2 1 2 2 0 1 0 0 0 1 2 0 1 1 0 2 0 0 1 0 2 0 2 0 0 0 1 1 0 0 0 2 2 1 1 1 1 1 0 0 0 0 0 2 0 2 0 0 1 0 1 0 1 0 0 1 0 0 0 0 2 0 3 0 0 1 0 2 3 0 0 1 1 2 3 2 2 1 2 1 0 1 1 1 2 0 0 0 1 1 2 0 1 0 0 0 1 2 0 0 1 1 1 0 1 2 0 0 0 1 0 0 0 1 1 0 0 2 2 0 0 0 0 1 0 0 1 1 2 1 0 0 0 0 1 0 0 0 1 2 1 3 2 1 1 0 0 0 1 0 2 0 1 1 0 1 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 4 0 1 0 0 0 1 1 2 1 0 1 0 2 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 1 1 1 2 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 1 1 3 0 0 0 1 1 1 1 2 1 1 0 0 1 0 0 1 1 1 2 0 1 4 0 0 2 1 1 0 2 1 1 1 0 0 0 0 1 3 0 0 0 2 0 1 1 0 0 0 0 2 2 1 0 3 0 0 1 3 3 1 0 0 1 0 0 2 0 1 0 1 0 1 1 1 0 1 2 0 0 1 0 1 2 0 1 1 1 1 3 0 1 0 0 0 0 1 1 1 1 2 0 0 0 1 1 1 2 2 1 1 2 0 0 0 2 2 1 2 1 0 0 2 1 0 1 0 0 2 0 3 1 1 1 0 3 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 1 2 0 1 1 1 1 0 0 1 0 1 0 0 0 0 1 0 2 1 1 0 1 1 2 2 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 2 2 0 1 1 1 0 0 0 0 1 1 0 2 0 1 0 1 1 1 0 1 0 1 0 0 2 1 2 1 0 1 1 0 0 1 1 1 2 0 0 0 3 0 0 1 0 0 1 0 0 0 0 1 0 1 3 1 1 2 0 1 0 1 0 1 1 0 1 0 0 1 0 0 2 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 3 0 1 0 0 2 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 2 0 2 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 2 0 1 0 0 4 2 0 1 3 0 0 0 1 0 4 0 3 1 1 1 0 0 1 1 0 1 1 1 0 1 2 0 1 1 1 0 0 1 1 0 2 1 0 0 1 1 0 0 1 2 0 0 0 1 0 1 1 0 0 0 0 2 0 2 3 1 0 3 0 0 0 0 1 0 1 1 1 0 1 0 2 0 0 0 0 2 1 1 1 0 0 1 1 0 1 0 0 2 0 1 2 1 0 1 2 1 0 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 0 2 1 0 1 1 0 0 0 0 1 0 1 1 0 1 3 0 0 1 0 1 0 1 0 1 0 0 0 1 1 2 2 1 0 0 0 1 1 2 1 1 0 1 0 0 0 2 2 0 2 0 1 3 1 2 1 0 0 0 1 1 1 0 1 1 1 1 0 1 0 2 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 1 1 0 2 1 1 0 0 0 0 1 1 0 1 2 2 0 0 0 0 1 0 0 0 2 0 1 0 1 0 0 2 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 0 1 0 1 1 0 0 2 0 0 1 1 1 1 0 0 1 0 1 0 1 0 2 0 0 2 0 0 0 0 0 0 1 2 0 0 3 0 0 1 0 2 1 1 0 0 0 0 0 0 1 0 1 1 1 2 0 2 1 1 1 0 1 1 2 2 1 1 0 0 0 0 1 0 1 0 1 2 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 3 0 1 0 1 1 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 3 1 0 1 0 0 1 0 0 1 1 0 3 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 2 2 1 0 1 0 0 0 1 0 0 0 1 2 1 0 0 0 2 1 0 2 1 1 0 2 1 2 0 0 0 0 0 0 0 2 0 0 1 0 2 0 2 0 1 0 1 1 1 0 1 1 1 1 2 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 3 0 0 1 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 2 1 1 2 1 0 0 0 0 1 1 3 1 2 0 0 0 4 0 0 1 0 2 0 2 0 0 1 1 0 0 2 1 0 3 0 0 1 3 0 0 2 0 0 2 2 2 1 0 1 2 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 2 0 2 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 3 0 1 1 1 1 1 1 0 0 2 0 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 3 1 1 2 0 1 1 1 1 0 1 0 0 0 0 0 1 2 1 2 1 1 0 1 1 1 0 3 0 0 1 1 1 0 2 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 3 0 0 1 2 0 3 0 1 0 3 1 0 0 1 0 0 2 0 0 3 2 3 0 0 0 1 2 1 1 1 0 0 0 0 1 0 0 0 1 0 0 2 1 3 0 0 0 1 1 0 1 2 0 0 2 2 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 1 1 3 2 2 0 1 0 3 0 0 0 1 0 0 0 0 2 0 2 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 2 2 1 2 1 2 2 0 0 0 0 2 3 0 0 1 0 0 0 0 3 1 0 1 2 1 0 1 2 2 3 2 1 1 1 1 0 1 1 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 2 1 0 2 0 2 0 1 3 0 0 2 1 1 2 2 0 2 0 0 2 0 0 1 1 1 1 1 0 2 3 1 1 0 1 0 1 0 0 0 2 2 0 0 1 2 0 2 2 1 0 1 1 1 0 2 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 3 0 3 0 0 0 0 0 0 2 1 0 0 3 1 2 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 2 1 0 1 0 0 1 0 1 1 0 1 0 0 3 0 1 0 0 0 0 0 0 0 0 1 2 0 1 1 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 0 1 3 1 1 1 0 0 0 1 0 2 3 1 1 0 0 1 2 1 1 1 0 0 0 0 1 0 2 1 0 1 0 0 0 0 1 0 0 1 3 1 0 1 0 1 0 1 1 0 0 0 2 0 1 2 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 2 1 0 0 1 1 1 1 0 0 1 0 0 0 1 0 2 0 2 2 0 1 2 2 1 0 0 1 0 0 1 1 1 2 0 1 0 0 1 1 2 3 1 0 0 3 1 0 1 0 0 1 0 1 1 2 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 0 2 2 1 0 1 2 0 1 0 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 1 0 2 1 0 0 2 0 1 1 2 1 0 1 0 0 1 1 2 1 1 0 1 0 0 1 0 2 2 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 1 0 3 1 1 0 1 1 0 1 1 2 0 1 1 0 1 0 0 1 0 0 1 2 0 0 0 0 0 1 2 0 0 2 0 0 0 0 0 0 2 1 2 0 1 1 0 1 0 1 1 1 0 2 1 2 1 0 0 2 0 0 1 1 0 1 0 1 1 2 0 0 1 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 1 1 0 2 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0 1 3 2 2 3 0 0 1 0 2 0 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 1 1 0 0 0 3 1 1 1 1 0 0 0 1 1 1 0 1 0 0 2 1 2 0 0 0 0 1 1 1 1 0 2 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 2 0 1 3 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 1 1 0 0 1 0 0 1 2 0 1 1 0 1 0 0 0 1 2 2 1 0 0 1 1 1 0 1 1 0 1 1 1 2 0 1 0 0 0 3 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 2 1 0 2 2 0 2 0 1 0 0 0 2 1 1 1 0 2 0 0 0 1 2 2 2 2 1 1 0 0 2 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 0 2 1 1 0 0 2 0 2 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 2 1 0 0 4 0 1 0 0 0 2 0 0 2 1 0 1 0 1 1 0 1 0 0 0 1 0 2 0 0 0 2 2 1 1 0 2 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 2 0 0 0 2 1 0 0 0 4 0 1 2 0 0 1 4 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 1 0 2 2 1 0 2 0 1 0 1 0 1 2 1 1 0 1 0 2 0 2</t>
+    <t>JSB(4.112596730891381, 4.1968369213882575, -26.89584177853377, 164.71772867940095)</t>
+  </si>
+  <si>
+    <t>20 31 17 20 15 20 27 34 13 14 10 24 23 20 14 7 13 21 24 24 16 24 24 20 14 12 20 31 16 14 20 16 22 16 28 20 13 10 22 37 25 17 28 21 5 16 21 10 20 14 17 21 17 26 28 6 27 23 13 30 17 28 22 10 22 17 13 13 20 20 23 16 17 13 17 14 20 10 20 27 12 21 13 18 3 22 21 13 34 10 20 16 18 17 28 27 22 33 9 22 7 9 6 24 19 19 17 20 28 23 11 19 24 27 26 31 24 27 17 12 30 7 17 16 10 7 13 23 6 21 13 19 27 19 41 13 23 20 21 27 21 14 27 34 20 17 21 20 20 28 19 13 16 23 6 20 6 20 26 9 20 16 20 10 13 23 7 20 6 27 17 23 16 13 13 14 13 10 26 9 14 13 16 16 24 12 16 17 14 13 23 24 13 23 17 10 34 21 34 23 13 18 16 13 25 24 20 26 3 9 30 38 21 17 16 17 15 28 21 20 19 25 36 25 16 19 33 13 27 17 20 10 20 17 20 23 21 34 17 13 23 0 24 17 17 17 10 7 33 13 21 12 17 24 13 10 17 30 32 23 3 23 21 24 8 28 10 3 19 24 20 24 35 30 31 13 13 33 9 9 23 20 8 10 13 27 13 27 13 22 28 14 16 13 14 16 10 27 28 21 14 20 13 17 16 10 9 16 44 10 10 33 10 19 34 13 16 6 24 20 13 20 10 6 17 31 0 21 3 23 20 6 13 19 12 14 27 34 26 14 13 10 28 10 19 17 16 12 17 21 6 27 22 19 6 9 14 13 16 13 11 14 2 16 21 20 16 10 31 23 11 16 21 20 17 19 10 13 24 17 20 16 22 17 21 18 13 17 19 6 10 15 20 24 3 20 10 14 13 27 24 23 41 3 13 30 10 27 20 14 27 23 24 27 30 45 27 13 10 19 19 6 20 8 16 20 24 21 10 27 6 9 30 9 9 13 22 13 21 35 7 23 30 19 10 25 13 23 27 27 14 15 15 26 30 9 17 19 3 13 12 24 9 24 22 12 27 20 38 21 14 16 13 20 24 20 18 3 18 3 3 11 20 17 3 9 27 7 20 8 21 19 38 10 13 10 17 20 19 41 10 27 8 6 22 14 14 27 19 16 13 24 20 14 12 17 20 16 6 27 21 13 13 19 9 14 31 29 20 18 33 26 14 13 17 24 17 10 30 27 9 12 23 19 21 23 19 16 21 17 13 21 10 7 20 6 23 16 22 6 3 26 31 3 14 13 10 27 10 27 16 10 27 14 16 27 17 23 24 13 20 21 20 17 12 6 13 3 20 19 16 31 34 17 20 18 13 16 13 27 24 24 23 28 20 31 16 35 6 35 17 20 20 13 24 30 21 20 19 28 13 20 16 17 21 26 27 14 13 16 19 20 28 26 24 22 6 15 7 17 21 27 10 20 22 23 11 20 10 19 20 10 17 14 22 16 13 3 10 7 16 13 14 10 17 15 27 17 7 15 24 12 21 24 27 17 10 18 25 20 30 21 23 31 13 28 23 10 31 20 9 7 9 27 24 13 18 14 26 13 28 21 13 23 20 17 18 21 19 20 26 16 25 27 17 9 23 20 33 20 20 10 20 28 14 8 14 20 18 26 37 9 16 22 21 26 13 17 21 15 12 20 33 20 20 17 5 27 21 26 10 23 9 3 15 10 17 21 10 9 3 16 17 6 27 23 24 27 27 34 14 14 14 29 21 26 30 18 12 29 20 16 28 3 15 24 21 19 19 17 31 13 19 9 10 35 20 21 17 26 19 27 23 19 14 20 10 26 16 16 34 21 6 20 7 13 24 14 15 6 21 18 9 13 10 17 16 30 9 22 27 24 14 14 26 13 27 19 11 31 23 22 30 30 30 16 31 27 19 23 20 12 18 17 20 21 28 29 41 18 27 24 13 10 23 23 17 29 10 3 21 17 19 6 16 7 19 23 20 8 25 17 17 18 17 16 15 17 10 17 10 16 12 27 6 18 16 18 20 10 10 8 20 14 20 20 23 20 19 20 14 21 16 17 13 0 37 17 33 24 27 13 3 16 11 27 16 20 34 20 10 30 19 20 10 21 16 18 17 9 22 13 9 24 23 21 0 9 18 17 6 6 23 19 28 30 17 16 27 29 17 20 13 21 18 17 6 24 13 13 13 17 13 20 23 13 23 32 20 10 20 23 17 24 10 14 20 23 16 23 19 16 27 16 17 9 20 20 17 10 23 26 21 27 26 14 19 0 12 17 26 10 32 17 20 45 21 10 0 10 10 16 20 23 7 3 16 10 20 17 18 10 14 20 16 34 25 16 23 16 27 16 10 24 10 20 13 17 29 19 19 24 20 19 13 14 27 30 24 13 13 14 19 17 27 25 20 22 10 28 17 14 13 17 16 3 27 27 13 6 13 8 13 30 32 23 26 16 31 16 19 17 14 13 26 20 29 31 17 27 17 6 31 18 14 10 17 17 17 32 26 13 16 20 23 16 10 20 13 24 13 9 21 10 24 24 17 16 13 20 21 21 28 14 10 21 20 16 30 9 38 13 18 10 13 34 40 19 22 23 15 25 9 19 17 10 28 23 23 19 7 9 24 8 14 20 17 26 20 16 19 19 27 24 31 27 16 20 30 34 3 27 30 20 12 15 6 17 13 27 35 24 17 10 16 13 14 21 22 12 20 19 12 20 20 23 10 27 22 24 13 26 6 22 33 24 23 26 16 21 19 7 3 28 13 25 15 20 17 26 7 7 17 22 13 10 20 20 3 3 21 24 10 17 28 21 24 3 17 23 31 20 11 22 38 34 28 14 6 9 25 21 7 14 27 16 7 20 29 24 13 21 30 23 23 13 15 23 13 16 25 21 27 17 24 9 24 9 19 17 28 10 23 17 14 9 31 33 19 12 18 26 0 14 13 10 24 29 20 6 14 37 13 10 27 9 7 10 16 12 40 14 13 26 16 20 24 21 22 22 32 31 29 24 10 20 13 22 20 24 3 17 22 13 12 10 9 16 28 35 19 19 9 13 25 16 20 22 29 13 21 6 24 34 24 28 17 24 7 14 14 10 22 27 14 9 31 26 18 20 14 3 20 16 10 21 18 22 10 29 17 27 0 17 31 17 14 22 31 14 13 29 9 17 30 10 16 31 16 13 7 13 17 13 12 15 17 21 17 13 17 0 23 10 26 10 17 27 20 10 23 16 14 26 10 24 10 34 24 27 21 24 10 20 17 9 22 9 11 20 17 13 23 17 23 33 3 23 19 9 9 8 10 15 7 12 14 22 13 6 17 21 10 13 14 23 14 13 17 27 20 23 14 17 0 23 17 8 3 13 20 19 7 20 22 27 14 14 24 19 27 10 14 13 16 13 17 20 17 15 12 28 34 13 10 31 13 3 19 12 14 17 3 13 20 41 17 25 26 16 23 9 15 15 9 17 7 17 32 20 29 24 3 22 6 21 14 9 27 21 17 37 13 30 13 16 13 7 20 27 13 13 20 16 14 14 20 13 9 14 24 32 11 41 20 18 31 22 31 24 10 17 30 3 15 24 37 17 17 13 23 20 9 15 20 10 17 26 19 6 24 19 37 16 24 10 37 17 21 20 27 17 7 27 22 21 7 19 10 14 0 17 17 23 17 19 19 15 16 23 13 23 29 6 20 9 20 17 23 35 10 14 20 17 23 24 16 19 24 16 10 17 16 29 23 9 9 16 10 13 3 15 27 16 17 13 24 16 24 20 23 24 14 14 34 16 30 13 17 21 10 13 27 10 27 0 20 24 27 3 12 18 30 16 38 27 13 10 19 16 19 31 23 21 24 23 19 13 16 31 6 27 12 30 21 17 21 31 17 22 22 20 10 27 23 12 20 9 31 13 17 17 30 9 19 23 21 24 16 30 10 9 24 21 17 21 20 21 3 6 17 13 23 30 23 23 38 12 13 13 17 22 36 20 17 10 10 10 22 24 17 13 9 18 24 10 22 3 26 24 16 16 20 28 16 7 6 17 10 16 14 20 6 13 0 20 13 20 13 23 22 25 20 23 24 27 17 31 15 11 33 11 10 20 18 17 9 20 18 21 33 11 11 6 21 29 15 13 16 17 27 34 24 21 18 13 28 21 16 30 24 14 37 13 26 7 16 8 9 14 27 14 19 19 22 24 20 17 25 9 20 23 22 6 23 16 16 5 29 16 19 17 24 14 20 27 20 16 24 20 18 27 27 15 13 30 13 15 17 27 19 11 31 19 24 13 6 20 27 20 20 21 10 26 0 13 17 9 16 27 16 17 10 8 21 20 19 7 7 7 21 13 16 22 6 20 12 14 9 6 29 22 13 20 14 16 31 20 16 17 16 13 3 24 24 17 16 24 9 10 21 19 26 23 17 21 23 16 7 20 16 13 21 13 15 17 6 21 17 12 28 24 17 21 16 26 17 16 26 9 28 14 8 17 24 20 32 11 20 21 17 24 17 23 12 10 20 13 24 15 21 20 11 20 13 6 7 31 6 31 23 3 10 14 7 16 13 14 21 23 15 7 10 20 9 30 17 20 20 9 18 9 10 20 21 17 20 23 10 14 12 17 18 24 19 27 27 10 17 38 37 24 7 21 20 28 22 40 14 24 27 16 17 13 12 18 22 31 25 20 6 27 9 17 37 35 9 14 3 16 24 27 11 20 17 9 10 13 9 17 24 30 16 17 13 20 18 28 21 20 17 20 39 19 10 17 23 6 20 21 17 27 17 30 17 31 19 24 20 17 18 24 13 14 10 20 24 27 30 3 27 10 6 19 13 19 20 16 13 17 22 23 20 10 17 7 13 6 21 31 17 10 13 28 24 23 10 20 31 30 14 13 16 33 32 21 31 15 10 24 24 32 10 37 8 23 24 26 15 10 16 10 15 9 20 17 27 18 17 14 13 10 30 13 20 5 23 20 14 23 13 27 34 10 22 24 27 24 19 5 31 23 20 38 23 17 20 6 6 24 26 10 3 17 18 24 31 15 15 20 17 28 20 21 3 9 15 3 6 13 22 3 23 9 32 10 13 17 6 19 10 6 17 27 16 23 13 23 19 24 30 32 9 23 19 13 21 17 24 24 10 20 10 12 26 31 3 19 18 17 28 16 23 6 6 12 13 17 31 26 23 21 38 18 23 28 12 14 24 14 20 13 13 16 17 6 17 17 12 13 7 17 28 24 14 20 20 16 23 24 9 41 3 14 20 47 12 30 10 24 30 10 30 17 27 12 21 24 10 3 27 30 14 9 13 23 15 19 20 20 25 12 20 27 31 10 27 12 13 6 34 21 6 27 29 16 10 10 20 20 20 13 17 22 18 31 22 23 12 20 6 3 38 17 10 13 21 17 17 28 20 17 32 22 24 20 10 28 10 14 9 27 10 19 13 16 3 16 24 6 34 10 17 20 14 20 22 19 17 20 25 30 16 15 22 16 17 31 16 17 27 20 14 27 20 20 16 27 7 22 6 19 3 13 23 3 17 24 14 10 20 12 10 23 13 6 22 9 12 27 22 31 12 10 27 17 21 10 6 20 14 25 22 3 41 20 6 28 10 41 7 9 21 23 30 10 10 19 25 20 14 16 30 34 11 16 31 20 18 21 23 17 24 15 21 30 27 33 14 23 9 19 27 10 28 21 16 6 6 7 17 17 14 14 14 6 40 18 10 7 7 26 14 22 17 10 14 15 6 11 24 6 10 10 28 21 22 7 34 34 31 16 23 22 27 16 16 13 17 10 20 27 17 17 20 30 27 16 16 3 6 21 24 27 10 20 16 25 13 20 20 13 9 16 20 16 16 37 20 13 47 27 6 23 10 20 14 15 17 26 31 17 21 0 20 27 18 20 14 28 6 3 24 10 27 14 33 22 18 14 15 18 27 20 23 6 17 22 21 35 9 6 7 16 10 17 17 20 13 17 21 11 17 9 21 25 20 17 38 25 14 31 23 20 9 20 16 24 16 15 24 17 22 9 16 17 13 6 17 17 10 34 20 16 29 30 7 6 26 20 19 13 0 6 16 19 19 24 27 13 13 24 21 20 26 16 24 17 7 31 31 0 20 10 21 3 21 17 28 8 17 23 23 9 30 6 17 20 12 21 20 24 7 26 7 21 23 20 28 15 17 6 27 13 10 7 13 26 15 14 10 18 13 7 28 17 24 18 21 34 22 20 12 27 21 19 20 13 27 16 36 21 24 13 17 16 9 20 13 34 17 27 27 10 34 17 23 2 23 25 23 24 28 28 19 20 20 27 30 26 10 38 45 16 21 26 13 24 21 17 13 13 22 10 35 13 17 23 27 36 21 24 16 13 16 6 20 20 7 17 20 19 20 30 22 7 20 22 17 24 6 24 30 30 10 20 3 22 3 20 20 20 10 6 27 17 14 20 24 21 38 24 24 20 9 24 7 26 13 29 23 10 24 17 20 16 16 16 10 13 31 14 17 35 16 17 10 27 15 27 21 20 8 16 28 23 19 14 10 24 6 24 17 17 26 20 6 22 20 21 13 10 13 6 28 10 24 27 7 27 17 22 18 23 13 14 14 26 25 21 23 34 14 21 9 11 17 9 24 34 7 17 21 24 14 20 10 35 18 17 14 11 16 27 13 6 12 19 44 21 9 16 24 23 9 17 16 10 27 9 13 13 6 7 24 9 27 18 23 23 14 20 13 13 13 14 31 24 3 10 6 12 52 30 10 20 7 13 27 23 18 16 17 16 20 28 17 14 17 6 27 3 16 35 16 19 20 21 20 37 16 20 20 7 21 17 17 17 13 17 27 17 24 18 14 9 9 43 31 16 15 16 10 7 34 24 21 21 7 17 18 30 12 17 21 28 16 3 27 10 20 20 26 16 16 16 7 20 20 28 6 34 22 16 31 19 3 24 24 25 21 21 17 16 27 20 20 7 17 17 13 20 19 7 7 19 6 20 27 10 9 17 27 14 24 7 30 3 9 7 19 19 31 13 24 17 17 27 15 16 15 26 10 7 28 28 20 28 26 27 23 18 13 26 15 23 12 17 35 30 12 14 12 24 27 13 27 13 13 14 16 27 12 20 6 8 28 24 22 13 17 9 24 17 19 3 15 26 20 20 17 3 17 6 42 6 27 17 17 10 38 23 15 10 7 9 6 13 28 23 30 20 17 28 37 17 24 17 17 9 13 27 10 13 13 10 30 16 13 20 17 23 27 14 36 19 17 28 20 38 15 9 15 13 19 26 27 19 10 23 12 10 7 30 31 9 27 27 20 21 19 21 17 33 9 6 22 27 13 23 17 14 16 16 17 16 7 16 38 21 14 16 16 37 31 28 17 23 9 26 13 16 30 30 13 16 18 9 13 27 16 13 13 14 24 23 20 9 19 23 27 12 17 23 10 22 17 27 12 26 22 17 23 14 10 18 12 24 7 24 24 6 26 9 3 13 16 20 14 30 17 17 14 17 20 24 15 37 12 26 13 20 12 30 28 19 14 24 25 14 21 17 21 23 17 13 7 28 20 16 15 19 20 20 0 21 33 27 12 23 0 16 13 23 17 10 17 23 17 9 20 13 33 24 17 20 20 13 14 13 20 17 3 13 24 6 23 23 24 7 16 20 23 20 10 34 14 17 13 19 23 20 25 29 20 20 12 24 13 14 32 42 28 23 23 6 17 34 13 20 35 25 26 21 24 24 23 19 24 14 26 11 28 20 27 13 3 10 10 17 13 31 28 37 13 13 16 27 9 6 16 16 20 16 20 19 16 20 21 20 16 26 17 16 19 14 33 18 13 19 18 16 13 20 13 10 27 20 13 23 14 23 17 13 20 21 23 23 10 19 21 17 27 26 3 31 13 17 7 21 16 23 6 9 23 22 12 17 7 34 23 23 14 24 13 24 24 16 9 27 3 36 31 20 7 20 6 17 7 15 33 11 17 14 16 37 25 17 9 23 27 33 27 17 20 7 9 20 17 21 9 21 30 17 32 20 20 30 17 10 19 17 16 8 31 23 27 6 21 33 20 21 15 27 13 14 17 20 30 6 6 20 20 22 0 22 20 20 30 7 17 16 29 13 21 17 21 21 19 24 20 17 28 15 6 18 21 16 21 24 23 27 24 20 30 13 34 13 7 0 11 27 13 17 24 34 13 27 17 34 21 27 17 10 28 10 13 22 16 6 17 20 17 16 24 10 3 14 17 19 20 13 26 24 27 24 21 13 27 12 27 23 26 17 9 12 6 17 18 17 10 23 16 10 14 11 22 7 13 15 19 20 3 21 17 37 31 13 21 22 20 34 9 27 11 14 14 34 20 13 24 31 10 9 12 10 20 20 19 35 19 16 13 13 17 21 6 17 14 10 7 14 6 14 29 21 17 10 28 31 19 13 21 18 28 21 23 26 6 22 24 13 23 13 21 3 14 16 23 6 13 17 6 7 13 9 31 20 16 10 12 22 24 20 38 23 23 13 19 24 3 19 41 10 13 6 16 31 5 24 16 15 16 14 6 17 33 14 13 6 14 19 13 13 18 22 23 16 28 13 6 22 24 6 27 21 13 10 31 10 12 23 31 27 3 3 9 13 16 16 19 13 17 24 27 10 14 23 3 14 17 18 3 20 20 30 16 20 13 20 25 21 9 23 16 23 17 10 17 23 7 14 17 7 23 27 13 17 15 28 24 23 23 3 15 23 30 9 15 24 34 17 20 26 7 31 37 15 10 14 27 13 17 13 12 25 10 22 6 14 12 12 16 13 23 11 24 19 27 12 38 9 19 19 34 17 20 20 13 28 17 14 9 7 27 27 17 18 10 20 20 20 16 20 20 16 26 6 16 20 31 30 13 3 16 17 31 9 10 6 13 16 13 7 20 17 14 16 19 6 17 28 20 23 21 31 19 13 10 20 30 35 24 7 17 13 20 17 14 13 23 14 17 9 17 0 13 3 16 13 23 3 17 20 41 16 13 8 14 19 25 17 17 20 27 14 17 34 7 24 28 20 23 14 16 21 21 22 17 24 24 24 7 20 19 6 20 20 18 31 17 16 23 15 24 9 13 23 20 14 20 17 20 9 16 35 6 34 22 20 27 8 19 13 27 23 27 17 17 35 16 22 24 9 23 14 29 16 16 24 7 27 14 17 27 28 17 27 13 20 18 23 14 14 19 12 13 10 6 38 9 17 15 24 21 31 23 31 30 20 29 26 6 7 3 17 20 10 34 17 15 21 16 17 18 24 35 10 3 24 19 10 24 6 28 13 24 24 9 22 24 23 13 14 21 13 27 19 17 21 7 27 38 37 10 13 15 20 34 18 16 28 24 3 30 24 32 49 17 23 14 16 27 16 14 26 14 19 6 27 30 15 17 3 17 38 24 23 20 31 63 16 27 28 3 3 20 21 13 23 14 24 20 26 31 10 30 14 28 24 19 26 17 24 10 3 41 15 9 17 13 31 18 21 19 25 16 16 28 20 24 17 14 23 19 30 16 10 16 16 19 26 0 20 34 17 24 24 38 6 20 23 17 10 24 23 16 12 19 11 22 13 20 17 3 29 42 17 28 16 17 19 3 13 22 32 17 13 16 22 22 24 27 13 17 10 13 23 17 9 27 17 44 16 22 7 24 21 17 13 20 13 24 10 20 13 14 15 9 21 18 22 0 20 3 16 34 12 10 24 31 13 3 38 10 27 12 29 7 14 12 19 20 9 36 6 26 3 24 3 19 17 27 29 19 7 0 27 20 24 12 30 10 17 20 13 13 30 10 16 25 13 10 17 7 17 21 15 6 30 19 34 16 10 23 9 10 24 16 19 16 23 20 23 17 28 30 7 6 20 13 14 20 17 24 10 13 8 9 38 20 30 20 6 31 27 13 16 27 24 25 14 17 20 10 14 17 29 27 23 14 20 39 23 21 9 30 24 27 24 14 12 13 12 26 10 10 19 15 9 16 17 26 26 16 17 23 18 11 24 26 27 18 31 6 15 24 6 17 26 24 6 10 31 9 17 14 24 37 30 14 7 15 18 24 6 12 14 9 20 23 15 30 45 26 13 23 22 14 26 29 27 10 17 17 16 16 27 23 33 21 17 12 27 13 31 20 19 13 12 30 27 20 17 27 15 20 27 24 14 24 30 7 23 23 20 19 24 30 34 20 24 17 14 3 12 17 13 13 16 3 17 24 13 20 20 3 27 19 27 16 16 17 21 19 13 21 18 10 7 21 10 19 6 14 27 17 13 20 24 6 12 22 11 20 13 30 24 34 17 17 23 7 27 14 20 16 13 13 13 20 37 21 6 30 16 14 35 26 23 10 16 10 10 10 23 16 17 31 18 20 13 27 10 23 23 13 30 24 17 9 27 17 22 20 13 25 13 9 10 26 24 17 0 20 27 3 31 10 20 29 16 23 7 26 10 17 17 20 20 8 10 6 27 17 30 16 23 3 25 10 24 13 13 23 0 7 15 17 29 20 14 20 19 9 24 27 10 20 23 24 6 9 13 36 12 11 15 30 14 13 47 12 23 7 17 33 9 13 22 27 16 20 27 33 27 16 17 28 47 27 10 13 17 26 24 23 27 13 17 19 3 10 19 24 13 22 20 10 20 13 10 20 29 13 28 13 12 21 12 28 13 17 27 16 27 27 23 17 3 6 27 21 25 16 20 3 13 11 13 13 17 23 24 6 24 25 20 17 27 17 6 7 20 20 20 20 17 21 27 16 16 10 23 10 6 10 19 23 6 23 6 21 12 30 11 27 7 13 13 37 17 10 9 7 20 16 24 9 9 15 20 27 26 13 14 23 30 20 19 13 16 17 22 20 13 19 24 16 13 22 36 28 10 16 26 14 23 13 23 14 9 10 24 27 23 17 20 10 23 13 15 6 17 14 19 10 16 20 16 17 9 14 20 6 20 27 23 23 17 14 30 9 14 13 20 22 21 17 27 13 3 24 10 27 13 20 17 17 27 13 12 20 13 6 31 6 21 19 21 19 0 24 25 7 17 27 16 17 22 27 27 23 27 23 7 24 24 20 24 13 30 14 7 22 27 24 6 20 21 20 17 26 26 13 6 13 24 20 13 13 13 28 13 24 23 10 19 20 14 31 20 16 14 17 22 19 15 22 23 27 24 14 10 3 16 24 20 29 30 20 34 10 16 18 3 13 15 14 26 20 24 24 17 14 28 19 16 19 15 21 20 7 24 20 7 10 27 17 17 23 14 21 6 10 3 42 17 22 34 19 12 31 20 7 12 19 19 14 13 21 27 10 16 13 16 7 13 31 23 9 12 6 6 16 27 36 23 19 21 24 32 10 13 7 14 28 13 3 19 3 14 17 13 23 23 10 6 13 26 24 23 21 6 14 24 13 19 12 30 13 28 27 17 10 27 18 23 28 19 13 13 14 24 19 14 20 31 21 27 10 18 13 12 28 17 17 10 9 38 13 17 20 10 16 37 17 16 10 21 14 24 11 38 16 19 17 19 13 23 22 14 30 16 38 44 20 17 16 7 19 26 30 20 29 23 13 20 15 21 21 26 33 0 20 34 18 29 16 8 27 21 27 23 13 13 13 13 10 13 21 23 20 31 10 10 27 17 20 10 35 38 27 21 18 13 17 22 9 20 10 10 21 20 20 25 24 17 7 3 10 30 16 21 13 14 21 10 10 6 20 21 25 28 20 21 26 17 23 17 14 14 26 17 10 15 10 21 18 38 29 17 36 10 15 31 20 16 17 17 9 9 16 17 17 6 14 24 13 27 13 0 7 27 23 13 16 21 29 25 10 14 10 3 10 24 10 17 23 10 23 15 24 13 7 31 10 14 6 9 27 12 20 6 20 27 27 24 13 35 20 14 27 27 20 28 23 6 34 0 16 17 31 18 15 10 27 21 38 27 37 20 20 6 13 19 17 15 13 31 19 30 10 24 27 20 13 9 7 31 23 10 10 13 17 21 25 10 24 6 10 6 19 13 29 16 26 15 21 23 30 23 6 20 33 38 27 9 10 13 11 10 23 9 13 10 23 16 30 19 14 16 23 22 16 24 10 21 27 7 27 19 16 34 31 27 3 12 13 27 18 27 16 16 9 20 13 18 25 17 17 6 27 34 31 13 14 27 17 13 23 24 17 26 23 20 14 15 20 16 15 23 21 24 16 23 27 33 13 13 18 16 21 11 24 37 17 19 6 27 24 23 13 27 27 20 37 11 13 7 16 31 16 21 24 16 23 24 20 22 16 21 14 27 20 24 20 10 16 27 30 27 10 34 20 16 34 29 19 21 13 19 17 19 28 25 17 26 11 17 9 10 31 24 6 13 6 12 17 9 17 24 23 17 27 21 23 34 6 20 16 20 24 13 13 13 24 20 17 16 17 11 24 10 13 13 17 13 14 9 31 18 26 13 9 28 6 14 28 27 33 27 26 17 13 10 23 16 23 13 16 10 30 24 17 14 25 7 34 13 15 12 24 3 22 18 21 10 27 28 24 19 17 37 20 31 17 17 7 23 22 17 13 24 26 3 20 10 21 12 17 12 44 24 27 13 20 19 13 16 10 25 17 23 23 18 10 13 30 34 16 20 17 17 17 22 16 26 16 23 24 21 34 34 6 20 13 10 13 13 23 16 17 3 31 14 13 14 23 11 20 27 37 24 20 34 24 10 36 13 12 23 9 7 17 25 13 42 29 6 24 15 17 16 10 26 19 16 13 19 23 26 13 16 28 13 13 24 7 20 21 9 17 7 27 6 3 6 17 16 22 10 7 22 27 3 9 17 16 13 17 14 13 20 9 31 7 31 13 13 14 16 24 13 13 12 11 13 15 17 17 16 21 16 0 13 9 23 27 17 13 3 17 14 24 30 21 34 21 16 31 20 17 29 12 26 17 10 20 30 20 18 20 13 27 24 10 16 22 15 17 20 3 27 28 20 24 17 24 16 6 23 27 17 26 24 6 11 23 13 10 9 16 24 23 21 34 20 15 21 16 13 34 7 13 23 17 19 17 21 31 25 10 30 10 17 26 20 17 20 13 10 9 24 11 24 12 13 22 23 3 3 17 12 16 10 13 10 24 16 7 28 7 3 20 3 24 28 31 8 18 23 13 7 20 15 34 21 13 17 20 9 20 7 24 13 20 7 19 10 31 16 18 24 23 10 6 14 21 16 40 34 38 13 10 30 24 6 26 17 23 13 24 7 10 13 19 32 15 7 12 26 14 6 12 10 11 16 12 14 24 17 27 13 23 13 14 27 29 27 27 17 24 27 12 15 26 23 30 30 23 37 20 20 13 19 17 23 10 34 23 27 27 30 24 24 21 14 16 13 14 17 13 31 24 22 17 17 22 3 16 10 21 10 26 13 20 6 21 20 10 17 21 13 26 20 20 23 17 27 18 30 12 19 24 16 19 31 23 18 0 38 13 30 16 23 24 16 13 31 13 16 27 20 16 30 22 12 17 37 31 15 13 20 32 13 21 20 27 17 3 25 30 14 12 21 28 9 27 19 13 31 13 21 34 16 31 17 16 16 24 26 22 10 24 30 19 26 16 20 23 6 7 34 20 27 23 13 9 6 17 17 10 23 9 19 7 20 20 31 16 20 13 10 20 27 27 20 41 21 27 10 24 13 20 19 10 17 20 22 20 20 17 27 31 21 28 23 19 11 9 9 23 38 23 10 28 13 13 26 14 8 8 20 16 24 20 9 24 21 26 31 28 13 20 13 24 37 16 13 22 21 19 31 27 16 26 17 6 24 9 23 24 23 9 13 17 13 16 0 14 12 19 19 24 23 24 10 20 9 17 16 26 24 17 17 21 38 14 23 14 7 18 22 21 16 8 14 24 9 20 21 13 16 6 23 21 14 23 23 14 7 17 13 17 21 24 34 29 23 9 27 26 6 16 13 20 13 27 13 13 10 26 24 0 24 14 13 13 25 24 37 27 30 26 17 24 6 16 24 26 23 7 6 10 7 27 17 19 12 24 20 33 37 13 38 17 28 16 28 14 13 19 13 0 16 10 3 41 17 20 17 24 10 27 22 6 33 13 27 13 17 16 19 18 29 0 10 13 13 21 13 13 24 20 33 13 13 17 27 14 15 16 22 21 19 17 24 16 14 30 24 27 27 18 20 13 16 17 38 26 17 19 22 26 27 24 20 23 7 19 9 18 3 13 35 12 10 31 24 23 10 18 7 29 16 13 29 7 20 22 17 10 16 17 19 20 3 7 24 3 14 10 19 28 19 11 22 17 27 27 14 13 23 3 22 24 20 3 7 34 16 17 12 24 15 17 16 16 27 20 18 20 14 19 20 24 9 27 17 37 3 7 27 10 27 27 14 13 23 23 17 16 16 20 0 9 28 24 31 16 27 26 16 22 20 0 15 12 13 26 20 13 21 17 23 27 13 20 13 10 23 13 27 31 12 14 13 20 6 26 19 34 14 31 10 19 27 9 19 30 10 24 10 20 6 28 13 10 27 29 10 16 31 13 30 21 6 5 20 26 17 3 10 10 10 14 10 28 6 48 14 20 7 23 31 24 18 14 13 14 20 19 21 23 21 12 16 14 13 17 24 24 26 6 26 17 10 16 34 10 13 16 9 9 6 30 10 19 11 20 10 15 23 14 13 24 10 17 23 27 6 21 17 19 7 13 6 15 16 3 37 16 9 21 9 8 14 13 31 20 20 17 23 27 34 24 23 26 26 13 27 7 14 27 27 28 10 17 7 17 30 20 16 10 14 21 21 14 19 7 34 17 30 20 6 12 30 22 24 21 24 26 13 28 20 14 9 7 16 12 6 17 24 20 23 15 10 17 13 24 15 21 30 13 16 33 16 9 18 10 23 16 31 16 16 16 26 17 16 23 36 21 10 21 20 14 24 23 31 9 27 31 17 24 6 10 29 20 17 30 19 21 24 13 9 16 13 16 19 17 27 6 6 23 19 20 20 23 39 19 8 13 13 20 19 10 20 24 23 17 10 17 27 18 23 14 7 34 10 19 27 13 26 17 20 20 12 19 31 17 7 35 14 19 17 16 13 19 24 7 16 15 17 16 16 16 19 9 7 21 17 23 23 21 24 15 6 20 17 24 13 14 14 16 10 24 10 24 20 14 18 6 9 3 17 24 21 24 17 27 27 19 27 19 24 34 27 6 17 19 23 26 26 27 21 17 27 7 17 13 34 23 13 16 12 10 16 27 16 16 20 28 6 24 29 21 6 15 10 13 20 10 19 13 28 11 13 20 20 13 38 9 10 7 21 13 24 30 30 8 17 13 23 7 20 29 28 7 27 13 20 26 21 10 6 34 6 20 16 12 13 3 13 20 24 20 24 10 20 14 16 16 24 14 24 24 19 37 24 20 16 27 29 17 19 27 30 9 20 10 10 27 23 27 10 20 20 20 9 17 33 10 21 9 3 13 20 16 28 22 24 24 20 17 31 25 25 23 27 14 36 20 24 24 14 23 23 20 19 13 17 22 20 24 16 21 7 10 13 14 21 10 16 16 31 6 20 3 25 15 17 13 20 19 44 20 18 34 17 16 34 13 23 23 35 30 10 18 17 27 27 15 28 27 31 19 27 9 17 9 31 24 25 20 7 23 27 20 6 20 9 20 23 27 20 12 10 20 10 13 10 30 17 16 13 26 13 13 31 27 17 16 24 20 7 3 20 10 3 17 14 13 18 20 3 10 23 16 10 27 13 27 20 13 15 17 26 21 27 23 24 19 43 23 21 13 30 13 35 20 7 37 20 12 17 13 23 33 27 35 6 18 19 17 10 9 20 18 7 20 10 13 24 21 29 14 17 17 23 7 24 28 25 24 23 23 28 14 16 12 11 20 28 23 20 13 14 16 24 27 10 6 16 13 10 15 13 6 17 29 14 13 30 14 7 20 27 14 24 23 24 10 31 25 20 8 17 21 17 26 16 24 17 17 34 3 33 12 20 24 10 6 23 31 14 0 20 23 20 14 17 13 16 13 17 17 13 31 16 13 19 21 19 23 20 14 17 41 24 20 22 17 16 23 18 19 24 24 13 23 19 20 26 28 23 17 18 17 27 13 17 20 21 9 21 9 27 17 8 27 3 7 16 17 6 30 20 13 35 30 10 27 10 19 18 22 19 24 10 15 8 21 7 10 42 6 41 3 20 16 20 15 21 6 23 26 16 27 16 16 10 6 17 10 13 20 15 21 17 16 12 13 38 20 20 21 31 23 6 16 17 27 16 14 16 21 17 5 22 23 24 13 13 19 19 14 17 11 24 13 19 20 20 23 20 3 18 6 10 22 14 27 30 10 38 13 10 17 14 31 21 13 31 14 22 24 20 34 17 31 24 17 13 12 13 23 23 17 20 27 9 24 21 6 33 27 12 24 26 34 9 17 20 14 34 10 16 32 13 10 13 20 6 16 20 30 18 10 6 18 23 23 38 13 16 27 27 10 24 14 21 6 7 16 16 21 10 10 17 26 28 20 13 3 14 20 31 13 13 26 14 24 20 30 6 17 24 33 20 24 33 34 25 21 3 19 23 10 13 26 13 24 9 22 20 28 13 9 13 13 18 16 10 24 27 30 26 13 10 23 42 17 23 22 27 9 19 17 23 24 20 16 20 27 16 31 3 15 27 28 10 20 13 13 26 10 25 16 33 13 41 27 10 16 15 13 13 7 30 19 21 21 12 20 17 31 15 35 17 14 19 17 27 17 27 20 13 27 10 13 13 17 24 16 20 3 9 30 19 28 17 14 13 19 13 13 13 10 14 23 14 20 20 20 6 15 27 17 17 14 17 22 9 14 6 14 27 14 14 6 17 20 16 24 17 13 17 26 14 9 10 27 27 16 21 29 17 9 17 14 10 33 6 24 7 30 31 18 17 21 10 13 9 7 24 27 9 17 20 17 17 18 17 19 17 17 3 24 7 22 31 28 18 10 19 19 27 20 24 30 28 21 21 30 14 17 14 10 10 16 7 13 25 24 9 14 17 6 20 12 21 15 24 8 42 23 23 15 3 23 6 20 20 0 27 31 19 6 37 7 27 12 13 34 10 44 17 30 13 19 45 27 15 14 14 10 27 27 17 17 27 9 10 24 6 23 35 9 21 30 13 27 13 27 20 13 19 22 23 17 17 27 23 20 10 21 13 20 22 19 17 22 13 21 17 0 23 24 23 20 13 10 17 24 17 24 17 14 20 23 19 30 10 10 13 31 19 20 17 27 13 17 10 20 13 37 24 6 23 23 33 13 27 20 27 14 9 48 17 38 11 6 21 10 23 3 30 14 9 20 30 29 9 18 23 30 16 7 22 20 10 17 12 35 20 24 27 17 25 17 13 23 16 13 26 20 13 16 26 16 22 21 14 19 16 13 9 27 19 17 23 19 30 17 42 23 28 34 10 24 17 31 24 10 11 20 34 24 13 28 22 17 10 21 26 24 24 10 15 21 7 10 21 17 17 10 24 19 20 14 31 19 3 20 37 19 13 28 16 10 3 17 16 3 22 27 20 37 10 3 20 10 20 22 20 17 13 15 9 35 23 25 6 10 24 11 12 13 23 27 21 20 20 20 9 24 10 30 31 16 20 13 15 9 19 19 20 44 23 35 17 19 16 20 22 38 17 31 24 38 24 22 7 14 10 23 6 9 23 16 27 3 24 31 20 19 17 3 8 15 19 30 10 20 16 15 24 34 19 34 6 13 15 10 6 13 20 22 19 27 24 20 28 29 24 14 27 16 9 3 30 26 13 19 13 13 35 20 24 14 17 21 21 17 30 25 17 30 23 9 3 17 10 17 16 17 27 19 19 10 22 24 21 13 19 16 24 20 22 18 10 17 20 15 9 29 17 34 16 27 6 16 10 23 20 12 21 20 6 20 15 10 9 19 21 16 3 22 22 20 17 10 17 20 14 27 13 14 10 20 27 17 24 13 9 14 20 25 21 11 20 18 27 14 10 6 24 13 3 14 10 30 23 30 27 13 16 13 10 24 15 16 3 10 15 24 14 7 23 6 24 17 27 10 28 17 17 31 20 20 16 24 24 16 10 34 18 13 23 21 21 13 17 13 22 20 28 6 17 13 24 27 19 31 24 23 20 17 19 24 20 25 13 21 7 7 14 17 17 28 20 24 31 14 12 17 34 21 22 17 19 21 30 19 9 7 24 16 0 27 16 27 29 13 22 28 28 17 17 26 27 30 20 10 17 26 28 19 27 17 21 12 20 10 2 7 27 38 14 16 13 20 13 21 8 26 13 13 30 17 26 9 20 7 10 17 25 17 27 12 20 13 21 15 35 5 24 26 33 10 20 20 18 20 5 9 27 13 14 13 20 21 3 16 6 19 24 27 24 22 14 16 13 0 10 16 14 13 13 20 24 13 20 13 14 8 24 22 17 9 7 6 31 20 30 27 24 9 21 21 6 14 40 26 34 30 13 20 10 16 23 10 20 21 25 27 20 23 17 24 13 22 16 24 3 38 20 37 27 30 17 10 20 28 13 9 18 7 18 20 28 0 21 9 23 10 10 16 14 13 20 20 17 13 14 20 26 10 3 17 21 10 6 15 34 21 33 16 15 17 3 27 20 28 13 14 24 21 31 20 17 11 8 21 21 24 13 14 26 16 10 17 22 20 6 8 31 30 21 21 12 25 12 20 23 10 12 21 11 20 27 37 24 30 9 31 24 17 10 27 12 16 40 17 7 7 24 23 17 37 16 40 34 34 21 14 34 24 12 37 16 17 17 21 26 18 16 19 24 20 6 10 19 23 9 30 19 24 20 37 10 34 27 26 23 23 22 21 14 24 10 16 17 27 17 26 16 9 20 10 19 22 16 10 31 23 6 9 31 15 7 19 17 20 19 34 12 21 23 16 20 16 19 19 20 17 18 10 13 23 20 37 9 3 19 13 13 12 27 37 26 7 16 20 27 10 6 23 24 16 15 17 17 31 22 24 7 27 23 21 13 13 13 30 16 21 16 7 14 18 24 20 12 18 17 15 6 20 35 26 6 12 23 24 23 28 6 24 10 17 28 38 20 28 14 10 23 10 7 14 24 35 7 17 6 20 20 14 24 19 30 15 24 14 7 20 25 20 7 19 18 15 20 15 9 26 16 6 13 24 17 14 20 13 27 17 17 20 16 18 10 23 22 15 13 17 17 6 23 7 32 13 18 21 20 27 32 19 17 16 24 24 23 16 27 24 14 14 9 14 21 21 17 17 7 19 19 13 20 19 29 12 30 0 10 26 7 14 21 17 17 14 17 16 7 10 24 31 6 14 27 23 3 21 29 14 23 10 12 16 10 14 30 9 17 20 20 28 29 20 27 13 16 0 10 26 21 6 22 13 20 16 28 13 13 26 21 31 24 24 22 3 13 17 17 24 31 4 10 16 34 28 13 20 17 20 9 20 17 25 23 24 21 19 6 13 24 16 20 24 20 0 27 24 17 27 41 24 10 16 20 24 30 17 18 14 28 21 10 13 24 22 6 13 27 13 17 3 8 13 7 14 12 10 16 23 10 17 13 13 24 27 13 20 17 19 27 13 17 24 22 27 3 22 21 28 23 21 27 16 20 28 27 10 21 14 15 15 23 12 22 20 28 27 13 9 14 27 24 13 31 16 7 15 19 23 14 10 18 25 24 21 18 10 20 31 0 30 16 20 31 27 10 19 6 11 14 17 21 13 12 17 17 16 9 10 15 17 23 3 27 3 21 20 27 12 12 41 0 6 31 19 6 30 28 23 18 30 17 14 19 10 24 17 21 9 3 24 22 17 26 23 34 16 22 7 16 24 17 26 19 7 34 34 19 30 10 23 47 17 23 30 26 35 18 10 34 13 11 41 17 27 24 28 23 24 7 10 20 37 16 18 13 21 20 19 19 0 27 16 20 10 28 19 22 14 23 20 17 21 26 27 10 13 31 41 16 21 6 13 9 7 30 3 10 12 17 23 23 28 14 23 24 27 24 19 17 13 27 14 12 33 34 18 18 16 24 30 16 24 21 20 6 20 24 17 13 15 27 23 19 9 17 27 23 16 16 3 13 21 22 15 10 20 23 27 10 24 19 13 16 23 23 21 14 22 28 13 17 20 26 17 28 16 20 13 16 19 17 13 19 10 23 15 14 16 13 13 20 21 24 23 7 33 18 16 35 11 21 16 23 13 35 19 21 13 15 7 14 21 21 19 17 22 12 35 13 8 17 18 24 21 27 3 24 17 20 20 16 9 17 30 16 14 7 17 26 20 16 16 19 22 24 20 9 10 17 16 10 17 20 10 12 20 31 10 27 3 24 27 24 23 13 10 26 17 20 27 26 30 34 13 24 20 6 20 24 24 20 11 27 29 36 17 27 21 31 22 30 29 13 10 13 28 31 16 21 24 24 21 13 20 16 6 14 29 9 13 15 21 18 19 6 18 9 16 13 28 12 35 20 7 3 17 6 18 24 23 26 26 16 9 21 18 58 6 35 16 17 27 18 20 16 27 30 19 16 13 13 9 16 20 27 16 23 9 6 13 19 24 35 19 23 13 13 29 26 10 10 17 0 28 21 6 16 20 16 24 14 20 20 20 17 17 27 23 14 21 11 20 21 27 14 21 9 17 27 20 10 10 10 7 17 3 14 34 21 24 26 17 14 22 21 13 27 30 20 31 16 27 14 16 33 23 3 15 24 12 10 17 17 26 7 19 24 9 24 24 13 13 3 27 13 12 35 20 24 6 28 14 23 27 10 12 19 16 7 19 23 18 23 13 16 26 15 20 13 18 20 19 27 27 28 14 17 30 10 10 13 30 10 24 9 10 6 23 14 17 27 20 8 10 24 3 24 16 23 31 20 20 17 13 16 6 24 20 24 16 16 21 20 17 26 13 24 27 10 24 20 23 10 13 27 24 21 16 23 20 13 27 17 16 22 23 21 23 10 9 3 10 14 17 9 13 17 27 17 25 24 15 13 14 27 23 24 18 30 29 14 10 35 24 17 20 15 20 14 16 20 11 10 20 24 20 20 10 14 17 9 20 23 11 28 17 10 25 31 10 14 12 10 20 20 34 23 23 14 18 14 22 10 27 19 11 24 35 17 10 25 16 16 17 3 12 16 17 17 14 30 20 10 9 10 23 20 34 37 3 29 24 11 19 3 40 13 28 21 12 23 10 34 20 24 6 6 31 14 19 37 6 10 17 16 20 34 34 17 24 21 19 24 23 13 19 13 17 17 17 17 19 6 7 6 31 13 9 31 11 24 17 14 10 19 14 10 17 28 27 12 9 14 17 16 24 13 33 10 26 17 31 20 13 7 6 27 17 18 21 13 21 20 17 13 14 16 13 7 27 20 29 17 11 13 27 10 27 13 24 13 27 21 23 14 24 13 16 26 7 9 24 10 10 31 13 13 32 7 9 27 16 23 19 10 20 17 34 7 14 31 38 20 13 31 17 38 9 30 35 6 17 20 7 24 24 9 26 20 17 26 26 6 19 23 17 19 3 14 26 14 12 20 6 45 10 18 21 20 26 13 34 23 30 12 16 16 27 23 6 28 21 26 34 21 7 22 6 23 24 13 26 37 26 10 30 6 27 17 16 10 7 6 28 13 25 31 28 31 34 17 10 14 23 13 14 21 20 9 10 24 20 17 27 23 34 35 14 27 20 20 20 26 10 20 23 13 13 17 18 13 16 17 7 25 18 17 17 29 19 27 24 21 22 17 6 7 13 20 6 17 26 20 23 14 27 14 23 20 23 29 17 24 17 23 13 19 16 16 17 16 20 16 17 0 17 13 30 15 21 10 6 13 24 13 12 7 17 12 34 13 9 16 20 10 17 21 13 20 16 9 10 14 13 21 12 17 18 21 13 12 17 17 10 8 17 23 12 14 25 10 10 16 16 3 24 28 28 19 29 10 20 7 18 20 23 20 24 34 3 13 20 24 22 19 17 17 17 21 9 17 10 10 14 30 17 16 18 19 14 21 3 12 7 14 14 13 27 27 22 24 12 23 26 3 10 16 13 15 17 16 26 29 3 3 20 13 23 27 10 23 30 11 27 23 10 14 12 22 20 20 19 23 19 20 24 26 19 11 11 14 9 13 24 24 19 19 24 21 10 16 24 22 10 13 13 7 19 20 24 33 22 7 9 23 12 22 13 27 13 23 7 17 24 3 35 22 33 23 20 6 10 13 6 3 20 21 15 31 29 26 14 23 12 26 16 17 34 48 6 14 30 19 10 16 23 14 20 12 9 16 20 20 15 27 14 26 13 23 29 13 6 21 20 16 26 26 5 20 25 27 3 17 14 13 17 29 27 30 27 26 21 0 28 20 14 27 7 15 21 20 14 12 20 28 17 24 17 17 20 14 20 19 12 24 31 14 15 20 17 16 17 25 17 32 35 10 17 34 18 31 3 7 27 24 20 13 10 10 14 27 33 24 17 18 38 13 26 10 9 20 20 14 29 20 19 19 17 7 7 10 10 24 23 17 9 23 17 3 0 24 10 34 17 21 20 22 20 24 14 17 26 19 13 0 14 19 3 28 27 20 7 17 20 20 34 10 35 16 21 6 13 20 13 13 19 7 16 16 17 27 24 20 6 27 16 27 20 30 16 17</t>
+  </si>
+  <si>
+    <t>JSU(-1.6217385288108979, 5.785960729568206, 17.49358197107429, 24.931809433184743)</t>
+  </si>
+  <si>
+    <t>23 29 23 26 32 28 19 30 29 15 24 28 22 22 22 32 21 24 28 21 19 29 24 22 27 22 26 24 18 31 34 33 23 30 30 20 24 26 32 35 27 21 28 22 25 27 25 30 16 27 25 28 24 31 23 25 21 25 20 27 17 30 28 24 34 21 29 15 21 22 28 19 18 32 20 30 24 24 21 25 25 25 20 17 29 29 20 26 29 22 19 18 22 25 36 21 31 25 27 24 26 28 22 25 29 23 24 28 25 31 25 29 24 21 24 30 22 19 20 22 30 15 20 28 20 20 22 33 24 21 16 27 37 30 31 20 29 27 22 31 23 24 28 29 29 26 16 27 22 29 34 28 18 21 26 22 24 28 25 21 24 25 27 24 24 25 22 25 24 34 29 27 25 22 24 22 25 29 27 31 22 26 27 24 29 19 15 31 29 23 32 33 27 34 28 22 28 22 26 27 25 21 27 18 30 15 15 25 25 20 27 27 33 19 27 32 26 22 27 22 23 20 21 38 33 27 35 26 23 24 26 20 24 25 33 16 30 26 29 28 28 26 26 26 27 25 24 21 26 27 31 19 29 28 29 27 22 31 34 21 28 25 24 25 30 21 24 17 32 27 21 22 26 28 29 24 26 29 25 21 29 26 24 22 23 29 20 18 28 15 26 18 22 23 28 25 17 19 27 28 23 28 26 20 20 22 12 13 25 19 21 29 25 26 30 26 26 21 28 34 22 18 26 22 25 23 20 21 29 27 27 21 18 22 26 26 29 27 22 21 23 24 18 33 31 23 23 27 21 32 19 20 18 28 31 30 30 29 33 17 20 25 29 21 18 29 29 23 28 31 22 24 27 22 26 20 23 22 23 25 32 26 25 26 29 33 22 28 29 16 18 18 17 21 17 27 14 21 17 25 26 22 35 21 21 25 27 27 29 27 21 22 24 32 28 38 29 21 19 34 26 23 17 22 20 24 18 24 22 23 24 26 29 33 19 30 24 30 19 29 27 26 26 25 27 32 15 19 23 23 23 24 34 28 25 15 21 25 11 17 24 29 13 27 25 26 24 22 33 30 26 20 27 27 28 22 22 24 27 16 28 29 22 26 23 26 28 20 23 22 19 23 29 20 19 19 22 18 25 31 25 25 24 17 21 27 26 24 27 25 30 28 22 18 25 17 26 17 18 18 28 21 23 23 29 25 28 27 23 23 36 25 26 24 20 29 20 23 33 23 27 15 24 30 22 29 32 25 31 25 22 19 31 18 23 21 31 21 19 30 21 17 30 20 17 23 20 27 21 28 27 21 31 24 25 28 19 29 33 16 35 20 29 22 17 29 28 23 20 19 23 26 40 37 20 26 27 25 25 21 33 21 24 21 23 22 26 30 20 28 26 27 31 19 17 28 21 25 29 23 17 19 22 30 26 25 20 27 15 24 27 24 33 32 28 23 26 27 26 23 26 28 24 27 31 29 28 22 30 24 27 23 30 21 19 25 18 23 28 23 28 21 23 21 20 25 29 26 31 22 20 25 23 22 22 26 21 27 33 25 22 20 32 30 25 24 22 25 24 26 22 20 20 27 25 20 28 27 23 16 28 22 21 20 18 27 24 18 23 21 27 22 28 23 25 21 23 23 34 24 27 22 19 21 25 32 30 22 20 23 29 23 20 29 20 26 19 21 23 25 26 24 27 30 27 22 23 23 23 32 31 22 20 26 20 26 28 26 22 25 31 27 22 17 29 23 30 28 20 22 21 23 26 31 35 26 33 22 16 28 29 26 34 16 32 25 27 32 32 19 26 14 21 29 13 24 30 20 21 22 22 24 25 26 23 25 18 22 24 23 27 17 28 15 20 22 23 28 25 24 26 31 21 29 29 39 30 25 18 25 27 26 18 17 18 21 29 32 20 24 27 27 32 30 27 23 33 25 25 21 24 12 26 23 21 25 23 24 28 23 19 29 18 20 27 22 19 24 22 21 23 24 25 27 25 18 24 23 26 26 24 29 23 21 27 22 21 26 19 24 24 26 23 28 14 24 31 24 31 21 24 22 20 29 24 28 29 27 36 28 34 24 21 22 34 24 28 24 27 31 30 20 27 13 24 28 26 27 27 27 21 26 23 24 22 24 22 20 23 24 23 27 17 29 16 25 19 20 27 25 15 22 30 30 32 27 27 30 30 29 18 23 32 23 25 18 17 30 24 34 25 22 24 19 27 23 18 20 20 30 21 26 19 31 18 21 27 26 22 16 22 30 21 17 26 14 20 20 25 27 30 21 24 33 31 24 32 20 26 30 32 18 34 20 27 35 25 25 18 20 23 31 37 22 27 18 22 19 21 22 33 26 19 33 23 25 20 23 24 23 23 21 24 28 28 29 24 24 22 23 18 30 25 19 27 25 21 23 23 31 32 19 27 26 26 27 25 26 24 28 26 26 25 22 25 17 26 23 19 35 28 22 32 17 22 31 21 23 29 24 31 26 19 23 33 25 28 32 27 28 20 22 28 30 25 18 21 27 23 28 30 21 20 21 23 28 19 25 24 31 26 14 25 26 22 35 25 22 26 30 26 21 24 17 22 29 30 24 37 26 32 22 27 21 20 28 29 17 28 26 25 28 30 15 25 22 31 32 21 30 23 19 32 26 24 18 24 29 33 23 29 22 19 27 23 23 28 23 29 23 19 30 30 23 18 26 22 21 27 24 25 21 26 21 30 25 23 24 23 21 23 17 23 23 26 28 26 29 27 25 16 25 27 20 23 22 28 18 26 34 23 25 23 25 19 26 19 24 33 29 17 26 16 21 27 26 22 35 21 20 21 27 25 26 28 21 22 30 24 24 26 25 24 23 20 27 28 26 19 35 28 29 25 20 29 28 26 25 26 24 28 25 31 29 33 20 18 19 17 32 25 25 28 24 28 22 22 25 19 24 23 19 21 26 27 21 25 36 23 23 28 23 20 21 26 21 28 30 31 28 16 33 24 24 20 21 23 26 21 24 29 29 17 28 22 25 24 20 25 26 34 19 18 26 31 38 22 28 22 31 24 26 21 19 21 19 30 20 26 27 29 26 20 34 25 19 21 21 24 23 21 22 35 32 17 29 25 25 16 16 18 27 30 28 21 26 32 23 27 26 26 22 30 31 21 19 32 22 25 34 20 29 15 26 24 19 29 24 24 25 28 33 31 17 24 28 22 32 26 19 16 23 19 23 19 22 23 25 25 25 35 13 18 25 29 34 26 26 22 22 23 28 19 29 20 30 30 26 29 23 31 22 25 24 27 29 25 26 18 25 27 16 30 25 26 27 24 29 20 19 18 22 29 24 18 22 20 32 22 25 27 32 23 23 22 23 31 26 20 20 27 25 11 23 11 22 27 38 22 19 22 28 22 16 28 23 20 29 28 15 22 24 22 27 17 26 25 24 23 22 31 21 28 22 25 29 22 17 22 24 22 31 18 24 25 26 31 31 24 33 33 20 29 22 25 27 21 23 21 25 37 22 15 35 26 27 22 20 29 26 30 30 21 21 22 22 26 19 33 29 21 21 31 24 24 24 24 23 20 22 31 31 20 27 26 27 30 28 21 25 26 28 24 17 30 25 33 22 30 21 28 24 20 20 27 28 24 33 25 18 16 21 40 29 24 23 38 21 24 25 30 21 17 24 20 29 19 27 21 19 22 36 29 29 21 30 22 22 23 25 20 22 30 20 21 25 24 26 27 26 13 23 13 19 27 25 24 23 30 26 22 15 17 27 30 16 27 29 20 35 22 26 19 24 24 21 28 24 26 25 32 19 33 22 28 27 29 19 20 22 31 19 30 23 23 16 24 28 27 22 23 21 31 26 23 22 21 20 21 18 23 32 33 26 29 27 17 26 28 26 25 24 25 25 33 26 22 27 24 19 28 24 24 28 27 23 20 17 32 26 22 26 24 25 25 30 18 25 26 21 18 21 27 23 28 20 23 28 24 19 34 22 26 23 25 23 36 18 25 19 22 17 25 21 22 24 24 22 26 18 29 21 20 21 35 21 22 24 26 27 25 28 24 23 22 24 17 21 26 31 21 23 24 22 18 26 25 28 28 28 25 25 22 18 29 27 28 29 20 31 28 28 24 20 23 22 15 22 27 23 27 24 19 24 26 24 23 22 20 20 27 25 21 25 27 18 25 20 16 20 29 17 31 21 24 31 22 24 24 23 19 17 19 16 24 27 20 27 25 30 28 22 28 15 25 28 16 24 22 24 26 20 24 18 27 20 24 25 25 24 24 27 33 23 30 31 22 27 27 20 25 23 29 22 29 23 23 24 34 24 27 21 19 21 17 20 20 22 22 27 30 26 20 31 22 26 27 28 24 16 23 26 22 20 15 29 17 29 18 17 30 25 24 20 25 26 24 25 28 35 25 29 23 29 20 27 28 25 16 19 26 21 21 33 23 25 25 27 22 28 22 28 25 23 24 26 24 29 33 23 22 24 20 21 25 29 25 23 23 20 19 18 25 25 30 29 29 27 35 23 26 23 21 25 19 20 20 20 22 28 26 24 25 20 30 22 18 26 26 24 30 23 21 28 20 26 24 32 30 21 26 21 21 27 24 22 27 19 30 25 20 23 18 21 24 21 26 37 24 24 25 25 24 29 25 24 28 36 30 28 22 25 16 22 32 22 29 31 19 25 22 23 20 22 27 26 33 21 24 24 21 29 26 36 25 31 19 34 23 14 27 24 19 23 20 17 28 24 20 22 29 30 27 30 19 29 26 24 31 23 23 23 31 23 20 22 26 20 27 21 23 26 30 24 23 24 23 20 26 23 31 25 32 24 22 25 26 21 23 13 32 21 26 29 29 21 29 31 26 20 26 22 22 19 26 15 17 20 28 29 26 13 20 21 25 23 24 26 25 21 26 24 29 28 28 25 24 30 22 25 32 35 26 40 20 23 24 25 21 21 22 22 40 23 22 32 22 28 32 19 24 22 33 29 31 23 31 26 25 33 23 32 24 26 29 22 23 33 18 29 18 25 23 27 30 27 26 27 15 29 32 22 24 28 17 30 23 22 25 24 22 23 30 26 26 17 31 24 24 22 33 23 29 21 23 26 23 23 26 30 23 17 26 28 27 22 18 23 34 25 21 25 20 22 27 29 32 19 25 27 20 22 27 18 30 37 20 32 29 25 23 29 23 20 18 22 26 21 26 23 25 29 25 25 40 36 9 21 21 15 25 25 20 26 17 24 26 26 29 25 20 19 31 29 20 18 14 22 29 27 25 25 24 28 24 29 22 26 23 29 31 25 26 21 29 21 36 31 23 16 31 22 26 22 24 22 28 26 27 18 26 20 30 22 32 24 30 22 21 19 30 29 15 30 24 30 22 21 21 27 23 23 20 33 27 24 32 28 20 24 17 15 26 30 25 20 21 20 24 23 25 24 29 26 29 25 30 23 20 28 23 27 24 28 19 24 34 20 32 24 29 20 24 28 22 21 21 28 21 19 24 26 27 25 27 27 28 37 26 21 22 28 18 27 23 25 24 27 23 25 24 26 19 27 32 25 25 23 23 25 18 19 24 25 24 29 31 25 18 24 25 29 27 24 23 17 21 20 23 22 21 19 27 16 27 36 21 32 22 22 22 23 26 24 26 25 26 22 20 21 23 27 25 34 17 24 25 23 23 25 22 26 23 29 25 25 27 28 20 26 14 25 24 26 23 27 19 27 22 22 27 30 24 26 19 12 27 23 21 23 20 29 25 30 22 17 32 23 22 25 19 26 23 21 26 28 21 25 28 31 33 28 28 31 31 24 29 28 23 21 20 24 21 23 27 26 34 21 23 20 27 34 26 21 19 23 23 29 23 26 24 19 29 30 26 24 22 27 27 30 37 23 18 28 19 27 27 24 19 25 23 20 29 15 23 33 25 26 31 23 22 22 26 16 27 27 26 26 27 23 18 23 26 25 28 19 24 24 25 31 30 24 22 21 23 26 18 24 25 24 25 32 28 20 30 26 28 21 27 24 22 28 23 26 21 33 24 24 22 21 27 20 24 19 27 21 27 15 21 27 25 30 34 32 24 27 19 17 24 17 30 23 18 26 23 24 20 26 23 18 24 26 28 25 19 22 25 26 17 20 33 20 26 24 35 26 28 29 24 24 26 23 22 16 25 22 25 27 23 26 24 20 26 19 22 22 25 28 25 23 22 27 24 20 23 18 14 39 28 16 23 28 24 28 26 23 27 24 22 29 25 29 22 30 32 34 24 22 23 36 27 27 19 26 18 22 29 21 30 30 25 24 29 16 32 28 24 22 22 25 32 28 23 34 28 23 34 28 19 19 41 28 24 25 23 28 31 35 33 28 20 25 22 15 31 18 26 30 21 29 29 31 21 26 17 23 28 24 18 20 31 26 26 20 26 16 25 26 25 22 21 31 25 22 16 21 29 28 26 30 29 26 12 21 20 21 26 28 25 27 33 23 33 17 23 27 24 26 18 34 24 24 25 24 24 26 26 24 30 26 17 27 28 25 27 23 33 28 20 31 25 30 19 20 25 28 23 25 23 24 20 25 28 34 23 27 19 31 29 29 28 16 27 18 28 28 26 24 21 30 22 23 29 25 18 17 24 30 19 29 31 30 17 26 26 22 26 21 22 27 15 27 27 22 22 17 19 28 27 32 28 27 25 31 24 24 27 34 26 20 18 21 33 21 26 18 29 22 29 25 29 17 26 20 27 22 29 27 19 21 21 30 28 27 22 29 32 20 22 23 19 20 31 34 19 24 16 26 37 27 25 23 25 25 25 29 19 28 22 24 21 14 24 24 22 26 25 23 24 26 25 33 15 21 28 20 23 21 22 25 26 24 19 24 25 20 29 29 29 25 20 19 15 22 33 21 25 21 23 28 24 27 25 24 21 23 31 24 18 33 23 21 26 28 30 28 21 30 29 32 23 26 28 23 29 23 21 26 29 29 26 20 28 25 29 28 21 21 22 24 26 27 27 19 24 20 18 27 29 24 32 25 27 21 25 19 26 25 37 19 20 37 25 22 28 18 23 30 19 31 27 32 16 22 24 18 31 28 24 22 20 30 24 28 26 32 22 27 22 23 24 29 26 30 21 26 25 26 23 31 28 23 25 26 15 17 36 31 25 30 16 22 26 24 31 21 26 26 16 29 27 17 24 17 28 19 24 26 26 17 28 24 23 33 19 23 20 25 21 21 30 22 25 23 26 21 27 21 25 34 33 26 19 22 22 22 21 19 30 29 28 21 23 25 26 26 16 31 24 32 24 21 27 25 23 32 26 27 25 26 31 21 22 27 29 23 29 28 30 26 20 28 27 28 20 12 24 25 24 19 28 25 31 30 25 22 20 25 28 28 26 32 23 28 24 23 31 25 23 26 22 22 22 33 27 17 27 22 24 24 24 24 28 15 22 20 15 19 24 24 22 20 24 21 15 27 21 30 26 31 23 30 25 25 19 19 22 25 18 30 21 26 23 22 21 22 19 23 20 38 28 23 20 26 21 22 18 27 19 24 21 26 23 31 29 29 19 29 27 27 25 24 25 17 24 27 21 30 23 24 23 26 20 22 21 27 28 27 16 22 31 26 19 28 28 26 22 21 25 21 29 26 24 28 18 25 19 20 30 31 20 21 24 21 23 24 28 30 23 23 25 29 25 23 24 28 21 24 23 23 30 19 25 32 24 25 30 28 28 21 20 34 20 24 26 15 29 27 22 34 24 26 22 34 20 25 27 27 28 24 29 24 25 36 29 26 22 16 22 24 22 27 23 28 23 17 24 25 26 26 24 24 26 17 19 21 31 29 20 27 26 25 30 25 28 22 22 28 22 21 32 25 25 24 27 29 33 21 23 28 30 34 27 22 23 21 25 32 31 29 34 31 26 24 27 31 17 27 28 21 25 28 25 20 28 34 25 19 22 23 28 22 26 27 20 14 22 24 23 25 20 18 35 29 32 26 31 20 17 26 26 20 26 23 33 26 30 26 24 28 28 31 23 23 26 17 22 28 22 27 13 25 27 32 32 24 21 26 30 26 18 31 17 20 31 22 33 22 31 31 18 17 24 22 22 22 18 21 26 27 22 30 22 23 22 28 28 20 25 23 31 28 27 28 29 28 28 31 27 31 23 27 33 22 26 22 23 29 24 22 27 20 26 27 26 26 26 27 25 23 21 24 31 23 25 34 20 30 26 31 19 24 26 30 33 24 26 28 17 29 21 26 27 23 25 24 17 25 23 24 32 28 27 23 30 33 30 27 28 20 25 28 25 20 23 32 15 20 24 23 15 20 26 24 23 26 32 20 19 22 24 28 28 22 22 30 25 26 22 32 16 26 16 30 26 26 19 29 25 17 21 21 21 26 24 23 25 24 23 26 29 24 22 25 23 29 25 20 29 19 18 17 16 24 41 29 27 25 29 43 22 25 29 30 26 17 27 30 20 27 29 24 15 20 19 18 15 26 22 24 30 20 27 15 28 25 31 26 22 27 29 20 24 25 28 23 25 29 20 15 16 22 30 24 29 21 26 26 16 26 34 25 28 23 16 27 21 24 18 13 22 22 21 23 22 30 24 32 19 28 21 26 24 17 29 33 16 24 25 29 28 30 26 33 16 17 23 23 27 22 24 22 30 25 32 33 31 19 25 23 18 31 18 37 24 23 30 18 28 25 24 24 24 34 22 24 21 28 21 32 30 26 29 16 23 30 26 24 17 28 27 22 22 17 19 24 28 22 19 21 32 25 17 24 23 25 28 23 35 16 23 21 27 31 22 33 24 28 23 30 25 26 28 22 26 21 24 25 24 27 27 23 29 28 27 19 26 28 28 37 16 25 19 23 23 25 21 33 17 25 18 30 21 21 32 28 18 26 27 26 31 28 28 16 23 25 26 23 26 20 24 22 20 24 23 29 20 27 26 26 23 21 23 19 32 27 23 19 21 34 41 29 23 29 19 27 20 24 24 29 28 28 22 26 20 19 19 24 26 17 30 32 19 23 36 25 29 20 22 25 23 28 22 27 31 24 17 26 21 28 24 25 22 25 24 26 26 30 23 20 32 30 21 22 21 20 24 28 29 31 23 18 32 23 29 31 14 27 32 21 31 28 29 32 28 26 25 27 26 23 23 33 23 30 33 37 26 22 28 32 27 26 27 20 25 33 23 27 25 27 36 29 26 26 21 20 21 29 26 27 19 23 23 20 22 21 23 23 31 33 17 24 29 19 29 28 22 25 30 25 32 27 24 19 24 25 26 20 24 21 23 25 28 20 33 30 29 16 17 26 28 28 23 23 28 23 25 26 22 24 38 24 33 31 28 26 32 28 29 23 21 20 26 28 23 20 21 24 26 21 30 25 22 23 32 22 30 39 27 22 22 26 29 28 31 31 20 23 24 27 22 24 22 24 26 37 28 32 24 22 40 20 19 20 17 20 30 26 27 25 21 26 20 34 27 27 26 24 28 26 20 20 22 23 22 28 31 29 18 23 19 20 31 18 21 26 30 21 28 23 23 26 19 26 28 29 21 20 22 23 26 26 15 21 18 24 29 17 35 27 27 22 22 19 26 31 23 22 23 26 22 29 32 24 11 30 35 24 23 25 33 31 20 22 25 35 23 22 20 26 26 22 26 24 25 23 16 31 26 14 24 23 34 27 30 24 26 22 22 17 28 23 18 27 22 26 21 24 23 21 24 40 24 21 28 24 32 22 30 28 31 22 14 27 21 33 18 31 25 22 32 18 34 24 28 15 25 22 19 26 24 20 24 25 24 25 31 19 28 24 16 28 31 26 24 15 30 32 27 24 32 21 24 24 24 18 21 10 25 33 24 31 34 27 20 17 26 26 26 25 27 22 32 26 24 32 29 19 26 24 29 24 24 22 21 25 20 33 28 26 30 29 21 23 30 25 28 25 27 21 24 27 21 29 23 19 25 23 28 34 20 17 33 27 29 26 28 22 27 30 17 28 24 27 21 24 24 31 25 27 29 19 25 24 17 20 31 26 25 19 26 30 20 22 24 20 20 23 19 27 24 18 18 32 13 22 33 31 35 32 23 11 19 23 21 17 19 22 21 28 28 30 29 31 34 24 32 29 22 20 28 25 22 30 25 29 24 27 21 22 27 27 21 26 25 25 26 24 19 20 32 18 33 23 27 28 27 26 20 16 29 25 24 25 27 31 21 22 27 17 27 20 29 33 17 30 20 27 23 23 20 24 25 26 31 23 20 25 24 22 28 25 17 27 20 27 23 27 29 16 32 24 25 26 27 17 25 22 16 30 21 18 19 28 22 25 27 28 30 22 25 23 23 36 22 25 24 25 24 20 25 29 29 24 27 26 22 28 30 30 15 36 26 18 18 26 27 29 29 26 24 26 26 21 20 25 23 23 24 27 26 33 20 34 32 29 25 14 24 23 31 28 25 19 17 18 19 31 33 27 29 27 28 27 21 25 26 32 28 20 27 23 13 20 26 18 27 22 17 25 22 25 21 26 28 19 23 22 28 21 25 26 32 30 16 24 29 22 28 28 23 25 21 25 28 38 27 27 24 23 30 32 22 26 23 20 28 25 24 18 29 38 25 24 34 25 21 28 25 32 24 32 23 23 21 30 20 26 18 20 30 18 23 21 32 22 23 26 17 20 24 26 25 30 16 24 26 28 27 25 28 29 27 23 30 24 26 30 26 20 22 24 23 21 16 23 21 19 22 28 17 28 28 29 14 24 23 24 23 29 30 27 22 25 22 24 23 24 25 29 36 25 21 30 27 22 28 25 21 25 28 17 14 27 30 19 26 20 24 29 32 23 23 22 26 28 20 23 22 27 19 17 28 25 26 24 26 25 23 28 22 23 22 23 20 30 27 25 25 28 27 30 19 23 23 27 24 22 29 21 20 22 28 23 29 26 26 17 15 29 19 28 24 29 21 31 19 18 20 26 28 21 23 21 24 22 23 25 28 22 19 30 22 26 29 23 28 25 26 27 19 20 27 18 32 16 27 24 21 33 19 23 21 27 22 33 25 29 16 21 22 20 19 20 16 26 34 20 27 32 30 26 19 26 23 22 23 21 19 25 22 22 30 27 25 18 20 30 25 28 25 25 19 28 26 22 31 27 32 23 30 30 31 28 30 34 18 27 28 20 36 20 19 23 33 23 24 27 22 22 33 27 21 23 14 22 19 26 22 33 25 30 27 32 23 22 16 23 31 23 19 22 28 35 27 27 29 26 26 24 22 24 18 22 24 25 23 38 29 28 34 28 32 22 24 21 31 26 25 19 29 21 27 27 14 29 24 22 22 22 25 27 21 27 31 25 28 25 34 22 14 22 15 23 28 24 26 27 28 22 23 30 14 38 22 21 26 20 22 35 20 27 28 24 29 19 18 22 18 23 28 28 22 31 31 31 27 28 28 27 20 35 22 26 22 25 26 22 29 25 22 23 19 24 24 25 25 22 20 27 28 19 25 25 33 20 24 19 27 28 26 20 29 24 19 33 23 23 21 29 23 19 15 24 21 31 29 32 24 27 24 23 24 17 32 26 20 26 23 22 29 22 28 30 29 24 19 33 24 22 28 16 22 26 32 24 28 23 28 26 26 23 23 26 28 30 21 21 21 28 22 28 28 26 17 24 16 25 30 24 32 20 22 23 27 20 23 27 18 26 24 26 26 19 22 26 28 26 26 21 16 25 17 17 35 21 26 18 26 22 34 23 29 24 31 23 25 24 29 20 15 25 33 21 25 29 23 29 22 28 30 19 21 21 20 21 18 18 22 24 24 17 26 23 24 20 18 28 27 23 28 27 19 23 31 28 24 34 22 32 21 23 27 18 31 34 24 21 29 23 31 23 22 25 30 30 15 24 27 20 18 26 19 31 26 26 27 26 25 31 24 29 26 23 20 30 28 20 28 29 24 28 24 19 26 23 26 22 31 27 31 24 22 26 36 29 24 31 24 25 21 33 17 29 26 24 24 18 26 31 25 21 19 21 29 25 23 25 27 22 19 27 35 21 28 31 21 22 22 27 24 25 24 22 20 25 24 23 24 30 27 22 30 18 24 27 25 26 30 22 20 23 22 31 26 32 21 26 29 13 20 29 34 27 27 22 30 20 26 26 23 27 27 24 29 25 22 26 31 16 29 21 22 29 32 23 30 26 23 21 28 29 23 23 21 25 26 27 23 28 29 21 33 23 23 25 22 23 23 23 23 23 26 15 29 29 20 23 15 25 23 24 19 29 25 28 28 20 28 19 33 27 26 23 23 19 32 34 32 28 25 22 26 29 26 21 26 23 29 27 25 24 23 25 21 30 24 28 39 26 23 28 18 25 26 25 24 20 23 20 20 22 25 30 23 27 26 23 28 17 31 31 23 24 24 26 26 28 25 30 23 27 25 25 26 26 31 27 27 24 29 32 25 26 22 22 23 16 17 26 23 26 23 19 29 29 15 20 22 24 22 35 30 23 20 23 29 15 26 18 22 24 33 20 20 31 28 23 24 20 28 26 27 17 18 19 32 19 25 27 24 31 26 29 29 30 25 24 22 25 28 24 21 29 23 19 25 15 22 25 22 26 24 29 26 22 25 25 23 31 19 20 29 29 23 18 23 22 28 25 20 27 21 26 29 24 25 27 22 29 24 28 30 26 20 23 20 23 19 19 32 23 25 22 26 13 25 19 19 22 29 33 30 26 22 32 27 24 30 21 29 18 22 17 22 29 30 31 29 30 24 19 30 22 21 25 20 25 20 29 32 32 19 29 25 18 30 24 14 24 25 20 26 25 25 20 18 16 20 27 27 17 27 36 19 19 19 29 29 22 24 24 23 27 21 30 19 18 26 23 29 23 25 22 24 16 21 22 25 22 30 28 21 28 17 25 24 29 22 27 24 26 23 28 31 35 17 19 24 16 38 29 30 28 15 27 31 22 26 25 26 35 27 22 30 24 27 25 23 19 12 28 23 22 25 23 22 16 29 23 24 30 22 24 32 26 25 26 25 24 21 25 27 18 23 29 28 26 28 26 33 22 25 22 25 24 26 23 21 24 29 24 23 30 16 27 24 31 28 21 33 19 27 23 28 28 26 16 23 27 18 24 29 25 24 23 25 20 25 27 21 32 19 29 16 17 17 33 25 28 23 36 26 25 27 31 32 29 17 27 23 23 31 19 18 23 25 22 23 26 28 22 25 17 28 15 24 23 32 23 33 26 31 22 23 23 30 25 29 25 33 14 35 17 19 26 24 29 27 20 17 33 20 19 21 32 27 22 15 23 29 21 31 17 25 19 29 26 22 26 24 24 34 26 32 28 24 28 27 24 25 29 19 28 25 26 19 33 29 27 24 24 29 27 29 22 31 23 21 24 22 22 29 24 35 19 24 32 23 23 20 25 18 21 27 28 21 24 24 25 23 30 25 17 28 20 26 35 31 21 28 16 29 29 26 25 22 21 35 18 20 32 24 37 27 23 24 19 28 25 31 29 23 21 29 29 28 24 17 21 34 32 23 29 36 23 23 22 33 28 21 23 28 24 25 24 29 28 25 28 28 24 20 21 30 23 22 23 28 22 21 37 22 23 35 27 25 30 21 21 29 26 25 27 24 29 21 18 21 26 25 26 25 29 24 28 28 17 18 30 27 21 29 22 26 28 27 26 31 38 29 34 24 22 24 19 25 24 21 24 15 33 29 24 31 31 31 25 19 25 27 25 28 23 22 27 22 21 29 32 28 26 36 25 27 32 25 25 25 27 24 31 23 21 27 25 24 25 19 23 26 23 18 28 30 21 21 29 20 22 21 26 32 23 18 13 27 20 24 20 18 24 28 29 20 24 25 25 24 23 22 19 35 32 26 30 32 32 23 21 23 25 25 36 15 27 18 28 20 28 34 26 26 27 20 29 28 25 27 30 32 30 23 23 27 25 23 25 39 25 29 23 22 16 20 24 31 28 26 20 26 13 23 28 25 26 22 22 12 30 27 31 21 23 21 25 25 21 23 26 24 28 9 21 19 17 18 25 22 23 34 23 23 21 29 30 27 27 27 22 25 27 33 21 21 23 25 22 36 16 21 24 34 20 22 31 21 30 19 23 32 21 26 26 28 28 30 27 24 25 20 30 26 20 20 22 27 24 18 20 19 29 24 29 21 35 25 24 23 30 26 21 25 21 25 22 27 26 28 35 27 28 29 33 27 26 25 21 21 20 28 25 27 19 21 33 20 25 23 24 16 19 25 26 29 24 26 32 26 20 30 27 22 25 22 25 23 18 20 21 13 26 24 21 28 21 16 31 29 28 22 21 21 29 25 32 24 24 23 24 28 25 24 32 26 31 16 29 21 21 22 33 26 22 30 29 18 26 25 20 35 20 23 24 28 32 22 23 32 27 27 24 26 28 28 26 23 24 31 23 25 28 28 24 19 24 16 30 20 26 29 29 26 25 27 40 30 24 22 26 24 30 29 22 28 19 20 22 22 24 31 22 30 20 26 29 25 26 19 23 26 23 25 30 26 27 20 22 20 22 22 26 20 32 28 30 32 16 24 22 25 24 21 32 20 31 23 16 28 19 26 20 21 22 24 27 21 17 17 23 26 29 24 22 17 32 25 26 24 21 20 25 24 29 25 28 17 25 25 25 22 27 25 18 31 24 27 20 23 18 24 26 23 25 17 20 25 15 24 22 24 24 30 24 25 29 21 23 31 25 17 26 23 18 31 17 30 25 19 23 23 22 23 20 27 24 30 18 23 21 23 29 20 18 26 25 24 13 21 21 25 29 27 23 26 23 28 29 29 23 20 31 25 32 22 21 32 34 24 22 22 27 35 24 21 30 25 24 20 23 26 24 19 23 28 31 26 23 24 34 31 31 23 24 25 26 28 29 25 20 26 30 18 28 27 21 26 26 17 26 26 21 25 18 29 29 16 37 21 29 25 22 27 22 24 17 23 32 23 18 38 23 30 31 24 18 29 28 28 26 29 27 22 20 31 26 32 20 25 32 23 21 25 19 23 28 17 25 25 25 23 26 26 25 27 23 21 29 26 17 23 26 20 26 18 26 24 23 31 34 34 20 24 25 28 20 21 27 20 25 18 26 25 32 19 21 26 29 23 26 24 21 18 28 22 24 17 18 29 26 31 20 27 36 18 26 29 21 19 26 36 26 17 16 29 22 20 22 29 24 20 25 28 27 30 30 26 23 24 29 30 25 28 22 30 24 29 29 28 23 24 23 24 29 22 24 15 23 26 28 21 33 32 16 25 30 25 25 23 24 20 24 16 24 30 36 23 27 26 27 27 27 22 23 18 28 22 26 32 29 25 27 17 30 20 20 23 32 19 24 25 31 24 24 26 26 21 15 28 24 22 24 17 20 23 32 23 33 19 27 27 28 25 30 19 24 31 25 32 22 23 26 29 18 28 25 25 25 26 24 20 20 29 24 25 22 21 22 26 17 24 34 24 20 16 16 24 27 37 29 24 19 26 26 19 28 32 24 25 33 24 29 21 33 27 25 20 24 28 24 30 15 17 26 21 27 27 22 23 21 25 24 21 26 24 34 25 22 27 18 28 28 22 31 29 33 18 18 29 27 22 32 24 20 30 35 22 22 19 30 31 24 30 27 24 25 33 19 22 20 21 28 25 24 29 30 24 25 26 16 15 17 30 24 24 21 27 28 24 25 27 20 27 25 29 29 25 17 28 23 25 21 26 30 25 21 25 31 26 26 31 23 24 27 21 29 21 21 21 27 23 28 25 21 21 32 11 22 31 30 26 22 25 28 23 35 21 26 19 24 27 25 27 31 19 22 24 17 35 36 23 21 17 24 25 17 23 24 20 19 23 23 19 27 30 28 21 17 27 31 26 28 28 26 28 30 24 30 23 31 25 22 31 27 25 20 24 24 22 32 21 22 21 24 16 25 23 22 29 25 28 14 25 29 26 30 16 28 19 19 26 34 24 30 25 25 22 21 19 28 24 18 23 34 16 33 25 27 33 23 25 19 22 31 29 19 16 24 16 28 21 23 26 21 25 18 21 26 26 23 22 28 18 25 25 23 17 24 20 25 26 32 31 31 23 23 25 25 22 22 25 25 26 32 26 33 24 28 30 39 27 25 26 24 27 30 17 24 26 18 18 24 20 23 22 28 22 36 26 33 25 19 30 29 23 28 27 29 26 26 25 20 31 26 24 31 26 36 21 28 23 17 22 26 20 18 24 22 29 28 27 28 24 22 18 30 16 32 28 31 22 24 28 23 27 33 20 27 28 24 22 22 15 22 26 24 37 22 21 32 28 26 28 28 28 23 20 28 23 30 24 20 27 24 23 24 23 32 22 23 31 17 21 26 33 23 16 24 37 21 32 29 28 22 30 28 25 28 27 19 31 23 20 19 20 18 24 26 22 24 23 26 29 27 24 23 29 22 27 26 24 21 23 24 29 30 21 21 34 24 21 21 21 22 26 23 22 18 20 17 27 22 30 27 25 27 24 32 23 29 27 26 25 28 24 23 20 27 28 27 19 20 19 24 17 23 22 24 22 20 26 23 22 21 28 21 21 31 34 26 35 24 29 28 24 27 23 23 20 20 29 28 24 22 24 25 21 28 19 28 27 24 25 26 27 30 29 23 25 26 21 34 21 22 28 29 18 21 28 22 19 18 25 27 21 23 29 19 26 27 25 26 24 17 37 35 19 22 16 33 33 41 26 26 29 22 25 25 26 28 23 24 26 24 24 24 34 29 25 23 14 22 28 29 20 25 31 26 30 21 21 19 30 27 18 26 21 29 28 28 34 21 15 26 20 28 31 25 14 24 26 23 20 20 32 17 25 26 24 26 20 20 23 28 26 20 15 26 22 28 22 17 23 24 24 28 26 22 27 25 23 26 27 22 26 25 24 22 20 20 25 20 24 21 26 29 29 28 25 23 29 21 28 27 14 31 31 25 18 22 20 25 23 24 21 19 18 15 23 26 23 27 24 25 22 26 19 25 21 25 27 27 27 22 26 25 24 24 22 26 23 21 23 23 32 18 21 21 22 22 26 27 21 22 22 35 29 18 21 20 30 23 24 22 20 28 27 25 24 35 16 26 24 25 28 28 30 27 28 22 22 27 28 21 22 28 20 29 38 18 17 23 23 20 23 18 23 36 22 19 34 26 36 23 28 23 29 25 18 21 19 27 21 25 26 23 31 19 28 23 24 24 29 25 31 27 18 19 26 28 29 18 23 18 23 23 23 20 28 22 36 24 33 20 25 28 28 26 27 27 21 19 24 27 29 23 31 22 15 28 25 30 19 26 20 28 30 21 26 18 33 27 27 24 19 19 17 36 20 17 23 21 27 22 16 28 25 25 24 29 24 21 24 21 28 25 26 18 25 23 27 18 24 24 27 32 22 25 26 23 28 25 20 18 17 18 28 22 24 23 27 33 24 25 23 33 27 27 28 22 26 23 36 29 14 21 21 24 20 25 20 32 24 23 24 23 29 28 21 22 23 23 24 28 23 24 22 25 27 17 29 29 35 27 24 30 19 27 20 31 27 22 19 23 18 26 31 30 32 26 32 27 19 25 19 27 34 17 29 20 18 30 28 21 24 26 28 19 28 25 28 27 25 29 25 18 16 26 27 30 26 30 16 22 20 28 31 24 32 23 25 24 32 28 21 24 27 27 25 26 36 20 26 20 24 27 25 21 24 23 29 23 22 30 27 26 29 16 23 19 20 19 31 29 29 21 27 21 29 22 39 14 23 27 22 27 19 35 27 22 28 27 31 22 23 30 30 24 26 27 14 25 25 25 23 27 23 24 30 18 25 26 22 16 23 29 18 30 26 14 20 19 22 24 25 27 22 25 27 24 39 19 11 22 22 24 31 19 27 27 21 32 16 21 20 24 32 25 25 18 32 23 26 28 25 28 20 23 37 19 22 34 18 24 25 26 22 17 25 29 27 27 25 28 23 26 27 16 29 15 28 21 27 22 26 20 21 30 25 19 19 25 26 24 28 28 26 25 21 18 24 27 26 29 27 26 24 30 23 12 22 29 28 26 18 13 28 23 23 27 21 33 23 28 34 20 32 21 29 18 31 19 25 26 23 26 30 30 38 21 28 18 19 21 30 27 24 25 20 22 27 28 30 22 26 33 25 25 20 20 28 20 27 27 14 23 21 23 27 28 29 23 24 27 21 21 22 29 25 33 20 27 14 24 22 21 21 31 22 16 29 23 30 28 18 27 27 28 22 34 21 24 30 23 27 29 27 15 19 29 28 22 19 25 23 25 19 26 35 19 21 20 25 25 20 36 20 26 25 25 25 30 22 26 22 25 36 28 21 29 21 28 24 27 27 25 13 27 19 26 13 23 24 25 22 19 25 35 26 26 18 26 24 22 32 21 28 32 30 31 32 27 22 34 11 22 19 37 22 27 26 24 32 20 25 25 32 28 23 26 28 23 15 25 23 21 22 20 18 24 18 25 22 31 31 21 32 22 26 22 23 32 20 26 21 24 30 32 26 15 25 25 30 27 24 12 33 22 32 32 24 23 26 26 35 25 23 19 21 24 22 18 22 23 23 20 19 17 24 24 30 23 21 24 34 18 32 24 21 20 18 30 26 24 27 25 27 33 21 23 25 25 18 31 22 26 20 32 25 26 25 24 20 26 20 24 30 23 17 34 29 30 24 27 25 15 13 27 29 28 22 23 26 19 24 22 21 19 29 27 26 26 35 21 28 23 25 22 25 21 25 24 27 32 25 23 23 24 26 22 31 23 27 31 28 27 34 29 24 28 28 24 19 19 22 32 21 26 19 26 31 20 17 17 27 18 29 16 30 23 27 26 23 27 28 24 24 26 27 22 20 27 24 24 23 30 26 24 25 20 25 22 24 23 27 24 27 28 21 31 28 20 23 23 22 24 29 23 23 23 23 28 31 18 30 20 23 30 17 21 27 21 35 20 17 28 29 27 36 24 32 31 23 20 30 26 23 19 21 26 21 21 27 32 29 22 25 24 30 25 26 17 23 25 27 28 28 26 28 22 26 27 23 20 24 23 18 16 26 24 29 17 28 23 27 20 37 28 30 22 20 33 27 25 21 20 25 24 23 21 22 31 22 20 29 24 33 28 26 24 21 25 24 31 24 25 29 24 27 22 22 29 20 27 31 23 28 26 22 29 28 26 29 23 19 28 22 16 22 24 22 22 24 24 27 22 30 19 25 32 20 30 26 22 24 26 29 28 16 20 21 25 24 24 23 24 20 22 25 18 22 32 19 21 20 26 23 21 20 27 27 29 20 25 24 19 28 12 22 14 24 21 24 24 21 25 22 28 31 22 18 25 27 21 20 30 25 23 24 21 23 18 28 26 22 26 23 27 29 23 30 31 18 25 23 30 25 19 26 21 17 28 23 20 21 21 27 23 30 24 25 22 21 20 23 29 34 27 26 22 28 27 24 22 32 15 29 23 26 27 23 23 31 27 30 28 23 25 23 24 19 22 15 26 35 21 27 36 24 25 23 19 19 29 21 21 22 26 28 15 25 27 31 17 23 27 22 26 19 29 31 16 20 19 18 26 24 20 23 20 30 28 29 21 17 19 30 25 18 23 20 28 33 25 30 22 27 31 24 24 25 21 25 33 24 24 17 31 21 24 17 23 26 33 26 21 29 27 22 30 22 28 28 18 32 22 20 25 27 26 22 30 28 18 23 30 32 15 25 23 21 25 31 21 24 27 25 24 18 27 17 31 27 28 27 23 29 25 33 25 23 19 21 30 18 29 31 26 24 18 20 31 21 30 21 21 23 27 31 19 27 23 26 25 22 26 25 22 20 28 32 27 31 19 23 23 17 26 28 27 29 22 21 25 32 21 30 21 26 32 18 40 23 23 23 23 26 29 19 24 38 23 21 21 28 33 17 27 27 27 23 20 23 28 26 24 22 16 17 22 23 20 25 28 24 25 28 31 22 15 25 19 31 16 14 31 26 26 25 20 23 26 29 31 19 28 26 27 30 20 24 25 26 21 26 28 20 16 25 23 23 20 29 32 20 32 27 22 24 23 21 30 21 24 25 22 25 27 28 23 27 35 24 19 26 29 21 11 19 19 26 27 26 22 18 28 25 13 21 23 20 22 30 21 29 17 23 31 26 23 26 29 21 23 14 26 25 27 27 11 26 26 17 27 26 25 21 21 25 24 27 23 30 16 31 31 32 24 21 18 33 24 24 32 21 31 26 16 19 22 34 21 25 26 22 24 28 24 27 31 27 27 27 25 24 20 19 27 33 25 20 24 23 23 20 23 26 34 29 23 29 19 17 28 25 23 21 30 25 13 29 22 21 26 26 26 24 34 25 20 27 24 32 21 21 25 28 29 25 27 26 31 22 24 22 24 26 28 22 26 25 25 28 25 28 28 20 27 29 20 21 18 21 33 20 32 19 30 16 23 26 23 24 27 32 29 23 30 19 27 18 30 20 18 30 24 24 19 30 26 37 24 26 21 23 20 18 29 26 29 21 25 18 21 32 45 26 28 33 25 28 24 20 21 25 27 20 22 17 19 18 18 26 29 19 23 36 14 32 22 22 26 27 21 28 24 17 19 21 26 25 20 22 31 25 25 21 20 24 20 20 24 23 30 28 23 28 25 24 24 20 25 31 17 26 27 24 19 25 25 23 24 19 27 31 20 31 27 30 33 16 22 21 28 21 26 32 31 24 26 27 19 21 30 30 22 15 23 29 25 25 24 25 19 25 18 13 31 18 25 30 22 28 26 17 24 27 28 19 28 21 33 27 37 33 25 24 21 31 32 23 17 25 25 23 33 28 23 22 28 30 31 27 22 16 19 25 24 20 24 31 19 30 27 26 23 16 20 26 24 30 21 24 26 26 21 22 26 25 22 27 23 25 22 18 22 30 20 24 20 21 28 23 27 22 30 22 22 27 20 26 22 27 26 25 24 31 29 23 16 22 20 27 26 23 27 23 16 24 17 25 21 24 33 23 24 18 20 26 28 28 29 22 31 22 23 21 25 32 26 21 28 26 21 19 28 25 16 16 26 32 24 22 24 25 20 29 23 18 28 24 20 23 24 15 26 24 27 30 29 18 15 18 23 26 28 24 31 27 14 24 22 22 19 28 26 33 25 25 27 32 28 26 22 28 17 25 29 24 33 17 30 20 26 22 19 30 25 21 26 21 20 23 28 31 12 30 25 20 26 18 24 24 26 15 22 22 24 28 26 22 20 19 25 22 31 25 25 25 26 22 23 30 16 23 22 21 25 27 25 33 25 27 23 18 29 37 28 24 24 33 19 21 19 27 22 24 28 25 19 21 28 23 19 24 24 26 26 30 29 34 30 18 30 25 24 22 21 16 26 21 25 20 26 26 27 25 23 30 22 26 24 30 25 32 25 34 25 27 25 29 17 23 22 27 25 32 24 25 19 26 22 24 25 21 22 32 22 21 27 19 31 27 14 30 25 32 26 18 29 21 20 27 43 19 35 18 28 28 32 25 25 20 24 27 25 18 23 20 27 31 18 25 22 26 25 20 36 23 27 25 34 21 32 17 23 29 25 20 43 24 31 24 17 27 20 22 24 20 25 24 26 27 35 26 22 26 29 28 26 27 34 28 20 25 35 28 22 22 18 30 26 27 19 26 28 31 36 22 22 29 22 21 24 20 19 27 31 19 16 20 21 23 19 28 30 23 27 26 24 15 29 33 28 24 26 23 23 37 27 27 19 12 30 26 16 27 25 21 29 35 31 27 28 23 21 27 28 23 22 22 26 27 26 25 28 29 22 27 25 19 22 30 24 23 21 16 23 23 27 27 21 19 20 25 25 24 20 27 15 20 23 30 21 18 24 33 21 33 21 23 26 18 27 24 30 17 27 28 30 34 28 15 24 24 32 12 30 27 23 30 31 21 23 22 20 19 22 35 26 27 22 26 21 27 31 32 18 24 35 22 22 28 30 22 25 26 31 22 20 20 21 25 22 26 31 21 25 21 19 25 18 24 24 15 20 24 24 24 22 14 25 29 27 22 24 28 23 20 20 27 27 36 16 30 26 27 35 27 24 24 30 24 16 23 21 19 33 24 19 27 30 31 21 26 20 20 17 23 25 19 31 24 15 22 28 25 30 35 25 25 16 29 25 20 22 26 29 33 22 22 24 24 26 25 23 25 30 28 38 25 19 21 24 25 23 27 22 21 30 17 28 20 26 29 32 26 27 26 24 29 26 23 24 23 23 27 30 30 31 23 28 23 27 18 22 24 31 20 23 29 26 23 21 23 21 24 28 26 20 25 28 25 28 28 18 22 19 26 27 30 29 25 25 25 31 12 29 31 22 22 23 26 24 21 32 24 26 27 22 27 21 28 22 25 20 25 26 31 24 22 20 28 26 24 21 21 21 20 24 20 22 17 31 25 19 25 33 23 27 35 33 24 20 29 13 19 25 21 26 16 24 23 28 30 20 13 31 24 28 26 27 27 26 33 27 30 24 30 18 25 22 28 22 27 28 19 22 20 23 19 33 29 20 17 32 19 16 12 25 18 27 24 33 28 31 25 31 22 25 31 28 24 24 23 28 26 21 28 22 22 23 25 21 28 25 29 20 24 29 24 29 30 24 20 22 19 15 28 23 16 28 26 30 20 22 19 22 31 25</t>
+  </si>
+  <si>
+    <t>GAM(79.63420662946237, -15.651616420715861, 0.6527511137306667)</t>
+  </si>
+  <si>
+    <t>38 42 39 33 44 42 32 36 48 32 33 39 35 31 28 53 32 35 43 29 34 41 32 34 44 38 37 30 23 37 44 51 35 40 38 31 35 41 39 45 38 38 36 35 37 43 35 48 25 43 35 37 31 40 34 35 30 33 36 39 31 39 42 37 41 32 40 28 30 36 40 32 27 44 34 40 30 38 32 39 37 39 31 27 56 42 31 36 39 36 31 33 31 44 47 30 44 39 40 34 45 44 38 33 37 43 40 39 29 44 36 48 34 30 37 40 30 32 29 35 39 31 30 38 31 35 40 47 49 30 28 38 53 45 41 35 40 38 39 44 27 35 45 37 42 38 28 40 31 36 48 40 32 34 37 33 40 41 39 32 32 33 41 40 37 34 34 37 43 42 40 41 34 29 35 28 29 35 43 49 32 40 40 39 45 30 36 40 44 34 43 47 36 45 37 32 40 32 36 38 36 33 41 30 40 28 27 41 50 33 35 37 48 31 31 37 41 32 39 32 35 31 34 49 44 40 47 39 30 29 36 30 35 28 53 23 39 34 37 34 46 37 33 37 45 37 42 39 43 40 38 29 43 36 43 41 33 41 44 29 47 38 34 34 41 29 34 33 43 39 34 30 32 33 39 36 32 41 37 35 38 38 37 34 39 40 33 29 39 30 39 29 35 39 41 33 29 33 39 46 36 38 39 34 35 37 21 18 39 34 31 36 37 32 40 39 35 32 41 44 29 35 40 38 36 30 34 27 41 44 36 38 29 38 38 38 40 34 31 27 36 42 25 50 47 38 37 34 34 51 30 30 31 44 46 44 38 37 49 26 28 33 41 28 23 36 41 39 41 38 32 42 39 34 38 32 36 34 30 36 41 38 37 34 40 44 36 36 36 30 37 32 26 29 38 35 29 27 31 34 35 33 44 32 28 34 36 41 40 41 34 33 32 42 35 48 39 35 31 44 31 37 29 35 30 36 22 34 36 32 39 34 37 47 32 43 37 41 27 37 37 31 36 33 40 40 25 25 31 35 35 31 48 41 31 28 34 32 31 31 38 44 24 36 31 35 31 32 37 42 40 26 38 34 40 38 36 41 38 33 43 44 30 37 38 43 40 38 34 38 25 35 35 38 36 32 27 24 37 44 36 31 43 30 32 36 35 34 41 34 47 36 37 30 36 34 34 34 30 24 47 34 40 35 49 34 42 38 37 31 44 41 31 35 27 46 34 37 48 31 45 24 34 44 33 41 52 38 41 33 39 27 39 27 32 30 41 32 29 39 38 29 37 36 26 30 35 42 29 34 52 36 45 39 38 37 33 41 39 30 46 26 38 33 32 46 49 32 28 29 38 35 51 50 31 36 36 42 39 31 42 33 37 37 33 29 36 40 34 36 38 39 38 35 25 39 30 43 41 28 30 29 31 43 39 34 30 37 24 38 37 33 42 42 36 33 44 41 40 39 36 39 42 37 45 36 38 29 40 36 36 32 39 29 26 44 29 35 45 31 43 31 39 39 35 36 38 36 40 41 27 44 40 28 32 35 32 39 44 39 29 33 39 43 32 32 35 36 30 36 31 40 32 38 39 26 40 40 36 26 43 34 33 31 30 42 30 26 32 35 36 33 40 29 41 30 32 32 43 35 35 39 24 30 39 41 49 32 35 35 37 44 32 37 33 35 28 31 37 36 39 35 41 40 40 32 33 34 34 46 47 35 29 42 29 35 39 35 31 33 48 42 41 29 41 38 38 37 27 34 27 35 35 44 47 41 52 38 29 41 37 40 43 33 48 31 37 46 41 28 40 20 31 39 23 32 40 25 38 31 33 31 39 37 37 34 36 32 32 36 40 27 48 24 31 34 36 41 37 40 42 46 28 49 45 50 42 33 27 37 38 42 29 27 29 35 41 48 36 30 34 42 39 42 38 35 46 36 34 30 31 29 42 29 29 32 30 39 36 37 27 36 32 38 39 30 29 34 38 35 35 37 35 44 35 25 36 33 37 42 33 48 36 34 38 31 30 39 30 44 39 33 38 38 26 35 45 40 46 38 37 33 35 44 31 36 40 37 52 38 47 29 36 35 46 38 31 36 39 41 44 36 41 30 36 37 50 37 37 40 31 36 37 39 40 33 41 35 40 41 31 42 25 45 24 32 33 34 36 33 24 36 46 42 41 36 36 43 38 44 29 31 52 35 39 31 28 36 35 41 31 32 37 27 36 32 25 28 31 48 35 32 28 43 28 30 39 35 33 30 32 43 29 25 42 25 29 35 38 40 40 37 37 43 49 27 49 33 36 42 42 29 46 27 39 48 39 45 29 31 37 43 51 31 43 33 41 34 29 36 46 41 34 45 34 37 28 37 31 30 31 33 35 45 43 39 36 37 41 36 27 42 36 33 41 36 35 29 34 46 41 27 34 34 31 36 34 34 32 38 32 42 33 34 37 30 32 32 27 51 40 31 43 27 35 42 30 35 37 35 44 34 28 35 43 31 38 42 37 38 25 36 41 48 35 28 37 43 28 34 39 37 36 29 32 41 34 35 30 36 40 25 43 40 27 43 38 33 46 43 34 34 35 33 36 42 40 36 47 40 43 33 44 35 30 37 40 32 42 37 42 34 41 27 40 37 40 44 38 40 39 27 42 42 36 24 40 37 41 30 45 30 21 35 28 34 40 33 41 30 26 43 43 34 28 40 31 31 47 39 37 37 35 32 38 47 37 38 38 31 35 31 34 40 41 39 44 40 38 37 29 34 51 30 33 28 36 27 33 42 38 40 31 37 32 40 33 32 47 39 28 43 23 34 46 36 36 52 30 32 28 39 37 37 37 29 30 45 35 28 34 36 36 35 33 42 35 40 34 51 37 37 39 33 36 37 38 33 29 36 40 36 36 44 43 35 29 25 26 49 47 30 38 35 36 40 33 39 31 36 31 33 28 36 40 32 35 42 30 40 39 35 32 27 40 29 37 41 42 43 29 43 31 37 32 35 35 40 35 36 35 45 30 37 34 35 36 32 34 41 49 30 28 37 46 54 31 40 32 39 33 37 32 33 36 35 45 29 38 36 36 35 29 41 35 35 30 33 38 36 39 45 43 42 24 35 35 35 31 24 31 40 40 35 34 37 38 33 44 39 38 38 42 43 35 30 41 32 44 47 30 45 28 33 41 32 40 38 37 33 43 38 43 24 35 38 33 41 40 34 27 41 26 39 29 36 38 40 42 44 42 31 25 42 41 47 36 35 33 32 41 46 30 41 33 32 47 35 40 30 39 28 43 35 35 41 34 42 33 35 34 23 39 39 34 35 38 39 32 33 36 40 46 36 33 29 32 46 33 41 36 43 32 37 30 28 38 36 33 28 37 34 22 35 23 34 39 53 37 30 38 41 34 27 42 32 29 44 39 26 32 38 29 35 29 36 38 27 30 34 49 37 39 31 34 41 30 34 35 39 43 38 29 37 37 35 45 39 40 42 53 32 37 37 40 44 37 37 36 37 44 28 25 46 43 37 35 26 37 37 42 39 31 31 34 37 45 36 43 38 35 34 43 40 38 44 35 39 34 34 39 43 28 34 38 45 41 42 28 35 41 37 34 29 39 41 40 37 42 36 38 32 35 38 41 45 34 42 32 32 25 27 45 35 34 35 58 36 36 33 35 30 33 29 28 37 31 37 29 33 38 57 36 39 29 37 41 37 37 37 38 32 44 41 29 34 38 35 33 33 30 35 24 28 39 48 41 31 46 40 30 28 35 36 39 28 47 46 32 47 32 37 24 31 36 30 31 37 39 35 43 32 49 28 36 41 44 31 28 29 40 36 47 33 36 23 36 45 31 37 38 29 45 41 31 33 30 32 33 26 38 41 47 33 40 40 26 38 40 36 39 37 31 36 43 38 34 38 34 36 36 32 36 37 33 34 36 34 43 42 25 39 40 46 45 42 34 34 43 29 30 41 36 33 42 26 33 44 35 34 49 37 36 31 34 35 48 28 37 36 32 25 37 30 30 37 34 41 34 34 43 30 36 32 48 34 37 42 39 33 32 39 36 27 39 36 32 29 38 44 37 33 37 35 29 39 36 40 39 37 35 33 33 27 49 34 41 36 32 54 42 38 29 30 34 33 27 35 38 34 33 33 36 30 36 38 34 35 34 30 38 39 28 34 42 35 37 36 27 30 37 26 41 32 31 40 27 43 40 32 23 31 30 25 36 38 35 40 41 46 38 33 39 23 32 40 30 38 32 34 39 35 31 29 36 32 36 32 34 38 33 38 42 40 37 37 34 42 44 25 40 35 42 37 37 36 34 32 44 34 34 31 34 28 35 29 34 33 36 36 41 38 39 50 34 41 45 47 36 29 35 43 36 29 22 44 28 43 25 29 43 38 35 32 38 43 35 39 44 48 39 41 33 45 32 35 40 39 31 32 38 35 27 37 31 31 39 39 31 37 45 43 38 35 40 40 43 40 43 36 32 32 29 33 32 37 35 39 35 35 25 35 41 41 45 40 46 39 51 37 35 31 33 36 32 36 27 38 35 45 36 33 35 37 43 39 32 34 49 31 48 36 24 44 31 43 32 43 44 32 41 35 34 35 31 26 46 27 42 40 32 42 32 37 37 34 35 45 39 43 31 39 34 40 35 29 33 55 47 37 30 36 33 39 39 31 37 41 34 33 32 30 29 32 40 39 48 31 33 33 36 39 44 45 44 44 33 44 39 26 34 34 34 31 29 34 45 41 41 32 40 41 49 39 27 45 37 36 39 30 39 36 40 34 26 32 35 36 36 34 31 33 42 31 35 30 34 34 44 36 48 36 46 38 31 40 33 31 29 21 42 31 37 49 48 38 41 39 35 32 42 29 30 31 33 23 29 39 34 41 41 22 29 32 36 35 38 40 35 30 35 36 40 43 38 38 33 46 46 37 45 43 36 50 35 30 33 37 39 37 39 29 58 35 31 40 35 45 47 34 41 30 52 42 38 47 43 38 34 39 38 44 31 43 50 34 30 43 30 38 31 43 39 35 40 40 37 43 34 42 49 37 40 39 27 49 35 35 37 39 39 36 39 37 44 31 47 33 39 32 42 39 41 35 33 38 33 33 43 40 34 31 37 41 35 32 31 34 50 32 33 37 39 33 40 40 39 25 40 37 30 39 44 28 41 44 37 41 33 38 41 47 32 31 39 29 41 34 33 29 34 53 27 42 59 50 24 38 33 19 36 37 29 43 27 40 30 38 39 37 35 25 40 33 29 27 29 35 37 36 39 32 38 46 35 40 35 36 38 38 44 34 37 39 34 34 49 40 37 26 40 31 44 30 37 27 43 39 37 28 29 28 44 27 44 35 36 35 33 29 46 39 32 39 32 38 38 34 34 39 32 37 32 46 45 39 41 39 31 38 29 25 39 42 37 32 31 32 36 35 32 34 40 38 36 35 46 29 25 39 39 39 41 42 38 42 56 35 43 38 38 34 34 41 34 38 33 43 31 38 33 34 40 35 37 34 37 51 41 33 33 37 26 39 32 32 34 36 37 29 36 40 30 35 44 40 33 40 37 40 23 29 33 40 34 46 39 40 35 32 34 41 39 38 37 30 29 33 39 36 34 26 42 31 36 44 31 38 33 33 30 38 41 36 35 40 38 32 34 33 36 40 38 42 29 42 31 33 33 40 37 37 36 38 32 32 35 34 30 37 28 38 29 36 31 34 27 43 31 47 37 41 31 45 30 27 32 33 37 34 28 38 42 37 29 31 44 28 35 44 22 40 39 42 37 36 33 40 38 40 42 45 37 43 43 37 43 36 37 31 30 33 35 31 39 37 48 36 38 32 43 52 34 36 31 33 37 39 28 41 35 36 37 45 37 33 32 38 40 47 47 37 30 41 37 36 35 40 31 41 38 31 35 24 32 47 39 34 37 33 35 40 32 21 40 34 35 39 40 36 28 39 37 33 40 33 35 34 36 36 41 32 30 35 36 40 29 36 34 33 31 44 47 35 40 35 38 34 37 35 35 36 33 38 34 41 36 34 32 32 40 31 34 38 49 33 44 33 31 39 34 32 40 49 40 42 35 28 39 28 42 34 28 42 38 37 31 33 31 33 32 33 40 38 32 29 31 34 30 24 44 29 42 38 46 40 40 41 29 41 38 32 30 34 44 36 36 36 36 35 38 26 40 29 37 36 39 39 36 31 34 40 37 30 32 35 21 54 36 27 37 45 40 41 34 41 34 33 36 39 38 42 40 45 37 45 36 26 31 48 38 44 31 38 32 35 40 33 43 44 39 40 42 27 41 44 34 38 32 37 43 39 36 48 46 33 49 34 30 31 52 35 30 35 35 42 43 45 44 35 32 38 33 31 42 25 35 38 33 37 44 45 26 43 32 29 43 33 28 32 43 29 36 29 43 24 39 35 35 29 31 46 36 30 31 32 48 39 37 41 41 38 22 31 25 33 43 49 39 41 41 33 42 30 31 41 40 32 31 41 38 36 32 33 29 38 40 41 39 36 23 37 39 29 42 35 47 37 35 48 38 39 35 32 33 41 38 36 35 32 30 33 38 43 36 42 34 43 38 42 38 31 43 31 46 38 33 35 33 43 34 31 41 34 32 28 34 43 29 42 42 38 31 39 39 28 35 31 34 37 21 43 35 32 41 27 28 36 38 40 40 45 38 43 35 35 39 56 33 29 37 36 48 37 39 36 48 36 41 38 37 32 34 37 35 37 46 41 31 32 25 48 41 45 39 44 39 34 43 35 29 35 44 44 32 37 36 33 42 37 36 34 33 34 41 37 25 34 33 35 30 21 35 34 39 35 31 34 34 32 29 44 24 30 37 32 31 33 30 32 39 35 30 30 33 27 51 37 38 45 31 25 23 37 42 29 32 36 37 36 40 34 38 40 31 30 41 40 29 51 30 26 35 40 39 45 37 37 46 40 34 33 36 41 39 39 38 38 44 39 38 35 37 37 41 38 28 33 37 45 37 35 42 30 39 30 30 36 36 40 46 31 31 40 41 38 36 40 55 28 33 52 31 32 42 34 33 39 38 49 44 46 26 43 32 27 55 41 33 30 30 47 36 34 39 46 36 40 32 31 37 42 39 43 28 33 34 43 30 44 37 39 35 39 31 26 40 49 34 35 25 35 36 36 39 39 35 41 23 39 37 31 41 31 35 39 33 42 35 29 38 36 34 46 33 34 29 34 25 31 44 35 42 28 36 28 35 34 35 47 44 38 25 32 40 33 35 35 55 35 43 33 32 36 35 41 34 41 40 36 37 34 42 39 31 38 35 36 39 38 45 35 38 34 37 43 34 34 41 35 33 43 36 39 41 24 31 34 42 29 36 40 41 41 36 34 35 47 39 41 37 50 32 35 33 34 41 36 41 35 34 37 32 41 40 27 45 34 31 31 33 34 40 24 31 30 22 30 33 37 29 27 35 33 23 37 31 39 46 42 33 49 36 40 27 25 38 33 32 41 35 40 34 28 35 39 34 36 41 51 42 31 32 37 32 30 28 43 39 34 31 41 36 43 38 42 30 41 38 40 34 31 35 26 30 36 34 48 31 37 33 45 35 34 32 39 41 38 33 32 44 38 28 42 41 49 38 27 38 30 35 45 32 42 28 38 28 28 38 41 28 34 31 33 30 38 41 41 33 33 35 42 34 36 45 35 33 32 33 39 37 27 35 43 38 39 49 34 44 27 26 47 26 36 39 36 45 33 41 47 33 43 31 41 25 35 36 38 44 36 41 31 33 51 40 32 35 26 34 36 32 31 32 39 35 23 35 32 32 39 37 30 38 23 27 28 41 41 28 38 41 29 38 45 44 31 30 42 28 35 49 38 33 36 39 41 49 27 35 44 38 46 42 38 34 24 41 43 44 46 40 46 33 32 34 41 25 41 43 35 37 37 33 33 41 46 44 33 31 40 42 32 37 38 31 23 33 38 35 36 32 30 46 39 44 44 47 33 26 40 36 34 41 31 52 39 42 34 36 40 38 41 36 35 42 27 32 40 38 47 29 35 34 40 47 34 32 40 43 42 30 43 27 35 36 32 39 39 41 41 25 31 33 28 38 33 31 32 44 38 34 38 30 32 34 47 36 30 31 29 38 43 39 35 40 41 37 39 41 39 29 35 44 36 37 33 29 38 33 30 37 33 36 39 32 40 36 41 33 44 28 36 48 35 41 46 30 38 43 45 29 36 35 50 46 38 40 39 27 41 32 41 35 30 32 39 27 32 36 35 38 36 44 36 42 50 49 38 40 34 39 40 37 32 32 53 25 30 39 28 30 28 41 36 37 38 41 39 28 39 36 40 40 34 34 37 38 38 37 43 24 37 33 35 42 36 32 42 39 29 26 29 38 38 41 42 41 30 34 38 38 34 37 36 38 46 42 29 43 29 37 22 28 36 60 45 38 38 40 50 31 38 44 54 37 30 39 45 30 39 35 31 25 36 27 33 28 36 32 41 39 30 46 26 40 32 42 36 35 42 39 37 35 33 31 33 35 38 26 23 26 35 43 38 54 40 37 31 24 42 51 37 40 34 26 35 33 36 28 26 38 29 33 41 34 39 36 43 28 40 34 38 39 28 43 48 25 36 37 41 47 39 36 42 31 29 37 31 36 31 38 27 45 41 40 44 35 30 41 36 29 52 31 58 33 32 40 23 44 34 35 31 39 45 30 31 33 40 34 40 40 34 51 25 34 39 40 38 29 42 35 38 33 32 30 36 37 37 28 30 39 32 32 38 37 33 34 37 55 25 29 38 39 42 37 48 37 42 41 42 39 48 38 34 37 36 40 36 29 39 37 43 43 42 38 26 34 39 42 55 25 43 27 34 37 34 30 46 26 37 32 35 36 27 49 34 27 38 46 34 40 37 40 28 35 38 37 40 35 26 40 42 36 44 29 41 34 40 39 40 37 27 37 29 43 34 38 35 39 51 52 37 29 43 34 41 30 33 37 40 41 33 31 34 29 29 30 34 33 27 42 49 32 37 43 39 37 35 38 35 38 37 29 40 45 40 28 34 36 45 33 40 32 41 33 34 41 38 37 25 46 42 34 32 35 36 37 47 40 38 32 30 45 31 38 46 27 41 44 29 46 37 38 45 44 35 45 36 36 37 36 47 31 36 46 48 34 33 40 40 40 35 38 32 38 42 36 40 33 41 51 36 37 39 32 29 31 42 38 33 29 30 38 32 32 40 30 29 49 41 29 40 41 24 39 44 31 34 40 32 41 35 34 31 34 35 36 35 35 37 32 39 47 28 45 38 37 27 34 36 39 40 41 33 45 37 30 38 39 33 53 32 39 38 34 42 40 40 41 37 30 26 33 38 38 33 33 39 39 28 43 36 31 41 44 32 42 49 36 35 33 38 36 44 39 38 30 35 38 40 27 32 31 35 36 46 44 45 37 28 48 24 29 26 33 36 42 38 38 40 35 36 29 43 38 43 38 32 36 37 28 32 39 36 37 47 39 42 34 37 35 35 46 27 37 39 42 35 45 31 32 40 25 34 41 44 32 35 34 39 36 39 33 30 27 40 40 31 44 43 39 34 39 38 43 39 34 33 41 42 34 42 43 33 30 40 43 37 34 47 48 39 38 35 33 45 33 34 31 37 40 33 32 39 41 37 25 46 37 24 30 30 41 40 47 37 40 30 35 23 41 46 27 40 36 36 33 43 37 28 39 50 43 29 44 36 47 36 45 41 39 33 29 41 35 52 35 44 34 36 48 30 44 38 36 32 37 37 27 35 40 31 36 36 33 40 42 28 38 36 30 39 47 39 36 26 49 44 37 35 49 34 34 37 31 34 33 25 43 41 34 38 57 38 30 32 41 37 39 31 49 32 48 35 34 41 36 30 43 30 41 39 36 33 30 41 31 50 40 34 40 40 32 42 38 31 36 35 37 27 36 32 31 39 33 30 38 30 38 48 25 25 51 36 41 39 39 34 37 38 29 38 33 40 32 39 39 39 40 48 40 30 36 35 28 33 43 40 39 26 38 43 27 29 40 31 24 32 30 38 39 26 37 43 20 32 40 49 42 45 34 21 30 40 35 29 30 37 32 34 40 44 38 46 43 42 41 40 29 34 37 34 38 41 33 38 33 36 29 35 37 39 32 38 47 33 42 35 29 38 47 32 43 32 39 38 35 33 27 27 36 33 39 38 40 43 30 37 37 26 35 36 47 45 30 47 36 39 34 31 34 32 34 32 41 31 32 33 34 32 36 37 26 43 33 46 34 44 50 30 43 31 41 41 38 27 30 32 27 44 31 30 31 38 31 39 39 43 36 32 34 36 33 45 29 38 37 41 37 28 39 40 41 44 44 44 37 37 46 41 25 53 32 28 35 38 34 41 38 39 37 44 33 32 27 35 36 34 37 37 34 41 37 48 42 42 36 32 36 44 41 37 37 33 31 29 31 44 50 42 35 40 37 37 30 40 40 43 34 33 45 36 29 26 36 35 42 30 28 35 39 31 33 40 37 36 33 34 46 35 32 45 42 45 28 33 41 35 44 42 33 39 33 32 40 55 34 39 36 36 54 38 34 41 29 30 38 37 38 30 41 46 39 31 41 35 32 36 31 40 37 40 34 34 28 36 26 40 27 27 41 35 37 28 38 32 26 40 27 32 37 39 35 42 30 30 37 47 37 36 41 40 43 32 41 33 32 32 41 32 36 31 34 33 35 34 31 37 35 41 29 48 35 40 25 35 37 35 40 39 48 38 30 36 32 43 35 32 40 40 49 34 28 38 40 36 37 34 31 37 38 39 21 37 41 25 35 32 37 55 40 37 36 33 38 42 34 30 29 39 34 31 45 35 39 36 37 30 35 44 35 36 34 30 32 40 41 42 39 39 32 38 34 36 35 34 39 31 37 30 28 35 52 35 37 36 36 24 26 44 30 35 41 45 29 41 27 25 38 34 47 31 39 30 41 30 36 37 37 36 33 38 35 38 44 33 44 38 31 37 31 36 41 30 43 30 36 29 29 45 31 35 32 37 34 42 33 43 31 31 31 30 27 33 26 39 42 26 37 46 38 33 25 39 34 43 33 30 25 44 35 39 46 38 35 29 29 46 41 37 32 33 40 38 36 38 43 36 42 32 39 41 39 39 43 46 31 41 39 26 42 33 33 37 48 28 37 36 28 37 43 36 34 32 28 40 24 36 35 43 34 43 35 44 36 37 24 34 45 31 30 26 38 52 38 37 44 35 30 36 34 39 28 28 32 43 32 48 40 35 39 46 43 32 35 36 44 32 38 28 41 40 41 40 24 40 39 31 33 36 32 35 31 41 48 39 40 36 46 32 28 31 26 38 37 36 35 37 35 36 32 40 26 59 38 28 31 35 44 56 33 37 34 34 37 28 29 36 28 35 35 38 32 48 44 40 43 42 41 38 27 46 34 39 33 37 33 28 42 39 32 35 27 31 38 42 33 33 33 40 35 24 38 43 44 29 39 31 41 41 39 28 44 40 33 46 33 37 31 40 32 26 26 36 33 40 41 43 35 33 42 34 36 29 40 34 32 34 35 35 46 30 45 47 39 30 33 44 43 37 45 29 34 44 46 35 38 38 36 42 41 35 34 37 44 52 31 31 33 36 34 35 40 36 39 35 24 32 36 41 38 30 32 36 41 26 34 43 26 38 32 39 43 26 36 38 38 42 39 35 31 34 33 27 51 34 42 35 44 42 47 34 40 34 44 37 37 41 42 31 24 32 43 34 38 45 35 37 34 38 45 27 33 36 34 33 27 29 33 33 31 30 36 33 33 34 30 42 41 33 36 44 29 29 42 38 38 45 33 50 36 32 40 28 49 46 46 31 42 37 41 33 32 41 39 39 22 34 45 30 26 41 28 42 42 41 38 33 39 41 33 34 31 33 26 37 44 41 41 44 38 41 34 28 42 34 41 30 40 37 43 35 32 39 44 39 33 48 34 32 31 42 30 44 41 36 33 32 36 44 36 35 28 33 36 34 32 33 38 38 30 36 50 33 45 43 29 34 28 35 34 41 31 32 33 38 34 32 41 45 38 40 37 41 40 38 35 34 44 31 28 30 32 44 36 38 33 39 36 26 34 39 43 36 37 35 47 36 42 40 37 38 41 45 43 38 35 39 43 24 43 38 40 35 46 35 42 33 34 35 36 41 33 34 30 36 36 37 31 43 37 33 45 33 34 42 32 33 33 40 30 36 40 26 37 44 33 40 22 33 33 34 39 40 34 40 35 27 41 36 42 38 37 29 36 30 42 42 49 39 40 35 37 37 35 32 35 39 39 32 32 33 31 38 26 43 34 39 45 33 32 38 29 33 35 37 31 29 32 36 29 36 32 37 34 34 40 33 39 28 39 38 34 44 35 33 36 34 34 42 43 36 36 36 45 38 41 39 45 33 40 46 32 39 37 33 41 31 30 47 34 41 36 30 43 38 25 35 27 33 32 46 44 37 32 33 38 25 34 28 33 36 42 30 25 43 38 35 35 26 38 43 41 28 27 34 44 27 32 35 35 47 36 39 41 43 41 35 33 41 42 38 33 35 37 32 39 27 36 37 35 40 32 46 35 34 43 33 31 43 29 32 44 37 32 29 39 33 34 33 33 44 31 38 44 35 37 38 33 41 33 38 37 36 35 32 31 32 36 30 39 40 41 30 36 27 33 28 28 45 46 39 41 34 30 39 32 33 43 32 47 32 43 43 34 40 45 38 40 34 33 31 39 35 35 36 28 34 29 39 39 43 29 39 30 30 40 35 29 33 39 34 39 33 34 35 30 28 30 42 46 33 42 46 29 33 31 42 47 32 39 36 37 36 35 41 29 27 39 32 39 30 31 31 41 27 31 38 36 33 43 40 32 41 29 35 33 41 36 41 36 49 28 40 46 40 28 29 35 33 52 41 41 38 23 39 44 35 42 33 38 47 35 40 42 39 42 34 32 28 26 47 34 29 31 31 25 24 39 26 36 45 33 36 43 33 38 40 40 43 40 36 48 29 31 41 37 38 41 33 44 36 43 36 39 30 38 32 28 36 39 34 40 42 23 44 35 46 36 29 44 34 40 30 42 35 43 31 27 37 30 33 43 36 32 36 35 32 34 34 33 45 35 39 21 26 25 43 33 41 38 57 39 40 36 43 38 45 26 39 38 40 45 37 28 39 37 35 31 41 35 33 31 27 35 29 37 35 43 35 36 42 41 31 41 35 37 44 40 37 44 26 41 30 29 41 33 40 42 33 29 44 34 36 32 42 42 37 32 36 46 30 40 28 33 25 47 36 25 43 36 36 50 39 47 43 37 39 34 44 39 36 34 36 39 42 28 40 42 39 37 38 39 39 41 32 49 36 31 34 42 32 43 31 46 33 32 42 34 41 25 41 27 41 36 43 27 36 34 43 38 35 36 29 40 28 37 51 40 26 43 28 44 37 38 33 31 29 42 31 34 36 33 50 36 35 34 33 41 40 42 35 32 34 44 38 41 35 26 32 46 42 30 44 47 38 32 32 50 42 36 34 42 42 39 39 36 45 37 45 35 36 33 32 44 36 34 39 37 32 34 45 37 43 48 32 32 40 33 34 36 48 39 35 35 38 34 29 32 48 40 38 45 43 32 42 38 29 28 37 39 29 43 36 38 36 43 35 49 50 44 47 34 36 30 28 39 34 37 29 28 41 40 34 43 54 40 35 28 41 41 46 37 27 28 42 32 40 45 42 41 42 51 40 42 45 34 40 36 43 31 38 31 33 38 37 36 29 27 36 46 30 27 41 47 27 28 42 36 34 35 40 45 39 29 29 37 32 36 34 31 38 45 49 29 36 38 42 30 41 32 26 45 46 41 41 46 42 36 26 43 36 44 48 29 39 32 43 37 38 42 33 43 37 28 40 40 34 32 42 47 44 30 38 41 34 35 36 54 35 39 33 35 32 32 32 49 40 35 32 41 26 40 37 37 33 26 30 21 40 40 46 32 34 36 38 37 30 39 38 36 35 24 32 29 25 23 37 36 36 44 33 35 37 37 40 39 38 41 29 41 43 45 35 46 32 46 31 44 22 31 36 46 32 40 35 32 38 32 42 40 33 41 41 41 36 44 34 29 32 25 39 41 31 30 34 40 31 22 31 32 46 41 39 22 50 31 35 38 38 44 39 33 33 35 36 41 35 40 48 38 40 39 43 37 37 32 33 37 34 44 40 40 33 41 41 37 39 33 28 32 29 34 42 43 32 45 44 39 31 45 37 34 40 36 36 31 40 35 36 28 33 31 29 31 34 26 45 42 46 35 29 32 41 38 53 36 30 32 32 41 36 35 51 41 45 38 40 32 31 31 44 39 34 43 44 27 42 39 28 44 39 34 36 44 40 35 34 46 41 34 32 47 40 41 43 27 30 40 33 35 38 37 46 30 39 28 41 35 40 40 43 41 34 38 59 45 35 35 42 34 45 45 32 41 29 35 30 34 40 38 37 36 30 38 43 39 39 38 32 35 38 32 44 37 45 28 37 37 32 28 42 35 42 36 39 47 23 44 31 39 38 33 46 28 48 36 30 36 38 34 33 31 45 33 41 31 29 24 34 48 42 33 42 24 45 40 38 29 30 28 36 39 35 37 40 28 36 48 30 37 37 33 31 42 39 35 38 32 31 35 39 30 43 26 30 38 29 32 30 38 41 39 31 36 43 29 37 45 34 26 32 32 25 46 29 43 31 31 34 34 30 34 32 39 29 37 28 40 32 29 40 32 27 33 37 33 23 28 34 37 35 39 39 39 41 38 43 41 36 38 38 38 50 40 32 49 46 39 35 31 35 46 41 26 43 42 44 31 42 36 34 26 30 45 50 38 34 33 44 45 44 31 34 40 41 41 41 41 35 40 48 26 38 47 35 43 36 26 33 33 31 29 28 40 41 31 47 32 39 45 28 36 33 36 31 36 49 35 27 44 35 40 42 38 27 39 39 38 40 42 39 29 40 46 42 43 29 40 40 33 32 35 32 43 39 36 36 33 37 34 38 37 32 40 31 32 46 34 25 30 35 35 33 31 40 37 42 42 42 48 33 33 34 46 27 33 39 30 32 31 38 40 43 27 34 40 47 34 39 38 34 32 41 31 34 31 37 43 40 39 36 36 54 28 42 39 30 31 40 46 39 30 31 46 34 35 31 38 39 29 36 42 43 40 44 36 34 36 38 48 34 38 33 44 33 41 35 45 39 41 31 32 37 37 37 27 29 35 33 38 46 39 34 31 42 35 40 33 38 27 37 22 35 45 48 34 35 38 41 42 33 32 32 29 39 32 38 39 39 37 40 25 35 38 36 28 44 30 27 46 45 34 34 32 38 30 36 39 36 35 38 29 32 32 45 32 35 33 36 40 39 38 46 28 31 38 37 44 33 34 41 35 29 39 39 36 37 45 38 32 34 39 30 29 37 37 30 35 27 40 45 34 27 30 26 38 36 48 41 34 26 38 36 34 37 45 39 35 43 33 37 33 52 34 38 32 31 38 35 40 24 30 33 28 41 35 34 39 31 34 35 34 40 32 43 39 30 41 28 42 41 31 43 44 47 20 30 40 40 30 39 33 28 39 51 29 29 31 42 41 31 46 36 34 35 39 26 35 32 35 37 36 32 44 45 34 31 34 33 25 31 39 35 29 24 35 41 36 36 42 38 35 33 41 42 34 21 42 28 42 33 37 40 33 36 38 43 36 41 45 40 44 38 37 36 40 31 37 41 34 42 38 31 25 41 23 32 44 48 30 40 33 42 28 47 34 38 36 34 37 46 40 41 34 33 34 32 47 46 35 26 30 28 37 27 39 32 34 40 29 36 31 40 41 39 28 28 37 42 40 39 35 38 37 40 35 35 37 44 34 28 36 38 35 30 33 34 31 44 31 37 36 44 25 31 37 31 42 34 35 23 40 38 40 38 27 36 30 33 35 40 41 43 38 33 41 35 28 39 36 26 34 43 26 41 36 37 47 36 37 38 36 43 39 30 34 34 28 42 33 36 38 31 39 30 31 39 37 34 30 41 33 43 36 29 30 38 32 32 39 46 50 48 37 38 39 33 34 43 33 36 40 42 36 41 34 42 41 47 40 34 41 36 41 40 25 32 36 31 26 36 31 28 31 43 29 48 35 43 36 29 36 47 31 42 33 41 31 43 46 36 36 38 31 42 44 44 41 41 29 24 32 39 29 23 38 36 37 41 44 40 40 33 26 48 28 44 37 41 34 33 42 31 34 43 32 37 43 39 39 33 24 30 36 32 51 32 36 40 37 33 43 46 44 36 35 37 33 39 38 29 35 35 32 28 37 50 42 39 37 28 28 35 48 26 26 34 56 28 45 36 43 36 37 45 29 47 36 28 43 30 34 31 35 35 36 35 30 34 36 42 43 33 36 33 37 36 37 37 35 34 38 29 40 40 29 30 43 41 30 31 32 40 39 38 30 33 32 29 49 32 41 36 45 42 35 41 35 49 36 34 43 43 36 32 33 39 46 39 28 27 27 32 31 34 32 31 39 31 36 38 29 33 38 36 36 41 45 36 46 36 41 34 37 41 39 36 34 32 42 43 33 35 38 34 28 33 26 39 39 43 38 38 36 39 39 31 37 41 32 41 36 34 38 36 44 42 43 31 33 25 37 37 30 32 43 32 37 32 32 37 35 25 47 53 31 29 28 41 46 50 37 38 44 38 38 34 43 39 39 36 37 35 33 33 42 45 34 35 25 35 37 38 30 39 55 39 36 31 37 31 38 41 28 38 39 42 33 44 45 31 33 34 37 38 51 41 26 31 37 35 35 35 41 31 39 31 34 34 30 33 31 39 42 35 27 45 30 37 39 23 30 40 37 36 42 34 36 35 45 42 37 36 40 31 33 34 26 27 36 34 40 40 41 40 37 42 36 30 44 46 41 43 24 46 42 42 28 34 34 39 35 34 36 28 30 32 31 46 35 31 31 36 37 37 32 35 31 38 34 33 39 29 36 41 33 33 36 37 37 30 32 37 39 31 37 31 33 35 38 39 31 32 41 49 37 27 30 31 38 38 33 33 40 40 39 45 42 43 27 41 37 39 37 40 41 44 38 31 34 32 37 30 31 41 32 33 52 22 36 29 34 36 30 27 31 43 37 30 47 44 49 38 35 34 39 32 26 30 33 40 35 37 32 33 43 31 37 36 32 33 39 33 48 39 31 25 36 37 47 30 46 35 32 38 32 27 38 30 50 30 48 32 41 39 41 39 42 47 28 32 40 41 42 39 41 32 31 38 34 41 30 46 29 37 42 34 32 28 43 40 42 37 29 26 32 41 28 37 34 34 35 29 27 40 38 43 33 37 36 34 34 37 35 34 39 29 38 32 42 38 27 31 35 47 32 32 39 28 37 41 29 26 29 35 40 29 37 36 42 50 38 34 39 43 38 33 35 34 45 35 43 40 20 38 29 33 32 33 26 43 42 34 30 38 40 37 35 32 31 33 32 38 33 36 36 42 44 25 45 37 51 40 34 40 33 50 32 45 41 38 31 37 30 37 42 48 42 42 44 38 34 39 28 40 49 29 45 37 34 39 38 29 34 38 46 36 35 45 44 38 32 39 41 33 25 35 42 38 46 35 27 33 32 39 40 40 37 31 33 32 45 45 38 36 34 42 37 36 50 30 36 31 34 37 35 33 48 32 48 28 39 36 34 38 40 27 37 40 38 30 41 46 41 33 34 36 41 36 51 26 35 43 35 33 27 46 37 31 41 31 40 27 36 42 50 34 40 33 29 35 36 36 33 38 37 28 43 22 39 35 35 24 34 37 33 43 39 27 31 39 30 39 39 47 33 42 38 38 57 28 19 36 40 32 43 27 42 43 27 44 23 30 33 39 41 40 33 30 44 44 44 50 31 36 32 36 51 28 30 40 28 32 34 36 36 26 36 41 37 37 36 43 35 37 36 26 38 30 37 32 42 32 38 35 31 40 38 27 30 34 35 36 36 44 44 33 32 24 31 44 37 45 40 31 35 46 35 25 37 42 39 47 34 24 38 43 32 37 30 41 29 38 49 28 41 31 36 28 45 32 34 39 36 34 39 42 48 36 35 30 30 33 46 35 32 38 37 29 42 40 40 33 34 43 29 39 33 37 35 32 40 42 24 39 39 35 36 37 36 35 34 39 27 35 32 37 33 38 31 35 24 34 29 37 34 40 41 29 42 36 43 35 31 39 40 39 32 48 28 31 42 39 39 44 40 22 31 39 35 28 36 32 37 40 34 35 44 30 38 35 40 40 27 48 29 33 46 35 43 47 37 28 41 32 50 35 30 43 35 38 32 38 39 29 33 38 22 33 23 41 31 38 34 34 37 45 35 38 34 39 37 31 46 36 40 37 38 36 49 38 35 43 23 29 26 54 35 46 42 33 51 25 35 40 49 39 29 36 37 36 27 34 36 30 32 32 29 32 23 37 40 45 43 34 41 36 36 34 31 42 28 36 40 41 36 44 33 26 28 28 42 41 33 26 45 34 42 46 31 27 38 32 48 44 39 33 35 37 34 28 42 30 44 33 27 28 36 40 45 36 29 36 51 25 50 33 33 35 30 41 39 43 40 34 43 46 30 34 38 35 29 47 34 36 34 44 34 35 32 35 33 44 26 32 41 29 29 42 40 40 38 42 32 26 22 38 36 45 35 37 40 28 38 35 28 30 40 35 32 35 42 33 37 32 30 31 38 29 37 37 38 41 37 41 41 39 39 36 43 31 37 46 39 36 52 45 35 47 36 34 34 28 29 43 31 38 31 42 42 36 32 26 41 28 38 25 33 38 33 45 32 38 34 31 34 37 34 32 35 39 41 34 32 41 36 41 35 31 35 34 37 39 38 36 37 45 39 40 42 30 33 31 30 34 38 42 35 34 36 38 45 33 46 28 30 37 30 29 37 32 47 38 38 39 41 36 53 34 43 36 34 29 46 34 38 33 38 43 34 41 47 44 40 37 36 38 40 41 40 33 33 36 41 42 36 35 44 35 37 35 40 30 34 34 26 28 36 29 38 30 45 34 35 36 45 44 38 31 27 41 40 41 27 29 39 40 33 35 34 41 29 35 46 36 48 46 40 35 33 32 44 48 36 46 43 34 37 33 29 50 30 31 39 34 36 39 39 44 42 39 36 34 32 39 31 27 33 43 39 25 33 33 40 31 45 33 48 40 37 41 33 33 34 39 41 36 30 30 30 38 30 37 39 34 30 37 38 31 38 49 35 26 31 37 39 32 37 38 42 44 39 39 47 28 38 25 30 29 38 39 33 34 32 35 36 34 36 38 30 35 40 34 33 45 35 37 41 41 38 30 39 42 39 38 31 39 36 36 38 47 28 39 32 37 33 33 47 34 26 32 36 26 29 32 32 34 39 35 37 35 39 33 36 39 45 31 44 34 41 36 33 31 40 26 43 33 34 39 35 36 44 42 49 39 29 35 34 35 27 34 26 34 44 35 40 39 37 39 34 27 30 43 29 31 28 36 39 28 31 32 43 33 32 35 31 37 33 48 46 28 35 35 32 43 31 34 32 34 40 47 41 34 30 31 40 36 25 33 32 34 47 43 50 38 34 43 38 38 32 34 39 47 41 39 27 48 37 31 28 39 36 43 37 36 52 34 28 54 31 35 40 31 51 31 34 46 36 36 32 35 44 25 30 45 42 28 42 40 31 35 40 28 38 39 35 36 27 40 30 51 37 40 38 29 36 37 47 42 36 28 38 44 35 41 47 38 37 37 40 40 31 49 31 33 29 35 39 24 41 29 46 39 30 41 44 33 27 35 41 41 44 27 35 36 27 37 41 37 35 31 31 33 45 29 43 34 38 41 23 57 31 43 35 35 38 37 30 44 49 33 31 29 41 46 26 41 34 36 32 31 32 38 37 38 30 27 28 31 38 26 38 42 33 40 40 42 30 27 35 29 39 27 24 37 31 39 34 33 32 32 47 38 28 41 43 40 42 30 42 36 32 28 34 43 32 22 48 30 33 40 38 38 27 52 43 27 46 32 25 40 31 39 37 32 42 42 39 31 39 44 37 27 30 40 35 22 35 30 37 39 34 33 25 37 40 18 34 36 25 38 38 28 39 32 37 47 37 33 30 43 33 32 24 43 32 40 40 22 33 35 30 34 35 35 31 34 47 33 37 30 38 32 40 41 47 30 34 28 42 39 34 49 35 43 41 23 32 40 52 34 36 30 34 38 35 46 42 40 41 40 36 34 33 30 40 36 45 36 31 39 34 36 32 41 39 47 44 35 44 30 27 37 39 37 26 37 39 21 40 34 35 42 36 35 40 44 39 27 39 33 48 33 41 36 43 39 35 38 35 45 38 32 29 34 31 36 32 33 44 40 39 35 36 34 29 39 40 29 28 34 35 48 24 45 31 46 24 31 43 32 31 37 44 51 30 44 30 38 27 38 28 34 49 42 42 32 43 37 49 39 40 37 37 32 36 45 33 42 34 38 34 32 45 52 38 37 44 41 43 35 29 35 32 39 26 34 35 34 37 30 40 39 31 37 52 24 51 31 31 34 36 31 45 39 24 33 32 33 32 37 28 45 41 33 32 30 29 29 26 33 39 44 37 34 38 33 39 37 28 38 42 27 36 43 34 29 35 41 30 33 31 40 45 29 44 38 37 46 30 49 29 40 36 34 43 40 36 41 39 30 32 33 41 37 24 31 41 33 38 33 35 31 37 28 27 40 30 33 42 35 37 37 37 35 39 37 32 35 32 49 35 50 46 37 38 34 48 41 34 23 40 39 35 49 44 33 30 39 40 48 41 31 24 33 38 33 28 36 41 28 43 35 39 36 25 29 41 31 40 39 34 35 39 31 32 35 35 31 46 35 35 33 30 32 40 26 34 26 32 36 28 34 34 49 31 36 36 38 36 38 35 37 39 47 41 48 26 31 33 29 36 42 33 33 36 30 40 35 35 33 30 46 31 31 29 30 40 37 40 38 33 44 32 34 32 34 48 42 43 32 38 37 30 47 35 25 28 35 48 34 32 31 35 34 45 35 26 42 33 28 40 38 22 35 41 34 40 38 32 29 27 39 34 38 33 46 37 25 36 36 31 38 40 36 42 44 40 41 51 39 37 35 41 30 39 36 39 46 30 50 34 38 39 25 36 34 38 36 31 36 39 39 40 23 40 36 29 35 33 33 37 32 24 34 27 37 41 41 33 32 31 35 41 41 31 35 34 36 33 32 38 26 35 39 31 36 40 35 44 38 34 39 26 36 56 36 40 34 48 39 31 29 37 28 32 38 32 33 27 41 37 31 36 38 37 43 41 42 44 45 34 43 36 34 38 29 29 33 39 34 30 36 35 36 43 31 42 36 39 37 40 38 42 36 39 36 35 38 43 28 37 32 38 41 44 36 34 31 31 31 40 38 38 39 43 35 35 37 28 40 34 31 41 39 48 44 28 33 33 28 41 52 33 46 30 40 35 46 31 34 29 37 34 34 25 34 34 43 40 25 35 28 43 37 35 40 34 36 46 46 31 42 28 26 41 35 32 55 35 39 35 32 41 30 36 32 31 29 34 38 37 58 34 33 41 45 31 39 40 48 34 31 35 52 38 32 36 30 39 45 38 35 38 39 44 46 34 33 43 42 29 34 33 28 38 41 33 25 32 34 33 34 40 34 32 33 40 31 29 41 44 36 30 34 32 38 47 39 35 31 20 43 35 27 36 35 31 36 40 42 45 43 36 32 43 38 36 36 39 35 33 34 33 41 36 30 37 35 29 42 36 41 31 28 30 32 40 45 34 33 32 33 37 49 32 33 39 30 38 35 40 28 26 46 45 32 49 33 33 35 22 49 34 39 30 34 36 42 50 46 30 35 39 43 24 43 38 34 45 40 36 40 38 31 32 33 45 33 40 37 39 25 40 44 42 32 31 47 34 37 37 40 33 33 32 41 38 36 34 34 38 36 36 47 38 32 34 30 38 31 35 36 28 30 33 32 32 35 27 37 38 38 29 37 39 34 33 32 34 38 39 32 45 33 44 48 41 33 32 39 34 28 32 36 40 51 40 28 33 44 44 37 38 33 28 29 35 33 30 47 31 20 32 36 35 45 50 40 36 27 39 31 31 28 34 39 43 33 31 33 45 43 36 36 31 43 40 52 35 27 33 34 40 36 39 26 34 36 38 43 31 37 33 46 40 40 39 36 47 40 33 37 36 33 39 42 45 43 36 36 37 36 30 36 34 40 34 33 39 41 33 35 30 26 34 38 38 28 33 45 37 36 41 25 30 29 34 36 50 46 30 31 31 39 20 37 49 34 38 34 39 36 30 42 32 41 35 31 43 30 39 35 37 27 36 38 40 35 29 36 40 35 34 28 31 29 30 34 25 36 31 44 35 27 36 46 30 36 53 51 38 28 38 22 33 39 32 31 24 37 31 38 40 28 28 41 35 36 39 33 38 44 43 34 40 36 40 29 38 32 47 29 32 41 32 31 27 36 29 43 37 31 34 39 35 33 24 35 31 41 32 45 37 41 34 40 31 42 45 35 36 43 33 39 41 27 35 32 35 33 46 25 38 40 38 34 42 46 36 42 39 39 30 42 27 27 38 38 23 36 40 41 32 30 27 34 36 39</t>
+  </si>
+  <si>
+    <t>JSU(-2.2184331033856353, 6.392087234329982, 141.43086075054998, 281.0792667424716)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267 305 260 235 299 254 181 275 275 124 229 281 212 226 250 276 188 212 260 174 183 309 239 214 288 218 235 242 223 326 332 313 220 299 289 184 231 252 265 329 278 198 260 197 270 273 271 258 134 283 267 263 237 318 261 213 228 265 173 296 149 301 285 200 319 224 288 174 210 214 302 179 152 314 195 313 227 234 220 234 264 255 158 178 269 262 219 236 299 215 194 165 182 228 322 231 309 247 266 243 258 250 203 228 265 246 256 322 236 293 246 291 252 218 277 275 238 199 183 205 262 145 188 245 197 176 234 284 243 199 167 255 365 263 294 222 314 289 220 319 238 226 278 265 259 232 196 252 246 302 328 238 175 189 224 213 236 270 259 217 248 266 224 247 270 251 224 264 239 365 256 250 250 204 243 225 249 280 244 316 261 261 271 249 285 177 182 278 277 224 321 352 302 357 266 196 330 226 216 251 247 188 230 199 330 138 204 255 231 212 278 293 341 192 238 304 243 198 280 223 217 184 219 383 288 247 361 238 219 235 223 182 222 229 311 159 290 264 296 235 270 238 262 246 282 248 231 182 260 245 284 176 268 275 290 249 229 248 300 219 317 229 252 254 291 220 204 181 298 285 213 214 294 263 282 225 254 327 256 187 263 255 261 192 260 310 206 175 252 156 241 203 223 224 268 267 141 173 251 315 236 323 285 191 208 187 119 124 271 195 230 270 238 237 348 247 279 200 275 326 218 168 262 210 229 232 191 187 277 232 251 198 177 209 253 246 267 269 209 196 228 268 197 324 299 219 206 261 226 335 203 222 186 283 305 298 275 292 296 170 190 223 277 259 196 274 257 190 249 297 224 249 263 226 252 178 247 226 211 219 285 225 259 258 295 321 199 274 252 153 174 189 184 221 159 262 149 196 170 227 227 214 338 207 218 274 271 315 310 250 272 204 258 273 246 374 264 259 212 299 258 222 118 232 175 241 194 252 232 244 233 239 271 330 212 268 251 293 190 313 241 220 259 281 319 354 165 199 191 197 204 226 304 276 219 166 190 242 118 153 218 286 143 292 232 289 250 207 326 306 257 206 299 249 248 206 215 226 268 138 209 270 225 212 207 251 293 201 214 252 201 215 316 210 187 207 204 185 245 295 226 245 228 155 160 252 276 241 243 237 278 248 204 197 247 165 257 177 161 159 256 226 229 261 270 249 307 304 229 216 348 260 272 231 170 268 194 216 390 211 252 193 260 279 236 300 291 251 336 215 201 159 300 143 214 202 298 194 215 276 223 150 259 179 178 212 166 233 196 273 276 180 272 215 273 256 226 319 322 177 370 218 291 193 173 341 271 207 201 199 230 258 381 364 212 255 224 258 237 223 348 195 247 211 242 206 253 315 235 275 266 247 328 220 142 299 237 249 274 235 178 197 201 303 242 276 181 281 133 225 256 269 334 313 260 232 292 274 276 216 252 301 225 254 272 279 291 198 245 221 253 238 306 194 186 262 157 210 260 226 297 205 235 196 215 244 262 259 317 189 227 262 255 220 215 269 213 270 272 241 189 193 272 319 239 241 228 217 260 255 235 191 182 281 278 178 290 261 247 152 240 215 207 175 185 250 224 199 232 191 263 220 268 247 250 206 254 221 332 226 298 234 180 167 264 301 298 214 208 272 288 259 187 283 190 260 165 210 197 211 257 241 297 290 285 222 234 227 259 314 309 245 188 301 219 243 255 240 261 270 290 267 211 171 294 213 332 282 204 222 228 201 256 304 321 240 324 229 171 261 253 253 375 147 292 224 240 306 337 187 231 98 216 299 144 229 276 204 212 262 233 240 246 242 181 263 170 228 264 207 267 182 237 142 188 217 213 296 244 222 238 273 170 288 270 370 301 257 137 248 290 233 195 162 190 221 294 322 197 253 254 305 349 283 258 219 353 259 235 195 231 131 251 217 203 255 250 201 274 258 154 286 153 221 282 250 210 202 223 203 233 224 232 243 243 163 208 235 239 252 253 289 209 200 236 214 258 288 197 231 229 255 261 290 139 263 287 235 308 191 215 191 223 275 247 281 272 264 333 225 327 223 197 205 295 235 258 245 278 318 347 164 265 117 248 293 260 289 272 227 189 309 246 276 218 256 198 217 254 233 278 270 154 251 149 232 167 190 258 224 154 214 316 321 320 298 248 263 313 308 197 234 312 267 236 186 170 274 241 307 238 188 239 163 254 222 170 231 202 305 228 272 170 285 183 203 252 236 227 135 242 277 231 188 252 127 212 214 231 243 291 226 277 284 291 238 310 201 265 258 304 171 346 167 223 340 226 240 175 195 214 296 327 236 258 175 237 196 181 190 295 260 206 305 208 268 208 250 227 221 215 221 224 279 282 312 234 223 240 206 156 310 261 163 287 252 217 230 219 279 290 163 265 269 280 270 270 272 215 305 243 233 269 221 229 144 236 260 194 355 216 234 273 147 238 334 200 246 326 255 317 246 186 230 333 265 278 334 271 290 202 234 282 291 245 171 220 274 228 288 354 221 178 201 208 255 209 277 221 271 256 148 211 223 207 334 227 226 268 297 233 184 268 176 221 269 308 212 338 255 315 211 265 156 203 270 292 166 309 264 245 268 267 142 226 215 305 312 205 291 214 221 294 265 233 185 242 283 309 206 299 224 185 280 236 238 285 263 257 212 179 328 275 207 203 246 229 203 244 226 249 243 273 196 297 261 238 233 223 191 243 154 226 232 241 300 238 274 266 227 152 255 240 189 275 197 289 200 217 317 216 261 226 244 174 252 162 223 321 287 164 216 183 214 285 222 201 339 189 181 178 275 258 238 296 195 188 303 195 248 242 237 235 208 238 260 291 249 168 326 253 260 250 200 258 263 214 221 294 241 270 221 322 272 358 216 178 184 185 317 252 270 252 249 298 241 188 249 181 214 233 203 202 255 222 178 280 348 257 202 261 248 188 199 210 216 269 272 260 254 165 324 220 244 205 223 240 248 201 220 294 241 164 262 235 210 243 181 243 297 326 208 187 295 318 375 199 278 208 280 224 234 210 191 209 207 269 216 259 264 249 260 195 286 250 210 230 181 220 218 239 249 330 301 191 273 236 227 135 134 228 252 298 249 196 305 321 247 258 251 224 210 266 295 203 170 308 216 253 342 179 270 150 233 234 188 279 256 237 241 290 304 312 197 267 288 205 315 243 224 168 194 190 233 189 203 239 232 227 247 342 122 179 218 331 325 273 261 250 189 232 255 159 297 226 273 300 257 297 211 290 216 243 212 260 293 201 253 185 259 268 165 309 226 251 321 208 312 231 192 190 208 299 283 172 203 210 299 198 251 242 345 242 213 196 222 294 263 185 215 258 233 132 203 165 221 248 337 225 161 223 294 217 172 256 230 180 268 272 151 233 247 212 246 205 249 234 232 269 211 299 229 278 184 243 275 228 174 231 223 195 286 171 254 278 232 279 288 252 299 327 196 271 205 216 279 171 237 230 228 316 266 115 334 232 243 227 208 260 257 310 263 209 210 209 251 250 216 276 272 179 193 317 250 261 245 241 245 211 216 291 320 190 258 277 272 282 300 212 245 263 276 225 175 297 254 334 218 287 211 316 216 209 214 256 250 217 336 269 181 179 249 403 290 225 194 366 228 236 240 292 188 166 229 181 276 219 276 206 217 208 336 320 272 215 296 218 221 212 252 197 233 285 164 207 265 235 286 288 244 126 254 131 175 241 231 205 220 276 250 205 174 185 310 248 154 292 282 206 300 204 250 215 266 214 188 260 241 273 252 324 205 349 221 287 235 287 178 184 220 308 164 318 226 220 149 217 277 267 213 225 217 291 241 230 247 227 178 198 190 245 328 306 285 318 270 185 238 286 287 229 239 210 243 289 264 210 256 245 156 284 236 246 258 262 234 197 163 333 255 198 222 210 237 240 309 167 240 276 220 182 222 272 214 281 219 213 289 223 181 308 254 241 236 284 250 355 192 278 217 227 189 266 213 194 253 280 192 265 185 279 197 210 197 334 199 204 242 281 268 224 255 249 220 234 231 181 199 210 331 179 215 239 217 161 262 249 268 298 284 244 226 216 224 297 270 297 274 171 301 254 287 201 211 236 224 130 203 248 235 269 211 185 223 245 219 206 225 219 193 263 256 198 250 266 190 260 212 141 198 245 161 325 159 195 256 204 212 215 239 172 168 165 199 261 276 222 269 251 269 268 203 258 140 248 235 145 214 239 222 237 180 258 182 274 185 225 251 234 249 248 310 324 259 275 316 200 283 291 205 242 230 270 227 282 203 251 237 352 234 269 195 174 223 168 181 194 216 230 282 287 245 229 304 239 273 257 246 255 143 268 240 219 220 145 292 175 315 186 170 308 258 232 192 207 258 215 272 266 297 256 271 211 272 212 286 279 199 157 175 259 176 185 317 238 234 249 251 238 265 213 295 257 216 244 296 213 327 313 213 219 222 208 192 226 279 259 238 245 210 167 188 231 261 273 293 293 239 367 230 276 202 224 254 188 207 169 203 231 228 286 239 254 188 258 222 202 258 247 277 344 197 253 250 184 249 226 321 276 238 262 193 213 253 261 220 275 207 302 225 169 226 187 241 234 205 256 364 233 243 249 243 249 288 255 227 260 363 301 257 229 221 169 208 270 203 309 287 188 275 217 223 179 228 273 256 319 233 269 223 221 285 281 345 246 335 184 330 232 132 277 235 199 226 188 155 294 230 187 223 287 279 257 297 180 252 243 254 321 235 238 243 354 221 170 222 272 204 293 200 226 298 310 221 241 260 214 209 271 213 291 312 293 244 216 219 285 232 242 117 323 159 252 240 257 250 296 267 244 158 255 229 260 193 228 135 137 193 246 254 243 146 173 227 228 242 217 279 257 208 272 222 309 296 258 236 257 319 211 262 326 305 224 352 165 237 253 298 223 192 213 194 376 240 227 312 220 273 281 203 229 205 319 255 319 217 286 262 226 288 218 332 273 250 318 232 239 306 155 269 197 251 247 285 303 278 264 245 156 318 298 199 194 257 196 303 250 197 233 246 222 244 297 265 257 144 338 205 221 212 321 241 298 180 267 257 237 217 231 300 205 150 240 288 237 199 168 212 301 259 189 274 213 218 260 274 294 151 258 230 196 245 267 193 316 384 197 325 252 249 206 297 203 220 163 172 255 215 280 224 243 271 305 257 393 368 102 219 202 151 278 240 223 251 178 206 250 228 293 274 181 161 303 311 204 184 159 216 285 305 227 267 232 248 268 280 207 277 194 245 295 258 235 187 280 207 325 304 275 152 352 238 239 201 285 228 268 276 292 158 241 197 267 247 322 220 317 211 194 153 347 290 137 284 238 249 212 203 209 248 248 213 204 330 302 232 329 279 188 261 165 114 248 303 220 198 186 217 231 240 254 228 280 232 336 240 315 236 206 293 226 235 230 281 207 244 313 185 374 236 333 190 244 271 259 226 225 252 242 185 264 259 278 261 274 260 294 347 223 209 232 219 212 254 224 224 262 253 210 222 218 262 189 270 310 237 243 194 220 262 148 202 246 266 219 309 273 242 165 225 233 293 301 229 220 182 218 180 200 231 228 192 249 170 310 336 178 276 219 262 229 209 238 232 308 242 240 199 240 221 236 248 259 349 172 262 236 186 228 234 222 261 211 285 282 240 251 269 196 261 137 288 231 252 259 254 172 244 216 172 253 264 233 277 186 118 301 220 190 242 192 275 241 264 236 191 314 231 238 272 206 261 195 186 261 291 220 225 293 331 293 304 266 289 312 221 300 262 219 217 207 248 199 247 246 274 362 229 202 190 247 309 263 228 173 226 236 275 236 284 238 188 241 333 284 244 210 285 234 267 380 233 160 254 226 240 273 264 186 270 219 184 276 139 226 328 257 263 270 222 235 217 235 150 250 265 253 259 243 233 206 229 211 226 276 192 243 226 226 292 297 246 197 169 202 232 205 245 268 251 289 309 257 181 291 274 277 195 262 229 221 310 211 245 192 317 258 247 218 190 266 200 244 155 253 212 276 139 198 272 237 314 366 350 261 285 160 181 266 180 293 242 198 225 250 237 194 259 207 185 209 271 292 264 210 189 220 255 158 171 325 172 239 220 345 284 301 284 246 200 266 241 269 151 268 169 227 262 229 266 224 192 233 176 230 216 264 254 228 245 228 285 225 184 228 197 134 357 261 137 258 248 218 253 302 220 257 229 207 302 255 316 225 305 310 292 236 221 212 341 278 264 195 238 208 206 274 229 294 291 274 233 290 162 269 289 248 217 210 239 286 230 206 344 286 230 303 259 193 227 386 286 223 247 251 283 311 327 270 241 163 286 238 149 291 203 233 252 212 316 282 332 175 272 175 210 266 241 179 212 309 251 225 209 238 176 257 294 231 211 208 278 273 229 170 198 280 285 233 275 265 259 115 275 171 212 231 268 228 264 327 242 337 142 213 316 218 234 195 387 232 245 243 224 243 243 294 214 267 262 156 275 250 220 226 219 307 262 247 312 247 310 156 236 230 260 237 228 232 219 169 225 289 347 261 291 177 303 264 273 289 146 277 180 294 312 246 249 198 285 193 215 296 267 169 174 243 324 163 302 303 296 179 209 239 211 249 223 192 271 150 274 257 197 231 180 185 304 265 314 285 258 210 297 215 219 254 323 242 201 192 236 348 218 232 159 302 240 319 273 241 159 237 180 295 228 306 265 175 211 197 308 261 261 198 301 302 223 193 235 161 167 353 308 185 212 162 244 346 285 245 198 239 235 239 275 190 262 222 243 252 131 264 215 216 242 203 258 200 270 234 273 174 198 277 211 220 165 194 268 264 243 204 246 255 184 276 304 278 262 190 210 149 195 333 206 256 211 213 293 217 271 227 251 222 218 296 223 172 330 218 200 243 268 280 283 227 294 290 299 226 275 254 229 291 219 215 269 274 302 258 186 256 270 283 245 178 216 223 208 269 247 280 171 214 200 190 268 280 242 298 260 306 234 264 178 274 219 338 173 178 353 272 215 261 195 217 355 186 304 268 289 171 228 237 200 321 321 232 210 193 287 253 276 275 342 214 234 214 220 223 259 249 299 199 252 254 250 272 319 281 245 255 258 165 150 362 297 254 300 177 201 245 233 261 190 258 265 195 292 281 140 184 152 320 188 231 260 235 136 279 241 222 354 189 205 205 304 201 207 253 235 247 256 242 264 254 223 207 320 279 215 158 257 225 193 219 184 267 253 277 211 224 225 254 235 149 356 251 270 266 224 232 221 235 327 288 228 213 238 288 207 205 281 292 260 285 283 287 275 183 275 249 286 206 115 264 282 246 187 255 216 307 299 234 207 208 233 286 261 252 314 221 266 223 210 346 254 236 272 224 227 214 305 242 169 247 206 216 209 219 202 282 182 267 188 180 195 216 241 189 199 240 200 186 286 217 287 276 313 251 326 221 235 175 186 234 255 175 306 218 252 230 209 190 195 207 229 188 365 300 229 188 258 190 201 161 291 168 248 215 273 187 266 280 271 207 271 273 272 268 219 215 175 223 267 200 280 223 237 225 250 187 189 212 248 308 298 150 195 315 274 186 280 235 241 182 207 201 190 255 274 256 297 190 228 209 211 288 324 181 218 212 199 213 233 260 279 280 232 253 284 227 230 250 248 186 189 226 266 314 213 272 334 262 260 257 307 239 178 197 324 203 250 254 177 289 274 218 338 237 247 229 308 184 247 289 275 260 212 292 215 255 372 267 234 209 167 216 224 222 240 210 327 258 183 219 260 231 230 245 240 294 168 178 154 325 278 195 276 216 226 300 254 267 204 208 249 205 187 314 241 213 249 255 300 345 208 209 291 297 337 295 211 259 200 253 277 276 259 332 285 269 222 269 317 167 277 273 205 257 256 203 215 270 366 254 206 229 232 243 223 243 244 212 156 205 217 223 243 195 201 305 303 257 240 287 203 147 244 243 191 234 240 322 307 284 230 236 269 292 289 232 231 260 181 198 313 206 275 109 274 246 319 333 229 212 254 276 265 175 320 134 201 359 208 373 205 291 318 174 152 231 241 209 214 181 226 281 272 194 301 200 235 193 279 241 224 227 268 326 303 289 289 311 245 268 290 250 321 210 223 327 208 234 250 174 266 224 222 280 181 230 271 222 253 244 304 215 220 195 253 283 248 265 347 207 279 277 317 191 205 278 272 351 219 264 290 184 271 210 242 253 250 248 237 152 251 237 224 289 268 287 219 257 308 295 296 293 199 220 281 267 198 224 294 151 203 207 222 139 204 255 229 188 265 313 215 176 206 272 293 248 236 213 295 264 253 247 326 130 233 149 282 251 282 206 276 254 194 206 187 169 250 232 223 242 218 210 270 322 253 199 221 225 304 223 210 274 172 196 189 175 241 418 267 249 230 288 452 216 234 306 331 259 185 275 244 224 284 324 251 140 198 186 153 164 239 210 258 312 202 256 124 241 218 240 244 184 251 260 219 248 250 304 243 219 263 214 154 180 217 282 233 304 206 237 258 173 248 308 260 275 249 163 255 217 218 173 133 241 205 175 234 233 295 252 337 156 256 221 283 224 174 256 297 153 238 265 284 301 297 256 323 173 140 206 229 258 207 274 218 290 263 320 299 267 179 243 259 177 283 186 358 266 235 310 167 247 274 246 228 214 333 238 234 224 290 211 269 290 239 260 141 235 292 237 227 157 262 278 256 219 160 189 220 268 212 193 214 391 242 184 239 209 224 255 240 304 149 267 226 259 297 215 327 244 274 221 298 249 270 302 264 241 239 250 291 254 213 247 221 280 282 300 209 268 324 269 349 165 229 181 261 269 242 186 328 172 226 206 279 188 213 336 249 157 267 241 252 356 295 304 140 271 248 260 221 281 194 226 252 181 201 217 252 201 223 245 277 228 214 216 203 310 256 229 168 244 363 452 260 216 289 175 285 201 230 266 263 276 272 233 230 200 183 197 207 239 156 266 287 200 198 367 227 302 196 206 266 224 278 248 260 302 259 200 295 185 262 241 240 222 258 217 238 223 288 272 193 336 297 248 234 251 181 281 274 311 296 222 187 287 234 264 268 154 264 328 209 308 240 289 271 262 283 246 285 270 276 210 311 236 290 372 378 271 213 262 320 259 235 291 196 254 302 237 283 233 263 349 316 221 215 210 214 209 317 236 235 166 206 201 181 200 200 203 209 280 333 152 277 325 209 281 285 224 232 287 224 343 259 229 184 231 238 276 214 246 234 213 243 282 225 316 279 320 143 181 252 258 274 219 207 271 227 266 269 235 252 376 246 280 312 237 228 301 289 310 198 201 181 269 301 229 185 194 247 261 176 305 295 233 245 345 258 316 365 306 244 219 260 320 296 243 274 195 236 258 243 189 240 228 206 259 315 279 366 246 204 379 198 193 200 181 154 313 272 300 232 215 232 193 369 260 290 244 249 269 255 198 222 246 262 226 258 313 309 142 240 222 210 288 173 220 264 258 229 290 202 210 253 147 270 301 266 193 222 223 246 271 283 142 202 197 223 298 183 307 247 290 237 222 175 237 299 254 228 249 220 209 297 330 216 100 290 389 223 258 249 316 296 201 201 261 322 208 237 208 301 263 244 260 222 244 231 194 276 236 143 228 205 352 266 323 234 271 218 195 149 269 224 177 290 210 226 206 270 208 225 257 383 220 230 264 269 277 210 300 309 369 229 134 263 228 293 176 301 240 205 275 203 342 223 306 137 250 197 190 227 219 189 204 237 246 261 287 220 266 218 161 291 260 226 220 142 304 302 260 259 319 223 198 220 218 161 222 100 224 338 208 302 310 264 159 153 287 252 274 244 240 226 330 266 232 334 314 211 237 235 271 262 252 209 207 258 184 267 298 251 272 278 164 206 318 279 253 260 250 221 224 293 219 300 204 193 227 203 285 363 183 190 340 297 266 224 319 192 223 289 185 251 236 290 222 208 210 268 199 254 253 201 293 219 185 209 290 305 215 200 266 255 203 219 193 176 242 253 164 278 267 189 167 320 96 214 295 307 359 295 206 103 188 230 225 158 188 185 245 294 254 280 306 279 360 222 345 271 202 200 245 241 242 276 257 259 215 281 233 226 243 262 198 217 212 239 279 213 180 229 257 219 316 247 233 299 259 240 213 155 251 238 257 227 242 314 204 241 266 147 269 167 308 312 170 280 187 280 232 239 198 224 276 248 299 238 185 252 228 241 239 231 173 291 192 273 255 258 278 144 285 252 260 257 264 167 249 219 170 313 175 185 197 243 238 210 232 257 304 233 251 234 197 360 220 260 228 255 216 208 227 298 273 253 293 242 248 263 248 313 147 373 254 142 140 245 260 299 336 259 275 230 245 193 174 258 238 201 235 250 226 318 188 322 331 282 252 148 204 215 318 276 259 188 178 206 175 319 321 259 298 250 252 262 206 239 248 289 246 229 248 221 112 199 255 197 271 229 143 231 244 264 229 264 299 225 237 250 307 240 238 248 306 263 140 248 296 202 257 233 241 232 183 256 271 354 247 269 233 191 321 322 219 274 218 209 249 205 238 147 323 329 216 235 297 261 227 252 281 310 246 267 246 264 222 269 189 253 194 193 279 166 239 221 300 200 197 232 183 180 228 241 215 280 182 238 225 293 314 251 261 274 253 285 278 233 263 318 254 209 227 263 231 208 157 218 209 173 223 296 165 283 255 288 104 206 259 249 223 283 284 266 218 271 205 251 237 265 281 298 324 245 217 288 248 207 290 198 209 208 239 167 145 237 284 166 273 185 223 311 357 267 235 219 268 260 180 235 204 300 196 188 260 239 199 240 215 247 208 253 209 250 246 287 175 282 276 268 231 286 243 301 181 216 222 285 227 207 241 213 195 224 246 224 317 276 281 164 135 266 194 254 244 272 208 301 175 170 229 238 276 227 201 193 266 215 240 256 231 191 191 321 236 248 277 203 294 239 266 240 215 184 279 165 280 172 249 225 204 299 192 199 213 282 233 309 236 309 166 233 218 184 187 191 131 257 285 150 251 286 260 251 194 283 213 194 245 195 187 245 230 221 326 245 262 142 221 309 236 296 264 233 191 296 260 241 278 218 341 204 269 315 297 270 304 317 203 260 274 170 345 182 201 218 298 205 249 255 198 218 306 315 220 222 145 216 184 269 255 340 269 303 272 288 204 234 162 223 310 237 186 219 252 359 271 240 311 266 222 240 209 248 140 199 218 211 200 346 267 272 312 286 325 210 229 193 322 303 240 160 283 210 267 248 159 313 238 224 236 223 218 267 171 270 272 238 255 222 341 250 113 215 152 206 247 247 310 250 274 236 206 285 136 327 224 210 301 228 213 311 197 273 309 234 293 157 168 237 177 221 239 275 209 300 260 318 254 238 279 284 239 332 214 242 185 281 267 252 299 243 221 217 184 228 206 261 224 221 172 271 278 185 242 240 326 194 251 179 234 314 235 204 283 238 199 335 192 233 200 277 256 196 152 263 177 298 250 285 229 244 217 216 246 183 361 250 199 228 225 230 294 193 249 347 265 200 198 334 212 222 279 193 207 221 308 229 273 250 284 260 288 201 203 255 252 306 194 227 223 255 232 244 274 277 167 233 158 260 268 230 342 232 220 270 290 154 225 267 170 247 234 203 279 185 236 260 281 261 245 209 139 228 165 176 356 207 238 173 252 209 329 243 316 245 297 241 264 219 272 170 118 261 363 196 233 269 240 273 210 292 294 200 237 212 190 215 199 189 219 217 225 157 297 226 206 209 190 310 251 258 279 231 178 221 322 282 233 321 208 310 180 205 251 132 308 345 243 208 279 206 294 275 188 258 254 296 114 263 287 193 194 298 201 302 234 264 239 275 232 353 222 246 261 234 186 269 286 201 258 264 241 250 242 206 213 243 270 230 306 253 325 279 212 236 339 282 222 282 217 245 228 312 163 299 251 255 249 155 236 321 249 207 171 221 279 245 224 242 243 236 179 289 348 210 292 291 204 198 247 261 232 256 214 234 212 262 247 196 223 304 238 190 282 168 251 272 248 222 279 249 166 240 224 318 252 275 186 265 291 119 229 284 313 248 266 210 324 181 255 266 177 261 241 224 306 221 218 231 333 124 267 190 246 261 294 223 290 273 196 217 270 314 236 213 190 262 231 264 212 300 269 159 350 218 216 247 245 237 234 201 216 228 259 147 292 301 190 211 144 260 214 202 202 269 268 336 287 171 276 184 337 287 303 212 201 193 271 326 278 280 299 213 258 271 258 212 264 222 320 273 229 232 225 256 196 270 262 316 342 267 221 266 181 258 239 245 260 213 226 211 166 185 273 275 209 239 272 216 240 176 321 295 227 252 273 241 264 287 237 315 247 229 240 234 246 260 332 266 252 243 280 324 225 248 215 227 259 175 193 246 238 211 232 186 285 307 174 189 229 244 219 317 291 224 188 254 261 158 245 181 246 219 342 187 158 290 291 262 225 202 251 259 269 166 191 183 295 189 272 276 236 330 292 305 264 329 260 241 218 244 257 190 178 291 234 178 244 171 200 230 239 317 267 261 220 190 254 218 190 324 202 215 290 304 243 196 224 218 229 213 233 260 197 303 262 245 244 249 206 330 233 248 314 242 161 216 201 189 175 182 333 226 272 183 287 136 236 226 247 210 309 317 302 265 185 302 307 205 284 184 279 187 205 204 196 306 266 348 269 274 246 163 270 237 226 253 173 250 212 256 325 312 188 266 225 179 290 208 125 233 242 213 249 217 247 194 178 164 192 310 266 165 261 365 187 171 193 273 308 212 237 231 205 286 222 292 169 189 200 241 252 219 244 196 238 157 185 201 267 173 264 253 216 273 172 240 280 281 209 310 223 254 207 234 298 308 166 189 221 138 390 300 294 275 165 237 291 203 247 223 255 304 288 219 339 205 308 255 226 185 120 279 206 214 234 250 238 137 290 234 230 281 220 239 348 267 208 243 197 254 187 217 259 169 233 269 255 242 275 250 271 205 267 196 283 233 220 221 209 244 300 235 222 296 133 262 237 297 269 198 345 216 235 255 238 279 261 170 199 288 168 225 299 242 221 195 271 181 241 271 196 320 156 287 142 176 181 332 257 261 254 358 246 230 228 272 295 254 192 262 244 257 290 168 189 241 244 199 230 234 312 202 247 152 299 119 254 254 328 226 325 244 325 236 229 214 283 270 262 252 308 125 310 167 164 265 246 251 234 178 142 290 198 151 213 323 269 229 159 243 260 217 272 147 243 166 275 224 218 247 257 250 332 252 276 286 268 260 237 256 283 265 185 272 240 259 212 291 291 243 236 230 328 255 285 232 357 217 194 240 195 212 280 236 321 205 282 302 200 199 210 243 184 202 254 263 198 208 239 244 197 311 227 187 277 177 297 378 261 192 268 139 308 274 321 209 221 248 325 171 181 342 217 351 293 225 255 170 250 273 303 278 235 192 252 263 261 243 196 225 333 326 218 304 348 220 224 211 314 302 178 212 273 274 243 226 260 253 215 271 235 232 187 205 344 200 187 269 260 231 205 292 200 276 313 287 278 281 229 191 262 255 269 253 211 283 188 170 244 239 252 265 246 273 231 259 300 191 178 302 258 210 276 174 264 276 305 282 301 321 293 327 234 198 213 225 231 251 187 243 139 311 256 252 309 348 297 248 151 213 268 232 278 268 212 244 198 204 252 331 305 237 334 230 260 297 283 257 247 278 236 306 223 202 256 280 234 254 179 225 257 231 196 283 292 223 214 298 191 243 216 234 296 226 189 106 229 191 228 183 137 238 278 284 213 214 246 219 241 209 205 156 332 276 243 308 306 329 212 187 199 235 258 321 141 281 171 273 204 260 329 280 274 246 212 283 286 238 246 242 343 292 229 231 274 231 213 221 314 283 258 257 258 180 199 259 277 297 221 168 258 130 225 258 259 243 187 220 145 242 275 286 213 248 213 234 266 195 249 248 216 303 80 192 181 175 171 244 205 225 340 220 252 225 282 303 236 286 285 226 234 261 312 208 194 243 216 189 367 137 193 259 344 208 231 321 189 319 204 232 311 222 269 280 256 273 270 291 244 225 217 258 242 204 267 234 263 229 184 182 193 258 262 268 221 353 234 217 247 333 277 255 254 241 252 212 283 329 312 343 264 286 310 302 266 291 227 213 190 175 255 250 237 207 163 313 205 255 203 235 134 211 244 292 277 204 274 326 265 221 280 238 171 242 224 238 231 132 186 214 93 261 228 237 281 214 179 274 236 284 218 213 202 297 245 307 236 234 250 230 275 261 198 312 261 310 186 267 212 197 209 272 194 228 272 286 168 223 266 192 320 183 190 223 277 296 223 208 312 277 259 227 239 250 303 217 200 222 318 278 258 271 277 239 198 238 163 334 246 251 272 292 238 235 237 394 305 212 205 276 234 259 269 210 281 192 181 221 257 221 275 214 300 205 260 286 240 285 220 245 242 226 267 252 263 243 195 211 195 212 199 254 215 315 288 317 278 137 260 218 215 208 215 263 189 290 245 148 261 168 250 197 211 241 241 299 190 169 174 195 308 323 226 206 169 355 244 258 224 207 219 240 205 276 243 268 174 269 289 245 237 281 266 168 315 238 234 190 181 161 244 271 241 240 173 204 267 163 272 219 237 239 302 277 258 257 215 237 283 236 168 253 261 156 306 182 278 192 193 250 222 202 222 205 297 256 282 214 221 197 229 295 208 146 240 253 219 108 203 210 233 294 231 245 252 207 265 264 285 272 195 347 221 333 205 187 315 353 225 204 214 240 346 240 205 327 241 266 196 211 255 230 191 239 292 323 212 217 265 343 340 281 212 242 234 234 294 264 246 215 256 258 181 272 283 224 253 254 166 254 266 251 232 188 287 282 145 373 212 251 232 221 247 193 201 167 223 382 241 191 341 227 281 274 217 177 285 222 274 264 268 268 208 228 288 233 285 215 261 329 233 183 248 211 246 252 157 187 236 245 238 242 247 263 277 237 200 268 254 167 235 257 207 247 174 233 231 214 285 305 348 211 259 244 303 203 185 287 204 255 169 244 247 300 174 212 235 283 221 262 251 176 215 282 251 261 177 170 275 280 290 178 263 349 159 263 276 217 176 281 304 277 153 161 264 214 209 233 277 216 186 210 300 287 276 276 257 265 205 275 318 286 267 251 275 252 260 319 255 218 258 223 221 299 229 246 133 213 293 266 199 286 342 155 255 273 204 212 241 224 185 256 152 225 308 393 233 259 267 283 293 275 196 203 184 291 220 277 317 284 221 264 181 292 221 220 224 388 177 255 268 321 243 244 272 269 273 140 256 225 213 251 179 198 289 336 267 317 193 268 253 276 277 278 198 253 329 238 295 235 226 251 265 161 281 241 257 260 254 252 206 178 333 249 242 255 204 193 223 172 241 311 216 202 137 154 253 255 357 285 233 193 252 257 219 280 322 265 227 330 269 261 218 309 266 259 209 247 311 235 261 136 181 250 235 268 238 204 194 190 203 249 191 265 232 341 240 210 253 182 279 310 270 260 292 358 156 174 316 261 221 324 243 188 360 315 199 194 183 316 305 244 311 272 235 236 309 171 209 206 208 235 244 248 260 286 236 228 237 161 128 150 307 223 244 220 271 298 252 257 271 198 259 232 276 284 247 197 264 224 251 213 223 308 236 193 254 306 260 236 284 219 235 253 202 246 205 230 217 250 233 247 266 184 215 297 119 250 337 316 226 215 282 318 236 395 185 256 201 270 254 208 260 339 166 195 227 170 351 355 244 230 180 252 225 162 229 221 213 148 223 234 211 282 302 258 188 161 253 277 261 347 297 269 274 299 221 290 224 286 246 224 312 274 256 187 249 219 201 330 181 191 214 236 200 230 218 201 245 278 291 138 249 279 259 283 187 227 191 259 237 345 230 304 236 231 235 220 198 252 216 165 198 333 138 321 258 246 329 261 249 177 237 290 274 198 182 227 167 277 216 198 268 193 255 191 209 286 261 224 201 256 178 255 237 196 173 229 188 209 235 327 294 294 199 196 249 265 233 177 225 230 258 327 274 275 229 282 304 353 267 238 250 211 283 296 169 233 263 207 184 271 162 238 187 292 213 386 231 308 260 187 306 295 254 242 240 286 256 223 236 190 328 296 241 329 270 363 203 276 219 182 220 267 180 200 261 215 271 287 237 227 231 197 188 282 169 308 229 324 232 224 305 250 251 287 226 267 259 238 205 221 154 236 258 240 354 205 204 328 290 279 237 287 248 237 165 268 239 315 221 215 235 236 230 202 223 320 227 189 329 175 207 233 340 239 188 292 331 189 291 251 266 239 298 256 248 312 276 162 287 232 199 202 198 180 270 264 247 253 228 234 280 304 239 224 269 205 242 243 278 207 223 233 273 264 224 176 347 258 202 226 206 242 303 238 227 178 217 169 246 235 269 268 257 249 230 302 228 303 244 222 240 297 222 227 212 246 262 244 227 191 173 213 144 229 226 218 192 149 261 185 213 213 312 221 189 301 328 244 382 249 260 268 205 242 220 222 172 204 319 258 218 257 257 229 221 238 184 269 260 220 237 231 269 275 291 227 239 271 211 370 196 213 289 267 146 211 241 207 173 182 250 263 202 245 324 196 263 299 221 232 236 153 315 368 190 226 128 284 344 369 265 272 312 209 254 244 221 272 223 233 251 236 250 225 323 277 269 231 128 231 311 273 193 278 360 234 313 209 252 170 308 276 187 266 196 262 284 313 376 222 151 241 208 269 289 209 131 221 252 216 183 186 363 171 240 236 241 261 190 203 240 265 219 201 143 243 199 285 203 157 207 224 254 294 241 206 273 268 244 238 284 212 219 246 239 204 199 203 215 225 245 211 283 278 310 283 239 211 300 223 278 235 168 302 277 262 179 206 174 224 196 233 241 181 171 125 214 260 205 273 288 241 227 243 240 248 230 239 255 289 241 199 271 255 223 224 237 232 214 199 212 237 291 153 223 198 246 280 252 252 159 240 191 359 274 200 237 199 313 204 266 190 215 270 270 221 239 356 153 271 231 246 284 244 275 278 258 221 203 265 243 189 220 246 194 273 366 182 141 248 216 178 236 189 243 340 212 194 313 251 379 245 293 234 291 223 172 235 190 257 206 263 225 217 283 171 247 228 247 217 348 240 292 267 137 196 262 272 286 194 211 190 250 201 249 221 227 186 332 226 315 198 260 265 298 215 243 257 237 179 239 285 274 196 336 224 146 257 288 293 190 276 176 266 279 199 295 160 313 225 233 227 191 171 191 364 174 208 210 197 272 218 151 304 270 248 229 306 233 241 259 182 298 236 247 209 258 210 243 201 280 262 256 337 221 240 264 254 244 222 205 176 137 166 239 216 248 207 282 318 221 282 219 379 229 285 254 256 281 234 288 290 141 192 205 311 200 224 154 313 214 237 254 222 256 285 186 226 220 194 236 264 221 243 233 220 307 188 278 269 411 266 209 351 197 230 205 268 216 188 219 208 194 305 319 317 287 270 296 236 192 243 225 253 332 136 313 203 208 324 279 232 232 263 270 207 263 263 284 251 229 261 218 197 143 262 251 295 263 257 183 224 187 335 349 246 319 197 297 219 321 263 219 218 299 266 238 241 347 188 238 199 226 249 258 203 223 276 255 258 202 300 315 294 235 162 193 179 191 195 309 256 269 206 296 207 288 201 353 161 227 271 231 250 187 339 252 221 287 266 262 219 240 284 311 292 259 260 133 234 262 229 248 268 235 254 306 190 237 258 236 147 235 277 161 302 236 153 223 179 223 214 248 262 204 245 297 233 347 149 132 199 207 253 341 237 299 280 208 242 168 254 181 216 303 236 264 187 349 230 255 282 249 249 159 250 379 166 221 298 169 229 221 272 218 164 221 314 240 247 267 287 229 223 219 170 281 145 268 206 266 222 274 253 206 283 267 216 199 248 264 249 250 231 296 256 200 196 203 264 267 282 306 239 250 296 248 124 201 298 273 269 183 126 257 250 217 283 171 329 228 302 313 172 285 210 287 191 277 194 239 275 240 227 325 316 333 214 242 198 194 205 279 251 208 256 208 189 260 284 299 251 252 281 253 279 196 197 275 196 275 264 140 210 190 222 279 254 302 241 218 254 220 202 210 285 270 320 196 271 125 244 237 187 211 279 200 150 268 269 301 277 173 230 308 278 221 292 255 238 328 263 321 252 263 151 178 252 280 239 166 270 232 255 172 250 347 192 225 205 250 252 239 351 175 260 254 242 257 276 223 253 190 219 305 244 181 290 211 294 202 257 274 279 109 252 192 264 166 227 262 231 222 198 225 334 262 253 200 277 234 217 309 215 263 313 278 268 327 241 181 338 92 185 190 307 217 253 268 250 264 172 236 227 292 274 214 264 288 228 142 236 241 228 224 199 156 246 182 214 198 299 293 226 319 258 281 223 224 320 188 231 212 273 322 271 251 133 249 255 313 241 248 116 364 197 327 352 267 261 268 239 328 246 220 191 184 247 196 164 246 </t>
+  </si>
+  <si>
+    <t>MIE(0.5249314342641801, 1.9250239465915058, -4.230475834809347e-31, 1.2131955275735096)</t>
+  </si>
+  <si>
+    <t>2 3 1 2 0 1 2 2 1 1 1 2 1 0 1 1 0 3 2 1 2 2 1 2 1 1 1 3 1 1 2 0 1 1 2 1 0 0 2 2 2 2 3 2 0 0 2 1 1 2 2 2 2 3 2 0 2 1 1 2 2 3 2 0 1 1 1 0 1 2 1 1 2 1 1 1 1 1 1 1 1 2 1 1 0 1 1 2 4 1 0 0 1 2 3 2 0 1 0 3 1 0 0 3 1 0 0 1 2 1 1 1 1 2 1 0 3 1 2 1 4 1 1 2 0 1 1 1 0 1 1 1 2 1 3 0 2 2 2 1 2 2 1 3 2 1 2 0 2 4 1 1 0 1 0 0 0 1 2 1 0 0 1 1 0 3 1 2 0 3 2 2 1 1 1 1 1 1 2 0 0 0 1 0 2 0 0 1 1 1 2 3 0 3 2 0 3 2 3 2 1 0 0 1 3 2 1 2 0 0 0 3 2 2 1 1 0 3 2 2 1 2 2 3 1 0 4 0 1 1 2 1 2 1 0 1 1 1 2 0 1 0 2 2 2 2 1 1 2 1 2 0 2 2 1 1 2 2 1 1 0 1 2 3 1 1 0 0 0 2 2 3 5 1 2 0 1 3 0 0 1 2 1 1 2 1 1 1 0 1 3 1 1 1 2 1 1 2 2 3 2 2 1 1 1 1 0 0 2 1 1 2 0 1 2 1 0 0 3 2 2 0 1 0 2 2 0 2 0 3 0 0 1 0 0 2 2 4 1 1 1 1 0 1 2 2 1 0 2 3 0 2 1 2 1 1 0 0 1 1 1 1 0 1 2 2 2 1 3 2 0 1 2 1 2 0 1 1 1 1 1 1 2 1 1 1 1 1 0 0 0 0 1 1 0 2 1 2 1 0 3 1 5 0 1 3 1 2 2 2 2 1 1 3 3 4 3 0 1 2 1 0 1 1 1 0 2 3 1 2 0 1 1 0 0 1 0 0 0 3 1 2 2 2 0 1 1 1 1 2 1 0 2 1 1 0 2 1 0 0 1 3 0 1 2 1 3 1 2 2 0 1 1 2 3 2 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 1 1 1 4 1 1 1 1 1 2 2 1 1 1 0 1 1 2 0 1 2 0 0 3 1 1 1 1 1 1 1 1 2 2 3 1 2 1 1 2 0 1 2 0 0 0 1 0 2 2 1 1 3 2 1 1 1 1 1 0 2 1 2 0 0 2 3 0 0 1 0 2 1 3 1 1 2 1 0 4 0 3 3 1 1 2 2 0 1 1 1 0 1 0 0 2 2 2 2 1 2 0 1 1 3 2 1 1 1 1 1 5 0 3 0 2 1 1 2 2 0 2 1 2 1 0 1 1 2 1 2 1 0 1 0 1 2 2 1 3 0 1 1 1 3 1 1 3 1 1 1 1 1 1 1 1 2 2 2 1 1 0 1 1 2 0 0 0 1 1 2 2 1 1 1 1 2 2 3 2 0 1 3 2 2 1 3 2 1 0 2 1 3 1 1 1 0 2 2 0 0 0 2 1 3 3 1 1 0 2 2 1 2 1 1 1 2 1 2 1 1 1 3 1 0 0 2 2 1 1 1 1 1 1 3 0 0 2 3 2 1 1 1 0 1 0 3 2 1 1 0 2 2 1 1 1 0 0 0 1 2 2 1 0 0 2 2 0 2 1 0 2 2 3 0 1 2 3 1 1 2 0 0 1 1 1 3 0 2 3 0 1 2 2 4 1 1 1 1 3 1 2 2 0 2 3 2 2 0 0 0 1 0 1 4 1 0 1 1 2 2 1 1 1 2 2 1 1 1 1 1 2 0 0 1 1 1 2 1 1 2 1 1 3 3 3 2 4 2 2 3 2 0 1 1 0 2 0 1 3 1 3 4 1 1 1 1 0 1 0 1 4 1 0 3 2 1 0 0 0 2 1 1 1 0 2 1 1 2 1 0 1 1 2 1 1 0 3 0 2 1 1 0 1 1 1 0 1 1 2 2 2 2 2 1 2 1 2 2 0 3 2 1 3 3 0 0 0 0 3 1 1 3 1 1 0 0 0 1 3 0 1 1 0 0 1 0 2 2 2 0 1 1 1 0 0 2 1 2 3 0 2 1 1 1 1 1 1 1 2 0 1 1 0 0 1 0 2 2 0 3 1 1 0 0 2 0 2 1 2 2 2 2 1 0 1 3 0 2 0 1 1 1 0 1 1 2 2 1 1 2 0 0 1 1 1 3 2 1 3 3 0 0 1 1 1 2 0 1 0 1 1 1 2 2 1 1 0 2 3 0 0 1 1 1 1 1 2 1 2 1 1 1 0 1 2 2 0 2 0 2 1 1 1 0 1 2 2 2 2 1 1 1 2 1 2 2 1 0 0 2 2 0 0 0 1 1 1 0 2 2 0 4 0 1 2 1 1 1 1 1 3 0 1 0 0 3 2 1 0 2 2 1 2 2 1 1 2 0 1 1 2 0 2 1 0 3 0 3 2 1 0 1 1 2 3 1 2 1 2 0 1 2 0 4 0 2 1 1 4 3 1 2 2 0 2 0 1 0 1 3 1 0 1 0 0 2 1 2 2 2 0 2 1 1 1 2 3 3 2 1 1 4 2 0 2 2 1 0 2 1 2 1 3 2 3 1 1 2 1 1 3 2 0 0 1 0 2 1 2 1 3 1 3 1 2 0 2 2 2 2 1 2 3 1 1 0 2 0 2 0 2 2 2 1 1 0 1 1 0 2 2 0 0 2 2 1 1 0 1 2 0 1 2 2 1 1 0 3 2 3 1 0 1 2 3 1 2 2 1 1 2 3 1 1 2 2 1 1 0 0 1 1 0 3 2 2 2 2 1 2 0 0 1 1 0 0 1 2 0 2 3 1 1 1 2 0 1 1 1 3 2 2 1 0 4 2 1 2 0 1 0 1 0 2 2 1 2 1 1 2 2 2 2 2 1 1 2 1 3 1 1 1 3 0 0 0 0 0 0 0 1 2 2 1 0 0 2 2 0 0 2 1 0 1 1 2 1 1 2 1 1 0 1 1 1 2 3 2 1 1 2 1 1 1 0 2 0 0 2 1 0 0 3 2 2 0 2 3 2 1 2 3 2 1 4 0 1 1 1 1 4 1 1 0 2 1 1 1 0 1 2 1 0 2 0 2 1 2 1 2 3 1 0 1 1 2 3 0 3 1 3 2 3 1 2 1 2 1 0 2 0 1 2 2 1 1 2 3 0 0 2 1 0 1 0 1 1 0 1 0 2 1 1 2 1 0 1 1 0 2 1 2 1 2 2 1 1 0 2 0 1 0 1 1 1 1 2 0 1 1 2 2 0 1 1 2 0 0 1 1 2 2 1 1 3 3 1 0 4 1 0 1 1 2 1 0 1 2 4 1 2 2 1 2 0 1 2 0 1 0 0 1 2 3 2 0 3 1 2 1 0 3 1 2 4 0 3 1 0 1 0 2 2 1 1 2 1 1 1 1 0 0 1 2 2 1 3 2 0 3 1 1 1 0 2 2 0 2 3 5 1 2 1 1 1 0 1 1 1 2 2 2 0 0 1 4 2 3 0 4 1 0 0 2 1 0 3 2 3 1 0 1 1 0 2 2 2 1 2 0 0 1 2 0 1 0 0 2 0 0 2 2 4 0 0 0 2 3 2 2 0 3 1 1 2 1 4 2 1 0 2 0 2 0 1 3 0 2 1 3 0 2 1 1 2 0 1 1 1 2 1 2 2 1 1 4 1 3 0 1 2 2 0 0 2 1 1 1 0 1 1 2 2 2 1 1 2 3 3 1 0 1 3 1 0 1 3 2 2 1 3 2 1 2 1 1 3 1 0 2 0 2 1 2 0 3 0 2 2 0 2 0 3 1 1 3 2 1 2 1 3 0 0 1 0 1 3 2 2 5 1 0 1 2 1 1 1 1 0 1 0 0 1 2 1 0 0 1 1 2 0 2 2 1 1 1 2 1 0 0 2 1 1 0 2 0 2 0 1 1 2 1 0 1 1 2 1 1 2 2 3 2 1 2 1 1 2 1 2 0 1 2 3 2 1 1 0 2 1 2 1 1 1 1 2 3 1 2 2 1 1 1 0 2 1 3 1 3 1 2 1 0 1 3 1 1 0 2 1 1 2 2 0 1 2 2 0 2 2 2 0 1 1 1 2 2 0 1 2 1 2 3 2 1 3 1 1 1 2 0 2 2 2 1 1 1 1 3 0 0 3 3 2 0 2 1 0 0 2 1 0 0 3 1 2 1 1 1 3 1 1 1 0 0 0 0 2 0 1 0 2 0 0 4 1 0 1 2 1 2 2 1 2 1 1 0 3 3 1 1 2 0 1 2 2 2 1 2 3 2 1 1 2 0 1 0 1 2 2 0 2 1 0 3 2 1 2 1 2 1 1 2 0 1 1 0 1 3 2 4 1 1 2 2 2 1 2 1 1 2 2 1 1 2 2 1 2 2 0 0 3 0 1 2 0 0 1 0 1 1 1 1 0 1 0 1 3 0 1 1 2 2 0 1 1 1 0 2 0 0 3 1 1 1 0 0 2 2 2 0 0 1 4 1 3 1 3 3 1 1 3 1 2 2 2 2 1 0 2 1 1 0 2 0 3 0 2 2 5 0 2 0 0 3 1 0 2 1 1 1 0 1 1 2 1 1 2 0 2 2 1 2 1 2 1 3 2 0 1 2 0 2 2 1 1 2 1 2 2 1 3 1 2 2 2 1 1 1 2 1 2 2 0 2 1 1 2 2 2 2 1 0 2 1 0 0 1 0 0 1 0 1 1 2 1 1 2 1 0 1 2 1 3 1 1 1 3 2 1 4 2 0 3 3 4 0 4 1 2 2 2 2 1 1 1 2 0 1 1 2 1 1 1 1 1 2 1 2 0 2 1 1 3 2 2 4 1 2 2 2 3 1 0 3 1 2 4 1 1 2 0 0 1 1 0 0 1 0 3 2 1 1 2 2 0 2 1 0 0 1 0 0 1 2 0 2 0 1 1 1 1 0 2 1 0 2 2 1 1 1 2 1 2 3 2 0 2 1 1 2 1 1 1 0 1 1 0 2 3 0 2 1 2 2 2 2 1 0 1 1 1 2 1 2 3 1 1 2 3 0 1 2 1 2 0 0 1 1 0 2 2 2 1 0 2 3 3 2 0 2 1 2 2 0 2 0 1 1 3 1 1 1 2 3 1 3 1 3 1 2 2 1 0 3 3 2 0 0 1 2 1 1 0 2 0 2 2 3 1 3 0 0 0 4 2 0 1 1 2 0 0 1 2 2 0 2 2 1 1 2 2 0 2 0 0 3 2 1 1 2 0 1 2 2 2 3 2 1 1 1 2 1 1 0 1 1 1 0 1 0 1 2 0 4 1 0 3 2 3 1 2 2 0 1 2 0 2 2 1 1 4 0 1 2 2 1 2 1 1 0 2 1 2 0 0 0 1 2 0 2 2 2 0 1 1 1 1 1 0 2 1 0 2 1 2 0 1 3 2 2 1 0 1 1 1 1 0 4 1 0 4 0 3 1 0 1 2 0 0 1 1 1 0 2 1 2 4 1 0 1 2 0 1 1 2 2 2 2 4 1 1 1 2 0 1 1 0 2 3 1 0 0 1 2 2 2 2 0 0 3 1 1 1 0 1 1 1 1 0 2 2 0 1 1 0 1 1 2 3 1 1 2 2 4 1 2 1 3 1 1 0 1 1 0 3 0 2 2 1 2 1 1 0 0 2 2 3 0 2 1 2 0 1 2 1 0 0 2 2 1 2 0 1 4 1 0 0 1 1 1 1 0 2 2 1 2 0 1 3 2 1 1 2 0 0 3 0 2 1 2 1 2 1 0 0 3 1 2 0 2 2 2 3 0 0 1 0 0 2 2 2 1 1 2 1 2 0 2 2 1 1 3 0 2 1 2 2 0 1 1 3 1 0 2 1 1 0 1 0 1 0 1 0 1 3 3 2 2 2 1 0 1 0 1 1 0 0 1 1 2 1 2 0 1 3 1 2 1 1 0 1 1 3 3 0 0 1 2 0 2 1 2 0 1 1 0 1 3 0 1 2 1 2 2 1 1 1 1 3 2 3 3 1 1 0 1 1 1 0 0 2 2 1 1 1 1 1 2 2 2 1 2 3 2 2 0 3 2 1 2 0 1 2 3 3 2 1 0 2 1 2 1 3 2 2 0 0 3 2 2 0 1 2 2 1 2 3 1 0 1 3 1 1 1 4 3 1 0 2 0 2 2 2 1 1 1 0 4 2 1 2 2 4 1 2 0 1 0 0 1 2 1 2 2 1 1 3 1 0 2 1 1 1 0 2 2 3 0 1 0 2 0 1 1 2 0 0 1 2 2 2 2 3 4 1 3 1 0 2 1 2 0 2 2 0 3 1 2 0 1 1 1 1 2 2 2 2 1 2 1 2 0 1 1 0 1 1 1 2 0 2 1 3 0 1 2 2 1 0 0 2 2 2 1 1 0 0 3 1 3 2 0 4 2 1 0 2 1 1 1 2 2 3 3 4 1 3 1 0 2 1 1 3 0 0 3 2 0 1 1 4 1 0 1 1 1 1 0 0 0 2 3 2 0 0 3 1 0 2 1 1 3 0 1 1 0 1 1 0 3 0 1 2 0 2 2 1 1 1 2 1 0 1 0 0 3 3 1 2 1 1 3 1 0 2 1 2 0 4 1 2 2 0 2 0 1 4 1 1 0 2 0 2 2 2 1 0 3 2 1 2 1 2 2 1 1 2 1 1 0 4 3 2 2 1 1 0 3 1 2 1 1 2 2 3 0 2 3 1 1 0 2 1 1 1 2 1 2 1 1 2 0 4 0 3 2 0 2 0 0 1 1 2 2 1 0 1 2 2 2 0 1 0 0 2 0 1 1 1 0 2 4 1 0 0 1 2 2 1 1 0 1 1 0 1 2 0 1 1 1 1 2 1 1 2 1 1 2 1 2 1 1 1 0 1 1 1 2 2 2 1 3 2 1 2 0 2 2 0 2 1 1 2 1 2 0 2 0 1 1 1 0 2 0 0 2 1 1 0 1 2 0 2 2 0 1 0 3 0 2 2 2 1 3 1 0 0 1 1 0 0 2 2 2 1 2 2 2 2 3 0 1 0 1 2 0 0 1 1 1 0 1 2 2 1 3 2 4 1 1 3 2 4 1 0 1 0 2 3 3 1 1 2 1 1 1 3 2 1 3 2 0 1 1 1 2 1 0 0 2 2 1 3 2 1 1 1 2 0 1 1 1 1 1 1 1 2 1 3 1 1 0 2 0 0 3 3 1 0 1 0 0 2 1 1 2 0 2 2 0 0 1 2 2 1 1 1 1 1 1 3 0 1 2 2 2 1 0 2 0 2 1 0 1 0 1 1 0 1 1 2 2 3 1 1 1 1 0 2 1 2 1 2 1 2 0 2 2 1 2 2 1 2 2 2 3 1 0 1 1 2 2 1 0 1 0 1 0 3 2 1 0 0 0 0 0 2 1 1 2 2 1 0 1 1 3 2 2 2 2 0 2 1 1 2 0 1 1 0 2 2 3 1 1 1 2 1 1 1 1 2 1 2 1 2 3 1 2 1 0 3 0 0 2 4 1 2 1 0 1 2 1 1 5 1 1 2 3 1 2 1 3 2 0 1 1 1 1 1 0 0 1 2 2 3 3 2 1 1 2 1 0 0 1 1 1 1 1 2 1 2 3 1 1 3 0 1 2 1 2 1 0 1 2 1 0 2 1 1 2 2 1 2 1 1 1 0 1 0 2 2 1 1 3 1 2 1 0 2 0 1 1 1 1 2 0 0 1 1 0 2 0 2 0 0 2 3 1 1 1 1 0 1 0 0 3 2 0 2 1 1 0 1 3 1 2 1 1 3 1 2 0 1 2 2 2 1 2 0 0 1 2 2 0 2 3 1 3 1 2 2 2 1 1 1 0 1 3 0 1 1 2 4 1 3 2 2 1 0 1 1 0 0 0 1 2 3 0 3 1 1 2 1 1 1 3 1 2 2 2 1 0 1 1 1 3 0 0 0 2 2 3 1 1 2 2 1 1 1 1 1 0 0 1 1 1 1 3 2 1 1 1 3 0 2 1 1 3 1 1 1 0 0 1 2 1 1 1 1 0 1 1 1 1 0 3 2 3 2 3 0 2 0 2 2 1 1 1 2 1 2 2 1 1 1 2 1 1 1 2 1 2 0 2 0 0 0 1 4 1 1 1 2 2 2 0 2 1 2 2 4 2 1 2 3 1 1 1 1 1 3 2 2 2 2 1 1 2 1 0 1 2 1 1 1 0 0 2 2 0 0 2 4 2 1 1 2 3 0 0 3 0 1 2 1 0 1 1 0 0 1 1 0 1 1 0 1 2 1 4 3 0 1 0 1 1 2 3 1 2 2 2 2 0 0 3 1 1 0 1 3 0 1 1 1 2 1 0 1 1 2 1 0 2 1 1 1 2 2 1 1 3 1 0 1 3 0 2 1 1 0 3 1 1 2 3 2 0 0 1 0 2 1 2 1 2 2 3 1 1 1 0 1 1 1 0 0 2 1 1 2 0 1 0 2 1 3 0 1 1 1 1 3 1 0 2 1 2 2 1 2 1 1 3 0 1 0 1 1 2 0 1 2 3 1 1 1 1 0 3 2 0 1 3 0 1 1 0 1 1 1 0 1 0 0 1 0 1 0 2 2 3 0 3 0 1 0 0 1 2 1 1 0 0 1 0 1 2 3 1 2 1 2 0 1 1 1 0 2 3 0 1 1 3 3 1 0 2 1 3 1 0 0 2 1 0 1 2 2 0 2 2 0 1 1 2 0 2 2 1 1 1 0 4 4 1 1 1 0 1 0 1 1 2 1 2 0 1 0 1 0 2 0 2 0 1 2 3 1 1 0 0 1 1 2 2 2 2 1 0 1 0 3 3 1 2 1 1 2 2 1 1 3 2 3 1 2 0 0 2 2 2 2 2 0 0 0 3 1 1 2 1 2 2 2 2 1 1 3 0 2 1 1 2 1 0 1 3 2 2 1 2 3 0 3 2 0 1 1 2 0 1 3 0 3 2 2 2 1 2 3 1 3 1 3 2 1 1 0 1 1 0 4 0 1 1 1 0 2 2 2 2 1 2 2 0 1 0 0 2 1 2 0 1 2 2 1 1 3 1 0 0 1 1 1 2 0 4 1 3 1 0 2 1 2 2 1 2 1 2 1 1 1 1 2 3 1 1 0 1 2 2 1 1 1 2 0 1 2 2 5 0 1 1 1 3 0 1 2 2 1 0 2 0 2 2 0 2 4 1 3 1 2 6 1 2 2 0 0 1 1 1 1 1 2 2 3 1 1 3 2 4 0 1 2 1 2 0 0 3 0 0 2 2 2 2 2 1 0 1 2 2 2 3 2 0 0 2 2 2 0 1 2 0 3 0 1 0 2 1 0 5 0 1 2 1 1 2 2 1 1 2 1 1 2 2 0 0 3 4 2 1 1 1 2 0 1 1 4 2 1 1 2 1 2 2 0 2 1 2 1 1 0 1 2 4 0 2 1 1 1 1 0 1 0 1 1 2 2 2 1 0 2 1 3 0 1 0 1 2 1 1 2 2 1 0 2 0 3 0 2 0 2 1 2 2 0 1 1 1 0 0 0 2 2 2 3 1 0 0 1 1 2 0 1 0 1 0 0 1 2 1 1 3 1 1 1 1 1 0 0 0 2 0 3 2 1 1 1 1 2 2 1 0 0 2 2 1 4 2 1 0 0 1 1 1 1 2 1 1 0 1 4 1 0 1 0 1 3 1 1 3 2 1 2 2 2 1 2 2 3 1 2 2 1 1 1 2 0 2 3 3 1 0 0 0 0 3 1 0 1 0 1 0 1 3 1 0 2 2 1 1 2 0 2 0 2 0 0 2 0 1 1 1 0 1 3 0 2 2 3 2 2 2 1 0 1 1 0 0 0 0 1 2 2 3 4 2 1 0 2 1 1 1 1 0 2 2 2 1 1 1 3 3 2 0 2 1 3 2 0 0 1 3 2 3 2 2 2 1 3 3 0 2 2 1 1 1 3 2 1 4 3 3 1 0 0 0 1 2 0 0 2 0 1 1 0 2 2 0 1 1 2 1 1 1 1 1 1 2 1 1 0 1 1 1 0 2 2 1 0 1 2 0 1 0 1 2 1 3 2 4 0 2 1 1 2 2 2 2 1 1 0 1 2 2 0 4 1 1 3 1 2 0 1 1 1 1 1 2 0 2 2 1 0 2 1 1 2 1 1 1 2 1 3 2 1 3 0 1 0 0 0 3 3 0 0 1 2 0 2 0 1 2 1 3 0 2 1 0 0 3 2 0 0 0 2 1 1 2 3 0 1 1 2 0 2 0 0 1 1 2 1 2 1 1 1 0 1 1 1 2 1 2 0 0 1 3 1 1 1 3 0 1 5 0 1 1 2 0 0 1 1 2 2 1 3 4 1 1 1 2 4 3 0 0 2 1 2 0 1 1 2 1 0 1 1 2 1 0 2 0 2 1 1 2 0 0 3 1 1 2 1 0 1 2 1 2 2 0 2 1 0 0 3 3 0 0 2 0 0 1 2 0 1 0 2 0 2 1 1 1 2 0 0 1 2 1 2 1 2 2 2 2 2 0 1 1 0 1 1 1 0 1 0 2 1 2 1 1 0 0 1 3 1 0 1 0 2 0 2 0 0 1 0 1 3 1 0 2 2 0 2 1 1 1 0 1 0 1 2 1 0 0 4 3 1 2 3 1 1 1 2 2 0 0 2 3 2 1 3 0 2 1 0 0 0 1 1 1 1 1 0 2 0 2 1 0 1 1 2 1 1 1 1 0 2 1 1 0 2 1 2 2 0 2 0 3 1 0 2 2 2 0 0 1 1 0 4 0 3 0 3 1 0 2 1 1 2 3 0 1 0 2 2 0 2 2 1 2 1 1 2 0 2 1 1 1 3 2 0 2 2 1 2 3 0 1 0 1 1 2 1 1 1 2 2 3 2 0 1 2 1 4 1 1 1 1 3 1 1 2 1 3 0 2 0 0 0 3 1 2 2 1 3 0 1 1 0 0 1 1 2 1 1 2 2 2 4 2 2 0 0 2 2 1 1 2 1 1 2 1 2 2 1 2 0 1 0 3 2 2 2 2 1 2 2 1 1 1 0 1 1 1 0 1 2 2 1 0 1 4 2 0 1 0 0 0 1 4 1 1 0 3 1 1 1 1 2 2 1 0 0 0 1 2 0 2 2 0 1 0 2 3 2 1 0 1 2 0 2 0 2 0 3 3 2 1 2 2 1 1 1 1 1 1 3 0 2 2 3 0 3 0 2 0 1 4 2 0 1 0 5 2 0 2 1 0 4 1 0 1 0 1 3 1 3 1 1 2 1 1 2 1 1 1 2 3 4 2 1 1 0 2 2 2 2 3 0 0 2 2 2 3 2 1 0 1 4 2 1 0 0 0 2 1 1 1 1 1 1 1 0 1 0 2 1 1 1 1 1 2 1 2 1 3 1 1 1 0 1 0 3 0 1 2 1 1 2 2 2 1 0 1 2 0 1 1 1 2 0 1 0 2 2 2 1 2 0 2 2 2 1 1 2 1 1 1 0 0 2 2 3 1 1 2 1 2 1 1 1 1 1 0 0 1 1 2 0 1 1 1 3 1 0 0 2 1 1 1 3 2 3 0 2 0 0 1 2 1 1 2 1 3 0 0 2 1 3 1 2 0 0 2 0 2 0 3 0 3 1 1 4 2 1 2 3 3 1 2 0 3 0 1 1 3 2 1 0 2 1 4 3 4 2 1 0 1 1 1 2 1 3 2 1 1 3 1 0 1 0 1 3 2 1 0 0 0 1 1 0 1 0 1 0 2 0 0 1 1 1 3 0 1 1 0 2 1 3 3 0 1 1 1 1 1 0 0 1 3 1 1 1 2 1 1 0 1 2 0 3 2 0 1 1 2 2 2 1 0 1 1 2 2 1 1 0 0 1 0 2 3 1 1 0 1 3 2 1 1 2 1 0 2 3 2 2 0 2 2 2 2 1 1 1 2 3 1 2 1 3 1 1 1 1 2 0 2 3 0 0 0 1 1 2 1 3 1 1 0 1 1 1 2 4 1 1 2 1 3 1 2 3 0 2 2 1 1 2 2 1 2 1 2 2 1 1 0 2 4 2 2 3 1 2 1 2 2 0 1 1 1 1 0 1 3 3 0 2 1 0 2 0 1 2 2 2 1 3 2 3 0 1 1 0 3 1 0 1 1 0 2 2 1 1 0 1 1 0 1 0 1 0 1 2 2 1 1 1 0 1 1 3 2 2 2 2 1 1 2 1 1 0 1 1 1 1 1 2 2 1 2 1 1 0 2 0 0 2 2 1 1 3 2 1 1 2 1 2 2 0 1 2 1 1 0 1 2 0 2 0 3 0 1 0 2 3 1 0 2 1 0 0 1 1 2 2 1 2 1 1 4 3 1 1 1 1 1 1 1 3 1 1 3 2 2 4 0 1 1 1 0 2 1 1 1 0 3 1 1 2 0 1 2 1 4 3 2 2 2 1 2 1 1 2 1 0 0 3 1 3 1 0 2 1 2 1 0 2 1 2 1 0 2 2 1 0 1 1 2 3 1 3 1 0 1 1 2 0 0 0 1 1 1 0 1 0 2 0 0 2 1 0 2 2 0 0 0 3 1 2 1 1 0 1 2 0 0 0 1 0 1 2 1 0 2 0 0 0 0 0 3 2 0 0 1 2 3 3 2 4 2 0 2 1 2 1 0 2 2 1 0 1 2 2 2 0 2 2 0 2 2 0 1 2 0 2 2 1 2 2 3 2 0 2 2 1 2 1 0 1 1 1 0 0 2 2 2 2 4 1 1 2 2 1 0 1 0 1 2 1 0 2 3 2 0 2 1 0 3 2 2 0 1 0 0 1 1 2 1 0 1 2 0 0 2 1 1 0 1 0 3 1 1 4 1 0 2 0 1 1 4 1 1 3 1 1 2 1 4 1 1 1 1 0 1 1 1 1 2 1 1 1 3 1 2 1 1 0 0 2 2 0 3 1 4 0 1 1 2 0 2 1 3 0 2 0 0 0 2 2 2 0 0 1 1 0 0 1 1 1 1 1 2 0 3 1 2 1 1 3 3 3 3 2 2 2 0 1 2 1 2 2 0 4 2 2 1 2 0 1 1 2 1 2 3 3 3 3 2 2 1 1 1 0 1 1 3 1 1 2 1 0 1 0 2 1 1 1 1 0 2 2 0 1 3 1 2 1 2 1 2 1 2 2 1 2 2 2 1 3 2 1 0 4 1 2 2 3 1 1 2 2 1 0 1 1 2 1 3 0 1 3 3 2 1 2 3 1 2 1 3 1 0 2 3 1 0 2 4 0 2 2 1 4 1 1 3 2 3 2 0 1 3 2 1 1 1 4 1 2 0 0 3 0 0 2 1 2 2 0 1 0 2 1 1 2 1 2 0 2 2 3 1 1 1 1 1 3 2 2 1 2 2 1 1 1 1 0 1 1 1 1 0 2 2 2 2 2 2 1 2 1 0 1 3 4 2 0 2 0 1 1 2 1 1 1 2 3 2 0 2 3 3 3 2 1 2 1 2 2 1 0 1 0 0 2 1 0 3 1 0 3 0 2 2 1 0 1 2 1 0 0 1 1 1 2 1 2 1 0 2 0 2 2 2 2 1 2 3 2 1 2 2 0 1 2 1 0 1 1 2 0 1 2 1 1 0 1 1 2 2 2 2 1 2 0 1 1 2 3 4 2 1 0 2 0 1 1 2 0 2 0 2 1 2 3 0 1 2 0 0 2 3 2 1 3 1 2 1 0 1 2 2 2 0 0 1 0 1 2 1 0 2 0 3 3 1 4 2 3 0 3 2 1 0 0 0 0 1 0 5 1 2 1 3 1 1 1 0 3 0 0 1 1 0 1 1 0 0 1 2 1 2 1 1 3 0 2 1 1 0 3 0 1 2 2 3 2 1 1 1 1 3 1 2 3 1 2 1 0 0 3 2 1 1 2 2 2 2 2 1 0 2 0 2 0 1 4 0 1 3 3 1 0 1 0 3 1 1 1 0 1 3 1 1 1 1 1 0 0 0 2 0 1 1 3 2 1 0 3 2 2 2 1 0 2 0 1 1 2 0 1 3 1 2 1 2 2 2 1 1 2 1 2 1 2 1 1 3 1 3 1 2 0 0 3 1 3 2 1 2 2 2 2 1 1 1 0 0 3 1 3 1 1 1 1 0 2 0 0 0 1 1 1 1 3 1 2 2 1 1 0 0 1 1 1 2 1 2 1 1 0 2 0 4 2 0 1 1 2 1 1 2 1 3 1 1 0 2 1 0 1 3 1 1 3 1 3 3 0 0 1 2 1 0 1 1 1 2 0 4 0 5 2 2 1 0 4 1 0 1 0 1 0 1 0 2 2 1 1 1 1 1 2 0 2 0 3 1 0 1 3 1 1 0 0 1 0 1 1 1 1 3 1 1 0 1 1 2 0 1 1 3 0 1 0 2 1 1 0 1 2 0 2 2 0 2 0 1 2 1 3 1 1 2 1 3 2 1 2 1 1 0 2 1 2 2 0 2 0 1 0 1 2 2 0 1 1 3 3 2 1 1 2 2 3 2 0 1 2 2 2 1 2 1 1 3 1 1 0 1 0 0 0 1 1 1 2 0 1 1 1 0 2 1 2 1 1 2 1 1 1 1 3 0 3 0 2 2 1 2 0 0 1 2 1 2 1 2 3 2 3 0 2 2 1 1 0 1 2 1 0 2 2 1 2 1 1 1 1 1 0 2 0 0 0 3 2 2 1 1 1 1 0 1 1 2 1 0 2 1 2 1 1 2 0 1 1 2 1 3 1 0 1 1 2 1 3 2 1 2 2 1 0 4 1 1 1 0 1 1 2 0 0 0 2 1 0 0 2 0 1 1 1 1 0 2 3 1 0 2 1 3 1 2 1 2 1 2 0 2 0 1 2 0 0 0 2 1 1 0 1 1 2 2 1 1 1 2 1 0 2 0 1 2 1 2 2 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 2 4 0 3 2 2 0 0 1 1 1 1 1 0 3 1 2 2 2 1 3 0 0 1 2 1 2 3 2 1 2 0 3 1 1 4 2 1 1 1 1 3 3 1 0 3 1 0 1 1 1 0 1 1 2 2 2 1 2 2 2 1 2 1 2 1 2 4 3 2 1 3 1 1 2 2 1 0 2 1 1 2 2 3 0 0 1 1 1 2 3 1 1 0 0 0 1 1 3 2 2 2 0 0 1 2 1 2 2 1 2 1 2 3 2 1 0 0 1 0 2 1 1 0 0 2 0 1 1 2 1 0 1 1 4 0 3 0 2 1 2 1 2 2 3 0 2 3 1 1 3 1 0 2 1 2 1 0 1 2 0 1 4 2 2 1 2 0 2 0 4 3 3 1 1 0 0 2 0 1 0 2 1 2 0 2 1 1 1 0 1 2 0 1 1 2 1 1 3 2 0 1 3 1 1 0 2 1 0 2 1 0 1 1 0 1 1 0 1 2 2 3 1 1 0 0 0 2 0 2 1 1 2 0 2 0 2 1 2 2 1 1 1 0 1 1 1 3 1 2 0 0 1 2 0 0 1 1 1 2 1 1 1 1 2 2 1 1 1 1 2 3 2 1 3 2 3 1 1 1 0 1 4 1 1 1 1 1 1 3 1 1 1 0 1 2 1 0 1 0 1 1 3 1 1 1 3 0 3 2 1 1 2 1 1 0 1 2 2 0 1 2 2 0 3 0 3 0 2 2 0 0 3 2 1 0 1 1 2 2 1 1 1 0 1 1 0 1 1 1 2 3 1 3 1 1 1 3 2 2 1 1 2 1 1 0 1 3 1 3 0 2 3 2 1 2 2 2 2 1 2 2 1 1 3 1 2 1 1 1 0 1 1 2 0 0 2 1 2 2 0 3 1 2 2 2 1 2 1 1 1 2 0 0 3 0 5 0 1 2 1 2 3 0 2 1 0 2 1 0 0 0 2 1 1 0 1 3 2 0 1 0 2 2 2 1 1 3 0 0 1 3 1 1 2 2 2 0 3 2 3 1 1 1 1 2 2 1 3 1 0 0 1 1 3 0 2 1 0 2 1 2 1 0 3 0 0 2 2 4 1 1 3 1 2 1 2 3 2 3 1 1 0 0 0 2 2 1 1 1 0 2 0 0 1 2 0 2 2 2 0 0 2 2 2 1 2 3 1 1 1 1 1 2 1 1 0 0 0 2 1 1 1 1 1 1 3 0 1 2 1 0 0 1 1 1 1 1 1 2 2 1 1 0 1 1 1 1 1 2 1 3 2 2 0 2 3 3 2 2 2 2 2 1 0 1 3 1 0 1 2 2 0 2 2 4 1 0 0 2 2 1 1 1 3 3 1 1 1 1 5 2 1 2 3 0 1 2 2 2 2 2 1 2 1 1 0 0 3 2 1 0 1 1 1 1 1 1 1 1 3 1 1 1 1 1 1 1 2 0 2 2 0 1 0 1 2 1 1 0 2 1 2 1 3 2 0 1 0 0 0 0 3 1 2 0 1 2 2 2 2 1 1 0 1 1 1 1 2 1 1 2 1 2 0 1 2 0 0 2 1 2 0 2 0 1 3 1 0 0 2 1 1 2 0 0 2 3 1 1 1 2 3 2 2 2 2 0 0 1 0 2 0 2 1 1 4 2 0 1 1 1 0 0 3 0 1 1 1 2 2 1 1 1 1 1 0 2 1 1 1 3 1 1 1 1 1 1 2 1 3 1 2 2 1 0 1 0 1 1 1 1 2 2 0 1 1 0 2 1 2 1 2 1 5 2 3 0 0 2 1 0 2 0 2 1 0 0 4 1 2 1 1 2 1 2 1 4 0 2 3 2 1 1 0 1 2 3 0 2 1 0 1 2 0 2 2 0 1 3 1 2 0 2 1 1 1 0 1 2 1 2 2 0 1 2 1 3 3 0 2 2 1 3 1 0 2 1 2 2 0 1 2 0 2 1 0 2 2 2 0 2 0 1 1 2 2 2 1 1 2 1 1 2 1 3 3 0 1 2 1 1 1 1 3 2 0 2 1 4 1 0 2 1 1 0 4 2 0 2 3 2 1 0 1 3 0 1 2 2 0 2 0 2 1 2 2 1 2 1 0 2 0 1 3 3 0 0 1 2 1 3 1 1 2 2 1 3 1 1 1 1 2 1 5 1 2 3 0 2 1 3 0 0 1 1 3 2 1 2 2 1 1 2 2 2 2 0 1 2 1 0 2 1 1 1 3 1 0 1 3 0 0 2 2 0 0 1 1 1 0 1 2 0 1 3 1 0 1 0 1 0 0 0 1 1 0 2 0 2 1 1 1 1 1 1 0 2 0 3 1 1 2 2 0 2 1 1 4 1 1 0 0 0 2 1 1 5 2 3 2 1 1 2 2 5 1 1 3 2 2 0 1 1 1 3 0 0 1 2 3 0 2 2 1 1 1 0 1 0 0 1 1 2 0 0 1 2 2 4 0 1 2 1 0 0 1 2 1 3 1 1 3 1 2 2 2 0 0 0 3 4 1 1 2 2 2 2 1 2 2 2 2 2 2 3 2 1 1 0 0 1 1 2 1 1 2 2 0 1 1 0 3 1 0 1 2 1 1 2 1 1 2 1 1 2 1 2 0 2 0 1 1 0 2 1 2 2 0 0 1 0 0 0 3 1 0 1 1 2 2 1 1 2 1 2 0 2 0 2 1 1 1 0 1 1 2 1 1 1 1 2 2 1 0 0 3 2 0 1 0 2 1 3 1 0 1 1 1 3 2 1 0 1 0 1 0 0 2 0 3 2 3 1 2 1 1 4 2 2 2 2 2 0 1 3 1 2 1 1 1 1 1 1 3 2 1 0 1 0 3 3 1 3 3 0 0 0 0 3 0 1 1 0 0 1 1 2 2 4 3 3 4 1 0 0 1 1 3 1 1 2 2 2 0 1 1 1 0 3 2 1 2 2 2 2 3 0 1 1 1 3 1 1 2 1 2 0 1 2 3 1 2 1 0 1 2 2 0 1 1 2 1 3 1 1 1 1 2 2 2 0 2 1 1 2 3 2 3 0 1 1 3 2 4 0 2 2 1 0 0 2 2 2 0 0 3 0 0 0 2 2 0 2 0 1 1 1 2 2 1 1 2 0 0 1 1 0 0 1 3 1 2 1 2 1 2 1 2 0 0 0 3 2 1 2 1 0 3 2 0 1 3 3 2 1 0 2 1 1 2 1 2 1 1 0 1 2 1 1 0 2 0 2 0 3 2 2 0 2 1 0 3 3 0 0 1 0 1 1 3 0 2 0 2 1 0 0 2 1 1 1 2 1 0 2 2 0 0 0 2 0 0 2 3 3 3 1 1 0 0 2 2 1 1 2 2 2 3 1 1 1 0 1 0 1 1 1 2 0 1 2 1 2 0 0 2 1 3 1 0 2 1 0 3 1 0 2 1 1 2 4 3 2 0 4 0 0 0 3 1 2 1 1 1 1 1 2 2 3 2 4 3 4 2 1 4 1 1 4 0 1 1 2 1 0 0 1 1 2 1 1 2 2 0 2 1 1 2 2 0 1 2 1 0 1 1 3 1 0 0 0 1 1 1 2 1 0 1 1 1 1 0 1 1 2 0 0 1 1 0 1 1 2 2 3 0 2 2 1 1 2 0 0 1 1 0 0 1 2 2 2 0 0 1 1 0 1 2 3 1 1 0 3 2 1 0 1 3 1 0 2 0 2 1 2 1 2 1 2 1 0 1 2 2 2 1 1 2 1 2 1 1 0 2 1 0 1 3 2 0 0 0 2 1 4 0 2 0 2 3 3 2 4 1 1 0 0 1 1 2 3 1 2 0 1 1 1 2 1 2 0 2 1 0 2 2 2 1 1 1 0 2 1 0 0 2 0 2 2 2 2 2 1 3 1 2 1 2 0 0 1 2 2 0 1 2 0 3 0 1 1 2 2 1 2 2 0 2 0 0 3 2 2 3 1 0 0 1 1 3 0 2 2 1 2 2 0 2 1 3 0 2 0 1 2 1 1 1 1 1 1 1 2 1 1 3 3 0 1 3 1 0 2 2 2 0 1 0 1 0 2 2 0 1 0 2 1 2 3 1 0 0 0 1 2 2 0 2 1 1 1 2 1 2 2 2 2 0 2 0 0 0 2 2 2 2 0 0 2 3 2 2 2 2 1 1 2 1 0 2 0 3 2 1 2 3 1 0 2 0 0 1 2 2 2 6 3 0 0 1 2 2 0 0 2 2 2 0 1 2 1 0 1 0 1 1 0 0 2 1 1 1 1 1 2 0 1 0 1 3 1 0 0 0 0 2 1 1 1 2 3 0 3 2 4 2 2 1 1 1 2 3 1 2 1 1 0 1 0 2 2 3 1 1 0 2 2 3 0 2 0 1 0 1 1 2 0 2 0 3 3 1 1 2 3 0 1 1 1 2 2 1 1 0 1 1 1 2 1 1 1 1 1 0 0 0 2 1 0 0 0 2 0 0 1 0 0 0 0 3 0 0 0 3 2 2 2 1 1 2 1 3 1 3 0 0 3 3 2 3 1 3 1 2 0 2 1 1 2 1 0 2 3 0 1 1 2 4 2 2 3 1 0 2 1 2 2 1 2 1 2 3 2 2 1 1 1 2 3 2 2 1 2 0 0 1 0 2 0 2 1 1 2 2 1 1 2 2 2 3 3 0 1 3 4 1 1 0 0 0 1 3 0 1 1 2 1 1 0 1 2 1 2 1 0 0 1 1 1 1 3 1 0 2 1 2 2 0 3 1 0 0 1 2 0 2 0 3 2 0 1 2 1 1 1 1 0 1 1 0 1 0 1 0 2 1 2 1 2 1 3 2 2 1 0 3 1 2 1 2 2 1 1 1 1 0 0 0 1 0 1 2 0 1 1 0 1 1 1 2 1 0 1 2 1 1 1 1 0 1 0 4 0 2 1 1 1 1 3 3 1 1 2 1 2 1 0 1 1 0 2 2 0 1 1 2 2 0 0 2 2 0 1 0 2 2 1 1 2 1 2 2 0 0 1 1 1 0 2 0 0 0 2 2 1 2 0 3 0 1 2 1 0 1 0 2 2 0 2 2 1 2 1 0 0 3 2 1 1 3 1 3 1 2 1 3 3 2 3 0 1 1 1 4 1 2 0 0 1 1 2 1 0 2 3 0 1 0 1 2 1 0 2 0 1 1 3 0 4 2 1 0 2 0 2 2 0 2 2 0 0 3 2 7 0 1 1 1 1 2 1 0 3 2 2 1 1 0 0 0 1 1 2 1 1 0 0 0 2 4 0 0 1 1 4 1 1 1 2 0 3 2 0 1 2 1 1 1 1 0 2 1 2 3 1 1 2 1 2 3 2 1 3 0 0 2 2 1 1 0 1 2 0 2 3 2 3 1 1 2 3 3 0 3 2 2 2 1 2 1 0 2 1 0 0 2 0 1 0 2 1 1 0 1 0 2 3 1 1 0 2 1 0 3 1 3 0 2 1 1 3 1 1 1 1 1 3 1 1 0 2 1 2 2 2 1 1 1 0 1 2 2 1 2 1 0 0 0 4 1 2 0 0 0 1 0 1 3 2 0 1 3 0 2 0 1 3 2 1 2 1 1 1 2 1 2 0 1 3 1 1 1 1 3 1 1 1 0 0 1 1 2 2 1 1 3 2 0 2 2 1 0 1 2 0 0 1 0 1 1 1 1 1 2 1 1 1 2 0 0 2 2 2 1 0 1 3 2 1 3 3 1 3 1 1 0 2 2 1 0 0 2 2 0 1 2 0 0 1 3 1 3 0 1 2 2 1 2 0 1 1 2 3 0 2 1 2 0 1 1 1 1 1 0 3 1 0 0 0 2 1 0 1 1 2 0 1 4 1 0 0 1 1 2 1 3 0 0 2 1 2 0 1 0 3 3 0 0 1 1 1 1 0 0 2 1 0 1 0 0 0 2 0 3 4 1 3 3 0 1 2 1 2 1 0 1 2 1 1 0 1 0 0 0 0 3 1 1 2 2 0 0 2 1 2 4 2 0 0 0 1 1 1 1 4 1 1 2 1 2 0 1 0 1 2 2 0 1 2 2 0 1 1 0 1 0 2 0 3 1 1 1 3 1 3 0 2 1 2 2 2 2 2 1 0 0 1 0 2 0 1 3 0 0 3 0 1 1 1 2 1 1 1 1 1 1 1 3 3 1 1 4 1 4 1 1 5 0 1 0 1 2 2 0 1 0 0 2 1 0 1 1 0 1 0 1 2 2 1 1 0 4 0 0 1 2 1 1 3 2 2 0 1 1 2 2 0 3 2 2 2 3 1 2 0 2 1 0 1 2 3 0 3 0 1 1 1 0 1 0 4 1 2 2 4 4 2 1 1 1 1 2 2 1 0 0 1 1 1 1 4 0 2 3 1 2 1 2 1 2 1 1 1 1 0 2 2 1 0 0 1 3 2 0 1 3 1 3 2 2 2 1 0 1 0 1 0 2 2 0 0 0 2 2 1 0 2 2 1 2 2 1 2 2 1 1 2 2 1 1 1 0 1 1 3 0 1 0 0 1 3 1 0 1 1 1 3 1 0 2 0 1 0 3 1 1 2 0 1 1 0 2 0 2 0 3 0 0 1 2 1 1 1 1 1 2 2 1 1 1 2 0 0 3 3 0 3 1 2 1 2 1 1 2 3 3 0 1 2 2 1 1 2 1 1 2 1 1 0 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 2 2 1 2 1 2 3 0 1 1 0 2 2 0 2 1 0 0 1 0 0 2 1 2 2 1 2 1 0 1 1 2 1 2 2 2 1 0 2 2 1 1 1 2 0 0 2 2 2 0 2 1 1 2 1 1 0 1 1 1 1 0 1 4 2 1 0 2 1 0 0 2 1 2 1 1 2 0 4 3 2 2 2 1 1 1 0 0 2 2 1 3 2 2 0 1 0 3 1 0 2 4 0 2 0 1 1 1 3 0 2 1 0 1 0 2 0 3 2 0 1 1 2 1 0 2 2 1 2 2 0 1 2 2 0 2 1 1 0 3 3 2 1 2 3 0 2 2 2 4 1 0 2 2 1 0 2 3 2 2 2 1 2 0 2 0 0 1 4 0 1 2 1 1 2 3 1 1 4 1 0 1 0 3 0 1 2 2 2 1 0 1 0 2 4 2 1 1 3 1 2 0 0 0 0 2 1 0 0 0 0 1 0 1 1 2 2 0 0 2 2 0 0 1 1 2 1 0 2 3 1 1 1 1 2 2 0 0 2 1 0 3 1 2 0 0 2 0 3 1 3 0 2 0 0 3 1 0 1 1 1 1 2 2 2 1 0 2 0 1 2 2 2 0</t>
+  </si>
+  <si>
+    <t>GAM(0.49192940692626513, -6.740338444476936e-29, 0.5253683764168507)</t>
+  </si>
+  <si>
+    <t>1 1 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 3 1 2 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 1 0 2 0 2 1 1 1 0 0 1 0 2 0 0 0 2 0 1 2 1 2 0 0 0 1 1 1 2 1 0 0 1 0 1 0 0 0 0 3 0 2 0 0 1 1 1 1 2 1 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 1 0 0 1 1 2 0 0 1 0 0 1 2 1 1 0 0 0 0 2 0 2 0 2 0 1 0 0 0 0 0 2 0 1 0 0 1 2 0 0 0 2 2 0 0 0 0 0 1 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 1 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 3 0 0 1 1 0 0 1 0 0 3 1 2 0 0 0 1 0 0 0 0 0 1 0 1 2 0 1 1 2 0 0 1 1 1 1 0 0 0 2 0 2 1 0 1 0 0 0 0 2 0 1 0 1 0 1 1 1 1 0 1 0 0 2 0 0 0 0 1 0 0 0 1 1 1 1 1 1 0 2 0 1 0 0 3 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 2 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 1 0 1 0 0 2 0 2 1 0 1 0 0 2 0 1 0 0 1 2 1 0 0 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 2 0 1 0 3 1 2 0 2 0 1 0 0 0 1 2 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 1 1 1 1 0 1 2 1 0 1 5 1 1 2 1 0 0 0 0 0 1 2 0 0 1 1 0 0 2 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 2 2 0 0 0 0 0 0 0 0 0 0 2 1 1 3 0 1 0 1 1 0 0 0 0 1 1 2 0 2 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 2 1 0 0 2 1 1 1 2 2 2 0 0 1 2 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 2 0 0 1 0 1 2 2 1 1 1 0 2 0 0 0 1 1 0 0 2 0 0 1 0 0 2 1 1 0 2 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 2 1 1 1 0 0 1 0 2 0 0 0 0 1 1 0 0 3 0 0 1 0 0 2 1 1 1 0 0 0 0 2 1 0 0 2 0 0 0 1 0 1 1 0 0 1 0 3 0 0 1 1 1 0 1 0 0 0 0 0 1 2 1 0 0 0 0 1 0 2 0 0 1 1 0 1 1 1 0 0 2 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 2 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 0 1 1 0 0 0 0 2 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 4 1 0 0 0 0 0 1 1 0 1 1 1 1 0 3 0 0 0 2 0 0 0 1 1 3 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 2 1 3 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 2 1 0 1 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 1 1 2 1 0 1 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 5 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 1 1 1 0 0 2 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 1 3 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 2 1 0 0 0 0 2 3 1 2 0 0 1 1 0 1 2 0 0 1 0 0 3 2 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 3 1 1 0 1 1 0 0 1 0 0 0 1 2 0 0 0 1 0 0 1 1 0 1 1 0 2 3 4 0 1 1 0 2 0 0 1 1 2 2 0 0 0 0 1 1 1 1 1 0 2 2 0 1 1 0 1 0 2 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 3 0 0 0 0 0 0 0 1 1 0 2 1 4 0 0 1 0 2 1 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 2 2 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 2 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 1 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 1 3 1 0 0 0 1 1 0 1 0 2 0 1 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 1 0 1 2 1 2 0 0 2 0 1 1 1 1 0 0 0 1 1 1 0 0 0 1 2 1 0 0 0 0 1 1 0 1 0 2 1 1 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 3 1 1 0 1 0 0 1 0 0 0 0 0 1 2 1 0 1 0 1 2 0 0 1 0 1 1 0 2 0 1 1 1 0 0 0 1 2 1 0 0 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 2 0 0 2 1 2 0 0 0 2 2 1 0 0 0 2 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 1 2 0 0 0 1 1 0 1 2 0 1 2 0 0 0 0 2 0 0 0 2 1 1 0 1 0 0 0 1 2 0 0 0 2 0 1 0 0 0 0 1 2 2 0 2 1 2 2 0 0 0 1 1 2 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 1 0 1 2 0 0 0 1 0 0 1 0 2 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 1 2 0 1 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 2 0 0 0 0 2 1 0 0 0 0 0 1 1 1 0 1 1 1 1 2 0 0 0 0 0 1 0 0 0 1 0 0 1 2 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 1 0 2 0 1 0 0 0 0 1 2 0 0 2 1 1 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 1 1 1 0 1 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 2 1 0 0 1 0 2 0 0 0 2 0 0 0 1 0 1 1 0 0 1 2 0 0 1 1 1 4 2 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 2 0 1 1 1 0 0 1 0 2 0 0 0 1 1 0 1 1 1 2 0 1 0 1 0 5 1 2 0 0 2 0 1 1 1 1 1 0 1 0 0 0 0 1 1 0 2 1 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 4 1 0 1 1 1 1 0 0 0 1 0 0 0 2 0 2 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 2 1 0 1 0 0 0 0 2 0 5 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 1 0 2 1 0 2 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 2 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 3 1 1 0 0 0 0 0 0 1 0 2 0 0 1 2 1 3 3 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 2 1 0 0 0 1 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 2 1 2 0 0 1 0 0 1 0 2 0 0 3 1 1 0 1 3 0 2 0 2 2 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 1 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 1 2 2 0 1 0 0 0 3 1 1 1 2 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 1 2 0 1 1 0 2 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 2 0 2 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 3 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 2 1 0 1 0 1 0 1 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 2 1 1 0 0 0 3 0 0 0 1 3 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 3 2 1 2 0 1 1 0 0 0 1 2 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 1 2 2 1 0 0 0 1 0 3 0 2 2 0 0 1 0 1 2 0 0 0 2 0 0 0 2 1 2 1 1 0 0 1 2 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 2 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 3 0 0 1 0 0 0 0 0 1 0 1 0 2 0 1 1 0 1 1 2 1 0 0 1 1 0 1 0 0 2 0 2 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 2 2 0 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 1 1 0 4 0 0 1 3 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 3 2 0 0 0 0 0 0 0 1 0 0 2 3 0 1 3 0 1 3 0 0 0 1 0 1 0 0 0 3 0 0 1 0 1 1 0 0 0 3 1 0 3 0 0 1 0 0 0 0 1 2 3 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 2 1 0 1 0 2 2 0 2 0 2 0 0 1 1 1 0 1 1 0 0 0 0 3 1 1 0 0 1 0 1 1 0 1 1 1 1 2 0 0 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 3 1 0 1 0 0 1 0 2 1 1 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 2 2 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 2 2 0 1 1 0 1 1 1 0 1 0 1 0 0 1 2 0 0 1 1 2 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 2 0 0 1 2 0 0 1 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 3 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 2 0 1 2 0 1 2 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 2 0 1 1 1 1 0 1 0 1 0 1 1 1 0 0 1 2 0 0 1 1 0 0 0 2 0 0 1 0 1 1 3 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 2 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 1 1 1 2 1 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 1 0 1 0 1 0 2 1 1 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 2 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 2 0 1 1 0 0 1 2 1 0 2 0 1 1 1 2 1 1 1 1 0 0 0 3 1 0 2 1 0 0 2 1 2 0 0 0 1 0 0 3 0 0 0 1 0 2 0 1 0 0 1 0 0 3 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 1 1 2 1 0 0 2 0 0 0 1 0 0 0 1 2 0 0 0 1 1 1 0 2 0 0 0 2 1 1 2 0 0 1 0 0 0 2 3 0 1 0 0 0 0 0 0 1 1 0 0 0 1 2 1 0 2 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 2 0 2 2 2 0 0 1 0 0 2 2 0 1 0 2 0 0 0 0 1 1 1 2 2 1 2 0 2 0 0 1 0 0 0 0 1 0 1 0 1 0 2 1 0 0 0 1 1 0 0 2 1 0 0 1 1 0 0 1 0 1 1 1 1 0 2 0 0 0 1 1 0 1 0 0 1 1 0 2 1 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 1 0 2 2 0 0 1 0 1 0 0 1 4 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 3 0 1 1 0 0 0 2 2 0 1 1 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 2 0 0 0 1 2 0 1 0 0 3 0 1 0 0 0 0 0 0 2 1 0 0 0 2 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 2 1 2 2 0 0 0 1 0 0 0 1 2 0 0 2 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 2 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 2 1 2 0 0 3 0 2 0 0 1 0 2 1 2 1 2 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 2 0 0 0 0 0 1 0 1 0 2 1 0 2 2 0 0 2 0 0 2 1 1 1 1 1 0 1 1 1 1 1 0 2 2 0 0 2 2 1 1 0 0 1 0 3 0 0 0 0 2 0 0 0 0 1 1 1 1 1 0 1 0 0 1 0 3 0 1 0 1 0 1 1 0 2 0 1 2 1 0 0 0 0 0 1 2 0 0 0 1 0 1 1 0 0 1 0 1 0 2 2 0 0 1 1 1 2 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 3 1 0 0 3 2 0 2 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 1 2 1 0 0 2 0 0 0 0 3 2 0 1 0 0 0 0 2 1 0 1 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 2 1 1 0 0 1 1 1 0 1 2 1 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 0 2 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 2 0 1 1 0 3 0 0 1 0 1 2 1 1 0 0 1 2 1 0 2 0 0 0 0 0 1 1 1 1 1 1 0 2 1 0 1 0 1 0 2 0 0 0 0 0 2 0 1 0 1 0 0 3 0 3 0 0 0 0 2 0 0 1 2 1 2 1 0 1 0 0 0 1 0 0 0 2 0 0 0 2 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 1 2 2 0 0 1 0 0 2 1 0 0 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 1 0 0 2 2 1 2 2 1 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 1 0 1 2 0 1 2 0 0 0 0 1 2 0 1 1 1 0 0 2 2 0 0 0 1 0 1 1 1 1 1 2 0 0 1 0 0 0 0 1 0 1 0 1 2 1 0 0 1 0 1 0 1 1 2 0 0 2 0 0 1 1 0 0 0 0 0 1 0 3 1 1 0 0 1 2 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 2 0 1 1 1 0 2 1 1 0 2 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 0 0 0 0 0 1 2 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 2 1 1 1 1 0 0 0 0 0 0 2 0 0 2 0 0 0 1 1 1 0 2 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 2 2 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 2 0 1 0 2 1 0 0 1 0 1 0 1 1 0 0 0 3 0 2 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 2 0 1 0 0 0 0 1 1 1 0 4 2 0 1 1 0 1 0 2 0 1 1 0 0 0 0 1 0 0 0 3 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 1 1 1 1 1 1 0 1 2 0 1 1 0 1 0 0 0 0 1 1 1 0 3 0 0 1 0 1 1 2 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 2 0 1 1 0 0 1 0 0 0 2 0 0 1 1 0 1 0 0 0 0 1 1 2 2 2 0 1 0 0 0 1 1 1 1 0 1 1 1 2 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 2 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 0 0 2 0 1 1 0 2 0 0 1 0 0 1 0 0 1 0 0 0 2 0 1 0 0 1 0 1 2 0 0 0 2 0 0 1 0 1 0 0 1 0 1 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 4 1 0 0 2 0 2 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 3 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 2 1 2 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 2 1 0 1 2 0 0 0 0 0 0 1 1 1 2 0 0 2 0 0 0 1 2 0 0 3 0 0 1 0 0 0 2 0 1 0 0 1 2 2 2 0 1 0 0 1 1 0 0 1 0 0 1 3 0 0 0 0 0 1 0 0 0 1 1 1 1 3 0 1 1 0 1 1 0 1 1 0 1 0 1 2 0 2 0 1 1 1 1 2 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 2 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 0 1 0 0 1 3 2 1 2 0 2 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 2 0 0 2 0 0 0 0 0 0 0 1 1 2 0 0 0 1 1 1 0 1 0 3 1 0 0 1 0 0 0 1 2 1 0 1 0 0 0 0 2 2 1 1 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 4 0 0 1 0 2 0 0 0 3 3 1 0 1 1 1 0 0 2 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 3 1 1 1 0 0 0 1 0 1 0 0 0 0 2 0 0 2 1 1 0 0 0 3 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 2 0 2 0 0 0 0 1 0 1 0 2 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 1 0 1 1 0 1 0 1 2 0 0 1 0 0 2 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 1 2 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 2 1 0 1 0 0 0 0 2 0 0 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 2 0 0 0 2 1 0 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 1 2 0 3 0 1 1 0 0 0 0 1 0 0 1 0 2 0 0 1 0 1 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 2 2 0 1 1 2 0 1 0 1 1 0 0 0 0 1 0 0 1 0 1 0 3 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 2 1 1 1 0 0 3 1 0 0 1 0 1 0 1 2 2 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 2 1 0 1 0 1 1 1 1 0 1 0 0 1 0 1 3 0 0 3 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 2 1 0 0 0 2 0 0 0 0 1 1 1 0 2 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 2 0 2 0 0 1 1 0 1 2 1 2 2 0 1 0 0 0 1 1 0 0 1 0 0 0 1 2 1 1 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 1 1 1 0 1 0 2 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 1 0 2 0 2 0 1 1 1 1 0 1 0 1 0 1 0 0 1 0 0 1 2 0 0 1 0 1 1 1 1 2 0 2 0 0 0 3 0 1 0 1 0 2 3 0 0 0 1 1 0 3 1 0 0 0 1 0 1 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 2 0 0 2 1 1 0 0 2 1 0 2 0 0 1 2 1 0 2 0 2 0 1 1 2 0 1 0 0 1 1 0 1 0 2 0 0 2 0 0 2 0 0 0 0 0 0 0 2 1 2 0 0 2 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 2 0 1 3 1 0 0 1 1 0 0 0 1 1 0 0 1 0 1 2 0 0 0 0 0 0 0 2 0 1 2 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 1 0 2 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 0 0 0 1 1 1 1 2 1 1 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 2 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 2 2 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 2 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 4 2 0 0 0 1 0 0 2 1 1 2 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 3 0 1 0 0 0 1 0 1 1 2 1 0 1 0 1 0 0 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 1 0 0 0 2 0 0 0 0 1 2 0 0 2 0 1 1 2 0 1 1 0 0 3 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 2 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 3 1 1 1 1 1 0 0 0 1 0 1 0 0 2 0 1 0 0 2 0 2 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 1 2 1 1 0 0 1 3 0 0 1 2 2 1 0 0 1 0 0 1 1 1 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 3 0 1 1 1 0 0 1 0 2 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 2 0 0 2 1 1 0 0 2 0 0 0 1 0 2 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 3 1 1 0 0 0 1 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 2 2 1 1 1 0 2 0 1 0 0 1 1 0 1 3 0 1 0 1 2 0 0 0 1 0 0 1 2 0 0 0 1 1 0 2 1 1 1 1 1 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 2 0 2 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 2 1 2 1 1 0 1 1 2 0 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 1 1 1 0 2 1 1 0 1 2 3 0 0 0 0 1 0 0 1 1 2 0 0 0 0 1 0 1 0 0 1 0 1 0 0 2 2 0 2 0 0 0 0 0 0 2 1 3 0 0 2 0 0 0 0 1 1 0 1 1 0 1 0 0 2 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 1 0 0 0 0 0 1 1 0 1 3 0 1 0 1 0 0 1 0 0 0 0 2 2 0 0 1 4 0 2 0 0 0 1 0 0 2 0 1 0 0 0 2 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 1 1 0 1 0 1 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 1 3 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 1 1 1 0 0 0 0 1 0 2 1 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 2 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 3 0 1 0 2 0 0 1 0 1 1 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 1 0 0 1 1 0 1 1 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 1 1 0 0 1 0 0 1 0 3 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 2 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 3 1 0 0 0 0 0 1 1 0 0 0 0 1 4 0 1 0 1 1 0 0 1 1 0 0 1 2 2 0 1 0 2 0 0 2 0 1 1 0 2 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 2 2 1 3 1 1 1 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 2 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 1 0 1 0 1 0 2 0 0 0 0 0 1 1 1 2 0 2 0 0 0 0 0 0 1 2 0 0 2 2 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 2 0 0 0 1 0 1 1 0 1 0 1 1 1 2 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 2 0 1 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 1 1 0 3 0 1 0 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 2 1 0 0 0 1 0 1 0 0 1 1 2 2 0 0 1 0 1 0 0 1 1 1 0 2 2 1 1 0 0 2 0 3 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 1 1 1 0 0 3 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 2 1 1 1 0 0 0 1 0 2 0 3 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 2 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 2 1 2 1 0 1 1 0 0 0 0 1 0 0 0 0 1 3 1 0 0 1 0 0 1 0 0 0 0 0 1 2 0 1 2 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 1 3 0 0 0 0 0 1 1 0 1 1 0 0 0 0 2 0 0 0 1 2 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 1 1 1 0 1 0 0 0 0 0 2 1 1 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 3 0 1 0 0 0 3 0 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 1 1 3 1 2 2 1 0 1 1 3 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 3 2 0 0 0 0 0 1 0 1 1 1 1 1 0 0 1 2 0 1 0 1 1 0 1 0 3 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 1 2 0 0 0 0 2 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 2 1 1 3 3 0 0 1 1 0 1 2 1 0 1 0 0 0 0 2 0 1 2 0 0 0 1 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 2 0 2 0 0 1 1 1 0 2 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 2 0 0 1 0 0 1 0 0 0 2 0 1 0 1 1 1 3 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 2 0 0 0 0 2 0 1 2 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 2 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 2 1 1 1 1 0 1 1 1 1 0 0 1 1 0 0 0 3 0 1 0 2 0 0 1 0 0 1 1 0 2 0 2 0 1 1 1 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 3 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 3 1 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 3 1 0 0 0 0 1 3 1 2 1 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 3 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 2 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 2 0 1 0 1 1 0 0 2 1 1 1 2 1 0 1 2 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 2 0 1 0 0 1 0 0 1 0 1 2 1 0 0 1 1 1 1 0 0 0 2 1 0 2 1 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 2 3 2 0 0 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 2 0 1 0 0 0 2 1 0 0 2 2 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 2 0 1 1 0 0 0 0 0 0 2 1 1 0 1 2 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 1 3 1 0 1 2 0 2 0 1 0 1 0 0 1 0 0 0 2 0 0 1 1 0 0 1 2 1 1 1 1 0 1 1 0 1 1 1 0 1 0 1 2 0 0 0 2 0 1 0 1 1 0 0 2 1 1 0 0 1 0 0 1 0 0 1 2 0 0 1 0 2 1 0 1 0 2 0 1 1 0 0 1 0 0 0 0 1 1 0 2 0 0 0 1 0 0 0 2 0 0 3 1 3 0 1 1 0 0 0 0 1 1 1 2 0 0 1 0 0 0 0 0 0 2 1 0 0 1 2 1 0 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 2 1 0 0 0 0 2 3 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 1 0 1 0 1 1 0 1 3 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 2 0 0 0 1 3 0 0 0 1 1 2 1 0 0 0 1 0 0 2 0 0 1 1 0 1 2 0 0 0 2 0 0 2 0 0 1 0 2 0 0 0 2 0 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 0 1 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 2 0 3 0 0 1 0 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 1 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0</t>
+  </si>
+  <si>
+    <t>JSB(2.533326677414958, 2.9751097151011354, -64.2793285364764, 511.7484366033627)</t>
+  </si>
+  <si>
+    <t>59 129 121 81 76 90 152 167 101 63 102 115 188 73 63 50 82 57 136 126 84 36 97 86 11 56 87 164 115 30 95 83 106 74 95 64 64 62 91 144 52 60 99 72 81 92 101 87 111 72 33 130 101 68 109 32 171 74 99 108 135 90 98 92 85 80 92 95 165 79 131 168 98 31 157 47 179 92 110 85 53 63 106 94 24 102 199 87 80 111 134 137 103 42 111 158 123 197 92 77 30 43 66 126 14 154 125 82 154 173 59 89 115 135 135 81 79 78 110 64 175 75 112 104 127 47 94 79 46 49 101 36 81 79 110 126 54 93 58 68 91 80 97 131 71 76 117 81 127 52 51 124 95 109 74 121 88 78 101 67 109 112 112 47 74 145 57 83 43 112 72 128 55 110 52 70 146 70 176 4 47 97 116 59 54 110 73 73 80 84 17 93 53 45 93 112 128 161 163 58 90 63 75 116 54 74 137 124 42 95 91 180 84 117 94 116 120 124 80 146 80 123 165 7 36 54 96 93 92 98 175 86 88 130 77 117 70 91 124 82 68 50 58 104 44 75 57 57 138 108 109 74 62 109 58 60 102 82 140 121 60 139 163 116 45 151 130 33 80 74 95 100 107 67 97 86 75 135 59 96 76 137 28 58 103 51 78 65 56 175 80 92 68 67 49 47 134 210 123 65 49 108 104 107 99 35 79 152 131 52 75 98 81 80 105 109 96 67 136 56 38 120 62 86 91 151 63 111 31 92 93 86 72 83 52 63 110 111 152 39 49 63 93 70 65 83 104 94 68 60 71 99 115 41 63 50 117 100 71 92 71 64 41 98 92 120 89 50 143 154 110 81 62 97 77 128 80 78 140 111 154 75 129 71 45 89 109 100 126 113 113 117 140 143 54 71 58 79 132 200 79 136 128 32 75 171 80 177 120 47 91 57 118 118 155 112 88 95 156 72 87 120 139 75 83 89 128 107 108 73 39 102 80 35 53 75 118 93 129 53 84 70 156 142 85 95 81 109 112 108 54 88 43 133 179 105 96 129 59 101 62 22 68 65 124 75 79 134 116 114 83 102 65 95 84 76 87 61 76 53 104 84 89 138 40 92 78 57 95 23 86 84 99 20 81 58 113 84 110 64 77 110 8 38 110 102 56 136 99 82 59 90 111 65 60 113 77 85 122 130 89 66 116 82 66 63 126 95 100 84 79 101 89 88 87 109 118 107 116 86 119 74 52 56 84 60 23 71 79 165 122 162 70 124 100 33 105 47 104 35 55 176 117 44 147 89 48 136 30 83 34 26 83 20 76 59 108 59 95 61 28 99 158 112 78 17 53 75 92 104 88 122 88 51 96 118 90 126 122 123 68 114 167 88 122 109 143 91 39 175 58 82 109 52 146 172 126 101 38 170 137 108 63 64 86 120 98 81 89 99 104 88 84 130 150 141 26 87 41 134 65 120 54 102 74 87 42 63 95 118 55 69 72 70 97 95 110 65 63 31 73 37 129 20 81 118 82 65 70 73 75 81 140 65 121 109 97 35 121 62 117 98 74 89 71 187 91 104 118 117 46 52 52 128 70 111 45 103 163 58 52 137 68 152 116 48 84 159 48 94 148 136 125 146 19 84 88 97 121 100 48 67 132 113 126 68 21 132 106 56 161 49 154 139 33 101 146 86 189 57 62 78 123 110 127 135 68 113 41 128 80 90 47 68 173 47 77 86 86 137 18 33 100 86 56 114 54 109 120 84 90 38 103 129 96 86 115 137 159 103 135 70 106 76 68 104 94 97 108 128 83 124 73 14 65 86 132 66 96 136 106 131 88 122 97 107 38 93 83 130 83 71 68 94 52 82 155 49 51 32 31 81 51 51 53 92 123 94 90 68 137 138 112 97 79 70 70 134 38 160 67 36 56 133 134 72 151 97 80 83 142 127 102 86 111 86 141 156 154 54 144 101 94 90 105 157 99 130 45 45 95 40 101 59 132 59 101 93 86 44 132 82 108 54 82 108 102 89 73 115 112 82 45 47 83 83 93 117 80 45 46 108 111 90 105 118 129 87 40 83 27 78 114 72 68 38 161 112 101 108 126 130 50 114 63 85 98 125 160 136 137 85 80 55 71 113 170 45 86 52 109 86 72 71 148 103 81 32 73 80 48 18 31 74 104 91 96 65 114 64 144 109 84 148 94 79 67 127 78 88 97 61 50 127 51 85 156 153 118 64 67 110 72 66 61 68 76 122 55 106 140 121 108 63 68 38 124 94 141 76 122 118 114 112 178 68 33 33 78 57 51 62 146 42 83 85 86 117 22 46 67 72 107 109 41 65 71 74 151 87 86 139 19 92 53 97 130 51 94 124 83 126 36 87 25 81 99 102 146 186 172 69 102 88 40 101 122 121 83 87 72 63 65 99 118 134 110 118 127 98 142 72 24 161 133 73 121 75 98 65 84 55 85 170 132 82 80 48 94 96 50 74 145 112 86 86 111 101 62 68 115 32 101 57 69 136 48 97 76 49 77 54 93 93 82 42 70 73 132 135 63 115 79 65 142 54 101 73 46 55 112 94 96 115 41 100 64 87 120 41 81 122 93 83 71 64 153 74 33 74 57 148 44 101 79 67 130 90 128 80 70 79 101 46 75 138 80 100 84 66 32 144 154 45 83 109 52 77 83 91 48 63 113 139 102 37 63 102 45 136 137 75 61 73 82 43 132 43 108 111 122 120 88 121 76 82 54 81 90 142 147 69 44 138 152 116 66 86 103 84 86 36 80 108 98 134 148 165 83 107 63 30 148 95 46 62 77 37 112 109 85 138 85 128 128 60 150 72 158 69 161 112 106 87 124 52 110 49 48 23 95 86 41 84 131 90 73 91 105 92 44 61 72 113 71 106 113 137 89 82 66 66 69 91 130 51 138 47 86 81 119 60 89 73 76 61 109 109 102 78 108 115 52 88 84 96 72 151 64 34 40 95 45 73 116 52 36 78 60 60 170 60 57 135 84 124 130 98 66 86 140 130 137 81 47 37 85 124 121 89 58 81 186 118 40 69 105 117 126 150 66 58 142 33 75 66 143 95 74 134 64 25 41 134 165 94 142 130 81 112 80 93 52 112 72 51 106 126 98 81 53 53 100 98 95 80 103 125 106 85 97 126 97 85 143 55 65 82 164 69 69 112 32 102 54 99 71 109 79 103 34 84 88 51 96 95 73 122 96 78 71 46 79 22 153 42 104 126 83 52 128 73 82 56 109 84 32 148 65 40 122 109 106 81 66 89 169 94 54 59 102 109 91 121 142 86 16 128 128 40 96 88 107 64 88 120 96 48 44 57 126 152 108 56 24 130 61 50 45 137 48 161 128 120 70 115 68 124 43 97 117 81 63 50 75 68 41 80 76 153 115 90 83 96 57 68 55 77 71 106 73 88 159 66 49 78 97 29 78 86 38 69 51 52 85 140 88 87 75 104 60 64 107 91 25 79 47 105 110 96 84 65 101 15 27 93 47 38 103 113 73 137 115 80 124 95 103 90 106 100 104 81 51 75 59 51 93 53 118 107 121 121 15 172 72 131 143 93 229 123 132 55 117 46 35 108 102 86 141 106 75 119 46 54 108 47 59 93 145 51 140 105 80 63 142 122 81 131 126 159 128 97 67 145 181 135 34 131 33 29 46 98 97 115 99 116 98 125 104 111 98 67 95 53 48 74 152 101 80 158 89 80 201 129 75 131 92 98 59 134 69 142 97 81 91 96 65 106 113 54 68 59 115 66 101 51 113 121 103 126 95 122 57 85 80 114 105 103 117 162 79 79 97 105 104 22 77 78 79 64 159 37 80 86 158 88 53 143 74 117 93 89 127 72 55 60 106 80 33 94 31 141 93 128 131 99 127 130 77 78 124 155 54 86 141 58 101 36 61 77 77 40 82 57 49 42 116 113 34 114 60 75 63 138 81 118 80 83 51 92 57 114 96 88 135 160 58 77 82 111 94 112 132 59 73 29 70 79 79 223 88 91 49 113 120 51 137 25 46 82 145 41 94 108 74 132 56 68 43 70 46 125 79 116 34 106 43 59 53 106 73 116 97 125 57 86 68 105 30 42 85 32 109 88 86 121 102 151 75 93 120 62 86 122 81 112 52 93 35 97 71 68 203 93 62 33 128 133 74 109 102 101 105 104 118 77 95 52 71 93 133 40 130 141 84 104 125 75 56 116 141 105 65 61 141 94 105 53 119 79 162 95 105 146 136 113 89 66 92 67 68 91 125 15 86 125 68 10 67 88 45 134 157 75 142 94 55 86 95 160 134 84 86 129 13 107 77 31 111 97 103 93 69 17 57 68 92 35 43 69 70 127 80 118 100 61 108 68 154 48 104 79 62 94 76 55 94 96 85 92 69 119 70 150 141 138 96 125 94 56 54 38 94 100 153 176 108 84 113 97 124 51 115 94 55 26 49 94 41 109 88 78 122 127 73 91 36 88 110 56 176 125 14 96 18 107 153 56 42 49 84 147 53 49 15 72 175 35 73 54 150 160 50 107 98 66 79 129 28 140 102 53 78 71 36 109 64 33 69 115 58 73 47 15 82 152 71 82 48 104 63 18 70 128 69 92 118 52 44 22 127 53 88 106 109 112 91 36 90 155 154 108 68 64 94 88 48 147 49 77 78 65 101 142 48 66 45 194 108 50 69 55 28 22 188 73 65 73 40 102 139 114 138 121 117 35 39 62 52 87 80 120 56 119 100 105 64 179 101 86 98 88 71 126 64 111 84 66 79 133 118 134 39 164 78 100 90 94 148 80 0 86 50 113 137 120 118 124 102 40 107 37 54 50 77 111 67 48 78 126 87 140 131 56 101 60 76 39 158 114 60 63 33 102 111 128 59 118 137 142 78 116 90 17 97 89 118 36 89 99 94 101 57 111 62 146 97 42 63 94 86 118 43 68 72 62 116 41 39 59 60 75 111 76 100 33 57 80 88 126 53 83 128 67 80 103 99 102 114 64 151 67 101 141 94 83 81 28 85 91 88 81 85 97 138 42 136 140 66 56 49 116 98 102 34 61 87 53 78 52 64 42 94 116 122 44 68 140 48 133 52 79 85 107 156 71 110 102 90 103 83 111 76 96 84 73 86 112 88 148 38 56 19 96 58 103 53 39 61 130 176 35 148 44 69 105 92 66 152 142 176 19 105 90 42 82 129 121 143 127 73 80 94 78 126 86 95 72 21 123 93 104 67 72 53 161 174 77 82 81 85 170 75 58 115 161 67 116 68 83 84 45 115 106 60 89 52 70 34 35 76 115 88 89 86 102 81 68 89 136 109 98 67 111 71 47 104 66 91 60 94 112 65 125 155 80 125 36 128 79 166 46 76 167 50 140 37 71 76 106 111 82 166 104 40 85 68 78 58 144 106 115 75 136 158 105 71 172 87 59 53 125 74 114 102 88 40 70 87 62 143 53 111 38 52 73 170 33 118 104 98 195 91 76 43 97 75 56 120 110 132 93 102 87 52 68 60 117 64 101 93 125 12 34 109 30 105 169 56 101 142 64 33 89 132 82 106 13 88 120 102 167 80 100 112 18 105 108 42 87 87 93 119 71 140 115 81 75 88 160 40 112 103 75 107 17 6 57 80 108 49 79 94 100 30 74 103 140 126 139 67 25 93 49 90 86 100 115 149 73 95 107 117 82 129 77 101 36 66 58 93 32 73 76 121 68 145 115 75 80 125 64 62 109 121 53 25 75 68 64 115 35 67 91 95 99 71 49 106 100 100 75 51 84 66 62 78 80 99 83 83 124 79 100 113 131 71 86 72 52 51 81 73 110 103 84 89 83 86 66 92 84 62 57 54 42 74 112 103 83 97 125 85 120 52 93 37 65 149 76 159 137 41 21 94 86 105 96 92 80 45 44 85 111 139 77 88 119 51 87 124 110 77 85 132 91 83 142 96 181 72 101 95 75 65 47 94 46 24 44 137 9 42 79 72 67 81 58 148 159 82 118 82 101 50 75 88 108 97 104 138 124 124 53 52 61 80 63 69 91 78 90 48 84 75 82 108 55 94 136 116 68 75 62 77 75 98 75 170 95 61 95 61 124 155 84 195 94 46 98 96 58 144 107 47 62 147 96 180 68 53 66 115 74 131 82 53 48 64 70 139 123 54 144 56 103 60 97 71 82 34 140 94 88 127 51 136 141 52 65 42 60 87 56 127 79 70 53 59 108 85 100 47 117 134 96 69 106 171 52 190 83 130 105 151 97 25 126 75 191 69 140 110 100 126 54 144 49 134 87 78 108 196 50 156 148 116 146 142 121 74 104 117 147 92 85 93 68 94 64 43 96 133 86 134 126 51 79 112 90 70 87 85 39 115 29 86 188 73 76 25 101 75 141 107 53 108 101 109 81 59 86 65 132 134 81 27 66 94 110 132 103 159 47 173 64 59 39 130 39 136 83 94 168 99 51 42 80 104 50 162 75 111 116 65 93 68 75 88 59 186 58 31 137 98 113 74 139 114 154 90 83 21 84 91 95 130 99 57 70 114 92 78 99 117 34 47 99 63 129 92 58 77 74 53 82 151 95 113 68 80 87 69 116 63 95 108 86 105 80 78 77 105 62 19 28 67 12 128 103 67 170 127 93 82 161 61 109 87 109 53 35 94 57 147 75 75 22 219 97 182 125 42 136 77 88 62 91 60 105 84 109 63 62 96 58 108 49 178 96 110 79 30 48 43 64 88 54 37 136 67 81 156 120 126 46 66 87 84 141 92 149 102 150 95 160 131 93 55 131 131 62 47 157 62 126 118 87 94 115 43 28 101 51 124 101 78 99 58 113 116 95 44 32 54 63 49 162 82 49 75 104 153 82 116 145 73 85 56 89 68 115 59 93 121 108 80 22 141 58 55 101 126 121 33 138 80 119 87 77 130 224 95 114 140 107 47 109 96 61 52 102 91 63 112 143 74 113 102 95 49 73 109 48 54 109 84 83 107 40 33 144 106 97 77 78 147 35 48 59 136 58 92 121 137 64 132 149 81 53 60 103 91 70 112 134 42 124 59 70 147 99 40 133 52 114 4 119 120 140 75 73 58 67 120 69 135 125 127 78 119 96 108 102 79 64 72 114 114 51 166 29 169 71 165 82 68 70 131 48 75 65 93 72 146 130 142 54 69 72 149 147 110 72 58 73 38 107 108 151 156 54 115 102 136 96 30 118 55 86 4 119 83 115 127 86 153 83 100 103 80 114 78 55 161 78 103 106 174 105 115 81 72 83 95 84 128 119 75 76 107 62 58 145 193 37 82 104 69 78 137 52 85 132 43 79 114 75 67 120 70 32 83 89 112 88 14 61 176 69 182 24 208 146 116 149 65 126 11 134 41 58 89 98 104 81 73 98 120 98 109 97 69 58 69 91 125 85 95 91 106 87 88 122 61 97 132 148 74 102 112 47 114 64 77 120 90 180 51 92 83 65 143 94 93 100 100 137 79 74 86 85 112 78 143 78 80 85 112 98 64 50 123 80 189 65 88 73 116 54 69 96 166 116 79 38 70 98 125 146 72 99 98 91 57 64 95 110 129 129 69 104 64 49 131 67 79 69 112 82 99 40 157 113 82 89 98 67 35 76 121 85 19 87 152 95 100 124 148 43 65 73 104 156 139 127 51 110 127 85 86 112 95 104 70 105 141 96 59 104 140 68 135 85 129 81 65 117 89 103 137 112 97 82 91 69 56 84 84 73 107 100 151 68 75 91 57 89 52 129 54 126 88 129 85 121 86 132 76 91 75 122 86 127 88 113 55 141 138 65 103 99 97 44 131 60 175 44 103 146 105 113 106 44 79 46 88 111 88 97 79 150 85 145 69 107 87 88 42 72 54 133 155 85 59 120 79 81 87 104 66 46 71 128 75 80 96 80 118 131 53 70 85 81 108 135 141 54 58 122 39 157 109 114 66 80 26 41 53 72 174 36 58 111 69 104 184 58 93 100 98 104 107 99 77 79 103 117 86 110 109 97 77 106 112 109 99 155 85 21 38 90 106 26 79 99 57 68 84 59 100 106 32 120 109 124 165 97 59 50 105 119 116 161 13 35 82 88 133 40 101 51 96 60 55 60 84 64 63 122 118 92 104 102 67 104 114 109 136 126 131 149 101 88 66 88 156 73 48 13 84 111 8 90 68 55 82 68 48 84 78 104 81 16 161 68 33 101 80 47 140 51 74 76 64 67 39 97 66 118 64 79 71 124 107 83 103 72 103 130 195 88 113 74 49 40 27 113 124 134 80 65 16 84 87 41 97 89 122 75 61 84 68 154 84 143 179 57 99 5 106 135 81 98 71 81 80 136 126 56 91 199 67 41 51 68 120 132 55 139 97 83 101 34 53 136 89 81 45 55 27 76 104 95 65 102 112 80 85 20 138 46 34 54 96 120 124 152 65 28 66 72 152 72 98 31 181 117 81 67 45 100 19 52 62 19 159 59 71 78 70 117 50 134 116 127 63 46 171 111 70 96 169 122 70 104 144 70 80 94 63 101 78 47 57 100 158 102 103 17 63 63 72 76 99 90 92 91 147 61 81 74 54 106 85 92 52 80 147 76 11 105 149 84 58 80 45 106 118 72 60 48 36 96 102 60 114 136 88 102 104 45 35 107 85 156 83 182 27 128 140 72 67 132 92 139 65 66 130 102 101 92 93 131 105 154 58 128 52 92 98 96 75 58 41 153 66 37 136 121 62 40 107 93 55 86 118 158 21 104 88 64 91 92 90 55 99 88 17 51 133 33 87 85 185 70 69 94 67 130 104 65 87 132 95 76 87 86 67 100 158 82 93 35 154 119 97 59 67 113 95 52 123 81 48 111 144 34 56 88 103 77 35 48 100 47 101 57 79 67 76 111 78 26 45 77 110 74 53 54 109 130 123 67 79 160 112 107 68 108 88 99 76 29 72 86 122 125 132 90 66 76 71 83 97 71 76 47 60 185 119 43 105 89 108 94 37 94 116 131 92 74 104 85 63 66 153 120 80 48 109 61 132 41 113 92 25 42 85 84 82 176 77 68 88 53 122 58 75 100 70 126 115 109 101 63 106 85 114 72 76 86 116 36 13 113 38 152 178 116 93 45 145 32 63 60 62 143 31 126 97 76 114 91 91 64 90 128 127 128 29 112 66 78 137 97 76 91 41 60 110 93 114 82 67 81 47 28 67 116 75 43 75 83 78 130 164 200 118 135 75 93 59 37 57 110 71 69 143 68 86 93 41 129 33 56 157 108 56 143 39 69 137 117 73 115 87 90 38 164 51 81 65 19 148 115 95 84 69 92 102 156 183 197 78 91 67 102 140 62 96 133 123 31 122 96 146 135 108 135 92 102 58 55 117 83 22 89 54 176 177 97 54 49 109 86 115 74 88 150 123 81 127 119 74 68 129 128 102 95 64 90 100 79 156 54 115 76 75 130 102 61 162 105 56 57 137 61 46 71 140 113 55 173 75 121 119 53 71 90 110 93 132 91 51 105 79 37 83 92 71 102 50 92 154 69 106 126 76 94 92 76 95 89 145 64 96 74 78 36 54 104 103 144 58 166 155 116 167 122 48 98 20 25 130 147 69 81 111 63 47 103 130 76 96 37 76 76 61 103 85 96 149 94 108 64 56 93 99 143 71 56 110 77 68 88 128 49 57 97 77 19 23 110 28 90 112 101 24 89 73 37 35 160 56 96 70 87 46 79 34 104 37 131 96 26 117 98 175 68 36 83 168 129 113 63 4 102 132 82 175 126 67 76 88 91 81 88 67 37 24 62 76 81 65 96 88 85 39 104 119 89 45 33 121 61 29 168 26 111 76 95 71 125 112 48 100 34 94 82 115 89 111 94 123 103 84 61 87 191 97 136 112 93 102 103 32 99 106 119 110 101 57 55 18 119 91 106 103 138 80 109 101 72 65 35 103 136 130 53 137 69 122 85 59 151 96 31 108 10 101 80 83 108 114 127 76 78 86 119 108 132 199 72 59 87 110 70 96 134 69 94 90 88 79 85 59 77 130 81 66 80 94 87 87 118 75 101 76 116 131 96 87 100 98 61 78 110 49 185 130 64 73 62 87 51 85 76 102 104 93 93 109 103 87 153 77 77 105 29 65 71 44 89 68 92 93 120 77 102 96 163 32 99 105 93 146 159 139 89 119 106 76 40 53 25 73 39 110 71 55 76 77 83 84 90 39 88 130 59 77 123 144 39 97 41 84 31 14 36 63 17 94 55 16 222 119 164 108 148 57 64 99 11 105 82 164 167 183 128 73 128 91 102 80 102 97 58 65 102 119 109 22 88 69 48 59 109 113 76 66 40 98 62 99 98 53 75 98 81 61 82 138 56 134 100 109 109 89 73 28 72 81 78 103 43 122 64 131 95 73 45 87 69 74 158 77 94 100 71 192 77 41 55 149 66 133 92 84 81 31 79 78 130 76 192 84 126 77 107 67 103 86 15 112 49 99 80 54 80 128 101 83 83 65 115 100 53 82 121 141 74 90 70 187 38 26 57 131 116 94 232 36 74 129 103 158 95 95 142 106 40 57 136 131 134 101 173 107 87 120 53 52 107 187 96 152 92 118 108 67 41 31 103 77 72 136 115 111 103 156 56 119 130 103 61 27 93 103 80 138 45 82 127 76 120 91 68 47 56 53 140 158 103 120 95 49 70 51 57 106 59 70 115 88 117 98 73 69 104 55 61 57 93 134 100 116 65 69 69 57 98 100 90 55 90 64 67 131 87 61 57 126 70 137 20 141 58 60 40 94 60 93 14 102 119 109 112 54 42 103 111 133 134 102 88 141 145 133 44 70 72 157 60 123 71 74 102 74 65 110 41 150 98 109 129 91 106 156 139 66 39 57 108 81 56 78 41 132 60 34 85 53 60 122 120 59 74 107 112 82 111 125 123 56 142 133 76 95 115 92 109 101 91 101 93 84 88 44 158 34 60 94 85 122 118 208 39 146 114 86 130 73 80 63 94 113 44 106 63 106 70 100 118 47 74 167 166 75 93 144 116 97 71 157 41 142 78 159 62 50 116 93 123 145 155 113 80 70 89 93 65 112 88 60 71 62 140 21 108 93 50 65 63 21 89 103 49 68 61 77 100 78 86 87 121 64 67 69 166 39 85 61 24 109 140 132 146 91 106 125 146 48 110 56 54 98 81 110 100 98 71 86 89 79 71 89 78 88 50 116 86 134 143 96 82 60 110 83 33 99 105 61 62 74 88 141 82 122 232 88 49 83 90 63 57 82 94 70 99 127 109 113 38 123 43 79 76 78 125 51 105 65 113 106 112 107 133 60 68 131 160 63 21 63 84 125 167 74 88 91 54 79 54 55 103 46 49 66 95 141 63 121 101 76 45 100 95 108 66 97 68 138 165 131 103 19 84 88 149 90 57 49 96 69 57 152 151 107 134 108 115 61 83 50 71 141 42 58 123 71 135 96 62 75 128 64 115 88 59 44 133 77 163 185 49 86 134 82 97 135 100 97 145 112 194 114 109 112 19 55 87 71 72 61 121 117 77 79 55 51 107 167 46 36 196 101 104 98 19 171 143 98 85 105 61 90 76 78 89 79 115 89 70 94 99 98 68 120 39 153 126 122 59 130 132 104 103 81 84 38 56 68 86 102 98 99 56 94 72 44 166 142 76 45 45 87 61 129 46 44 49 102 150 95 81 112 120 98 136 129 29 137 80 83 47 59 116 122 101 49 111 104 58 102 180 84 105 96 134 142 136 85 94 95 92 82 56 76 138 56 51 98 138 97 110 118 112 181 37 91 85 65 99 38 11 25 128 162 56 81 101 81 147 28 105 86 118 56 101 94 74 44 57 120 150 82 121 96 92 70 90 132 88 74 117 44 64 80 49 157 79 89 90 101 79 91 105 75 76 73 85 129 57 62 100 78 54 90 153 71 106 65 35 130 201 111 127 72 77 86 96 49 106 127 84 125 94 92 41 77 75 96 47 119 88 110 98 68 94 146 177 88 89 145 148 144 135 62 97 45 88 100 30 66 84 60 137 80 125 62 84 105 113 74 96 118 97 87 58 97 101 113 149 158 65 58 53 41 131 42 133 102 100 106 100 96 103 125 134 81 45 90 141 178 94 68 102 135 111 119 82 74 121 97 84 93 82 95 97 84 75 55 90 87 74 166 70 54 88 110 60 93 182 110 159 113 60 61 178 108 123 97 175 109 76 148 71 32 60 89 71 109 102 85 70 44 124 57 46 86 139 100 125 83 62 94 125 42 119 134 97 46 115 135 38 144 62 91 135 66 53 121 74 78 116 114 117 99 88 89 48 92 76 79 110 -13 64 91 46 108 50 69 53 110 68 62 159 68 74 74 65 78 44 128 128 133 165 55 65 53 47 105 67 44 95 104 82 62 28 138 143 65 167 32 169 79 21 108 65 178 96 73 82 108 60 75 75 123 66 43 71 103 110 114 41 61 74 149 70 92 83 146 80 136 90 39 64 141 43 111 87 111 83 81 101 76 99 76 66 64 67 81 96 122 55 79 69 89 123 138 90 160 80 130 69 88 137 134 86 58 109 31 91 117 124 82 71 123 128 103 129 62 56 118 111 65 118 58 97 84 80 89 117 14 136 115 60 91 72 58 141 82 82 134 122 99 74 80 34 79 88 138 113 120 93 112 42 160 94 75 84 108 31 118 65 82 145 111 105 113 140 37 63 93 100 104 69 52 81 102 120 47 93 135 82 70 136 33 94 106 181 101 47 69 75 78 78 74 71 117 169 61 92 141 6 87 94 62 108 134 83 93 95 69 122 102 152 59 67 110 122 114 103 60 111 39 121 50 70 36 66 126 120 21 84 74 99 86 62 124 10 83 108 79 68 120 131 84 67 96 131 55 101 37 101 120 57 116 199 135 40 89 77 114 117 82 69 71 146 53 102 27 136 164 109 180 96 42 81 75 93 126 107 98 81 74 75 122 21 113 32 69 123 128 86 125 85 80 64 79 89 137 36 77 77 98 118 104 124 150 73 97 105 80 70 101 30 14 126 71 131 105 68 12 111 126 124 142 75 63 58 105 122 131 82 68 135 67 132 26 77 46 67 90 71 123 110 107 30 116 50 50 84 184 58 119 129 77 106 129 59 66 89 198 68 74 50 113 67 73 72 125 136 53 109 76 67 121 77 142 105 134 89 41 144 112 38 142 89 59 125 90 44 89 89 92 118 18 91 116 125 79 94 108 119 73 77 86 119 153 83 100 103 67 97 84 87 92 115 112 81 108 142 43 122 95 120 132 167 126 153 68 76 44 85 117 88 96 172 125 127 82 87 120 79 31 73 110 59 42 74 110 178 77 116 78 29 81 56 108 39 93 30 106 100 79 72 51 91 69 79 164 59 86 128 65 62 67 206 48 146 23 79 91 75 119 140 81 132 15 112 68 122 84 131 143 72 41 80 47 141 160 125 41 80 91 82 104 86 91 39 52 62 67 115 76 109 111 69 51 50 102 77 41 66 103 28 129 133 103 116 107 72 135 51 186 47 112 90 148 110 149 31 106 139 102 96 40 136 91 21 40 149 83 110 184 101 59 116 85 69 81 35 68 38 76 119 118 100 50 92 43 97 98 120 106 53 123 74 125 31 82 98 69 82 80 90 40 128 198 96 93 67 146 92 128 138 136 59 14 57 68 235 69 105 81 86 45 104 78 74 59 118 51 85 127 19 70 34 109 105 128 135 104 84 99 120 60 60 41 97 113 126 102 134 162 51 69 119 91 153 36 118 97 73 150 110 52 76 104 35 95 67 116 117 106 21 121 76 125 63 87 94 26 57 44 72 43 131 63 59 78 42 87 129 72 43 68 92 62 102 119 81 79 111 107 51 102 70 40 52 118 74 79 132 65 177 6 101 34 77 78 93 107 61 168 169 56 121 55 106 208 79 20 109 85 77 75 72 37 151 89 141 99 32 75 122 51 95 73 99 74 70 73 74 160 107 59 115 102 103 144 122 27 167 43 70 109 136 21 65 115 95 22 76 30 59 97 101 67 74 52 39 138 89 40 96 81 93 62 85 91 100 61 118 74 60 78 110 91 33 161 125 78 162 24 86 93 132 80 78 16 68 94 171 137 152 100 101 127 75 88 126 115 109 42 98 89 134 94 68 40 90 111 90 44 82 105 65 94 75 122 52 55 109 114 69 266 108 166 82 90 72 88 88 37 108 104 79 33 83 135 74 63 96 94 22 59 155 38 63 44 65 107 151 91 42 95 63 101 157 50 41 42 69 155 145 69 72 95 55 106 58 56 33 62 63 101 92 107 87 151 41 78 65 125 50 127 104 90 53 81 105 72 122 121 55 51 68 92 138 45 64 147 94 36 144 107 183 115 62 113 41 126 107 41 70 101 82 106 78 59 129 136 34 121 41 112 76 76 114 30 152 75 56 109 25 122 100 87 104 159 148 122 66 57 73 51 91 116 74 66 33 96 31 122 112 81 106 129 83 114 115 87 157 22 72 57 84 99 93 37 76 109 82 96 129 110 53 147 35 42 31 162 72 128 157 107 100 52 81 49 81 82 64 46 94 117 93 119 136 162 108 45 102 134 66 97 106 113 22 91 149 48 78 64 115 116 38 77 39 116 105 118 123 152 121 52 88 87 67 60 86 52 34 109 54 38 61 101 92 96 92 79 87 27 54 117 89 141 139 82 160 125 199 73 139 115 158 113 100 127 113 179 91 84 93 117 61 53 128 55 115 86 22 116 134 67 134 37 94 132 101 113 99 74 123 64 82 115 110 71 67 161 119 43 99 64 118 92 34 79 136 67 94 77 44 83 36 103 25 87 131 82 98 86 134 25 107 29 90 96 105 48 87 73 87 86 108 87 137 75 60 97 57 106 98 101 73 66 142 172 115 92 83 103 64 103 95 81 93 92 133 113 35 62 114 81 81 53 108 64 52 16 38 73 73 113 104 112 41 129 61 71 67 78 142 108 82 113 75 46 158 60 120 84 49 105 38 119 93 73 147 123 63 133 72 57 93 93 87 161 95 45 53 134 51 58 82 54 142 98 47 101 124 87 117 94 63 23 86 93 75 82 70 40 87 122 162 65 101 125 28 84 78 122 49 84 130 51 54 112 76 29 105 60 88 84 94 161 140 47 131 47 112 225 128 23 82 71 122 79 54 149 116 95 101 41 113 77 157 116 123 72 39 64 143 100 86 141 65 54 127 118 85 129 52 17 87 83 125 57 82 83 46 47 23 102 60 94 114 75 58 72 81 90 154 68 126 100 74 90 128 67 98 117 70 70 81 39 92 55 111 60 111 120 37 78 77 133 50 74 124 88 75 120 86 40 122 68 138 91 132 131 129 54 105 106 144 61 100 116 127 61 56 85 148 123 102 99 93 87 165 142 63 102 116 143 87 76 140 87 101 76 43 70 77 40 136 116 141 90 89 67 128 56 96 99 84 77 149 139 56 77 59 130 95 77 68 102 106 75 155 116 131 124 82 60 93 51 100 103 101 112 83 44 104 82 107 78 31 59 71 49 130 165 120 108 116 111 106 42 137 89 134 105 99 89 86 90 109 94 58 103 124 65 71 82 50 63 107 115 100 42 32 111 121 67 42 130 91 71 137 113 141 41 83 78 113 74 56 119 122 54 68 123 66 83 129 134 86 99 77 77 47 43 49 22 36 74 38 48 142 141 36 100 89 117 41 106 47 110 130 84 54 124 122 50 147 123 79 105 99 161 67 154 120 70 109 128 40 127 119 77 31 85 130 94 60 138 79 99 93 165 108 98 120 85 70 84 95 96 123 78 183 88 141 127 119 53 100 57 61 98 68 125 144 64 48 80 27 148 103 153 115 89 117 72 145 96 53 9 49 81 57 69 76 56 93 79 60 60 70 112 20 95 87 60 84 99 124 53 120 39 44 38 106 147 84 121 98 137 104 152 76 66 154 102 71 81 151 40 119 104 52 37 114 117 91 137 153 80 86 101 36 70 87 115 168 67 148 94 107 84 129 110 85 136 114 104 89 35 62 160 58 108 104 87 100 79 129 100 85 94 79 114 36 67 100 69 67 68 155 44 145 104 109 64 15 121 69 57 101 60 51 143 72 56 71 128 69 108 27 75 101 64 109 134 136 120 64 43 73 91 163 75 114 39 105 89 78 96 106 94 108 112 134 78 52 105 109 99 89 95 77 108 41 119 79 122 33 119 192 115 67 94 120 117 74 161 113 121 113 134 143 73 141 24 57 107 92 87 15 148 84 87 136 65 62 121 99 82 153 100 115 23 77 26 75 79 74 167 169 37 162 95 61 46 60 90 53 92 166 100 116 125 166 57 128 93 134 100 102 75 60 112 87 76 63 138 59 78 143 57 183 136 76 112 88 171 121 74 100 64 131 115 55 109 98 49 80 111 26 98 139 112 112 52 53 66 121 97 139 53 85 123 69 98 137 67 87 45 57 188 81 50 81 110 39 160 135 134 67 61 27 105 111 49 81 108 79 125 62 124 89 81 76 122 105 66 143 181 99 84 23 82 87 101 67 98 25 88 43 61 173 69 22 107 134 110 135 161 93 88 110 109 114 95 31 50 116 93 98 86 65 39 57 96 91 41 160 79 77 142 51 120 63 90 145 130 127 94 28 51 99 109 98 123 132 61 101 123 53 66 86 45 87 56 163 63 52 106 147 113 94 63 56 127 99 122 100 102 105 124 64 41 66 112 80 56 90 94 129 57 98 15 55 100 63 37 34 114 51 148 78 49 53 75 100 110 48 89 127 68 49 104 135 170 88 76 87 111 73 108 52 67 131 112 77 64 75 80 135 69 63 44 57 121 77 96 60 141 42 40 34 124 49 88 49 53 60 134 96 104 76 102 114 45 107 91 61 37 95 65 98 125 26 77 167 95 78 110 75 96 93 34 54 83 33 174 117 100 62 33 144 157 89 24 136 133 85 72 99 145 117 158 64 88 101 104 101 87 123 98 77 110 134 22 131 23 123 92 88 91 141 101 137 109 43 71 38 62 108 98 130 184 140 29 129 84 75 71 117 107 43 169 82 64 59 120 168 109 133 107 50 83 96 146 169 105 111 59 27 103 96 91 117 119 73 120 40 51 162 91 86 79 43 147 97 94 107 104 75 129 26 105 120 72 130 80 120 140 99 50 89 94 164 98 80 47 59 103 74 101 120 183 107 80 66 74 105 67 69 53 37 52 134 158 64 132 114 118 36 102 169 74 106 100 60 88 118 71 88 149 105 43 108 129 165 142 72 27 41 42 169 39 72 126 103 64 148 105 65 168 115 79 104 66 106 85 52 122 136 139 81 71 100 70 83 90 51 123 95 120 60 112 124 102 95 88 123 110 70 138 64 127 110 138 119 83 79 86 78 93 101 192 144 124 89 81 73 118 134 144 34 109 180 171 128 153 111 112 102 96 71 117 87 70 83 96 33 27 68 61 37 56 58 88 104 30 85 67 78 89 90 168 75 135 140 84 53 109 94 64 92 88 120 109 51 63 99 87 47 103 98 119 109 85 67 119 120 94 62 60 34 75 114 87 66 89 105 93 112 137 137 148 69 121 115 43 130 112 113 16 49 72 86 90 138 116 99 56 123 44 114 92 87 74 141 97 184 115 44 45 56 131 30 76 107 16 123 69 125 144 93 68 155 61 46 60 81 88 49 55 122 78 121 107 68 137 82 75 46 72 54 99 48 94 122 109 105 95 159 125 100 76 140 69 99 63 106 148 129 98 41 55 138 65 131 65 110 123 125 114 110 122 48 96 92 92 33 105 83 12 86 141 96 36 80 56 160 175 65 55 56 46 69 66 63 88 52 76 73 110 123 79 95 102 88 50 70 51 41 141 128 85 86 83 55 128 83 82 86 97 45 108 102 84 116 60 113 92 91 96 55 111 92 83 72 43 102 95 98 57 38 41 141 125 92 56 120 13 127 34 48 100 98 119 24 58 47 117 115 88 112 57 57 39 48 106 37 142 25 62 118 123 58 113 114 90 87 74 88 59 196 154 81 108 101 127 82 108 130 64 20 91 59 60 55 143 145 127 79 25 116 114 106 36 108 24 64 142 72 99 76 85 89 103 129 89 147 88 82 146 39 64 52 54 69 82 120 100 89 77 63 123 116 69 72 88 76 173 166 67 64 63 119 89 48 102 79 102 54 78 54 170 155 94 58 87 90 107 103 67 52 126 128 155 173 89 130 69 100 95 80 102 154 125 76 146 45 73 82 78 36 137 90 87 123 33 127 61 53 76 76 56 126 57 81 123 78 109 38 40 139 61 83 132 93 55 80 149 140 101 70 89 131 102 70 134 121 59 30 51 48 119 108 112 67 38 87 123 46 38 83 77 47 101 60 135 90 31 111 85 78 33 101 115 119 75 60 76 149 122 154 177 165 53 120 117 128 92 80 60 169 123 95 103 102 79 95 93 78 60 110 123 80 94 101 136 66 49 153 78 51 99 147 166 112 73 87 63 97 64 91 77 91 65 71 113 164 6 89 88 132 75 119 58 39 39 116 101 81 66 112 68 102 56 66 95 88 77 48 41 100 70 138 101 68 91 32 112 68 145 62 56 98 86 115 159 111 40 66 56 126 63 93 78 67 52 91 91 151 156 54 54 102 181 68 118 33 90 166 64 64 39 126 100 34 97 97 88 113 93 70 77 108 57 52 99 47 85 151 118 70 63 99 96 74 80 81 100 89 134 147 50 138 86 41 147 125 142 103 120 123 171 125 87 76 82 53 82 118 145 112 92 164 128 103 95 81 129 81 155 113 125 77 99 86 97 35 106 58 92 28 72 102 43 96 125 63 102 62 69 125 81 85 66 88 75 64 134 83 204 101 135 50 88 86 84 61 30 89 109 76 55 55 82 81 80 97 104 82 53 93 45 90 15 72 94 57 51 81 71 120 83 101 85 68 143 71 32 66 123 146 78 69 91 71 131 74 125 94 112 39 37 70 52 85 62 102 105 74 143 89 90 71 94 181 85 74 103 93 122 70 152 71 60 70 134 91 63 135 151 79 64 113 120 76 109 73 142 60 117 34 93 66 63 155 105 135 47 51 74 21 77 126 154 80 60 34 87 129 70 67 139 102 65 44 96 92 107 167 62 96 83 67 116 38 149 70 137 103 75 47 70 145 44 96 74 144 99 82 88 67 143 122 124 114 88 94 97 141 81 130 175 76 36 60 83 18 54 62 94 72 49 92 80 90 97 116 125 158 67 77 122 87 80 117 72 110 96 122 97 69 42 86 66 49 126 73 124 66 85 103 165 144 40 90 79 61 62 160 52 81 122 112 70 104 44 211 33 90 44 86 119 106 161 95 99 143 119 79 117 145 112 84 95 141 112 110 57 66 81 116 50 102 37 30 54 144 78 44 69 76 84 53 35 66 114 117 77 63 65 53 83 105 97 117 140 136 77 149 62 70 146 118 102 88 71 108 91 107 120 82 133 92 121 193 46 105 76 71 96 76 135 88 91 97 58 30 127 131 99 86 106 91 132 87 38 61 79 104 93 123 88 149 189 115 50 112 68 17 33 99 102 65 124 131 61 145 111 130 52 104 116 25 116 141 100 51 148 75 82 81 29 54 118 32 62 155 80 32 56 91 139 43 40 73 131 138 55 126 108 34 70 24 138 78 142 88 96 106 136 62 52 134 109 116 72 37 68 78 70 90 56 92 96 75 87 147 50 112 142 74 47 77 166 23 80 94 146 49 156 90 82 116 81 70 90 71 45 145 124 189 67 86 110 76 43 61 92 161 45 82 53 105 103 61 76 101 111 184 121 98 128 43 82 132 55 42 154 144 216 105 80 73 81 64 146 38 93 85 84 42 116 60 44 76 148 47 76 61 70 124 109 137 44 140 127 120 104 90 115 155 47 163 103 80 159 159 77 96 105 110 180 34 95 79 35 67 93 107 53 74 81 67 99 103 199 110 116 135 121 51 115 175 33 84 68 82 142 139 146 47 82 96 79 54 135 107 53 88 81 117 141 47 81 73 118 87 85 62 113 87 42 175 48 83 135 183 67 103 48 102 124 104 115 94 61 23 73 120 113 134 63 101 76 72 83 109 86 160 126 109 136 104 84 114 79 149 60 107 74 92 104 105 86 65 118 110 61 208 110 104 85 160 69 133 62 121 93 103 83 44 78 148 82 89 24 117 90 86 64 5 98 89 124 181 76 110 91 45 65 137 71 92 46 117 107 85 157 81 75 98 72 73 90 77 50 149 104 96 124 89 68 37 85 100 44 91 97 77 137 130 32 111 27 141 105 97 110 97 66 169 50 110 108 59 122 61 138 137 86 53 66 57 76 89 54 129 131 142 45 125 140 168 147 154 89 49 35 85 134 143 119 53 143 117 108 71 123 101 88 69 100 51 76 93 134 84 103 71 42 91 103 54 79 91 125 71 33 51 113 114 73 93 77 129 103 99 81 47 48 168 76 176 64 89 132 107 74 77 119 170 96 106 73 128 113 144 79 86 87 94 46 43 48 100 110 145 117 112 44 75 119 87 55 52 65 46 87 150 59 93 123 51 101 69 113 181 59 94 71 94 61 31 53 32 99 66 98 105 115 43 80 149 85 22 70 77 54 141 59 75 186 122 90 80 93 30 32 63 70 198 154 102 124 61 77 116 74 158 125 31 81 117 87 59 118 56 111 39 79 145 30 157 117 146 72 30 94 48 115 134 70 78 53 128 79 54 137 35 21 114 127 73 74 93 150 155 62 98 109 90 108 94 79 135 87 105 113 125 114 96 98 82 68 67 81 60 92 73 89 61 88 78 76 78 92 55 65 113 36 95 69 131 149 109 133 70 93 100 39 129 69 112 132 103 92 86 127 126 100 105 120 69 153 94 134 113 145 96 116 76 62 96 159 66 64 69 82 111 74 108 87 79 114 92 137 188 56 29 130 76 99 68 63 113 77 141 91 82 177 168 89 141 48 77 52 119 28 72 106 80 141 104 71 117 71 58 151 118 57 146 66 75 52 115 163 118 51 92 193 63 39 118 47 79 45 107 140 75 125 66 106 88 58 161 102 103 115 126 20 137 106 79 83 84 45 73 75 60 138 76 94 74 137 51 108 94 86 85 135 116 136 276 65 126 60 43 124 79 106 154 68 108 119 104 104 185 108 89 74 75 158 130 96 76 62 79 73 45 136 134 161 59 134 65 95 88 73 93 37 78 103 78 52 37 139 17 126 21 213 48 19 156 106 165 76 68 100 70 128 90 135 64 169 93 57 36 94 93 129 124 112 82 53 56 77 62 71 64 106 196 135 86 85 78 77 71 148 108 81 117 46 39 76 122 65 124 32 70 25 67 87 125 87 96 133 125 49 132 64 76 108 125 52 82 87 69 69 96 84 93 127 84 85 163 129 139 81 116 81 71 91 48 149 157 181 82 98 104 68 132 84 189 34 35 90 87 116 162 120 92 69 106 64 124 124 22 118 120 115 62 72 81 91 82 59 118 85 123 150 83 106 120 117 27 166 111 112 118 105 105 78 114 69 88 109 146 101 60 80 96 63 62 39 71 126 73 60 87 85 16 92 88 103 113 52 41 77 65 91 93 86 111 111 108 96 40 82 53 82 122 84 55 84 91 155 119 89 98 170 99 92 93 68 107 109 114 17 60 130 86 93 98 12 45 68 115 36 88 95 127 42 168 142 117 107 62 94 39 28 83 96 89 131 106 105 95 126 153 94 37 87 110 118 141 130 94 94 88 53 86 81 75 60 70 109 91 41 21 114 79 97 101 103 149 49 87 69 63 91 76 47 42 148 96 83 79 136 50 127 64 142 99 148 82 48 50 133 62 97 39 123 61 92 133 81 97 49 13 86 130 115 47 121 99</t>
+  </si>
+  <si>
+    <t>GAM(0.383383808249601, -4.4569460492248005e-30, 0.5571194802664949)</t>
+  </si>
+  <si>
+    <t>1 1 1 1 0 1 1 2 0 1 0 1 1 2 1 0 1 0 1 0 0 1 2 0 0 0 1 1 1 0 0 1 2 0 1 1 1 1 0 3 1 0 1 1 0 1 1 0 2 0 0 0 0 0 2 0 1 1 0 1 0 1 0 1 2 1 0 1 1 0 1 0 0 0 1 1 1 0 1 3 0 1 0 1 0 1 2 0 0 0 2 1 1 0 0 1 2 2 0 0 0 0 0 0 1 1 2 1 2 1 0 1 2 1 1 4 0 2 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 2 1 0 1 1 2 1 0 2 1 0 1 1 1 0 0 1 0 1 2 0 2 0 1 0 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 0 3 2 1 0 0 1 0 1 1 0 1 1 1 0 1 2 0 1 2 1 0 0 0 1 2 1 0 4 0 1 1 0 1 0 0 0 0 0 2 0 1 1 0 1 0 0 0 1 2 1 0 1 1 0 0 3 1 0 1 1 0 0 0 2 2 1 0 0 1 0 1 0 0 0 0 2 0 1 1 0 1 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 3 0 0 1 1 1 2 0 1 0 0 1 0 2 0 0 0 2 0 1 0 0 2 0 0 1 1 0 1 0 2 0 0 0 4 0 0 0 0 0 0 0 0 2 2 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 1 0 0 2 1 1 1 1 1 1 0 0 1 1 0 1 0 2 2 0 0 0 0 0 3 0 1 0 0 0 0 0 1 0 0 1 1 2 1 1 2 0 1 0 0 1 0 1 0 0 2 1 0 0 1 0 0 2 0 0 0 1 1 3 2 0 0 1 0 1 1 0 1 2 1 1 1 0 1 3 0 0 0 0 1 0 0 0 2 1 0 0 1 3 1 2 0 0 0 0 1 1 0 1 0 0 0 1 2 0 1 2 0 1 0 1 0 4 0 0 1 1 1 0 1 0 2 0 0 0 0 0 2 1 0 1 2 1 0 1 1 0 1 1 1 1 0 0 1 0 1 3 2 0 0 1 1 0 0 1 1 2 0 1 3 0 0 1 1 0 0 0 1 0 0 0 2 0 0 1 1 0 1 1 0 0 1 1 0 2 0 1 1 0 0 0 0 1 0 1 0 2 0 0 1 0 1 0 2 0 0 0 0 1 2 1 2 2 0 0 1 0 1 0 2 0 1 2 2 1 3 0 0 0 2 2 0 1 0 1 2 3 0 1 2 0 2 0 1 0 1 1 1 1 0 1 1 2 1 2 0 0 0 0 1 0 2 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 1 0 0 1 2 0 0 1 0 0 1 1 0 1 1 2 0 2 0 3 0 0 1 1 0 0 0 1 1 1 1 2 0 0 1 0 0 1 2 0 0 2 0 1 2 0 1 1 0 0 1 1 0 1 2 1 0 2 1 0 1 2 1 1 2 0 1 0 0 1 0 1 2 0 0 2 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 3 1 1 1 2 1 0 0 1 1 2 1 0 1 1 0 1 0 0 0 3 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 1 2 1 1 1 0 0 2 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 3 2 2 1 0 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 1 1 0 0 2 1 0 3 0 1 1 2 2 0 1 1 2 1 0 0 0 0 0 1 0 1 1 0 2 1 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 2 0 0 1 0 1 1 0 1 1 0 1 0 3 1 2 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 2 0 2 0 2 1 1 1 0 1 1 0 0 2 0 1 1 0 1 0 1 1 0 2 1 1 2 0 2 1 0 0 0 0 0 1 2 0 0 1 0 0 1 1 1 1 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 3 0 1 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 2 0 1 1 1 2 0 2 0 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 2 2 0 1 1 0 0 1 1 1 0 0 2 1 0 0 1 1 0 2 1 1 0 1 0 0 2 3 0 0 1 0 1 0 0 1 0 1 1 2 1 1 2 2 0 1 0 1 1 0 0 1 2 1 0 0 0 2 1 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 0 2 0 0 1 2 0 1 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 2 0 1 1 2 0 1 0 1 0 0 0 0 2 0 1 1 0 1 0 1 1 1 1 0 2 0 1 1 1 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 2 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 0 3 2 1 0 1 1 2 1 0 1 2 2 1 1 0 0 0 0 0 0 1 0 0 0 1 2 0 1 2 1 1 1 0 1 0 1 0 1 1 0 1 0 1 0 1 1 3 1 2 1 0 0 2 1 1 0 1 1 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 2 0 0 1 0 1 1 1 0 0 1 3 2 1 0 0 1 1 1 0 0 2 1 1 0 1 0 0 2 3 1 1 0 0 0 1 2 1 1 1 2 0 1 3 2 2 1 2 1 1 1 0 1 0 0 0 3 1 1 1 1 0 0 1 1 1 1 2 1 1 0 2 0 0 1 0 1 0 1 0 0 0 0 0 3 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 3 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 1 0 0 2 0 0 0 2 0 0 1 1 0 0 2 0 0 0 1 1 0 0 1 2 1 0 1 1 2 0 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 1 2 3 0 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 3 0 1 1 0 3 2 1 0 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 3 1 0 0 0 1 1 1 3 2 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 0 1 1 2 0 0 0 2 0 0 1 1 2 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 2 1 3 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 3 0 4 3 0 0 0 0 0 3 1 1 0 0 1 1 0 1 0 3 0 0 1 0 2 1 0 0 0 1 0 0 2 0 0 0 2 0 0 2 0 0 0 0 3 1 2 0 0 0 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 2 1 0 1 0 1 1 2 0 0 0 1 2 0 0 0 1 1 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 2 1 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 1 2 2 0 2 0 0 3 2 0 3 1 0 1 0 0 0 0 0 0 1 1 1 0 1 1 2 1 0 1 0 1 1 0 0 1 0 0 0 2 0 1 0 1 2 1 1 1 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 3 1 0 1 0 0 0 0 2 1 0 2 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 3 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 3 0 0 1 0 1 1 0 1 2 2 1 1 0 0 0 2 1 0 0 0 1 0 0 2 1 1 2 0 0 0 0 2 2 1 0 2 3 1 1 1 4 0 0 0 0 3 1 2 1 1 1 0 0 0 0 0 1 3 3 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 1 2 0 0 1 1 0 3 1 1 0 1 1 0 1 1 1 0 0 1 1 2 0 3 0 2 0 0 1 0 0 1 0 1 0 0 2 1 1 0 1 0 0 0 0 0 0 0 1 0 1 2 2 0 1 1 0 0 2 3 0 0 0 2 2 2 0 0 3 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 2 0 0 0 1 1 0 1 1 1 1 0 0 2 2 1 0 1 0 0 2 0 0 0 0 4 0 1 0 0 0 0 0 0 1 0 0 0 3 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 2 2 1 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 2 1 0 0 4 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 4 0 1 1 2 0 2 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 3 1 1 0 1 1 0 0 0 1 0 0 1 0 2 2 0 1 1 1 0 0 1 0 1 1 3 0 0 0 0 0 0 2 0 0 0 1 2 1 2 1 0 1 0 2 1 0 2 0 1 0 2 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 2 2 2 1 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 1 0 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 2 1 0 1 1 0 0 1 3 0 0 1 1 4 1 0 0 2 2 0 0 1 0 0 1 3 0 1 2 1 0 1 0 0 0 2 2 0 1 0 0 2 1 2 0 1 0 0 0 0 0 0 0 2 1 2 1 0 0 1 1 0 1 1 1 0 0 0 0 2 0 0 0 1 0 0 0 3 2 0 1 1 1 0 1 1 1 1 0 2 1 2 0 0 2 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 2 0 1 2 0 2 0 1 1 1 2 1 2 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 2 0 1 1 0 0 0 1 2 0 0 0 2 1 0 0 0 0 1 1 0 0 0 1 1 1 1 2 3 0 3 0 0 0 1 0 0 0 1 1 1 0 0 1 2 0 0 1 2 0 1 0 0 1 1 0 0 2 2 0 0 0 0 0 0 0 2 1 1 0 0 2 0 1 0 3 1 0 1 1 0 2 0 1 0 1 1 2 0 1 1 2 0 1 0 1 0 0 1 0 2 0 2 0 0 0 0 1 0 1 0 2 0 0 1 1 1 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 2 0 0 0 0 1 0 2 3 1 1 0 1 0 1 1 0 2 2 0 0 2 1 0 2 1 0 1 3 0 3 0 1 1 1 0 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 1 1 0 1 0 0 1 2 0 1 1 1 1 1 0 1 0 1 1 0 1 0 2 0 0 0 1 0 1 1 0 1 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 2 0 0 3 0 0 0 1 1 1 2 3 0 0 3 1 1 0 0 0 0 2 0 0 1 2 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 2 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 2 1 1 2 0 1 1 1 0 1 0 2 1 0 0 2 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 2 1 0 2 0 0 0 0 0 2 1 0 0 0 1 4 0 0 0 0 0 1 1 1 0 1 0 2 0 1 0 0 0 1 0 1 1 0 1 2 0 2 2 0 0 1 1 0 0 1 0 0 0 1 1 2 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 3 0 0 1 0 1 1 1 0 0 0 0 0 2 0 0 1 1 1 2 1 0 2 1 1 0 1 2 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 2 2 0 1 0 3 0 0 0 1 0 2 1 2 1 1 2 0 0 1 1 0 0 2 3 0 2 2 2 2 0 0 1 0 1 0 1 2 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 3 0 1 0 2 0 1 1 1 0 0 0 2 0 0 0 1 0 3 0 1 0 0 0 2 1 0 1 0 0 0 1 2 0 1 1 0 2 2 0 0 2 1 0 0 1 1 1 0 0 2 1 0 1 0 1 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 2 2 0 1 0 2 1 0 1 1 0 0 0 0 1 1 0 0 0 0 4 2 1 0 0 3 3 1 1 1 0 1 1 1 1 0 0 2 0 0 2 1 0 0 0 2 1 0 2 0 0 0 1 0 1 1 0 1 1 0 0 2 0 0 0 0 1 0 0 1 0 3 2 0 2 0 0 0 0 0 0 0 1 1 1 1 2 1 1 2 0 1 0 1 0 1 2 0 0 0 2 0 0 0 0 1 2 0 0 0 0 0 1 2 2 0 0 0 1 2 0 2 0 1 1 0 0 0 0 0 1 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 1 0 4 1 0 0 0 2 0 0 1 0 1 0 0 1 2 2 0 3 0 1 0 1 2 0 1 0 1 2 1 0 1 1 1 0 0 2 0 1 1 2 0 0 1 0 0 0 1 1 2 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 1 2 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 3 0 0 0 1 0 1 1 1 0 2 1 1 0 2 0 0 0 0 2 1 0 0 1 2 2 2 0 0 0 2 2 1 0 2 0 3 1 1 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 2 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 1 2 2 0 1 0 1 0 0 1 0 2 1 1 3 0 0 1 0 0 0 0 2 1 1 0 1 0 0 0 1 0 1 2 1 2 1 1 1 0 0 1 1 0 0 2 1 1 1 1 2 0 3 0 1 0 0 2 0 1 0 2 0 2 1 1 3 2 1 0 1 0 0 1 1 0 1 0 1 1 2 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 3 1 0 3 0 2 1 1 2 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 3 0 0 0 0 0 2 0 1 0 0 0 1 0 2 1 1 2 1 1 0 0 0 2 0 1 3 2 1 0 2 1 1 2 0 2 0 2 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 2 0 2 1 0 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 1 0 1 3 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 2 0 2 0 0 1 1 2 1 0 0 1 1 0 0 1 0 0 2 0 0 0 1 0 0 0 3 0 2 1 0 0 1 1 0 0 1 1 0 2 1 0 4 2 0 1 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 2 0 0 1 4 1 0 1 0 2 2 1 1 0 1 1 1 0 0 0 2 1 0 1 2 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 2 0 0 0 1 3 0 2 0 2 0 0 0 2 0 1 2 0 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 1 0 2 0 0 0 1 1 2 3 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 2 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 2 0 2 0 2 1 0 1 0 1 0 1 0 0 1 1 0 0 0 1 1 2 2 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 2 3 2 0 2 2 1 1 1 0 0 0 2 0 0 2 2 1 1 0 1 1 0 4 1 0 2 1 0 1 0 0 0 0 2 0 0 2 1 0 0 1 0 1 0 1 2 0 1 2 4 0 1 1 0 2 1 0 1 1 0 2 1 2 2 2 1 1 0 0 1 0 0 0 1 0 1 3 0 0 0 0 1 2 0 1 2 3 1 1 1 0 0 1 1 0 1 0 1 0 0 2 0 1 0 0 3 1 1 1 1 1 0 2 0 0 0 0 2 0 1 1 1 0 0 1 0 0 0 2 2 0 1 0 1 0 0 1 0 0 1 3 0 1 3 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 2 0 0 2 0 3 0 1 0 0 0 2 0 0 0 0 0 2 1 1 2 0 0 0 1 1 0 2 0 2 1 0 0 2 1 1 1 1 1 2 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 1 2 0 0 3 1 0 0 0 1 0 0 0 0 0 3 0 1 0 3 0 0 0 1 1 1 1 0 2 1 1 0 2 1 1 2 1 0 1 0 0 0 0 0 0 0 0 3 1 0 2 1 1 0 0 1 0 0 1 0 1 1 2 0 1 1 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 1 3 1 0 3 0 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 1 3 1 0 0 2 0 0 2 2 1 1 1 0 0 1 1 1 0 1 1 0 2 1 0 0 0 0 1 2 1 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 2 0 0 1 0 1 0 0 0 2 1 0 2 0 1 1 2 2 1 0 0 0 0 2 1 1 0 0 0 1 1 1 0 1 1 0 0 1 0 0 1 0 1 1 0 2 1 2 0 1 2 0 0 1 0 0 0 2 1 2 0 0 0 1 1 0 0 1 2 1 0 0 0 2 0 2 0 0 1 2 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 0 2 0 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 1 1 2 0 0 0 1 1 2 2 0 1 0 0 0 0 2 0 1 2 0 1 1 1 0 2 0 0 2 2 0 0 0 0 0 0 1 2 1 0 1 0 0 1 0 1 2 0 2 1 1 1 0 0 1 1 0 2 2 0 0 0 1 0 1 1 3 0 0 0 2 0 1 1 0 2 0 0 0 0 1 0 1 1 1 0 2 2 0 0 1 1 0 0 0 1 0 0 0 1 2 0 1 1 1 0 0 3 0 0 0 1 0 1 0 0 2 0 1 2 2 0 1 1 0 1 1 2 2 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 2 1 1 0 0 1 0 3 0 0 2 0 1 3 0 1 0 0 0 0 1 2 0 0 1 0 0 1 1 2 1 0 1 1 1 1 1 2 0 0 0 1 0 2 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 2 0 2 1 1 0 1 1 1 0 1 0 1 1 0 0 0 2 2 0 0 2 1 2 2 0 0 1 1 2 1 1 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 2 0 1 1 1 2 0 0 0 1 2 0 1 1 0 0 1 1 0 0 2 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 2 1 1 2 1 0 0 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 2 0 0 1 2 1 0 0 0 2 0 0 0 1 2 0 1 0 1 0 0 1 0 1 0 1 1 0 2 0 1 0 1 0 1 2 1 1 1 1 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 2 0 1 0 0 2 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 1 0 2 4 0 0 0 0 1 0 0 1 0 0 0 0 1 2 1 1 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 2 0 1 1 1 0 1 2 1 0 0 0 0 2 0 1 3 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 1 0 1 1 0 3 1 0 0 2 0 1 0 1 0 0 1 1 2 0 2 2 1 1 0 1 0 1 1 0 1 2 1 0 0 0 0 1 2 0 1 0 0 2 1 1 3 1 2 1 0 0 0 0 0 1 2 2 0 3 0 0 2 1 0 0 3 4 0 1 1 0 2 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 1 2 0 2 0 0 0 1 1 0 2 1 0 0 1 1 0 2 1 1 1 0 0 3 1 0 1 1 0 0 0 1 0 0 1 2 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 3 0 2 0 1 0 1 1 0 0 3 0 0 1 0 0 1 1 0 0 1 1 2 1 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 2 2 0 0 0 1 0 0 1 1 2 2 1 1 2 0 0 0 0 1 4 0 1 0 0 2 2 1 0 0 2 2 0 0 0 0 0 0 2 0 1 0 0 0 2 1 0 1 1 2 0 1 1 0 2 1 2 0 0 2 2 1 0 0 0 1 0 2 1 2 0 1 1 0 0 1 1 0 2 1 2 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 1 0 0 0 1 2 2 1 0 2 2 0 0 0 2 1 4 0 0 0 0 0 0 2 1 0 0 2 0 0 1 0 0 2 1 1 0 0 0 2 1 1 0 3 2 0 0 1 0 0 0 0 1 0 2 2 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 2 0 0 1 0 2 2 0 0 1 0 3 0 0 1 1 2 1 0 3 0 0 0 0 1 0 1 3 0 2 1 0 0 1 0 0 0 1 1 0 0 2 2 1 0 1 0 1 1 0 0 1 0 1 0 0 0 2 1 1 0 1 2 1 2 0 2 0 1 1 1 1 2 1 0 0 1 0 0 1 0 3 0 2 1 1 0 1 1 0 2 0 0 1 0 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 1 2 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 2 0 0 2 0 0 0 2 1 0 1 0 0 0 0 1 2 0 1 3 2 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 3 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 0 2 2 0 1 0 2 0 0 2 0 1 1 1 0 0 1 0 0 1 1 1 2 0 1 0 2 0 0 1 0 1 0 0 0 1 1 1 1 2 1 0 1 0 1 0 0 2 2 0 0 0 1 1 1 1 0 0 1 1 0 0 1 2 1 1 0 0 0 0 0 2 1 0 2 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 3 0 1 1 0 0 2 1 1 1 0 2 0 2 0 0 0 2 0 1 0 1 0 1 0 1 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 2 0 0 0 1 0 1 1 0 2 1 1 0 0 1 1 2 3 1 1 0 2 1 0 1 1 0 1 1 1 1 1 0 1 0 1 0 2 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 1 1 0 0 1 1 1 0 1 1 2 1 2 1 0 0 1 0 2 2 0 2 1 1 0 1 0 0 0 0 0 0 0 2 0 3 0 1 1 0 1 0 1 1 1 0 3 0 1 0 1 0 1 1 0 0 1 1 0 1 0 2 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 2 0 0 2 0 1 2 1 0 2 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 0 1 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 2 0 0 1 2 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 3 0 1 0 1 0 1 1 0 1 1 1 2 0 0 1 2 0 2 2 0 0 0 0 0 1 1 1 2 1 0 2 0 0 0 1 0 0 0 1 1 0 0 1 2 0 0 0 1 3 1 1 1 3 1 2 2 2 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 2 1 2 1 1 0 0 0 1 0 0 0 0 3 0 1 0 1 0 1 1 2 0 0 1 0 1 1 0 1 0 1 2 0 1 1 0 0 0 1 1 2 1 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 2 2 1 2 0 2 0 0 1 1 0 1 0 0 1 3 0 0 0 1 2 0 1 0 1 0 1 1 1 0 0 2 1 0 1 0 0 1 1 0 1 0 0 2 1 0 1 1 3 0 1 2 1 1 3 0 0 0 0 1 0 0 0 2 1 0 1 2 0 2 0 0 0 0 0 1 2 1 1 0 2 1 0 0 0 0 1 2 2 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 1 1 1 0 1 0 0 1 1 2 0 1 1 0 1 0 0 2 1 0 0 0 1 1 1 1 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 2 1 0 2 1 0 1 0 0 1 0 0 2 1 0 0 1 0 1 0 0 1 1 2 0 2 2 0 0 0 1 0 1 1 0 0 3 0 1 1 0 1 1 0 0 0 1 0 1 0 1 2 1 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 2 1 1 1 1 2 0 0 0 0 0 1 1 0 1 1 3 1 0 0 1 1 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 2 1 0 1 1 1 1 0 0 0 2 0 0 1 0 1 0 0 2 0 1 1 0 0 0 0 1 1 1 0 1 0 2 2 1 2 1 1 1 0 0 1 4 2 1 1 1 1 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 1 0 0 1 2 1 1 1 0 1 0 3 0 2 2 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 2 2 2 1 0 1 1 0 0 1 1 0 1 2 1 2 0 0 1 1 2 1 0 0 1 0 0 0 0 0 1 0 3 0 1 0 0 0 1 2 3 0 0 0 0 0 0 1 0 2 0 1 0 0 3 1 1 0 0 1 0 1 2 0 0 1 0 0 0 0 2 0 1 1 1 0 1 2 0 1 1 1 1 0 0 0 1 1 0 0 0 2 1 1 2 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 2 1 3 1 2 1 0 2 0 2 2 2 0 0 1 1 0 2 1 0 1 2 0 1 0 3 1 1 1 0 1 0 2 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 2 1 1 0 0 0 1 1 2 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 2 0 2 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 1 1 2 0 0 0 0 1 0 2 1 0 1 2 1 0 0 0 1 0 0 1 3 1 1 0 0 0 0 2 1 0 1 1 0 1 0 1 1 2 2 3 1 0 0 1 1 2 1 0 0 0 1 2 2 0 1 0 2 1 3 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 2 2 0 1 1 0 1 0 2 0 3 1 0 1 1 1 3 0 0 1 2 0 1 0 0 0 0 0 0 1 0 2 3 0 0 1 0 0 1 1 2 0 0 1 0 1 0 2 2 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 2 1 0 1 0 0 1 0 2 2 2 0 3 1 2 1 3 2 1 1 2 0 3 0 0 3 1 0 0 0 1 0 2 3 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 1 1 1 0 1 1 0 2 0 0 1 0 0 0 1 1 0 1 2 0 1 0 2 0 0 0 1 1 0 0 0 1 1 3 1 0 0 0 0 1 0 2 0 0 2 0 2 1 1 0 1 1 0 2 0 1 0 2 1 0 1 0 0 1 1 0 0 2 1 0 1 1 0 0 1 0 0 1 1 1 1 3 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 1 1 1 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 1 1 0 2 0 0 1 0 1 3 0 0 3 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 3 0 0 0 1 0 1 0 0 0 1 2 1 1 0 1 1 0 0 0 0 2 1 0 0 1 0 1 3 0 0 2 3 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 2 2 0 0 0 0 1 1 1 1 2 1 2 1 1 0 0 0 2 1 1 1 0 2 0 1 0 1 2 1 1 0 1 1 1 0 1 3 0 1 3 0 3 1 1 0 0 3 0 1 0 0 2 0 0 1 0 0 0 1 0 0 1 2 1 1 0 0 1 1 4 0 0 2 0 1 2 0 2 0 1 1 0 2 0 0 0 1 2 1 0 0 1 1 3 0 0 1 1 0 0 2 0 0 0 0 0 1 2 2 1 2 0 1 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 3 0 0 0 2 0 2 0 0 2 0 1 0 2 0 2 2 0 0 0 0 0 0 1 1 1 1 0 1 2 3 0 4 1 2 0 1 1 1 0 0 1 2 1 1 1 2 0 0 0 0 0 2 0 2 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 2 2 0 1 0 0 0 1 1 0 1 1 0 0 1 0 1 2 1 0 0 1 0 0 1 0 0 1 0 0 0 2 1 1 2 0 1 0 2 0 0 2 1 0 0 0 1 0 3 0 1 1 0 0 0 1 1 1 1 0 1 0 0 3 1 1 0 0 0 2 1 1 2 1 2 1 1 1 2 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 0 1 3 1 0 1 0 1 0 0 2 0 3 1 0 1 0 3 1 1 1 2 0 1 0 2 0 3 0 0 1 0 0 3 0 2 0 0 1 1 1 1 1 1 1 1 0 1 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 3 0 2 2 0 0 1 1 1 1 0 1 2 0 0 0 2 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 0 0 4 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 1 3 1 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 1 1 1 1 1 2 2 1 1 1 1 1 3 1 0 1 1 1 0 2 0 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 0 1 2 0 1 2 0 0 2 1 1 3 0 0 0 1 0 0 0 0 1 4 0 0 1 1 2 2 1 1 1 0 0 3 1 2 0 0 1 0 0 0 2 0 2 1 0 0 0 1 0 2 0 0 1 1 1 0 1 1 2 1 0 2 0 1 0 0 1 0 1 3 0 3 1 2 0 0 0 0 0 0 1 0 1 0 1 2 1 0 1 0 0 1 1 2 0 0 1 2 2 2 0 1 0 0 0 0 0 1 1 0 0 0 2 1 1 2 1 0 1 1 0 0 1 0 1 1 0 0 3 0 2 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 0 1 1 0 1 0 1 3 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 2 1 1 0 0 0 2 0 0 1 1 0 3 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 2 1 2 1 0 1 0 1 2 0 1 0 1 0 1 0 0 0 0 1 1 2 1 0 2 1 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 1 0 1 0 0 1 2 2 0 1 0 0 0 3 0 1 1 0 0 0 1 0 2 2 2 2 0 2 0 0 3 1 0 1 0 0 0 0 0 0 1 0 2 3 1 0 1 0 1 1 1 1 0 2 1 0 0 0 2 1 0 0 2 1 2 1 2 2 0 1 0 0 1 2 1 2 0 0 0 0 0 0 0 1 3 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 1 1 0 0 0 0 0 0 1 2 1 0 1 0 0 0 1 2 2 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 2 1 2 0 0 1 0 0 1 0 2 2 1 0 0 1 1 0 0 2 1 3 1 1 1 2 1 1 1 1 0 2 0 2 3 1 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0 2 0 1 1 0 2 1 1 0 0 1 0 1 1 0 2 0 1 0 2 0 0 1 1 1 1 1 0 0 2 3 2 0 1 0 1 0 0 1 0 0 1 2 3 0 1 0 1 0 2 0 0 0 0 0 1 2 1 0 1 0 0 3 2 1 0 0 0 3 1 0 0 2 0 0 1 0 1 1 1 1 0 0 2 0 1 2 1 1 1 2 1 1 1 2 0 0 0 0 0 0 1 1 2 0 2 1 3 1 1 2 1 0 0 0 3 1 1 1 2 1 0 0 0 1 0 1 0 1 0 3 0 0 0 3 0 1 0 1 0 0 1 0 1 0 0 1 0 1 1 1 1 1 1 0 0 0 2 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 2 2 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 0 2 0 0 0 1 2 1 0 0 2 1 1 0 0 1 1 0 0 2 0 0 1 0 2 1 0 1 1 2 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 3 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 1 0 0 0 1 2 0 0 0 1 1 2 1 0 1 3 0 0 0 0 2 1 2 0 1 0 3 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 1 0 1 0 1 0 1 3 1 2 1 0 2 1 2 0 0 0 0 0 1 0 1 0 2 0 0 1 1 2 2 1 1 0 1 0 0 1 2 0 1 0 1 2 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 1 2 1 2 0 2 1 0 1 0 0 1 1 1 1 1 2 2 0 1 0 1 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 1 2 2 2 1 0 1 2 1 1 0 0 1 0 1 1 2 0 1 0 0 0 1 1 0 0 1 0 0 0 1 2 0 1 0 1 0 1 2 1 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 2 0 1 2 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 3 0 1 2 2 0 0 6 0 0 1 2 0 3 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 2 0 1 1 1 2 1 1 2 0 0 2 0 0 0 2 3 0 0 2 0 0 3 1 1 0 2 0 1 0 0 0 1 0 0 1 1 2 1 0 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 2 0 2 0 1 0 0 0 0 0 0 0 1 2 2 0 1 2 1 2 1 2 0 2 0 0 1 3 0 0 0 1 1 1 0 2 3 0 1 1 2 0 2 0 1 2 0 0 2 1 0 1 0 0 2 1 1 1 1 2 1 0 0 1 0 1 0 0 1 1 1 1 0 0 1 0 0 2 0 1 0 2 1 2 0 2 0 1 0 1 0 1 0 1 2 1 1 1 2 0 1 4 0 2 1 1 1 1 1 0 0 1 0 1 0 0 0 1 0 0 3 0 0 1 0 2 1 1 0 2 1 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 0 1 2 0 0 1 0 1 0 2 1 0 0 2 0 1 0 0 3 2 0 0 1 1 2 0 1 2 1 2 1 1 1 0 2 0 1 1 0 1 1 2 1 1 2 1 0 1 0 1 0 0 3 0 0 0 3 3 1 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 1 0 4 0 1 2 0 1 1 1 1 0 1 0 1 0 1 1 2 0 1 0 0 1 1 1 1 2 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 1 2 0 1 0 0 1 0 0 0 0 0 1 1 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 2 0 2 0 1 1 2 2 1 0 1 1 1 0 2 0 1 0 2 2 0 1 0 0 0 0 1 0 0 1 1 0 0 2 1 1 0 0 0 0 0 0 0 1 1 2 0 1 0 0 0 0 0 1 2 2 1 2 1 0 2 1 1 1 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 1 2 1 0 1 0 0 1 0 1 1 1 2 0 0 1 1 2 0 0 2 0 2 2 2 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 2 1 0 0 0 1 1 0 0 0 2 1 0 1 1 1 0 1 1 2 2 3 1 0 0 2 0 1 0 0 2 2 0 0 0 1 2 1 0 2 0 0 2 1 1 0 0 1 2 0 1 2 0 0 0 0 1 0 1 2 0 1 0 2 0 0 2 0 0 2 2 1 1 2 1 0 1 0 0 0 0 2 1 0 1 1 0 0 1 0 3 2 0 3 1 0 0 0 4 1 1 0 0 2 0 3 2 2 0 0 2 1 1 3 0 1 2 0 2 1 0 1 0 0 1 2 0 0 0 0 2 1 0 1 0 0 0 0 4 1 0 1 0 2 0 0 1 2 0 0 0 0 1 1 0 2 1 0 2 0 0 0 1 0 3 0 1 0 0 2 0 0 2 1 1 0 2 0 1 1 0 1 1 2 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 2 2 0 0 1 1 0 0 2 1 0 1 0 2 0 1 0 0 1 1 3 0 1 1 2 1 0 0 1 1 0 2 0 0 1 2 0 1 0 1 2 2 2 0 2 0 0 2 2 1 0 1 1 0 0 1 0 2 1 0 1 0 2 0 1 0 1 0 0 0 1 0 0 1 1 1 2 0 0 0 0 0 2 1 1 2 0 1 0 0 2 1 0 1 0 0 0 0 1 2 0 0 2 1 0 0 1 0 0 2 2 1 0 2 1 1 0 2 2 2 1 1 1 0 1 0 0 1 2 0 1 0 0 0 1 2 0 0 0 2 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 2 3 2 2 0 1 2 0 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 0 0 0 2 0 2 0 0 1 0 0 0 1 2 1 0 0 2 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 3 1 1 1 0 0 0 0 0 1 2 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 1 0 0 2 2 1 1 1 1 2 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 3 0 0 1 1 2 1 0 1 1 0 1 1 1 1 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 1 1 1 0 1 1 2 0 0 2 1 1 0 0 0 1 1 2 0 0 0 0 0 0 2 1 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 2 1 0 0 0 2 2 3 0 0 3 0 0 0 0 2 0 0 0 0 2 0 0 0 0 2 0 1 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 2 1 0 1 2 1 0 0 2 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 2 0 1 0 2 0 0 1 0 1 0 0 0 1 2 1 0 2 3 1 1 0 0 1 1 0 0 1 0 2 1 0 1 1 1 2 0 1 1 0 2 2 0 1 3 1 1 2 0 1 0 0 1 0 2 0 0 0 0 0 2 0 2 1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 2 1 1 2 0 2 1 0 2 1 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 1 1 2 0 1 0 2</t>
   </si>
   <si>
     <t>Name</t>
@@ -258,52 +258,52 @@
     <t>C.Boswell</t>
   </si>
   <si>
-    <t>NIG(51.476375976124515, 30.148652684096266, -10.27091066496743, 42.82302015003931)</t>
-  </si>
-  <si>
-    <t>13 17 14 7 20 24 16 10 10 14 17 22 15 10 7 35 14 14 14 17 13 24 17 15 32 10 38 13 17 26 34 24 27 20 13 28 13 20 23 19 30 28 8 34 26 19 19 13 14 23 21 29 15 16 20 23 35 35 14 25 21 13 16 16 12 23 24 30 20 10 16 17 16 3 17 9 13 20 24 35 27 12 15 26 29 14 16 10 20 21 28 27 31 16 26 16 16 24 34 24 31 27 27 23 17 13 20 41 24 26 16 20 13 30 31 16 14 13 23 24 13 26 20 13 37 9 24 24 30 27 30 9 7 34 26 19 34 17 27 20 17 10 23 21 30 24 6 24 10 27 10 17 27 11 18 19 6 6 24 20 16 24 27 30 26 32 38 19 15 33 23 17 14 17 24 29 24 38 19 29 24 13 3 13 40 10 17 16 19 24 24 31 13 23 21 23 24 24 17 18 24 20 13 9 28 19 16 17 20 31 23 23 17 12 14 9 13 26 24 40 22 20 23 20 17 7 16 27 22 23 13 20 17 10 34 11 16 19 27 19 6 14 26 41 17 10 28 24 38 20 9 24 18 16 27 21 20 17 27 28 12 20 18 16 17 28 17 21 9 29 24 10 24 10 15 21 20 26 20 30 13 26 23 21 28 34 30 34 41 11 16 20 13 14 17 37 3 19 23 14 10 21 16 26 10 20 12 10 16 17 24 23 10 14 28 16 28 12 24 27 27 30 14 34 8 29 35 23 28 24 20 15 44 21 0 21 31 15 20 10 12 23 27 20 20 17 3 27 26 23 27 9 23 19 17 14 26 14 24 21 16 12 17 20 24 17 23 31 7 18 6 10 19 38 28 11 16 38 26 15 30 36 19 19 24 13 20 21 14 17 23 13 13 13 27 7 17 17 23 7 22 24 14 27 27 33 16 24 26 17 13 17 10 7 19 16 12 29 19 5 31 27 14 24 20 20 27 14 27 20 33 24 33 27 3 17 28 10 20 33 21 24 31 17 14 24 13 37 17 10 10 19 31 13 21 13 30 16 9 22 24 20 23 9 19 6 6 14 16 13 16 13 16 17 14 20 16 20 35 13 27 20 20 19 37 23 17 26 17 17 17 10 24 28 21 6 22 27 22 17 28 14 16 8 28 31 26 11 17 26 25 23 44 38 20 20 20 31 16 10 31 17 13 31 17 16 22 17 34 24 16 21 17 16 17 31 13 31 21 18 24 15 17 20 27 13 10 14 16 30 30 26 23 23 29 20 20 29 21 21 13 17 9 34 17 14 20 16 13 38 27 27 21 27 9 10 20 34 13 37 6 32 14 16 23 23 19 13 10 27 24 19 13 30 26 20 38 16 21 24 16 19 30 14 27 17 34 21 27 30 20 14 15 10 16 19 24 13 20 30 19 20 26 16 27 16 26 13 19 15 21 34 27 19 19 17 9 14 23 22 27 37 29 28 27 18 16 17 24 19 6 13 20 27 24 24 19 6 24 18 13 37 24 24 16 19 35 17 11 10 26 17 37 23 20 24 21 9 6 12 21 26 17 26 10 20 24 3 13 14 26 23 28 17 27 13 7 27 28 13 20 24 16 20 17 22 19 7 14 19 40 21 23 21 23 23 12 17 21 25 24 6 23 20 16 17 20 21 17 31 8 23 26 16 24 13 15 27 31 13 33 6 21 16 26 16 14 6 29 20 20 31 17 31 26 9 19 27 34 20 23 23 23 18 10 9 6 20 13 16 13 16 12 3 34 20 20 14 20 22 9 23 14 17 10 37 16 23 13 21 12 20 35 27 28 24 13 19 27 21 21 38 19 11 28 31 17 17 27 16 13 16 21 16 28 31 27 13 16 7 41 9 12 10 16 20 24 19 16 22 9 21 33 14 26 17 22 17 27 17 22 14 20 23 27 10 27 16 21 36 17 20 7 24 34 21 15 19 22 27 22 10 6 19 21 19 35 7 24 20 25 19 26 27 34 21 12 35 40 27 33 27 17 16 23 20 26 21 26 14 7 26 7 30 23 16 24 16 28 38 23 23 16 16 14 12 24 27 21 27 3 32 20 27 12 26 10 26 25 25 22 3 24 27 7 38 12 34 27 14 13 31 13 26 23 7 10 17 27 15 20 33 20 20 20 34 26 23 14 27 23 31 12 16 21 20 20 14 24 24 10 26 40 14 16 24 21 28 26 22 24 28 24 9 19 15 38 29 24 21 13 31 35 20 31 17 24 25 34 31 15 23 30 12 24 30 35 0 34 10 36 21 14 16 16 17 17 24 19 7 23 22 13 3 12 24 17 17 24 26 10 31 7 20 24 20 17 15 20 34 24 28 18 17 5 16 41 20 17 17 20 21 13 13 21 20 20 3 22 13 15 10 27 23 24 33 20 10 15 31 28 17 23 16 14 10 10 20 24 10 21 14 20 17 10 20 16 17 23 31 23 20 23 35 34 26 19 13 13 20 9 20 13 18 12 20 6 16 15 26 20 14 27 28 17 26 15 23 20 17 36 16 10 9 20 13 19 31 10 19 27 14 20 17 23 20 24 19 19 13 16 27 43 6 23 20 27 23 24 20 30 13 24 23 24 27 23 25 20 27 17 19 6 19 9 19 24 19 23 27 7 20 13 17 16 17 16 19 10 10 31 14 10 21 17 27 3 10 19 17 20 24 17 13 28 24 13 16 13 31 20 17 35 12 24 21 12 28 13 10 13 23 25 24 23 23 17 37 10 37 20 19 24 13 7 29 10 17 23 23 24 21 18 31 19 27 37 24 19 17 27 25 14 3 23 29 16 13 23 31 23 28 34 27 35 24 10 24 27 37 24 24 17 18 24 23 27 31 34 24 27 10 34 22 24 17 20 20 19 10 35 20 17 22 28 27 13 8 17 12 27 26 16 17 31 32 26 20 13 36 29 17 13 17 10 41 13 17 20 24 6 14 3 23 13 27 6 19 22 47 24 23 30 10 12 20 14 14 20 7 31 13 17 21 13 9 27 18 20 30 24 21 14 27 31 10 13 24 3 6 21 13 13 15 13 17 7 33 33 18 34 16 19 13 13 13 14 17 34 31 19 17 6 35 21 9 24 13 41 7 13 41 26 10 10 10 19 10 26 9 18 25 20 26 13 27 30 7 30 16 26 29 13 31 16 16 6 14 24 37 31 21 30 23 28 3 26 17 10 16 23 3 17 16 27 16 17 30 17 29 24 27 18 16 24 32 26 10 17 16 14 7 12 27 20 19 34 21 18 17 23 20 16 10 27 9 27 23 27 27 10 21 31 17 27 41 34 10 20 6 26 23 17 24 27 16 3 23 20 13 13 30 25 17 10 24 29 24 30 20 17 17 23 23 26 27 28 14 23 30 28 9 16 9 7 17 17 31 10 23 10 33 6 17 20 38 13 27 27 17 17 19 34 27 20 21 23 35 0 16 19 20 38 21 14 17 24 12 20 36 22 26 24 21 30 20 20 16 17 27 31 23 21 16 28 27 17 17 20 21 27 10 27 15 16 24 29 13 16 21 17 21 24 20 9 22 33 15 19 23 20 20 35 27 26 7 29 20 41 10 17 16 33 19 26 13 17 10 22 16 31 21 24 34 20 21 13 31 24 21 17 21 20 20 23 28 28 21 48 24 14 17 22 27 16 3 27 16 15 33 15 24 23 23 15 20 20 16 12 6 16 21 31 9 10 27 13 13 13 13 17 27 10 13 6 34 10 9 6 13 36 20 22 13 12 24 21 34 22 38 20 30 10 20 22 23 17 17 18 24 23 41 23 27 14 24 13 38 16 37 13 14 10 18 9 21 17 23 33 14 15 23 14 16 23 20 34 29 40 21 17 6 31 6 3 38 6 17 20 25 32 30 40 27 34 31 25 26 14 14 10 20 16 24 20 22 10 27 28 10 31 7 23 24 26 28 14 10 28 17 20 17 10 37 24 31 24 24 24 7 15 13 30 10 16 36 44 23 14 21 14 24 28 20 10 23 13 20 27 26 40 24 30 24 25 29 13 14 7 21 34 14 24 20 28 15 14 13 27 23 7 13 14 7 31 15 37 17 19 14 24 22 21 27 41 14 12 20 24 24 29 22 13 23 19 13 28 17 23 3 16 24 31 24 27 33 13 11 31 23 27 20 19 20 30 26 17 10 19 32 27 6 10 30 20 21 7 41 26 17 19 26 16 26 24 12 34 14 29 20 17 21 22 14 14 16 16 21 20 23 24 20 17 12 23 23 38 9 30 24 24 13 17 24 17 20 28 16 38 10 21 9 6 13 24 27 26 27 16 26 7 19 17 10 10 9 20 30 41 9 24 19 24 15 29 27 19 30 18 10 26 22 10 21 21 34 25 13 31 20 13 31 21 31 20 13 20 29 38 17 17 30 20 9 10 30 24 29 30 15 21 13 21 10 20 17 13 30 24 17 17 6 23 30 37 21 17 13 24 24 21 10 14 23 11 29 17 31 30 26 19 24 18 12 17 17 31 19 24 0 12 14 37 13 27 15 13 38 17 20 41 27 24 3 10 31 26 27 27 24 20 13 6 26 16 20 34 20 48 27 19 24 20 24 13 23 6 7 24 13 7 21 16 16 20 22 7 10 37 33 28 27 7 16 22 16 17 20 10 6 12 19 14 26 13 19 24 34 25 17 34 17 21 11 14 13 28 33 23 9 26 26 20 29 20 17 16 20 13 15 38 20 6 20 21 29 14 20 20 20 33 10 26 16 34 15 21 17 27 21 20 13 19 27 13 20 23 18 28 20 11 21 29 12 13 21 19 9 20 35 24 12 28 13 26 17 20 17 20 30 10 14 24 7 21 34 30 9 24 37 16 7 34 23 23 13 16 23 31 6 24 17 22 31 34 17 9 13 27 20 6 12 34 16 27 23 20 15 24 14 14 24 13 13 13 37 21 24 24 38 30 21 24 38 21 22 29 28 23 29 21 15 20 21 23 10 20 10 37 13 23 20 15 12 23 24 3 23 27 20 21 13 19 9 16 10 24 27 13 19 35 20 20 10 24 33 20 27 24 23 17 6 10 17 20 17 13 24 21 23 33 19 20 26 23 14 20 20 23 6 26 30 23 24 13 27 31 8 23 13 17 26 9 13 14 7 14 6 16 13 25 20 10 7 14 27 17 27 9 21 9 22 22 18 24 30 32 25 34 19 13 20 27 6 9 17 17 13 19 12 17 14 20 3 20 17 27 21 20 24 26 30 20 16 14 29 23 27 34 19 15 9 20 28 10 21 20 20 24 19 24 9 9 9 16 17 23 25 28 25 38 24 14 23 38 24 17 23 3 16 42 28 20 13 20 24 6 33 24 37 16 16 28 12 23 13 17 12 21 17 48 23 20 30 21 13 19 21 27 33 21 9 31 20 19 20 10 30 34 17 34 10 20 7 17 22 27 10 21 30 21 30 22 20 16 7 31 15 24 10 10 7 17 21 6 26 27 13 30 16 31 22 19 12 24 27 29 23 17 13 9 23 10 13 6 16 22 19 23 21 37 30 16 7 19 22 27 12 21 26 30 24 23 42 10 31 16 21 34 22 13 24 27 21 31 20 37 31 24 20 15 31 31 30 20 14 16 22 14 21 24 27 17 17 7 19 17 20 12 28 13 27 15 21 10 20 24 10 20 7 30 23 16 13 21 24 34 21 25 20 34 20 7 20 45 17 20 24 24 17 20 51 7 23 17 10 21 38 27 12 13 21 6 17 30 19 6 16 15 17 20 14 31 36 44 28 20 27 16 10 13 24 28 27 34 23 31 30 7 17 10 28 28 24 33 16 23 13 20 12 31 21 10 14 24 3 9 34 24 17 24 37 34 24 16 16 26 22 22 20 23 13 23 6 3 31 14 19 20 30 10 26 28 17 13 16 6 0 28 16 15 20 16 28 21 19 20 16 30 16 9 24 17 21 11 30 16 9 14 28 27 7 21 21 26 27 27 24 3 24 25 16 24 13 30 10 15 26 16 27 21 29 30 3 23 6 20 20 14 21 14 23 20 3 13 24 37 6 27 6 24 17 28 20 33 30 19 17 17 22 28 16 27 24 25 10 17 17 28 26 31 16 34 13 7 21 26 17 12 17 12 26 10 13 3 17 21 23 23 16 27 11 15 23 28 19 7 27 23 34 30 32 10 17 38 24 20 20 18 20 10 26 20 24 10 41 21 24 3 16 21 24 21 24 17 0 13 23 9 9 10 17 17 20 3 10 20 34 20 19 34 38 13 12 10 23 10 23 26 14 9 17 7 28 17 17 7 0 18 10 16 23 20 20 18 30 30 13 30 19 17 20 23 38 6 28 21 14 18 27 17 20 28 23 16 41 30 20 17 14 26 27 11 10 30 3 24 13 12 34 30 10 20 20 23 21 19 24 42 30 16 27 20 23 41 23 34 16 26 35 26 18 17 12 38 24 9 25 17 28 14 17 13 12 31 17 9 24 12 10 14 3 38 24 21 17 10 44 19 23 27 20 7 13 16 24 20 27 28 27 21 30 14 16 15 7 26 7 35 19 20 13 10 20 14 24 27 19 18 16 6 26 10 23 27 17 17 45 27 12 19 13 6 24 16 16 16 9 16 21 17 27 10 33 34 6 28 14 30 16 24 31 23 19 17 20 23 27 25 9 17 17 16 24 3 20 27 30 23 28 21 23 12 26 13 17 27 6 23 17 25 23 29 7 23 23 23 20 26 7 24 18 6 16 27 26 0 28 16 15 3 15 21 30 23 26 16 24 21 14 0 37 10 17 25 30 14 34 41 19 23 34 28 25 14 12 31 23 6 31 23 32 27 6 34 30 20 26 27 21 20 6 17 17 17 20 28 23 14 37 14 14 9 38 20 32 21 13 6 42 23 24 26 20 19 10 30 7 24 19 15 16 16 10 12 24 31 27 20 20 7 17 7 21 22 31 16 27 23 25 16 31 10 30 6 20 13 20 36 20 28 13 23 13 18 19 13 16 30 27 9 33 21 23 24 26 35 21 17 17 28 47 30 18 14 30 19 9 6 24 37 23 30 9 13 27 16 21 28 14 20 20 24 21 10 17 6 16 35 24 24 37 30 27 24 30 7 26 20 27 27 14 45 27 22 17 13 14 14 14 19 17 30 19 17 3 10 35 13 12 6 31 20 23 24 20 27 13 31 14 23 42 6 14 14 5 34 33 27 7 24 27 17 24 13 17 14 16 17 22 31 24 17 27 20 9 23 16 12 9 33 24 17 31 20 20 23 21 6 16 22 17 13 7 24 3 13 19 23 17 27 13 28 31 24 17 10 10 11 20 17 24 23 20 13 21 28 35 17 17 7 16 10 6 41 21 20 20 24 24 24 13 16 34 10 34 29 10 24 20 26 17 20 21 31 7 13 23 22 3 16 20 28 10 10 24 19 27 23 34 16 10 31 14 19 24 17 10 17 16 16 28 28 16 16 27 12 24 28 17 24 13 9 10 12 16 13 10 30 13 29 23 10 23 33 22 27 24 20 27 30 27 20 28 25 29 16 40 36 28 19 30 12 14 16 15 17 7 20 13 15 25 21 17 16 41 38 40 13 16 27 17 15 27 44 28 23 23 45 10 23 20 10 24 22 20 18 27 18 20 7 16 16 7 16 14 17 9 31 19 12 34 24 24 21 19 13 27 6 20 16 3 35 14 30 24 11 27 19 20 9 12 26 20 17 27 23 31 14 10 21 27 13 41 20 27 41 31 31 31 21 13 32 26 13 27 23 12 14 31 28 9 20 25 38 30 6 20 7 19 20 26 10 31 14 16 23 3 19 20 23 38 16 17 10 15 30 14 26 9 0 33 24 13 27 36 14 17 34 26 21 21 3 17 18 26 14 22 34 3 22 21 30 20 27 17 28 22 9 19 16 28 27 13 20 20 40 0 13 17 10 6 27 33 16 24 7 21 20 28 27 20 27 24 23 30 17 7 13 17 25 19 6 29 20 33 14 12 29 23 17 23 37 17 17 17 17 16 27 13 10 10 7 24 20 17 17 22 15 20 21 24 7 20 32 13 24 21 23 21 16 20 27 20 21 14 27 28 22 29 20 27 20 20 13 20 18 26 6 17 14 6 20 23 27 37 20 14 23 10 14 13 21 21 16 16 20 19 27 17 13 31 20 27 21 13 24 3 16 16 25 13 13 13 26 10 36 31 20 15 13 17 17 16 20 31 23 30 34 14 17 24 27 10 6 17 16 20 13 16 24 12 17 26 25 22 20 26 13 23 22 20 20 20 15 17 10 24 26 16 24 16 12 13 16 35 16 14 30 17 0 17 10 9 13 24 30 33 20 10 24 10 23 23 22 12 27 17 12 15 14 19 33 19 19 25 24 10 17 19 3 24 23 3 20 13 17 23 34 24 23 28 33 31 17 20 32 17 17 23 14 13 31 15 13 16 10 26 30 7 13 16 19 24 17 34 24 36 14 16 8 17 37 27 22 20 38 21 27 15 16 13 10 9 24 13 17 31 14 16 28 17 10 30 19 28 3 6 35 21 11 27 14 24 17 13 17 23 13 33 10 41 20 26 28 21 16 3 17 18 27 19 13 24 24 10 24 16 29 16 12 24 30 14 14 24 29 14 23 10 10 20 21 10 17 22 3 6 12 31 23 28 20 33 27 19 20 20 9 7 10 23 13 16 14 15 21 34 16 13 15 13 13 17 13 14 17 16 23 19 20 20 20 13 25 14 6 13 6 20 29 31 24 34 14 24 17 35 23 31 24 17 23 19 16 26 16 17 26 22 35 17 17 17 24 16 24 21 16 24 3 38 19 18 20 19 20 31 21 21 30 34 21 20 20 18 13 20 17 30 20 15 25 6 18 6 16 23 13 13 20 27 14 30 23 13 22 17 12 24 17 24 16 28 21 19 23 28 20 13 28 24 20 23 10 30 16 23 33 27 24 6 17 27 20 27 3 18 17 12 31 10 13 10 27 17 6 20 20 23 14 34 33 30 23 13 10 7 14 14 14 26 19 18 24 3 13 34 15 34 24 23 7 24 16 13 17 13 19 21 27 26 24 20 27 23 28 33 20 28 17 17 40 27 31 20 21 28 15 27 13 13 17 35 25 13 26 17 27 17 23 17 20 28 16 10 27 24 20 15 21 17 23 23 37 24 18 27 22 24 24 13 23 31 14 16 34 34 31 28 29 9 8 38 26 17 23 20 34 24 23 13 13 20 22 20 24 27 21 20 22 31 17 17 20 23 22 16 12 9 24 6 20 41 19 23 20 14 9 9 33 21 26 20 24 14 20 20 30 16 38 14 34 38 7 21 14 17 24 17 10 20 21 19 17 50 20 41 26 34 16 30 10 17 16 17 21 27 31 17 22 24 33 7 33 16 13 23 24 31 20 24 16 7 15 31 30 29 9 20 9 12 8 34 28 13 18 29 23 13 34 24 14 15 29 17 29 20 21 24 30 16 17 24 10 31 17 24 16 19 20 16 17 10 23 17 15 29 14 13 37 14 28 18 27 0 31 19 13 7 27 13 7 20 13 17 35 27 24 10 13 22 24 19 37 15 31 27 14 23 0 10 21 23 20 33 12 28 14 23 27 27 10 28 33 30 25 27 19 13 21 18 20 25 24 20 21 38 27 23 28 26 22 23 3 19 14 13 20 17 10 28 24 34 13 13 17 20 34 27 16 21 6 23 31 17 20 43 44 19 26 17 16 20 17 30 13 23 28 17 28 23 28 16 22 12 17 32 17 25 10 23 31 19 21 16 20 0 27 20 31 24 16 15 17 24 10 23 9 26 20 15 20 23 20 29 21 28 17 24 13 12 0 37 25 34 27 23 27 20 10 9 20 17 0 19 37 3 13 16 23 12 17 16 6 14 21 20 9 28 34 39 31 33 27 26 6 26 23 16 16 27 34 30 21 23 13 14 35 13 40 20 30 21 23 20 22 24 28 10 27 16 22 30 24 17 3 20 17 37 21 16 38 22 16 23 21 13 9 23 23 14 14 24 33 33 40 10 7 30 9 31 18 24 35 27 10 16 20 27 16 17 23 22 20 27 34 31 14 13 17 23 32 10 9 17 24 48 30 16 29 25 26 14 25 12 22 21 24 28 24 6 20 23 16 23 20 25 16 16 34 23 10 17 21 20 3 22 28 26 15 13 19 23 31 18 31 19 13 34 19 19 21 29 6 6 30 17 20 25 24 23 23 21 33 31 13 27 16 32 17 20 24 28 20 27 6 27 16 34 29 23 26 41 6 35 10 20 33 28 12 19 31 23 27 14 29 20 27 13 19 17 10 7 17 17 25 27 41 10 16 33 24 16 27 24 16 23 20 24 28 35 10 38 23 20 14 27 13 21 16 26 19 26 20 31 28 21 17 31 6 16 36 16 24 10 24 20 20 17 21 21 13 26 13 13 27 31 13 33 31 27 30 23 19 24 23 20 13 17 27 9 34 17 17 13 25 20 10 7 19 38 17 19 19 27 13 37 13 28 10 34 31 24 7 23 29 0 10 30 13 27 38 20 27 16 3 27 18 17 13 7 14 29 19 13 17 27 19 10 12 21 19 27 27 19 21 17 16 13 22 21 14 29 9 12 17 23 30 21 26 21 28 30 17 23 24 30 21 31 14 21 12 21 29 22 28 34 31 29 17 25 31 20 19 21 30 23 38 16 13 19 19 29 22 16 28 22 21 17 25 17 27 27 12 10 23 21 7 23 20 23 20 16 20 23 26 31 35 20 25 24 0 37 20 0 13 30 13 20 20 14 7 24 14 6 20 14 13 11 24 17 21 3 19 27 24 26 29 14 16 19 13 24 26 16 24 23 24 24 10 28 33 9 26 17 40 24 16 20 8 21 19 17 22 24 14 18 23 13 17 62 27 17 10 16 21 31 24 20 30 10 27 10 27 27 6 10 23 17 24 14 19 44 17 21 20 7 34 27 13 27 22 24 30 25 10 27 26 10 24 31 14 26 13 20 19 27 17 3 3 38 12 37 27 16 34 17 20 19 27 17 22 28 20 20 25 12 23 20 3 9 16 63 10 18 19 27 38 33 30 27 13 18 15 17 17 11 17 19 23 24 32 23 21 20 6 21 23 33 24 24 24 22 21 22 10 20 6 20 26 16 33 21 20 10 33 14 27 20 28 17 23 20 26 20 21 24 17 6 20 17 31 27 24 19 17 24 27 20 22 41 34 20 16 6 23 32 15 20 17 22 31 41 34 22 16 27 34 24 13 23 22 21 19 16 6 13 16 16 18 11 6 37 6 11 19 27 24 20 29 23 12 15 24 31 31 13 22 20 17 26 22 25 17 24 16 28 20 16 17 17 23 26 30 33 30 10 42 15 20 24 20 34 20 13 16 20 12 33 13 16 17 44 29 23 14 18 15 22 34 10 7 30 34 21 30 14 13 30 17 34 36 10 29 12 25 24 28 21 21 21 24 38 13 28 30 20 35 19 24 26 31 14 41 17 6 23 17 25 23 27 6 13 23 3 20 26 30 24 19 10 26 17 33 27 13 20 26 27 17 23 20 27 14 19 27 27 10 43 17 19 14 13 20 17 13 32 17 31 23 23 16 18 23 17 13 30 16 17 17 17 16 10 21 22 28 11 27 20 24 27 25 7 6 23 26 13 16 23 38 15 21 19 33 28 37 13 20 6 34 14 23 22 23 33 15 6 24 13 16 26 17 17 30 24 12 14 20 23 23 19 14 17 9 23 23 13 26 30 14 34 20 16 16 31 24 16 20 37 20 16 28 20 24 31 23 20 26 16 27 28 22 29 26 27 24 14 24 16 22 27 23 15 37 24 25 20 14 0 16 27 17 27 20 17 7 31 24 33 30 38 13 34 20 30 24 30 17 16 26 27 19 16 31 27 3 6 10 27 24 6 29 21 17 24 21 13 34 32 10 34 20 10 20 14 20 9 40 24 20 27 37 36 13 15 10 20 23 29 26 23 21 18 15 16 21 24 23 20 13 19 34 19 29 24 10 7 20 19 23 20 52 27 27 30 27 20 23 10 17 34 27 19 29 17 24 13 30 20 9 10 24 42 27 21 14 13 37 16 41 27 13 13 24 17 7 16 10 32 23 26 19 24 14 16 24 34 31 22 19 24 9 27 10 27 17 45 19 30 17 27 10 17 17 40 26 20 16 24 21 20 23 7 31 7 23 23 28 27 23 14 30 17 16 37 26 25 37 21 19 24 24 22 24 20 33 25 20 24 27 20 28 13 9 24 37 23 34 23 20 15 20 9 13 15 21 13 9 31 31 22 20 17 14 22 24 13 24 19 24 20 9 18 17 20 26 45 21 33 27 30 17 16 23 12 21 21 23 20 41 34 16 36 24 27 24 13 16 17 34 14 18 0 26 19 10 10 13 35 20 37 27 35 24 17 14 24 6 13 27 17 23 13 10 38 31 15 20 28 10 27 31 20 13 17 17 14 21 20 13 23 16 16 30 37 27 14 20 24 6 20 6 26 16 7 39 20 19 23 20 20 23 27 10 23 17 16 33 27 23 20 13 13 27 16 13 16 26 30 22 24 17 13 20 13 39 16 31 17 20 10 27 17 24 20 37 27 24 24 9 21 17 13 45 14 12 17 24 20 13 3 23 20 31 27 17 27 24 16 10 17 17 29 27 23 10 17 22 10 26 24 17 16 20 27 18 26 17 23 3 17 23 20 17 18 10 19 26 19 19 34 31 29 13 20 19 31 30 23 38 38 33 41 27 31 14 22 35 27 20 17 34 23 24 20 14 14 17 10 18 20 27 9 31 16 27 18 13 16 38 13 15 12 16 17 27 17 16 26 9 29 23 21 34 16 27 34 17 10 34 24 21 31 20 29 24 19 15 16 14 6 41 31 10 13 17 19 3 26 17 27 27 10 35 23 15 40 21 37 9 21 17 34 12 24 31 38 17 26 15 19 17 20 17 45 29 17 26 16 21 23 13 34 30 23 27 21 28 12 27 16 19 16 47 31 19 19 21 24 41 21 17 14 17 20 20 13 20 17 31 25 13 40 17 17 10 17 37 14 16 10 10 14 7 17 31 3 45 7 30 20 38 37 14 20 13 30 27 14 31 37 28 17 27 24 26 30 21 20 11 41 22 14 12 6 30 24 22 13 13 30 31 16 31 31 15 27 15 27 16 20 19 22 6 7 16 32 6 16 20 24 24 24 14 26 10 20 27 13 7 12 27 19 28 27 28 17 13 52 17 35 19 8 17 23 20 19 10 14 12 14 7 27 17 34 21 27 31 13 16 34 30 13 15 20 24 12 21 19 16 18 6 28 30 30 18 17 10 17 17 13 24 23 31 13 31 33 26 13 23 20 27 10 3 20 17 10 37 20 17 14 20 27 17 19 23 26 20 37 27 20 15 9 36 17 20 20 19 23 17 17 23 31 27 34 10 16 7 34 16 20 38 28 19 13 28 11 21 37 20 13 17 20 23 17 34 28 27 26 26 21 24 24 9 41 14 13 12 15 35 20 16 24 19 0 17 17 14 23 20 28 20 28 31 20 7 28 16 37 27 22 34 16 17 25 20 27 6 12 9 16 35 10 21 32 20 33 17 35 24 28 16 21 30 22 20 24 17 30 10 17 22 16 13 13 24 6 13 19 22 27 37 18 27 23 19 16 17 23 29 26 12 23 29 17 26 17 6 15 38 27 3 17 12 27 20 14 22 20 27 24 28 14 27 17 14 37 24 20 19 23 20 14 20 14 29 33 20 7 20 12 37 16 17 24 24 24 12 19 6 27 20 21 26 23 26 19 22 24 27 20 18 20 24 23 24 23 23 17 17 31 17 21 19 15 14 17 20 24 34 28 17 20 17 13 31 30 20 17 24 16 37 27 16 27 16 23 21 21 14 13 21 34 27 16 24 17 27 9 21 20 14 33 20 20 14 40 20 6 27 19 9 33 24 17 14 26 15 16 34 10 21 24 17 20 7 23 20 20 7 25 14 17 17 29 33 22 24 10 17 9 20 20 20 18 14 27 20 28 12 23 23 34 25 20 22 20 19 21 21 13 19 37 23 30 23 18 13 17 27 24 10 24 14 14 23 20 12 25 24 9 35 17 37 13 16 6 16 16 24 34 16 13 9 7 23 22 23 26 7 22 13 25 24 7 14 12 3 9 20 17 21 10 23 24 14 27 14 16 23 17 31 13 22 38 21 35 24 26 28 16 21 30 23 19 12 34 24 16 7 31 21 24 13 21 23 30 24 7 24 23 28 21 16 7 17 41 14 31 24 17 20 13 16 17 24 20 3 21 23 17 38 10 24 17 20 23 13 31 27 19 13 14 24 31 23 33 21 9 8 34 19 21 16 20 27 36 24 20 27 17 23 24 17 23 31 14 27 44 24 21 16 6 30 34 16 20 14 33 24 34 23 18 20 30 45 11 23 9 16 16 18 24 13 16 13 23 16 23 15 21 27 24 17 16 26 17 14 9 21 14 17 23 17 27 28 22 0 24 17 0 13 19 17 26 21 35 19 17 17 14 20 25 30 17 20 10 13 23 23 21 13 23 23 16 21 24 24 27 22 30 39 14 10 20 27 21 35 23 23 28 20 17 17 27 6 34 37 10 17 6 14 19 22 24 23 28 9 20 24 17 17 12 29 15 24 30 31 35 14 19 37 16 22 20 10 10 30 17 3 17 16 14 38 44 27 0 37 23 26 29 17 41 39 30 34 22 20 20 23 16 21 7 21 13 23 16 17 17 23 26 6 24 41 21 34 17 38 22 21 23 31 16 28 10 23 15 23 23 27 10 21 21 43 34 30 10 20 32 24 20 38 28 3 16 10 24 38 21 10 16 44 13 14 20 26 19 27 17 13 13 12 13 13 27 24 19 27 7 27 15 17 16 21 29 41 17 13 23 23 28 31 27 43 25 16 21 40 26 21 9 23 15 37 19 27 16 29 27 14 41 10 23 38 24 16 37 20 38 16 24 20 11 17 19 14 20 13 35 26 23 23 22 13 11 14 16 23 20 17 30 31 16 30 22 41 20 21 16 26 37 31 3 24 22 14 23 25 24 12 13 24 19 31 10 17 14 21 20 22 7 21 27 13 9 36 19 38 14 21 0 26 10 33 21 18 47 19 16 27 28 13 20 30 31 20 10 20 13 24 20 13 20 17 23 21 20 27 16 27 26 10 19 15 17 27 17 18 21 47 20 20 17 21 10 21 23 30 24 24 7 18 17 24 19 27 15 13 34 16 0 22 14 9 23 21 20 26 23 21 24 13 17 30 28 13 3 19 13 17 18 7 28 21 17 31 26 21 14 10 13 37 3 35 29 34 9 23 17 23 10 21 17 17 17 20 13 25 17 17 41 16 21 24 27 38 26 28 32 33 17 23 24 34 9 30 32 7 22 24 13 10 34 7 9 17 10 17 20 13 23 21 17 21 10 17 10 37 19 31 20 3 15 13 14 30 19 24 38 16 26 19 3 14 17 13 10 13 14 22 31 22 37 27 37 25 21 16 14 16 28 20 17 23 24 20 17 32 24 13 28 27 21 20 23 20 26 15 24 20 28 22 17 21 27 34 20 16 17 27 28 16 14 19 33 23 13 9 27 23 17 34 34 29 18 27 24 17 22 36 23 19 23 40 33 10 24 24 11 28 26 14 27 26 17 26 17 13 6 33 24 21 23 13 13 20 34 24 17 38 26 13 20 19 37 20 20 26 20 13 16 24 16 24 16 24 47 20 20 17 21 21 24 6 13 17 17 15 13 9 17 26 17 30 21 13 15 16 36 33 27 13 17 17 16 27 19 27 22 21 31 24 34 24 10 22 23 20 14 20 17 19 13 20 3 31 28 16 19 19 24 3 16 23 33 13 17 24 10 27 16 35 27 13 14 27 6 29 31 26 7 21 17 16 37 41 6 9 24 24 10 13 27 13 30 20 24 20 20 20 28 33 24 21 13 30 13 24 20 20 27 14 24 24 13 20 17 19 20 26 33 23 29 17 13 10 23 23 17 7 30 34 20 3 16 16 26 17 7 42 25 20 20 13 13 13 21 26 35 23 16 10 20 20 17 24 34 20 26 24 20 14 19 20 20 37 27 27 14 10 28 16 10 33 3 13 23 31 38 8 31 21 30 21 16 23 13 17 24 24 6 3 16 19 14 24 29 10 14 16 17 9 19 13 14 24 33 34 31 31 7 21 6 21 22 25 41 27 22 24 34 14 21 20 17 20 12 20 10 20 24 15 17 27 22 8 13 17 10 24 17 19 16 0 35 23 26 13 31 27 25 6 34 14 34 34 17 17 25 17 17 28 10 20 20 24 9 29 16 32 13 22 27 6 17 27 16 22 3 26 25 23 37 12 24 27 17 30 16 22 17 27 3 24 19 24 26 14 24 24 13 13 16 6 13 21 24 21 24 28 31 17 16 23 24 17 13 30 12 13 23 25 24 30 41 23 24 31 20 22 38 10 30 30 27 41 24 28 20 20 23 26 9 14 27 21 21 16 27 26 29 16 10 16 14 20 20 20 20 23 38 16 23 27 26 10 21 26 23 30 23 21 13 13 23 31 34 20 10 32 28 19 24 15 21 22 31 13 10 23 33 29 17 15 28 7 27 16 14 20 19 24 22 20 14 20 17 6 37 18 30 22 31 28 14 22 17 13 12 20 5 27 42 16 20 16 21 29 14 20 17 32 38 27 20 25 10 20 19 13 20 31 27 24 24 18 13 3 13 17 13 14 31 6 20 24 23 19 24 24 43 9 27 14 20 17 12 19 14 7 17 37 23 14 21 35 27 17 13 19 19 22 6 27 23 19 35 28 26 21 30 23 23 17 20 10 12 22 10 54 24 23 24 6 13 14 24 23 33 26 13 30 30 18 23 30 13 27 14 26 16 23 31 27 34 23 27 38 21 21 23 21 17 24 27 13 38 26 35 24 13 22 28 17 20 16 41 13 16 31 20 13 33 41 21 14 7 17 27 30 23 43 9 34 17 19 27 22 20 3 30 29 27 20 26 21 23 25 11 31 27 23 19 34 27 16 14 33 27 37 12 41 20 26 24 17 16 13 19 23 6 31 16 17 29 31 15 20 17 32 13 28 21 10 19 13 24 13 20 38 14 9 14 13 27 27 7 13 20 41 16 19 10 17 9 30 17 18 22 29 16 31 23 21 9 42 10 7 10 21 24 30 38 27 24 21 10 38 31 17 22 18 24 24 10 3 3 27 34 16 28 27 23 38 24 12 22 21 13 30 22 16 16 14 20 10 10 27 27 21 28 6 31 24 7 26 17 31 27 10 12 8 21 23 30 26 24 20 21 31 20 9 21 24 20 24 10 17 17 3 35 17 21 17 14 31 21 31 23 20 20 28 16 33 16 10 13 22 20 20 16 10 23 6 27 17 24 24 9 22 24 21 16 41 19 21 23 2 20 24 13 26 20 23 13 20 20 17 15 13 24 23 29 17 24 18 20 22 24 16 20 29 10 30 27 16 10 18 31 13 16 17 10 13 20 25 20 37 27 24 17 23 21 30 17 17 33 17 13 19 9 18 26 0 3 7 10 49 19 35 10 31 20 27 13 21 17 34 29 6 20 6 12 27 25 21 6 14 26 3 27 7 20 26 31 31 27 34 24 19 38 13 14 22 24 34 6 17 23 13 10 13 40 23 17 21 19 10 44 13 19 14 15 27 21 3 31 28 12 21 35 30 42 23 20 10 20 21 13 16 47 26 27 33 30 17 14 16 33 31 21 30 27 27 16 17 24 3 27 26 28 17 19 20 18 10 17 36 10 18 24 23 21 28 28 10 10 27 17 16 13 19 21 13 22 0 22 14 31 18 25 7 28 27 10 31 16 26 21 10 24 13 34 22 24 16 26 26 34 13 31 30 34 35 31 24 27 16 19 27 24 3 3 27 24 24 16 24 28 20 7 21 15 16 20 31 18 3 21 13 28 24 17 14 27 27 30 27 23 20 22 17 24 22 20 17 24 6 17 15 22 35 24 24 13 20 20 30 29 24 17 14 17 14 21 25 20 27 23 16 23 20 17 13 28 34 16 16 14 23 20 36 34 28 29 22 17 35 35 26 15 11 30 34 20 27 20 27 10 26 16 30 6 24 16 33 24 21 15 12 26 24 28 6 21 16 17 41 13 28 34 17 17 28 13 17 27 27 13 32 20 18 23 33 20 30 17 34 16 34 38 23 21 6 35 27 23 9 24 14 25 16 14 6 20 28 20 22 23 20 41 24 17 34 27 17 34 27 21 28 24 14 19 14 20 20 19 26 12 29 31 34 17 23 20 6 20 24 34 20 9 26 24 15 24 16 27 31 16 3 0 29 22 15 6 16 13 10 23 21 27 16 16 13 0 22 27 12 14 16 20 17 17 30 19 26 23 15 9 27 24 17 24 7 22 41 31 38 14 17 31 24 38 20 20 28 27 17 31 27 26 22 17 20 35 28 24 23 36 13 36 17 13 31 13 17 23 44 10 14 12 15 19 10 21 25 13 15 4 28 29 30 16 32 27 17 21 31 22 24 30 21 21 13 30 21 13 10 23 6 17 14 31 13 22 20 45 19 25 27 23 13 16 7 23 29 13 21 24 27 17 14 24 24 14 17 13 13 26 27 30 20 16 13 24 14 22 9 17 27 17 19 29 31 14 27 7 26 31 10 24 17 19 35 3 33 13 29 38 6 10 27 17 13 20 22 28 19 37 34 20 24 20 9 13 21 16 27 18 14 13 20 14 15 20 20 21 31 23 23 27 25 13 17 20 20 13 21 37 14 28 24 20 30 21 13 24 13 13 24 28 30 13 27 27 23 16 34 29 28 26 27 23 31 7 17 16 38 20 22 38 24 20 9 17 20 9 14 9 13 4 31 17 20 17 31 28 13 21 27 28 26 23 16 17 33 24 10 9 24 27 30 19 6 25 20 16 16 23 31 22 20 35 14 16 22 26 20 17 26 23 37 14 27 23 13 37 23 16 34 19 34 23 3 28 21 30 17 17 20 24 27 32 45 20 14 12 13 27 24 30 21 31 13 17 16 10 16 31 30 24 20 7 24 17 20 10 17 23 13 7 23 14 17 7 23 19 20 23 20 20 6 24 30 13 16 23 7 28 7 29 10 14 26 34 6 14 24 27 30 7 35 16 15 20 13 10 27 23 25 24 29 19 24 17 31 19 14 27 23 24 21 25 23 13 20 23 31 35 24 26 16 15 17 22 23 37 13 37 27 23 10 0 24 11 30 20 17 27 21 10 20 24 17 30 3 26 17 10 16 20 17 13 19 6 19 17 17 30 29 23 42 23 31 19 21 16 24 27 14 6 24 20 27 31 10 20 41 20 31 19 3 20 9 6 21 28 20 31 19 17 38 12 14 3 30 17 31 9 20 19 39 26 12 10 34 21 27 18 16 6 25 6 13 45 20 20 13 3 13 31 20 24 30 20 17 12 7 20 28 13 20 20 24 20 17 16 20 17 13 18 37 22 10 27 20 14 17 19 21 0 21 24 27 30 20 20 17 31 20 21 26 31 13 19 7 20 19 13 3 12 28 22 31 25 16 23 20 16 24 12 13 19 16 6 28 26 16 20 37 23 6 30 31 34 31 13 21 23 30 21 16 18 20 27 10 19 41 16 12 22 0 19 19 16 27 20 10 20 28 21 13 20 25 10 27 17 23 27 7 14 23 23 16 9 14 20 10 20 17 42 30 27 12 23 17 6 22 16 31 24 19 24 10 20 20 31 20 23 21 34 30 17 19 10 26 23 26 30 10 22 19 20 31 25 17 20 20 17 15 24 6 27 13 13 31 23 17 22 9 6 21 24 13 24 17 23 19 7 24 17 16 23 28 16 13 20 30 33 15 27 14 20 10 30 17 10 20 26 16 10 28 20 30 25 6 17 26 27 38 14 14 16 27 19 17 31 24 24 28 17 34 13 24 14 23 17 34 31 33 30 21 34 24 20 13 27 19 17 23 27 17 12 9 38 13 27 15 22 28 20 3 12 31 14 30 29 27 34 31 16 3 24 23 27 39 3 24 23 13 13 27 16 20 17 24 34 14 20 9 10 31 14 24 12 23 18 27 24 20 24 24 46 16 10 14 10 20 16 9 10 17 29 24 18 26 31 10 23 16 15 23 16 13 23 37 21 13 20 20 10 41 31 35 10 23 31 22 23 3 18 16 3 17 24 28 19 36 9 17 21 10 20 33 17 5 16 26 18 30 13 27 13 34 24 20 37 27 17 35 16 17 17 20 17 7 17 20 7 31 14 27 27 10 19 17 6 28 23 17 20 10 45 22 23 14 35 27 27 11 24 24 27 31 7 31 27 19 17 13 23 20 27 27 24 17 20 17 24 13 24 16 27 13 28 20 23 20 34 42 10 11 10 24 20 13 19 44 24 9 27 10 6 13 20 24 17 30 10 13 24 12 9 27 17 27 17 23 17 37 31 30 23 17 21 19 37 23 18 30 26 28 44 27 16 16 17 26 13 31 24 6 26 10 33 16 14 23 17 21 14 9 21 7 16 27 27 21 20 16 10 24 34 16 26 31 27 32 23 28 10 26 27 30 27 31 17 24 22 23 13 14 13 17 24 19 20 25 23 23 24 13 19 17 7 19 27 14 16 34 27 9 10 20 9 27 23 19 10 23 30 3 26 23 31 38 31 20 26 17 31 22 23 38 24 10 20 6 17 30 9 27 23 37 25 24 23 7 24 24 36 14 12 13 13 20 24 28 13 17 26 29 14 28 27 10 24 34 37 19 20 13 31 21 23 20 12 22 10 29 17 13 20 17 28 26 21 26 31 27 19 17 27 17 14 31 23 29 33 6 17 17 25 3 41 14 17 24 17 23 16 24 6 13 25 15 19 37 21 41 14 11 17 21 24 26 19 24 23 20 16 37 10 10 20 21 24 30 14 20 3 30 17 31 7 18 28 27 43 20 24 17 24 22 17 13 29 31 9 17 17 25 17 20 26 16 38 38 15 17 9 20 10 6 27 21 37 24 20 24 24 24 24 24 17 20 34 21 13 25 13 30 23 28 30 17 24 26 17 20 24 26 17 17 20 24 12 17 27 16 24 15 13 10 17 14 28 20 27 17 20 29 45 23 24 31 41 31 13 30 10 6 21 9 24 19 17 15 24 27 19 27 6 31 21 24 20 3 13 24 33 19 17 27 9 17 16 23 30 7 3 41 10 19 10 16 23 18 24 17 10 20 16 23 25 14 19 34 41 19 38 19 20 26 13 26 12 24 22 6 13 24 24 27 14 14 3 9 9 24 14 23 20 31 13 24 10 27 21 26 27 22 13 24 30 13 18 24 23 14 23 16 23 37 17 39 31 14 27 24 13 27 16 6 22 22 23 40 23 10 24 13 19 51 28 31 20 13 31 20 27 29 13 19 13 6 23 6 10 17 24 25 10 23 10 27 33 38 27 22 17 26 10 24 17 27 0 27 30 16 7 37 25 3 20 13 26 30 20 24 17 34 31 28 17 14 27 20 9 3 6 23 10 24 27 10 16 31 16 23 23 21 17 31 6 24 17 16 7 16 17 13 11 17 20 22 10 20 21 14 6 24 14 18 20 22 14 17 21 37 27 27 16 9 20 13 16 17 24 10 20 16 34 17 6 22 7 6 6 23 30 14 38 24 31 30 12 24 14 17 20 12 14 30 27 16 23 34 12 26 19 17 13 10 9 28 28 35 27 24 16 20 38 20 25 20 6 26 17 17 10 17 12 20 41 40 14 17 7 27 10 33 19 23 10 22 24 29 37 20 30 16 14 7 19 27 25 20 23 14 20 17 20 31 31 13 20 17 41 26 24 34 6 20 26 13 26 40 19 21 26 24 17 30 6 10 21 14 10 26 27 13 31 31 13 6 24 7 17 14 24 14 13 20 17 3 17 14 21 16 23 10 8 23 16 6 23 14 10 13 13 16 10 17 17 20 34 22 13 16 29 26 17 17 13 34 24 24 13 19 20 27 18 20 12 24 11 27 13 27 45 20 27 29 38 16 16 19 10 23 17 16 15 28 16 13 26 21 24 30 13 19 20 24 16 7 17 20 20 17 23 19 38 31 24 17 23 17 34 21 14 28 13 13 20 28 16 10 18 17 24 13 19 17 16 20 6 9 17 33 7 10 13 13 21 20 26 7 10 28 41 3 20 17 26 18 3 13 13 21 27 10 3 24 12 19 18 24 24 10 10 31 29 31 3 7 34 20 18 31 7 27 10 33 13 20 20 7 31 23 20 20 17 23 31 24 36 29 15 29 33 31 17 24 10 28 21 24 30 20 9 17 6 23 21 21 14 35 16 16 20 13 27 21 18 14 17 23 23 34 30 23 3 25 14 34 3 27 12 6 18 21 24 34 27 10 23 17 24 36 25 27 19 20 17 16 10 31 7 14 19 10 26 22 34 13 24 13 13 22 7 6 16 23 14 14 12 31 14 17 10 20 6 25 13 21 24 26 6 6 33 14 13 27 14 16 27 29 26 24 30 13 16 23 13 7 19 14 20 0 6 23 7 35 17 34 10 26 24 18 21 24 23 18 10 20 10 30 20 12 30 24 23 41 31 20 22 23 18</t>
-  </si>
-  <si>
-    <t>JSB(2.185557073318799, 4.861967649467536, -11.847117541725513, 89.39969422949008)</t>
-  </si>
-  <si>
-    <t>25 26 17 17 24 21 29 27 23 22 27 17 23 16 13 26 24 17 22 23 24 26 17 24 23 27 26 21 19 27 27 22 19 21 21 30 21 18 28 26 25 29 25 21 20 30 22 16 22 23 27 29 16 28 21 21 25 23 22 23 28 18 21 14 18 29 22 16 24 23 20 19 21 17 19 26 31 26 31 28 27 25 25 23 17 24 27 26 33 19 34 22 21 19 23 23 29 22 26 27 18 20 24 19 26 19 26 25 23 28 16 26 23 26 23 21 15 27 13 16 19 23 21 27 31 30 29 22 27 25 29 17 24 30 22 25 22 21 23 20 26 24 28 19 34 26 24 17 20 28 21 23 21 34 24 23 23 18 21 26 30 23 25 24 27 29 27 21 27 24 24 24 25 20 19 26 29 29 28 26 29 20 22 22 33 25 23 29 24 22 27 20 25 25 25 28 18 31 19 22 20 20 24 26 19 16 25 15 25 31 28 23 28 24 25 22 19 22 23 30 27 15 17 19 27 19 23 20 19 26 20 16 22 25 28 27 15 22 22 20 29 17 16 33 27 26 23 23 34 22 17 25 22 21 26 18 20 19 22 30 25 26 21 28 28 20 18 14 15 23 25 21 20 23 19 19 27 26 17 25 22 26 26 27 23 24 23 24 29 28 22 22 16 16 24 24 14 18 25 20 22 18 24 20 29 26 21 13 18 24 26 24 31 24 26 18 19 26 26 27 21 26 28 28 17 22 32 22 20 25 23 19 30 25 17 22 28 21 18 13 25 24 19 22 24 24 25 20 29 27 23 14 27 18 24 24 23 23 26 24 20 21 13 22 24 12 25 26 15 20 15 21 27 25 25 16 18 24 20 20 23 24 23 22 17 25 21 27 19 25 27 19 18 25 34 21 23 27 22 19 23 26 17 28 31 19 18 18 24 19 21 18 20 28 24 31 16 24 28 18 26 26 25 17 17 24 23 18 25 26 24 17 23 25 21 30 22 24 26 22 19 22 21 29 20 21 24 25 29 19 17 23 24 19 15 20 31 20 22 24 29 25 22 18 20 19 16 22 16 24 19 16 23 16 25 24 25 22 27 19 28 19 28 33 28 25 14 21 28 24 24 23 22 28 20 26 27 27 28 30 24 23 28 23 22 26 28 27 21 19 26 24 22 31 24 24 24 24 37 22 27 24 28 23 22 19 20 25 29 33 29 25 24 18 23 14 24 26 23 25 24 28 27 28 23 21 19 21 20 19 25 21 26 23 36 28 23 32 24 24 23 19 22 21 22 19 22 21 20 31 28 25 25 23 22 26 23 27 20 26 24 25 22 23 26 22 18 26 22 18 25 22 23 22 23 19 20 25 15 25 12 26 28 18 22 29 24 29 25 28 19 16 25 17 23 25 27 19 26 23 26 24 23 23 26 32 21 23 24 23 19 21 28 29 22 21 23 28 27 17 24 33 18 26 28 20 19 19 25 26 17 21 20 32 28 26 20 18 25 25 21 24 25 22 25 24 20 18 16 21 27 26 29 26 28 20 22 18 26 19 18 17 24 31 23 29 25 23 23 15 21 24 20 29 23 22 12 32 21 17 24 23 22 27 17 17 22 25 19 19 33 24 19 19 29 27 22 24 19 28 21 18 21 19 24 19 17 28 26 23 15 19 23 18 22 22 21 23 28 26 24 25 29 20 25 22 18 26 24 20 32 27 20 33 21 21 28 24 28 23 26 26 33 18 20 23 18 18 21 25 24 16 17 26 24 25 21 30 17 19 21 29 16 24 19 23 15 24 25 23 17 28 27 28 35 20 26 30 27 19 18 28 23 19 28 34 26 22 29 32 20 22 27 25 23 19 23 20 32 16 21 15 21 20 24 20 23 23 25 19 27 18 28 16 23 36 23 21 21 16 23 21 28 23 21 20 23 19 23 21 26 17 24 21 23 24 30 23 21 20 18 20 20 21 19 23 23 22 30 16 19 31 30 26 27 28 14 26 19 24 28 28 23 21 24 18 23 22 27 17 23 18 15 32 18 19 20 27 21 28 23 22 25 21 24 22 26 32 19 25 17 33 21 29 22 20 18 21 19 23 26 29 23 27 28 21 20 32 31 20 29 18 27 18 25 13 19 26 24 19 18 23 24 22 18 28 16 32 22 23 23 26 21 21 17 26 25 21 27 25 21 15 19 18 23 23 24 21 19 26 23 30 26 19 23 20 21 17 18 20 26 29 23 23 26 25 29 18 26 35 20 18 24 30 26 24 30 19 26 25 21 17 23 30 27 26 17 22 18 21 19 21 25 24 19 27 24 16 20 24 27 33 15 18 22 24 22 21 20 27 26 24 22 28 24 22 23 20 23 28 20 31 23 19 25 20 20 21 26 23 20 24 26 19 19 28 22 26 20 27 32 18 29 25 23 19 30 24 29 18 20 20 30 22 21 29 18 17 28 25 26 24 23 25 22 30 26 21 25 30 29 22 26 23 23 24 22 20 18 29 28 21 18 20 27 27 21 21 21 19 26 30 20 16 27 19 18 21 15 17 23 19 20 27 24 23 23 25 21 26 22 20 29 20 23 23 25 20 23 28 22 25 21 22 26 25 26 23 27 25 21 19 12 27 22 18 19 31 24 22 25 23 23 18 26 28 18 22 20 23 37 25 27 31 17 28 22 16 18 19 22 25 19 11 29 26 29 23 18 30 24 23 28 20 22 21 26 18 24 25 20 18 29 25 20 25 22 23 17 26 25 26 16 22 22 20 21 23 18 28 28 18 21 25 19 19 28 21 20 19 22 27 18 23 21 22 23 15 25 31 24 31 26 28 27 26 13 23 27 30 28 26 17 31 31 29 24 18 28 22 24 12 25 21 22 21 25 22 19 21 28 31 17 24 22 23 24 24 21 22 23 23 17 16 25 24 27 18 14 31 26 23 25 21 20 30 23 19 20 25 23 18 13 25 15 23 18 21 23 36 30 20 27 19 29 24 26 21 24 24 24 21 17 23 18 20 32 21 26 27 24 22 21 24 17 19 23 19 21 24 19 24 23 23 28 17 18 20 26 32 24 24 21 24 21 24 26 24 25 29 20 14 16 29 25 20 23 20 28 28 16 31 25 24 21 21 26 26 21 17 32 18 29 15 20 23 22 22 27 30 20 17 15 26 19 15 20 28 25 28 28 13 21 28 22 18 32 20 20 16 17 19 20 18 30 23 24 20 21 21 25 26 20 22 24 22 22 15 20 26 26 19 25 27 26 27 31 28 31 22 26 20 19 22 20 21 28 25 26 21 13 21 25 17 25 32 26 23 21 18 21 21 26 20 26 17 20 19 23 25 23 22 21 18 22 26 31 21 33 25 17 24 29 27 20 22 22 25 22 25 15 19 21 20 23 25 20 25 19 22 24 24 17 19 23 27 25 24 22 33 20 21 29 23 20 20 20 18 17 19 21 23 25 23 25 17 22 30 18 32 20 22 23 24 26 25 19 20 25 18 28 29 23 23 25 22 25 24 25 24 33 21 26 25 24 26 25 27 30 23 29 25 21 24 11 25 32 23 19 25 26 28 21 28 27 29 22 25 31 27 21 15 25 24 19 21 26 20 18 22 21 30 26 24 24 20 20 27 22 27 20 24 16 28 23 34 28 26 34 24 19 20 25 26 22 13 24 23 25 31 18 27 26 29 18 26 26 22 18 15 20 31 24 24 20 30 21 30 24 23 20 18 20 25 21 29 23 29 30 26 28 21 21 27 34 28 17 20 25 29 27 33 18 28 23 26 22 21 23 21 19 27 30 23 16 20 27 30 33 29 24 19 24 30 23 27 19 29 21 19 21 23 21 22 28 20 22 23 28 33 20 19 19 22 26 25 19 25 19 25 24 24 23 23 27 21 22 25 14 15 21 22 25 19 23 24 18 20 24 29 28 22 27 24 19 26 17 18 24 22 20 25 18 26 19 24 22 21 25 23 18 25 22 22 27 35 32 22 11 21 13 21 28 25 23 25 34 23 23 29 31 20 31 18 24 23 20 23 19 20 27 26 25 23 28 28 25 14 25 27 23 24 17 23 32 22 28 24 20 23 25 20 19 23 30 22 25 22 24 29 18 34 24 21 24 21 24 21 15 24 29 18 30 22 29 23 26 30 24 27 25 24 20 20 23 22 26 15 30 34 30 15 21 28 19 21 16 25 27 19 21 20 24 23 27 20 21 23 29 27 21 20 22 26 28 25 21 16 26 20 21 26 22 20 25 17 26 24 27 19 26 20 26 22 26 28 25 27 28 16 18 28 25 19 19 19 30 25 24 25 20 20 19 21 22 28 25 26 27 14 20 23 18 19 20 25 20 28 23 25 21 18 25 19 23 24 22 20 21 20 23 22 21 26 19 21 32 25 26 22 18 23 28 28 18 25 23 22 28 26 24 20 19 23 25 21 24 20 16 28 23 17 13 21 22 27 25 23 27 21 22 13 19 23 17 29 23 21 17 25 23 17 26 27 21 21 21 25 19 19 18 25 31 25 23 24 21 19 15 20 35 29 30 16 22 22 26 23 31 25 27 19 14 25 24 19 30 21 28 26 18 32 28 23 29 24 26 24 23 24 15 21 26 24 18 26 22 23 27 28 31 26 18 21 22 19 21 22 20 22 19 19 20 21 17 28 17 31 21 17 29 21 21 29 19 14 25 27 17 33 26 23 21 30 23 22 19 25 23 26 25 18 18 25 24 30 18 27 17 26 30 18 26 26 28 19 21 11 21 19 22 25 27 25 25 25 21 20 29 23 22 22 20 26 23 15 27 23 21 27 26 18 19 31 24 27 23 24 24 26 20 25 26 23 20 21 26 22 27 28 16 34 21 14 24 25 18 25 26 26 22 17 25 22 24 31 25 12 23 31 21 21 28 18 24 13 24 24 24 28 18 21 22 25 21 24 20 25 22 20 22 23 26 34 28 24 24 21 18 32 28 23 21 16 24 15 22 23 25 24 31 27 20 22 22 27 14 24 23 28 30 29 26 18 25 18 23 20 22 19 28 20 25 18 28 28 31 27 29 26 23 20 15 29 20 26 31 26 16 18 24 27 22 24 29 21 20 30 29 21 26 28 23 17 26 26 19 21 23 23 21 26 24 24 25 22 22 15 24 21 26 20 22 27 20 27 23 26 24 17 26 24 20 23 23 25 16 25 18 19 17 26 25 23 21 20 21 22 27 21 23 23 27 22 24 20 24 21 17 21 23 23 24 22 31 26 23 21 29 26 26 14 23 24 17 32 30 14 25 22 22 23 22 21 14 20 26 27 24 22 26 26 20 22 28 22 22 20 17 24 22 26 21 21 26 21 14 23 22 26 22 23 21 20 28 17 28 25 19 22 35 23 19 25 17 21 28 22 31 32 26 19 26 29 25 26 19 25 29 24 22 17 24 25 26 26 28 22 27 29 28 27 26 25 29 18 29 24 19 27 28 19 21 26 17 27 23 17 22 24 21 22 23 21 25 27 28 24 26 22 15 19 21 21 23 24 28 25 24 19 33 35 18 14 17 28 24 22 26 26 25 20 19 25 19 29 19 25 24 22 23 20 24 23 23 26 23 27 20 20 20 18 30 25 23 25 26 20 24 23 23 26 24 17 18 18 23 21 29 31 32 21 17 27 21 17 29 18 18 14 19 18 21 26 22 15 27 28 25 21 28 21 17 30 24 27 23 26 20 27 32 36 17 24 19 14 28 26 28 25 15 24 23 20 24 17 23 19 20 20 21 14 21 30 29 24 25 22 26 20 14 15 19 24 30 24 21 26 11 23 27 19 23 16 25 19 25 21 23 19 24 23 17 20 24 16 25 26 19 24 25 32 28 18 16 18 29 23 21 22 16 28 22 14 26 35 28 20 24 28 21 24 27 19 15 29 17 20 22 21 24 22 17 23 32 26 24 26 24 18 22 22 25 31 21 28 27 26 15 19 20 23 24 26 24 25 28 25 19 20 29 20 27 17 20 19 19 18 19 22 24 24 19 26 24 31 20 18 26 11 22 23 19 17 18 23 33 23 28 17 25 17 25 23 21 20 22 18 23 26 29 21 24 25 31 20 21 20 26 27 27 29 28 21 22 23 32 22 22 24 22 20 27 25 13 19 22 31 23 27 24 28 22 26 28 21 15 20 20 27 26 23 27 22 31 25 18 26 23 19 16 29 24 24 20 30 18 27 15 27 19 26 31 22 20 22 25 28 15 23 17 27 18 19 19 23 19 23 19 14 25 27 20 26 22 21 14 20 21 20 18 19 16 18 26 23 17 20 22 21 21 18 29 22 31 28 32 25 24 25 24 20 27 24 14 22 19 19 19 16 25 30 29 17 21 32 27 20 18 23 22 25 20 19 30 19 29 18 20 28 22 12 22 27 19 27 25 27 25 23 22 23 19 21 24 24 31 18 17 23 23 23 21 17 21 20 20 24 23 17 15 23 32 21 30 27 34 21 29 25 23 20 34 24 22 16 21 26 22 23 22 19 20 19 21 17 23 27 17 20 23 27 23 14 19 19 28 31 26 20 23 28 23 19 18 22 19 25 18 18 24 25 21 24 26 17 21 28 20 18 24 25 29 24 12 26 24 20 20 28 25 31 24 27 35 21 24 22 25 16 21 32 18 19 23 25 25 28 18 25 23 17 20 20 20 28 25 20 17 20 20 18 17 23 19 22 21 20 31 19 20 21 25 23 23 25 25 18 24 21 30 25 26 14 24 28 24 19 19 19 24 23 23 28 25 24 15 26 17 22 10 25 22 24 24 32 24 25 26 21 28 27 28 25 25 21 20 21 16 30 26 26 20 23 32 25 26 20 23 22 25 28 21 24 23 31 20 28 21 24 23 20 18 26 24 25 30 26 24 27 29 17 23 21 20 30 26 18 25 22 30 19 27 23 19 28 22 27 26 24 12 18 18 22 30 21 15 32 25 18 16 30 23 22 11 24 23 26 29 19 21 23 27 16 28 20 16 22 28 21 18 25 28 21 19 29 28 17 19 24 31 33 22 28 21 22 24 23 26 28 28 18 26 24 23 23 23 20 20 25 18 27 16 20 11 30 25 23 23 23 21 24 28 27 31 25 21 27 19 24 25 16 25 27 21 24 22 26 25 21 26 29 21 29 22 24 19 23 25 23 18 23 21 23 26 15 27 17 22 18 24 27 19 13 17 22 21 29 25 15 21 27 15 22 20 21 21 17 27 16 25 18 11 21 25 12 25 19 22 18 29 24 26 25 22 21 25 17 24 28 28 17 26 20 23 19 29 25 21 22 20 20 23 25 21 16 24 18 14 25 22 20 19 30 20 29 17 27 19 19 18 24 17 25 31 23 23 26 24 26 28 24 22 31 17 28 29 24 20 15 22 26 17 28 29 22 24 23 22 23 25 23 33 17 17 25 21 22 23 28 24 14 20 23 34 23 22 24 16 27 21 24 24 27 17 26 21 32 28 22 15 24 18 24 18 21 20 28 24 14 28 24 16 26 25 27 21 17 16 23 35 28 20 29 21 25 15 31 26 19 19 24 18 19 26 18 23 16 18 21 26 23 24 27 23 32 33 30 23 26 24 21 22 25 34 24 26 19 22 16 22 18 23 18 19 28 19 24 25 24 27 25 27 26 17 23 19 20 28 25 20 30 21 20 27 25 18 30 32 21 22 16 24 30 25 29 23 28 18 18 15 17 24 23 25 18 24 23 18 26 25 29 24 29 30 24 34 27 24 31 26 18 30 32 21 26 26 21 16 28 21 15 18 23 26 27 21 24 22 20 27 22 23 21 17 31 19 25 18 21 20 28 21 17 24 20 30 21 23 13 19 28 23 27 32 30 26 25 25 21 27 24 16 22 23 19 21 28 24 23 25 19 29 26 24 22 24 31 32 27 19 29 21 23 26 20 32 14 24 23 22 24 27 30 28 21 25 18 19 30 24 25 17 19 20 27 18 18 22 21 20 23 20 18 33 27 20 24 27 20 19 29 28 22 22 21 20 24 20 24 18 20 29 29 23 23 16 32 18 23 18 27 30 20 32 19 26 27 18 27 20 23 25 28 17 25 29 21 27 27 25 27 29 20 18 17 27 24 22 25 17 21 25 25 30 25 20 19 18 16 24 21 23 22 15 19 26 24 23 22 26 18 22 25 28 15 23 22 20 14 17 22 20 18 24 16 29 26 20 21 22 15 16 22 27 29 26 25 23 18 27 27 21 29 21 19 25 26 16 27 21 24 18 24 31 23 24 19 17 33 24 25 18 20 31 23 16 24 28 24 20 22 26 14 21 28 20 20 30 23 15 24 19 17 25 14 21 25 22 17 19 23 18 28 21 23 25 26 25 21 20 23 30 20 21 18 20 21 20 24 21 22 23 12 21 24 26 20 23 20 17 24 24 25 17 24 23 18 27 22 24 27 27 22 14 19 26 26 27 19 18 20 18 24 28 31 22 23 23 17 22 21 27 29 24 25 20 21 28 27 19 23 25 24 23 22 26 24 26 17 19 26 27 27 28 24 24 20 23 23 26 19 28 14 28 17 32 18 20 23 22 25 24 24 21 19 23 18 23 29 27 18 21 22 25 21 27 16 27 25 26 24 26 14 18 30 22 11 20 19 15 31 22 26 24 26 24 15 18 22 20 28 25 21 21 25 26 24 16 24 22 25 21 27 17 14 29 26 29 16 19 19 24 20 18 16 25 16 17 28 20 22 24 23 39 22 21 22 18 25 30 22 22 29 19 32 29 29 21 25 27 25 25 26 19 21 23 27 21 22 24 28 18 18 24 21 25 27 17 21 18 27 18 23 21 21 18 31 19 20 28 28 24 23 18 18 17 24 18 28 19 23 28 21 24 21 23 28 23 18 22 30 22 28 19 22 27 28 20 23 20 19 19 24 23 28 28 22 26 21 30 20 23 25 16 26 24 18 22 24 21 21 26 21 28 28 22 20 26 19 28 18 23 13 23 19 22 21 22 30 17 26 29 24 24 19 25 19 22 22 27 25 21 22 21 19 25 18 16 29 21 19 21 17 19 20 24 18 21 24 20 21 16 18 22 21 29 30 22 25 24 28 29 25 25 24 26 24 16 22 24 17 28 25 21 19 31 27 27 31 21 28 21 20 17 23 30 27 30 17 17 25 16 29 27 24 18 32 32 24 17 26 25 21 23 17 32 21 21 28 27 18 27 23 31 22 28 28 28 21 24 36 18 22 27 16 30 24 24 21 15 24 25 18 23 20 20 25 24 22 21 25 19 18 23 34 22 22 15 22 24 24 23 21 28 28 24 20 25 23 35 19 31 32 28 22 21 25 23 16 18 28 15 19 15 29 19 28 22 28 34 20 15 21 15 23 23 26 29 20 24 28 24 21 23 24 17 25 23 31 19 27 26 18 28 21 28 24 26 22 20 24 23 26 21 18 36 29 25 25 24 19 24 26 27 29 21 25 25 23 30 23 28 22 17 25 20 24 22 27 19 20 19 19 27 24 24 19 21 26 25 28 21 21 27 15 21 19 27 21 21 26 27 20 21 19 29 21 29 29 15 25 27 23 30 27 20 23 20 22 16 27 18 24 21 25 22 22 12 18 22 24 20 28 27 19 22 26 18 17 14 24 21 20 23 25 30 23 29 25 32 22 17 26 24 28 20 24 14 18 16 26 23 37 13 20 20 20 23 29 21 19 23 23 31 23 19 26 40 30 27 21 22 19 21 26 21 28 23 22 25 19 27 28 21 29 19 18 19 21 18 24 21 22 26 26 25 13 18 17 27 21 21 23 19 32 27 20 21 23 20 19 23 25 21 24 29 28 14 23 20 16 17 26 27 24 23 23 22 21 28 32 25 20 16 17 31 16 17 24 22 16 20 25 21 16 21 20 16 19 29 26 24 29 25 25 19 25 23 22 18 26 29 26 23 21 22 15 22 25 30 18 18 22 32 34 29 26 29 30 25 23 22 20 23 26 18 28 23 28 18 18 25 23 23 26 22 19 23 24 28 20 17 19 22 25 29 18 21 25 25 28 26 27 30 24 16 17 23 20 15 20 31 31 19 25 22 25 24 21 20 32 25 25 20 18 22 25 29 17 25 21 23 32 22 20 19 17 24 25 25 15 21 24 24 23 25 27 18 26 21 21 21 21 22 28 18 22 19 23 21 25 23 25 29 27 25 28 22 27 21 19 26 20 17 23 30 22 26 19 22 17 24 28 28 27 25 28 22 24 24 19 21 30 24 32 22 26 21 24 27 21 26 26 17 32 24 20 23 28 18 22 26 17 31 28 28 24 20 25 23 21 14 21 23 30 26 31 26 20 16 24 20 17 31 23 31 28 27 23 26 22 22 36 30 22 26 23 20 20 18 30 24 21 29 17 24 17 27 29 27 16 27 18 26 24 27 25 26 18 21 27 21 21 26 17 25 31 26 22 33 27 29 26 22 23 18 19 17 24 29 20 31 22 17 26 34 16 19 23 26 29 23 26 26 24 19 24 20 23 19 19 22 23 25 21 25 16 27 21 19 23 34 15 22 22 14 20 29 20 18 14 16 36 27 21 18 23 28 23 20 22 21 25 26 18 21 24 27 20 23 23 14 32 15 21 19 29 25 26 23 22 20 27 18 24 18 28 26 24 22 23 29 23 28 22 28 31 25 24 25 21 24 18 28 22 24 23 33 18 25 22 28 28 21 19 28 23 27 19 24 16 32 26 26 19 16 20 16 25 18 20 18 24 28 22 30 32 28 26 27 21 26 27 25 18 26 31 19 22 24 20 13 26 22 25 22 16 23 19 20 21 17 16 23 24 26 23 28 22 26 28 18 23 24 17 28 23 25 18 16 16 33 20 21 27 27 18 20 20 19 24 18 27 24 27 25 30 18 22 25 28 30 20 21 19 17 27 30 20 18 14 23 25 19 22 20 22 19 16 29 20 19 29 28 24 25 20 32 23 25 23 26 25 25 17 22 19 20 19 28 23 22 27 25 24 24 18 26 15 16 27 19 24 24 20 27 21 22 29 20 28 25 19 25 16 22 21 23 16 22 18 23 33 19 22 23 22 28 25 22 22 26 18 24 21 24 14 22 31 25 22 27 23 24 24 24 21 23 25 23 30 35 18 24 23 26 32 21 23 25 21 25 23 17 21 26 21 28 25 21 22 25 17 22 17 22 23 18 24 23 15 20 25 27 21 22 22 19 17 25 26 24 26 21 14 24 26 13 15 21 24 17 27 30 16 27 30 27 26 20 18 22 23 28 22 25 22 25 24 23 18 24 31 20 11 24 22 19 16 21 21 24 21 20 27 26 18 18 23 25 19 22 18 21 25 20 24 20 23 22 22 28 19 26 29 22 24 23 21 17 26 27 23 20 21 23 28 12 26 19 18 24 24 29 21 21 17 30 29 30 17 12 24 24 15 23 28 15 27 19 22 31 20 21 21 25 19 22 26 19 22 21 21 18 24 29 25 20 26 29 30 25 19 26 25 23 23 17 22 31 25 16 28 24 25 15 20 26 21 25 13 26 20 32 25 19 24 19 20 26 20 16 25 28 24 22 23 16 26 26 23 25 29 24 22 17 20 17 24 32 27 22 28 17 22 26 26 24 24 22 22 24 23 30 22 28 25 26 19 25 25 22 11 19 21 30 26 18 23 30 21 24 20 23 23 29 31 17 21 32 20 25 25 26 25 29 20 25 22 20 21 14 26 25 23 18 29 20 21 22 28 18 16 26 25 18 30 28 17 20 18 21 38 18 25 29 27 28 34 25 22 23 18 26 28 24 20 29 24 27 22 28 27 22 21 29 24 25 20 26 23 19 26 36 28 29 24 27 20 20 28 21 21 28 21 22 24 19 24 24 30 18 20 21 24 28 24 17 27 18 28 18 22 26 24 17 19 21 21 18 23 26 25 27 24 29 18 31 22 20 26 19 25 21 25 27 15 29 24 22 25 32 27 24 17 27 24 19 24 28 25 18 20 18 22 28 26 19 24 19 28 26 18 23 23 20 22 24 21 20 25 27 28 29 24 23 23 22 19 26 27 23 29 21 27 21 16 27 27 22 34 28 20 28 19 18 13 31 23 29 21 24 20 23 24 16 31 14 30 28 25 20 25 27 18 23 31 24 21 22 21 19 25 25 25 21 33 26 31 21 24 16 15 20 28 18 25 14 16 25 21 22 25 21 25 24 29 23 28 16 17 29 24 20 22 15 20 28 23 21 20 22 21 20 18 29 28 22 21 23 24 31 22 14 23 29 17 23 26 17 22 24 20 21 25 16 19 25 27 22 25 24 16 25 24 22 24 26 25 34 23 25 14 22 21 24 31 19 25 25 33 29 27 22 24 15 19 17 24 27 24 22 24 22 30 29 17 25 27 23 27 24 20 21 15 20 22 24 26 23 18 23 18 15 18 23 23 18 27 28 19 15 16 19 26 26 21 25 21 19 28 27 23 18 22 26 15 16 19 19 25 23 19 25 24 29 25 28 26 24 20 21 30 22 26 27 28 17 28 26 21 23 29 28 31 30 26 27 31 31 23 23 17 26 19 23 27 19 20 31 22 20 20 26 21 26 26 24 17 27 20 23 18 27 19 24 24 25 21 27 21 19 20 32 26 18 26 23 20 23 21 23 24 24 25 23 28 27 21 18 14 21 27 31 23 14 29 27 27 28 19 20 29 19 22 24 25 21 23 21 21 25 21 16 31 19 25 25 18 22 28 23 28 23 22 23 26 30 26 23 32 23 30 27 25 18 18 27 26 13 23 28 21 25 21 18 17 17 25 24 21 22 15 23 24 27 32 24 21 32 23 26 25 25 20 24 22 22 28 26 18 24 20 27 23 29 26 19 17 23 28 21 23 26 30 22 23 21 19 29 24 24 24 26 21 19 21 21 27 16 29 27 22 26 21 20 29 21 31 25 17 24 23 22 28 21 27 25 23 19 21 25 20 23 28 23 19 19 18 25 32 28 29 25 25 24 19 27 20 24 19 22 22 28 33 27 22 23 19 31 31 20 21 22 20 24 19 33 27 21 31 28 25 18 25 17 21 27 23 13 23 15 21 22 22 26 16 29 21 27 20 32 24 20 21 22 23 15 24 28 27 20 28 18 24 25 26 28 28 16 36 18 24 20 16 22 21 23 19 13 25 29 23 27 29 23 26 23 26 24 19 25 26 20 17 21 24 20 14 23 22 23 20 26 23 24 30 27 25 19 23 17 25 21 25 24 21 25 29 23 31 26 21 19 22 23 23 20 22 27 20 15 26 19 26 21 20 24 27 18 25 27 21 16 21 21 24 30 31 20 26 19 27 27 22 18 23 24 18 22 21 20 25 24 16 30 23 31 22 26 19 24 17 18 26 24 23 26 21 28 20 23 28 22 16 27 14 19 34 24 23 14 19 21 17 23 19 27 26 21 29 29 33 29 26 20 22 29 22 21 18 22 27 22 21 26 18 22 30 19 23 25 19 23 25 24 22 26 28 19 30 25 17 27 27 23 22 24 22 29 24 22 29 19 16 25 19 25 21 29 24 28 33 23 17 16 19 25 22 23 26 22 17 27 24 21 19 18 16 18 20 38 27 33 19 27 30 23 33 23 26 23 24 23 19 23 21 20 28 23 20 27 22 26 18 25 27 20 19 25 17 24 20 13 25 28 23 19 25 29 23 26 22 32 27 20 20 22 13 27 26 19 19 23 23 19 27 22 18 22 19 25 24 21 23 24 27 14 31 22 32 24 23 29 12 26 27 25 24 16 25 26 19 25 25 27 20 18 28 17 26 26 26 28 21 24 23 25 24 24 17 26 23 24 16 24 22 24 21 30 26 19 19 22 20 23 16 28 25 18 22 22 26 15 18 24 20 25 24 15 20 33 28 18 19 26 25 23 24 22 24 21 28 25 18 24 18 19 16 23 20 21 22 26 25 25 29 23 30 30 30 26 25 22 22 25 26 21 22 23 27 24 25 19 19 22 26 20 20 22 19 18 23 20 29 20 25 31 15 24 16 27 20 18 22 29 21 24 26 20 21 27 28 30 23 31 20 22 25 23 25 27 24 18 20 22 27 21 14 25 19 21 18 28 27 22 24 24 30 21 15 31 26 20 22 24 13 25 28 23 21 21 23 26 19 18 19 27 26 22 21 16 20 24 20 16 26 16 17 28 21 20 25 17 17 21 19 24 23 20 20 25 16 29 25 28 22 26 23 22 26 22 20 23 35 27 30 24 26 20 35 19 21 28 14 24 24 25 21 25 26 20 25 16 18 23 29 24 27 21 29 26 15 22 15 20 23 18 23 24 22 32 23 16 27 20 23 23 22 24 21 27 25 19 23 25 27 22 17 19 31 31 20 27 26 31 22 19 21 19 19 27 17 11 19 21 18 23 23 23 23 22 14 18 34 20 15 26 26 18 23 26 22 26 33 33 15 20 23 19 28 17 23 26 29 24 20 25 23 22 27 23 22 22 22 14 25 11 26 26 26 22 18 19 28 25 24 16 28 21 17 25 26 26 26 23 29 20 24 19 26 30 24 18 21 23 22 29 22 23 23 21 23 23 25 18 24 21 24 22 30 28 20 18 24 25 23 29 24 27 27 21 24 20 28 19 27 22 18 20 22 18 23 20 22 22 28 19 25 22 17 19 29 23 21 21 24 25 24 20 17 25 17 24 26 24 17 26 23 24 24 31 18 32 31 29 14 25 25 21 22 18 34 30 23 22 28 25 21 15 26 22 15 36 22 26 22 24 18 24 28 21 28 22 25 27 29 25 23 22 18 28 22 23 16 21 24 30 18 24 24 22 23 31 26 29 26 28 34 22 11 25 32 20 16 22 19 31 22 16 18 29 20 27 28 23 19 24 22 16 16 21 22 16 24 19 24 24 15 25 19 17 19 28 30 30 17 21 27 19 21 26 23 31 28 23 22 28 29 23 36 20 18 26 30 20 21 25 28 21 29 22 27 31 18 21 30 21 21 19 17 22 19 22 20 19 26 27 21 20 22 24 28 20 28 24 19 30 31 23 25 22 27 17 21 29 21 17 23 28 29 24 11 27 18 21 23 23 23 22 27 26 25 26 23 22 24 25 24 22 18 28 23 27 25 33 21 32 29 20 21 23 17 33 27 23 26 14 29 25 30 23 15 27 19 20 22 16 24 20 23 26 21 18 20 23 22 22 23 21 24 22 22 22 23 25 26 27 26 29 17 19 27 22 19 22 22 20 23 22 22 19 24 30 22 18 13 25 28 21 22 26 19 17 26 18 26 22 22 19 20 17 23 23 26 14 12 17 20 20 23 18 26 18 24 25 26 27 31 29 17 26 27 26 29 27 16 23 21 22 22 19 19 24 31 28 25 28 16 15 23 25 21 24 24 27 25 24 27 27 17 24 24 33 13 26 27 19 27 23 27 26 24 18 21 20 15 28 20 26 18 21 27 23 15 15 25 17 21 23 25 21 25 17 21 24 22 22 27 27 29 26 29 17 16 21 23 13 25 20 22 30 28 20 21 20 20 18 19 23 24 22 30 20 26 23 20 19 23 15 25 28 25 24 19 22 17 26 23 21 21 19 32 16 31 22 20 22 18 26 25 18 21 25 22 16 27 22 28 24 20 27 21 28 17 29 25 13 19 28 23 21 26 28 28 25 22 25 26 18 33 20 21 29 23 20 19 30 30 21 13 31 30 22 27 23 17 25 17 31 35 23 20 21 28 25 18 22 22 21 20 19 22 25 19 25 32 24 19 23 21 27 21 19 25 28 21 28 30 20 15 18 23 25 26 21 20 25 28 28 24 21 18 20 23 19 17 21 30 23 29 23 33 21 14 20 27 27 20 32 25 27 29 29 15 27 19 18 25 26 27 20 17 18 29 25 22 26 25 22 25 27 20 24 23 24 25 28 26 17 13 23 17 21 33 30 17 12 24 27 23 23 23 25 28 37 19 23 26 23 26 19 21 20 11 22 22 27 21 35 28 17 23 20 21 22 16 16 21 20 17 22 25 27 21 22 25 28 26 23 24 31 25 22 23 17 30 19 17 22 23 26 21 21 26 17 26 27 28 22 18 19 24 26 24 24 26 23 24 16 14 28 22 22 20 27 27 29 24 23 28 24 31 20 18 15 33 30 29 19 24 21 21 24 23 29 19 27 22 20 27 19 24 23 21 19 25 21 22 27 23 16 18 20 23 25 37 25 28 26 16 22 23 21 22 26 34 29 18 15 36 22 17 18 24 22 19 17 18 29 28 18 22 26 28 25 18 25 18 20 29 28 29 20 22 25 24 25 22 29 24 20 22 25 27 23 27 21 28 23 23 28 13 20 20 18 20 29 27 23 28 21 24 21 20 32 14 29 18 21 24 23 25 19 24 24 16 23 20 22 21 21 21 27 30 22 23 19 22 26 27 19 24 20 24 30 18 32 24 29 26 23 20 23 23 20 18 18 19 21 23 21 25 25 35 31 27 22 21 24 29 23 31 26 19 27 22 20 18 16 27 23 22 31 28 21 19 27 20 18 18 22 21 26 17 20 25 17 21 19 30 22 22 27 26 25 24 21 27 22 21 28 18 22 26 28 25 21 24 17 31 28 23 18 18 22 22 22 19 18 31 22 15 23 29 13 21 25 19 22 18 20 24 26 20 21 30 22 32 24 30 23 26 22 27 18 22 18 17 26 16 27 27 24 19 20 21 29 16 17 23 24 28 19 21 22 22 20 28 18 24 22 19 20 25 31 24 22 17 17 10 20 18 18 23 17 19 22 23 17 23 19 21 19 21 21 16 24 23 15 12 23 21 26 23 29 24 17 26 29 25 14 23 21 25 20 30 22 28 20 24 28 29 25 24 23 28 27 18 34 18 21 29 20 20 23 25 25 25 24 29 25 23 19 21 29 15 26 23 25 15 19 22 27 23 24 25 29 24 23 22 18 16 24 24 17 32 26 32 26 32 32 29 16 22 18 22 20 22 20 22 23 28 27 24 21 14 23 29 34 19 33 17 21 22 22 27 17 23 13 25 29 29 24 24 21 25 23 24 27 24 31 21 24 29 23 24 30 22 30 20 26 22 21 20 27 27 15 16 21 21 34 24 28 28 23 22 22 23 30 24 23 24 25 23 22 20 22 22 25 30 19 20 13 25 24 24 22 33 27 19 24 18 16 30 21 16 31 27 25 18 21 25 24 25 28 14 22 27 22 16 22 21 19 23 25 23 24 32 21 28 21 29 26 35 14 22 21 23 20 32 22 25 27 28 21 26 19 24 20 21 21 29 22 21 14 24 26 23 20 20 18 24 20 20 18 25 22 18 21 20 22 19 29 32 25 25 27 31 30 19 22 24 22 16 24 22 23 19 20 30 16 33 22 22 23 17 24 21 20 22 27 29 27 22 21 20 31 22 23 19 27 25 24 20 20 31 23 22 20 21 20 28 31 21 22 26 22 21 25 16 33 26 24 18 24 21 25 20 21 27 18 28 19 21 24 22 30 24 18 24 23 25 23 18 24 20 22 23 26 21 26 17 25 24 16 14 30 24 22 25 30 26 29 21 26 23 14 15 24 16 20 24 18 25 15 25 25 30 33 19 22 25 21 19 28 23 29 23 24 17 15 23 27 29 25 23 25 19 31 23 23 25 28 29 25 16 22 22 18 28 20 19 27 20 31 20 26 22 20 18 29 27 23 30 21 21 16 26 19 26 25 18 27 23 27 37 25 20 28 25 28 29 25 19 19 26 19 24 17 26 29 32 29 25 27 28 20 28 28 25 24 30 22 21 20 20 21 25 16 25 25 28 27 18 19 26 22 23 20 25 21 22 28 29 20 22 24 19 32 24 30 27 25 20 26 18 21 25 24 32 16 24 20 19 28 23 24 18 23 25 22 24 31 32 17 24 31 23 23 28 25 28 31 16 20 22 16 22 27 16 25 16 20 20 23 24 26 29 26 19 23 19 13 16 23 23 13 19 17 30 24 17 20 34 22 27 21 26 33 21 19 21 26 29 24 33 19 22 23 26 22 27 24 20 21 25 29 31 27 22 17 25 21 20 30 26 28 22 21 22 21 20 21 25 29 22 27 24 22 21 23 23 21 24 21 30 24 26 21 22 36 30 23 28 25 16 20 20 22 19 23 24 28 19 27 27 27 26 29 25 20 26 18 20 20 22 21 30 27 25 28 20 18 25 29 21 21 18 15 23 25 26 31 19 22 29 27 23 25 24 28 24 29 23 24 26 21 17 19 20 20 18 21 17 22 24 20 22 30 23 22 23 18 23 20 33 27 22 31 25 25 21 19 19 23 25 19 22 30 31 29 18 26 19 16 28 23 22 23 19 26 31 18 31 19 20 23 15 23 21 19 19 16 17 19 17 13 26 23 28 20 21 28 17 23 26 26 25 22 21 18 26 27 23 27 30 18 31 26 29 21 26 28 20 34 25 24 25 24 28 18 30 20 16 22 29 24 27 28 29 26 21 22 23 28 26 22 31 26 22 21 26 27 18 16 20 29 19 14 21 29 24 22 28 24 15 21 19 28 21 26 25 23 21 20 25 28 26 27 29 26 21 18 24 19 11 20 27 17 18 25 23 24 19 25 24 23 16 18 29 20 21 24 25 26 21 20 17 28 26 17 24 21 26 25 22 19 20 22 13 26 36 24 26 23 26 18 19 24 18 22 25 24 23 28 21 20 25 17 20 24 21 25 17 20 21 21 30 21 21 31 20 17 20 23 28 26 29 30 19 26 29 22 15 30 27 23 28 22 22 20 25 22 15 27 23 27 25 17 19 24 19 22 20 22 17 25 27 23 17 24 21 22 17 22 18 28 18 23 20 28 17 24 27 25 17 24 30 26 27 24 21 26 23 28 21 28 15 22 29 20 20 15 19 23 22 21 18 24 19 28 19 19 22 27 30 20 24 21 24 24 21 20 22 20 23 23 17 22 22 25 23 27 28 18 16 23 25 23 21 21 23 22 25 28 21 22 23 24 22 27 25 23 13 19 21 33 15 24 23 29 25 17 20 21 25 17 30 29 20 25 21 29 23 24 21 24 25 29 25 21 33 22 25 19 20 26 23 31 15 21 23 18 20 17 25 29 23 29 29 25 22 26 22 28 28 17 25 29 25 26 23 28 24 17 25 19 21 21 25 22 24 24 26 16 13 21 26 23 18 26 15 23 29 25 12 24 23 20 28 27 20 35 15 24 18 16 22 18 20 21 24 29 24 16 23 31 27 20 22 16 27 27 27 17 29 19 20 24 22 29 19 25 25 27 14 28 23 19 17 18 23 28 24 26 28 21 12 23 15 30 25 23 19 25 27 22 27 26 24 26 20 31 21 19 24 23 30 17 13 22 29 33 27 25 19 23 27 26 20 17 21 22 25 28 26 22 23 16 24 25 24 13 20 31 21 23 23 28 18 26 29 21 21 20 23 27 17 26 15 22 14 18 25 20 26 15 11 22 27 21 23 21 21 22 20 21 27 29 25 29 27 25 23 17 19 26 15 25 22 32 18 20 25 22 17 15 19 27 20 21 25 25 27 26 21 24 22 22 22 24 19 16 22 20 18 25 26 23 21 21 20 23 23 15 33 23 22 20 19 18 16 18 20 30 26 23 17 26 21 15 26 30 27 25 25 27 34 22 22 15 33 22 27 20 23 30 19 20 25 19 22 23 25 20 22 11 29 26 23 22 25 28 15 28 24 24 28 19 22 24 21 23 17 22 24 22 26 21 39 24 23 19 20 23 18 23 18 19 25 25 21 30 26 22 23 30 22 21 21 25 15 24 17 29 26 26 25 24 27 27 23 21 20 18 23 28 19 18 16 24 22 20 26 17 23 31 12 15 24 23 26 20 25 23 21 23 22 27 27 23 20 21 27 22 27 25 26 25 21 19 30 17 22 24 15 25 23 22 21 24 17 24 24 22 23 22 22 25 16 20 30 19 20 15 29 24 31 38 18 28 20 28 20 21 25 29 31 24 23 25 20 29 22 23 22 21 25 20 22 22 15 19 26 19 24 19 23 28 16 23 24 23 27 26 20 30 20 23 21 20 26 18 11 27 24 20 24 26 22 24 29 24 23 22 28 19 20 13 27 16 18 23 25 24 23 18 20 22 30 29 31 23 27 27 26 23 19 23 26 28 23 16 28 24 23 26 17 16 16 25 22 22 23 30 21 20 15 22 16 28 26 24 26 21 25 21 20 25 29 26 14 27 21 21 24 34 18 23 27 30 17 28 22 25 26 20 15 24 25 22 25 24 21 18 29 25 23 29 16 20 21 20 24 20 26 22 17 20 24 25 31 12 16 26 17 20 22 21 18 27 30 24 28 23 26 24 26 23 23 21 34 32 23 25 31 23 19 28 24 24 28 31 30 30 29 20 18 17 19 18 16 28 30 23 22 26 19 31 16 29 21 23 22 24 29 26 23 24 23 24 24 17 29 22 21 23 18 16 17 24 25 25 27 25 18 20 20 21 27 28 27 16 16 32 32 27 17 20 25 25 23 27 28 25 23 26 27 26 28 16 29 28 29 28 29 24 16 26 16 16 29 23 26 25 21 28 23 24 18 24 24 23 20 24 33 22 25 28 18 20 24 22 28 26 25 18 22 21 20 25 17 25 35 25 20 24 26 22 19 26 20 21 21 19 25 23 23 19 24 22 27 24 22 25 20 20 24 25 25 24 21 22 24 33 25 20 24 21 21 26 21 29 20 22 26 20 18 29 13 23 26 28 23 20 17 15 30 19 23 18 23 24 18 19 26 31 21 22 29 26 20 29 28 21 16 22 39 19 20 11 23 31 32 21 27 18 20 25 17 28 22 23 24 26 20 22 25 27 22 20 26 20 23 20 27 22 29 16 20 24 17 24 29 23 27 26 34 20 14 20 18 20 23 20 23 26 22 26 15 26 28 29 22 22 23 33 25 26 23 29 27 23 18 20 15 26 21 21 26 21 22 23 24 21 19 16 23 18 28 28 23 20 34 19 23 28 20 17 20 24 16 22 24 16 30 31 27 29 20 31 21 20 26 19 31 26 31 24 24 27 24 24 21 22 38 17 17 29 24 30 27 24 25 20 27 18 21 18 24 22 21 19 25 24 26 27 24 21 21 20 24 28 29 27 24 21 18 23 34 29 21 26 26 28 25 31 21 23 18 27 24 20 24 16 22 23 22 18 25 30 21 24 22 22 19 17 21 23 34 26 18 27 30 20 23 20 25 29 36 30 21 21 21 18 18 19 27 26 22 22 23 26 19 18 26 31 32 24 22 22 21 25 20 17 24 28 22 10 22 23 22 17 26 27 16 20 24 25 24 20 20 28 23 22 23 24 20 23 23 20 24 34 21 23 26 17 22 18 22 20 27 32 27 28 21 21 24 29 24 19 26 21 22 24 30 25 22 26 26 27 19 32 20 26 21 20 25 26 29 27 30 23 26 11 26 14 18 22 25 22 19 20 22 23 19 33 26 28 18 20 21 37 22 26 23 25 24 20 14 29 33 23 18 24 24 22 21 21 17 24 20 28 21 15 23 27 23 21 17 32 20 26 23 18 24 30 19 28 26 25 19 27 25 22 18 22 18 21 24 23 27 29 23 28 22 18 22 27 19 26 21 23 20 24 16 19 26 31 20 19 28 24 23 22 20 22 24 22 24 23 25 26 15 26 23 18 21 20 26 19 27 25 23 19 23 21 20 20 22 27 22 25 22 21 20 21 25 21 22 15 15 25 23 30 22 32 28 24 23 25 29 18 25 23 23 25 19 18 18 21 24 13 25 22 24 16 17 17 17 31 29 23 13 24 30 26 25 18 23 26 25 17 36 17 23 25 35 22 16 18 15 23 28 19 22 21 24 32 19 22 16 25 26 17 28 29 25 21 18 26 20 27 24 23 23 31 18 34 22 21 17 31 19 20 23 18 24 18 22 19 21 14 29 24 19 15 26 21 25 20 20 22 27 16 22 23 20 29 19 25 12 19 20 24 24 22 25 21 20 24 21 18 19 30 28 26 23 25 21 28 20 23 25 24 20 25 21 26 38 17 25 28 30 33 23 31 28 23 21 26 27 26 32 23 29 19 24 25 18 20 25 22 20 13 22 23 20 17 19 24 27 29 19 24 20 25 23 17 14 21 25 25 24 27 24 25 28 27 17 21 21 12 23 21 20 26 21 25 14 25 29 14 22 27 23 17 19 26 31 21 28 22 29 24 20 14 21 18 19 22 15 24 17 27 21 23 17 25 21 24 22 24 15 21 33 26 23 22 16 19 23 27 16 30 26 24 30 24 21 26 25 16 23 21 24 24 21 19 28 18 21 21 24 23 23 27 22 21 25 22 19 24 24 26 23 27 18 20 31 19 29 23 16 17 27 17 26 33 28 29 18 26 18 25 21 25 15 18 20 20 24 22 24 15 22 17 26 31 24 28 22 20 21 22 22 23 23 20 28 22 33 21 29 24 37 19 16 23 24 18 22 22 21 21 24 29 27 25 31 15 18 26 20 24 20 19 24 15 29 18 23 22 24 20 28 24 25 26 17 23 22 26 26 21 18 18 21 20 18 25 18 17 26 26 28 23 30 28 25 30 23 17 23 27 22 26 23 24 23 26 20 21 30 17 25 19 25</t>
-  </si>
-  <si>
-    <t>EXN(0.5167548795333903, 31.19964675275066, 5.003859063796858)</t>
-  </si>
-  <si>
-    <t>39 41 29 33 31 30 42 42 32 39 38 26 36 26 25 33 32 29 33 37 35 37 28 41 31 43 40 31 32 37 38 32 24 35 31 37 33 25 34 38 31 35 42 30 32 40 39 27 29 33 33 44 21 42 33 31 33 30 30 35 39 26 32 21 27 44 33 21 39 36 33 30 29 27 29 40 42 37 40 41 36 36 31 33 24 34 39 37 43 29 46 29 28 32 36 35 42 37 34 37 24 27 36 29 41 27 33 36 39 43 29 34 34 38 30 26 21 39 27 23 28 45 29 39 40 40 38 26 35 37 32 27 42 36 30 39 28 26 38 31 40 32 37 33 45 33 37 30 36 33 35 35 30 49 36 29 32 32 37 40 39 31 39 32 37 40 35 31 39 37 36 37 35 29 30 38 35 37 40 37 42 27 35 32 39 38 31 39 42 33 40 28 36 39 33 36 27 41 27 29 27 29 42 37 32 26 34 27 35 41 40 36 34 33 35 39 29 31 34 35 41 26 29 27 43 28 39 30 28 37 28 30 36 40 37 37 30 32 30 30 42 32 22 40 45 38 28 34 41 33 25 33 36 31 40 23 33 24 35 42 40 31 43 47 35 25 31 21 36 29 32 28 30 31 30 28 34 43 23 33 34 44 31 35 32 31 31 35 36 36 29 35 23 20 36 28 19 32 33 38 28 30 38 29 42 38 32 25 26 35 32 32 50 45 36 31 24 37 31 38 29 35 39 36 28 30 41 38 28 35 35 23 39 31 36 32 38 35 28 24 39 26 28 38 31 37 37 23 45 43 31 23 38 24 34 36 37 37 34 36 25 35 21 31 31 23 41 29 30 37 26 37 44 31 35 24 35 39 32 32 31 36 33 42 23 30 31 36 35 35 42 33 31 35 42 29 34 43 32 34 31 36 23 40 41 27 25 29 36 27 25 27 35 47 37 44 30 31 43 27 36 34 33 25 31 37 36 28 33 42 36 23 37 39 31 44 32 35 36 29 32 30 25 44 28 31 35 35 43 28 31 37 29 25 25 36 49 33 33 32 38 34 32 35 30 30 27 28 30 38 28 30 35 23 32 31 34 33 35 30 43 27 37 47 39 39 24 29 44 40 34 38 38 37 27 35 40 37 39 35 34 35 37 34 29 40 48 39 31 29 38 34 30 38 35 34 32 38 49 34 38 45 38 29 32 35 32 38 36 37 46 34 31 28 38 19 39 34 31 34 32 44 35 43 29 37 34 33 32 30 32 29 37 29 43 39 40 41 30 33 32 34 31 31 33 35 31 36 37 38 33 32 37 32 34 37 34 39 28 31 32 34 36 36 41 31 35 37 43 31 36 35 31 35 28 34 29 35 28 41 23 37 39 30 35 39 33 38 37 34 29 24 35 25 35 40 35 36 31 34 43 33 30 34 40 43 29 36 35 37 30 30 35 42 30 31 37 40 44 30 37 42 29 43 34 29 32 24 38 42 31 30 33 45 34 32 29 32 33 37 32 41 36 28 35 32 22 29 24 34 42 34 38 36 44 31 33 32 45 33 28 27 37 44 38 38 31 41 27 23 29 32 30 42 25 40 28 39 31 33 33 29 36 40 25 27 36 39 31 34 41 35 29 29 35 37 34 38 36 41 39 29 33 33 32 43 24 41 39 33 26 30 32 31 32 34 30 35 35 35 36 43 42 28 39 32 30 39 30 33 46 34 27 46 25 35 39 32 39 35 37 30 44 30 33 31 24 33 26 39 39 32 32 43 32 39 28 40 25 26 36 48 30 38 34 32 24 33 33 36 28 42 34 41 43 30 38 43 31 31 26 36 39 33 30 42 33 36 35 47 27 34 34 36 36 28 33 31 44 28 27 27 34 30 41 30 28 39 44 27 38 26 42 24 29 50 32 31 30 23 29 24 40 30 29 33 33 33 30 34 37 23 34 33 35 37 39 32 30 27 32 31 33 38 32 34 30 26 35 27 28 40 40 34 36 45 24 41 26 30 40 36 38 32 31 30 27 31 36 31 33 34 27 42 26 32 24 41 32 36 34 29 41 32 34 36 35 41 24 44 29 39 32 34 30 30 32 29 25 31 37 40 33 37 41 27 33 46 39 31 47 23 42 33 31 21 34 42 36 32 25 38 35 30 27 35 26 41 35 35 34 33 33 37 26 42 38 28 37 40 33 22 29 32 31 32 29 33 26 35 34 40 38 33 40 25 32 26 23 29 33 37 33 34 33 34 42 28 36 45 30 31 32 39 35 32 37 30 38 40 35 24 34 42 41 36 20 34 31 33 25 33 40 38 27 35 37 25 33 31 44 40 29 38 32 35 35 28 30 42 34 32 35 34 41 41 31 29 35 39 29 48 39 28 41 37 35 33 36 38 34 38 37 24 27 36 31 48 31 30 46 28 47 35 31 24 44 32 40 31 30 24 42 34 31 44 30 29 39 35 37 32 34 30 34 45 34 31 34 43 44 32 37 28 36 37 40 27 27 40 35 32 31 28 36 37 34 26 26 29 39 44 36 22 39 30 31 31 26 23 34 28 33 38 39 33 34 43 36 43 31 31 41 42 30 40 30 26 36 37 29 35 36 28 36 34 36 35 40 37 27 27 21 41 32 31 31 38 31 26 36 41 31 34 38 39 30 28 36 36 45 36 37 39 26 38 37 28 32 26 31 35 29 28 45 32 41 39 33 39 30 34 42 35 32 31 37 24 37 41 30 28 34 34 30 36 36 33 29 38 37 33 26 37 35 31 33 32 31 38 40 27 25 34 33 31 39 37 28 28 31 35 27 38 30 34 39 23 31 43 38 41 33 40 38 34 29 34 41 39 43 35 23 38 41 37 32 22 42 31 30 20 39 29 33 31 36 33 31 30 40 42 23 32 34 30 40 36 27 30 35 28 22 23 34 44 36 28 23 46 35 29 37 31 35 37 31 28 28 36 31 29 28 36 31 39 36 29 34 46 41 25 43 34 36 35 34 31 35 35 31 31 24 33 29 33 38 33 41 38 35 31 34 28 21 39 29 33 33 35 26 42 32 39 45 23 25 32 38 47 34 38 33 34 35 35 43 30 29 39 36 25 28 38 36 30 30 37 36 43 26 40 38 31 41 29 31 38 33 33 45 28 41 21 31 29 32 37 34 39 28 23 27 36 30 22 35 45 40 34 34 23 30 38 31 37 44 29 29 25 22 29 30 29 40 36 35 27 31 23 30 33 33 29 37 35 34 26 28 34 34 29 38 37 34 32 40 39 45 31 41 29 34 39 35 32 37 33 34 35 28 31 29 25 37 40 33 41 33 31 34 32 33 30 38 28 32 26 38 36 35 33 36 26 38 36 39 30 44 33 27 38 43 37 26 32 33 40 33 36 18 30 29 37 35 43 28 34 35 28 31 32 38 35 31 35 35 33 38 43 31 32 41 35 36 31 28 26 32 30 37 39 31 32 35 30 29 45 25 46 32 36 29 35 38 32 30 28 32 27 41 36 34 35 31 31 45 30 33 35 45 34 35 35 34 31 38 40 36 28 40 33 28 38 22 35 42 34 32 46 38 38 30 38 38 38 32 32 48 38 32 33 34 34 23 31 38 30 24 39 28 39 38 33 38 27 32 42 31 33 35 28 30 42 33 40 33 39 45 32 24 35 36 38 35 24 36 29 35 45 24 35 41 37 31 33 41 29 29 30 33 42 29 44 29 44 34 40 39 40 33 29 31 44 31 38 35 39 43 40 35 32 35 34 52 42 29 31 32 35 39 44 28 36 38 38 28 30 31 32 30 34 43 37 27 34 44 36 50 33 39 30 36 45 37 39 33 37 31 28 32 39 30 34 34 29 36 33 36 43 26 30 24 35 37 35 32 36 28 37 36 35 37 34 33 31 29 35 25 25 28 30 36 29 38 30 35 25 29 45 39 35 40 37 26 34 33 34 32 33 28 31 28 36 29 31 32 29 34 37 28 38 34 36 38 43 49 31 20 35 23 31 37 34 37 36 49 33 32 37 48 33 35 29 35 38 37 38 30 30 35 43 30 32 37 40 39 31 40 35 38 33 28 34 38 33 43 33 32 36 28 35 29 27 39 30 39 39 33 40 23 54 38 30 38 27 34 31 28 33 47 26 38 32 35 33 44 43 34 32 34 33 23 31 28 27 41 30 41 37 41 33 37 47 34 29 29 32 32 30 27 31 37 30 35 29 34 38 37 39 28 31 28 38 38 33 35 23 40 30 26 35 34 31 31 25 38 46 39 30 38 31 34 28 32 40 38 45 42 29 27 41 33 29 33 27 38 38 39 35 30 27 27 30 33 48 35 39 35 20 32 31 26 32 27 28 27 40 34 39 32 30 42 27 33 35 42 35 32 31 33 32 31 29 29 27 45 36 36 30 29 34 35 43 28 29 33 29 38 47 36 32 30 35 32 28 36 26 23 43 38 28 27 25 30 37 35 34 38 27 31 26 28 27 27 42 35 33 36 36 32 28 33 38 30 29 27 35 24 31 28 40 44 37 27 31 34 28 25 27 43 32 42 29 36 24 33 30 45 36 36 28 32 39 34 34 38 36 41 36 28 40 34 35 46 33 42 45 32 37 22 32 40 28 29 37 46 30 44 42 42 34 28 30 33 30 26 31 28 35 29 23 31 33 29 43 23 40 36 34 41 32 32 46 25 31 36 36 30 45 36 35 34 42 33 32 33 36 39 37 34 32 31 33 37 39 25 36 24 35 46 29 34 36 44 29 29 18 28 33 38 40 37 31 40 36 38 26 38 32 32 37 31 39 34 30 40 34 28 41 40 28 30 43 33 34 40 34 34 39 33 30 42 40 33 33 33 31 35 47 30 47 26 19 41 32 24 40 35 43 28 29 37 30 33 46 33 21 31 43 29 30 41 24 34 22 36 36 32 42 39 32 35 34 35 30 27 36 31 26 29 31 43 40 35 32 36 35 26 41 35 30 30 22 32 24 31 43 36 33 37 38 37 39 27 38 28 37 29 35 52 36 35 28 32 28 38 33 35 25 34 29 44 29 37 42 42 40 35 32 31 32 29 42 33 31 47 36 22 31 37 40 30 34 37 32 33 40 45 35 36 42 31 23 41 36 25 35 37 29 30 33 40 30 34 29 38 31 39 37 34 30 34 39 33 36 33 39 34 26 41 37 30 39 36 34 22 38 22 27 22 43 33 39 37 30 37 32 35 31 27 35 37 40 35 27 32 28 25 32 34 37 37 30 49 29 37 27 39 38 42 24 36 36 32 49 45 26 33 28 26 33 40 39 30 28 36 40 40 39 36 34 28 35 38 32 28 31 36 38 32 36 33 31 32 29 27 35 30 38 31 32 37 34 38 25 37 33 32 33 41 36 31 36 26 31 36 29 41 39 38 33 32 39 36 37 31 37 38 33 38 26 34 39 35 33 42 35 41 40 40 39 45 33 36 35 39 32 29 36 43 35 31 29 35 35 38 30 32 35 30 35 33 29 34 40 36 42 41 36 17 34 29 29 39 37 38 34 31 33 44 49 33 25 28 40 34 30 37 41 42 37 29 31 32 34 32 31 33 31 30 30 34 29 36 37 31 34 28 36 30 27 37 33 31 35 37 31 33 31 32 38 29 24 26 29 31 35 42 40 49 30 34 41 35 29 40 34 25 24 27 31 37 45 29 25 39 42 36 34 34 28 28 38 37 41 31 37 36 41 41 45 36 35 28 20 38 33 33 42 25 29 42 31 32 27 34 32 32 33 31 22 29 43 37 35 32 35 34 39 23 21 30 37 37 30 34 37 16 31 39 24 36 24 33 27 43 36 35 30 34 35 31 35 34 28 37 33 31 36 36 38 34 29 28 31 41 35 31 35 27 40 31 35 41 45 40 32 33 41 32 40 40 33 27 37 35 41 30 32 34 29 28 33 43 42 34 47 30 29 35 32 41 45 30 31 33 45 26 32 25 38 33 36 36 35 40 35 38 26 39 34 36 24 29 30 35 29 29 27 34 35 26 43 34 47 27 27 42 21 34 33 32 27 30 38 49 31 38 29 29 32 33 33 31 31 28 22 33 36 40 29 36 32 41 33 31 28 35 38 30 39 39 31 32 36 45 31 40 36 34 34 38 35 27 29 27 44 35 42 36 37 34 38 36 29 26 27 32 36 33 32 37 30 40 45 29 37 32 27 25 42 33 27 31 38 29 36 22 40 30 37 48 34 30 43 36 46 29 35 25 33 21 29 28 36 27 33 27 27 30 33 33 36 37 32 26 36 35 27 33 28 31 24 39 33 34 34 34 30 37 31 36 30 42 38 42 39 33 31 36 27 36 30 28 31 29 33 34 25 36 42 42 28 31 38 34 33 26 32 31 40 32 34 38 33 37 25 33 41 31 22 36 40 34 41 34 37 33 33 35 32 28 34 33 46 39 32 26 28 27 34 26 27 28 29 33 36 34 23 24 40 46 35 37 37 57 38 42 32 33 33 42 33 39 28 31 41 31 37 29 28 32 31 35 25 40 40 26 27 31 37 40 29 25 31 34 45 38 27 32 42 39 29 31 31 27 37 28 29 37 37 37 38 36 28 29 34 35 28 38 45 48 38 23 34 37 28 28 38 33 52 46 46 45 28 40 32 33 24 34 39 27 31 38 34 32 34 26 33 32 24 34 28 27 40 39 30 24 38 34 28 29 37 30 36 36 32 34 31 33 29 34 33 36 35 42 28 42 26 46 41 36 23 29 36 39 33 25 27 35 34 34 40 35 37 25 36 23 35 22 38 35 33 37 41 40 32 30 33 39 40 38 40 40 39 30 37 23 39 34 40 32 29 46 33 32 29 34 32 35 40 32 38 37 46 25 43 29 34 38 33 31 34 32 40 36 33 42 33 41 24 33 34 28 52 34 23 33 34 43 34 35 33 29 41 32 34 37 36 22 29 31 32 40 27 21 50 38 35 27 41 35 29 21 41 37 36 37 30 30 36 34 27 34 30 32 34 37 31 25 34 35 33 27 36 34 30 32 36 39 43 33 40 34 32 34 29 41 35 37 33 36 39 31 33 29 30 24 39 32 37 22 38 19 40 44 37 28 32 32 32 38 34 38 37 33 40 28 31 32 22 33 35 33 33 37 33 32 33 40 42 31 44 32 41 28 38 36 37 34 33 30 36 37 23 49 24 27 27 42 36 27 34 39 36 31 44 31 26 29 37 25 30 30 34 32 34 44 26 34 24 16 33 38 22 35 28 40 29 39 36 34 32 32 33 37 26 37 40 44 27 38 30 32 34 40 32 33 37 29 33 29 39 33 29 34 25 32 35 39 28 28 43 33 37 32 37 32 23 34 33 28 39 38 39 31 31 35 34 41 36 33 39 32 36 38 39 34 21 31 35 28 37 39 32 37 33 34 41 39 33 40 21 25 33 31 28 35 40 36 27 31 33 44 35 40 36 24 42 34 32 31 40 31 38 32 39 37 31 25 37 27 39 26 34 35 41 30 23 45 27 28 41 38 31 26 23 35 34 46 39 33 47 29 38 32 42 36 26 32 29 25 36 32 29 38 27 27 38 34 33 33 36 40 40 38 40 38 43 33 37 31 33 44 30 41 26 28 27 31 30 39 30 29 39 33 27 37 32 41 37 40 44 27 40 29 33 40 30 29 36 31 30 35 37 29 38 50 32 35 32 33 47 35 41 36 34 26 26 27 27 31 33 35 28 29 28 21 42 36 40 35 36 42 33 36 44 37 44 39 24 41 47 31 37 41 30 30 40 25 33 29 27 33 40 30 32 39 33 46 29 42 29 30 53 30 32 30 29 31 33 31 26 35 32 36 31 35 29 36 33 29 40 43 40 43 34 30 32 37 35 29 35 41 30 29 38 35 37 30 28 41 41 32 29 33 44 49 39 27 41 36 29 33 31 42 29 31 33 36 39 40 40 47 29 39 34 33 39 38 42 24 27 38 46 29 28 40 30 26 31 37 31 44 41 30 37 35 32 29 39 40 37 29 27 29 34 33 36 30 38 49 37 34 34 24 50 31 38 30 39 42 29 46 29 38 36 24 37 35 35 31 39 34 32 40 32 37 37 38 37 41 30 37 28 44 35 30 33 29 33 31 34 38 36 28 31 32 30 43 31 28 31 24 29 37 34 29 33 38 28 39 34 37 24 34 32 29 27 24 35 38 34 36 24 36 34 28 33 32 24 26 39 38 40 32 36 31 29 36 41 26 41 35 31 35 37 22 34 30 36 25 34 43 35 34 27 28 48 37 31 24 29 45 32 24 42 47 39 26 40 43 25 33 37 35 33 42 41 29 34 33 31 36 23 28 30 35 28 29 33 28 34 27 34 33 43 39 29 34 33 35 34 33 30 32 32 25 30 36 32 30 22 30 34 38 30 28 32 33 36 33 31 23 33 32 28 37 34 39 42 37 33 23 31 38 33 37 34 25 28 30 31 37 38 30 32 37 29 36 32 36 38 33 33 28 28 39 37 36 33 36 40 37 33 29 29 37 26 28 33 43 33 35 36 47 30 28 27 30 26 33 21 39 28 43 27 35 33 34 31 33 42 25 32 37 32 31 40 42 32 30 34 36 31 38 26 42 36 39 33 34 22 31 43 37 25 31 23 20 44 33 31 38 40 40 30 27 29 29 39 34 30 34 37 39 37 26 38 37 30 31 32 26 24 41 38 47 26 31 28 42 28 28 26 38 33 30 37 29 25 31 33 52 37 34 32 34 30 43 29 27 38 33 41 33 41 34 34 33 37 37 36 36 28 36 33 33 33 33 44 26 25 43 30 32 33 23 27 32 32 25 32 36 32 25 44 29 29 37 39 27 29 29 26 22 35 29 47 23 36 39 38 45 30 34 32 29 26 36 37 31 40 30 35 36 35 37 33 30 27 29 30 30 35 40 30 39 31 39 29 29 39 35 35 37 27 30 33 30 42 34 30 35 37 29 35 43 35 37 33 40 25 35 33 32 31 26 39 28 34 42 35 37 30 34 24 36 35 37 32 30 28 24 28 33 28 26 36 26 28 34 30 25 33 35 31 30 39 32 31 25 38 29 26 38 45 42 33 34 43 44 39 36 38 34 30 23 35 36 30 43 34 30 29 48 39 37 36 33 41 26 28 32 41 41 36 44 30 27 43 27 39 38 31 26 42 43 34 26 40 33 25 40 25 41 35 32 41 38 33 37 32 48 32 38 36 36 29 32 48 29 29 37 26 41 36 39 29 28 35 35 20 31 30 27 37 43 38 29 36 28 27 39 46 30 28 28 34 38 36 31 27 35 44 31 35 33 39 41 31 40 44 46 35 27 41 27 27 30 38 24 28 21 34 30 39 34 35 48 31 27 30 27 34 33 32 36 33 30 39 35 33 29 37 29 33 33 38 29 41 35 36 45 28 38 37 40 32 31 34 33 31 32 24 44 39 36 40 33 27 34 38 40 34 24 39 34 32 39 40 36 31 25 31 25 32 32 39 31 30 29 29 36 40 34 25 32 41 37 38 33 37 31 32 33 26 43 29 37 37 41 27 30 36 38 30 39 43 27 42 43 33 40 39 31 32 32 35 27 39 29 33 34 35 36 29 20 27 35 36 32 36 38 31 35 32 35 29 28 38 33 33 31 38 42 32 49 32 46 33 23 35 44 37 26 40 23 34 27 39 37 47 20 33 28 28 37 41 33 29 34 34 37 34 29 31 50 45 37 33 37 27 35 36 34 35 30 28 41 29 38 33 31 44 30 27 26 33 31 33 31 34 34 40 34 24 27 29 35 30 33 33 28 46 37 25 36 34 27 29 39 34 36 37 36 38 23 30 33 29 35 39 44 30 31 32 32 34 41 50 39 32 38 22 40 26 26 32 31 31 28 35 33 30 29 28 29 25 42 35 32 34 42 34 33 38 33 29 28 33 36 42 32 30 30 26 35 42 39 23 30 28 40 42 42 30 33 40 37 36 33 32 35 37 26 41 39 43 24 32 34 33 36 37 34 28 44 33 38 30 32 31 33 35 39 34 31 36 35 34 45 41 36 37 23 27 32 30 22 31 41 44 32 32 27 35 34 31 27 42 31 44 37 33 30 42 40 24 39 34 31 49 34 30 32 29 30 32 35 31 35 36 36 38 33 38 29 33 30 28 32 31 32 40 35 40 24 31 35 36 29 33 39 41 33 38 35 34 28 27 40 36 31 34 41 31 38 29 29 25 35 40 44 39 39 35 28 34 38 26 36 34 33 41 36 40 36 34 37 31 37 35 24 45 37 28 35 33 28 32 35 20 42 42 36 37 30 37 29 30 22 32 28 41 38 42 35 29 25 33 30 26 38 38 52 40 32 35 33 26 34 42 41 36 38 29 28 34 27 42 32 30 43 22 34 28 44 42 42 23 33 27 37 40 34 30 42 30 29 35 34 31 40 25 41 39 32 38 41 38 44 39 34 32 34 24 25 34 40 35 43 33 26 37 43 28 25 38 41 40 33 37 34 26 22 39 34 27 27 28 30 32 42 34 32 26 47 30 26 36 41 26 36 39 25 27 35 32 27 30 22 41 36 38 29 27 41 33 30 29 33 31 35 29 32 33 43 28 28 32 21 46 31 39 27 33 35 33 31 28 30 35 31 41 27 35 38 26 29 33 49 30 37 29 36 43 36 28 39 27 33 26 41 36 36 34 47 33 39 29 42 39 28 28 36 35 36 25 33 27 41 37 42 36 22 33 31 37 30 30 25 35 38 30 42 39 36 33 39 41 40 37 36 32 41 44 27 28 29 29 26 36 37 32 34 25 36 30 33 29 24 30 33 30 33 35 35 33 35 39 34 33 33 30 40 32 35 23 25 22 43 30 27 39 36 27 26 26 33 40 28 43 32 36 37 41 25 33 38 36 42 28 29 32 33 32 40 30 25 24 32 34 28 37 35 31 35 31 39 29 26 38 35 35 35 33 44 32 41 31 34 42 37 24 36 29 24 31 40 32 34 36 32 38 38 24 35 25 27 36 31 31 29 28 35 32 32 35 29 36 35 24 32 29 29 31 37 23 42 37 36 42 33 30 33 33 37 38 28 28 36 28 37 29 37 24 33 40 39 36 35 36 35 40 35 31 35 36 33 38 50 28 41 29 42 42 35 36 42 28 31 32 24 36 34 32 36 36 31 28 40 27 32 28 29 34 30 35 36 28 26 36 36 30 28 30 39 27 36 30 30 35 31 28 36 34 28 19 30 39 20 33 42 24 41 40 36 40 30 36 31 39 44 33 33 35 35 35 36 31 33 37 33 26 38 31 25 30 30 30 36 30 30 38 35 31 31 34 39 26 31 26 30 33 25 34 28 36 34 27 36 30 33 38 31 34 26 39 25 33 38 29 29 36 35 37 27 38 29 35 37 35 38 31 30 27 45 37 42 28 32 34 32 20 33 39 22 31 27 36 46 36 30 30 40 29 26 37 27 35 29 29 35 32 37 36 25 37 37 43 41 27 37 38 32 33 26 34 44 32 24 38 29 36 27 32 40 27 38 30 37 31 40 34 37 33 31 34 46 33 21 29 35 40 38 37 22 38 40 33 43 49 38 31 23 34 28 33 44 40 32 41 29 33 31 39 36 35 29 28 32 32 43 31 34 39 34 36 31 33 34 18 27 32 47 43 32 36 35 33 37 27 29 34 42 47 28 33 43 26 43 38 36 33 46 29 29 35 29 33 20 41 44 30 30 40 31 31 33 39 23 25 34 33 25 44 35 23 38 28 30 53 33 36 34 36 44 41 44 35 39 28 34 41 35 27 37 36 33 33 40 36 38 33 42 33 31 39 40 36 31 45 42 39 41 38 36 36 31 35 27 36 41 33 33 34 26 32 38 38 35 27 36 32 39 31 23 35 29 37 28 33 34 32 28 32 29 32 22 42 35 36 38 39 36 22 47 36 25 36 37 35 32 32 38 25 33 30 33 42 44 39 49 32 41 36 20 33 43 38 27 31 30 34 43 30 25 32 29 47 38 28 34 37 35 31 40 33 29 35 40 42 38 33 32 30 33 28 33 36 33 34 34 37 32 26 39 34 35 51 37 28 35 26 23 29 42 42 38 30 38 32 34 33 33 42 25 36 40 34 32 35 33 25 34 38 32 29 34 32 25 33 39 34 31 37 36 37 35 36 24 30 33 37 25 32 23 27 40 28 32 40 32 33 32 35 32 41 29 22 40 36 33 30 20 31 42 38 35 29 38 33 27 26 36 43 36 27 35 32 45 38 29 31 37 29 36 36 25 31 38 32 31 38 29 30 35 34 28 34 32 20 31 34 33 41 38 36 51 35 33 24 36 28 41 39 31 38 38 40 49 43 27 44 21 26 32 36 37 30 33 38 29 41 38 26 40 37 31 45 39 33 35 27 28 34 40 32 37 26 37 25 19 29 35 35 27 40 41 27 29 28 28 33 34 41 43 27 28 40 37 32 24 30 31 28 25 33 30 37 35 29 33 37 42 39 45 31 42 34 34 39 34 36 37 40 33 37 36 27 34 37 39 45 44 37 33 41 45 28 31 26 36 29 40 37 27 33 41 38 34 29 37 29 35 35 34 25 36 33 37 31 39 26 26 30 33 25 53 27 32 40 38 39 30 36 31 31 33 31 31 34 30 36 30 41 40 31 43 24 35 38 46 28 21 38 36 43 42 25 29 45 31 33 39 30 32 30 30 32 33 34 26 49 26 39 34 31 40 38 29 33 36 34 35 34 42 36 32 38 33 42 35 31 25 26 33 36 21 31 37 31 39 27 28 24 25 36 36 31 31 27 29 36 38 47 36 30 49 33 38 38 33 34 31 31 31 44 40 25 36 28 38 34 38 36 28 33 30 35 30 29 40 34 30 31 27 24 51 36 35 35 42 31 35 28 36 47 27 36 33 30 31 28 30 38 32 42 33 25 34 34 29 40 32 36 33 33 31 33 35 32 32 40 34 31 30 28 38 39 38 36 33 34 34 25 39 31 34 28 34 37 36 40 38 34 28 26 37 41 32 37 33 28 35 31 45 41 29 43 40 34 30 38 29 27 34 32 25 43 28 33 36 29 39 28 41 31 35 29 41 32 34 29 34 38 27 31 37 37 30 38 26 33 35 31 38 38 28 42 30 29 27 30 30 32 34 25 24 33 41 37 35 38 36 39 38 40 34 29 36 47 30 23 31 31 35 29 34 29 30 35 41 35 35 39 38 32 28 38 25 31 29 41 30 31 35 36 34 39 36 33 27 30 33 31 33 32 40 30 27 35 29 38 29 30 35 43 28 32 36 38 21 36 32 31 38 50 31 37 24 39 37 30 26 30 35 27 39 32 33 33 32 22 45 29 42 32 36 26 33 29 36 37 33 35 36 34 37 42 32 37 32 21 40 24 31 40 29 27 21 30 31 28 39 30 30 36 31 45 39 47 43 35 30 37 40 32 33 32 26 35 31 33 41 23 37 39 28 38 37 32 32 36 33 26 31 38 28 41 32 33 38 39 30 27 45 28 42 36 35 39 34 26 36 34 34 29 42 42 44 38 33 24 26 23 40 33 33 32 28 27 37 32 34 31 30 28 32 27 46 42 51 31 41 39 32 45 30 33 34 41 31 31 38 28 30 34 32 30 37 32 36 26 36 33 29 38 33 25 33 30 25 33 42 38 34 37 37 39 40 35 42 33 34 30 41 24 33 33 32 25 36 29 30 36 33 24 38 34 41 34 32 32 35 36 22 45 31 41 29 37 36 24 35 38 42 36 22 42 37 31 35 30 39 32 27 42 25 37 41 39 38 34 43 35 36 34 32 30 43 35 29 20 33 33 46 29 37 37 25 27 30 27 38 22 45 36 29 36 31 32 26 31 34 29 32 33 20 25 37 37 32 28 35 37 37 39 35 38 35 41 36 25 31 31 27 33 31 26 33 45 37 40 35 45 31 38 40 49 42 30 34 32 40 32 29 33 32 42 32 29 29 29 31 40 26 30 36 36 29 35 27 45 23 34 43 27 32 37 39 30 32 34 37 30 35 36 36 30 40 40 39 33 35 30 29 32 31 41 41 34 24 31 33 42 32 20 40 33 37 27 41 34 31 30 39 42 32 23 40 39 26 35 38 21 36 32 40 33 30 44 41 31 28 28 36 38 31 29 22 25 30 31 32 33 25 28 33 34 25 34 29 30 30 32 30 35 29 37 37 29 47 36 39 30 36 30 28 35 28 29 34 42 38 39 36 37 36 42 33 33 42 27 34 39 31 34 34 36 32 29 27 35 31 34 34 38 31 40 40 29 33 24 35 34 33 35 30 28 44 28 21 37 31 28 34 28 39 31 35 44 28 36 41 38 38 26 31 39 49 31 39 33 42 32 28 31 27 30 37 24 20 26 36 32 37 30 36 34 32 28 26 43 28 23 38 40 30 31 32 32 40 41 45 18 27 42 28 43 27 29 35 35 36 26 35 33 32 40 36 28 31 33 23 33 26 36 33 33 31 28 25 42 32 36 24 37 33 30 32 38 37 32 31 36 32 39 24 45 39 34 25 31 30 31 44 36 36 30 30 28 31 37 33 37 34 40 31 39 35 37 31 35 34 35 38 37 42 37 37 32 24 35 33 35 28 27 35 33 30 33 28 32 34 39 31 38 34 25 34 45 30 39 28 37 32 29 27 28 38 28 31 38 34 30 30 32 37 41 41 28 42 44 38 21 31 35 36 31 30 44 40 38 31 39 36 28 24 41 28 26 51 33 38 31 34 26 33 39 30 36 36 38 33 39 41 30 31 29 39 31 31 27 36 40 40 25 38 37 36 31 41 37 41 31 46 46 31 23 31 43 36 25 31 27 36 34 28 28 39 33 38 38 31 24 40 27 25 28 33 38 28 35 26 31 33 23 43 37 23 28 41 38 38 32 33 37 28 29 33 33 40 37 36 34 38 40 37 52 33 27 36 51 29 29 37 39 30 34 35 41 44 31 34 43 31 26 29 28 27 34 42 36 37 36 42 28 30 30 34 42 32 42 35 31 40 45 30 35 31 41 23 30 44 28 25 32 39 38 32 22 38 31 36 31 39 30 34 44 36 44 37 39 32 37 37 32 34 31 34 32 44 38 45 29 45 42 24 34 39 25 41 37 35 34 20 45 38 35 35 26 39 31 29 36 24 35 31 34 34 28 28 31 33 32 36 33 33 35 35 30 31 34 33 41 41 39 41 25 28 42 31 31 33 35 33 31 38 33 31 34 35 33 28 26 34 34 33 32 35 25 32 38 31 44 36 33 30 26 31 29 29 32 20 29 22 28 29 38 29 36 35 33 35 43 45 40 42 30 33 34 34 37 39 27 32 31 27 35 30 32 39 45 33 45 43 25 25 32 36 28 38 37 42 33 30 36 39 31 31 30 48 26 33 41 34 32 34 49 35 36 30 39 29 22 43 32 41 30 31 41 29 25 23 34 22 37 35 35 38 40 23 37 34 38 33 36 35 37 41 52 23 30 31 38 28 30 29 33 41 33 26 34 32 28 28 31 32 34 35 39 31 38 37 26 27 33 33 34 34 40 37 38 29 29 40 30 31 26 33 45 22 38 36 30 39 30 32 41 26 31 36 29 27 45 31 43 32 26 36 27 40 23 38 37 25 27 36 35 32 38 39 43 41 30 34 44 27 45 33 32 42 36 30 27 35 42 33 20 47 44 42 32 33 23 36 28 38 41 35 28 29 35 37 25 32 33 36 29 24 28 36 30 30 44 31 27 37 40 38 29 31 40 37 28 34 41 29 22 31 32 34 31 39 31 37 43 35 30 39 29 32 36 25 28 32 37 36 39 35 44 33 32 24 41 31 29 46 35 42 37 38 32 35 33 29 35 35 34 30 31 23 42 35 36 32 35 31 36 33 26 35 37 37 31 39 34 26 22 27 26 30 44 36 33 23 28 35 32 40 31 36 37 53 27 30 38 36 39 29 29 29 24 27 34 37 33 45 40 22 31 27 36 32 28 28 36 26 22 35 32 36 29 33 33 38 33 39 35 41 35 41 33 27 38 28 29 33 36 35 31 30 37 29 29 38 39 31 31 27 31 38 34 33 34 36 34 28 25 32 25 38 31 36 38 37 33 39 37 34 48 26 30 29 39 42 38 32 36 26 38 30 39 37 29 34 34 32 37 33 36 36 31 25 35 30 34 35 38 23 29 28 35 33 49 32 34 37 24 29 34 31 33 37 46 42 24 25 48 35 30 24 35 34 28 27 32 39 42 23 31 36 33 39 26 31 26 27 33 38 41 29 32 36 36 43 26 39 30 30 28 34 36 34 44 34 39 38 29 38 24 24 29 23 31 45 45 28 37 34 31 34 29 44 24 40 32 34 33 35 32 39 31 36 29 35 35 28 32 33 43 33 42 37 37 28 30 41 48 28 47 26 30 45 32 42 36 41 40 34 30 38 27 29 32 22 26 41 33 30 34 32 53 42 35 28 31 32 34 34 42 34 31 32 29 26 28 26 35 36 32 46 36 29 40 36 26 30 30 28 36 32 28 27 34 25 28 25 38 31 38 37 37 41 34 28 37 35 27 43 29 34 36 39 37 31 37 24 40 40 33 28 26 45 26 33 28 24 44 34 36 33 35 26 27 37 25 30 28 28 30 32 33 34 45 41 42 32 40 34 34 34 34 24 30 25 29 40 31 39 31 40 26 34 29 43 26 29 33 35 37 30 29 33 35 29 35 24 38 31 30 30 34 37 31 43 26 22 22 29 29 32 35 26 33 37 38 27 31 35 36 24 43 32 22 34 34 25 21 34 30 44 32 40 41 28 37 35 40 27 42 31 37 28 41 35 40 28 37 41 44 36 29 35 37 37 35 52 32 31 38 32 28 40 34 32 37 34 40 33 36 29 29 39 24 40 39 34 24 29 34 35 35 41 33 37 32 30 32 26 24 30 30 23 41 42 41 36 46 46 40 29 31 26 29 29 36 35 30 33 39 33 36 32 25 34 34 44 30 42 26 34 32 31 38 24 33 30 33 44 42 39 37 30 31 33 40 36 33 43 32 30 37 39 31 39 25 42 25 34 38 27 31 45 37 28 20 32 39 40 38 37 36 29 28 35 32 36 34 33 35 37 43 33 24 33 32 35 42 31 28 27 37 33 32 32 47 37 27 38 30 30 38 25 26 48 37 39 31 34 36 34 37 36 27 37 41 35 25 34 32 30 32 34 39 31 40 29 40 39 43 39 50 28 32 36 30 33 45 31 37 39 43 35 40 29 36 33 30 35 42 31 29 23 32 32 34 31 29 29 35 34 39 25 39 27 30 30 34 37 32 36 46 36 29 39 48 37 27 37 32 32 27 31 33 35 28 34 46 26 42 30 35 27 33 33 28 30 27 41 48 40 33 31 36 39 32 33 28 34 28 33 31 34 40 33 36 29 33 33 37 36 30 32 35 45 33 33 29 44 41 35 32 39 29 33 30 32 41 34 33 30 28 38 37 47 35 33 32 30 41 31 33 39 34 37 37 35 37 38 28 33 34 22 20 46 37 28 39 40 36 40 31 42 33 20 22 42 30 29 33 34 43 23 35 32 40 40 28 27 33 25 25 37 36 39 32 36 27 30 38 41 38 34 41 35 31 46 32 30 35 42 45 35 20 31 30 24 37 37 22 32 31 42 31 37 36 37 32 44 33 30 49 32 33 26 36 29 32 42 33 37 37 40 46 28 36 35 29 35 34 36 25 30 34 35 34 31 37 37 50 38 31 34 37 32 37 32 31 40 39 31 34 36 31 40 30 28 36 33 40 36 26 32 35 36 39 38 37 32 31 35 37 32 32 34 31 53 39 38 36 38 29 44 35 28 30 36 45 31 33 37 47 35 31 32 31 29 36 40 32 46 44 27 30 42 35 27 39 32 40 41 24 30 26 28 35 33 29 35 29 31 30 33 33 31 42 38 33 38 24 24 23 34 33 25 29 33 40 31 31 27 45 31 34 28 38 48 34 27 31 40 46 37 45 29 41 37 38 29 38 28 31 35 34 41 41 37 29 31 33 37 28 40 36 39 36 30 31 34 34 33 32 40 30 45 32 33 33 29 26 30 34 34 46 35 33 34 41 50 40 27 40 38 20 28 34 28 33 36 39 34 30 38 39 37 39 40 40 29 28 29 31 33 28 32 41 38 36 41 33 34 36 40 25 30 27 23 35 33 43 45 29 30 39 37 34 32 34 42 27 43 27 35 37 31 24 25 35 33 28 29 28 36 32 25 41 39 31 33 32 30 30 24 41 39 34 38 32 38 33 26 29 28 38 30 34 43 36 39 26 33 27 37 46 41 40 31 31 38 42 25 39 22 31 33 25 34 41 28 28 29 33 33 28 21 38 32 38 32 30 40 31 37 38 39 38 39 31 35 35 36 36 35 39 28 48 35 38 26 35 41 33 47 33 34 36 33 39 27 39 30 30 33 41 34 38 40 36 34 32 27 34 36 34 34 40 45 31 30 37 37 24 25 29 35 29 24 32 46 35 34 37 32 26 37 33 38 31 38 39 37 31 35 35 35 33 36 42 44 29 30 35 26 17 28 39 29 36 34 32 34 28 42 32 32 22 30 32 30 32 37 32 31 34 26 33 43 35 27 35 29 35 39 33 30 36 30 26 44 51 36 41 38 35 28 28 32 30 35 36 33 34 38 28 23 35 27 23 34 33 28 28 26 27 38 41 42 33 34 28 25 25 33 36 37 37 35 32 32 40 44 28 38 44 31 40 36 38 34 37 31 27 39 30 32 35 25 30 32 29 31 29 36 32 28 32 32 32 34 32 29 34 28 28 40 31 35 32 38 24 36 37 32 24 38 42 37 34 35 30 33 38 42 35 38 21 34 34 30 30 28 30 38 34 34 29 33 39 39 29 27 30 45 38 31 36 30 32 35 35 32 31 33 33 41 33 32 30 34 37 41 34 35 24 43 32 28 29 28 30 35 35 46 32 35 37 35 39 33 42 34 22 36 33 49 26 31 35 38 38 37 31 29 38 33 44 53 26 32 33 34 32 38 35 34 33 45 35 38 37 33 37 32 33 37 36 37 27 25 39 28 31 25 37 39 31 43 46 38 36 35 35 40 42 27 34 44 33 35 30 36 33 27 33 26 27 37 35 33 37 36 36 22 22 28 33 32 27 36 23 34 41 43 16 34 31 29 43 46 27 48 20 35 30 19 32 33 24 38 34 41 37 27 32 42 37 27 30 29 36 37 33 24 39 25 28 40 31 47 30 33 35 38 24 37 37 25 31 35 30 39 34 42 40 31 22 31 23 39 38 37 36 41 37 30 41 36 37 37 32 39 34 33 33 33 41 24 32 27 38 38 39 39 32 28 35 36 29 29 37 36 37 36 35 36 29 28 36 39 32 16 35 38 32 34 36 36 24 38 36 31 34 30 30 34 26 41 30 31 32 35 36 28 32 36 25 32 33 28 34 32 34 28 36 29 40 34 40 41 39 47 32 24 29 36 25 45 37 43 27 28 29 31 28 26 30 36 35 29 37 39 42 39 30 39 29 33 31 34 24 29 39 27 27 35 51 35 32 25 26 39 32 27 48 30 31 34 33 28 28 29 30 38 37 30 25 39 33 31 36 34 38 32 35 38 47 35 26 22 49 32 39 32 39 40 32 36 35 39 32 31 30 30 33 17 36 31 29 37 34 39 24 34 37 42 35 35 33 34 37 34 36 35 35 31 35 30 48 29 30 31 31 35 32 39 34 27 34 41 32 54 44 37 30 45 32 27 32 29 29 38 31 39 32 41 34 34 38 42 34 29 32 32 42 40 30 29 22 41 30 29 34 24 34 43 22 34 40 44 32 31 40 35 29 33 28 37 44 32 33 29 38 32 34 39 37 39 29 26 41 27 32 36 25 36 31 35 26 33 28 38 33 40 31 27 31 36 23 28 46 30 29 24 41 31 44 48 29 38 33 42 30 35 34 38 43 39 31 36 28 35 35 33 31 32 42 28 25 32 23 34 28 26 30 30 35 39 27 40 37 28 42 35 31 41 27 39 36 34 44 25 18 38 47 25 34 38 31 34 40 30 35 33 37 33 38 22 38 27 32 26 42 33 32 27 31 40 42 37 40 33 42 38 35 32 29 36 40 37 32 24 38 37 34 34 29 26 26 35 30 34 31 42 27 34 29 33 34 35 37 33 35 28 32 37 25 39 42 40 40 40 30 27 35 43 33 35 35 46 25 38 34 44 34 28 27 40 31 24 35 39 36 33 39 33 37 40 29 31 31 36 37 30 44 35 31 24 33 33 43 27 24 35 31 24 33 33 32 37 40 32 36 38 32 30 40 41 37 28 42 38 37 36 41 37 31 45 40 32 35 47 42 40 41 29 25 38 32 32 24 49 39 34 26 38 30 41 27 41 38 31 35 34 46 36 34 33 33 42 38 29 41 33 30 35 34 25 28 32 45 34 38 33 22 32 31 27 33 39 38 26 31 51 41 34 20 34 43 27 37 33 44 41 27 36 45 32 35 28 35 37 38 35 44 34 22 35 27 24 34 32 36 32 35 37 31 39 35 36 36 34 33 34 45 35 33 38 24 29 33 37 39 35 32 33 27 36 33 36 29 37 51 40 30 31 37 31 26 38 39 34 40 29 34 31 39 28 35 32 37 37 28 34 28 32 40 34 37 29 37 30 29 45 32 31 38 29 35 38 35 36 30 32 43 33 29 41 19 33 36 41 33 31 25 24 42 33 32 28 34 38 27 23 37 42 36 33 33 31 29 40 42 30 26 29 44 33 36 19 31 47 37 29 43 23 36 36 30 39 28 34 32 37 26 30 31 35 36 32 31 27 36 33 36 27 38 32 29 30 28 40 43 32 31 32 46 30 25 31 28 31 31 27 32 34 33 34 19 39 36 47 33 26 37 38 33 34 30 35 39 36 25 29 25 39 30 37 45 28 28 33 38 28 24 23 32 31 37 42 41 27 55 28 35 37 29 26 32 37 26 31 36 25 34 45 36 37 34 46 26 27 34 24 43 39 43 33 34 38 35 36 33 35 48 30 30 37 32 45 38 30 33 32 37 22 33 32 36 32 31 25 35 34 36 34 33 32 29 34 37 46 48 33 34 27 33 31 42 40 27 35 39 37 31 37 31 34 30 38 31 32 33 27 38 31 27 29 36 38 29 37 34 33 30 35 37 32 39 36 29 37 49 36 32 26 32 44 52 39 30 31 33 25 28 28 39 39 34 32 34 39 24 31 40 43 41 37 28 30 28 32 30 25 34 34 36 18 30 35 30 29 37 39 25 30 36 35 28 30 33 38 34 30 34 29 29 37 37 31 31 42 32 36 43 24 35 30 34 31 39 42 39 45 26 27 32 38 33 26 28 32 28 34 43 33 28 41 37 39 25 39 28 31 34 32 33 36 42 39 39 43 35 22 39 30 32 38 35 32 30 27 42 30 26 42 37 38 27 27 33 45 32 36 36 36 33 35 24 40 47 42 30 36 37 36 28 33 30 34 29 50 28 26 31 37 37 37 31 39 30 35 33 31 41 39 28 40 36 32 28 36 37 27 32 33 36 35 39 30 45 43 34 43 32 33 33 35 28 32 29 36 34 32 24 30 45 38 27 28 40 36 33 34 36 30 31 31 33 33 37 37 26 32 38 27 33 34 30 26 33 35 33 30 36 27 27 26 32 36 27 34 32 32 28 30 35 31 32 26 22 39 35 42 29 45 40 31 32 36 37 33 38 30 36 38 24 29 29 36 42 21 36 29 36 24 22 21 32 44 42 36 29 36 40 38 38 26 36 37 42 36 50 23 33 37 49 30 25 30 26 29 34 25 35 34 37 49 29 35 23 40 34 23 44 40 35 26 28 35 22 37 38 36 33 44 27 44 36 34 23 40 24 39 34 27 46 29 34 36 30 24 38 35 30 28 41 39 41 34 28 37 38 35 32 35 32 43 31 46 23 25 33 32 35 26 34 37 29 29 27 35 27 39 39 38 35 35 31 37 30 30 38 36 32 36 35 39 44 26 37 35 38 48 27 44 45 33 28 32 42 41 40 31 39 32 39 43 30 30 34 30 30 22 30 32 27 27 26 37 30 40 29 29 33 30 27 36 25 33 38 35 33 39 36 38 38 35 26 30 35 26 35 25 31 36 31 34 27 40 41 22 30 40 28 26 29 33 41 34 46 30 39 35 35 23 30 29 25 28 25 33 31 38 34 35 25 37 34 33 32 32 22 37 41 42 30 29 29 30 30 40 30 43 33 48 37 38 33 38 34 29 37 28 38 36 34 25 37 21 37 32 34 35 32 38 39 28 42 35 30 35 36 48 30 36 27 33 46 30 40 32 28 35 34 30 35 42 39 36 34 35 28 33 37 37 31 33 30 38 28 37 29 31 27 27 32 41 34 44 34 29 43 37 35 30 32 35 44 41 48 31 37 36 55 30 32 31 36 35 30 32 35 32 34 37 44 43 48 24 35 33 30 44 33 26 33 32 38 34 34 31 36 26 34 40 31 35 25 36 30 32 42 30 29 27 27 34 32 35 31 26 37 37 39 36 41 44 38 38 34 26 33 37 32 36 34 34 31 32 35 30 39 25 35 30 37</t>
-  </si>
-  <si>
-    <t>EXN(0.4310253007359865, 224.58200677889687, 44.02156492941173)</t>
-  </si>
-  <si>
-    <t>258 281 188 173 240 238 283 272 230 222 289 182 249 171 128 251 255 156 231 248 274 271 220 233 276 290 276 212 226 265 297 237 213 212 202 305 206 203 301 279 252 336 294 204 199 307 226 187 228 219 276 281 165 287 247 211 271 255 238 193 296 189 208 147 169 346 213 153 253 234 217 206 223 175 174 264 311 258 300 279 280 259 262 239 185 261 272 238 350 171 313 243 246 200 249 233 330 223 280 267 222 205 205 194 293 176 274 260 225 297 187 269 274 254 244 205 160 289 118 165 229 260 234 266 335 308 305 258 238 231 274 164 262 336 241 272 202 225 209 236 257 234 289 187 336 239 267 215 213 301 205 205 218 373 261 273 210 174 242 267 306 219 253 266 300 334 278 223 294 253 270 267 257 232 204 278 306 312 284 271 312 214 205 257 373 258 226 292 226 207 268 230 279 259 266 317 189 311 231 238 184 217 277 261 228 158 274 163 254 350 311 231 263 253 277 211 188 230 232 335 288 175 185 186 296 197 244 223 211 298 221 175 215 236 295 275 169 209 264 176 285 184 174 361 276 299 243 230 399 229 169 270 242 190 239 226 219 192 232 376 245 257 235 271 266 212 202 154 144 238 274 247 215 239 201 210 257 246 233 243 216 280 249 269 269 254 270 309 326 295 217 247 163 149 279 256 154 216 280 212 226 187 270 219 291 295 240 155 208 256 230 274 303 266 285 207 196 281 253 285 271 280 272 313 182 241 320 243 203 253 251 212 344 246 156 226 263 219 167 125 221 251 231 213 241 237 266 232 322 252 223 136 257 197 223 243 239 241 255 271 208 195 156 236 243 144 283 261 159 221 154 252 288 264 296 170 177 265 220 253 211 250 237 220 177 278 216 264 185 245 302 211 237 279 368 189 245 296 241 174 226 274 173 316 360 233 165 194 254 218 210 166 237 258 255 340 182 264 284 196 287 263 286 183 187 230 257 176 288 268 271 164 240 275 206 320 198 248 268 190 245 242 269 280 217 237 234 299 318 240 179 263 269 193 170 230 328 202 192 275 315 243 206 195 182 195 177 245 177 256 218 160 230 144 253 224 261 249 303 193 289 218 283 362 280 239 153 190 316 258 303 233 227 256 233 240 278 289 271 305 261 250 280 257 248 280 305 287 216 175 300 274 251 371 279 248 271 246 338 204 293 267 279 233 211 192 227 259 319 346 291 257 263 192 247 153 229 254 255 244 263 262 277 291 234 215 189 221 166 224 261 236 278 211 386 273 260 333 254 290 253 192 244 255 230 176 189 223 228 338 312 243 248 253 243 273 246 294 240 280 229 248 215 220 320 243 205 272 233 212 280 234 251 276 235 202 218 310 161 250 141 283 320 189 204 304 246 300 269 271 208 162 238 176 291 292 295 163 258 256 280 275 251 213 285 339 221 243 235 222 221 219 305 318 265 204 242 305 282 181 226 350 234 285 304 232 213 194 249 243 170 231 231 373 268 238 212 198 250 274 202 241 258 197 237 244 205 181 170 234 323 251 317 297 322 231 205 196 263 226 199 160 231 293 225 285 274 217 246 163 240 229 206 327 232 286 162 327 244 196 251 245 241 250 208 184 230 214 198 194 387 245 189 180 322 289 243 287 185 289 203 173 258 216 271 177 182 310 282 269 150 218 233 176 246 261 202 219 310 272 244 225 262 221 270 256 204 283 237 222 331 256 194 309 201 222 333 243 305 235 283 286 371 196 202 217 198 186 233 245 241 171 161 248 219 256 239 305 187 231 247 331 145 259 215 257 191 284 282 215 189 286 248 281 373 218 260 295 286 181 224 312 228 218 292 328 287 246 319 322 203 212 309 306 250 225 239 194 353 168 262 137 186 196 269 196 242 264 283 191 299 179 328 162 241 361 254 223 201 183 242 200 313 222 190 206 249 213 248 233 280 162 225 230 230 294 330 219 218 193 192 206 195 225 200 275 208 220 314 166 222 317 301 290 295 284 142 277 221 275 314 274 231 224 244 202 238 220 298 164 252 207 171 338 184 181 199 265 245 281 256 215 216 223 247 237 268 301 177 256 149 333 211 313 215 185 195 212 163 287 260 290 225 309 267 217 228 340 332 207 323 188 269 213 261 147 169 281 263 210 167 254 242 254 176 263 157 358 241 253 223 248 208 214 175 277 266 220 266 273 233 163 190 190 260 219 245 218 221 259 227 317 271 183 239 187 215 181 184 226 249 283 248 255 259 273 335 192 270 376 210 185 260 308 238 260 337 196 283 248 203 187 260 305 266 251 181 250 220 222 212 240 253 262 191 322 255 166 192 257 278 321 161 197 214 248 220 232 215 268 301 249 226 281 273 244 232 199 226 319 234 298 259 208 265 225 235 198 278 203 218 234 277 185 217 300 239 259 195 323 379 202 315 313 211 211 300 225 308 205 195 199 336 231 201 297 179 185 297 265 277 237 221 321 240 284 259 252 240 332 304 216 276 264 221 270 221 214 211 327 288 218 189 205 276 309 200 205 214 214 284 314 195 174 287 211 209 240 141 186 249 181 190 308 250 235 232 282 221 249 256 201 341 187 259 266 252 210 266 292 249 251 191 227 278 244 258 273 311 245 224 227 128 248 222 185 196 296 268 208 247 250 264 195 258 304 178 233 212 246 379 254 276 305 174 277 228 140 194 205 238 266 203 104 302 265 280 221 205 353 256 261 280 226 248 212 268 172 256 248 227 219 300 276 219 243 203 237 179 275 259 251 188 215 212 254 211 212 197 307 280 164 210 239 217 197 279 236 212 183 249 259 206 270 242 226 274 170 264 341 259 332 309 278 267 287 146 223 312 284 274 256 161 322 338 330 257 197 269 205 240 127 253 237 212 249 272 195 213 242 296 321 166 273 230 251 258 268 229 232 251 235 164 171 282 239 270 185 158 320 237 222 263 250 203 312 258 186 233 246 239 202 115 254 185 301 181 231 228 388 290 209 300 198 263 238 256 243 281 236 227 225 191 233 206 245 289 225 241 295 280 221 201 265 163 197 246 211 227 257 204 230 237 267 261 184 201 213 259 354 263 239 224 256 218 264 265 256 274 300 198 167 161 298 305 218 225 180 297 292 153 367 231 227 197 226 266 281 243 173 358 196 281 189 221 240 229 220 244 356 209 202 168 315 223 181 229 289 288 266 313 117 212 304 243 177 341 204 194 173 157 169 219 201 293 242 275 220 239 233 246 279 202 240 223 257 230 169 211 286 276 199 257 273 256 273 293 302 288 220 279 231 194 243 244 239 281 224 276 264 142 232 286 173 261 306 272 229 195 179 231 208 298 245 281 184 211 170 238 263 246 229 245 187 243 275 307 231 321 252 186 246 309 262 215 282 246 285 228 250 147 203 199 197 224 272 226 290 196 222 231 240 161 211 233 283 240 291 228 324 243 213 313 252 231 185 226 201 166 209 218 218 269 225 218 166 235 271 194 345 179 232 235 231 281 221 191 231 282 227 294 295 233 273 247 226 239 271 257 234 367 221 261 269 232 274 266 297 303 229 328 251 229 250 115 234 304 249 197 294 297 283 187 270 270 282 229 267 317 270 203 165 225 238 198 212 267 198 205 257 242 289 245 234 251 194 233 266 244 255 212 228 170 292 266 374 307 255 379 276 216 204 266 264 245 147 278 258 244 361 196 279 266 330 222 266 233 245 200 163 195 323 269 274 201 316 231 307 260 263 212 223 226 275 205 295 212 303 313 304 269 216 251 246 310 278 209 208 258 328 297 332 187 332 224 304 257 217 255 251 222 302 316 258 154 213 280 337 332 330 235 214 279 302 273 303 237 332 235 197 217 227 205 264 299 260 229 274 321 334 209 203 247 203 284 265 197 240 196 259 242 232 213 292 267 248 261 283 138 158 253 245 269 160 255 252 195 200 236 274 309 225 250 256 242 253 154 188 259 227 212 241 179 279 175 233 220 214 247 256 198 240 265 225 275 370 349 248 112 220 147 226 287 255 250 233 321 241 267 280 336 224 341 178 267 283 201 187 190 184 294 314 268 227 331 275 267 139 305 259 256 252 165 242 331 262 311 250 205 218 239 224 195 266 310 210 278 262 279 284 217 344 260 231 248 214 265 205 175 215 309 203 337 221 294 256 287 280 263 244 248 209 212 204 273 248 258 158 318 350 315 177 217 301 175 207 174 220 270 193 207 219 231 238 302 190 205 233 315 291 230 225 282 237 308 248 238 198 261 224 208 265 241 172 238 177 313 252 307 186 273 221 262 241 269 277 251 276 321 175 177 291 298 220 213 208 330 231 257 252 197 233 198 222 247 254 254 307 280 171 184 236 224 208 217 219 206 257 232 271 233 178 260 188 239 249 223 216 230 197 283 226 209 252 199 263 311 271 266 226 176 254 292 275 185 272 262 230 282 253 258 238 200 240 241 200 277 241 178 313 248 176 158 233 234 232 250 262 276 226 226 138 211 210 158 341 237 217 152 268 229 168 295 279 217 237 209 242 216 199 203 267 308 286 238 226 214 222 141 214 379 314 319 179 261 228 299 257 373 276 291 216 160 274 258 228 276 225 311 251 175 319 301 265 311 245 278 220 253 247 153 229 263 242 165 291 201 235 332 267 335 251 197 206 227 205 214 223 241 228 193 220 214 211 201 289 207 351 236 198 278 209 207 275 213 169 265 283 185 338 293 232 214 341 251 303 224 265 205 291 255 184 193 272 275 321 193 280 167 260 334 187 280 298 330 196 211 105 204 171 246 280 276 271 239 251 229 228 266 233 254 235 184 292 232 189 309 260 235 280 277 181 221 275 274 273 258 241 261 262 227 240 277 245 201 254 238 236 277 271 178 327 225 148 265 246 192 258 302 249 207 147 281 212 248 323 253 107 238 333 206 223 277 191 232 133 249 251 268 280 195 225 257 276 197 218 207 283 218 210 231 255 295 381 317 229 258 211 189 348 274 264 227 188 253 137 233 229 245 256 368 277 209 240 226 292 154 253 255 291 293 382 287 205 245 217 247 227 267 213 307 218 307 176 306 269 314 306 299 257 243 190 141 329 209 273 327 264 148 216 274 273 220 245 277 225 213 330 306 217 259 283 255 136 276 286 200 192 258 219 199 246 245 235 270 216 218 148 235 239 277 201 227 255 200 308 245 303 277 174 263 259 210 257 223 312 175 290 229 214 191 273 268 222 221 212 202 238 308 200 213 239 247 220 252 231 256 196 172 238 283 260 267 256 310 248 233 235 307 280 277 161 245 224 202 359 315 151 260 226 234 266 223 237 175 201 265 291 256 272 245 329 217 233 271 210 223 246 181 245 238 294 252 213 279 225 150 208 250 278 257 211 198 176 293 169 313 281 211 253 386 257 209 258 204 201 278 244 333 329 278 222 272 325 258 318 200 251 276 255 224 181 228 249 260 282 293 195 290 294 273 283 245 268 260 184 308 225 207 303 305 179 233 303 182 262 274 169 221 239 232 244 227 203 292 296 297 280 266 213 194 178 218 212 247 281 263 260 251 197 358 368 182 116 190 322 238 225 250 294 270 192 230 299 238 315 233 234 271 219 228 238 280 252 277 224 232 295 219 223 207 172 390 278 259 275 288 245 257 250 251 262 238 180 167 208 289 233 300 320 350 200 184 265 219 202 303 195 191 152 175 197 213 264 215 173 242 326 274 239 312 202 206 319 260 296 236 255 249 287 331 401 197 226 220 166 291 279 287 239 160 268 230 222 298 161 248 192 194 207 221 134 192 318 334 260 274 244 279 202 148 152 208 243 300 243 236 272 112 240 274 184 282 162 280 194 229 231 270 222 239 259 178 181 226 187 289 247 213 290 277 373 237 210 154 174 249 227 248 218 169 273 253 133 241 341 315 208 231 305 229 219 310 193 161 299 182 182 220 229 246 223 182 265 317 278 255 260 248 180 197 222 267 304 221 298 279 271 155 237 209 252 278 256 256 257 255 295 208 254 298 191 279 172 206 180 216 177 216 253 245 243 230 247 277 343 218 179 268 94 220 269 214 176 222 227 347 226 278 200 262 186 249 224 227 189 227 177 221 284 292 233 246 248 325 217 186 229 284 313 278 278 317 221 190 227 354 219 231 255 260 224 261 303 135 198 239 297 283 302 275 310 246 285 278 234 141 212 232 261 271 271 293 239 330 232 183 268 266 207 172 295 228 253 216 352 189 292 168 312 227 272 337 215 198 237 262 283 167 227 142 274 178 207 197 245 196 227 204 170 251 300 182 295 221 242 150 212 225 216 190 187 152 190 263 258 171 198 242 205 240 199 294 238 329 267 346 316 268 268 248 205 263 258 169 223 174 217 178 155 240 321 288 201 242 327 292 226 184 222 252 304 213 192 327 220 298 171 157 256 228 134 245 276 225 271 262 264 286 225 243 241 198 256 254 274 305 223 196 287 247 254 191 188 217 215 193 246 208 160 160 217 322 250 314 257 359 246 248 242 218 209 332 255 244 168 236 310 231 259 252 220 227 190 226 191 228 307 196 240 235 314 244 166 207 166 280 332 303 216 255 281 247 184 195 244 207 254 191 200 271 274 178 245 252 203 203 350 210 177 246 268 306 272 140 247 255 204 189 281 259 340 242 302 354 196 284 209 262 153 231 345 210 211 235 238 303 287 196 265 243 150 225 215 224 283 276 207 172 204 201 194 195 236 198 240 221 220 327 171 222 251 277 247 217 236 275 184 230 210 292 291 277 145 260 314 225 221 263 224 279 217 228 306 222 268 183 274 183 243 93 262 244 247 234 378 255 280 268 219 260 290 278 282 263 231 227 225 175 338 237 255 211 242 316 260 271 229 248 228 273 293 221 254 249 349 245 299 204 253 232 193 164 274 263 262 321 265 245 292 285 166 252 189 189 311 277 212 256 273 346 199 293 216 204 319 227 288 311 263 136 183 169 211 283 223 135 348 253 199 157 323 230 228 109 236 225 272 298 193 232 247 312 156 288 233 175 213 320 219 205 290 301 231 188 317 306 171 188 269 290 352 210 294 225 207 234 247 285 330 311 212 275 244 214 225 245 184 237 295 186 286 149 222 106 321 270 232 230 221 247 304 292 258 303 273 191 285 212 261 294 172 258 274 200 241 252 278 279 220 279 292 228 334 191 247 208 218 243 227 181 253 213 205 282 164 327 205 256 171 258 282 211 139 182 219 233 296 272 160 221 276 164 237 212 201 240 186 276 158 295 209 98 228 218 133 276 206 214 184 301 262 272 274 228 182 259 229 250 291 282 160 251 205 225 204 294 331 228 246 246 230 245 266 212 182 271 173 135 278 232 200 210 299 209 306 178 314 204 178 201 287 180 231 324 254 246 273 228 284 295 192 228 305 182 313 293 255 219 157 220 300 198 337 348 243 241 248 223 243 238 229 368 181 181 244 195 212 287 338 296 147 248 258 321 233 259 250 165 272 196 233 225 272 173 283 234 299 255 194 141 289 193 253 200 192 220 310 254 144 295 297 170 304 267 292 195 182 188 286 360 309 231 305 244 251 175 409 279 183 234 276 205 209 290 200 226 164 178 207 264 236 242 298 242 340 330 305 230 242 242 259 264 272 378 273 278 185 253 175 227 166 241 174 200 270 239 268 273 265 290 311 266 284 170 242 221 234 285 302 209 330 222 238 352 268 167 284 351 225 244 191 257 301 242 293 223 266 204 206 169 187 278 219 260 198 225 236 179 236 282 287 255 334 297 233 341 243 275 278 292 206 337 350 217 254 277 220 160 312 219 159 194 244 276 313 237 290 229 215 263 237 225 214 180 310 174 250 190 221 182 300 236 240 256 242 323 200 215 142 191 257 258 289 328 318 286 230 283 235 256 250 194 232 220 203 241 305 237 264 266 216 299 292 230 270 268 283 325 276 237 323 202 238 265 241 342 147 254 238 237 276 284 350 314 240 249 207 194 333 251 263 175 244 204 285 166 175 243 230 200 261 245 163 375 294 190 255 298 219 228 303 322 210 235 236 221 262 195 231 202 208 280 277 276 243 153 308 203 272 185 306 313 187 322 204 275 252 177 278 220 237 277 283 186 246 307 216 269 260 255 267 312 226 178 194 297 262 217 237 174 257 286 283 321 276 209 220 234 175 260 196 256 227 169 194 287 286 250 214 279 193 198 277 276 136 260 231 214 147 187 259 221 198 266 140 262 253 224 244 240 159 158 238 282 304 268 253 247 189 262 285 225 297 210 228 255 245 158 258 237 239 193 277 345 249 287 199 194 347 259 254 187 229 316 247 173 265 292 261 214 209 234 160 225 307 230 192 303 257 162 262 188 173 265 154 208 263 237 166 186 266 185 324 210 209 260 295 264 174 197 242 333 230 213 179 181 210 224 240 200 239 260 126 195 232 250 213 232 215 165 245 234 292 180 281 270 193 291 240 246 291 295 244 177 219 248 258 275 196 187 204 219 269 281 317 236 271 255 171 244 196 293 283 247 271 185 202 291 276 177 210 262 235 239 224 314 236 298 209 211 256 252 307 328 251 280 230 258 260 259 211 279 173 266 180 356 188 203 273 223 274 245 262 221 217 250 192 216 278 260 178 180 249 300 207 265 188 283 241 261 264 285 157 176 338 221 130 233 215 144 379 239 288 242 289 257 164 182 251 244 305 235 273 234 265 262 263 157 225 219 239 244 263 150 153 306 285 292 156 182 222 279 192 186 180 255 184 171 303 204 259 264 246 390 240 215 224 201 244 330 230 217 337 194 362 257 338 245 285 288 245 270 276 214 227 258 293 211 206 264 293 187 208 268 216 281 291 193 214 189 277 211 240 208 231 167 356 200 201 292 269 229 231 197 178 193 277 194 274 196 263 295 236 243 219 273 291 264 205 235 289 244 304 181 216 305 330 241 266 163 202 189 259 246 268 313 233 269 223 310 237 225 268 146 290 251 201 229 239 252 220 254 261 304 284 225 200 243 197 280 205 238 130 228 171 232 225 210 297 183 272 313 255 250 213 282 196 249 226 288 246 209 221 210 210 265 178 167 320 219 190 205 205 192 213 250 192 202 282 239 243 148 179 224 240 316 332 254 235 244 281 334 285 274 273 254 236 203 252 248 195 312 255 217 221 308 275 285 299 199 292 212 220 201 234 324 259 345 159 171 233 148 281 301 263 222 334 335 264 155 259 263 215 239 157 325 219 233 264 290 187 260 262 294 225 288 281 316 228 257 356 202 244 290 168 283 261 250 218 153 261 254 219 241 196 183 256 251 224 222 269 230 203 271 327 213 215 155 248 286 255 258 220 292 251 251 204 295 262 345 191 337 323 298 239 226 238 242 180 174 302 161 222 130 307 203 298 232 305 318 215 144 210 138 220 255 279 359 211 246 334 272 213 233 245 183 298 276 340 197 276 258 212 330 208 351 244 243 246 206 263 251 265 255 202 371 306 226 254 282 205 236 290 281 302 218 295 270 247 312 254 282 242 158 260 204 265 257 287 199 215 201 208 249 209 262 221 242 267 240 272 232 209 282 156 216 209 304 201 251 280 270 202 225 204 273 249 284 339 185 263 296 262 318 312 196 274 206 263 149 241 214 236 224 253 235 208 136 179 262 262 214 317 281 215 241 287 260 165 144 269 264 197 232 236 308 239 301 266 344 217 184 255 251 282 222 237 159 190 197 313 247 388 128 218 234 192 250 329 257 199 243 226 327 232 221 241 418 316 296 221 216 231 227 248 241 277 247 231 301 220 274 281 241 328 186 188 195 237 195 242 221 252 273 267 241 126 205 190 260 222 225 214 213 318 269 196 229 234 248 216 235 264 225 311 315 328 125 271 182 155 165 273 289 265 246 212 213 228 283 286 277 224 151 169 346 184 176 239 235 158 212 269 230 202 233 208 149 194 298 265 282 258 231 236 195 239 299 199 199 268 332 324 230 206 217 143 241 296 327 212 228 235 332 352 279 294 273 320 258 247 254 202 214 259 161 304 257 297 170 212 240 274 247 284 221 171 241 275 292 201 203 208 229 283 274 176 228 280 240 264 279 309 320 255 169 166 273 226 182 234 273 293 194 261 245 293 277 198 188 346 291 243 207 168 217 261 281 158 256 192 234 338 231 200 198 154 227 278 275 147 214 274 232 241 261 308 189 290 240 239 196 211 222 303 191 260 196 271 252 231 228 245 342 281 255 298 230 297 233 215 268 213 144 215 301 260 278 206 231 184 292 292 341 280 269 336 225 253 271 215 220 276 268 350 236 252 236 263 268 247 297 241 176 319 237 242 248 286 185 245 315 161 349 318 302 256 225 259 229 206 137 192 255 326 238 332 281 190 168 234 218 186 317 243 332 249 312 215 253 280 208 326 299 227 280 231 205 206 178 332 212 212 311 163 230 172 301 281 267 160 305 197 296 255 292 261 291 185 223 272 202 220 270 182 268 348 257 270 343 306 352 254 225 243 178 177 201 225 324 211 291 242 200 249 345 172 218 227 288 343 230 270 287 265 180 246 218 266 177 237 257 284 281 202 258 159 294 234 208 232 371 172 221 238 150 212 297 191 201 140 202 414 264 234 181 238 255 236 214 213 213 314 274 191 242 279 310 211 247 237 129 336 135 220 192 318 271 241 223 226 207 283 173 257 231 308 272 249 211 263 326 234 272 258 288 315 277 310 283 226 307 219 295 223 269 249 345 183 215 280 306 279 223 200 321 269 274 193 248 171 313 285 297 171 191 229 180 252 201 203 195 215 288 215 305 320 278 264 318 264 263 287 247 199 263 361 202 193 236 194 135 297 217 239 199 174 228 193 209 214 199 174 256 289 298 234 273 224 263 302 184 257 238 209 284 223 269 199 152 181 356 208 252 267 278 176 225 204 219 241 186 298 263 296 278 328 198 276 237 290 324 201 199 204 195 275 316 216 185 137 279 231 218 241 268 241 214 172 310 219 178 317 305 268 250 216 347 248 263 242 289 267 306 206 228 227 225 233 306 228 196 282 302 270 243 166 246 178 142 309 197 256 284 188 268 207 222 330 188 270 275 195 265 202 223 247 248 201 202 190 257 376 192 216 193 272 294 278 223 237 277 189 241 220 269 128 216 318 253 232 283 236 249 289 234 190 228 272 246 305 389 191 257 202 264 342 201 239 265 195 254 209 189 235 274 189 320 247 205 232 248 198 220 200 215 247 207 303 237 157 249 269 283 256 226 259 217 156 265 261 284 305 227 151 234 258 137 160 223 237 177 284 311 158 313 334 325 308 190 204 225 247 310 212 239 287 280 268 227 200 247 355 209 108 212 226 200 164 191 209 243 201 208 275 272 172 202 238 273 241 196 168 220 267 205 262 216 239 222 227 257 206 259 302 232 248 224 214 185 292 285 262 209 209 268 313 121 313 184 206 232 263 274 235 222 156 303 276 367 181 132 277 253 167 235 277 155 263 187 251 357 213 210 225 290 239 230 271 228 248 260 213 167 240 285 273 216 270 294 331 283 191 320 277 219 234 204 222 336 247 184 283 246 273 139 251 258 195 233 146 248 211 334 292 214 237 207 211 299 212 167 232 292 258 239 245 201 305 266 264 259 244 249 240 160 215 167 285 360 298 242 279 216 216 282 262 237 252 257 237 268 272 341 230 273 277 294 229 252 284 222 116 192 220 296 274 206 249 274 198 194 246 241 254 344 343 166 204 348 222 237 304 265 262 308 195 271 247 201 220 141 276 289 237 170 294 221 230 234 291 191 143 266 274 169 309 294 185 209 189 226 370 179 276 307 266 265 355 279 222 255 169 220 316 288 246 278 261 304 196 300 257 229 233 324 214 252 189 259 252 234 248 372 329 301 259 294 198 220 280 198 215 282 229 223 240 205 232 259 321 184 225 235 256 278 248 188 258 201 290 204 257 254 264 165 209 214 233 191 248 265 278 293 271 316 179 313 257 199 261 194 258 222 266 341 150 335 266 216 258 342 288 238 199 282 277 199 235 320 257 198 236 214 212 254 279 237 230 195 307 253 212 229 202 214 270 265 211 218 301 258 299 309 287 262 247 262 205 266 295 279 328 230 271 223 175 318 294 259 323 293 266 277 189 206 123 319 251 310 238 273 226 245 277 134 299 150 269 302 275 224 274 278 199 226 287 277 237 234 239 193 275 255 260 214 338 264 382 204 264 183 141 239 318 207 258 173 179 260 229 208 276 202 297 253 284 225 276 174 200 327 250 203 232 177 211 298 250 243 181 226 236 215 190 319 298 242 209 242 256 313 214 170 240 283 189 271 262 209 225 270 211 224 280 193 209 252 318 243 242 217 181 271 257 211 252 285 252 343 247 250 134 209 208 267 325 199 320 268 357 293 312 251 237 161 186 188 237 302 282 244 241 258 315 295 213 267 261 267 297 207 196 244 153 217 220 252 276 224 191 283 209 157 199 247 242 185 264 337 213 176 171 192 283 269 228 279 238 204 292 305 276 195 236 269 141 169 221 197 277 250 181 268 253 291 300 308 260 254 213 208 335 229 283 287 278 169 263 282 263 309 299 262 317 265 267 303 301 337 251 254 174 279 167 244 289 206 216 290 236 202 206 290 218 286 285 245 174 284 215 200 187 319 211 245 280 289 247 268 259 217 232 318 271 224 256 224 255 235 206 259 303 258 279 239 255 307 218 223 137 242 251 384 231 154 302 292 292 265 203 186 282 201 211 290 265 222 233 243 216 261 195 176 313 192 252 256 167 259 247 236 297 242 235 228 282 347 266 259 315 274 313 273 276 210 170 273 259 132 206 344 198 228 230 194 162 162 263 231 254 265 158 229 273 270 332 251 241 376 235 231 237 267 229 259 243 256 307 287 175 290 187 286 218 344 288 204 206 269 268 214 273 261 338 235 261 219 182 309 231 238 258 242 209 168 202 237 254 187 334 310 238 293 208 212 305 208 321 228 181 245 258 250 280 286 316 291 237 209 240 234 191 229 308 259 195 210 172 248 335 302 318 249 237 263 219 303 204 273 211 220 224 321 337 283 219 228 189 302 332 217 247 204 230 286 196 336 263 219 348 281 267 183 266 193 221 270 250 140 259 158 217 229 210 253 170 338 220 270 216 342 239 208 223 251 248 184 255 330 251 257 266 209 221 236 300 286 289 162 377 168 295 181 153 240 221 259 234 136 275 317 216 295 315 259 297 232 288 252 196 232 268 209 183 210 288 170 164 256 220 243 235 254 230 282 285 261 246 219 246 199 237 218 298 262 236 290 354 250 330 288 216 196 217 228 218 193 217 260 228 161 312 207 243 221 200 269 290 188 256 299 218 164 235 211 254 323 339 190 243 197 279 281 229 212 254 219 204 261 216 228 274 263 163 336 269 292 217 271 186 270 187 194 273 267 244 302 214 293 180 235 302 200 173 299 147 191 335 253 229 124 185 241 188 269 193 311 288 201 300 298 312 315 263 245 230 275 248 221 184 209 257 242 201 256 198 238 302 218 236 268 183 280 264 249 221 312 293 195 330 255 185 268 247 248 215 288 259 294 268 258 323 182 178 245 224 261 205 291 310 318 329 296 173 178 234 265 233 251 258 292 188 277 289 241 192 199 206 176 234 398 291 354 200 271 304 249 358 263 268 235 285 251 185 211 230 235 284 246 217 266 240 253 191 248 250 195 196 263 160 257 208 162 271 294 270 183 311 262 243 310 243 361 301 256 197 219 134 303 275 196 196 229 286 202 253 237 192 248 189 281 265 180 268 282 272 140 310 257 371 239 266 272 136 295 285 259 218 195 268 285 212 264 304 271 195 202 267 184 273 286 279 307 239 217 260 237 291 234 171 277 244 212 194 247 239 255 218 268 263 236 252 251 200 222 170 274 266 186 228 208 280 174 196 257 219 254 285 150 200 361 305 203 198 294 254 235 266 223 246 216 298 263 169 255 187 209 183 234 200 238 215 239 266 260 320 248 304 341 342 314 287 228 217 260 288 199 226 273 299 242 286 217 203 252 260 226 217 232 237 173 235 203 311 196 296 326 164 274 157 277 237 204 207 291 224 250 293 233 226 286 285 332 246 311 214 245 232 212 258 278 246 195 201 236 303 238 134 279 188 209 240 286 295 240 263 265 358 186 193 315 265 179 223 250 141 280 262 224 226 194 226 245 151 219 200 291 252 255 264 143 193 225 226 158 273 183 154 280 189 220 250 168 183 215 198 236 244 203 206 265 147 292 267 332 201 299 257 230 279 245 209 219 343 313 293 270 297 221 367 231 217 282 147 251 255 309 216 251 285 189 262 182 176 215 287 233 296 220 283 309 178 258 155 223 243 198 236 229 239 355 267 162 267 192 233 251 214 245 244 264 246 197 245 265 275 250 199 183 340 273 203 332 251 304 261 190 204 208 227 258 168 126 208 227 216 229 233 250 227 214 146 186 354 219 154 242 265 202 267 279 254 254 346 352 152 219 250 203 296 166 270 244 265 251 208 235 223 252 256 269 243 239 236 138 304 109 247 288 237 212 170 202 297 270 257 195 290 240 166 237 242 278 302 223 323 216 248 205 255 288 276 180 215 235 239 272 237 237 236 209 256 267 225 185 245 260 287 259 321 274 221 196 286 268 269 307 267 271 258 218 278 205 283 216 291 226 167 185 250 186 231 191 220 267 319 191 267 220 190 208 291 249 249 212 266 269 262 201 176 292 177 247 246 245 205 267 212 245 275 314 211 376 341 310 138 263 264 232 227 199 377 321 246 229 305 261 253 223 283 225 136 375 233 285 242 249 197 231 309 205 290 225 274 313 283 246 245 223 197 301 199 224 159 228 256 307 184 268 275 228 246 315 328 308 251 299 369 242 94 308 318 207 152 254 221 330 231 156 179 309 210 266 274 201 204 237 235 175 181 200 231 172 238 212 231 240 128 304 195 220 211 293 369 322 184 200 251 230 215 285 252 354 302 269 227 301 298 249 373 198 198 322 347 204 230 261 272 226 337 223 279 329 196 229 319 197 237 237 223 238 198 211 214 196 262 265 223 223 208 275 289 198 264 239 209 311 315 262 273 250 289 159 239 320 192 174 238 277 312 283 122 306 177 228 236 239 236 225 320 233 241 278 252 198 219 259 272 234 185 313 253 272 268 371 220 354 295 220 228 240 167 347 274 217 290 128 281 279 352 243 164 275 223 209 219 181 236 202 284 264 203 199 194 246 216 249 268 253 276 229 229 226 252 238 256 286 255 312 197 174 279 215 201 243 232 207 250 259 223 205 244 284 232 183 134 255 302 210 219 291 207 201 278 220 245 268 264 182 227 185 250 252 272 138 124 154 210 195 261 188 276 231 228 234 256 316 307 289 209 293 281 281 281 267 155 274 211 214 218 178 199 269 329 278 285 326 139 182 268 270 224 235 247 301 272 247 284 290 180 222 236 367 138 262 271 213 295 235 271 290 286 190 235 216 167 308 254 270 176 207 271 242 196 165 272 173 232 230 263 214 263 198 210 280 210 237 287 304 278 277 289 194 164 199 217 132 252 157 245 339 243 196 227 217 197 198 188 262 244 273 313 186 281 257 208 202 248 157 265 282 281 279 190 226 196 251 263 236 213 194 309 198 324 252 211 205 176 219 274 234 213 274 250 173 265 237 282 261 230 260 219 345 161 326 249 154 197 344 269 231 275 304 296 251 226 248 280 217 343 195 243 286 222 222 225 316 298 214 147 290 288 214 311 238 186 272 213 328 347 251 234 219 316 267 204 217 241 225 206 210 233 296 212 293 330 250 177 244 208 246 213 190 259 289 221 287 314 191 174 215 231 262 248 214 202 271 316 289 239 231 185 184 243 174 153 211 328 233 267 216 348 194 169 248 267 308 189 337 261 285 333 284 147 303 195 216 244 285 236 208 191 202 325 290 256 256 267 230 263 271 215 262 251 241 304 308 254 228 115 265 178 201 340 325 176 122 229 257 225 244 254 276 295 396 217 232 275 259 272 234 216 212 121 237 232 288 214 353 282 212 253 225 242 226 170 184 219 223 215 213 281 273 216 233 273 331 276 221 226 348 269 208 235 191 304 200 161 243 201 276 204 223 275 207 290 306 314 246 187 184 268 261 283 264 290 243 273 163 174 308 232 227 221 299 273 304 287 246 308 281 305 224 171 165 365 311 317 185 252 222 262 250 237 277 188 267 244 224 271 167 228 236 208 204 293 227 230 296 233 164 183 215 235 266 367 240 311 284 156 219 236 227 226 270 386 304 147 136 369 227 242 195 242 243 187 213 195 318 307 172 218 263 285 261 165 257 204 246 279 290 329 206 241 285 215 269 252 294 240 202 260 229 273 276 282 248 276 226 201 273 146 245 199 194 235 296 278 231 320 221 247 210 200 336 134 357 197 230 280 276 287 172 252 245 159 293 189 227 239 240 218 288 306 221 257 228 243 248 277 180 264 208 253 323 216 294 240 290 281 226 198 257 231 200 147 197 216 220 226 221 254 308 364 319 293 224 196 221 307 241 293 286 184 302 249 229 176 149 304 248 228 332 289 200 239 292 227 177 225 233 221 293 154 232 262 206 213 197 292 219 228 261 282 246 246 210 267 238 260 322 199 219 265 306 249 202 249 202 326 305 221 195 217 197 236 230 207 182 329 259 170 200 291 145 236 276 202 241 188 220 222 235 184 217 303 230 318 287 292 278 282 272 284 180 235 187 161 260 172 266 263 259 207 244 207 283 149 166 226 264 286 223 221 226 237 253 330 201 227 245 261 230 260 322 241 243 165 165 106 194 202 201 249 166 207 226 247 195 226 199 200 213 261 209 155 260 250 158 122 215 273 264 238 321 245 181 257 309 250 140 229 207 251 198 322 221 321 221 268 297 276 256 226 247 292 272 195 379 199 226 323 176 221 238 238 255 240 223 274 296 240 186 189 359 176 285 211 277 158 188 224 314 220 264 245 314 264 268 225 207 200 246 278 196 382 300 336 260 358 346 307 185 272 189 223 208 229 220 258 226 276 292 266 234 164 226 301 370 180 350 182 200 222 227 255 158 272 116 283 301 309 212 259 237 274 265 269 271 270 303 199 282 316 224 264 322 225 326 205 313 231 238 237 300 304 150 148 221 209 339 218 312 313 230 214 226 241 329 224 248 251 238 276 228 206 243 229 263 310 204 199 140 271 238 261 234 379 271 205 246 184 182 331 211 194 316 296 248 191 256 308 277 253 319 149 227 258 241 150 214 233 201 244 261 226 240 317 193 307 215 266 274 367 159 213 233 253 228 333 220 243 275 298 211 266 193 267 226 219 206 313 202 219 160 228 252 234 193 189 199 245 171 229 205 252 234 205 224 207 223 216 287 332 294 266 265 353 312 187 212 258 227 176 244 207 244 200 231 344 141 313 228 236 269 181 284 218 222 219 299 313 279 206 204 210 279 231 244 202 253 287 247 213 191 340 221 230 225 231 247 262 293 199 203 266 247 222 251 172 357 280 228 195 240 241 252 213 250 258 189 296 194 188 242 235 328 282 215 261 267 261 227 194 272 194 260 275 263 233 266 179 252 222 155 160 302 212 229 285 340 269 314 227 239 279 142 167 247 185 233 248 187 251 161 259 268 321 401 193 207 281 230 178 286 272 281 261 245 167 158 244 332 293 262 250 279 222 308 239 243 241 249 298 259 170 241 217 189 286 208 192 310 192 301 228 261 263 214 172 255 287 228 315 237 234 189 288 190 302 285 168 318 255 265 367 258 228 289 266 288 333 283 228 207 283 217 286 190 307 324 332 343 268 278 284 202 292 292 256 269 340 251 222 237 202 219 267 200 283 285 267 252 204 201 292 223 220 214 287 235 239 256 341 190 211 258 191 309 230 327 287 266 212 260 211 233 270 286 313 160 249 208 217 286 266 262 198 233 289 228 260 302 348 190 277 332 288 213 258 283 297 301 163 231 231 165 248 284 175 270 166 242 176 259 243 293 290 277 202 224 191 116 168 226 240 134 201 169 269 246 180 211 326 268 249 231 287 336 254 238 217 295 327 218 313 172 198 228 280 264 277 229 211 225 266 301 322 280 244 192 274 215 216 276 261 259 234 246 236 210 198 275 250 297 263 274 275 215 224 261 272 259 295 222 309 260 310 231 213 360 303 205 273 287 172 225 221 228 220 275 241 301 194 308 281 267 264 308 269 193 270 197 204 234 236 229 315 283 275 274 188 196 259 278 241 189 204 185 210 281 270 320 203 229 301 293 269 271 257 302 232 271 272 251 261 232 179 218 237 203 196 180 177 250 257 204 251 318 299 250 252 207 243 209 381 264 240 315 260 247 217 220 197 273 270 197 220 288 328 306 188 253 218 171 320 239 254 251 191 277 311 192 302 179 223 264 214 216 192 214 201 153 178 204 185 136 283 249 269 236 243 289 170 252 285 267 262 224 208 186 289 270 236 304 301 208 319 266 291 224 260 283 213 299 263 218 221 267 284 212 295 227 168 217 313 247 299 293 254 265 220 233 248 307 265 232 344 263 240 221 268 301 162 166 220 298 221 137 234 302 249 247 283 220 163 252 191 322 244 281</t>
-  </si>
-  <si>
-    <t>GAM(0.27816569728594487, -2.2136902012239627e-17, 1.2883211780709485)</t>
-  </si>
-  <si>
-    <t>0 2 0 1 1 1 1 1 1 2 1 1 1 1 0 1 1 2 1 2 2 2 0 1 1 1 2 1 0 2 3 2 2 1 0 1 0 2 2 2 2 3 1 1 1 2 1 1 2 1 2 2 2 2 1 2 1 2 2 2 2 0 0 1 1 3 2 2 2 0 1 0 1 0 1 0 1 2 1 4 1 1 1 2 1 1 1 0 2 3 3 2 2 1 2 0 0 1 3 3 2 2 3 1 2 1 1 3 1 2 1 2 1 3 2 0 1 0 1 1 0 1 2 0 2 0 1 1 2 2 2 1 1 3 0 2 4 1 1 0 1 1 2 1 2 3 0 1 1 2 0 2 3 1 1 1 0 0 1 1 1 2 2 2 3 3 3 0 1 1 1 2 1 1 2 2 1 2 2 0 0 1 0 0 2 0 2 0 1 2 2 2 1 2 1 1 0 0 0 1 2 2 0 1 3 1 1 1 2 1 2 1 2 1 2 0 0 1 2 3 1 0 1 0 1 1 2 1 1 0 0 0 2 1 4 1 1 1 2 1 1 1 0 3 1 0 2 3 3 1 0 1 1 0 2 0 1 1 4 2 1 1 2 2 2 1 0 1 0 0 3 0 2 0 2 2 2 2 0 2 2 2 1 3 1 1 3 1 3 1 1 2 0 1 2 4 0 1 1 1 1 2 1 2 1 0 1 1 1 0 2 1 1 2 2 1 1 0 3 2 1 2 1 1 0 0 4 0 3 2 1 2 3 1 0 0 3 0 1 1 1 1 1 1 1 2 0 2 2 2 0 1 2 2 1 2 2 1 2 2 2 1 1 2 2 1 2 3 0 2 0 0 2 3 2 1 1 4 0 0 1 1 1 0 0 0 2 3 1 0 0 1 1 1 2 1 2 1 2 1 2 3 1 1 2 1 1 1 1 1 1 0 0 1 1 1 0 2 1 0 3 1 1 1 2 0 3 1 1 0 2 1 2 2 0 1 2 0 2 3 1 1 3 2 1 1 1 3 1 0 0 0 3 0 0 1 2 1 1 1 3 2 2 0 1 0 0 0 1 1 1 0 2 1 2 1 1 0 3 0 2 1 1 1 3 0 0 2 1 2 0 1 2 3 1 0 0 2 2 1 3 0 1 1 4 3 2 1 0 1 0 1 3 3 1 0 0 2 1 1 3 1 1 2 1 0 2 1 2 2 1 1 0 1 2 1 1 3 3 2 1 1 2 2 2 0 1 2 1 1 3 0 1 1 1 1 1 2 2 2 1 2 1 2 0 1 1 2 1 3 4 2 2 2 0 1 0 3 0 2 1 3 1 0 1 0 1 0 1 2 2 0 1 3 0 2 1 0 1 2 0 1 1 1 0 1 2 3 2 2 0 1 2 0 1 0 1 0 2 2 2 0 2 2 2 1 3 1 2 1 1 2 2 1 1 1 1 2 1 1 2 2 1 4 2 1 1 1 1 0 0 0 1 3 3 1 1 0 1 0 1 3 2 3 2 2 2 1 1 0 2 1 2 1 1 1 2 0 1 0 2 1 2 3 1 2 1 0 2 1 1 3 2 2 0 1 1 2 2 1 2 2 1 2 1 2 1 1 0 0 2 2 1 2 2 1 0 2 0 2 1 0 1 2 0 2 2 1 2 1 0 0 3 0 2 0 1 1 1 1 1 0 3 2 1 1 1 0 2 1 2 3 1 4 2 0 1 2 2 2 0 2 2 2 1 1 1 2 1 0 1 1 1 0 3 1 0 1 2 3 0 3 1 1 1 0 1 2 1 2 0 1 3 1 3 2 1 2 2 1 2 3 0 1 2 3 0 1 3 2 0 1 2 1 2 1 1 1 1 1 3 0 1 0 1 1 2 0 0 2 0 2 2 1 1 2 1 2 1 1 2 1 2 2 2 1 1 1 2 2 1 0 0 3 3 1 2 2 0 2 0 1 0 1 3 0 3 0 1 2 2 0 1 3 2 2 1 2 3 3 3 2 1 1 2 0 3 3 0 2 0 2 0 2 1 1 3 1 2 5 1 2 0 2 0 0 3 3 2 2 0 3 1 3 1 1 1 3 3 1 2 0 2 3 1 4 1 3 2 1 1 3 0 1 0 1 1 1 1 1 1 2 1 1 1 3 3 1 2 3 1 2 0 0 3 2 1 2 2 1 0 1 3 2 1 1 0 3 2 1 1 2 2 0 2 2 1 1 1 3 1 3 3 2 4 2 0 1 2 4 1 3 2 0 2 1 3 0 2 0 2 1 1 1 1 2 0 1 1 1 2 2 1 0 2 2 2 1 2 2 1 2 1 2 1 2 2 0 1 3 1 4 1 2 0 2 2 1 2 0 1 2 0 1 2 0 0 0 1 0 0 0 1 2 2 5 2 1 0 2 2 1 1 0 1 0 1 1 3 1 2 1 2 2 0 1 0 0 2 2 2 2 3 3 1 2 2 1 0 1 0 1 2 0 0 1 0 1 0 2 1 2 0 0 2 1 2 1 2 1 0 1 1 0 1 2 1 2 1 0 1 2 1 2 1 1 0 1 2 1 1 3 5 0 1 1 2 2 3 1 2 1 3 0 1 3 2 1 1 2 1 0 0 2 0 1 1 2 1 1 0 1 1 1 0 2 2 2 1 1 3 1 1 2 1 1 0 0 0 1 1 2 1 1 3 1 1 0 1 3 2 1 3 1 2 3 1 2 1 1 1 2 2 3 2 2 1 3 0 3 1 1 1 1 1 1 0 0 2 1 1 2 2 2 0 1 2 3 0 2 2 2 2 0 2 1 0 1 3 3 1 3 2 0 3 2 1 1 4 3 1 2 1 2 2 2 2 2 3 2 2 1 2 0 3 0 1 2 1 1 2 1 2 0 3 3 0 1 0 0 1 1 1 1 1 3 2 0 1 1 4 2 1 1 1 2 1 0 1 2 0 2 0 1 0 1 0 2 2 3 1 1 1 1 1 1 1 2 2 1 1 0 1 2 1 0 3 1 2 1 1 0 1 2 2 0 1 3 0 0 1 0 1 1 1 2 1 1 2 2 1 1 2 1 0 0 0 1 3 1 0 2 0 4 1 0 2 2 2 1 1 3 2 1 1 0 1 1 2 0 2 1 1 1 1 2 2 1 4 0 1 2 0 3 1 1 0 2 2 2 2 1 1 2 3 0 3 2 1 0 1 0 2 1 1 0 2 1 2 3 2 3 1 2 2 2 1 0 2 2 2 1 0 0 2 2 3 1 1 2 1 0 2 0 1 0 2 3 3 3 0 2 1 0 2 4 1 1 1 0 2 1 2 1 2 0 0 0 2 1 0 2 1 2 1 3 4 2 3 1 2 1 2 2 0 2 3 1 0 3 2 0 1 0 1 2 1 2 0 3 1 2 0 1 3 3 1 1 2 2 0 2 4 1 1 1 1 1 0 1 1 1 1 3 1 0 1 1 0 5 0 1 1 2 2 2 0 1 2 1 2 2 2 1 1 2 1 1 2 3 3 0 2 1 1 2 1 1 2 3 2 2 2 2 0 3 3 0 2 2 1 1 2 1 1 0 1 2 3 1 2 1 1 1 1 1 1 1 1 2 3 0 2 4 1 3 1 3 1 3 2 3 1 2 1 3 2 2 5 1 2 2 2 1 1 0 2 0 2 1 2 3 0 1 2 1 2 0 1 0 1 2 1 0 0 2 1 0 0 0 1 0 0 1 0 3 0 0 0 1 2 0 2 2 0 3 0 1 2 3 2 3 0 1 1 1 1 2 1 1 1 2 0 1 1 0 1 5 0 0 0 1 0 1 0 1 2 3 1 0 1 2 0 1 1 0 1 3 4 2 2 0 0 0 0 3 0 1 2 1 1 0 3 3 4 1 2 1 1 2 1 2 1 2 1 3 1 2 2 1 3 1 1 3 3 3 1 1 2 2 2 1 1 1 0 1 3 2 2 0 0 2 2 1 0 5 4 1 0 3 0 1 3 2 1 0 1 1 2 2 2 3 3 1 2 1 1 1 1 3 3 2 1 1 2 2 2 0 2 1 0 0 1 1 3 1 2 0 1 0 2 2 1 2 3 1 1 2 2 0 2 2 0 1 1 1 2 0 0 0 2 2 1 3 4 2 1 1 3 1 3 2 0 1 1 0 2 0 2 2 0 0 1 3 1 2 1 4 3 2 1 0 1 1 1 1 2 2 0 1 1 1 1 1 1 1 1 1 0 1 2 1 1 1 3 1 1 0 3 2 2 1 2 2 0 2 4 2 3 1 1 0 0 0 2 2 1 1 2 3 0 0 2 1 0 1 1 3 2 0 0 1 1 0 1 3 1 3 2 1 1 1 0 1 2 1 2 1 2 1 1 1 2 4 1 1 1 2 4 1 2 2 1 1 1 0 0 3 3 1 1 0 2 0 0 0 1 1 0 1 0 0 1 3 1 3 1 1 2 3 1 0 2 2 1 1 2 3 3 2 0 1 1 1 1 1 1 2 2 0 0 1 4 1 3 1 1 2 1 1 4 2 1 0 0 3 1 1 1 1 1 1 0 1 1 2 4 1 3 2 1 1 1 1 1 1 0 1 3 2 0 3 1 1 2 2 0 0 2 3 2 2 0 0 3 1 1 2 0 0 0 1 1 2 1 2 2 2 2 1 2 0 2 1 0 0 2 2 2 1 2 1 2 0 0 0 0 1 1 2 2 1 0 0 1 1 2 2 1 1 1 0 1 1 3 1 1 1 3 1 2 1 1 0 1 2 1 2 2 2 1 1 2 0 1 1 0 0 2 4 1 0 2 2 0 2 1 1 2 3 1 2 1 1 3 1 3 0 2 3 0 1 2 1 1 0 0 0 2 0 2 1 0 1 4 1 0 0 2 1 0 0 3 0 3 1 2 1 1 0 2 3 2 0 1 1 2 3 1 4 3 2 1 4 1 2 0 4 0 3 1 2 1 2 2 1 2 1 3 1 2 2 2 1 2 1 0 2 1 2 3 1 1 0 1 0 3 1 0 1 1 1 0 0 2 3 1 0 2 2 0 0 1 1 2 2 0 3 3 1 2 2 0 2 3 1 2 2 2 0 2 2 0 1 0 2 3 1 1 1 1 2 1 1 2 0 1 0 1 1 1 2 0 1 0 2 1 0 0 1 0 2 1 2 2 2 4 1 1 0 0 2 2 0 0 1 1 1 1 1 0 1 1 0 1 2 3 2 1 1 0 0 2 1 2 2 0 2 4 1 2 0 2 3 1 3 1 1 2 2 1 0 0 1 0 1 2 1 3 3 3 2 2 1 4 2 1 1 0 2 2 2 1 1 2 1 0 1 1 1 0 1 0 1 3 1 0 0 0 2 2 0 2 2 2 1 1 3 2 3 2 0 3 3 0 1 1 3 3 1 2 1 3 1 2 1 2 1 1 3 3 2 3 1 2 1 3 0 1 1 1 1 1 3 0 2 1 0 3 0 2 2 2 1 0 2 3 1 1 1 0 1 1 1 1 1 1 0 2 2 3 2 2 1 0 2 3 0 3 3 2 2 1 5 1 1 1 3 3 1 1 3 0 1 2 1 3 3 2 0 1 2 4 2 1 1 1 0 1 3 2 2 1 2 1 0 1 2 1 3 1 2 0 2 1 2 3 1 2 1 2 1 0 1 2 0 4 1 2 1 2 2 1 2 2 2 2 1 0 2 2 5 0 1 1 1 2 2 3 1 0 2 0 1 1 1 0 0 1 1 1 0 3 3 4 2 0 3 2 0 1 3 3 2 2 1 1 2 1 2 1 3 0 2 3 0 1 0 1 0 1 0 1 1 2 0 0 2 3 2 2 5 4 1 1 0 3 1 1 1 0 1 2 0 0 2 1 1 1 2 1 1 3 2 0 0 0 0 4 1 1 2 1 1 3 0 1 1 2 1 0 3 2 3 1 2 0 0 0 0 2 0 1 2 3 2 3 0 0 1 0 2 2 1 2 1 0 2 0 1 3 3 2 0 1 1 0 2 2 1 1 2 1 0 1 3 3 0 2 0 2 2 1 0 3 2 0 1 2 2 1 2 2 3 2 1 1 1 3 1 2 1 2 1 0 3 3 1 1 1 1 1 1 0 0 1 2 3 1 1 1 0 0 1 4 0 1 1 1 4 2 1 1 1 2 2 1 1 1 1 0 1 1 3 1 4 2 3 0 1 1 2 2 2 1 0 1 0 0 1 1 2 0 1 0 1 3 3 1 0 1 4 1 0 1 2 0 0 1 2 0 2 1 2 2 2 1 0 1 1 0 1 1 2 2 1 2 0 2 1 1 2 2 3 0 2 2 2 2 0 0 0 3 1 1 4 2 1 0 2 0 1 0 0 2 0 2 0 0 4 3 1 2 2 1 2 1 2 3 4 0 2 2 3 3 1 2 0 2 1 1 1 1 0 1 1 0 2 1 3 1 2 1 1 1 2 0 1 2 0 1 0 5 2 1 1 1 3 2 2 1 1 0 2 1 2 2 2 0 2 2 0 2 2 1 1 3 0 3 1 2 1 1 0 0 1 2 1 1 1 0 2 1 1 4 1 1 5 1 0 2 1 0 2 1 1 1 0 1 2 1 1 1 2 2 0 1 1 2 1 3 2 1 1 2 2 1 2 2 0 2 1 0 3 0 3 1 1 1 4 2 1 0 3 1 2 2 0 2 0 2 0 2 0 0 2 1 1 3 0 3 0 0 1 3 3 0 3 2 1 0 1 2 3 1 0 0 2 0 1 0 2 1 1 2 3 1 3 3 1 1 4 2 0 1 0 0 2 0 1 1 1 1 1 4 2 0 1 1 1 1 0 0 1 1 3 1 1 2 2 1 2 0 3 0 2 2 0 0 4 1 3 2 1 1 1 1 1 2 1 1 1 1 1 0 2 1 1 2 2 1 2 1 1 3 1 1 2 2 0 1 2 1 2 0 3 0 2 2 2 3 1 0 1 1 1 0 1 3 1 1 2 3 1 0 1 4 1 1 2 3 2 4 2 0 3 0 0 1 2 3 1 2 0 1 2 1 0 2 1 2 2 1 1 1 2 0 2 2 2 1 3 2 2 3 3 0 2 1 0 3 1 2 1 2 2 0 1 1 1 1 2 1 2 2 0 1 2 1 0 0 4 2 0 1 1 3 0 3 1 3 5 1 1 1 0 2 2 4 1 0 2 2 2 0 0 0 1 2 0 2 2 1 3 1 1 2 1 0 0 2 1 0 2 1 2 1 2 0 2 2 2 0 1 3 0 1 1 1 2 2 1 2 2 2 1 1 0 1 0 0 1 0 1 1 2 2 4 1 0 1 1 1 0 2 3 0 1 2 1 2 1 0 2 0 3 1 1 0 2 2 2 1 1 3 0 1 1 3 0 1 1 2 0 1 2 0 2 1 1 1 0 1 2 1 2 1 1 1 2 0 4 2 1 0 3 0 2 2 1 2 0 0 1 0 1 1 1 4 0 0 2 1 0 2 2 2 2 1 2 3 1 2 2 1 2 0 2 3 0 1 2 0 1 1 0 1 0 2 1 1 2 2 2 1 3 4 4 1 0 1 0 1 2 4 4 3 2 3 0 1 1 0 3 2 0 1 1 0 1 1 1 2 1 0 1 1 0 2 1 0 4 2 3 2 1 1 3 0 1 0 0 2 0 0 2 1 3 0 1 0 1 1 0 1 2 1 3 2 0 0 3 0 2 2 1 4 4 4 3 1 1 3 3 0 0 1 0 1 1 2 0 2 1 3 0 0 1 1 1 1 2 1 3 1 0 3 0 1 2 1 2 0 2 1 1 2 1 2 1 0 2 3 1 1 3 1 2 2 2 3 3 0 0 1 2 2 1 1 0 2 1 3 2 0 0 3 1 1 1 1 3 2 1 2 2 1 0 1 2 1 1 2 3 1 2 0 1 2 1 3 1 1 2 2 3 1 1 1 1 0 1 0 3 2 2 1 1 1 1 2 1 3 2 1 2 0 2 2 2 1 0 1 2 1 1 1 2 0 1 1 3 1 3 4 0 1 2 1 2 1 1 1 2 2 1 3 3 2 1 2 2 1 1 1 1 2 2 0 2 2 1 1 1 2 1 1 0 1 1 2 1 1 2 0 1 1 1 1 1 1 1 1 2 1 1 2 0 1 0 1 2 1 1 2 0 4 1 2 1 0 0 2 1 1 2 1 2 3 0 0 2 2 0 0 1 1 1 0 0 2 0 1 1 3 1 2 1 0 2 1 1 1 0 0 0 1 2 1 2 1 0 0 1 0 3 1 2 3 1 0 1 0 0 1 1 3 3 1 1 1 1 2 1 1 0 2 2 1 0 1 0 1 0 1 0 2 0 1 2 0 0 0 0 2 1 1 1 2 1 1 3 3 4 1 1 2 0 1 2 2 1 1 2 1 0 1 0 1 1 1 1 0 1 2 2 2 2 1 1 1 2 2 3 2 0 3 1 1 2 0 1 1 0 2 1 1 0 1 0 2 0 1 3 1 3 0 0 3 0 1 1 2 0 1 0 2 3 1 4 1 1 2 0 1 1 1 0 1 2 3 2 1 2 2 0 3 1 1 1 1 3 2 2 0 3 1 0 2 1 1 1 1 1 2 2 0 0 0 3 2 2 0 2 2 1 2 2 0 0 0 2 0 1 0 1 1 2 0 0 1 0 2 2 0 1 2 0 2 0 0 2 1 0 3 1 0 0 0 1 2 3 2 2 1 3 2 3 1 1 0 0 2 2 1 2 1 1 2 1 3 2 0 1 1 2 1 2 0 1 0 4 2 1 1 0 2 1 2 2 3 2 0 1 1 0 1 2 0 3 1 0 2 0 2 0 0 2 0 1 1 2 2 2 2 1 2 2 0 1 2 3 1 2 1 1 2 1 2 1 2 1 1 1 1 2 1 1 1 1 0 0 0 0 3 3 0 2 2 0 3 0 0 0 0 1 0 0 0 1 1 1 2 2 0 0 0 1 1 1 2 0 1 2 1 0 1 2 1 2 3 0 0 1 1 1 2 1 2 1 2 2 2 1 1 1 3 1 1 3 0 2 0 2 3 2 1 3 0 1 1 0 0 3 3 0 2 1 2 1 0 1 1 2 0 1 3 3 2 1 0 2 1 2 3 1 1 2 2 2 2 1 2 2 1 0 1 3 3 2 4 1 1 2 1 1 1 1 2 1 1 1 0 0 2 1 3 1 1 1 1 3 2 1 0 3 1 0 1 1 2 0 1 1 1 2 1 2 1 0 4 1 2 1 2 1 1 0 2 1 4 1 2 3 1 0 1 2 1 0 1 1 2 1 2 2 0 3 3 2 2 1 1 0 1 1 2 2 0 1 0 3 3 0 3 1 0 2 3 1 1 2 0 0 0 1 1 2 0 2 0 0 1 2 1 0 2 2 2 0 2 2 1 2 2 1 1 1 3 1 3 2 0 1 0 2 1 3 0 1 2 1 1 1 2 2 1 2 1 1 1 1 1 0 2 0 4 0 1 1 1 1 0 2 0 2 4 1 1 0 0 1 0 2 2 1 2 2 1 0 0 1 3 2 2 1 0 2 0 1 2 1 0 2 3 4 1 3 0 0 1 1 0 1 2 2 3 2 2 1 4 3 2 1 0 1 1 1 0 2 1 3 2 3 0 0 1 0 2 2 0 0 0 3 2 2 1 2 3 2 2 2 0 2 0 2 0 1 3 1 2 0 3 1 3 1 1 3 1 1 1 1 1 0 2 2 0 0 3 2 3 0 1 1 2 3 1 1 0 1 1 0 2 1 1 2 2 1 0 1 0 1 0 1 3 4 1 2 4 1 1 1 2 0 0 1 2 0 1 0 1 0 1 1 0 0 2 1 1 3 2 3 2 3 1 2 0 1 1 0 0 1 3 0 0 1 1 2 2 1 3 2 0 1 1 3 1 3 1 1 2 1 1 4 2 2 0 2 2 4 1 1 2 2 1 3 2 1 0 1 1 1 2 3 1 3 3 1 0 1 1 1 2 3 3 1 1 0 1 2 0 2 2 2 2 3 3 3 0 1 1 1 2 0 0 1 1 4 2 1 3 1 1 1 2 0 2 2 2 3 1 0 1 1 2 1 2 2 1 1 3 3 0 2 1 0 0 1 1 1 0 1 1 0 1 1 2 1 0 4 1 0 0 1 0 0 3 2 0 2 3 2 1 3 3 3 1 0 1 2 0 0 0 4 1 1 0 4 1 2 3 1 1 4 0 4 1 1 1 2 0 2 3 1 1 1 3 1 0 0 1 2 1 0 1 1 2 3 5 1 0 1 1 1 1 2 2 1 1 2 3 3 1 4 1 1 2 0 1 1 1 2 1 2 1 1 4 1 2 3 0 0 2 1 2 1 2 0 1 1 3 3 0 2 1 1 1 2 1 2 3 2 3 2 0 2 2 2 1 1 2 0 4 0 1 1 2 1 1 1 1 4 2 2 1 1 1 2 1 3 1 1 1 2 1 1 3 0 1 2 1 1 3 1 1 1 0 3 2 2 0 1 2 1 1 1 0 3 1 1 0 2 2 3 1 1 2 1 0 0 1 2 1 2 0 0 1 1 1 2 3 3 4 2 1 1 3 2 2 2 0 3 0 2 2 0 3 3 2 2 0 2 4 1 2 1 3 2 3 1 1 1 2 1 1 0 4 0 3 1 2 1 2 2 1 1 2 0 1 1 2 1 0 1 2 1 3 3 3 2 1 2 0 2 2 0 1 2 1 2 2 0 1 3 2 0 1 1 1 0 1 1 1 0 1 4 1 2 4 1 1 1 0 3 2 1 3 2 2 2 1 2 1 0 0 2 1 2 1 1 1 2 0 1 1 2 1 2 1 1 2 5 2 1 0 1 2 1 2 2 2 1 2 1 2 2 1 1 1 1 2 1 2 4 1 3 1 1 0 2 1 1 1 2 3 0 1 2 3 1 1 2 1 2 0 2 1 1 2 0 0 3 1 2 0 1 3 0 1 1 2 0 2 3 0 0 3 0 2 0 0 0 1 6 0 2 2 1 3 3 2 1 1 0 0 1 2 1 1 2 1 2 2 2 1 1 0 2 0 2 3 1 3 1 2 1 1 1 1 1 2 0 2 2 2 1 1 1 2 1 3 2 3 1 1 0 3 2 0 0 1 2 2 2 2 1 1 2 3 1 0 1 3 2 1 0 1 3 0 1 0 1 2 4 3 0 1 2 1 1 1 1 1 3 0 2 0 1 1 1 2 1 0 1 1 0 1 2 1 1 4 1 0 1 1 3 4 1 1 0 1 3 2 2 0 1 1 2 0 1 1 0 2 2 3 1 2 1 3 1 1 1 2 2 1 1 0 2 1 1 1 1 2 4 3 2 1 1 1 3 2 0 1 2 2 1 2 2 0 2 1 4 2 0 1 0 1 1 2 1 2 1 1 3 1 3 3 0 2 0 2 1 3 1 3 2 0 2 0 3 2 0 0 1 3 0 1 2 2 2 0 1 2 0 3 3 1 1 0 1 2 2 2 2 2 2 2 1 1 1 2 1 2 1 1 1 0 2 0 3 1 2 1 2 1 2 1 2 1 2 1 1 0 0 2 1 2 1 1 0 2 2 2 1 0 2 3 0 0 1 3 0 3 2 2 2 3 2 0 0 2 1 1 1 1 2 1 0 2 0 0 0 1 1 2 1 1 1 1 3 2 2 1 0 1 1 1 2 1 1 1 2 1 2 1 2 2 1 2 2 2 2 0 2 3 2 0 1 2 1 2 2 2 3 0 1 3 1 2 2 1 2 1 1 5 1 3 2 1 0 1 2 2 2 2 2 1 2 1 4 2 2 1 2 1 3 1 2 2 2 0 0 0 1 1 0 0 0 0 2 2 0 3 2 1 1 2 0 3 0 1 2 2 1 2 1 2 0 2 2 1 1 3 2 0 1 1 2 3 3 1 1 3 1 1 1 2 3 1 2 1 2 1 1 2 2 1 0 0 1 1 0 5 3 0 2 0 1 1 1 1 1 0 2 0 1 2 0 2 1 0 1 2 3 2 1 1 1 2 1 4 2 0 1 2 2 0 1 1 3 1 1 2 3 1 1 1 4 2 2 1 1 0 2 1 1 1 3 0 3 2 3 1 1 0 2 0 2 1 2 1 1 2 1 2 1 2 1 1 0 2 2 3 1 1 3 2 1 3 1 2 2 2 2 2 1 3 2 0 3 3 1 3 1 0 3 1 1 4 0 2 2 2 1 0 2 2 1 1 3 3 0 2 2 1 1 1 2 2 0 1 1 0 2 0 1 1 3 1 2 3 2 2 1 2 0 3 1 3 1 0 1 1 3 3 3 1 0 1 2 2 1 2 0 1 1 1 1 1 5 2 1 1 2 0 1 0 0 0 1 2 1 0 1 0 2 2 0 1 2 0 2 2 2 1 1 1 2 1 1 1 2 1 0 2 2 2 2 2 0 0 2 0 1 1 0 4 2 1 3 1 1 1 2 1 1 2 0 2 3 1 2 1 0 0 1 1 1 1 3 2 1 2 1 3 1 2 0 2 1 1 0 1 0 2 0 0 2 1 2 1 2 1 0 4 1 1 2 3 2 1 0 1 0 2 2 1 3 2 1 0 2 2 3 2 1 0 2 1 1 0 1 2 1 1 3 1 1 1 3 0 1 1 1 1 2 1 1 1 0 1 3 2 3 1 0 2 1 3 2 2 2 3 4 4 3 1 1 4 3 1 1 3 1 3 0 1 2 0 0 2 1 1 0 3 1 2 1 0 0 3 0 1 0 2 1 0 2 1 2 0 2 1 2 3 1 3 3 2 1 2 1 2 2 0 4 1 0 1 1 2 1 2 2 1 0 1 0 0 1 1 2 2 0 4 1 0 4 2 4 0 0 2 3 1 3 3 4 1 1 1 1 1 1 1 3 1 2 0 2 3 3 0 4 2 1 1 3 3 0 2 1 0 1 1 2 2 2 1 2 4 2 1 1 1 1 1 1 1 1 3 3 0 2 1 1 0 1 0 1 1 1 0 2 1 2 4 0 6 1 2 0 4 3 2 0 0 0 2 2 4 4 2 2 2 1 2 1 3 1 0 5 1 0 0 0 4 1 0 0 0 3 3 1 3 3 1 2 1 1 1 2 2 1 0 0 1 3 0 1 2 2 0 1 1 1 0 2 2 1 1 0 0 0 1 2 4 0 0 3 1 3 1 1 0 1 2 2 1 1 1 2 1 2 0 3 3 3 3 2 1 1 1 1 1 1 2 0 2 0 1 2 0 2 1 0 0 1 1 1 1 1 1 1 2 1 2 2 2 1 1 0 1 0 0 2 2 1 2 1 2 2 1 3 1 0 2 1 1 2 2 1 2 1 1 0 2 1 1 0 2 2 2 3 2 2 1 1 1 1 1 0 4 2 1 0 2 1 3 3 1 0 1 0 1 1 3 4 2 3 1 0 1 1 1 5 1 1 0 0 2 2 0 3 2 0 1 1 1 1 2 1 1 4 2 1 0 2 0 3 1 0 3 1 1 2 0 0 0 0 0 0 2 0 3 2 2 3 2 2 0 1 1 2 2 2 2 1 2 2 1 1 2 0 1 0 2 0 1 2 3 1 0 0 0 0 0 1 2 2 1 1 1 1 3 0 2 1 0 1 3 2 0 1 1 1 2 2 1 0 2 3 3 0 1 2 1 2 2 0 1 2 2 2 1 1 3 0 1 1 1 0 3 1 1 2 1 2 0 1 0 3 1 2 1 1 0 2 2 1 3 1 2 0 2 2 3 1 2 1 2 2 1 3 1 1 0 1 1 2 3 2 0 2 1 1 4 3 2 0 2 1 5 0 1 2 1 1 2 2 0 1 2 3 2 1 2 1 1 0 1 1 2 2 2 2 1 3 1 0 1 1 0 2 1 2 1 2 1 2 2 1 2 2 1 0 0 2 1 1 0 1 2 2 2 2 4 2 1 0 1 0 3 2 1 0 1 0 1 4 0 0 1 3 2 1 2 1 2 3 2 1 2 2 1 2 1 1 0 1 1 3 1 2 1 1 0 1 1 0 1 0 4 0 2 0 2 0 2 0 2 2 1 1 0 0 1 0 2 2 1 1 1 3 2 1 1 1 0 0 1 1 1 1 1 1 2 2 0 0 0 0 1 1 2 3 3 1 3 1 1 1 2 2 1 2 0 3 3 0 0 3 2 2 0 0 1 2 1 0 0 0 2 2 0 0 1 3 2 2 2 2 1 1 1 0 1 2 0 2 1 2 3 1 2 1 2 2 0 3 1 2 0 2 3 2 2 3 1 0 1 2 1 2 1 2 2 1 2 2 3 1 1 2 1 1 2 0 1 3 2 2 1 0 3 2 0 0 2 2 1 2 2 2 0 2 3 1 1 0 1 1 0 1 1 1 0 2 1 1 0 2 2 1 2 0 1 1 1 1 3 2 2 2 1 2 2 2 0 3 1 0 1 2 2 1 2 3 1 0 0 1 2 3 2 0 1 0 1 1 2 1 1 1 1 1 1 1 1 2 0 2 4 1 1 1 1 3 3 2 1 2 2 2 2 2 0 1 4 0 2 1 2 0 2 2 3 3 0 2 3 2 1 1 2 1 3 3 3 2 1 2 4 1 0 1 1 0 4 2 0 1 1 0 5 3 2 0 2 2 2 1 1 4 2 2 4 0 0 1 2 1 0 1 2 1 1 0 1 1 1 1 0 3 4 1 1 2 2 2 1 2 4 1 1 0 1 1 1 1 3 1 3 1 3 2 1 1 2 2 1 1 3 3 0 1 0 2 1 2 1 1 1 0 2 1 3 0 2 2 0 1 1 0 0 1 2 2 2 1 3 1 1 0 3 2 4 0 1 1 1 1 3 0 2 2 0 1 3 2 3 0 1 0 2 2 1 0 0 2 2 5 0 1 4 2 1 2 0 3 1 2 0 0 1 1 1 2 1 1 3 1 2 1 0 0 2 1 0 2 1 1 2 1 2 1 4 2 2 2 1 5 3 0 2 3 2 2 2 2 1 0 3 1 3 0 1 1 2 1 0 0 1 0 1 0 4 0 4 1 2 0 4 1 2 3 2 3 2 1 1 3 1 1 3 2 1 0 1 1 1 0 0 1 1 1 2 2 1 1 3 1 1 0 1 2 3 1 1 2 2 1 2 2 2 1 1 2 2 2 2 1 2 2 3 2 1 0 1 1 0 0 0 2 0 1 1 0 3 2 2 1 1 2 2 4 1 0 1 0 2 1 1 3 2 2 3 1 3 1 1 1 2 0 2 0 3 0 0 2 2 0 2 2 2 1 3 1 0 1 0 0 1 2 2 2 4 0 1 2 2 1 2 2 3 1 3 3 0 1 0 1 1 3 1 0 1 0 2 1 1 0 1 1 2 1 1 1 2 1 4 1 0 0 0 1 1 1 1 4 1 2 2 0 1 1 1 0 1 1 2 3 3 2 1 2 0 2 0 1 1 1 1 1 2 0 0 1 1 1 1 2 2 1 1 1 3 1 1 2 1 2 2 2 2 1 2 1 1 2 3 2 0 1 1 1 1 1 0 2 2 1 3 2 1 2 1 3 1 1 2 3 0 2 5 3 1 1 2 1 2 2 1 1 3 1 2 2 0 0 3 2 1 2 1 0 1 3 1 0 3 2 1 1 1 3 1 1 3 0 0 1 3 1 2 0 2 6 1 0 1 1 1 2 0 1 2 2 1 0 0 1 1 1 2 2 1 0 1 3 4 2 1 1 2 1 1 0 3 1 2 2 2 3 1 0 3 2 1 1 1 1 1 1 0 0 3 0 0 2 1 2 0 0 1 3 1 2 3 1 1 1 4 2 1 1 3 0 2 2 1 0 2 1 1 3 1 1 0 2 2 1 0 2 0 2 3 1 0 1 0 4 1 0 2 0 0 1 2 0 1 2 2 2 2 0 2 1 1 0 3 2 1 2 2 1 0 2 1 0 1 1 4 1 0 1 0 1 2 0 4 1 2 0 1 0 1 2 2 3 0 1 1 1 0 2 1 3 1 2 2 1 1 1 1 1 4 2 2 1 1 4 0 1 0 0 1 1 4 4 1 1 1 1 1 0 2 0 1 3 2 0 0 2 0 1 1 2 1 1 1 1 0 0 1 1 1 4 1 3 3 0 1 0 3 1 0 2 3 0 3 1 2 2 0 1 2 0 0 1 2 3 0 1 2 2 1 1 1 0 2 1 2 1 0 2 1 3 1 1 3 3 0 1 2 3 2 2 1 2 2 2 2 1 1 2 2 0 2 1 2 1 1 3 0 1 3 1 1 0 1 3 1 1 1 2 2 0 2 1 2 1 1 0 1 0 1 1 0 0 1 1 1 0 0 0 2 1 2 3 3 3 2 0 1 0 0 1 0 0 1 1 0 2 2 3 1 2 2 2 1 2 0 2 1 1 2 2 3 2 2 3 2 0 2 3 1 2 2 2 1 2 2 0 2 1 1 2 1 2 0 4 1 3 2 0 1 2 1 0 2 1 2 1 1 3 2 2 1 1 1 1 2 2 0 1 1 2 1 1 2 2 0 2 2 3 1 2 1 1 2 0 1 1 2 2 0 1 0 2 0 1 0 3 1 2 1 1 1 1 1 0 1 6 0 0 0 1 3 1 0 1 1 5 2 1 1 1 2 0 1 2 1 0 0 0 2 1 0 0 1 0 1 2 0 1 2 1 0 2 2 2 0 3 1 0 2 0 0 2 1 1 1 1 2 2 4 1 1 1 2 2 0 0 1 1 2 3 1 1 2 2 0 2 2 2 1 0 1 0 4 3 1 3 0 1 2 2 1 2 1 1 3 2 1 1 2 0 2 2 1 1 0 2 3 3 1 2 3 1 1 1 2 1 2 2 1 4 1 5 1 1 3 2 1 2 1 4 1 1 2 2 1 3 4 1 1 1 1 2 2 1 3 1 4 1 1 1 2 1 0 3 3 1 1 1 1 2 1 1 2 2 1 0 2 3 0 1 4 3 2 1 5 1 1 3 2 1 0 1 1 0 3 2 0 2 3 1 1 2 1 1 1 2 0 0 1 2 0 1 2 2 0 0 0 3 2 1 1 2 2 1 1 1 1 1 3 2 1 2 3 1 1 0 1 0 3 1 1 1 1 2 2 1 2 2 2 1 2 3 1 0 2 2 3 1 0 0 2 3 1 2 1 0 4 1 1 2 1 1 3 3 1 1 2 1 0 1 1 2 2 2 0 2 2 1 1 1 3 1 1 0 1 1 2 3 2 2 2 2 2 2 1 2 2 2 2 0 1 1 0 3 2 2 2 1 3 1 2 2 0 2 1 0 3 1 0 1 2 2 0 0 1 2 0 1 1 2 2 0 0 1 1 1 4 1 3 2 0 2 2 1 2 1 1 0 2 1 1 1 0 3 2 3 1 1 0 2 1 1 0 2 1 1 3 3 1 1 0 3 1 1 1 1 1 1 1 2 1 2 0 2 2 2 2 0 2 3 0 0 1 0 0 2 0 0 0 0 3 1 2 1 3 1 2 0 0 1 1 2 0 1 0 1 2 3 3 0 2 2 0 1 1 2 2 4 1 3 2 3 1 3 1 1 1 3 3 0 0 0 1 1 1 3 1 2 1 0 0 3 0 2 1 0 1 1 0 3 1 1 2 5 2 1 2 1 1 2 3 0 1 3 2 2 2 2 0 1 1 2 3 0 0 1 2 1 2 1 0 1 2 2 2 1 1 0 1 0 3 1 0 1 2 0 3 3 1 1 0 1 2 0 2 3 1 2 0 2 2 2 2 2 1 3 2 1 3 0 1 2 1 2 0 1 1 3 1 1 1 3 1 3 3 2 4 2 2 2 1 1 2 2 0 0 1 1 2 1 1 3 2 1 3 1 1 1 2 2 0 2 0 3 1 1 2 2 1 1 0 3 1 1 2 1 2 2 1 1 0 2 1 1 1 3 1 0 0 2 3 1 2 1 0 2 2 1 2 1 1 1 1 0 1 1 0 1 2 1 1 2 1 1 2 3 0 2 1 2 4 1 1 0 1 3 4 2 2 1 1 0 2 1 3 0 1 0 3 0 2 1 1 0 1 3 0 1 1 1 3 0 3 2 2 2 1 1 2 2 3 0 1 1 2 1 2 1 1 2 3 1 2 2 2 2 0 1 1 2 0 0 0 1 1 0 0 0 3 1 2 2 2 3 1 1 0 2 1 4 2 1 1 1 2 1 1 1 2 1 1 0 3 3 2 0 2 2 0 3 2 1 1 0 2 3 1 3 0 0 2 1 0 0 4 1 1 0 0 1 1 0 2 3 1 1 1 0 1 2 0 1 0 2 0 1 3 1 1 0 1 1 2 2 1 1 1 1 2 0 2 1 1 3 2 4 0 2 1 2 2 3 2 2 1 2 2 1 3 1 1 2 1 1 2 1 2 1 0 2 6 1 2 1 1 2 1 1 2 1 0 0 4 2 2 1 3 1 1 3 3 1 2 2 2 2 1 1 3 1 1 1 0 2 2 1 0 0 0 2 2 2 2 2 2 1 1 1 3 0 1 0 1 1 0 3 1 1 0 0 1 1 1 2 2 1 1 1 1 1 0 1 0 2 1 2 3 2 2 0 1 4 0 2 1 2 2 0 2 1 2 3 0 0 4 2 1 1 2 2 2 2 2 1 2 1 0 1 2 1 0 2 2 0 2 2 0 1 2 3 2 1 2 3 1 1 0 2 2 1 2 3 0 2 1 1 2 2 2 0 1 0 1 1 3 0 1 1 1 1 3 1 1 0 3 1 2 1 1 1 5 1 2 3 2 2 0 0 2 0 2 0 1 0 3 2 1 1 4 4 1 2 3 0 2 1 1 2 2 3 1 0 1 1 3 2 0 1 2 0 0 2 1 2 2 2 1 2 2 2 1 0 0 2 5 2 1 0 1 2 1 2 3 1 2 3 0 3 1 2 0 1 1 2 3 2 3 2 2 0 1 2 2 2 1 3 0 1 1 1 1 1 1 1 2 1 2 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 1 0 2 3 1 1 3 1 2 1 1 0 1 1 3 0 2 2 1 2 1 2 1 0 2 0 0 2 2 0 1 1 1 2 1 4 0 0 2 2 0 1 0 2 1 1 2 2 2 1 2 1 1 1 3 0 2 0 3 3 3 1 0 2 1 2 0 2 1 1 0 1 1 2 2 0 1 2 1 1 0 2 1 1 0 1 2 2 1 2 3 3 0 1 1 1 1 2 2 2 0 0 1 3 3 1 1 2 2 2 1 0 0 0 0 1 3 1 1 0 2 2 0 1 0 2 0 2 0 2 1 2 2 1 1 3 2 2 1 0 0 2 0 2 2 1 2 1 0 1 1 3 2 1 1 2 1 0 0 0 1 2 2 2 2 2 1 2 2 0 2 4 2 0 3 1 1 2 0 2 0 2 1 2 3 1 2 2 2 0 2 1 0 0 1 0 1 1 1 0 1 3 2 1 1 1 2 0 0 2 0 0 1 2 0 1 1 1 1 3 0 0 2 2 2 2 1 1 2 3 2 0 2 1 2 1 1 2 1 1 1 0 1 1 1 3 1 0 0 1 3 1 0 1 1 1 2 3 1 1 1 0 1 1 0 2 0 1 2 1 4 3 1 0 2 1 0 1 1 1 2 1 2 1 1 2 2 2 1 2 1 2 0 0 0 2 1 2 2 1 2 1 1 2 0 2 1 2 1 1 2 0 2 0 1 3 2 2 2 0 1 2 2 1 1 2 1 2 1 3 2 1 2 2 1 0 2 1 2 0 3 1 2 0 4 2 0 1 1 0 1 3 0 3 3 1 0 2 1 1 0 1 1 3 0 1 4 2 0 3 1 3 1 0 1 2 2 3 2 1 3 2 1 3 2 1 2 0 2 1 3 1 0 0 2 0 3 2 1 3 0 0 0 2 2 3 2 2 2 3 0 0 2 2 0 2 0 1 1 1 1 2 2 2 1 2 2 1 2 0 1 3 1 1 0 1 2 1 2 1 1 3 2 1 1 2 0 2 1 1 1 0 2 1 2 2 3 1 1 1 1 2 1 2 1 0 2 1 1 1 1 4 2 4 1 2 2 3 2 0 2 0 0 0 2 1 1 2 0 2 1 1 2 4 1 0 1 2 1 2 1 2 0 2 1 2 2 3 0 4 0 1 1 2 1 0 2 1 1 2 2 2 1 1 1 1 0 1 0 0 2 1 3 2 1 0 4 3 2 1 2 1 2 3 1 3 2 0 0 0 0 2 3 3 2 1 1 1 1 0 2 1 1 2 2 0 1 2 3 4 0 1 0 2 0 0 2 5 2 1 2 0 0 1 2 0 2 3 1 1 0 0 1 2 2 3 1 2 2 2 2 0 2 1 0 2 3 1 0 2 0 2 2 3 1 0 2 1 1 4 1 1 1 1 3 1 2 1 2 3 1 0 1 1 1 1 3 1 1 0 1 2 2 1 0 1 3 1 1 2 0 1 2 2 3 1 2 2 2 2 0 1 1 1 3 1 0 2 0 1 0 1 1 1 1 1 2 1 2 1 2 0 0 1 0 1 2 1 0 1 2 0 2 2 1 4 4 1 1 1 3 2 1 3 3 1 1 0 1 2 0 1 1 3 2 1 2 0 3 2 2 1 1 0 1 0 1 2 0 0 1 3 1 4 3 1 0 2 4 1 0 1 1 1 2 1 0 2 1 3 1 1 0 2 3 2 1 1 2 1 0 1 1 2 2 2 1 2 3 0 2 2 2 0 2 0 2 2 1 1 0 1 0 1 1 0 0 2 2 2 1 1 1 2 2 2 0 3 1 2 1 3 1 1 1 0 2 1 1 2 0 2 2 2 0 1 3 1 3 1 3 0 1 2 1 0 2 4 0 1 2 1 1 1 1 1 1 2 0 2 0 2 1 0 2 0 4 3 2 1 1 1 1 1 2 1 2 1 1 2 1 2 1 2 2 1 2 2 1 0 0 2 0 1 1 3 0 0 2 1 2 1 1 1 1 2 1 0 2 2 3 2 4 2 2 3 1 2 1 2 0 0 1 1 1 1 1 2 1 2 1 2 0 2 1 3 1 0 1 1 3 1 0 2 1 1 1 1 3 1 0 4 0 1 1 0 1 0 0 0 0 1 1 1 1 1 0 2 3 0 3 0 2 1 0 2 1 1 2 0 1 1 1 1 1 1 0 0 0 0 1 2 1 3 0 1 0 0 1 0 1 1 0 2 1 1 1 1 2 1 1 1 2 2 1 4 2 1 1 3 1 1 1 0 1 0 2 3 1 1 2 1 2 3 3 3 0 0 2 2 3 2 1 1 1 0 2 0 1 0 1 1 0 2 0 1 2 3 1 1 0 1 1 2 1 3 0 2 1 1 1 4 2 0 0 1 1 2 1 2 1 3 4 2 1 1 2 2 1 0 0 1 0 1 2 0 0 0 1 1 1 1 0 3 1 2 1 0 1 1 2 1 1 2 1 1 1 1 2 2 0 1 2 1 1 1 0 1 2 3 2 0 1 0 2 1 1 0 3 1 0 1 1 1 0 2 0 0 0 1 1 2 2 3 2 1 1 1 2 2 1 1 0 2 3 2 1 2 0 2 0 2 1 1 0 3 2 4 3 1 1 1 3 0 2 2 0 0 1 2 1 2 1 1 2 4 2 0 0 1 0 2 2 1 1 0 1 1 2 1 3 0 1 1 1 1 1 0 2 1 0 1 0 1 4 1 1 1 2 0 1 2 0 2 0 1 1 1 2 2 1 3 2 3 0 1 2 1 1 2 3 1 1 4 1 0 2 1 1 1 1 2 1 1 1 0 1 2 2 0 0 1 0 1 1 0 2 1 0 1 0 0 0 2 2 0 1 1 1 1 2 2 1 1 0 3 2 0 1 2 2 2 2 1 1 1 0 1 0 1 4 0 2 3 3 1 1 1 1 1 2 0 0 4 2 1 2 1 2 3 2 1 0 0 1 0 2 1 1 1 1 1 3 2 3 1 2 1 1 1 2 0 1 1 1 2 0 0 1 0 3 0 1 1 0 2 0 1 1 2 1 1 1 0 1 1 1 0 1 2 4 0 2 2 3 0 0 0 0 0 2 1 0 1 1 0 2 1 0 1 1 3 3 3 0 1 4 2 1 3 1 2 0 2 0 3 2 0 4 1 1 1 2 1 3 1 2 3 1 2 2 2 2 2 1 2 2 2 2 1 0 1 0 2 1 1 1 1 1 0 2 1 3 1 1 1 2 0 3 3 3 2 0 1 1 1 0 3 1 0 2 2 2 2 2 0 2 1 2 2 1 2 1 2 2 1 1 3 1 1 1 1 3 1 4 0 3 0 2 2 1 0 1 2 1 1 1 4 1 1 1 2 0 1 2 2 1 2 0 0 1 1 1 2 2 2 2 2 1 2 1 1 0 2 1 1 1 2 0 0 1 0 0 4 1 2 1 1 2 1 2 3 1 2 1 1 1 1 1 0 3 2 2 3 2 0 1 1 1</t>
-  </si>
-  <si>
-    <t>NIG(0.29564863016980725, 0.2956393085302027, 0.0021125659300503252, 0.0037105453211334037)</t>
-  </si>
-  <si>
-    <t>2 2 1 2 0 0 0 2 1 0 0 0 0 0 0 0 1 0 2 0 1 1 2 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 2 2 0 0 1 0 1 0 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 3 0 0 1 0 1 0 1 1 1 2 0 0 1 0 2 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 1 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 1 1 1 3 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 1 2 0 0 2 1 0 0 0 0 1 1 0 0 0 0 2 2 1 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 2 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 1 2 0 1 0 2 2 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 3 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 3 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 2 0 0 0 2 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 1 2 1 1 0 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 2 1 0 0 0 0 1 3 1 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 2 0 2 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 2 3 2 1 0 1 1 0 1 2 0 0 0 0 0 1 1 1 0 2 1 2 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 0 3 2 2 0 0 1 0 2 0 0 1 2 1 0 2 0 0 0 2 1 0 1 0 0 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 2 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 1 1 1 0 0 0 0 0 2 0 0 1 0 1 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 2 0 1 0 1 0 2 1 0 0 1 0 0 2 0 1 1 0 2 0 1 1 0 2 0 0 1 0 1 0 0 0 1 1 0 0 2 0 0 1 0 1 0 0 2 0 0 0 1 0 1 2 2 1 0 1 1 2 0 0 1 2 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 3 1 1 0 1 0 0 0 0 3 0 0 0 1 2 0 1 1 2 1 0 0 0 0 0 1 0 1 3 0 1 0 1 0 2 2 0 0 2 0 0 1 1 1 0 2 2 1 0 1 0 0 1 2 1 0 3 0 0 0 1 0 0 2 0 4 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 3 1 1 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 2 0 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 2 0 2 2 0 2 0 0 1 0 0 2 0 0 2 0 1 0 1 0 1 1 2 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 3 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 2 0 1 1 1 1 1 1 1 0 1 1 1 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 3 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 2 0 0 1 0 3 0 1 1 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 2 0 1 0 1 0 2 1 0 0 0 0 1 1 0 0 0 0 1 4 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 2 0 1 0 0 1 0 0 0 1 1 3 0 2 0 0 0 1 0 2 2 1 0 0 1 1 0 0 2 1 0 0 0 1 1 1 1 2 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 2 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 3 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 2 0 1 1 0 3 0 1 0 0 2 1 0 0 1 1 0 0 0 1 0 2 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 2 1 1 0 2 1 0 1 0 2 0 1 1 3 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 3 1 1 1 0 1 0 0 0 1 1 0 0 0 0 2 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 1 3 0 0 0 1 2 0 1 1 0 0 2 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 0 1 0 0 3 1 2 0 0 1 0 2 0 0 3 2 0 0 1 1 0 2 2 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 1 2 0 1 1 0 0 2 1 0 1 2 0 1 0 0 0 3 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 2 1 0 0 3 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 1 2 0 1 0 1 0 2 1 0 1 1 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 2 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 2 1 4 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 1 0 1 1 1 0 2 1 1 1 1 1 0 0 1 2 0 0 0 0 0 1 0 1 1 0 0 0 0 2 1 0 0 0 2 1 3 1 1 0 1 0 1 0 2 0 0 1 0 2 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 1 2 0 1 1 1 0 0 1 1 0 0 2 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 2 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 2 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 1 1 1 0 3 2 0 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 0 2 1 1 2 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 1 2 1 1 1 0 1 2 2 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 3 2 0 2 1 1 1 0 0 0 0 2 1 1 1 1 1 0 1 0 0 0 0 2 1 0 0 1 0 0 0 3 1 0 0 2 0 0 0 0 0 0 0 2 1 1 0 1 2 0 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 1 1 0 1 0 1 1 0 1 2 1 1 0 0 2 0 0 0 0 2 0 1 0 1 1 2 1 0 1 1 2 0 0 0 0 0 0 1 2 0 0 1 0 0 0 1 1 1 0 0 2 1 2 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 2 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 3 1 1 0 1 0 1 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 2 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 2 0 3 0 0 1 2 2 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 2 0 0 2 0 0 0 0 1 1 0 2 1 2 3 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 1 1 0 1 3 3 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 1 2 1 0 0 1 2 0 2 0 0 0 1 0 2 0 1 1 2 2 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 2 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 2 1 1 1 1 2 2 0 0 0 0 0 0 2 1 2 1 0 0 2 0 2 0 0 0 1 1 1 0 0 0 2 0 0 0 1 2 1 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 2 0 1 0 0 1 0 1 2 0 1 2 0 1 0 0 0 0 0 1 0 0 2 2 0 0 0 0 0 1 1 2 1 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 2 0 0 2 0 0 1 0 1 3 0 2 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 2 1 1 2 0 2 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 0 1 0 3 0 0 1 0 0 1 0 2 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 1 1 0 0 0 3 3 2 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 2 1 1 0 0 2 3 1 0 1 0 0 1 1 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 1 1 0 2 2 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 2 2 0 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 1 0 0 0 0 1 0 0 2 1 0 0 2 2 2 0 1 0 1 0 0 1 1 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 2 2 0 0 1 0 3 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 1 0 0 3 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 0 1 1 2 1 0 0 2 2 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 1 0 2 1 0 0 1 0 1 1 2 1 2 2 0 2 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 2 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 2 3 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 2 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 2 1 0 0 1 0 0 0 0 0 3 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 2 1 0 0 2 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 2 0 0 2 0 3 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 2 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 3 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 2 0 1 1 1 1 0 0 1 0 1 0 1 0 1 3 0 0 0 0 1 0 1 1 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 2 1 0 0 0 0 1 0 1 0 1 3 0 0 1 1 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 1 1 0 2 2 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 2 2 2 0 0 0 0 0 1 1 0 0 0 0 0 0 2 2 1 0 0 1 2 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 2 0 1 1 2 1 0 0 0 1 0 0 0 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 1 1 1 0 2 1 0 0 1 0 0 1 0 1 2 0 0 2 1 0 0 1 0 0 0 0 0 1 0 2 0 1 0 3 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 2 0 2 0 0 0 1 1 0 0 1 0 1 1 2 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 3 0 1 0 0 0 0 1 0 2 0 2 0 0 0 0 1 0 1 0 2 2 0 1 0 1 2 0 2 1 0 0 0 0 2 1 0 1 2 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 2 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 2 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 1 1 1 1 0 0 3 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 2 3 1 0 0 0 0 1 0 2 0 1 0 2 2 1 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 2 0 0 0 1 1 2 1 0 1 2 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 1 0 2 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 2 2 0 0 1 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 2 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 1 2 2 1 0 0 0 1 1 0 0 1 0 1 2 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 1 0 1 3 1 0 1 1 0 0 1 0 0 1 1 0 0 3 0 0 1 1 0 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 2 1 1 0 1 0 0 1 1 0 2 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 2 1 2 0 1 1 1 0 1 0 0 3 3 1 0 0 2 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 2 0 1 0 2 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 3 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 2 0 1 1 0 0 0 0 1 1 0 2 2 0 1 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 2 0 0 1 0 2 1 1 1 1 0 0 0 2 1 1 2 1 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 1 1 1 2 1 0 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 3 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 3 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 2 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 1 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 3 0 1 0 1 2 0 0 1 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 2 1 1 1 1 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 2 1 2 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 2 2 0 1 0 0 0 0 0 1 1 1 2 0 1 1 2 0 0 0 0 1 0 1 3 0 0 0 2 1 0 0 0 0 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 1 0 1 0 1 1 0 0 2 2 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 2 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 1 1 0 0 2 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 3 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 0 2 0 1 0 0 1 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 0 0 1 2 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 2 1 0 1 0 0 1 0 1 0 0 2 1 0 0 0 0 2 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 1 0 1 2 1 1 1 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 2 2 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 1 0 2 0 0 0 1 0 3 0 0 0 0 1 0 1 0 2 0 0 2 1 1 0 1 1 0 0 2 0 0 1 0 0 0 1 1 0 1 1 0 0 0 2 3 0 1 0 1 1 0 0 1 3 0 1 0 0 1 1 0 0 0 1 0 2 0 0 2 1 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 1 0 3 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 0 1 1 0 0 1 1 1 0 3 0 1 1 0 1 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 2 1 0 0 0 0 0 0 2 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 0 0 0 0 0 1 1 1 1 0 3 1 0 0 1 1 0 0 2 0 1 1 0 0 2 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 3 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 2 1 0 1 1 0 0 1 0 2 1 0 0 0 2 1 0 1 2 0 0 0 0 0 1 2 0 0 0 1 0 1 1 0 0 2 0 2 0 1 0 0 0 0 1 0 0 1 2 1 0 1 0 0 1 0 0 1 0 0 2 1 0 1 1 0 1 0 0 1 0 1 0 0 1 2 2 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 1 0 0 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1 0 2 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 3 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 0 2 1 0 2 0 0 0 3 0 0 2 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 3 1 1 0 0 0 0 1 0 1 0 2 1 0 0 0 0 1 0 1 1 0 0 0 0 2 1 4 0 0 0 0 0 1 1 0 2 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 2 0 1 3 0 0 0 0 1 0 1 1 1 1 2 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1 1 0 1 1 1 0 2 0 0 0 0 2 0 1 1 0 1 1 1 1 0 2 0 2 1 0 0 0 0 0 2 0 1 0 0 1 0 3 0 0 0 1 0 0 4 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 0 1 0 1 2 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 2 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 2 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 2 0 0 0 3 2 0 1 0 2 0 0 0 2 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 2 1 1 1 0 0 1 2 0 1 0 0 0 0 0 0 0 1 2 1 0 2 2 2 1 0 0 2 0 0 0 0 1 0 0 0 0 0 3 1 1 0 1 0 0 1 2 0 0 1 0 0 0 0 2 1 0 1 2 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 2 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 2 0 1 0 0 1 0 1 1 1 0 0 0 1 2 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 2 1 2 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 0 2 1 0 1 0 1 0 1 0 1 1 1 0 1 0 0 2 0 1 1 0 0 1 1 1 0 0 2 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 2 1 0 1 0 1 0 0 0 1 2 1 0 1 1 0 0 1 0 1 0 0 0 0 0 3 0 1 2 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 0 2 2 1 1 0 2 0 0 1 2 0 1 0 0 1 1 1 0 1 3 2 0 1 0 1 1 0 1 2 1 0 1 0 0 1 2 0 1 1 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 3 1 1 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 1 0 1 1 1 1 1 2 0 0 0 3 0 1 0 1 0 0 0 2 1 1 1 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 4 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 2 0 2 0 3 0 0 2 1 0 0 0 0 0 1 0 0 0 0 2 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 2 2 0 0 2 0 0 0 0 0 2 0 0 1 3 0 0 1 1 0 0 0 3 0 1 2 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 3 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 2 2 1 1 0 0 0 0 0 1 1 0 1 2 0 0 3 0 2 0 0 1 1 0 0 0 2 0 0 1 0 0 1 0 0 0 2 1 0 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 0 2 0 0 0 0 3 0 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 0 1 1 0 0 2 0 1 0 2 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 2 1 2 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 1 1 2 0 0 1 4 0 0 1 0 1 0 0 1 0 0 0 2 2 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 2 1 1 0 2 2 0 1 2 1 1 0 2 1 0 0 0 0 1 2 1 2 0 2 0 0 2 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 3 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 3 1 0 0 0 0 0 0 0 0 2 0 1 0 0 2 0 1 0 1 2 1 1 1 0 2 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 4 0 0 3 0 0 2 1 0 0 0 0 0 1 2 0 3 0 1 0 0 0 1 1 0 1 0 0 3 2 0 1 0 2 0 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 0 0 1 2 0 0 2 2 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 3 1 0 0 2 0 0 0 3 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 2 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 1 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 2 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 1 0 2 0 2 0 0 1 1 0 1 4 0 1 0 0 1 2 0 2 1 1 1 1 1 0 0 1 1 1 2 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 2 0 0 0 1 0 0 0 1 0 1 2 0 0 4 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 2 1 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 1 1 3 2 0 0 1 0 1 0 0 0 1 0 1 0 0 0 3 1 1 1 0 0 3 0 3 1 0 0 0 0 1 1 0 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 3 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 2 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 1 0 2 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 1 2 1 0 0 2 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 2 0 0 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 2 0 0 2 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 3 0 1 3 2 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 2 1 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 2 1 1 0 0 1 1 1 3 0 0 0 1 1 0 0 0 0 0 2 0 1 3 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 1 2 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 2 1 0 0 0 2 0 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 1 0 0 1 0 2 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 1 1 2 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 3 1 2 0 1 0 0 2 1 0 2 0 0 0 1 0 2 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 3 1 1 3 0 2 2 0 1 1 1 0 1 0 1 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 2 0 0 1 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 2 0 1 0 1 0 0 0 1 2 1 1 0 2 0 1 0 1 2 2 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 3 1 2 2 1 0 2 0 0 0 1 3 2 0 1 1 0 0 0 0 1 0 2 0 0 0 2 1 1 0 0 0 0 0 1 1 0 0 2 0 2 0 1 0 0 2 0 0 0 2 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 1 2 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 2 0 1 1 0 0 1 1 2 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 2 1 2 2 0 0 0 0 0 0 0 0 0 2 2 0 0 0 2 0 0 1 0 0 2 0 0 0 3 0 0 1 2 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 0 0 1 1 0 2 1 0 0 0 0 2 0 1 0 2 1 1 0 1 0 1 1 1 0 0 1 1 0 2 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1</t>
-  </si>
-  <si>
-    <t>EXN(0.57811763347447, 95.1965240219269, 32.89517644670677)</t>
-  </si>
-  <si>
-    <t>82 77 126 100 75 126 143 102 54 63 109 118 115 88 84 178 57 146 130 124 80 136 103 67 169 65 111 96 145 80 152 150 105 139 88 119 131 127 107 111 150 124 20 140 151 68 87 75 81 93 116 105 132 23 121 67 182 179 45 129 106 79 169 141 129 47 149 196 135 94 107 118 159 73 105 77 115 98 110 123 86 156 85 191 158 46 85 92 98 122 73 137 104 94 105 95 99 121 160 119 183 166 105 142 112 129 116 143 119 200 141 169 108 150 135 107 143 85 172 155 102 150 88 64 77 78 118 107 119 134 92 96 93 127 151 77 171 110 164 127 122 106 70 118 136 98 11 150 90 133 86 110 120 85 95 127 93 83 147 98 76 114 101 111 134 116 140 109 174 143 106 96 63 146 138 144 97 179 92 120 81 195 79 111 97 73 172 104 131 136 132 202 68 135 72 156 152 108 135 103 112 193 46 74 114 129 106 127 118 133 93 72 189 94 68 68 96 119 145 166 129 96 159 137 107 159 89 190 184 122 95 145 101 29 88 15 126 123 153 139 81 121 134 135 65 85 116 109 169 75 48 73 108 90 106 134 171 89 92 141 97 111 63 49 75 145 87 129 133 138 158 195 125 89 63 66 94 174 68 206 95 94 181 107 119 185 131 104 164 42 89 117 140 116 103 157 65 114 95 128 81 89 107 180 86 77 71 94 126 106 177 97 75 39 93 80 124 104 130 120 78 75 118 149 96 113 186 92 201 115 170 155 152 134 23 104 119 84 144 194 48 90 92 145 106 110 104 145 110 216 109 119 153 101 134 103 138 76 90 115 111 85 136 86 131 101 140 126 127 58 94 59 141 270 115 56 138 184 180 71 150 212 162 104 99 60 104 115 83 122 123 105 101 128 143 45 134 82 63 96 121 140 147 121 99 143 124 152 98 88 80 127 141 48 75 164 126 94 89 82 95 141 134 184 102 144 155 118 255 122 166 155 116 52 51 94 177 108 147 198 98 139 122 52 102 109 119 117 138 116 131 87 124 167 137 81 96 69 70 126 111 82 151 67 76 62 79 119 97 85 110 84 160 173 95 107 110 107 124 50 132 109 132 98 141 99 79 141 120 141 61 44 89 155 171 79 102 167 131 76 98 96 64 74 186 193 68 26 110 173 132 102 198 106 136 80 99 157 131 56 154 69 85 129 120 129 146 87 115 87 129 159 107 69 80 212 113 106 90 45 137 71 113 126 100 84 120 81 139 137 168 203 128 155 93 121 82 81 89 107 117 121 131 168 124 115 118 89 96 143 91 105 117 120 59 64 101 125 61 156 113 163 91 95 93 112 90 60 60 155 108 137 86 122 170 117 221 63 132 146 184 70 82 112 112 139 167 31 125 144 108 100 40 119 112 92 119 159 138 163 82 104 70 144 79 125 204 70 124 98 120 110 153 103 138 94 79 74 119 143 107 102 155 142 122 150 81 100 125 144 98 117 137 88 97 110 92 112 145 100 119 85 106 101 77 55 170 105 67 149 78 54 136 116 63 222 74 144 67 82 139 111 90 150 77 93 137 59 63 92 198 170 190 34 103 87 48 98 157 113 109 74 137 94 68 104 155 72 112 141 131 83 121 156 98 105 76 157 138 64 170 96 118 76 56 100 109 154 46 141 59 135 124 137 136 51 115 182 180 93 147 56 72 178 106 81 111 89 127 104 69 152 126 120 121 60 138 108 148 140 117 112 68 139 78 56 101 162 103 129 128 107 139 121 133 66 80 86 166 59 119 86 58 95 146 117 118 111 99 132 56 79 230 107 79 133 91 99 118 66 140 209 91 77 137 115 106 131 128 54 124 151 110 97 120 146 85 148 59 66 186 87 91 90 108 74 162 104 104 133 78 146 124 118 128 46 144 72 129 119 115 69 129 145 142 96 158 106 135 78 103 162 102 84 158 103 80 112 164 151 133 133 90 130 121 123 110 58 88 101 97 136 150 98 163 36 125 109 113 81 144 103 55 109 82 118 110 110 127 58 57 113 81 113 157 90 93 129 155 167 69 85 88 95 72 116 113 86 139 183 65 154 109 150 61 133 93 128 159 123 123 50 103 89 31 171 49 101 85 122 70 212 111 108 152 69 183 105 83 84 133 187 145 163 133 132 122 98 120 145 145 191 149 145 143 172 131 100 132 143 123 205 128 71 85 111 144 128 121 144 118 143 151 109 109 25 178 109 166 116 176 146 139 127 142 103 108 152 171 65 153 121 166 104 81 136 129 31 170 71 134 121 65 65 114 134 125 113 132 60 143 125 82 59 130 83 39 116 63 114 73 86 79 95 145 129 133 174 107 191 136 151 97 162 80 163 159 182 58 65 117 142 95 97 119 163 106 52 103 125 91 91 40 180 128 95 110 78 161 124 131 101 48 106 89 125 100 80 140 130 118 114 57 187 120 83 98 92 69 100 139 120 152 168 143 134 133 80 121 73 61 138 85 156 100 110 162 156 109 101 82 93 133 148 87 154 86 183 121 100 164 70 61 85 155 171 136 147 106 174 158 95 130 67 107 166 119 122 108 58 172 156 136 92 145 86 91 176 139 69 114 77 186 148 98 199 81 87 93 147 80 105 69 50 115 133 96 89 115 131 79 109 174 132 72 127 90 184 65 106 90 67 74 81 145 144 32 134 128 103 69 118 121 98 133 152 125 139 118 131 69 118 185 112 116 98 100 104 110 82 72 135 117 102 112 142 118 124 82 156 130 83 166 133 96 114 110 144 175 124 188 135 155 159 180 109 103 76 108 120 129 112 61 96 191 131 61 108 90 131 123 71 137 147 202 106 49 101 96 165 146 124 170 105 83 79 86 168 163 85 145 89 102 124 145 134 161 161 102 68 109 113 168 129 179 148 85 78 107 93 98 207 251 155 122 183 244 129 129 159 113 81 77 137 138 133 59 146 145 114 102 110 63 187 123 98 138 108 138 152 53 120 149 68 32 167 106 125 92 35 197 122 150 159 116 130 157 125 150 146 100 129 62 107 140 112 117 178 59 126 163 171 45 61 36 64 52 126 135 17 84 132 150 87 81 116 85 66 179 147 118 91 80 146 90 90 129 46 131 52 125 128 104 45 93 151 124 70 121 90 40 141 66 147 76 150 162 32 189 102 185 143 80 93 129 164 136 31 99 95 184 152 145 123 121 90 130 143 89 116 200 93 79 133 118 89 38 168 135 142 109 168 127 61 116 172 116 90 74 91 23 73 107 164 68 117 171 85 68 47 109 172 89 45 120 61 118 101 116 125 96 112 141 83 124 176 135 100 277 44 152 107 57 98 137 91 80 118 77 78 114 148 132 111 50 74 82 151 113 63 112 102 72 51 111 129 132 116 121 142 205 75 145 62 59 98 109 170 78 88 27 146 82 114 74 156 90 70 115 68 68 85 76 65 151 87 145 152 70 119 74 128 178 186 149 146 126 58 200 133 172 134 161 116 94 96 139 104 101 162 64 98 93 99 144 168 124 115 106 101 30 43 131 90 102 113 151 32 91 105 73 123 158 97 155 114 110 83 116 97 80 146 129 186 115 61 140 129 141 94 173 85 172 146 140 145 99 49 114 31 150 147 102 164 111 87 106 113 127 50 72 163 153 49 118 96 169 137 139 110 118 77 121 81 77 77 51 77 87 233 86 132 77 93 63 112 96 45 36 61 99 76 128 105 124 142 86 82 47 49 120 111 118 59 89 125 115 71 59 98 217 107 107 61 84 66 127 119 168 133 68 144 131 112 163 117 145 150 144 95 108 221 134 77 169 182 86 110 49 106 60 120 55 86 55 68 121 126 128 82 91 75 30 67 75 191 196 99 181 117 80 59 171 113 92 135 74 103 95 126 186 145 199 135 133 104 91 107 98 66 89 113 53 111 86 142 113 199 169 50 141 86 104 161 103 111 105 69 130 85 128 76 128 142 94 125 130 175 95 48 94 114 123 131 77 171 141 123 175 120 104 132 127 91 98 160 58 179 136 53 105 161 139 143 157 152 91 90 152 151 109 122 100 140 77 39 35 89 181 89 81 85 106 80 184 117 109 130 160 129 151 124 170 124 200 118 28 116 78 116 130 52 41 133 119 45 96 126 135 56 55 140 122 123 65 138 80 59 145 180 84 142 141 101 107 162 81 113 64 140 99 74 59 88 108 101 54 132 93 104 148 139 88 85 133 67 203 65 117 119 71 117 81 145 64 75 63 151 166 162 124 98 133 108 127 86 174 61 96 98 104 53 130 162 73 140 143 114 144 92 139 51 48 74 178 185 96 85 84 108 54 146 105 66 133 30 93 99 225 105 131 100 114 124 149 157 154 99 96 77 199 112 58 113 87 121 89 64 128 117 72 187 105 146 112 134 124 92 150 87 107 171 129 107 68 115 118 145 80 68 75 105 114 67 148 95 52 89 159 72 118 91 156 154 243 81 134 84 77 155 83 121 91 137 71 110 137 86 144 91 182 173 116 117 182 74 170 135 119 102 142 95 118 108 136 74 52 169 159 95 118 128 86 35 78 92 109 107 110 138 118 108 46 150 103 98 137 132 210 131 132 85 118 138 116 166 54 27 159 46 141 115 149 154 172 118 103 81 89 95 120 116 159 112 130 115 74 110 137 63 124 108 55 143 62 30 140 54 140 119 160 95 170 66 89 129 152 101 112 87 163 135 113 163 80 51 101 98 76 95 116 148 96 90 84 124 41 34 172 128 110 109 164 134 113 74 82 116 151 135 75 83 107 183 89 69 129 139 130 138 37 116 152 75 164 186 106 51 115 111 96 95 153 17 169 136 106 150 123 124 91 104 108 43 85 139 142 45 91 133 93 103 174 157 79 49 152 113 82 7 124 105 136 155 159 126 43 101 123 124 91 119 158 158 90 138 89 109 84 102 81 116 108 97 241 177 100 84 133 153 117 75 120 125 67 113 216 107 212 87 92 100 123 86 94 127 99 92 126 79 129 117 97 67 172 107 161 169 103 102 35 17 122 86 91 85 109 158 70 139 193 112 153 90 103 134 108 152 130 178 111 129 100 103 71 57 67 113 99 113 147 91 229 111 74 74 97 141 66 91 155 122 108 138 55 120 148 77 91 111 162 102 89 127 62 25 77 128 80 96 176 80 119 20 110 106 47 82 139 113 103 106 103 67 146 91 127 87 139 156 113 87 151 65 135 82 63 82 101 50 117 80 163 106 123 62 112 118 105 184 130 101 96 164 93 126 143 113 161 85 80 118 134 177 119 80 128 131 152 61 99 121 66 55 107 90 88 154 93 107 152 87 49 98 132 88 66 111 40 133 185 139 108 75 92 122 79 173 83 174 133 136 182 85 104 121 99 84 111 127 147 131 145 162 111 141 76 113 99 76 88 89 134 50 147 102 98 134 218 93 141 124 94 93 111 141 165 60 76 82 125 111 55 85 111 66 107 87 139 65 69 51 150 115 51 86 90 128 156 109 153 172 113 102 126 77 88 121 102 49 109 105 127 87 81 92 130 90 85 66 142 113 86 56 169 102 122 119 264 98 124 158 89 112 35 157 181 134 196 116 120 119 108 124 129 131 196 99 101 115 142 166 108 130 140 89 119 112 46 107 155 138 50 121 57 124 149 102 64 89 78 175 157 51 169 101 120 142 75 47 238 119 91 82 69 119 88 89 91 110 158 106 70 36 217 46 71 124 150 72 91 121 47 141 105 88 93 199 157 42 109 81 45 148 160 149 47 112 75 106 52 131 129 141 82 139 108 68 75 98 68 129 145 168 125 96 150 119 36 81 51 122 152 157 115 75 92 60 68 92 135 98 48 91 170 79 95 157 67 104 124 126 175 154 95 168 46 130 101 131 116 53 132 63 82 138 36 107 147 100 84 85 102 113 104 146 102 21 177 128 104 87 50 189 69 142 130 56 170 121 61 143 92 96 46 134 163 83 124 175 109 63 124 110 88 152 149 135 94 115 122 147 125 49 154 41 101 183 91 118 116 212 114 28 61 57 176 187 72 128 129 65 117 77 72 103 136 102 68 147 151 98 194 122 173 136 117 158 87 86 139 96 115 119 88 129 51 69 57 86 122 91 129 145 91 126 129 103 63 42 60 107 59 88 37 90 148 155 127 87 104 88 124 74 93 205 104 192 147 171 182 162 86 129 147 125 177 98 130 110 111 142 144 120 109 95 92 126 60 71 93 89 171 151 90 50 90 150 114 92 89 132 134 119 112 62 141 161 119 105 134 86 63 59 83 134 115 128 121 121 115 93 119 154 125 68 60 42 59 129 56 111 47 107 46 124 178 154 175 134 52 145 98 185 68 123 123 78 109 167 126 130 98 75 97 125 94 125 132 95 160 98 94 26 86 71 63 101 31 173 117 119 100 104 94 55 67 84 167 117 108 106 72 67 173 145 97 178 123 147 128 100 138 139 197 150 108 178 159 202 80 53 63 78 106 109 44 117 52 131 108 88 65 109 138 92 99 149 58 133 167 155 85 106 112 170 87 84 145 117 121 130 76 45 100 81 103 92 191 83 75 154 71 95 104 95 105 112 92 140 81 143 98 104 87 140 100 145 164 99 106 106 52 131 141 60 126 77 128 164 143 80 46 135 95 92 141 108 108 127 97 94 87 107 141 70 46 104 198 84 133 159 176 134 99 98 145 164 158 123 76 155 91 133 112 141 203 130 131 105 108 157 97 52 77 88 124 96 153 95 107 61 111 142 94 90 56 132 96 141 19 142 102 92 124 67 81 84 107 75 66 168 73 90 114 132 58 151 223 111 108 101 148 98 69 114 149 107 48 105 52 105 181 78 117 132 122 127 121 115 114 88 120 125 99 43 109 78 50 147 135 79 112 128 113 161 109 74 47 205 69 179 136 117 138 39 167 74 139 95 96 78 82 122 89 83 133 88 75 98 70 127 82 139 85 157 198 131 136 115 88 74 89 180 110 152 120 142 122 89 121 92 112 84 100 94 115 150 129 159 69 141 94 139 175 124 144 162 185 125 160 146 102 64 69 201 126 32 7 91 159 109 158 126 61 181 94 116 114 106 134 121 76 150 126 87 62 76 216 112 86 87 169 145 118 174 120 134 145 135 145 87 226 151 88 100 54 118 132 108 60 87 160 104 96 91 74 155 53 56 77 130 115 95 120 152 125 100 129 101 148 134 101 154 84 83 105 162 68 43 120 110 24 82 110 139 174 107 43 150 157 108 164 135 97 108 133 136 92 132 130 125 115 125 87 120 173 93 69 134 82 131 98 96 103 73 50 129 118 79 163 81 117 102 80 113 128 75 101 136 116 139 167 162 72 97 121 129 114 130 65 98 51 75 119 49 81 138 136 121 132 122 96 143 71 187 155 56 121 154 151 57 149 84 73 71 86 129 68 84 115 121 106 79 138 112 111 166 108 166 70 197 170 93 99 139 123 71 119 130 87 141 190 60 153 104 60 88 170 99 150 90 53 90 90 96 121 55 73 159 154 140 100 76 201 105 176 143 145 149 110 137 79 102 96 140 143 138 150 117 186 112 79 91 99 96 195 108 104 93 58 178 100 86 135 144 151 138 82 128 154 186 75 164 67 130 76 107 170 107 165 133 137 120 88 88 95 162 136 146 55 117 65 65 84 89 110 85 117 92 117 136 129 127 52 149 74 97 59 112 112 44 148 67 129 116 34 94 101 161 110 68 163 119 99 105 101 125 156 33 84 119 41 141 124 139 145 137 85 121 141 138 82 110 97 128 97 103 135 144 99 56 129 160 138 138 116 57 55 64 74 137 46 177 126 56 105 178 108 121 68 162 146 92 72 81 129 77 191 116 36 187 136 47 100 170 110 106 141 143 105 117 107 146 85 126 89 83 144 85 101 106 84 89 145 107 117 98 44 93 80 165 61 112 129 128 170 61 147 82 103 70 90 152 67 117 75 100 120 140 57 80 189 127 75 108 94 94 41 98 151 94 84 163 49 172 150 51 84 102 73 131 154 98 148 52 131 75 188 47 147 38 39 161 101 83 149 123 112 124 141 76 26 134 71 110 85 138 181 142 109 108 120 126 149 51 109 112 114 149 80 93 148 91 131 138 123 93 129 160 143 37 100 112 89 119 116 91 158 90 106 117 133 143 106 155 87 108 87 158 88 121 156 140 148 132 168 79 77 143 174 102 141 111 111 87 192 137 111 87 124 135 120 78 107 110 146 139 169 97 141 111 161 127 38 96 156 148 123 107 140 76 110 128 67 145 133 172 163 94 58 105 138 137 84 73 54 96 144 91 123 125 113 105 105 131 84 122 166 143 71 66 134 89 116 196 219 180 85 99 110 126 137 102 108 41 84 102 79 105 61 94 182 124 136 161 111 107 116 104 44 123 143 72 138 43 114 115 193 151 158 153 141 118 194 82 91 85 47 113 96 42 186 72 135 129 110 107 92 71 151 65 127 131 54 151 103 145 74 186 28 96 103 93 142 104 183 92 113 79 150 84 36 134 133 115 105 171 84 136 86 113 98 66 79 82 57 79 91 98 59 108 73 176 99 105 110 120 115 176 102 202 143 95 184 66 68 65 113 77 102 82 102 90 84 107 113 62 163 146 82 110 144 120 138 64 156 152 126 141 85 49 55 63 192 91 46 87 114 117 150 97 110 103 172 190 126 122 125 107 129 83 113 133 115 101 86 113 93 193 159 110 117 76 128 35 71 111 127 156 116 112 208 111 51 66 92 85 105 128 49 79 195 99 105 59 37 157 168 166 133 111 97 146 61 113 140 110 124 193 190 93 101 119 130 84 129 135 124 134 64 142 91 154 175 90 150 113 130 167 108 90 132 125 151 139 86 106 116 73 100 81 77 49 83 90 119 123 90 96 132 120 106 178 177 148 98 79 97 211 130 161 55 112 150 88 76 129 67 79 114 113 124 137 62 128 102 135 167 148 98 66 128 119 82 122 81 69 87 87 168 85 69 79 129 121 117 116 60 168 166 167 146 96 110 59 92 128 76 108 75 164 75 143 69 107 105 146 163 116 183 145 121 165 112 84 75 100 120 125 72 179 121 136 105 102 149 150 63 93 115 54 161 100 160 61 177 114 97 156 42 113 142 174 128 76 157 89 123 91 143 147 147 149 95 46 136 135 80 86 145 101 149 99 161 139 57 202 97 94 149 44 127 97 81 101 123 173 145 119 108 44 57 109 79 115 89 179 82 129 116 16 118 157 102 139 90 105 91 109 75 128 48 98 107 143 171 82 99 66 130 87 123 241 75 124 116 93 87 89 184 153 99 160 165 55 109 184 97 90 60 98 115 153 48 125 58 117 169 132 126 96 175 120 126 174 101 180 132 78 79 175 74 126 165 67 165 121 123 100 144 89 95 119 163 94 46 130 131 95 140 173 107 34 112 203 140 125 53 115 87 114 74 116 212 94 42 72 175 109 79 136 117 45 88 153 168 141 116 151 144 117 105 122 85 99 82 86 94 134 132 139 153 41 92 47 119 133 86 33 121 105 161 93 108 130 126 105 87 33 164 91 82 137 102 87 206 102 81 166 78 191 89 104 86 111 164 88 73 116 114 91 118 115 126 181 88 170 146 212 180 118 50 73 172 206 162 101 144 120 126 101 69 130 92 125 106 176 139 93 108 119 122 122 36 61 42 89 209 62 89 147 119 122 109 109 118 160 121 126 54 129 76 111 108 51 129 115 141 127 106 75 99 108 84 87 93 114 113 157 95 165 111 153 116 49 69 155 151 92 74 148 135 198 91 44 136 49 147 109 145 134 143 94 133 51 85 163 137 158 134 100 119 178 138 105 160 119 97 92 120 146 102 164 52 163 165 147 130 108 50 43 107 106 68 125 155 124 103 129 122 121 108 88 101 112 123 121 76 93 91 188 165 142 155 140 62 150 131 134 129 154 119 126 129 126 99 143 137 79 141 107 167 159 77 33 92 87 132 112 135 103 106 207 126 101 103 153 52 168 124 85 159 108 121 145 101 207 104 99 148 164 101 92 155 133 151 68 118 69 57 176 64 132 133 168 92 179 115 108 144 78 61 114 97 204 149 145 145 107 60 64 175 69 141 127 124 193 116 109 171 165 111 74 135 108 137 106 185 122 115 48 121 177 54 123 103 146 76 128 171 111 70 166 173 86 55 69 126 123 80 68 147 104 113 39 155 53 96 110 122 127 76 177 97 57 119 94 78 123 184 146 157 105 140 108 64 117 110 142 130 103 151 155 135 45 65 132 159 137 142 126 123 157 93 111 42 180 127 126 73 79 87 168 145 101 124 116 209 85 142 156 64 133 168 109 77 75 144 80 138 120 189 129 156 153 37 181 36 115 119 108 81 140 150 143 39 214 112 106 178 47 92 123 182 146 108 96 71 123 82 175 170 90 99 84 148 155 116 120 138 115 98 121 151 71 101 84 117 134 126 118 86 128 88 147 113 132 134 115 112 113 134 112 158 121 108 178 120 51 87 118 148 102 118 82 173 154 82 158 123 170 176 135 83 153 98 49 113 161 59 105 111 148 68 84 80 203 85 102 104 25 72 93 120 113 104 79 126 99 120 149 82 142 135 128 93 144 59 101 163 105 112 133 110 136 86 106 128 135 166 131 167 115 141 148 108 116 153 132 99 86 125 79 117 146 87 160 146 103 117 125 108 155 86 108 145 133 137 148 79 118 53 122 135 103 79 132 128 194 104 111 118 161 106 80 57 134 70 101 103 110 173 117 37 197 74 123 170 96 93 86 50 157 41 129 122 126 99 135 71 102 90 79 115 59 113 87 41 115 153 125 214 60 131 150 122 167 84 83 106 69 138 132 90 89 112 95 127 139 64 206 85 57 144 114 175 161 128 85 53 108 102 80 111 96 73 57 122 101 93 247 85 111 99 90 203 152 103 119 127 101 112 106 141 136 37 62 141 121 75 60 152 153 108 99 125 84 131 106 65 153 123 98 153 217 81 188 125 53 123 121 121 163 50 161 119 231 74 29 71 167 140 164 175 46 172 152 100 80 122 129 96 177 80 63 107 109 122 162 60 68 106 183 96 73 95 87 146 122 173 147 117 154 150 126 151 125 95 73 157 49 134 84 102 113 109 162 81 106 68 111 42 106 125 130 76 145 133 116 106 90 152 142 113 160 144 93 102 143 117 119 89 110 222 131 110 130 146 105 122 126 162 161 143 143 128 169 112 102 86 212 151 103 88 95 139 120 115 168 104 59 225 83 86 156 123 103 83 114 100 112 74 98 149 105 67 61 89 49 91 68 39 132 27 104 123 197 138 113 131 102 98 68 101 192 149 88 153 73 99 97 127 152 107 135 128 111 87 84 52 56 227 47 135 165 118 98 256 77 138 132 184 167 118 107 94 131 121 89 117 138 70 208 155 108 60 82 104 99 144 107 24 190 114 147 147 61 140 140 142 158 172 79 152 95 76 117 148 88 138 84 107 218 110 127 60 108 180 120 103 133 131 116 114 100 67 103 95 114 28 161 28 46 90 63 150 143 142 125 106 80 72 145 134 115 183 135 109 96 113 142 152 176 90 61 130 205 131 185 84 105 115 120 181 117 79 111 121 134 200 36 142 74 139 122 66 85 67 94 106 77 81 53 56 156 99 62 117 131 145 139 188 93 96 143 88 138 123 121 149 118 93 91 155 165 163 64 181 121 71 90 149 113 67 183 80 59 117 104 144 157 207 123 146 139 130 65 69 104 103 67 110 139 17 87 161 48 114 257 82 219 167 95 90 100 126 87 90 104 68 82 170 191 142 105 77 140 108 57 138 100 82 144 103 208 55 85 110 100 97 108 104 153 127 117 37 134 93 47 143 137 166 105 192 71 63 133 130 136 127 118 37 104 61 144 124 102 116 59 97 65 102 80 137 173 45 82 100 89 114 56 121 77 133 116 124 90 107 132 128 96 57 108 107 70 98 135 83 95 92 102 71 192 53 47 93 56 147 148 118 123 160 107 62 108 101 118 95 140 208 126 128 109 88 131 98 88 112 178 134 182 168 123 168 106 209 92 160 103 69 105 139 70 149 78 119 53 144 161 88 40 100 174 70 116 92 111 149 117 147 163 87 42 101 111 86 119 65 145 88 132 115 104 89 103 219 151 134 98 164 154 70 98 73 105 124 176 76 53 55 188 156 147 68 142 116 100 129 133 121 121 159 72 188 60 88 122 126 181 107 120 188 78 79 180 104 168 165 100 47 178 118 174 196 155 107 49 156 97 75 127 84 39 108 83 161 173 175 131 163 121 101 47 92 101 140 87 68 144 160 86 123 80 165 120 147 61 112 100 92 109 117 84 86 101 98 153 133 115 116 155 87 109 139 111 100 110 132 90 129 155 118 150 101 105 220 115 101 34 117 31 104 14 133 152 122 125 104 153 105 212 118 98 155 142 86 120 108 130 99 137 186 147 72 132 103 60 78 109 98 98 118 127 141 132 71 105 114 113 166 138 113 101 176 209 156 8 130 127 77 131 69 128 56 111 139 92 140 149 96 92 78 109 69 114 84 94 155 112 141 176 115 58 144 135 123 86 102 179 106 124 84 90 116 134 192 64 129 142 134 60 83 96 162 183 167 51 100 61 52 139 86 107 123 55 105 77 110 67 123 90 153 103 182 132 112 128 49 81 110 136 89 80 107 55 169 119 73 98 131 141 118 111 143 87 99 125 139 125 101 108 99 126 62 32 99 88 138 165 102 161 136 97 90 97 89 149 108 162 154 155 90 131 100 101 96 153 131 136 155 98 110 119 116 123 120 109 105 94 102 105 135 109 135 94 79 51 82 89 97 90 127 75 93 122 135 106 115 90 96 163 62 80 150 62 84 165 146 112 195 94 168 98 84 158 83 91 150 113 31 27 216 197 83 102 110 132 88 100 156 124 116 115 109 132 139 94 102 128 79 121 123 186 90 108 122 167 78 107 105 85 69 153 114 133 125 128 175 72 155 118 80 98 145 149 192 132 122 152 108 99 138 84 216 142 68 154 57 196 169 108 230 77 178 157 68 89 92 76 187 90 106 119 119 102 114 82 239 98 120 43 148 36 82 114 151 26 132 115 67 101 114 195 80 147 130 144 166 81 142 172 125 84 178 131 124 149 60 95 110 121 167 114 61 75 156 124 157 77 133 118 86 147 172 90 78 122 154 139 62 176 96 124 57 49 137 70 89 194 137 141 104 118 63 107 83 82 103 27 58 88 140 142 202 97 114 69 148 153 124 164 51 48 136 102 126 152 70 96 85 58 89 114 125 79 105 167 104 77 149 108 121 73 121 137 130 107 119 53 110 111 114 118 145 138 129 158 94 73 98 135 164 149 135 71 105 137 110 71 128 132 104 138 82 119 76 63 143 137 85 73 166 171 112 114 54 130 110 129 109 101 85 129 195 112 105 139 90 114 132 43 84 66 90 114 77 89 50 161 148 130 169 122 128 78 127 95 74 170 70 107 166 164 105 122 176 120 121 132 149 116 85 171 125 166 138 155 38 105 137 119 83 13 213 56 114 122 98 167 168 110 88 87 144 157 85 141 115 210 157 134 133 176 137 88 129 145 49 77 113 89 96 77 47 184 120 128 103 188 130 123 118 103 163 172 106 201 63 126 181 42 105 139 167 137 129 40 89 108 62 169 151 244 210 178 120 99 112 75 141 97 43 110 90 131 133 168 104 169 108 167 58 99 97 114 99 84 145 126 103 122 97 158 127 137 152 167 157 87 162 82 103 38 80 110 171 121 95 42 238 59 128 72 107 92 72 116 113 85 118 68 83 115 91 107 166 136 129 135 189 159 67 108 140 150 78 162 107 68 112 149 105 77 103 130 120 173 135 97 147 110 178 127 127 93 115 133 113 53 211 162 64 149 149 151 102 141 113 168 78 134 194 81 176 123 148 156 114 92 143 134 74 191 101 96 59 131 128 83 117 81 45 177 119 58 127 99 103 146 140 76 104 117 124 93 115 118 133 105 103 163 110 148 145 71 220 106 123 162 108 113 101 103 117 87 56 131 99 97 76 164 132 99 57 114 124 152 121 125 176 83 93 205 113 191 122 67 88 123 98 139 82 129 101 31 145 141 90 97 190 88 150 97 167 150 46 116 102 130 133 164 113 144 89 156 162 160 125 170 83 142 120 115 149 108 63 67 81 89 129 101 118 109 153 176 58 168 82 149 146 187 122 78 127 135 143 158 32 106 133 102 146 215 129 120 79 173 111 83 90 101 121 107 64 145 130 104 144 31 110 132 119 161 92 138 118 148 79 115 153 84 124 107 79 151 124 147 72 67 114 81 74 97 184 64 93 83 70 175 180 84 101 64 192 130 102 135 161 33 57 110 84 120 82 95 124 124 149 162 171 105 154 131 81 156 116 64 136 161 90 83 147 98 162 178 105 197 59 152 141 161 112 88 72 170 189 89 124 26 136 41 109 60 79 89 120 101 90 78 56 78 150 56 89 110 191 112 114 62 116 133 111 105 119 166 116 122 120 123 83 34 146 161 93 157 98 186 139 145 123 66 63 147 169 133 95 28 174 167 113 122 52 76 153 141 125 119 126 64 101 156 162 95 130 119 145 69 142 118 93 100 110 101 108 161 72 142 140 95 142 56 147 88 80 111 144 76 93 103 148 167 165 41 108 87 110 107 136 156 102 166 184 58 116 114 63 82 142 84 67 74 124 131 97 154 115 54 176 118 170 161 104 110 80 126 187 120 130 108 156 156 180 121 57 53 161 106 100 100 181 144 49 80 173 113 160 153 151 117 91 90 96 71 135 106 102 98 101 100 124 56 108 110 209 184 155 131 65 154 155 109 145 128 43 181 96 169 111 127 51 160 210 69 82 85 96 162 77 114 106 85 144 119 146 144 150 64 85 102 91 99 126 87 106 105 135 151 127 97 159 162 110 188 148 93 121 109 145 114 87 56 111 141 118 57 132 125 108 90 110 112 107 129 155 135 148 157 177 194 86 102 142 150 102 108 57 51 66 215 164 111 117 123 98 95 105 72 131 195 80 137 118 105 181 95 116 111 109 148 121 109 198 60 105 90 131 145 144 167 126 88 156 110 136 121 53 125 103 121 150 124 116 126 93 59 160 125 147 34 108 76 108 50 112 99 98 209 155 98 83 80 126 77 126 132 126 92 165 85 114 111 126 96 98 138 51 103 123 115 117 141 148 139 92 77 131 148 73 124 243 151 124 86 84 48 83 127 152 111 144 34 87 101 95 119 169 151 112 132 75 135 138 108 34 91 79 139 133 137 134 111 101 84 109 180 96 132 78 85 68 84 99 98 118 89 164 137 95 46 97 72 129 89 173 179 124 96 123 90 135 77 107 142 69 52 83 107 107 122 113 214 136 87 157 117 109 129 149 115 123 146 143 99 118 133 102 182 95 128 161 104 70 186 76 48 108 150 87 71 91 144 125 62 94 107 209 102 217 85 185 127 81 74 62 115 113 132 91 175 98 124 122 30 84 82 143 66 55 65 119 129 55 83 141 94 177 109 73 104 129 163 91 58 101 150 81 94 169 137 48 97 106 105 112 74 120 138 137 131 116 156 144 41 163 141 177 113 126 105 121 128 113 149 103 159 146 101 56 136 141 103 189 140 159 112 175 157 158 173 106 102 175 100 180 151 187 160 137 73 148 119 139 188 122 63 170 157 84 74 135 196 141 108 73 104 84 196 106 154 98 99 144 106 157 110 125 149 132 111 71 173 167 87 117 158 136 187 101 144 185 169 113 109 106 71 85 133 70 116 81 139 79 108 144 143 111 106 99 140 173 127 68 72 170 94 82 120 189 89 109 172 126 118 108 84 149 124 84 158 80 71 86 105 143 96 129 147 133 68 121 159 63 78 133 133 73 138 129 105 111 82 145 140 91 128 114 95 137 101 152 88 156 111 52 132 157 88 74 158 78 86 108 129 125 144 79 98 125 91 144 71 184 176 128 49 143 129 90 90 124 112 150 107 140 114 154 90 147 198 97 115 104 171 108 179 68 109 71 123 97 171 153 122 81 145 144 97 79 130 210 123 107 91 116 108 74 69 112 73 90 174 42 114 157 142 64 146 102 114 100 139 116 99 118 200 119 157 92 118 48 85 129 85 122 48 74 129 92 135 81 163 112 155 108 101 95 98 57 138 132 80 46 56 130 115 128 162 85 30 90 107 115 139 128 88 111 119 148 99 188 70 66 57 91 77 97 114 131 193 112 58 94 137 148 120 79 118 144 127 148 69 112 162 145 66 39 102 82 122 126 106 103 82 103 141 109 221 102 145 175 97 76 161 63 125 153 130 97 135 93 160 149 111 93 143 94 49 112 109 189 82 81 201 83 154 124 117 92 94 85 171 96 184 92 100 97 62 124 73 76 111 124 40 117 124 114 156 109 171 65 93 148 95 105 45 73 125 122 95 80 84 86 95 144 159 156 75 243 114 83 125 100 201 54 140 80 103 142 120 146 147 54 130 102 123 184 133 80 167 107 79 119 86 62 96 128 88 77 95 138 141 112 79 105 100 115 79 106 127 136 178 106 102 141 126 36 116 142 151 131 59 85 129 85 147 151 137 154 63 158 119 55 98 81 139 179 128 78 162 181 115 147 76 72 132 107 153 93 110 134 112 165 110 152 96 142 91 77 125 95 128 131 122 111 74 136 126 100 96 126 119 118 151 63 123 51 124 81 118 76 111 173 94 182 127 87 76 106 137 121 80 128 90 164 91 96 135 46 90 153 105 170 174 23 109 154 87 146 118 116 225 94 75 93 132 77 105 103 51 93 170 236 129 65 57 92 138 137 68 90 110 119 86 141 95 167 111 186 124 88 165 84 113 90 198 123 112 137 86 89 143 144 105 90 198 86 59 218 118 114 78 162 172 104 118 117 108 93 91 138 142 148 148 93 118 61 128 160 105 138 110 107 77 98 181 73 135 94 152 94 45 70 102 73 189 89 168 116 40 142 110 86 120 160 80 126 62 114 156 137 176 179 97 202 98 102 116 132 141 84 78 103 120 138 128 137 157 181 56 68 118 106 186 118 62 113 90 221 169 165 63 123 58 114 115 21 53 125 127 124 50 49 113 79 110 108 100 117 53 93 100 115 63 120 103 68 144 111 155 166 144 71 124 111 152 145 65 111 126 148 106 114 67 142 46 139 71 67 63 194 143 179 124 97 60 130 97 123 52 164 209 92 152 94 87 125 75 169 144 88 124 136 112 126 118 58 73 131 81 125 93 127 166 90 139 99 74 150 93 182 128 125 108 98 169 113 45 166 112 89 189 50 167 123 85 158 131 168 138 91 138 69 65 91 51 126 127 147 76 110 115 56 141 138 161 127 142 81 117 66 141 140 98 99 116 133 123 142 112 147 72 71 93 164 87 45 126 93 128 117 195 132 136 57 123 87 163 166 130 114 182 34 129 168 100 115 99 17 137 106 55 167 65 193 139 150 106 73 74 86 94 162 104 122 141 108 107 132 134 86 110 112 81 155 171 48 107 68 171 79 138 100 93 96 137 233 119 178 131 171 92 76 131 164 112 101 145 114 139 139 79 103 138 47 29 131 110 185 120 103 140 146 115 130 72 89 95 152 156 48 111 63 96 86 89 173 50 41 248 54 72 68 106 87 144 143 213 188 148 185 233 101 72 68 145 134 41 92 114 119 61 136 191 170 60 124 80 87 175 212 98 119 121 162 76 32 92 125 125 80 188 141 219 59 90 109 90 72 69 208 208 157 82 128 197 102 104 66 97 112 78 206 130 83 185 39 144 70 130 182 155 93 64 100 139 117 75 171 111 138 86 103 86 195 86 102 79 153 95 52 78 87 115 153 116 119 91 144 152 69 83 94 225 159 28 192 198 101 93 117 116 91 211 122 85 138 140 84 152 120 119 188 136 119 131 126 143 128 95 115 102 47 78 124 156 162 119 111 98 61 60 53 75 142 102 189 70 106 120 202 142 50 97 100 66 107 161 152 102 88 130 85 198 95 69 98 133 105 108 123 80 133 108 103 65 75 79 125 173 101 107 85 80 132 111 109 141 167 144 167 65 149 107 60 88 98 107 129 150 90 121 208 135 117 76 64 43 123 158 148 88 38 115 169 66 67 147 100 61 125 128 153 55 126 115 79 91 103 145 80 111 137 72 42 72 119 133 157 105 88 123 128 111 93 77 64 123 125 99 174 140 41 115 109 113 144 64 115 84 96 112 126 86 49 160 126 99 110 127 105 84 128 66 103 156 95 124 150 116 62 139 106 103 180 138 92 126 121 111 151 101 55 102 77 132 59 123 135 126 26 91 229 125 90 86 102 70 133 180 76 51 129 69 74 53 109 123 158 118 53 42 130 144 190 81 68 97 40 110 97 93 108 69 120 68 126 131 143 148 154 121 183 107 143 119 87 115 67 71 129 101 107 105 47 93 136 139 217 102 86 134 151 159 88 178 104 96 97 95 81 150 92 98 126 144 117 128 98 126 57 141 68 152 114 65 97 80 161 135 159 37 51 127 94 65 172 89 96 60 166 154 154 108 92 114 96 122 157 98 98 116 121 149 84 128 96 97 96 84 40 107 32 114 100 130 153 204 96 217 167 85 75 49 37 140 138 142 169 125 126 90 80 213 184 102 144 153 105 140 145 174 47 114 48 161 115 116 99 95 145 89 198 164 123 93 154 53 164 136 152 120 89 102 200 84 232 138 162 125 110 89 57 66 166 108 82 103 127 152 122 123 124 135 106 124 111 104 249 112 121 49 112 79 187 114 93 132 147 132 123 55 115 77 120 85 88 70 93 156 108 145 119 115 87 95 91 111 109 92 130 148 108 71 113 180 146 163 127 101 91 74 118 197 220 116 75 98 169 104 131 147 170 162 89 118 117 114 110 109 86 55 120 82 106 52 91 111 126 127 126 125 179 77 99 77 139 255 86 132 104 133 172 97 104 102 175 90 79 171 82 115 122 168 71 25 83 124 109 63 165 168 145 66 101 177 109 143 71 106 171 134 73 123 33 128 83 154 116 108 64 121 135 194 100 96 59 116 80 113 115 154 96 104 99 78 114 132 113 179 170 80 97 26 133 99 158 92 81 147 89 57 162 101 109 124 107 62 122 180 118 152 52 116 149 86 91 72 81 81 67 122 101 78 117 144 71 84 101 126 146 58 155 120 133 47 91 156 155 109 125 101 104 117 42 96 152 140 160 87 107 150 70 149 146 101 203 111 115 161 137 119 140 64 101 73 156 153 135 168 127 118 53 104 112 69 163 108 94 179 201 106 184 68 107 190 60 122 28 116 109 155 103 106 160 36 59 82 97 146 151 128 167 155 176 145 131 101 115 133 72 84 158 95 103 122 91 87 151 141 73 110 44 153 82 57 140 127 127 140 111 98 169 86 99 68 127 144 138 118 105 72 145 119 99 69 130 139 123 129 92 162 104 69 89 166 129 143 115 69 104 109 129 130 122 129 67 57 94 76 141 71 51 152 118 126 129 89 112 118 72 135 131 133 69 135 142 100 181 120 91 38 78 138 161 114 115 136 104 133 134 82 95 276 112 149 122 104 80 61 43 136 142 110 167 177 118 50 134 130 114 101 120 147 101 121 106 175 108 92 171 105 128 141 115 150 99 107 93 88 111 98 110 77 89 66 61 124 126 128 55 98 36 99 98 133 143 94 79 111 195 86 78 184 96 90 147 78 173 86 73 93 127 153 94 77 84 105 85 90 164 131 101 124 85 124 63 47 105 105 166 106 106 162 57 141 115 147 115 153 85 144 166 142 146 100 72 120 181 131 90 36 133 129 97 105 101 115 94 70 72 152 86 157 73 90 153 161 49 146 85 35 79 87 54 58 65 52 123 84 76 102 109 147 125 167 71 140 131 148 86 130 129 118 68 161 51 112 126 114 123 54 137 89 117 128 55 116 107 152 139 106 157 113 120 159 118 123 145 94 75 90 122 49 143 85 152 83 152 97 135 149 105 223 97 151 63 130 139 102 131 160 162 150 145 185 109 126 61 89 105 144 60 59 155 54 110 149 101 215 84 144 50 89 115 196 137 28 112 98 45 130 168 61 128 107 111 143 73 144 126 83 169 50 183 93 112 135 117 165 135 80 104 168 66 51 82 83 50 135 76 45 101 164 119 19 124 153 94 142 116 185 161 144 101 126 111 112 79 146 93 81 199 114 156 100 187 106 135 103 76 49 135 51 106 122 150 74 149 56 115 88 79 63 129 113 55 158 177 129 120 101 109 81 103 176 117 128 137 113 155 66 85 69 123 101 112 63 98 90 147 147 99 134 59 135 55 42 148 129 80 120 82 190 113 178 104 141 183 94 52 76 148 107 103 117 88</t>
-  </si>
-  <si>
-    <t>GAM(0.18393602000926634, -9.54726987391524e-28, 0.7041841739675716)</t>
-  </si>
-  <si>
-    <t>1 0 2 0 1 2 1 0 0 0 1 1 0 0 1 3 0 0 1 0 0 1 2 0 2 0 3 0 2 1 1 1 1 1 1 3 1 0 0 0 1 1 0 3 2 0 0 0 0 1 1 0 0 0 1 0 4 3 0 1 1 1 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 2 1 2 0 0 0 2 1 0 1 0 0 1 1 2 0 0 1 1 2 1 0 2 1 0 1 0 0 1 2 2 1 0 0 1 0 2 1 1 1 2 2 1 2 0 1 3 0 2 2 2 1 1 0 0 1 3 0 0 1 2 2 1 0 0 2 1 0 0 2 0 1 1 0 0 0 0 0 0 0 2 1 0 1 1 1 0 1 2 2 0 2 1 0 1 1 1 1 1 3 0 3 3 0 0 1 2 1 0 1 0 1 1 2 0 0 1 1 3 3 2 0 1 0 1 0 1 0 0 1 0 3 0 1 0 0 0 1 1 1 1 2 0 2 2 2 1 0 0 2 0 2 1 2 0 0 1 0 0 1 1 0 0 1 3 3 1 1 2 0 2 1 1 2 1 1 1 3 1 1 0 1 0 1 0 0 0 3 2 2 0 3 0 1 1 1 0 1 0 1 2 1 0 1 2 0 3 3 0 3 2 0 1 1 1 1 0 1 0 1 2 1 0 1 0 1 0 3 0 0 0 2 1 1 0 0 2 0 2 1 0 0 2 1 1 3 0 3 1 2 1 1 1 0 3 1 0 3 1 0 1 0 0 2 2 1 1 0 0 1 1 1 3 0 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 2 2 0 0 1 2 1 2 3 1 1 3 1 0 0 1 2 2 0 0 0 1 0 0 1 0 0 0 0 1 2 1 3 1 1 1 1 0 2 1 0 1 1 0 1 0 0 1 2 1 2 0 2 0 1 2 2 2 2 1 1 0 1 2 1 0 1 2 2 1 0 0 2 0 1 1 1 1 1 1 1 3 1 2 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 2 2 1 1 1 1 1 2 2 2 0 1 0 2 0 1 1 2 0 1 1 0 1 1 2 0 0 0 1 0 0 2 2 2 1 3 2 1 2 2 2 0 0 1 1 0 2 1 1 0 1 3 0 0 1 2 0 0 3 0 1 0 0 2 1 0 0 1 1 0 0 0 3 1 3 2 1 2 1 1 1 1 1 0 0 0 2 2 1 1 0 0 2 0 1 1 1 0 0 2 1 1 3 0 0 1 1 1 2 0 1 0 1 1 1 0 1 2 0 4 1 2 1 1 1 2 1 3 1 2 0 1 1 2 1 0 1 0 1 2 1 1 2 0 2 1 0 1 0 0 1 0 0 2 2 1 0 0 1 0 0 1 2 1 2 1 0 1 1 0 1 1 1 0 1 1 0 0 2 1 0 2 2 0 1 1 0 0 0 3 1 0 1 1 1 3 1 1 2 1 0 0 0 1 2 0 0 0 0 2 0 0 0 1 0 2 0 3 0 0 1 2 0 0 1 0 0 1 1 1 0 2 2 3 1 1 1 1 1 0 0 3 0 2 0 1 0 1 0 0 2 0 3 1 2 0 2 1 2 0 2 3 0 2 0 0 0 1 0 1 0 2 1 0 1 1 0 0 0 1 1 2 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 2 0 0 0 1 0 1 1 0 4 0 0 0 1 0 1 2 2 1 1 0 1 1 1 1 2 1 0 1 1 2 1 0 0 1 0 1 0 2 3 2 0 1 0 3 0 0 1 1 1 1 1 1 1 0 0 1 1 2 0 1 0 2 1 1 1 0 1 1 0 2 1 1 3 1 2 1 0 2 2 0 0 2 1 1 0 0 1 0 2 2 1 2 0 0 2 2 1 2 1 0 2 2 0 0 1 1 0 1 2 0 0 3 0 1 1 1 1 2 1 0 1 2 0 1 0 1 0 2 0 0 0 0 1 0 1 1 0 0 1 0 0 0 2 1 0 1 0 0 1 0 2 1 1 1 1 1 1 2 0 0 1 2 1 1 1 1 1 1 2 0 1 0 0 1 2 0 1 0 0 1 0 1 2 1 2 2 0 1 2 3 1 1 1 2 1 1 0 0 0 4 1 2 0 0 1 2 0 0 0 2 1 2 0 0 0 1 0 1 2 2 0 2 1 1 2 1 0 0 0 2 2 1 0 0 0 0 0 0 1 0 1 1 1 0 2 0 0 2 0 0 1 1 1 2 0 0 0 0 0 3 1 0 2 1 1 1 0 0 2 2 0 1 2 1 1 2 1 1 0 0 0 1 2 2 1 1 1 1 1 0 1 0 0 0 1 1 0 1 1 1 2 0 2 0 0 0 2 3 1 0 0 1 1 0 1 0 1 0 1 0 1 0 0 1 0 3 3 0 1 0 1 0 1 4 1 0 0 1 0 1 1 0 1 2 0 1 0 1 1 3 2 0 0 0 0 1 0 1 1 1 1 0 1 1 0 0 2 2 0 0 1 1 1 1 1 0 0 0 0 2 0 1 2 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 2 0 1 1 1 1 1 1 0 1 2 0 1 0 1 0 1 2 0 1 0 0 2 0 0 0 0 0 0 1 1 1 1 1 1 1 1 2 0 0 1 1 2 0 1 2 1 0 2 1 2 2 0 1 0 1 0 0 0 1 3 1 1 0 1 1 1 2 3 2 1 0 2 0 2 2 1 0 0 1 0 1 2 1 1 1 0 2 1 0 2 1 0 1 0 3 1 0 2 1 0 1 0 2 0 2 1 0 1 3 0 1 2 0 3 0 0 0 1 0 3 1 2 1 1 0 0 0 1 1 2 0 0 1 3 2 1 2 0 0 1 1 0 0 0 3 1 1 1 0 1 1 1 0 2 2 3 1 1 2 1 0 0 0 0 2 1 1 1 0 0 0 3 1 0 3 0 0 0 1 1 2 0 1 3 1 0 0 1 1 0 1 0 3 0 0 2 0 0 0 1 1 0 1 0 0 2 1 1 1 1 1 0 0 1 1 2 1 1 0 1 0 0 1 2 2 2 2 0 1 0 0 0 0 1 1 0 0 0 2 1 0 2 0 1 1 0 1 0 1 1 1 1 0 0 0 0 1 3 0 0 1 1 1 0 1 2 0 1 2 0 1 0 1 0 1 1 3 2 1 1 3 0 1 0 0 1 0 2 1 1 0 2 0 0 1 1 2 0 0 0 0 1 0 1 0 1 0 1 3 1 1 1 2 1 2 0 0 0 0 0 1 2 1 0 0 2 0 1 0 2 0 2 1 0 2 0 0 2 1 2 2 4 0 0 0 1 4 0 1 2 2 0 2 0 2 1 2 1 1 0 2 0 0 1 2 0 1 0 1 1 1 1 0 0 0 1 1 1 0 1 3 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 3 2 2 1 1 0 2 0 0 0 3 0 2 0 1 0 2 0 1 1 1 0 1 0 0 1 2 0 0 0 1 0 1 1 2 0 2 2 0 0 0 2 0 0 1 1 0 2 0 0 2 1 0 1 0 1 0 0 0 1 3 0 1 1 0 1 1 1 1 3 1 0 0 1 1 0 0 0 3 2 0 0 0 0 1 3 0 2 0 1 1 2 0 1 1 0 1 2 1 3 2 2 1 3 0 0 1 4 1 1 1 1 0 2 0 0 3 2 0 0 2 0 1 2 3 1 1 1 0 0 3 0 0 2 0 1 0 0 2 3 1 0 1 3 1 1 1 0 0 0 0 1 1 0 0 2 2 0 1 0 1 0 0 1 1 0 2 0 0 1 0 3 3 2 0 1 1 1 0 0 1 0 1 0 2 1 2 0 2 2 1 0 0 2 0 1 1 1 2 0 0 2 1 1 0 1 0 0 1 0 2 1 2 0 0 1 1 1 1 1 1 0 1 0 2 2 1 2 1 0 2 2 2 1 0 0 1 3 2 0 1 1 0 0 1 2 2 0 0 1 3 0 0 1 0 0 1 1 1 0 2 1 3 3 0 1 0 1 3 0 0 1 0 1 0 1 0 0 0 3 0 1 2 0 2 0 3 1 1 2 1 1 1 0 1 2 1 1 1 1 1 0 0 1 4 0 0 1 1 0 0 1 2 0 0 0 2 0 2 0 0 1 1 1 2 2 0 0 1 2 0 0 1 0 1 1 3 0 3 0 1 1 2 0 0 1 0 0 2 1 1 2 1 3 1 1 2 1 0 2 1 0 2 0 1 2 1 1 0 2 1 0 0 4 3 0 1 0 1 1 1 1 2 2 0 2 2 1 2 0 1 0 3 0 1 0 1 0 2 1 0 0 0 2 0 1 0 1 1 2 1 0 1 1 3 0 1 0 0 1 1 0 0 0 0 3 1 1 2 2 2 0 1 1 2 2 2 2 1 0 0 2 0 0 0 1 3 1 0 2 1 2 0 2 0 0 0 0 1 0 1 0 0 1 1 1 3 0 2 1 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 2 0 0 2 2 0 0 2 1 2 2 1 0 1 1 0 3 2 2 1 1 0 0 3 1 0 2 2 2 0 0 1 1 2 1 2 0 1 0 2 1 0 1 0 0 1 3 0 1 1 0 2 0 0 2 2 0 0 2 1 0 0 1 2 0 2 0 3 0 1 1 0 1 0 0 0 0 0 3 0 0 1 1 1 0 2 1 1 1 1 2 2 0 1 1 2 3 0 0 1 1 1 1 0 0 2 1 0 1 0 0 2 2 0 0 0 1 0 4 1 0 2 1 0 1 2 1 2 0 2 0 2 1 2 0 1 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 2 1 1 4 1 2 1 1 0 1 3 1 1 2 0 0 1 0 0 1 0 0 1 2 0 2 0 0 0 0 0 0 0 1 1 2 2 1 1 1 0 2 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 2 1 1 3 0 2 0 0 2 0 1 1 0 1 3 1 1 0 1 0 1 1 0 0 1 0 2 0 1 0 1 0 0 1 2 0 4 3 0 0 0 1 2 1 0 0 0 0 0 1 0 0 1 1 1 0 2 0 0 0 1 1 0 2 1 0 2 1 0 1 1 1 1 1 0 0 4 2 1 0 0 2 0 2 2 3 2 1 2 0 0 0 2 0 2 0 5 2 0 1 1 0 0 0 2 1 1 0 1 0 1 1 0 1 1 1 2 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 2 0 0 0 1 0 0 1 2 1 1 1 2 0 0 0 3 1 0 2 1 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 2 1 0 1 0 0 1 0 1 1 0 3 0 0 1 1 0 0 3 2 2 1 1 1 1 2 1 2 0 1 1 1 0 2 0 0 1 1 1 0 0 2 1 0 0 1 0 1 0 1 0 0 0 0 0 0 2 1 1 0 0 3 0 2 1 1 2 1 0 0 4 0 0 2 3 0 0 2 1 1 1 0 1 3 1 0 1 0 0 1 2 0 0 1 0 1 1 2 1 1 2 2 2 0 0 1 0 0 1 1 2 1 3 1 0 0 0 1 2 1 1 2 1 1 1 0 3 2 0 1 1 0 0 2 0 0 1 0 0 2 0 1 0 2 1 1 3 0 0 0 0 2 1 0 1 1 0 1 0 0 1 2 1 0 0 0 1 0 1 3 0 2 1 0 2 0 0 0 0 0 0 2 1 0 2 3 1 1 2 1 0 1 0 3 0 1 2 0 1 1 1 0 0 1 1 2 0 1 1 0 1 0 2 0 0 2 1 1 1 0 0 0 2 0 1 0 1 0 3 2 1 2 1 1 0 0 1 0 1 0 0 0 1 1 1 1 2 0 2 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 2 1 0 1 0 1 0 2 1 0 2 2 0 1 3 1 1 0 0 1 1 1 1 0 0 2 1 0 0 0 1 1 1 1 1 0 0 2 1 0 0 0 2 1 0 0 0 1 1 2 3 1 0 0 0 1 1 2 1 0 0 0 0 2 0 0 0 0 1 0 1 1 1 1 0 2 1 1 2 1 1 0 0 2 0 2 1 0 0 3 2 2 1 1 0 1 1 1 2 0 3 3 1 1 1 0 1 1 1 0 0 0 0 0 1 1 1 1 3 0 1 1 1 0 2 1 2 1 1 4 2 1 1 0 4 2 0 1 1 1 1 0 0 0 3 0 0 2 0 1 1 0 0 1 2 1 0 2 0 0 2 1 1 0 0 1 0 1 4 1 1 3 0 0 0 0 0 1 2 1 1 0 0 1 2 2 1 0 0 0 0 0 0 1 0 1 1 1 2 1 0 0 0 1 1 1 0 1 0 1 1 1 0 1 2 0 3 1 1 0 0 2 1 0 0 0 1 1 1 0 0 1 2 0 0 0 2 2 1 0 0 1 0 0 0 0 1 0 0 2 1 2 1 1 2 0 2 1 0 1 0 2 0 0 0 0 0 1 0 1 0 1 1 0 1 2 1 1 3 1 0 2 0 1 1 0 1 1 2 0 1 0 2 2 1 0 4 0 0 3 1 1 2 0 1 1 3 2 2 1 1 0 2 1 1 0 2 1 0 3 1 0 0 2 2 1 1 1 0 2 1 0 1 1 1 0 2 0 1 0 1 0 0 0 0 1 3 2 0 0 0 0 0 2 0 3 0 1 0 2 1 2 0 2 0 0 1 0 1 0 1 0 2 0 0 1 1 0 0 2 0 1 0 1 3 2 1 2 1 0 1 4 0 0 2 0 1 0 0 1 2 1 2 0 0 1 0 3 2 1 0 0 2 2 0 0 0 0 3 1 2 1 1 1 0 1 1 0 1 3 0 1 4 2 1 0 1 1 1 1 0 0 2 0 0 0 0 3 1 0 0 0 0 3 2 1 0 1 1 1 0 1 0 1 1 0 2 1 0 0 3 1 0 1 1 2 2 0 0 2 2 1 1 0 1 0 1 0 0 0 1 1 2 2 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 0 1 2 1 1 0 1 0 2 2 2 2 1 0 1 2 1 1 2 0 0 0 0 3 0 2 1 1 2 0 0 1 2 1 1 1 0 3 0 1 0 1 2 1 1 0 1 0 0 1 1 2 1 0 1 1 2 1 4 0 1 3 0 1 1 1 0 1 0 1 0 2 0 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 3 1 0 2 1 1 1 1 2 1 1 2 0 1 1 1 2 3 2 4 0 1 1 0 1 0 1 1 0 0 1 0 1 0 0 2 1 1 0 1 2 1 1 1 1 0 0 0 3 1 2 1 1 0 1 2 1 2 1 1 0 0 0 0 1 1 1 0 2 0 0 0 1 0 1 1 0 1 0 1 1 0 3 1 3 0 0 0 1 1 0 0 2 1 0 1 1 1 0 1 3 1 1 3 0 2 2 0 0 1 2 0 0 0 1 3 1 0 1 3 2 1 0 2 2 3 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 3 1 0 0 0 1 1 1 0 0 2 0 1 2 1 0 0 2 0 0 0 0 2 1 0 0 1 3 0 1 2 1 0 3 2 1 1 0 1 0 1 1 0 0 1 4 0 0 0 0 0 1 2 0 1 1 2 1 3 0 1 2 1 0 0 1 0 0 1 3 1 0 0 1 1 1 0 3 1 0 1 1 0 1 0 2 0 1 0 0 1 0 1 1 1 1 0 1 1 2 0 0 0 0 1 2 1 1 1 1 1 2 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 3 1 2 2 0 0 0 2 1 1 1 1 1 3 1 0 3 1 2 1 1 1 0 0 1 1 0 0 0 1 1 0 3 1 0 1 2 0 0 1 2 1 1 1 2 2 1 1 1 0 1 0 1 1 2 1 1 1 1 0 0 0 1 1 0 1 1 1 2 1 2 0 0 1 0 2 1 0 0 1 2 0 0 0 1 0 1 1 0 0 2 1 1 1 0 2 0 1 1 2 0 1 0 0 0 0 2 1 2 0 2 0 1 1 0 0 3 2 0 0 0 1 1 3 2 1 1 0 0 1 1 1 2 1 0 0 0 3 0 0 1 0 2 2 0 0 1 1 2 0 2 1 2 1 0 0 0 2 0 0 2 2 2 2 0 1 0 0 0 1 0 1 4 0 1 2 2 0 1 1 1 0 0 2 3 0 2 0 3 1 1 0 0 0 0 0 4 1 2 3 1 0 0 1 0 0 0 0 1 1 1 0 0 2 1 0 0 2 0 2 0 2 2 0 0 0 1 2 0 0 0 0 0 0 1 0 2 3 2 1 0 0 0 0 1 1 0 1 1 2 0 1 2 1 1 0 1 0 0 1 1 0 1 0 1 2 0 1 1 0 0 0 1 0 1 1 0 1 2 1 0 0 2 1 3 3 2 0 0 1 1 0 1 1 0 2 0 2 1 2 0 2 1 2 2 0 1 0 1 1 1 1 3 1 1 0 2 3 1 1 2 0 0 2 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 0 0 2 0 0 0 2 2 1 0 3 0 0 2 2 1 1 0 1 1 1 2 2 3 0 2 2 0 0 0 0 0 0 1 1 1 1 3 1 0 2 2 0 1 3 2 2 1 1 1 0 1 1 0 2 1 0 2 0 0 2 0 2 0 3 1 2 0 0 0 0 0 2 1 1 1 1 2 1 1 3 1 1 2 0 4 1 1 0 2 1 1 2 0 1 2 2 0 1 1 1 1 1 2 1 1 2 1 0 0 0 0 0 3 0 1 0 1 2 1 1 1 1 1 0 0 2 1 1 3 1 1 2 0 0 0 3 2 1 1 1 2 2 2 0 1 2 1 1 0 2 2 1 2 1 0 1 2 0 1 1 0 0 1 0 1 5 1 0 1 0 0 0 1 2 1 1 1 1 1 2 2 0 1 1 2 2 0 3 1 0 2 2 0 1 1 0 0 5 2 2 0 2 0 2 0 2 1 1 1 2 4 1 3 0 1 1 1 0 1 0 0 2 1 0 1 1 0 3 2 1 0 0 0 0 0 2 2 1 0 2 0 1 2 1 0 0 1 1 2 1 0 2 0 0 2 2 1 2 1 0 1 0 0 0 1 0 1 0 0 1 1 1 4 1 3 1 1 0 0 1 0 0 2 0 1 0 1 0 0 2 2 1 1 0 3 0 2 0 2 1 1 2 0 0 0 1 1 3 0 2 2 1 1 1 1 2 0 0 1 0 1 1 1 0 2 2 1 1 0 3 1 1 0 0 0 1 0 0 1 0 2 0 0 1 1 1 1 1 1 2 2 1 1 2 0 0 2 0 1 3 2 0 0 0 1 1 2 2 1 1 1 1 2 3 1 0 0 0 1 1 1 2 0 2 3 1 0 0 2 0 0 0 1 3 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 2 2 2 1 0 0 3 0 0 2 0 0 1 0 0 0 2 0 0 2 0 0 1 1 0 1 1 0 2 1 1 0 1 2 2 2 1 2 1 0 1 1 1 1 2 1 3 2 1 0 0 3 0 1 1 3 2 1 0 1 0 3 0 1 0 0 0 1 0 0 0 0 1 2 0 3 0 0 0 1 0 0 1 1 1 0 0 3 1 1 0 1 2 0 3 0 0 2 2 0 2 1 2 1 0 1 1 0 0 2 1 2 0 1 0 1 1 0 1 2 2 2 0 0 1 1 1 0 0 0 1 1 1 2 0 1 1 0 1 0 0 0 0 2 0 1 0 2 2 0 2 3 2 1 0 1 2 3 1 2 0 1 0 0 1 1 2 0 0 0 0 2 1 0 1 1 0 1 1 0 3 1 2 2 2 3 0 1 2 0 0 1 2 0 1 1 1 0 1 0 1 2 2 0 0 1 2 2 1 1 1 3 1 1 0 0 1 1 1 1 0 0 0 1 2 2 0 2 1 0 1 1 0 1 2 0 1 1 1 0 3 0 2 0 0 0 1 1 3 0 2 0 1 0 1 2 1 1 0 1 2 1 1 0 0 1 1 0 0 2 2 0 2 1 1 0 1 1 1 0 1 0 1 1 0 0 2 0 0 1 1 0 0 1 1 0 0 1 2 0 2 1 1 0 3 3 1 0 1 0 0 0 2 0 2 2 1 2 0 0 0 0 0 1 0 0 2 1 1 2 0 1 0 0 1 0 1 2 0 1 1 1 1 1 1 1 1 0 0 1 1 2 1 0 0 0 2 1 2 0 1 0 2 2 0 0 1 2 1 1 1 2 2 2 1 0 1 0 2 0 0 2 0 0 0 0 2 1 1 0 1 0 1 1 1 1 1 0 0 0 3 0 1 0 1 2 0 0 2 0 1 2 1 1 1 0 2 0 0 0 1 0 1 0 2 0 0 0 0 1 1 1 1 2 1 0 0 0 0 2 1 0 1 0 1 1 0 2 0 0 0 1 1 0 2 2 0 3 0 3 1 1 1 0 0 1 1 1 1 1 0 1 0 0 3 1 1 1 0 1 3 1 0 1 0 1 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 4 1 0 3 2 1 1 3 0 1 0 0 2 2 1 0 1 0 0 2 0 0 0 2 0 3 3 1 1 2 1 1 1 2 1 1 2 2 0 0 1 2 0 0 0 3 1 0 0 2 2 1 1 2 1 2 1 1 0 0 1 0 1 1 2 0 2 1 0 1 2 2 0 2 0 0 1 2 0 1 0 1 0 1 2 1 0 0 3 1 1 1 1 0 0 1 1 2 0 1 2 0 1 0 2 2 1 0 1 1 0 1 1 5 1 0 0 0 1 1 1 1 2 1 2 1 1 2 0 2 3 2 0 1 2 0 1 0 0 0 0 1 0 0 0 4 0 1 0 1 2 1 0 1 1 0 2 1 0 0 0 2 1 1 0 0 2 2 1 1 2 0 1 2 1 1 0 3 1 0 3 0 1 2 1 3 1 0 1 0 0 2 0 0 0 2 1 0 1 1 0 0 2 1 0 1 2 2 1 0 1 2 1 0 2 1 3 1 2 2 2 2 1 1 2 2 0 1 0 2 3 2 1 1 1 1 3 0 0 0 2 0 1 3 0 0 0 0 1 1 2 1 1 0 0 2 0 0 0 1 2 2 0 0 0 1 0 1 1 2 0 4 0 1 0 0 1 1 1 2 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 1 1 0 2 0 2 2 1 1 1 0 0 0 0 1 1 0 2 0 0 1 1 2 1 0 2 0 2 1 1 1 1 2 0 0 1 1 1 3 1 1 1 2 0 1 1 0 1 1 1 2 0 1 1 0 1 3 1 2 1 0 1 2 1 1 0 2 0 0 3 0 0 2 2 1 1 1 2 2 0 0 2 2 0 1 1 0 1 1 1 0 0 2 0 0 1 0 0 1 0 1 0 0 0 2 2 0 1 3 0 2 1 1 2 1 0 0 2 3 1 0 3 3 0 0 1 1 1 0 0 1 1 2 0 1 1 2 0 2 0 0 0 1 1 0 3 1 1 1 1 2 1 1 0 0 0 1 1 1 0 0 1 0 1 0 2 0 0 0 3 1 2 1 0 1 2 0 1 2 2 0 3 1 3 1 1 0 1 3 3 0 2 1 1 1 1 1 0 0 1 3 1 2 1 0 3 1 1 1 1 0 1 0 1 0 0 1 1 2 0 0 1 0 2 1 1 1 0 2 0 1 0 2 1 3 1 0 0 0 0 1 2 2 2 0 0 1 2 1 0 0 2 0 1 1 3 3 1 0 0 1 0 2 1 2 1 0 0 1 1 0 1 1 0 1 2 0 0 1 1 0 0 0 3 1 0 3 0 0 0 0 2 0 1 0 0 1 1 2 0 0 1 1 1 0 1 1 1 1 0 0 2 1 2 3 2 1 0 1 0 0 0 0 0 2 0 1 5 3 0 1 0 0 2 1 0 0 2 0 0 0 1 1 0 0 0 0 1 4 2 3 3 1 2 3 0 0 1 1 2 0 1 3 2 1 1 2 1 1 2 1 0 1 1 0 2 1 0 0 0 2 1 2 1 0 1 3 0 0 0 2 0 1 0 0 0 0 1 2 1 1 0 1 0 1 1 0 1 0 0 1 3 0 1 0 1 1 1 2 0 0 0 1 2 1 2 1 1 1 1 2 1 2 5 1 2 1 0 1 1 1 2 1 0 0 0 0 0 0 1 2 2 1 1 0 1 1 1 0 0 1 1 1 1 0 2 0 2 2 0 0 1 0 1 2 1 0 0 1 1 1 1 0 0 0 2 1 0 1 2 1 0 2 0 3 1 0 3 3 1 1 0 1 1 2 1 0 1 1 1 2 0 2 1 0 2 1 0 1 2 0 1 1 1 1 1 1 2 1 0 0 0 1 3 0 1 1 0 1 1 1 1 0 1 1 0 0 3 2 1 2 2 0 2 1 0 0 0 0 3 2 0 1 1 2 0 1 1 1 1 1 1 1 0 1 1 1 0 3 0 1 0 0 1 1 1 2 0 1 0 1 1 3 1 0 2 0 0 0 1 0 2 1 2 0 0 1 1 1 1 0 4 2 0 0 2 1 2 1 1 0 1 1 1 0 2 1 1 0 1 3 1 0 1 1 4 1 0 0 1 0 0 0 0 0 0 0 1 2 1 1 0 3 1 3 1 0 0 1 2 0 2 2 1 2 0 1 0 0 0 2 0 0 0 2 2 1 1 0 1 0 1 1 1 1 0 2 1 0 0 1 0 1 0 1 0 0 0 1 3 2 0 2 1 0 1 0 0 1 3 2 2 1 0 2 1 4 1 2 0 0 2 2 0 0 0 1 0 0 0 1 2 1 0 0 1 0 1 3 2 0 1 1 1 0 1 2 1 0 1 2 2 4 2 1 0 1 1 0 2 1 2 0 1 2 1 0 1 2 2 1 0 0 0 0 3 2 0 0 1 0 1 2 1 2 1 3 1 1 0 0 2 2 0 1 1 2 0 0 1 1 1 2 0 0 0 3 1 2 1 2 1 1 1 0 0 2 0 1 1 1 2 1 1 0 1 0 2 3 2 1 0 0 1 0 0 1 3 0 1 0 0 0 1 1 1 1 0 2 1 0 2 1 1 2 1 2 2 2 1 0 1 1 2 3 0 1 0 1 3 1 0 1 0 1 0 3 3 2 0 1 1 0 0 2 0 2 0 1 0 1 0 1 1 0 0 0 0 2 4 1 3 2 1 1 0 0 2 1 0 2 1 2 1 1 0 0 2 1 0 1 0 2 0 0 1 2 2 0 0 2 2 0 1 3 1 2 1 0 0 0 2 1 0 3 1 0 1 1 1 0 1 1 2 1 1 1 0 0 0 1 1 1 2 0 0 2 0 1 0 2 1 1 0 2 0 0 0 2 0 0 0 1 2 1 1 1 1 2 2 0 1 0 0 0 0 2 1 0 0 3 0 1 0 1 1 1 2 1 1 1 1 0 1 1 2 0 2 1 0 1 0 0 1 1 1 0 2 0 0 2 2 0 1 1 1 0 2 0 1 1 1 2 1 0 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 2 1 3 1 0 0 2 1 1 1 1 1 1 0 0 1 0 0 2 1 1 1 1 1 1 2 0 0 0 1 1 2 1 0 1 2 0 1 2 2 1 0 0 0 1 1 2 0 0 0 1 2 3 0 1 0 1 0 0 1 0 1 0 0 1 1 1 2 0 2 2 0 1 2 1 2 2 3 0 0 2 0 3 0 2 3 1 1 1 1 0 1 1 0 1 1 1 0 1 1 3 1 1 2 1 3 2 2 1 2 1 1 2 0 2 1 0 1 0 0 2 2 0 0 1 2 0 2 0 1 1 0 0 1 1 2 0 1 0 0 2 0 0 1 0 0 2 0 1 1 0 1 3 1 0 0 1 1 1 1 1 2 2 2 2 1 1 0 0 1 2 1 2 0 1 2 2 0 0 2 1 3 0 1 0 0 0 1 2 0 0 1 0 0 1 0 1 1 2 0 1 2 1 1 0 0 0 0 0 1 1 2 1 0 0 1 0 0 1 0 1 1 2 0 2 2 1 0 0 1 2 1 1 1 2 1 2 1 1 1 0 2 2 2 1 1 2 2 1 0 1 2 0 2 0 1 2 0 0 0 1 0 3 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 2 0 0 0 1 3 1 0 1 0 2 1 0 1 0 0 0 1 0 2 0 2 1 0 2 0 1 2 1 1 2 1 0 2 2 1 0 0 3 0 0 0 1 1 1 1 1 2 0 0 1 2 4 0 3 0 2 1 0 0 2 1 1 1 1 1 0 0 0 2 3 2 2 0 0 1 2 1 2 1 0 0 1 1 4 1 0 0 4 1 0 1 0 1 1 0 1 1 0 1 1 2 1 0 1 0 0 1 1 1 0 2 1 2 0 1 1 3 1 3 4 0 1 2 1 1 0 0 1 0 2 0 2 1 2 1 0 1 1 1 1 1 0 2 2 2 0 1 2 1 1 1 1 1 0 4 0 1 1 2 1 0 0 0 2 0 1 3 2 0 2 0 2 0 1 0 2 0 1 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 1 1 2 1 2 3 0 1 1 2 1 0 1 0 0 0 1 0 0 3 0 0 2 1 0 1 0 2 1 1 1 0 1 2 1 1 1 1 1 0 2 0 0 2 0 1 0 0 1 1 1 1 3 1 0 0 1 0 2 1 1 1 1 0 0 0 0 0 2 0 0 3 1 0 2 0 0 1 1 2 0 1 1 2 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 2 0 3 3 1 0 2 0 0 1 1 0 0 1 0 1 2 0 2 5 0 1 1 1 1 2 3 2 1 1 1 1 1 0 0 1 1 1 3 0 0 1 0 1 1 1 0 1 0 2 2 1 1 0 1 0 3 1 0 1 0 0 2 1 2 1 2 1 0 1 0 0 1 1 0 1 0 1 1 1 0 3 2 2 3 1 1 1 0 1 1 1 1 3 2 1 2 2 0 2 1 1 1 1 0 1 0 1 1 2 0 0 1 2 2 1 0 0 0 2 2 1 1 3 1 0 0 1 0 1 1 2 2 0 2 0 1 1 2 0 2 0 0 0 0 2 1 0 2 0 1 2 0 1 2 0 1 1 1 1 2 0 0 1 1 1 2 2 1 2 0 1 0 1 1 1 0 2 2 1 0 0 1 1 1 0 1 2 1 1 2 1 0 0 0 0 0 1 0 1 1 1 2 1 1 0 0 1 0 1 0 1 0 0 2 1 0 0 1 2 1 1 2 1 0 0 1 1 2 1 0 0 2 0 1 2 1 0 1 1 0 2 2 1 0 0 0 0 2 0 1 1 0 1 0 0 0 2 1 1 1 1 0 2 4 0 0 1 1 0 1 2 1 2 0 2 2 1 2 0 2 3 1 1 3 0 1 2 1 1 0 1 1 1 0 1 1 3 0 1 1 1 0 0 1 1 1 2 0 2 1 1 0 0 1 2 0 1 2 0 0 2 0 1 0 1 0 2 1 0 0 1 1 0 2 1 1 0 1 1 1 0 0 1 1 1 1 1 0 0 1 0 4 0 0 2 0 1 0 3 2 2 2 1 0 1 1 0 1 0 0 0 2 0 2 1 0 0 0 1 1 1 0 1 2 0 3 1 1 1 1 0 0 1 3 2 0 2 0 3 0 0 2 1 0 1 2 0 0 0 1 1 1 0 0 0 1 1 1 1 0 0 0 3 1 0 0 3 0 0 0 3 0 1 2 0 1 1 0 0 2 0 1 1 1 1 1 0 2 0 0 1 0 1 0 1 1 0 2 0 1 4 0 1 1 2 1 0 1 1 2 0 2 1 2 1 2 2 2 0 0 1 0 1 1 2 1 0 0 1 0 2 1 3 1 0 3 0 0 1 2 1 1 2 2 1 2 0 1 3 1 2 2 2 3 1 1 0 0 0 0 0 0 0 2 0 0 1 2 1 0 1 0 1 1 0 1 0 2 1 0 0 1 3 0 1 2 2 2 1 1 0 0 0 2 3 1 0 3 1 0 1 1 2 1 2 0 0 1 3 3 0 0 1 0 1 0 1 0 1 2 1 1 0 2 1 0 3 0 2 2 1 3 0 1 1 0 0 1 0 2 0 1 2 1 2 0 1 2 1 2 0 1 1 0 0 0 1 0 0 3 3 3 3 0 0 0 1 1 1 0 2 0 1 1 1 1 1 1 3 0 1 1 2 0 0 2 0 0 1 4 1 0 1 1 2 1 0 0 0 2 0 2 1 0 2 3 1 1 1 2 1 0 0 0 0 1 1 2 0 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 2 2 0 1 1 1 2 1 2 1 1 1 1 1 0 1 1 0 2 0 0 2 1 0 0 1 0 0 2 1 0 1 1 2 1 0 1 1 1 1 3 0 1 1 0 3 1 1 0 1 1 2 1 2 2 0 1 0 1 1 1 1 2 1 1 1 0 1 3 0 0 1 1 0 0 0 1 0 1 0 1 0 2 2 1 0 1 0 3 0 3 1 1 1 1 1 1 1 3 0 0 2 1 0 1 0 0 0 3 1 1 0 1 0 0 0 1 1 1 0 3 2 2 0 3 0 0 0 1 1 1 4 1 1 1 0 3 1 1 1 0 1 0 0 0 0 1 1 0 1 2 2 1 2 0 1 2 0 0 0 0 1 0 1 1 0 2 1 0 2 0 2 1 0 1 1 1 2 0 0 0 2 1 0 0 1 0 1 1 0 0 1 1 0 1 1 1 1 0 2 0 1 0 0 1 2 2 0 2 0 3 1 1 0 1 0 0 0 2 1 0 1 0 2 1 1 1 0 1 2 2 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 2 1 0 1 2 1 0 3 0 1 1 0 0 1 1 0 0 1 0 0 1 2 0 3 1 3 0 1 1 1 2 0 1 2 1 0 0 2 1 0 0 1 1 4 0 3 0 1 1 1 1 3 1 3 1 0 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 3 1 2 0 0 2 0 1 0 0 1 0 2 2 0 0 0 2 1 0 1 2 1 3 1 0 1 1 2 2 0 1 3 0 0 0 1 5 0 1 0 0 0 1 0 3 1 1 2 2 2 1 0 2 1 3 3 2 1 0 0 2 0 2 2 2 0 0 1 2 0 2 1 0 1 2 0 3 1 1 0 0 3 1 0 1 0 0 0 1 0 0 0 2 0 0 0 1 1 0 1 1 1 1 0 1 1 3 0 0 1 2 2 1 0 1 0 2 1 2 1 1 0 1 1 1 0 0 3 2 1 0 2 1 0 0 0 0 1 1 2 0 0 1 1 1 2 1 0 1 2 3 3 0 1 1 0 2 0 1 1 1 0 0 0 1 4 0 2 1 3 0 1 1 1 1 1 0 0 2 0 1 2 1 1 2 1 1 1 3 2 0 0 0 1 1 2 2 4 2 1 0 1 3 1 2 0 0 1 0 1 1 2 1 1 0 0 0 2 1 1 3 1 0 0 2 2 1 0 2 0 1 2 1 1 2 0 0 2 0 0 1 0 1 2 1 0 1 1 1 3 0 1 1 2 3 0 1 0 4 2 1 0 3 2 2 0 2 0 3 1 1 1 0 0 2 1 1 5 1 1 0 1 2 2 2 0 1 1 2 0 1 1 1 0 1 2 2 0 0 0 0 0 3 1 0 0 0 0 0 1 3 2 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 1 0 1 1 0 2 1 1 0 1 2 1 0 2 1 1 2 0 0 3 4 3 1 1 1 1 1 2 0 3 1 0 1 1 1 0 0 1 4 1 1 1 2 0 2 0 0 2 0 2 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 2 0 1 2 1 0 1 0 1 2 1 1 0 3 0 1 0 1 0 0 0 2 1 1 2 4 0 0 1 1 0 1 0 2 1 1 1 2 2 1 2 0 2 0 0 1 0 2 2 2 0 0 0 2 1 2 0 1 3 0 1 0 1 0 1 1 2 0 1 1 1 0 3 0 3 1 2 2 0 1 0 0 0 1 1 2 0 2 2 1 1 1 0 0 1 0 3 0 0 1 0 0 1 1 0 0 2 1 0 0 1 0 2 1 0 0 1 1 2 2 2 1 2 1 0 3 0 1 2 3 1 1 2 2 2 0 1 2 2 2 0 1 2 0 1 0 0 1 0 2 1 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 4 1 1 0 0 2 0 0 0 2 2 0 0 0 2 0 1 1 0 3 0 0 3 1 0 0 0 1 2 3 0 0 0 2 3 0 2 1 0 1 0 2 0 0 1 2 1 2 1 1 1 1 2 3 0 0 0 0 1 0 1 2 1 1 0 0 0 1 3 2 2 0 0 1 2 2 1 2 2 0 0 1 2 1 1 2 1 1 2 1 1 0 1 0 0 0 0 0 2 0 2 1 1 2 1 0 0 1 2 1 0 3 0 0 0 1 1 1 0 3 2 2 0 1 1 0 1 2 1 1 3 0 3 1 0 1 0 1 3 2 1 0 0 1 0 2 2 1 1 0 0 0 0 1 0 1 2 0 2 2 1 1 2 0 1 0 3 0 0 1 2 0 0 0 0 1 0 0 2 1 0 3 2 3 0 2 0 1 1 0 0 3 1 0 1 0 1 3 0 2 1 0 2 0 0 2 0 1 3 1 0 3 0 1 0 2 2 2 0 0 1 2 0 0 0 1 1 1 0 2 0 1 0 0 4 1 0 0 0 0 3 0 1 2 1 0 0 1 2 4 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 1 2 1 0 1 0 0 1 2 1 1 4 1 0 1 1 1 0 0 0 1 1 3 2 0 0 2 1 1 0 1 0 0 0 3 2 0 1 1 2 0 1 2 2 2 0 2 1 1 1 1 0 1 1 0 1 3 0 0 0 0 0 0 0 0 2 1 2 3 0 0 2 2 0 2 0 0 2 0 1 2 1 0 0 0 3 0 1 1 2 1 2 0 1 1 0 0 0 3 1 0 1 0 1 0 2 0 1 1 3 2 2 1 1 0 1 0 1 0 1 0 1 2 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 2 0 1 0 2 2 0 0 1 0 1 0 0 1 1 1 1 0 1 2 0 0 0 2 1 2 4 2 1 1 0 1 1 0 1 3 1 1 1 0 3 1 0 0 1 2 2 0 1 3 0 0 0 1 1 0 1 0 1 0 0 3 1 0 0 0 1 2 0 1 2 0 0 1 1 3 1 1 0 1 0 3 2 0 2 1 0 0 1 0 0 1 1 2 1 0 0 0 1 0 2 1 1 0 2 1 1 2 0 3 0 0 0 1 1 0 0 0 2 2 2 0 1 1 0 1 1 0 1 0 0 1 4 1 0 1 1 0 2 1 1 0 0 2 0 1 0 0 1 0 2 1 3 0 2 0 0 2 0 0 0 0 0 0 1 1 1 0 1 1 2 2 0 2 0 2 1 1 1 1 0 1 1 0 1 0 2 0 1 2 0 0 1 0 2 2 2 0 0 3 1 2 2 1 0 1 0 1 2 1 1 0 1 1 1 2 1 2 0 0 0 1 1 1 1 2 1 1 0 2 0 2 2 1 1 1 2 1 0 1 1 2 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 3 0 0 1 0 1 1 1 0 3 2 3 0 1 3 0 1 1 1 1 2 2 4 0 0 1 0 2 0 0 2 0 1 0 2 0 0 1 0 0 1 0 1 0 0 2 0 2 1 1 0 1 2 0 2 3 1 2 2 2 1 1 1 1 0 3 0 1 1 0 0 1 0 1 0 0 3 1 3 1 3 0 1 1 0 1 1 1 0 3 1 0 1 1 0 2 1 0 1 1 1 0 1 0 3 1 0 1 2 1 1 0 2 2 0 0 1 0 1 1 0 2 1 2 1 2 0 1 0 1 2 1 0 1 0 2 2 1 1 2 2 1 1 0 0 0 3 2 1 0 2 0 3 1 0 1 0 1 0 1 1 0 3 0 1 1 2 1 2 2 2 1 2 0 0 2 1 1 2 0 0 0 0 0 3 1 0 1 1 1 1 2 0 0 1 0 1 3 1 3 1 0 1 0 0 1 1 0 2 0 0 2 0 0 1 1 1 3 1 0 0 2 0 2 1 1 1 2 2 1 0 1 2 1 1 1 1 0 0 1 0 1 1 1 1 0 4 3 1 0 0 0 0 0 1 3 0 0 0 2 2 2 1 2 0 0 2 2 0 1 0 1 1 2 1 1 1 1 1 2 2 1 1 1 1 0 0 2 1 0 1 1 0 0 1 0 3 2 1 0 0 2 2 1 1 1 4 2 0 2 1 0 2 0 1 1 1 0 2 1 0 1 0 2 1 0 1 0 0 2 1 0 2 1 0 1 0 2 1 0 0 1 1 1 0 1 1 1 2 2 1 1 0 1 2 1 1 2 3 2 2 1 1 1 1 1 0 2 0 0 0 2 2 2 1 1 0 0 0 2 1 0 2 1 1 2 1 3 1 3 2 1 1 1 3 0 1 2 0 1 2 1 0 2 1 1 2 1 2 0 0 3 0 0 2 3 1 3 1 0 1 0 0 4 1 1 2 1 2 0 0 1 0 1 1 0 1 0 0 2 2 2 1 0 1 2 2 2 2 1 2 2 0 1 1 0 0 1 2 1 0 1 1 0 2 0 1 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 1 2 1 1 1 4 0 1 1 2 2 0 0 1 1 1 0 0 0 0 0 0 1 2 0 1 1 0 0 2 0 1 1 1 2 0 0 2 1 3 0 0 0 0 0 2 0 0 2 0 4 1 0 0 1 0 0 1 3 0 3 0 2 2 0 2 0 0 1 0 2 1 0 0 1 2 0 0 1 0 0 0 0 1 2 1 0 2 0 1 2 2 0 1 0 3 1 0 0 0 0 1 3 1 0 2 1 2 1 1 0 2 0 2 2 2 3 2 1 1 1 0 1 2 1 2 0 0 2 1 2 3 0 0 1 1 3 2 2 2 1 0 3 0 1 3 0 1 1 0 0 1 0 0 1 1 0 1 0 0 3 0 1 0 1 0 1 1 2 0 1 1 1 0 1 0 0 1 2 0 0 1 1 0 1 1 1 0 1 1 1 0 0 2 3 1 0 0 2 1 1 1 1 2 1 3 0 0 0 1 0 1 0 2 0 2 1 3 2 2 1 0 2 0 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 2 3 1 1 0 1 1 1 1 1 2 2 0 1 0 1 3 2 0 4 0 0 1 2 2 1 1 2 0 1 0 1 1 0 0 0 1 1 0 0 0 1 2 1 1 1 0 2 1 0 1 0 0 1 0 2 1 3 2 0 0 2 0 1 0 2 3 0 0 1 1 0 0 0 1 0 1 1 0 1 1 2 1 0 0 1 0 1 1 1 0 1 1 2 2 0 0 2 1 2 0 1 0 2 1 1 1 1 0 1 0 0 2 1 1 4 0 1 0 0 1 1 0 1 0 2 0 2 1 0 0 2 1 3 0 0 0 0 0 0 1 2 1 1 0 1 1 3 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 2 0 0 1 0 0 1 1 3 1 2 0 1 0 0 0 0 0 2 0 0 2 1 1 1 2 0 1 1 0 0 0 1 0 0 1 0 2 1 1 0 1 0 2 2 2 2 1 1</t>
+    <t>NIG(30.035033763068757, 15.56414355862023, -0.4253418861506737, 35.38987571364453)</t>
+  </si>
+  <si>
+    <t>34 12 24 33 7 9 19 16 16 36 30 27 16 6 12 28 28 24 24 23 31 20 9 23 33 33 23 23 14 20 20 13 13 17 31 23 3 27 10 10 31 20 17 16 20 10 24 21 15 27 24 24 20 13 17 24 13 17 17 6 20 14 31 20 28 24 16 20 6 27 16 27 19 19 10 19 17 38 24 37 34 10 20 24 21 17 7 21 28 10 27 27 24 14 31 24 29 13 13 19 31 26 23 14 45 16 18 11 21 20 28 23 34 21 14 20 29 12 20 28 7 21 13 18 9 16 20 26 26 24 28 17 38 20 19 30 34 30 40 24 24 13 30 24 18 26 16 23 23 29 38 16 10 25 13 27 24 20 17 17 17 6 23 28 18 13 24 13 30 16 20 20 3 21 23 20 20 6 23 44 23 17 26 30 35 16 30 24 30 10 12 35 25 13 24 17 23 24 16 15 16 20 24 20 35 29 19 23 23 16 16 10 21 27 24 10 19 31 16 17 24 15 17 39 30 27 9 17 20 10 7 18 19 21 24 20 24 28 23 20 20 30 17 22 19 20 31 26 16 10 9 20 31 12 27 16 34 14 10 24 12 21 9 28 26 17 19 41 6 7 17 21 16 10 3 26 31 17 17 24 13 10 34 24 34 20 12 17 24 26 17 24 35 15 28 31 27 14 18 34 24 27 16 20 12 31 18 14 3 29 13 13 24 20 7 9 27 14 21 16 24 16 27 23 15 27 20 13 20 26 17 17 19 20 24 19 34 17 7 30 26 27 25 28 24 10 12 20 20 27 25 17 19 38 15 38 20 20 23 17 31 17 20 18 23 27 10 15 11 21 17 19 31 21 31 14 24 16 19 24 9 28 28 20 28 28 27 24 9 14 16 10 23 27 24 14 17 24 20 10 23 17 15 20 16 16 27 26 17 20 13 20 9 30 6 24 14 14 17 27 20 10 17 37 24 14 21 34 20 10 24 16 17 26 16 31 10 21 17 22 10 13 3 24 16 18 27 10 17 9 19 9 40 14 27 6 20 21 37 19 34 37 27 17 27 27 22 30 28 19 26 10 14 15 16 27 29 37 12 23 17 26 16 20 20 26 20 41 17 38 17 10 35 38 29 29 13 27 12 9 13 13 30 28 10 17 16 17 22 12 20 27 29 19 27 25 34 17 13 20 14 27 16 17 26 20 17 24 17 25 15 14 21 17 31 27 27 14 8 22 20 27 7 14 27 10 31 26 27 13 28 13 20 22 24 23 0 37 13 28 35 21 12 26 38 20 22 3 23 21 31 37 27 34 19 26 24 31 27 26 14 24 13 20 26 28 20 14 24 12 34 17 17 30 3 21 27 23 14 13 27 22 29 21 23 21 24 10 23 13 34 3 17 14 21 29 21 6 24 10 19 13 20 38 24 10 30 19 28 24 22 23 21 7 9 24 27 29 30 22 24 18 35 28 24 16 21 12 13 7 13 16 27 17 10 17 20 27 28 30 20 23 21 30 13 20 29 7 10 12 19 35 28 19 30 13 16 24 28 30 16 27 14 19 16 13 30 24 17 17 38 20 19 24 31 16 14 27 16 19 23 13 10 6 23 49 21 14 27 26 24 27 24 24 39 17 17 29 9 15 24 24 17 9 17 23 44 24 21 24 9 21 23 17 27 31 6 26 35 0 20 26 16 8 29 22 24 10 24 7 15 27 23 31 18 30 26 20 17 17 24 31 27 33 21 10 31 24 17 27 21 27 20 23 27 12 6 20 13 11 16 27 22 24 24 13 14 20 14 12 17 10 13 33 27 25 3 24 23 11 11 12 17 13 20 10 27 16 7 24 6 15 26 6 34 34 10 27 34 41 40 21 21 14 34 20 13 23 14 31 17 6 19 26 20 23 21 6 25 28 28 29 21 3 17 26 31 32 22 15 6 20 24 10 10 14 17 14 24 29 19 21 17 27 7 9 9 16 31 30 26 42 27 20 21 13 21 38 14 27 20 30 20 23 29 24 23 22 37 20 30 3 19 20 19 31 6 38 24 20 23 16 23 20 26 17 10 24 27 34 34 13 19 22 25 29 14 6 6 21 7 24 6 20 37 21 10 21 11 17 17 6 13 26 31 15 23 21 24 30 16 16 28 37 13 26 28 28 26 12 18 29 47 15 6 14 7 35 13 27 9 30 20 18 21 24 23 13 30 10 20 23 30 17 30 14 17 15 23 34 17 27 15 17 27 35 37 21 20 26 12 13 21 26 31 24 24 31 14 23 6 24 17 17 20 16 24 42 28 24 23 34 6 16 10 13 24 21 30 22 31 17 17 3 27 9 29 17 6 10 23 14 34 17 26 30 16 17 20 9 16 27 17 17 24 17 10 20 10 27 21 13 19 22 35 22 24 31 21 28 21 17 28 21 31 24 10 19 19 22 19 31 41 24 22 24 24 17 27 24 20 27 17 17 27 13 21 23 20 17 14 19 29 31 23 16 17 21 10 24 21 43 13 37 17 31 26 24 20 20 18 22 26 17 16 24 27 13 20 6 22 24 34 17 21 31 14 20 24 16 26 16 21 16 24 16 17 10 11 22 22 17 31 23 23 6 20 6 13 20 21 10 31 26 32 19 23 19 20 20 41 6 36 24 20 10 12 21 23 21 34 10 16 21 22 12 42 17 32 27 24 21 20 17 10 35 21 15 37 5 13 19 32 18 24 34 13 24 34 17 17 23 9 26 10 20 30 17 19 10 17 28 45 27 30 17 27 13 20 10 29 37 10 3 24 22 13 17 20 17 21 30 27 18 23 31 24 37 13 17 30 19 16 26 14 22 20 17 17 17 25 27 17 10 12 31 6 32 21 30 14 28 34 24 13 13 37 24 20 19 17 34 16 20 13 16 13 27 17 20 43 25 17 12 30 17 16 20 16 9 7 28 20 37 17 24 13 13 17 27 26 17 13 10 20 16 31 23 16 49 31 18 23 14 16 27 33 28 21 19 6 20 20 10 7 16 20 16 17 21 3 16 20 19 24 38 24 16 16 23 9 23 24 9 26 22 21 6 31 26 24 10 19 30 19 28 10 24 35 16 27 42 15 17 31 14 6 27 34 24 19 21 27 6 21 20 24 10 31 23 27 20 17 14 13 23 23 10 20 9 20 30 19 14 25 13 23 20 25 13 24 23 38 20 23 14 19 15 20 10 30 27 16 18 24 18 21 23 26 34 12 21 14 44 17 34 34 11 13 23 20 19 13 28 12 16 27 15 21 20 17 17 9 16 24 24 17 21 33 14 20 16 30 24 20 21 26 9 17 33 22 24 24 26 20 20 19 24 16 30 3 27 16 27 30 27 16 16 27 17 23 10 18 9 24 7 20 17 19 19 27 17 19 22 19 21 24 33 13 16 12 16 23 10 19 17 18 16 31 18 31 21 17 16 31 24 30 38 22 21 23 28 16 27 22 13 20 34 20 13 35 13 17 33 49 23 40 20 22 23 9 34 9 34 23 26 30 19 17 24 30 19 17 19 20 19 24 34 7 31 10 30 31 34 16 33 28 19 20 20 14 10 28 27 17 17 17 23 10 21 24 35 10 37 30 23 21 23 20 16 14 17 16 23 24 41 23 23 20 20 19 20 10 24 16 17 31 20 18 13 16 14 20 20 24 26 16 17 28 24 27 17 31 17 7 29 7 45 21 17 3 16 20 17 27 14 13 10 9 6 28 28 17 20 28 21 34 10 38 6 16 14 14 23 17 17 27 31 19 35 10 20 22 12 31 27 14 13 17 21 26 20 23 16 28 18 13 25 13 15 17 19 30 7 21 19 12 31 17 29 17 41 38 31 17 13 23 16 24 23 11 27 17 26 37 41 13 17 20 28 17 14 20 17 18 13 24 24 9 20 10 28 16 13 12 7 17 35 17 26 20 20 16 6 42 31 31 19 26 23 20 20 27 19 10 19 13 23 31 10 31 17 6 27 17 20 24 16 16 19 16 20 22 16 23 35 3 20 16 17 20 20 21 17 10 24 13 34 25 22 24 40 27 21 17 16 24 21 24 13 17 23 23 20 27 12 18 24 31 22 17 17 17 10 17 24 35 24 30 31 25 33 26 12 24 20 12 24 24 16 17 30 33 20 24 23 26 24 20 15 17 17 27 30 26 36 16 23 20 21 21 23 19 23 13 21 20 40 27 19 17 19 16 16 16 10 17 23 31 15 6 10 30 27 17 34 21 9 17 23 30 38 22 23 17 16 10 28 17 15 6 16 24 34 14 6 16 38 14 17 25 19 3 24 27 30 10 14 21 14 13 27 38 6 37 16 23 17 6 23 17 10 9 27 27 37 16 28 21 30 18 17 29 25 10 28 17 27 21 23 3 13 20 23 16 31 26 34 24 30 28 7 17 27 15 20 14 21 10 27 20 38 20 21 20 20 20 20 3 24 30 34 33 20 34 30 24 10 20 13 21 6 11 16 22 20 36 27 14 23 24 20 31 42 34 23 27 16 17 24 24 19 27 34 27 17 17 34 16 28 10 10 30 25 31 19 12 24 30 17 0 23 12 34 26 17 10 24 20 17 31 20 23 30 20 24 34 17 10 14 34 26 17 27 24 10 13 31 28 17 16 30 21 21 38 30 24 31 23 10 14 14 33 26 31 19 30 28 43 17 30 24 20 10 9 24 37 17 21 23 27 17 31 20 11 23 11 34 24 24 13 24 16 14 24 28 30 23 27 23 21 15 20 14 21 33 24 17 23 13 23 17 20 23 38 9 15 24 23 27 3 13 34 28 20 28 13 21 23 38 42 10 30 27 16 27 16 24 20 17 24 20 27 31 23 28 33 13 31 7 32 0 3 23 20 21 28 37 13 7 34 16 19 20 17 10 32 17 13 27 13 17 27 20 9 14 16 31 25 27 17 14 27 16 27 19 21 23 33 13 12 19 34 22 34 16 17 33 37 34 17 15 27 17 17 31 36 17 20 10 26 6 24 21 31 16 21 20 21 10 20 19 13 13 20 38 31 24 37 13 20 27 16 10 9 30 20 3 10 23 24 31 17 28 20 22 17 31 27 16 16 32 15 31 15 23 24 6 19 30 23 44 30 10 10 10 20 17 17 27 24 13 24 13 14 19 19 13 38 19 20 13 33 6 20 14 31 38 10 30 32 38 21 33 31 17 27 23 14 9 17 38 22 34 23 13 17 28 31 17 17 34 20 22 9 29 13 31 35 26 23 16 20 16 24 14 10 34 13 17 31 18 14 24 27 17 37 24 28 22 6 24 23 20 3 36 34 16 31 27 17 12 31 16 28 26 34 25 10 19 23 20 9 17 20 20 24 17 20 12 10 3 20 17 14 18 17 17 17 13 15 27 19 16 44 24 42 10 23 29 6 13 20 23 31 27 27 20 24 27 29 21 35 16 13 30 13 10 16 24 13 9 27 24 16 13 14 17 17 14 13 29 20 37 24 15 19 38 30 17 13 14 33 29 36 25 10 34 24 20 13 21 19 24 23 17 18 10 23 19 37 25 24 30 20 24 16 27 20 24 7 19 24 25 7 19 23 27 7 13 20 19 9 20 14 37 27 23 24 23 38 16 7 23 14 3 27 21 23 31 13 6 16 35 10 27 20 20 31 16 29 13 32 21 31 27 10 10 14 20 11 31 26 24 15 10 17 30 9 24 24 3 20 24 24 24 23 23 20 31 22 38 17 20 20 16 7 12 20 16 27 3 23 24 21 38 34 25 24 36 18 16 27 26 13 14 26 27 6 20 17 29 16 19 26 27 18 20 31 20 21 10 16 24 18 27 24 19 27 26 24 24 27 22 16 24 15 17 20 13 26 10 13 13 17 27 19 13 10 19 10 24 16 20 37 10 41 26 10 48 14 20 41 16 17 9 21 9 31 21 16 16 23 16 20 19 18 27 24 22 14 24 34 17 17 9 20 3 24 23 20 0 16 25 23 34 20 25 38 27 23 36 38 12 31 27 16 21 13 20 29 17 20 13 24 29 17 22 10 21 23 19 16 34 24 20 17 26 20 22 20 12 17 12 27 22 19 26 16 10 16 16 23 30 24 20 20 28 18 24 10 12 31 27 11 24 3 30 32 28 14 23 24 20 31 30 14 24 13 17 24 17 26 19 10 20 20 16 27 16 19 21 22 23 31 24 10 27 24 10 24 10 37 10 13 24 16 20 23 26 33 28 27 20 13 13 27 45 34 20 14 17 26 30 31 31 17 19 17 27 14 27 9 16 14 12 38 23 20 3 20 21 13 16 16 37 12 17 20 22 30 9 9 40 16 9 17 30 6 20 30 10 16 13 26 23 26 16 35 23 28 16 19 31 20 27 30 30 30 27 52 27 14 16 6 24 21 13 31 12 38 23 26 27 17 23 27 7 14 17 24 27 21 14 23 12 30 30 6 13 14 13 8 20 20 18 26 26 23 27 10 31 16 14 13 22 24 24 16 20 6 23 15 7 21 20 13 31 31 16 34 19 23 6 20 21 31 21 28 24 10 17 34 13 3 17 22 34 9 27 17 22 21 28 7 27 20 17 26 14 28 41 24 33 39 16 18 6 24 30 20 27 13 20 20 28 24 20 18 24 9 10 34 17 32 34 27 31 14 17 34 21 13 19 17 17 22 26 27 9 23 38 34 14 9 14 24 37 13 22 20 13 38 28 19 24 24 14 30 10 20 27 30 30 25 20 24 33 13 32 17 30 41 27 29 17 28 16 34 13 3 17 13 27 17 27 34 6 0 26 20 24 13 20 10 16 24 24 23 24 10 35 17 20 19 24 6 24 17 20 19 34 18 13 20 23 20 15 24 10 24 35 18 33 23 23 34 19 18 34 20 14 18 24 37 17 24 24 20 31 24 9 24 22 19 13 6 31 21 31 23 10 11 21 37 20 16 15 31 41 13 16 16 23 13 14 19 3 6 21 15 17 27 16 24 34 10 20 9 27 41 10 14 29 31 3 27 24 22 17 20 24 18 16 13 13 10 30 26 24 14 29 24 19 16 29 24 6 23 19 48 22 21 37 21 24 31 21 21 26 14 31 25 18 30 7 31 20 13 22 23 17 22 29 13 26 20 7 10 34 13 33 16 10 23 49 23 19 10 22 22 27 16 34 13 30 24 20 29 26 31 24 42 20 27 28 17 22 23 12 13 3 20 19 27 27 23 27 21 17 7 10 23 19 20 24 16 20 27 27 24 10 19 16 14 21 20 27 24 14 41 18 16 34 16 22 28 36 16 24 10 19 24 20 6 23 17 20 23 26 17 21 24 7 12 33 34 20 17 15 13 30 15 17 16 30 20 3 28 27 14 30 33 23 31 23 34 38 17 30 20 30 13 14 20 34 24 27 30 16 9 19 10 14 15 9 31 23 23 21 7 12 23 16 28 16 14 20 15 27 17 23 9 7 23 30 27 27 9 20 17 30 26 22 13 24 9 17 24 27 28 27 24 13 22 19 13 17 19 33 19 13 24 27 3 20 22 12 3 6 16 34 21 13 31 23 31 36 27 28 24 16 28 16 29 23 20 3 17 6 27 28 17 17 13 10 21 17 17 17 23 6 20 10 14 27 34 20 34 12 7 35 30 17 19 23 31 24 21 16 16 13 23 31 20 10 10 3 17 24 27 38 26 12 21 17 31 24 24 20 31 17 22 11 16 21 20 32 31 13 12 6 14 17 14 25 30 17 17 7 24 13 16 6 16 17 22 17 27 21 23 30 25 30 20 20 16 24 30 21 27 24 34 31 17 15 38 26 27 20 17 12 31 20 30 13 31 17 24 17 32 17 7 30 16 16 16 38 9 7 17 21 9 10 20 24 30 24 17 20 28 20 27 7 17 14 41 20 24 20 16 24 24 27 13 11 20 27 23 33 22 21 20 16 14 25 10 30 13 25 13 29 20 27 17 27 16 30 18 24 39 13 12 28 21 24 26 24 34 28 20 38 26 17 27 21 19 23 16 27 13 17 12 27 23 20 7 26 22 35 24 27 22 10 13 30 12 21 21 30 24 15 20 34 17 13 21 38 28 31 31 45 35 24 23 26 20 27 13 44 13 17 17 16 42 33 44 9 14 27 14 34 17 24 20 23 16 23 11 13 26 38 17 18 17 8 16 41 10 17 12 21 27 3 25 24 24 6 31 20 17 22 34 12 29 14 28 13 34 31 23 20 20 40 10 23 27 24 17 31 23 24 27 20 17 28 26 22 20 13 29 20 10 17 23 21 21 10 17 3 18 21 8 31 27 39 33 14 23 20 17 7 27 17 28 31 13 17 16 9 29 23 27 16 24 14 0 27 19 34 16 10 41 24 27 16 9 28 29 31 17 21 20 15 17 20 17 16 27 17 14 24 28 20 22 38 10 9 26 13 13 20 9 10 23 6 20 45 31 14 20 17 30 31 23 10 16 20 20 44 20 41 19 17 24 41 13 19 7 17 24 16 43 19 35 27 9 28 9 28 24 20 20 17 24 22 21 34 16 27 17 18 12 23 24 10 13 24 24 25 27 24 41 38 13 27 28 17 20 40 17 22 28 12 23 28 20 10 19 16 17 17 30 9 13 25 23 20 10 16 41 10 28 19 23 10 27 18 21 19 31 20 28 27 7 23 17 17 19 19 9 31 34 20 17 14 6 17 31 23 10 24 14 30 13 14 20 19 20 20 26 21 27 13 20 16 20 10 20 15 21 20 21 20 19 16 18 20 20 27 20 31 18 15 21 16 10 21 27 19 16 16 27 17 14 6 22 16 31 17 21 36 20 23 7 28 18 27 16 7 13 26 7 16 23 6 14 25 30 10 10 21 19 41 10 21 21 40 15 12 19 13 17 14 20 20 20 13 17 17 12 16 24 40 29 19 13 30 28 21 24 42 30 45 9 20 29 12 24 24 18 10 16 20 24 17 17 12 28 20 3 14 13 31 23 17 17 21 24 23 24 21 21 17 26 24 18 26 28 0 22 35 24 30 9 19 20 31 33 16 38 19 10 16 30 21 20 27 20 34 14 21 20 39 34 24 41 7 30 21 27 27 10 37 10 23 14 23 27 16 12 13 20 8 17 31 19 16 13 17 17 20 14 34 34 32 44 16 29 17 31 27 16 35 28 20 24 23 41 28 13 17 21 22 20 23 22 14 20 3 24 32 28 9 20 31 23 21 34 23 13 26 20 19 16 17 19 13 24 23 31 23 34 28 30 10 19 17 24 13 9 7 13 16 20 13 35 28 16 30 23 34 30 19 34 27 16 22 22 20 12 23 10 13 31 19 23 27 37 25 37 17 21 31 17 16 10 16 24 31 16 24 13 21 27 16 23 23 17 27 19 3 28 38 33 23 26 25 23 20 27 22 23 26 24 15 41 31 24 24 7 23 24 30 23 24 6 37 24 20 10 13 19 31 24 16 6 24 27 27 20 23 17 20 6 26 16 33 25 20 27 13 30 16 27 14 10 13 10 31 16 28 32 12 7 20 0 31 34 23 27 37 16 28 24 13 38 20 19 12 10 17 34 27 40 30 21 28 7 13 13 19 12 27 13 25 3 24 21 30 13 36 26 27 17 23 22 7 15 13 20 17 44 31 13 26 19 14 13 20 40 20 21 28 20 42 37 34 22 17 14 16 21 19 23 30 10 27 27 20 22 23 30 19 7 37 35 22 6 19 24 42 33 10 37 7 9 20 26 21 14 21 31 17 25 30 19 12 38 26 30 26 30 14 27 27 31 21 13 26 34 20 20 14 10 6 31 20 14 30 17 10 34 38 21 33 26 15 12 20 37 24 6 3 14 14 33 26 38 3 25 21 44 24 17 26 20 17 34 25 17 27 34 19 19 31 13 21 13 17 16 20 17 52 28 16 41 31 20 17 17 9 14 20 15 30 16 17 20 30 10 35 33 28 37 12 30 24 20 20 18 13 14 20 38 20 16 22 16 23 21 7 20 24 21 20 17 27 26 27 13 24 13 13 10 13 27 21 28 19 13 9 7 38 28 9 27 26 20 16 13 19 24 9 19 20 30 27 7 14 16 26 13 20 26 3 16 23 23 14 20 17 21 25 15 16 20 27 20 21 13 20 27 31 20 23 19 6 20 14 24 14 16 24 42 19 17 23 20 38 13 10 28 23 35 16 13 20 18 23 13 17 29 19 29 13 10 17 7 27 38 27 24 24 30 41 13 24 14 21 19 14 28 30 17 17 24 16 13 24 19 13 20 30 11 27 17 37 27 33 7 37 20 16 20 26 7 16 17 14 20 19 14 30 13 24 14 24 25 20 18 20 13 30 9 37 31 14 28 24 23 7 27 16 27 3 26 28 35 9 27 23 7 21 21 29 26 35 3 28 27 23 22 23 29 24 24 13 26 23 27 28 32 19 23 30 11 23 6 27 23 26 24 20 23 24 23 17 13 23 9 12 39 16 13 25 20 20 23 14 31 13 35 7 28 24 15 17 29 26 24 20 22 23 16 42 28 20 27 27 24 27 14 24 13 10 20 21 17 26 13 17 17 29 14 26 32 34 15 22 16 8 16 14 9 19 11 3 26 9 23 24 37 23 33 17 7 23 20 10 24 28 27 34 13 10 14 12 16 21 14 31 27 20 21 9 17 33 13 15 20 24 17 21 22 27 17 7 30 31 21 23 23 24 10 18 23 20 13 9 35 19 9 13 41 21 29 26 14 20 37 37 17 12 26 21 14 23 31 24 13 21 30 12 13 23 23 34 29 10 27 24 26 17 20 27 27 20 29 16 14 20 28 20 27 31 16 24 10 37 19 16 19 20 17 6 26 21 13 13 22 13 16 21 17 16 21 17 7 30 19 18 21 14 13 21 3 34 24 24 10 17 22 16 19 24 13 24 17 10 23 13 37 10 13 27 21 24 27 18 24 24 24 9 22 16 45 13 44 12 31 16 16 10 30 13 10 26 10 20 9 23 19 23 28 17 19 24 21 13 34 21 14 24 13 17 23 14 14 10 20 9 10 20 20 18 9 40 20 27 13 27 19 10 19 27 6 23 24 19 21 10 16 28 16 27 27 21 17 27 17 10 19 13 17 10 17 20 23 17 19 20 29 10 24 31 30 21 37 20 23 27 6 38 17 20 13 22 17 15 13 33 24 21 21 28 21 24 20 26 20 31 19 6 27 20 13 23 25 17 14 31 12 19 23 26 9 27 17 3 22 20 20 21 20 34 31 22 13 9 23 17 19 27 26 45 20 7 19 38 21 17 50 17 27 41 11 13 26 16 15 38 21 23 19 22 27 6 19 24 31 19 37 34 29 20 10 38 24 6 16 28 19 20 13 21 17 17 28 24 27 21 21 28 16 20 7 9 17 16 10 32 20 10 21 24 23 34 20 23 16 16 23 40 23 13 29 21 6 33 24 21 31 10 14 24 24 20 17 17 7 27 17 20 13 27 16 17 13 13 21 12 38 31 28 21 23 38 20 9 26 24 24 16 7 14 23 10 20 17 19 23 19 14 13 31 20 13 20 27 3 27 20 20 21 14 23 10 6 31 38 22 13 23 26 13 21 17 20 20 33 19 7 27 10 3 13 17 3 40 21 26 10 24 24 30 10 6 19 16 28 10 17 17 20 24 23 20 14 34 30 19 17 30 23 16 16 16 16 31 26 29 38 17 17 22 19 27 10 26 26 20 20 41 29 30 24 41 13 22 10 34 20 10 34 20 16 27 20 23 20 29 20 31 27 16 19 13 21 19 26 28 14 20 26 9 17 19 20 20 27 10 13 20 16 25 19 17 17 17 10 22 17 13 20 24 24 24 26 30 17 26 14 17 31 35 34 21 20 37 42 18 10 16 28 17 20 19 27 31 29 24 24 27 24 20 19 13 7 21 24 21 3 13 26 13 13 13 7 31 15 13 10 27 13 16 20 19 19 21 16 16 23 10 19 6 19 31 10 14 12 11 16 27 20 10 25 21 10 17 17 23 13 17 14 14 19 16 9 21 9 28 7 48 10 24 10 21 27 13 36 15 0 16 16 15 22 23 13 19 33 22 20 35 20 24 20 14 12 26 30 24 20 32 14 21 20 34 13 16 7 16 24 21 14 10 10 24 26 10 34 19 27 33 17 17 27 27 23 21 6 14 30 14 10 24 30 24 20 26 13 16 14 13 9 17 16 20 17 13 20 31 24 27 8 29 16 24 27 16 25 37 35 19 19 9 31 25 30 7 21 14 16 15 28 24 24 26 6 20 28 25 17 31 17 14 31 21 24 15 14 26 21 17 40 20 9 17 24 13 13 13 23 9 27 21 31 14 13 34 7 24 24 3 24 13 24 17 10 16 16 16 11 23 17 17 36 30 31 30 10 26 25 38 24 25 24 9 14 17 20 10 27 27 10 17 6 0 33 19 12 20 21 24 31 31 31 20 23 35 13 24 16 20 43 6 20 28 31 17 27 25 17 23 27 28 14 13 20 23 13 17 9 20 27 24 28 14 17 16 32 10 19 27 23 37 26 12 24 17 16 22 27 10 29 11 7 25 19 28 28 22 28 16 16 23 28 23 24 17 6 16 20 31 11 7 23 17 28 3 24 19 23 17 21 13 13 24 9 14 23 10 23 27 27 27 24 24 17 20 31 38 29 31 17 19 20 16 23 21 12 21 23 13 37 33 20 20 16 41 23 10 7 18 23 6 30 17 10 27 13 10 24 27 32 28 31 25 13 19 10 20 35 17 27 23 10 24 30 22 26 21 34 29 19 33 6 27 28 24 14 17 20 10 24 47 19 13 20 19 20 13 37 14 21 34 10 44 34 20 24 45 17 13 16 28 13 28 10 30 20 22 17 9 45 7 19 34 20 27 28 16 18 24 33 10 24 27 16 20 9 46 20 16 19 12 19 30 16 31 13 27 31 10 14 20 29 41 23 17 21 27 9 20 7 23 14 24 30 14 23 28 21 14 14 14 14 19 31 21 13 28 19 31 23 17 31 19 26 27 38 24 35 28 18 24 21 23 17 19 27 23 7 36 27 26 14 24 14 20 27 31 12 14 13 27 20 23 28 3 10 19 15 17 38 18 31 31 15 24 31 28 14 16 24 13 19 16 26 13 21 31 26 35 27 24 17 31 29 24 12 27 24 23 24 38 12 24 17 28 12 24 30 23 13 16 26 30 24 19 17 15 21 5 13 23 13 38 24 24 7 9 17 23 37 37 21 20 20 14 20 23 27 40 22 23 13 16 37 9 20 13 26 34 10 16 20 23 19 33 24 20 10 16 16 16 23 22 23 30 24 41 21 16 24 20 19 13 21 24 20 31 31 17 37 37 13 7 10 20 27 8 16 28 21 21 38 17 10 16 37 26 23 28 35 16 20 34 24 20 13 23 19 41 20 7 17 31 11 27 27 10 18 9 24 17 31 27 37 9 24 19 38 28 21 6 24 26 23 23 20 20 16 6 21 14 23 23 31 13 17 23 30 14 34 6 20 36 26 16 17 24 16 30 29 13 28 26 21 13 30 34 35 27 40 17 24 10 17 11 9 25 17 24 31 24 28 34 12 13 12 26 19 59 21 17 23 6 22 12 31 33 19 23 27 17 20 16 40 30 14 23 27 34 28 30 23 16 17 21 45 13 47 31 7 16 24 26 7 26 10 29 17 20 17 16 20 27 27 13 10 3 8 17 17 18 7 17 3 19 30 31 31 27 30 34 9 16 27 17 26 22 23 3 28 30 17 32 38 30 25 10 16 12 16 20 20 34 21 29 31 18 14 26 27 20 13 10 26 23 13 16 17 22 37 27 21 18 31 10 20 23 14 37 9 12 23 41 19 27 27 15 13 31 35 24 19 20 35 14 27 6 21 38 24 14 16 49 27 24 23 14 16 34 19 15 17 24 17 21 48 16 19 24 23 13 19 3 44 17 23 13 10 26 27 20 23 13 17 12 23 24 23 38 41 17 16 21 22 11 27 13 24 25 17 20 18 13 17 23 24 14 44 27 23 21 24 27 17 13 7 21 24 9 27 21 28 31 20 25 28 10 30 21 24 22 30 14 18 14 13 9 37 14 14 0 23 23 24 3 27 19 19 24 24 17 17 27 26 20 14 9 17 13 22 15 27 28 14 20 27 21 41 27 20 16 19 6 21 17 27 21 16 33 21 14 30 23 31 14 16 23 31 14 16 21 10 23 17 12 12 27 21 17 27 16 17 20 3 16 21 17 27 20 14 9 20 6 20 22 36 6 17 13 34 17 23 38 33 16 31 34 24 29 23 9 19 28 9 25 42 16 26 31 20 13 10 23 17 27 24 24 20 33 41 35 30 30 31 19 19 21 45 30 36 16 27 37 7 13 21 20 24 10 27 8 24 20 31 13 16 13 30 20 27 24 15 23 24 14 19 21 19 38 17 34 44 24 7 10 14 30 26 26 19 34 6 31 23 40 22 22 34 24 25 20 17 34 26 22 0 23 6 30 20 27 31 10 26 17 18 28 26 16 13 24 15 24 42 14 20 35 14 28 3 11 48 16 3 9 25 27 30 23 30 24 9 15 21 44 30 17 13 33 14 31 27 13 23 20 37 27 13 19 17 27 23 19 21 21 20 22 14 23 17 21 10 12 31 12 12 38 19 20 35 30 28 23 7 37 22 28 13 20 13 16 17 17 20 17 14 29 16 28 24 40 17 38 34 31 15 24 13 21 47 19 23 21 28 16 20 12 23 10 17 17 14 25 29 23 6 30 21 26 23 22 17 31 10 23 19 17 23 14 17 32 22 28 28 20 30 21 20 27 28 20 16 6 27 34 17 20 11 6 31 10 34 23 24 31 10 12 13 30 13 41 10 22 21 24 33 36 24 11 20 3 12 20 33 3 16 28 20 28 23 13 27 23 28 28 13 12 16 31 20 34 13 21 33 16 34 14 24 21 17 20 6 38 9 22 9 26 17 21 10 30 28 16 21 17 24 27 35 38 41 24 16 23 31 21 17 23 17 19 17 13 31 0 21 17 23 27 20 14 30 17 24 21 9 31 3 13 17 23 19 28 23 21 27 14 20 31 18 31 30 31 24 45 20 22 20 19 14 28 20 14 20 31 13 30 32 24 16 20 16 18 22 27 23 14 15 34 2 27 35 23 17 16 9 3 21 24 12 13 23 31 25 7 28 19 30 21 34 10 20 14 31 20 31 19 10 16 28 13 7 24 40 33 27 24 16 28 20 10 21 28 16 9 23 19 26 27 14 16 14 34 14 25 17 25 17 17 21 24 38 37 39 23 17 31 8 17 13 27 22 24 20 27 18 13 27 20 10 26 38 27 24 21 17 19 17 23 37 28 6 16 27 36 19 17 16 27 38 16 10 10 14 7 34 35 28 24 10 27 26 6 10 14 10 27 22 17 20 7 22 16 16 6 17 24 28 20 16 10 24 13 34 7 14 14 21 7 17 25 26 20 20 26 27 45 17 20 27 26 24 10 31 11 20 18 20 14 23 27 30 31 20 20 26 13 24 10 16 22 30 21 9 23 26 16 21 27 31 9 12 19 24 14 24 22 20 27 20 9 22 10 16 27 14 14 17 23 19 15 16 41 15 30 20 19 0 24 24 19 13 23 13 23 6 22 7 14 27 24 30 32 14 16 27 34 17 27 14 21 24 14 21 17 18 23 10 37 14 20 27 20 24 15 7 17 24 13 23 20 27 27 30 14 23 31 26 19 17 13 28 40 31 16 23 20 20 37 30 23 24 21 24 23 24 3 14 30 13 6 20 24 17 14 16 27 11 38 17 23 31 14 16 13 30 21 21 16 9 28 24 20 14 16 7 16 12 23 20 27 23 7 21 14 7 17 27 21 21 18 13 16 20 17 20 31 37 26 13 31 20 22 19 10 30 6 24 23 30 44 26 17 37 20 20 14 10 17 6 13 20 40 23 21 17 16 14 7 30 17 28 30 34 20 24 19 19 13 17 20 20 9 20 30 10 23 23 22 34 26 17 27 21 26 17 26 28 14 24 27 13 33 20 10 37 12 23 28 22 16 20 14 7 26 16 17 23 20 35 31 9 27 21 17 38 29 28 13 23 31 21 7 20 35 21 24 27 28 29 24 33 24 14 13 30 31 24 38 33 15 10 16 24 10 15 20 17 24 16 38 17 27 10 24 27 15 32 27 20 34 19 16 23 18 37 17 17 17 22 16 7 20 23 14 16 34 19 31 14 34 16 23 10 31 13 20 13 24 17 24 17 23 27 11 26 21 19 24 17 7 20 24 24 22 17 31 30 21 0 27 21 14 16 13 33 13 28 16 31 22 6 26 31 21 26 30 16 31 20 16 42 19 10 15 23 23 14 19 21 9 20 34 20 23 13 22 14 16 20 20 17 20 16 31 26 16 30 30 17 7 34 14 22 22 7 23 24 16 14 23 17 14 30 18 17 24 27 20 23 28 21 27 23 24 19 20 26 20 20 27 23 13 42 30 14 27 6 24 31 20 9 19 38 9 23 40 13 17 17 21 16 37 34 34 41 27 16 23 10 23 26 23 23 20 2 31 7 16 19 19 30 20 25 27 13 30 13 44 12 29 31 17 22 37 33 16 20 26 20 24 20 24 24 23 16 31 9 16 27 20 30 20 24 14 20 13 27 17 19 28 30 23 17 10 21 17 15 14 14 17 23 6 20 17 10 10 27 6 30 34 28 13 23 9 31 7 10 26 24 16 10 24 12 23 16 31 17 24 20 16 24 21 41 17 24 17 16 17 10 31 19 23 34 22 26 34 34 13 20 20 16 30 9 27 16 24 20 12 17 37 17 31 17 16 3 23 16 23 20 10 31 17 15 30 17 17 27 19 17 20 20 20 27 26 15 10 22 20 34 17 36 25 17 39 24 10 23 24 6 34 21 21 14 14 27 23 14 20 38 13 23 13 13 34 20 9 30 31 27 30 20 24 34 27 22 24 20 16 31 24 17 6 16 13 23 20 9 21 27 16 20 24 20 10 20 26 18 37 17 14 21 20 27 20 33 16 33 6 13 30 28 9 16 17 20 24 13 31 9 16 37 10 13 9 12 19 13 17 27 31 7 41 19 24 16 16 20 13 24 16 7 26 37 24 10 13 24 17 24 20 26 16 20 10 21 26 27 29 20 17 15 14 21 21 10 17 6 23 21 13 16 22 24 16 28 16 25 23 31 21 31 27 24 17 18 17 31 21 16 24 21 24 18 21 20 12 20 16 23 24 9 26 33 19 20 26 18 23 24 20 17 26 14 27 17 20 26 15 34 24 17 20 24 17 17 12 24 35 20 3 26 16 33 6 33 17 27 6 14 28 21 9 34 13 13 19 13 30 20 6 17 16 6 22 20 16 19 20 7 17 10 31 13 22 10 20 33 23 31 22 24 42 21 20 16 13 21 26 37 14 20 6 17 23 15 26 21 13 10 3 13 33 17 31 22 6 21 20 24 13 16 18 14 26 19 33 14 24 20 27 9 27 15 39 20 19 30 20 21 25 27 11 16 24 17 17 13 21 3 24 20 7 30 23 12 41 10 27 27 14 17 20 20 19 24 29 32 14 23 24 19 31 21 0 9 30 24 24 3 9 27 27 14 21 27 11 31 17 23 10 22 38 34 27 11 10 17 23 34 13 44 20 23 28 24 3 28 16 27 19 31 24 6 27 27 13 27 15 14 12 18 23 23 10 30 33 23 15 13 31 23 10 12 10 26 16 28 16 31 31 19 35 6 17 27 10 20 14 15 22 24 21 31 20 29 18 22 31 13 31 24 19 23 21 10 31 19 16 15 23 20 24 28 12 14 12 6 28 23 23 34 20 14 13 13 21 28 25 13 27 26 6 26 26 23 17 21 34 10 27 18 16 17 19 23 20 30 24 13 31 14 17 11 10 14 17 6 27 17 24 17 17 22 16 25 14 17 13 26 22 17 23 19 21 20 31 23 16 13 21 19 12 24 20 24 20 27 24 27 22 37 26 28 12 17 28 21 24 17 23 21 11 6 42 19 50 20 23 19 50 33 13 23 24 13 26 45 27 10 26 12 31 20 20 13 24 17 19 7 24 9 26 9 11 24 29 26 14 20 23 30 24 16 23 38 20 34 27 10 20 13 17 10 18 20 24 14 23 7 20 12 21 26 25 24 27 17 23 17 24 31 16 37 17 24 44 24 9 16 3 17 20 34 27 34 31 10 19 17 18 37 37 17 14 21 31 32 21 20 13 27 37 23 26 20 21 23 27 21 23 23 26 10 13 14 10 6 26 21 27 23 29 17 16 27 11 23 25 29 17 22 17 34 28 19 21 16 10 22 34 44 21 38 17 20 21 26 13 17 25 13 19 13 7 9 20 16 23 27 38 21 3 16 14 6 16 38 20 9 23 37 28 10 30 26 17 17 28 24 17 16 28 26 17 16 3 23 20 30 37 13 13 19 16 20 16 17 12 17 16 29 16 17 20 15 12 12 25 13 12 26 12 6 36 36 26 16 17 40 13 20 38 3 27 14 24 14 18 27 13 35 27 31 21 22 17 26 21 27 10 15 38 31 21 17 20 41 19 19 30 20 12 22 21 20 30 19 27 30 28 31 27 24 6 10 13 21 37 21 27 14 24 16 31 28 16 26 15 37 13 16 12 16 10 21 27 20 17 16 6 6 23 21 18 13 27 15 34 16 20 17 28 23 17 24 33 10 13 20 17 18 20 6 13 18 16 30 20 26 3 6 20 37 20 29 27 24 24 32 26 32 10 31 37 13 37 7 10 6 14 17 16 13 17 20 35 7 29 13 22 20 17 17 11 7 20 20 31 17 30 9 13 10 17 17 21 27 24 23 13 23 28 10 38 23 29 13 16 17 19 23 24 20 20 21 21 20 20 14 23 10 24 10 7 27 7 19 23 34 14 22 23 13 13 13 35 10 33 13 30 30 14 10 17 31 30 6 17 41 19 33 19 17 40 20 29 24 27 41 27 3 16 27 27 19 21 10 15 20 23 13 45 28 29 17 21 28 20 2 16 21 21 20 38 26 13 29 13 13 21 20 26 10 26 28 18 12 38 35 24 34 21 34 20 27 35 26 30 23 24 27 27 23 3 26 7 16 23 29 17 31 41 28 19 17 9 7 31 20 29 17 17 14 6 38 33 29 24 21 27 0 18 27 20 9 45 28 20 10 31 30 23 9 31 26 25 17 13 16 21 27 17 24 25 6 14 27 10 16 26 24 14 27 38 33 26 28 24 23 38 9 28 37 15 27 10 14 14 19 14 27 16 21 27 20 18 30 27 20 20 17 20 24 19 24 27 17 15 21 32 27 20 9 20 34 16 33 26 28 27 23 16 28 19 16 24 23 24 20 24 21 14 17 27 10 25 9 11 9 19 15 10 16 19 22 17 28 16 16 12 20 20 12 14 26 45 24 23 17 23 21 29 26 28 21 20 6 10 17 13 27 26 17 9 24 17 17 23 13 16 21 24 24 21 27 20 27 27 20 27 21 15 30 26 24 28 29 21 6 25 10 9 14 24 27 21 34 34 20 24 23 19 17 24 10 23 10 33 7 10 40 24 20 13 16 9 21 16 44 34 45 24 27 28 27 24 12 14 18 24 24 26 16 37 16 3 7 12 13 9 31 19 30 30 17 28 6 13 20 33 27 25 22 34 20 33 12 14 23 17 19 31 23 33 14 23 17 12 17 21 16 33 14 20 18 20 20 26 20 37 21 13 21 10 24 24 22 24 20 28 3 20 41 21 23 34 26 24 17 24 10 29 31 25 16 22 24 27 31 7 23 14 24 23 21 19 35 29 20 16 23 25 20 35 18 23 3 18 16 9 29 13 19 24 16 15 23 25 10 6 3 21 17 21 24 28 7 27 24 21 10 21 31 26 17 24 21 22 24 16 25 14 20 13 20 22 10 17 13 38 14 17 30 11 3 14 23 20 19 26 19 13 27 10 30 12 19 13 23 17 27 13 24 33 30 13 10 17 17 15 21 34 14 38 30 20 21 24 21 18 21 41 23 18 13 22 10 10 26 13 23 27 20 23 18 21 28 14 14 20 20 29 27 10 12 10 17 21 0 23 23 20 15 22 21 23 25 22 20 16 18 16 3 21 38 14 27 14 19 22 6 17 20 6 13 20 20 20 31 21 7 16 10 20 23 14 28 31 20 6 10 21 27 24 18 25 27 17 30 40 14 31 7 26 24 23 27 17 19 9 16 48 24 40 3 17 20 21 16 23 14 17 16 34 35 17 24 20 29 20 17 37 27 23 24 24 34 28 24 29 27 20 16 38 20 16 19 31 31 20 14 14 30 7 42 17 13 20 7 20 34 23 27 19 21 23 17 13 33 18 17 13 13 21 23 14 37 21 19 23 16 7 16 9 31 13 30 19 23 16 29 3 25 24 14 31 31 6 13 17 13 31 22 24 26 17 24 13 23 19 37 23 26 27 34 9 7 16 27 27 23 23 9 20 21 14 19 14 20 14 24 19 13 7 27 36 21 15 28 17 34 10 24 23 23 20 13 20 28 24 26 20 28 33 23 23 26 13 22 20 30 24 22 13 24 33 30 24 17 24 27 10 37 17 18 23 28 17 17 28 13 28 14 24 31 35 17 27 20 20 24 21 19 21 26 27 32 34 24 20 22 20 10 16 16 14 31 43 37 47 27 16 24 17 13 30 21 28 22 14 20 23 20 20 15 27 16 45 20 20 8 10 19 24 21 16 17 26 20 32 9 18 17 21 10 17 31 20 9 31 23 16 20 12 28 6 12 20 9 6 13 33 17 17 19 16 17 17 17 20 17 29 21 17 23 23 3 24 31 34 13 26 20 19 30 17 27 13 25 16 34 13 27 15 13 24 23 13 17 13 22 22 37 23 31 15 19 14 24 20 7 20 24 34 10 12 13 22 35 24 17 38 22 33 15 35 23 20 24 19 9 11 19 38 13 24 20 17 16 26 10 13 29 9 19 3 13 13 24 6 12 31 30 24 34 28 34 14 30 34 28 27 17 17 24 24 27 21 13 27 17 15 24 20 27 29 23 18 31 14 14 21 34 29 28 19 24 28 27 23 13 12 24 17 31 12 13 23 21 23 45 10 25 27 24 7 14 26 21 28 10 20 20 10 24 3 13 21 24 13 32 21 14 34 32 24 20 27 13 24 19 17 13 24 10 13 20 12 13 20 20 24 27 17 17 13 24 7 21 26 24 31 16 20 27 17 20 33 17 20 37 31 38 7 31 16 19 44 0 29 10 28 47 3 21 28 24 24 20 17 10 22 10 17 14 28 14 33 38 24 17 13 27 37 21 21 24 37 7 11 24 24 20 23 27 21 20 7 23 17 17 17 24 13 20 17 38 13 14 14 23 13 17 9 17 17 20 37 17 27 31 27 16 9 27 19 19 17 26 34 24 17 13 16 14 14 10 17 16 33 9 20 28 24 26 7 17 17 34 9 20 13 12 16 29 41 13 13 9 3 10 3 19 10 27 6 6 33 3 17 17 27 15 28 20 23 27 17 14 16 7 14 27 21 20 34 19 14 24 20 13 24 39 17 9 18 14 21 27 38 30 17 27 26 16 27 9 15 19 25 3 24 10 14 20 3 12 26 26 23 23 28 38 17 37 24 17 23 10 19 27 10 16 28 16 17 6 23 23 20 11 26 17 16 10 3 23 23 25 29 19 21 17 21 34 19 13 27 31 28 34 21 23 6 20 14 14 31 15 27 24 16 10 17 20 20 13 10 27 20 28 28 20 7 20 15 20 27 13 35 31 17 19 19 34 10 23 20 16 21 16 31 16 3 24 17 20 16 18 36 17 21 27 10 15 26 26 26 23 24 24 26 24 24 24 3 31 23 28 29 22 31 24 13 10 23 27 27 17 41 24 6 31 28 7 24 27 34 13 20 14 3 18 9 19 27 29 27 35 17 21 7 13 10 30 30 17 33 10 28 9 34 19 24 26 13 31 24 20 10 24 22 20 22 24 17 20 28 3 17 17 24 10 21 13 27 30 24 20 29 20 22 23 33 22 17 10 28 31 24 19 36 17 35 20 17 13 23 30 20 17 3 9 13 9 16 24 16 17 17 7 20 7 20 27 35 17 10 20 14 10 15 15 6 26 21 23 20 24 28 26 40 14 17 7 27 20 13 14 10 24 7 34 19 23 24 26 20 25 27 21 38 13 15 17 23 30 33 23 34 27 13 9 16 27 13 15 13 15 24 9 10 10 18 27 20 16 12 28 10 10 29 12 20 26 26 6 37 22 16 41 3 23 15 17 26 21 41 17 22 20 23 26 0 27 24 38 27 24 12 34 40 9 26 18 31 13 31 15 27 19 16 24 24 35 9 20 7 23 21 20 12 24 24 23 11 26 28 20 13 10 15 23 23 20 13 35 35 28 21 9 15 22 24 17 26 23 24 19 27 27 30 25 19 23 17 27 31 24 27 18 27 21 27 6 26 24 27 11 6 16 22 38 13 24 24 24 17 3 31 24 17 29 19 34 21 37 18 23 21 23 24 10 21 29 24 20 7 17 24 21 17 49 23 2 10 34 18 17 21 16 12 14 24 40 41 20 23 27 20 31 36 6 12 23 28 17 16 10 13 10 9 26 17 17 20</t>
+  </si>
+  <si>
+    <t>GAM(231.58767714379897, -43.84235624034569, 0.2890635550223916)</t>
+  </si>
+  <si>
+    <t>26 24 26 21 24 21 23 29 29 24 27 23 21 23 20 26 24 22 20 21 24 24 19 20 31 31 25 29 27 24 18 25 17 22 29 26 15 26 15 18 22 24 34 21 19 17 25 25 24 21 26 23 19 19 27 25 22 23 22 24 20 26 21 20 19 24 16 20 16 27 16 27 22 21 19 22 18 17 30 28 29 17 19 27 26 18 21 22 28 24 23 25 23 25 19 28 19 19 20 27 32 19 23 31 30 23 17 19 29 20 24 22 23 29 22 23 24 22 18 22 15 20 17 22 18 23 20 22 23 28 23 23 23 23 30 23 21 29 31 23 22 16 25 20 23 19 30 23 28 20 28 23 14 17 22 23 24 28 16 28 19 22 24 24 18 23 26 22 26 16 25 27 26 20 26 24 20 17 19 30 23 17 15 23 26 21 25 20 22 22 20 22 29 23 17 21 23 21 24 28 22 23 19 24 31 26 17 23 22 20 30 25 24 20 24 14 14 34 15 21 18 18 27 26 27 26 29 18 18 20 20 18 20 22 20 27 22 29 27 21 31 28 25 23 26 19 20 21 24 26 15 22 22 25 21 18 21 24 15 20 19 24 18 23 22 31 15 32 19 24 27 35 30 25 30 20 22 23 25 24 32 21 31 24 25 19 20 30 20 23 21 25 31 25 22 16 15 19 25 21 22 21 18 21 21 35 25 25 24 22 23 24 21 29 23 18 25 22 19 26 30 25 23 19 26 26 21 23 20 22 22 23 22 21 24 17 27 23 19 31 33 26 24 18 20 16 15 17 24 25 23 27 30 25 22 26 21 23 14 21 25 20 25 17 21 26 20 25 24 22 19 20 20 28 27 20 23 28 27 13 15 24 20 15 28 18 23 25 21 24 26 17 28 20 25 24 27 22 21 11 33 17 26 27 27 24 17 25 17 14 26 28 28 21 15 27 25 21 21 21 22 22 22 28 27 24 21 22 20 27 22 23 32 21 23 25 14 14 25 23 12 25 12 29 19 21 27 23 22 18 18 21 28 28 35 21 19 18 25 29 28 26 28 24 25 24 27 24 30 27 25 29 17 25 29 26 24 30 22 22 20 25 19 27 24 17 29 35 31 27 23 23 30 27 30 27 21 29 20 29 23 24 26 24 19 22 28 28 24 22 18 21 24 26 24 29 29 27 22 22 26 24 26 21 20 27 28 23 23 25 22 24 23 19 28 31 32 25 21 31 23 30 24 13 24 18 26 26 24 22 20 24 13 25 27 31 22 28 28 20 18 29 16 31 28 21 25 21 27 23 23 27 30 28 22 17 21 27 25 29 19 24 18 17 26 25 22 22 21 27 28 20 26 26 24 21 21 19 20 28 30 19 20 24 19 28 22 17 27 27 22 30 27 20 28 22 32 22 16 31 27 14 25 27 27 16 26 23 26 25 15 20 18 22 20 23 28 17 28 22 19 18 26 23 15 26 25 27 18 21 19 20 20 25 22 18 21 26 22 29 20 21 19 26 19 23 19 27 15 26 24 24 28 27 29 26 20 27 20 25 34 18 19 24 11 27 31 23 25 14 30 31 22 26 21 16 25 19 24 29 20 19 23 19 26 34 19 23 23 24 16 29 20 18 26 23 21 18 16 22 26 23 28 26 21 17 18 25 22 19 18 18 21 20 32 21 19 17 21 27 18 16 21 26 20 26 25 22 26 14 17 23 25 24 24 22 27 20 22 19 23 22 17 25 18 26 25 27 21 28 25 20 25 26 22 20 21 20 19 18 21 21 23 31 24 23 23 20 15 26 32 22 22 30 25 30 17 23 25 33 20 18 16 13 27 22 33 24 21 21 28 23 16 21 28 27 19 24 25 33 33 20 25 29 25 16 17 17 27 23 20 19 25 26 26 21 21 17 24 23 35 22 21 23 22 23 32 23 29 23 18 21 22 20 22 24 28 24 21 24 30 27 16 30 22 21 22 25 25 26 27 28 17 17 16 24 23 29 22 26 23 26 30 28 26 23 16 23 30 24 21 23 23 28 30 24 19 28 27 20 19 20 24 15 22 23 20 21 18 24 30 22 30 27 19 25 29 27 19 21 19 23 21 26 34 24 16 25 27 22 25 28 23 20 25 18 24 26 19 22 20 21 23 29 25 26 26 24 24 29 25 24 27 17 20 27 22 30 21 30 22 27 16 26 22 27 21 18 21 14 21 31 20 24 21 22 26 28 24 24 28 25 19 22 24 29 26 22 34 28 16 19 26 23 31 30 20 24 17 23 19 25 26 20 14 22 24 38 22 28 30 25 22 24 19 20 24 24 29 25 24 18 25 25 25 22 23 25 21 20 19 20 33 22 26 22 20 18 22 16 27 22 25 16 23 18 13 21 24 15 21 16 14 33 27 23 22 27 19 21 17 20 23 22 23 19 25 21 18 23 21 27 29 16 17 21 23 28 33 21 18 32 18 22 23 17 25 28 25 19 21 19 21 25 27 27 27 27 18 21 28 31 27 25 24 29 32 28 26 27 17 19 28 21 24 26 24 23 15 20 28 31 22 27 25 24 20 19 29 20 25 28 23 21 21 16 17 13 15 26 26 19 21 21 27 24 26 22 23 25 19 13 21 26 26 28 28 21 28 14 27 22 18 24 20 28 23 22 18 24 26 17 23 23 20 30 27 29 24 22 28 23 23 17 19 29 23 19 25 22 24 22 28 21 22 28 20 25 29 24 16 24 25 26 20 18 18 19 29 23 20 24 26 22 29 17 17 24 20 26 23 34 19 19 23 23 15 14 23 30 26 23 19 17 22 24 20 24 25 19 27 25 23 24 21 28 17 24 29 22 21 25 25 26 30 23 12 27 22 27 14 29 28 23 17 20 31 24 24 27 23 25 22 29 19 20 22 27 15 19 27 25 28 22 29 26 22 21 27 16 25 36 26 26 18 29 19 16 21 26 24 25 23 24 21 29 27 23 22 32 25 28 17 20 25 23 20 25 23 27 24 17 19 20 16 18 25 28 26 15 14 26 27 22 24 20 24 29 23 20 20 22 26 28 28 18 20 20 30 29 22 22 22 26 27 22 20 31 36 28 24 32 21 19 23 26 23 20 30 31 21 23 23 21 23 22 27 21 27 19 24 25 20 15 21 23 25 23 16 24 26 31 23 23 23 23 22 26 25 14 22 22 25 30 24 21 24 29 21 22 29 23 30 19 31 21 20 20 20 20 20 29 21 26 25 22 22 33 18 30 25 19 23 19 25 23 27 28 23 24 15 21 18 22 18 15 21 19 36 19 14 26 23 21 23 36 35 21 21 28 22 21 15 22 24 23 22 19 19 28 21 29 25 25 30 23 18 20 28 26 27 17 25 21 29 21 24 21 27 23 27 22 24 27 22 32 20 23 24 25 27 24 24 16 24 15 20 19 23 24 19 18 21 26 22 23 29 31 30 17 30 22 20 21 19 28 23 25 20 24 25 18 21 26 36 18 28 19 25 27 17 28 16 23 29 19 29 19 25 18 27 33 26 28 21 22 24 24 16 26 13 20 25 21 29 30 19 18 18 20 16 19 28 28 21 21 19 23 20 24 23 38 27 29 27 22 21 21 20 33 26 20 21 25 18 22 24 26 22 22 21 22 19 24 22 28 25 28 36 13 22 22 23 21 21 23 19 22 24 26 28 16 21 20 17 28 26 27 16 21 18 27 26 29 26 25 19 19 26 15 21 19 19 21 19 17 29 23 26 23 17 17 22 21 22 25 21 20 22 26 27 26 30 17 24 21 21 21 19 17 21 22 20 23 29 17 26 17 24 23 20 26 22 16 23 24 20 20 21 25 18 34 26 24 23 16 23 13 22 26 17 22 20 24 31 32 34 19 23 22 28 27 20 28 19 19 26 20 24 26 21 23 16 20 20 18 20 30 20 29 28 27 26 22 32 24 32 22 25 26 25 27 21 29 16 23 21 21 21 21 24 21 11 25 30 24 21 33 19 23 21 24 28 17 23 26 20 19 14 16 29 23 23 22 15 23 16 33 29 35 19 26 24 24 14 25 15 29 19 16 30 19 25 21 27 21 22 29 19 22 19 29 22 23 21 27 22 23 31 33 33 26 24 26 23 20 23 26 26 29 33 28 23 18 28 24 26 22 23 23 25 25 27 26 28 27 21 20 21 30 20 23 25 22 16 23 26 27 25 22 15 26 19 31 18 22 29 23 21 14 21 16 25 21 21 26 25 13 25 23 30 26 30 13 17 23 18 20 24 18 14 32 24 28 14 17 24 36 27 32 21 22 18 21 21 26 17 18 20 21 19 28 28 20 29 21 18 19 19 24 18 17 23 21 21 29 17 29 22 21 25 16 14 21 19 25 25 28 22 28 23 27 22 22 20 27 34 22 23 17 21 25 17 18 27 28 17 16 28 27 26 31 24 19 23 25 27 23 20 20 25 22 23 19 23 32 24 18 22 18 31 19 19 19 29 22 24 24 23 22 27 22 18 27 22 26 12 17 27 26 19 23 26 24 25 25 21 28 25 19 23 15 28 23 23 17 28 22 23 21 22 25 21 26 25 20 18 27 17 27 24 18 28 24 20 26 21 24 17 21 32 23 25 23 28 16 21 22 21 22 28 22 25 27 27 24 20 26 23 19 21 21 26 22 18 32 26 32 25 23 30 28 23 26 22 22 24 24 23 27 24 26 23 24 21 31 17 24 30 21 28 31 25 27 22 30 24 27 25 30 30 27 17 17 26 25 23 29 20 20 21 20 24 11 32 20 28 26 27 28 23 17 23 20 30 27 21 32 28 32 34 30 27 24 18 27 25 28 22 27 23 26 27 20 23 26 24 19 25 25 27 23 18 31 18 22 27 28 19 26 30 18 24 26 23 22 29 20 30 24 26 21 19 34 21 22 25 30 22 25 16 23 23 23 28 16 24 27 22 23 21 21 18 23 21 19 23 30 21 31 21 25 32 18 16 28 23 20 20 12 21 21 17 20 24 14 26 19 14 21 24 20 22 19 18 24 23 22 27 19 23 17 20 14 27 25 26 15 22 25 23 32 17 23 27 28 23 26 22 19 26 26 17 26 25 24 23 24 16 23 25 28 20 24 14 23 23 20 15 25 31 26 20 20 21 29 17 18 22 27 23 27 22 16 23 19 32 27 23 23 25 25 27 22 20 16 26 25 27 24 22 23 32 24 25 14 26 21 23 18 19 26 26 29 23 28 21 21 31 23 17 21 28 19 23 20 25 19 18 19 27 32 20 17 30 26 29 17 23 18 22 22 26 24 22 34 25 25 24 25 24 34 28 24 22 32 25 26 16 21 21 16 19 20 30 23 30 23 22 23 20 18 25 25 22 25 29 27 19 17 19 19 29 21 24 28 22 23 24 29 30 24 24 16 22 17 22 23 20 19 31 14 28 22 22 27 30 22 16 19 22 15 22 25 27 27 18 22 15 24 23 26 25 29 26 19 25 28 26 21 22 12 17 29 17 22 19 17 21 16 27 19 23 22 26 23 17 21 27 24 28 18 31 31 20 16 24 27 27 19 24 27 20 23 14 21 22 26 19 17 18 19 24 19 17 33 20 26 28 25 28 20 20 23 24 14 27 16 19 32 20 17 23 20 13 22 28 23 27 22 31 21 25 24 34 23 23 20 18 28 17 31 25 24 17 22 21 31 24 28 22 21 18 14 26 18 18 24 21 19 22 31 24 20 24 24 31 30 28 18 27 22 19 16 30 27 24 26 25 28 20 23 29 27 17 15 32 25 22 29 24 25 24 30 19 27 16 18 23 26 35 24 25 25 26 33 20 26 32 25 26 19 34 23 20 23 15 23 24 23 26 23 26 15 23 26 19 20 21 22 15 24 26 16 27 21 27 18 21 35 23 22 35 19 31 17 23 27 24 18 18 17 24 30 22 17 27 20 22 25 21 21 22 22 22 28 20 22 29 24 25 15 30 21 25 18 19 25 33 31 18 30 32 20 21 28 23 27 23 21 30 17 21 21 20 26 23 28 21 28 16 29 19 24 23 29 23 21 21 21 23 22 13 17 23 23 20 22 28 25 23 25 20 23 20 25 18 29 27 25 21 16 24 24 19 20 18 21 30 29 27 28 21 24 30 33 19 20 21 23 27 20 29 25 29 24 26 26 27 19 25 25 18 19 26 27 22 17 27 20 26 19 24 27 18 18 19 18 17 28 22 25 29 27 22 28 30 29 26 21 21 24 23 21 20 21 18 19 25 25 33 24 27 27 17 24 31 25 24 12 29 28 18 23 28 28 22 18 20 27 20 19 29 25 22 24 17 28 31 25 19 29 36 17 24 29 17 22 21 25 21 26 18 29 27 23 22 27 28 26 30 25 25 21 20 29 20 22 21 28 24 20 24 25 22 30 23 14 22 23 21 25 26 23 25 21 23 27 18 21 16 23 17 24 22 28 19 26 17 32 26 23 15 24 18 30 32 21 25 15 16 27 27 22 21 21 18 30 22 17 26 28 21 24 21 23 16 34 27 17 23 21 27 24 20 19 23 29 20 28 26 19 19 25 19 26 19 16 23 16 22 30 26 24 28 20 18 20 25 26 21 27 21 25 27 28 20 18 29 24 17 22 23 16 28 28 20 31 34 28 19 18 20 24 20 21 22 23 17 17 26 24 26 26 17 16 24 30 26 25 20 26 25 25 23 20 19 26 29 19 23 19 24 26 22 20 20 25 21 29 22 22 36 26 28 23 23 31 23 22 23 23 24 18 20 23 26 14 24 25 19 19 20 22 29 22 29 27 30 22 28 31 15 27 23 24 25 25 22 35 22 24 24 14 20 25 24 18 28 16 32 25 31 30 23 24 30 28 29 31 25 24 23 26 30 22 22 23 23 24 20 13 24 21 22 27 12 23 24 23 21 21 19 22 32 19 23 15 26 35 18 24 21 20 20 15 20 20 18 31 19 16 17 27 24 26 27 26 22 23 31 21 19 25 23 17 28 24 23 19 17 21 33 25 17 24 29 31 16 30 24 21 21 22 21 19 20 15 18 23 23 18 24 25 28 21 30 20 27 22 30 18 29 16 24 26 29 17 19 24 22 18 22 23 24 21 24 20 16 26 22 35 22 27 27 28 27 19 19 20 23 28 22 24 20 22 21 25 28 22 27 23 28 23 26 26 23 29 24 20 20 22 24 19 31 30 27 25 26 22 17 17 25 28 25 20 23 28 24 24 26 21 21 26 20 19 24 19 16 18 28 17 20 25 23 21 24 22 18 32 18 23 21 18 18 31 20 21 25 19 20 24 27 22 22 22 27 24 19 21 21 25 13 17 26 22 27 31 18 24 22 33 14 21 25 22 26 21 21 20 18 31 25 23 27 22 24 22 27 21 21 18 16 23 24 29 22 21 15 19 20 19 21 26 25 30 24 24 17 22 23 29 15 16 28 23 18 31 20 21 21 24 29 24 28 20 17 29 25 22 22 27 28 20 21 27 13 25 27 21 22 25 21 27 17 20 24 23 19 24 23 27 19 25 25 19 31 25 27 32 22 20 25 19 21 21 19 22 19 15 17 22 20 22 18 24 23 23 22 33 25 15 25 22 23 29 30 32 25 28 18 26 35 19 17 21 24 20 12 24 22 20 21 30 22 22 21 21 21 17 26 27 30 17 21 21 32 23 20 25 24 23 22 19 29 17 17 25 27 28 25 17 25 21 21 27 23 35 20 20 29 24 21 26 20 23 20 23 26 25 24 21 26 16 17 21 21 24 20 15 29 22 31 24 22 22 26 21 23 16 17 17 32 24 29 16 23 22 23 28 23 22 22 22 23 22 30 31 17 16 19 19 13 24 17 20 24 22 19 28 24 24 24 14 22 28 25 20 17 18 22 19 26 21 21 20 22 23 21 34 21 22 22 23 27 25 24 22 24 27 22 33 28 19 27 28 18 28 24 25 25 19 22 13 20 22 27 23 34 27 22 33 22 26 22 26 20 21 20 20 19 15 22 20 25 26 23 16 25 32 21 20 27 21 20 20 28 21 25 27 31 17 16 24 28 26 26 21 21 25 28 28 26 27 29 28 21 33 24 29 21 21 29 27 33 26 28 25 26 29 26 24 20 24 22 23 24 15 27 20 23 25 20 26 21 16 30 25 24 19 18 32 26 14 32 26 28 24 24 23 22 27 30 16 20 24 27 26 26 27 23 22 16 24 20 22 24 17 26 24 28 25 18 21 23 21 27 29 18 19 21 18 21 23 25 24 27 24 24 23 22 18 28 28 20 22 31 24 25 24 23 20 31 24 17 21 24 23 30 17 24 22 24 21 26 16 22 27 30 28 17 18 32 27 24 27 23 24 18 29 19 22 26 21 27 20 24 25 22 24 20 23 18 21 29 25 22 24 14 25 26 24 22 19 17 19 24 23 20 22 18 28 27 26 23 16 9 25 21 28 13 30 23 18 22 27 18 23 32 23 17 21 33 20 24 33 18 25 20 29 24 23 23 17 30 29 19 25 20 30 26 18 17 16 21 22 14 18 25 22 18 26 33 27 21 22 22 20 15 37 22 21 31 23 23 22 26 14 25 17 21 25 31 21 19 21 28 27 25 15 24 17 21 22 19 21 26 20 20 23 35 23 17 18 20 22 15 22 26 27 28 25 25 10 22 23 11 24 28 33 19 26 22 19 22 19 22 24 24 14 23 25 25 22 25 18 15 22 26 26 21 23 22 26 30 23 29 21 18 26 24 27 23 22 24 16 26 24 16 26 35 22 27 20 22 18 23 19 33 17 26 26 13 22 22 31 25 23 27 17 25 25 23 19 24 22 16 18 22 15 18 19 13 29 28 22 24 27 24 21 27 24 24 17 19 20 21 20 26 21 29 21 31 25 33 24 33 22 23 20 21 26 24 30 26 15 24 19 20 22 23 25 18 25 20 20 20 21 28 29 23 28 22 28 19 18 23 25 19 21 21 23 20 22 18 29 24 23 22 25 17 23 30 25 18 23 24 32 24 22 28 18 18 19 26 16 23 24 21 23 28 23 20 27 29 21 35 15 31 24 16 35 15 35 17 23 16 19 25 18 24 17 28 19 22 25 20 23 19 23 31 23 22 24 23 26 31 21 20 23 16 22 25 27 23 22 29 21 24 17 26 24 17 19 18 24 24 22 15 19 19 24 27 23 27 26 20 22 27 25 16 28 19 26 21 27 23 19 25 30 20 25 30 23 23 20 19 30 22 18 23 13 20 22 15 22 25 26 24 25 23 23 30 21 23 21 22 18 22 20 29 20 25 25 22 21 23 25 31 20 26 24 26 32 17 20 25 16 22 22 22 22 17 21 28 14 24 16 24 25 22 14 21 23 25 25 24 21 24 24 22 24 23 24 19 22 29 20 31 28 19 27 31 26 21 27 11 23 28 30 25 25 26 24 23 19 18 28 24 32 21 21 24 18 20 24 23 23 32 20 23 27 21 22 18 16 18 25 19 22 25 28 26 23 21 22 14 28 32 24 24 28 25 21 28 31 25 29 25 22 13 23 32 27 34 23 26 23 22 13 16 18 21 19 24 22 25 25 21 19 25 30 25 23 31 27 22 21 25 22 22 15 27 25 24 21 22 25 16 27 26 18 22 31 25 30 39 21 21 24 25 25 29 32 19 24 23 22 17 24 33 22 28 23 29 30 30 23 16 24 25 21 29 21 27 22 24 24 21 23 26 29 30 20 29 31 19 20 31 21 24 28 20 16 29 29 26 25 23 20 32 20 24 20 20 17 31 22 25 20 23 19 27 30 26 24 20 25 15 19 30 21 18 16 23 28 21 27 28 23 29 23 26 22 21 27 21 17 27 26 22 24 25 21 21 28 23 29 13 28 24 18 14 33 23 24 28 30 18 24 19 18 20 21 36 32 23 22 22 37 21 24 23 31 29 21 24 20 22 24 23 19 22 26 21 21 21 27 26 20 24 17 27 26 23 18 25 23 25 26 19 26 21 31 23 23 19 18 20 24 27 19 22 27 23 23 31 23 24 20 25 21 16 14 26 21 23 26 27 30 20 25 19 21 24 18 21 25 26 10 22 23 29 26 24 24 16 21 26 21 20 28 25 24 28 24 16 18 22 28 22 21 20 27 27 30 24 27 21 35 18 29 16 23 21 24 15 30 28 27 18 16 29 16 20 14 22 20 17 32 31 30 26 26 29 27 23 25 24 19 23 17 22 30 15 16 26 26 14 24 23 12 23 25 22 28 30 29 23 27 15 30 22 18 24 25 21 21 27 18 29 22 22 27 19 18 19 30 25 17 24 21 24 20 17 24 25 20 28 20 24 23 31 24 20 20 24 27 27 23 26 25 19 24 19 26 21 28 20 29 21 18 28 25 26 20 27 26 30 29 30 23 27 16 30 30 20 27 28 21 33 25 27 23 22 26 24 19 23 26 24 16 30 18 23 24 23 26 25 27 25 18 31 23 25 28 17 19 22 28 20 19 28 27 19 22 23 20 24 24 21 21 19 22 22 29 13 20 21 25 20 21 21 28 15 24 32 22 25 24 27 22 20 23 17 28 26 20 19 19 20 19 22 21 33 29 18 23 24 17 23 24 23 19 25 21 23 21 20 18 16 27 22 24 13 25 21 21 20 26 25 19 21 19 21 27 21 19 29 22 23 19 27 23 16 22 21 19 24 19 36 30 20 25 29 25 27 27 20 23 28 26 23 23 23 26 18 18 31 23 15 22 26 19 19 19 20 24 23 20 26 19 20 21 23 25 31 23 19 23 28 23 30 15 32 33 21 27 22 22 26 22 18 26 17 16 17 26 24 19 20 24 15 27 26 27 17 27 17 29 23 27 17 22 19 22 13 24 19 24 20 20 22 19 24 26 28 22 23 20 24 28 27 25 19 26 29 23 25 30 29 16 22 17 31 17 26 18 32 19 19 17 18 24 26 19 20 26 18 23 24 26 23 26 20 27 28 23 28 15 32 29 22 26 18 20 16 28 20 19 21 19 18 22 18 30 34 20 28 26 26 26 29 29 26 27 16 22 20 12 26 24 17 20 14 30 24 25 22 27 21 28 22 17 24 32 23 16 22 22 18 19 37 26 19 20 22 19 30 26 22 22 23 24 12 23 18 25 22 18 20 25 21 17 17 23 22 21 29 24 18 29 29 30 29 23 23 28 26 23 28 28 26 20 23 27 29 21 19 21 24 27 22 13 19 23 24 28 28 30 18 22 23 24 26 27 26 11 17 24 26 21 23 18 26 28 23 23 21 24 23 20 21 19 24 16 21 22 19 26 21 21 24 24 18 25 17 27 27 30 24 25 21 22 28 26 24 29 29 28 22 18 30 21 20 16 24 22 16 19 22 25 25 23 20 29 24 23 22 24 24 18 20 26 18 23 23 22 19 26 29 24 19 19 21 20 19 25 24 21 19 17 15 21 22 18 23 26 27 23 17 21 29 22 30 19 20 23 29 21 24 21 18 25 17 18 22 19 23 22 26 20 28 30 20 19 21 17 20 21 15 29 23 26 26 22 23 25 10 32 27 25 25 26 25 16 19 23 25 27 25 23 18 28 18 28 15 27 18 32 27 23 24 15 20 22 20 25 18 29 22 35 21 15 25 25 22 22 19 27 21 34 24 31 16 21 17 27 24 19 19 28 27 28 20 21 21 22 15 27 24 25 23 29 19 26 19 30 22 22 15 24 20 21 27 32 23 16 24 21 27 27 14 25 17 16 28 14 23 24 30 24 33 17 24 23 19 20 20 21 25 16 21 17 25 25 24 26 16 31 16 20 28 19 18 21 27 18 23 23 21 20 23 21 17 24 24 16 21 29 32 20 24 16 30 30 27 27 20 27 32 25 28 20 25 18 26 20 15 26 26 22 18 27 26 21 21 21 14 26 19 18 23 28 15 20 28 24 23 27 23 23 23 20 24 16 23 27 19 22 21 23 23 29 18 16 16 25 17 31 21 15 28 28 14 26 18 17 20 23 26 23 19 21 18 25 16 22 29 10 27 19 15 19 34 32 27 14 20 21 28 17 23 34 20 28 22 21 27 33 24 21 23 20 24 20 22 31 25 22 22 21 16 24 29 21 14 22 25 20 28 22 24 17 17 20 26 24 25 23 17 24 29 26 11 23 26 23 14 26 19 19 20 17 18 15 24 21 27 22 18 29 20 20 15 24 25 25 22 19 25 28 27 27 21 23 24 26 24 15 23 13 31 15 22 26 27 26 16 22 24 24 20 23 25 18 27 28 20 18 17 26 19 16 24 28 19 20 17 21 11 21 28 22 23 24 22 22 23 25 17 18 25 22 24 20 19 25 16 22 14 22 29 21 22 20 29 26 27 29 11 17 23 28 16 27 20 17 25 23 9 25 20 29 25 21 22 17 23 23 27 21 25 21 26 28 26 27 26 29 27 23 24 18 34 26 18 30 29 23 23 25 17 27 29 19 30 24 26 23 18 20 14 27 21 21 25 16 20 19 22 19 19 27 29 26 23 16 24 31 22 21 20 28 25 26 19 20 21 23 24 20 30 24 19 21 27 22 20 18 18 18 23 25 20 23 29 17 34 17 26 23 19 24 30 24 17 23 22 20 19 19 23 27 18 21 30 22 27 22 20 21 20 18 21 18 17 17 20 16 24 19 25 19 30 26 18 30 24 33 24 15 23 23 23 18 30 24 15 22 21 22 18 26 23 27 27 33 24 22 26 21 26 23 28 28 21 20 26 20 23 25 27 21 20 20 13 22 20 21 20 19 27 15 24 23 23 19 25 26 20 24 27 20 24 32 16 28 24 20 21 30 22 21 21 33 23 24 21 25 16 23 21 22 24 18 26 22 26 30 22 25 22 19 29 20 16 26 24 21 25 29 21 19 26 22 25 32 32 24 25 21 24 13 26 21 19 29 27 17 25 24 24 22 15 26 20 26 24 24 23 23 24 19 18 13 20 25 17 21 22 22 25 27 26 18 19 18 25 22 29 27 31 31 23 20 27 26 20 22 23 24 15 27 24 20 23 25 20 19 28 30 21 22 20 22 25 24 21 19 16 21 16 29 34 19 17 23 20 30 22 23 20 16 18 23 21 17 26 20 20 22 23 21 23 29 25 24 28 28 18 26 21 22 23 26 25 27 19 22 18 19 19 25 21 21 30 27 19 23 16 25 21 26 22 20 19 24 23 23 26 20 25 19 27 34 18 16 19 16 25 25 22 34 25 17 25 25 32 16 19 22 24 20 21 17 19 21 26 32 28 24 22 15 24 23 20 24 30 22 25 24 19 17 21 10 20 18 22 26 17 27 29 19 27 24 21 21 32 23 25 24 30 22 27 24 29 22 16 22 32 23 20 27 24 20 19 29 23 24 23 22 21 30 24 17 22 30 31 17 23 18 25 29 27 29 30 19 20 20 19 25 32 21 21 15 21 24 27 28 32 21 21 15 24 20 28 26 26 22 24 24 32 18 28 18 27 28 25 27 25 20 23 25 35 26 21 19 26 19 21 30 27 22 32 17 24 13 19 22 17 29 22 21 29 26 22 25 18 17 29 27 19 34 26 25 28 18 30 24 23 24 20 21 20 23 22 30 25 16 17 32 25 36 26 24 22 28 30 28 27 15 26 26 15 21 20 24 24 17 23 23 20 25 23 23 22 29 27 28 26 20 23 23 24 20 25 16 27 19 27 28 18 24 24 23 19 22 20 24 21 15 21 26 21 22 15 25 31 21 20 27 22 22 16 23 19 31 25 28 31 25 24 34 27 19 22 21 23 21 22 20 19 21 25 31 20 22 29 18 21 19 15 26 22 25 24 28 20 22 25 21 18 21 29 23 24 28 28 25 25 19 26 32 23 26 22 30 22 22 28 23 20 16 27 16 23 24 21 24 25 24 23 24 25 25 24 21 26 20 22 34 22 22 18 19 22 23 23 20 23 28 27 28 31 19 19 27 25 27 26 22 24 26 27 27 19 23 21 27 23 24 23 26 31 21 25 21 23 16 18 25 23 27 23 29 27 24 19 24 30 20 24 19 31 21 23 27 23 22 21 18 27 19 33 13 29 28 22 14 24 22 21 26 19 21 26 25 32 22 18 18 12 19 22 25 28 17 24 32 25 20 35 18 25 18 22 17 20 20 21 23 25 26 20 19 30 23 29 24 19 18 26 18 21 16 25 21 20 22 19 19 21 26 22 24 21 16 27 27 25 30 25 17 20 18 20 16 21 24 27 25 17 21 28 28 17 31 23 23 32 22 22 28 29 14 20 29 27 22 36 20 25 29 24 21 16 23 21 26 30 19 22 21 32 24 34 22 23 29 22 19 22 30 28 23 24 24 20 19 27 24 31 20 21 20 28 17 24 17 28 21 27 22 23 19 22 15 27 22 17 23 15 28 22 25 25 21 16 22 17 24 26 18 22 22 24 23 22 29 26 21 32 17 28 27 20 23 22 21 22 33 24 31 27 26 18 29 25 19 23 24 23 19 18 22 22 25 31 28 26 24 27 20 18 21 27 23 16 20 23 23 31 16 24 26 15 25 29 28 35 24 21 27 23 34 30 15 19 24 37 20 21 27 31 24 15 19 22 23 21 29 23 19 28 14 29 19 24 25 16 26 20 23 33 30 29 24 14 32 24 26 27 25 24 20 17 26 14 27 19 24 18 25 17 31 17 29 30 22 21 26 19 21 22 26 19 24 26 22 28 26 25 25 24 23 21 20 24 22 20 24 22 25 18 21 26 29 23 28 18 20 24 16 20 21 27 23 21 18 26 16 23 24 16 20 14 15 31 30 24 28 22 20 27 10 32 15 22 24 20 18 26 20 24 26 23 25 21 21 18 29 19 21 27 15 18 11 32 18 13 28 18 29 21 22 24 18 30 21 22 21 24 29 23 29 21 28 28 22 28 26 17 26 14 20 16 31 24 23 21 21 27 16 23 28 27 14 25 24 28 37 23 30 27 21 20 21 15 29 26 22 22 21 29 16 25 21 19 25 25 21 24 19 27 20 24 24 26 29 16 23 18 26 27 15 22 21 21 23 21 23 19 20 29 23 23 27 25 21 29 18 24 20 19 18 18 22 25 27 22 24 29 23 24 30 26 31 22 18 24 20 18 21 29 21 15 21 20 20 22 22 23 21 23 27 33 28 26 20 29 27 24 21 16 29 22 18 24 24 11 18 24 21 21 24 22 29 27 25 16 28 24 26 23 27 20 14 23 21 27 23 30 25 21 22 18 18 21 26 20 17 24 22 27 24 35 31 21 27 26 27 23 29 26 28 21 30 20 32 24 24 19 17 28 26 25 20 22 21 21 26 25 21 19 18 28 27 23 17 20 20 30 20 21 19 23 17 29 28 19 19 28 23 31 16 24 22 25 30 16 24 20 28 24 21 17 21 19 21 23 21 24 16 20 20 27 18 28 24 19 21 25 23 20 26 19 25 19 22 19 23 24 29 18 20 23 22 23 21 18 21 30 24 31 21 19 21 25 22 23 23 23 17 23 21 18 23 27 18 29 19 25 20 22 18 24 25 19 28 20 22 25 20 24 19 26 23 23 24 23 24 26 28 18 22 21 25 24 20 18 25 20 27 18 26 19 30 20 22 25 26 28 23 22 23 20 25 20 28 29 22 20 17 25 23 21 23 27 27 15 25 23 25 22 25 22 22 18 22 19 22 20 18 21 22 31 17 20 26 20 25 22 21 28 23 23 16 18 23 22 25 18 30 24 18 28 23 22 22 23 28 23 25 25 27 19 19 26 21 14 28 21 14 32 21 19 18 22 25 32 17 22 29 20 27 17 23 24 24 21 25 22 25 19 18 25 18 23 27 24 19 27 21 27 17 18 20 18 26 31 25 21 24 22 21 16 20 25 15 27 18 30 32 25 23 32 30 22 21 23 23 24 23 20 29 23 21 21 29 22 19 26 18 20 22 20 29 27 20 16 19 23 32 27 15 25 26 20 23 22 18 27 25 23 20 22 23 23 23 25 20 23 14 26 31 26 17 32 19 21 25 26 22 21 26 22 21 27 22 27 26 22 21 23 20 18 24 25 21 26 13 29 24 26 20 18 27 21 28 19 25 26 20 29 19 21 21 16 38 31 24 23 25 22 23 22 19 22 21 20 21 27 26 25 21 23 19 30 20 23 26 21 19 21 23 25 24 30 22 22 29 22 21 18 28 19 16 25 28 16 23 23 24 24 20 20 28 23 20 23 31 16 22 24 24 27 31 19 20 26 20 26 21 23 23 20 21 25 23 23 18 15 19 23 23 22 15 25 24 23 22 32 22 16 18 27 25 25 22 18 23 24 20 28 25 26 21 20 24 25 30 12 20 12 25 28 18 22 20 25 19 24 20 25 23 20 22 28 25 33 22 14 12 25 27 14 28 18 18 32 20 24 20 26 27 25 17 21 21 34 21 17 27 27 20 19 20 25 21 22 21 21 26 25 20 23 21 17 32 19 23 23 20 9 28 28 13 19 36 24 26 18 27 29 30 21 27 33 24 15 19 21 26 31 25 23 22 19 21 24 33 23 17 23 22 30 27 26 31 24 30 25 28 30 27 25 33 27 19 18 24 16 19 22 27 27 25 17 22 22 20 28 24 26 23 30 16 11 25 32 23 20 29 22 24 32 19 21 23 24 25 34 29 20 18 20 15 23 19 27 14 28 23 21 26 25 12 22 17 22 26 26 12 26 28 23 26 27 23 29 21 18 32 18 27 23 20 16 15 18 29 20 26 24 22 25 22 23 27 26 23 25 19 22 24 16 25 29 21 21 20 20 27 19 29 19 22 18 27 20 27 19 17 24 21 26 17 17 17 23 19 32 20 23 18 21 26 19 16 25 22 29 28 27 30 24 32 21 24 20 21 23 27 21 23 25 26 30 24 21 24 28 16 24 25 22 35 34 18 23 27 15 21 17 28 31 25 26 22 21 25 31 27 24 22 24 24 24 18 28 20 20 25 22 26 22 21 32 24 15 29 24 21 16 24 26 21 33 23 27 20 20 27 30 22 17 24 21 24 14 30 16 23 28 21 28 16 24 22 26 29 21 21 21 24 25 20 26 28 24 19 25 23 23 23 36 17 21 24 34 26 27 26 23 28 21 20 24 25 24 28 19 20 27 24 17 27 31 27 27 19 21 24 24 26 22 20 25 23 20 23 23 21 21 18 29 23 29 23 27 20 19 26 27 19 18 19 21 29 22 20 24 25 26 27 23 25 33 23 26 20 20 23 26 27 25 19 24 20 20 23 25 21 22 24 24 12 19 21 26 29 19 32 28 30 24 27 27 19 23 18 26 26 34 12 22 19 22 23 28 29 17 15 18 22 24 25 19 24 21 27 16 20 25 25 24 20 19 26 33 21 19 27 24 20 23 16 18 22 27 16 26 26 30 19 25 34 28 22 31 13 27 15 24 24 17 31 24 15 22 23 23 22 24 33 22 19 24 30 20 27 29 17 19 27 15 24 21 25 24 30 19 23 27 22 22 26 30 17 24 27 26 25 23 20 21 23 21 28 22 21 28 25 24 26 21 28 20 29 25 17 21 22 23 28 21 17 24 25 22 27 21 14 23 31 21 22 23 27 29 15 28 24 28 30 26 17 33 14 29 25 25 29 32 33 29 23 19 21 22 27 17 22 27 22 19 29 26 16 27 25 22 18 33 27 22 22 27 31 23 27 20 29 20 15 19 26 21 22 25 25 31 20 24 30 18 23 21 16 23 16 26 21 24 20 29 30 23 12 29 27 27 27 19 22 28 23 27 24 19 16 17 27 22 31 25 21 20 31 16 27 23 22 20 22 20 21 28 29 27 24 24 27 23 21 20 27 20 19 25 20 17 29 27 19 24 18 31 22 26 25 27 25 25 22 20 25 16 30 23 19 21 20 20 18 22 19 23 24 24 16 22 13 19 21 20 25 22 27 20 29 18 24 24 21 23 23 24 24 26 19 27 22 35 23 25 23 15 26 16 23 23 29 27 20 17 32 23 41 27 21 24 28 25 22 24 21 21 27 31 23 21 22 15 26 23 24 20 25 17 32 20 29 20 27 23 16 24 24 20 20 23 24 29 25 21 26 29 21 26 32 15 27 16 26 25 21 29 22 25 20 18 23 32 18 28 26 17 23 30 24 22 22 28 16 20 24 19 24 24 25 27 24 27 22 30 18 29 33 15 29 27 33 29 29 24 22 18 27 36 29 17 16 23 21 23 30 17 23 21 28 26 21 22 17 25 17 27 18 14 22 26 28 22 22 29 23 18 28 22 24 28 22 20 21 24 21 20 30 18 22 20 32 20 23 26 23 24 27 24 15 22 21 27 26 20 13 22 29 22 23 19 29 22 22 23 20 19 25 34 20 19 23 30 24 15 24 22 26 24 30 25 26 20 25 22 22 24 13 17 24 26 22 23 18 22 24 24 25 19 14 20 26 22 26 21 15 16 20 22 23 24 21 26 15 13 20 27 28 25 19 32 25 26 28 17 23 21 20 19 26 25 25 27 20 17 22 24 20 29 20 27 22 25 34 32 18 22 25 33 25 23 29 26 22 18 20 25 34 23 26 16 21 29 27 22 20 18 21 20 28 20 20 17 23 27 22 25 24 14 21 29 18 21 15 24 18 25 25 24 19 19 26 18 26 29 26 28 28 18 25 17 28 24 18 26 26 26 25 21 24 31 27 29 29 24 25 25 19 21 23 30 18 15 29 32 20 28 30 19 21 38 25 34 14 22 26 20 29 23 16 29 23 26 25 22 25 30 16 18 29 20 29 24 19 19 21 27 33 25 28 20 23 24 24 21 21 16 27 26 23 25 29 24 24 23 23 24 23 21 25 23 25 23 24 21 20 22 21 22 21 19 28 15 23 20 15 24 17 20 27 25 24 17 27 30 17 23 30 21 22 24 27 25 18 11 19 25 29 26 27 31 27 25 32 23 29 21 27 24 19 26 25 14 23 25 24 25 25 20 24 14 20 22 29 21 33 18 26 26 23 22 18 20 27 22 26 20 21 28 21 21 32 20 25 17 30 21 27 22 29 27 15 24 28 23 15 21 26 28 21 23 19 18 30 17 25 27 23 25 19 27 24 23 24 23 21 26 20 22 25 16 22 18 21 22 20 30 26 21 24 16 21 25 23 25 27 24 36 20 20 15 20 23 23 15 23 29 19 18 27 24 23 21 26 27 18 19 19 22 19 22 27 26 27 23 21 28 25 29 29 22 25 31 19 25 26 21 15 19 26 20 16 22 17 18 31 25 28 28 25 26 23 19 21 29 25 22 23 23 27 16 22 28 23 15 19 23 19 26 25 24 23 25 21 25 25 19 20 21 30 25 18 21 20 20 22 14 28 27 21 14 29 22 14 22 19 26 14 29 23 18 20 24 24 34 17 34 27 20 25 16 25 22 29 27 20 20 20 17 19 16 18 22 30 24 18 21 18 23 22 24 19 23 26 21 23 23 18 22 19 27 27 30 20 21 25 23 19 21 20 11 27 21 24 22 24 24 17 23 32 25 23 18 24 22 26 23 21 18 22 21 19 25 28 21 20 12 20 26 21 30 25 29 26 28 19 28 22 21 19 30 28 25 29 15 26 19 21 25 28 19 21 18 28 21 27 31 21 30 29 21 31 20 23 20 27 23 25 18 21 23 22 14 20 28 33 24 25 25 27 22 22 25 25 27 21 26 22 27 22 28 25 20 18 26 17 18 25 20 23 21 21 23 22 22 16 19 28 20 20 24 20 21 26 24 25 26 27 22 24 27 27 27 19 19 19 22 24 19 39 19 24 25 27 30 22 20 27 18 27 25 17 29 20 24 31 27 29 29 21 30 27 12 19 25 19 24 21 15 24 29 25 18 23 23 28 25 25 27 30 26 24 24 26 23 27 28 24 18 26 20 26 18 13 19 21 22 24 25 22 13 25 28 28 30 21 26 22 29 23 18 19 22 20 17 28 24 30 16 21 23 23 27 30 16 25 28 23 23 25 25 22 22 30 20 24 33 21 29 12 26 21 28 30 23 25 23 30 21 24 25 29 18 22 31 21 21 22 24 21 14 23 20 16 20 22 26 23 20 23 23 16 27 23 23 27 24 19 29 22 24 24 22 14 20 23 25 27 18 20 21 25 18 19 20 16 21 19 27 18 14 17 26 28 16 24 23 25 21 13 23 26 25 30 16 19 26 25 18 26 20 25 26 26 18 26 13 27 15 14 24 23 18 27 26 20 28 18 24 24 27 21 28 27 23 22 21 22 23 26 27 29 25 21 21 24 21 32 22 32 31 14 25 24 23 19 29 21 18 22 18 23 24 17 23 18 24 21 21 26 23 31 27 23 24 25 22 28 27 27 20 21 16 28 22 17 22 21 26 21 17 22 28 18 29 19 34 22 24 23 20 13 14 30 29 18 23 14 23 17 22 21 29 23 25 30 25 21 22 23 26 27 20 22 22 22 25 22 27 23 26 28 22 18 19 16 20 26 14 16 22 20 25 23 21 27 25 22 20 31 23 34 27 24 20 25 20 35 22 28 31 24 28 18 27 23 24 28 21 29 28 17 23 22 27 23 24 26 32 15 29 20 21 26 19 13 24 25 20 25 18 22 21 22 24 29 24 25 29 29 30 17 18 24 19 23 21 13 24 20 28 23 25 28 22 24 31 24 18 24 29 23 27 20 26 27 10 30 15 27 26 30 24 25 34 25 25 24 18 21 28 30 24 26 22 18 31 21 33 22 18 24 24 23 21 21 24 19 14 30 24 18 21 23 20 23 25 24 13 17 24 29 29 25 30 20 22 18 14 25 24 26 19 17 23 29 16 21 22 17 25 20 25 21 23 25 25 24 26 16 25 28 27 24 29 27 27 23 21 20 19 19 18 18 28 26 21 33 24 20 26 26 19 18 13 21 15 20 22 25 19 22 24 21 21 31 27 26 18 20 27 24 18 22 24 21 17 17 24 29 25 25 17 31 18 21 26 23 25 29 20 22 25 21 19 23 22 23 26 26 19 21 19 13 24 26 29 18 26 25 25 21 17 24 36 33 21 21 22 25 29 21 23 20 24 16 23 21 21 28 18 21 30 20 27 20 26 25 15 25 21 27 16 19 26 23 22 24 31 17 26 19 18 25 19 25 26 22 29 28 24 29 28 20 20 26 23 24 22 26 18 24 29 17 23 20 18 26 28 13 21 22 23 26 27 27 21 25 20 24 14 20 29 19 23 24 31 26 28 35 13 26 28 25 19 16 24 26 20 26 18 26 19 29 20 22 23 28 16 25 21 26 19 30 26 23 24 21 22 21 26 15 14 30 18 23 29 26 29 11 24 18 20 26 29 21 17 24 23 18 19 23 30 25 17 23 20 22 23 28 21 19 24 23 26 19 25 23 32 20 30 29 21 23 22 15 19 26 25 15 15 29 16 19 31 26 17 17 31 24 24 26 22 21 30 22 27 27 20 21 19 20 16 19 22 19 26 14 17 32 19 18 28 23 30 24 27 15 23 26 17 17 20 19 24 24 23 20 32 14 22 23 21 24 31 19 26 27 21 20 22 25 24 21 21 35 21 20 23 25 23 22 23 19 24 27 17 21 19 19 19 26 29 23 24 18 28 22 17 28 23 18 22 16 21 23 21 28 21 25 30 24 20 14 21 18 21 20 33 21 23 32 17 21 19 29 20 29 25 19 30 20 29 31 20 22 25 20 14 30 18 25 28 24 15 17 22 19 14 20 33 21 22 24 21 19 20 25 31 23 21 21 32 22 24 23 29 23 21 24 26 19 21 30 29 17 25 20 25 20 17 28 19 19 22 22 21 22 21 32 29 21 26 23 28 22 17 19 20 17 26 25 23 23 30 21 25 21 20 21 27 27 20 19 31 24 17 32 27 27 24 22 26 21 21 25 21 24 19 25 29 20 23 22 24 18 26 25 27 18 14 24 20 25 12 26 28 24 27 22 20 20 18 25 22 22 21 30 25 23 26 25 23 17 18 25 24 32 26 24 16 26 27 24 22 24 22 19 26 20 30 28 29 26 20 27 23 26 25 22 25 20 20 19 25 19 16 26 23 15 21 25 22 27 15 17 24 27 18 17 23 27 18 23 24 17 19 25 18 22 18 25 23 32 26 19 28 21 18 23 21 24 25 24 19 26 32 22 18 25 29 23 17 33 31 29 23 27 20 22 29 22 22 21 17 20 27 24 22 21 22 20 22 12 20 21 24 19 21 20 24 18 26 24 22 20 19 19 26 24 20 17 30 19 24 29 20 25 27 27 19 21 22 23 29 15 24 21 29 24 30 25 19 23 26 21 28 25 25 29 25 29 20 28 22 18 18 26 23 22 21 26 24 27 29 27 29 22 30 24 28 23 25 20 24 23 25 21 26 32 24 29 19 30 26 26 23 32 26 26 24 27 24 29 29 20 19 26 21 21 18 25 16 20 18 23 18 20 28 23 20 25 16 28 29 22 27 21 22 19 23 30 20 18 25 19 27 26 19 23 21 22 22 25 21 27 27 26 24 17 23 32 20 24 27 26 28 26 33 20 24 22 26 15 28 24 28 27 26 21 25 13 28 26 25 26 27 26 26 20 22 23 16 17 24 21 17 19</t>
+  </si>
+  <si>
+    <t>JSU(-10.732030747544218, 9.859383504458345, -10.988593775715646, 33.84542129965814)</t>
+  </si>
+  <si>
+    <t>38 41 40 26 32 40 33 42 43 37 38 25 30 34 32 31 30 27 33 29 27 40 31 31 41 47 37 40 41 35 35 34 33 35 39 33 36 33 25 32 35 37 47 34 26 28 34 35 35 28 35 32 25 28 41 42 38 34 34 36 31 39 28 31 27 33 28 33 34 41 24 37 31 33 38 28 25 31 41 41 38 30 28 36 37 27 37 26 38 36 36 40 31 35 33 39 29 25 35 39 45 28 33 53 37 35 29 36 48 32 35 31 32 40 34 32 37 35 23 32 33 28 29 39 27 32 29 30 34 36 28 37 31 34 40 32 32 40 40 32 28 22 34 28 39 30 40 33 37 28 35 40 24 24 30 34 33 43 24 41 24 37 33 29 31 29 41 37 36 22 30 39 39 29 33 38 28 28 32 38 29 26 27 32 35 28 37 27 29 34 35 30 39 34 21 32 33 30 37 36 41 29 26 33 34 39 27 36 42 32 43 31 35 28 32 25 23 49 24 32 21 31 41 35 38 33 46 23 29 34 34 26 28 27 26 43 29 35 33 33 46 43 35 30 37 23 27 27 43 40 29 30 31 38 25 33 26 38 30 31 32 36 33 32 32 38 21 48 34 36 35 49 44 40 51 26 30 41 31 33 45 31 40 32 37 33 31 43 31 32 43 29 47 34 27 22 26 34 38 39 29 31 26 30 35 45 41 34 40 31 35 38 31 37 35 34 32 30 28 36 38 35 33 29 41 34 33 32 27 32 30 28 30 29 29 27 34 30 31 43 46 32 37 25 32 27 26 23 37 33 39 46 44 34 31 34 32 30 22 30 33 31 38 28 37 38 32 35 37 33 27 37 25 39 31 36 35 39 36 24 25 37 26 22 38 28 38 34 29 32 39 28 40 31 38 33 32 30 31 26 42 27 35 35 34 33 26 41 26 24 41 36 46 38 22 46 30 36 32 32 28 31 33 36 39 31 34 34 27 33 34 32 39 31 36 34 22 24 34 35 25 36 28 36 31 32 31 33 34 34 28 36 40 38 48 30 25 21 36 44 39 28 34 35 42 31 37 36 41 44 36 38 30 39 40 39 35 41 30 32 29 34 28 40 34 24 39 40 45 44 41 29 43 37 46 40 35 34 34 49 37 43 35 34 34 33 33 41 34 29 28 26 32 35 32 38 36 38 30 32 39 36 38 36 31 40 44 32 31 33 42 36 32 30 38 46 42 32 34 46 33 34 42 22 37 32 33 36 33 31 24 43 18 36 37 46 35 39 46 29 27 38 29 40 40 31 36 41 34 36 30 36 47 41 32 31 27 36 34 36 31 35 26 24 34 32 32 32 36 48 38 33 36 35 39 31 32 24 33 37 38 29 31 34 25 43 28 27 43 47 36 41 47 28 37 30 44 38 22 45 36 27 39 42 38 28 36 32 33 30 29 29 29 40 32 28 45 28 41 37 31 30 32 29 21 36 35 44 30 34 25 28 27 37 40 28 30 41 35 43 27 26 28 36 34 35 27 45 26 39 39 33 36 41 36 33 32 39 32 28 43 25 30 38 18 39 42 31 37 29 38 43 36 40 30 28 41 32 39 33 36 26 46 30 38 42 36 33 34 32 23 40 30 29 39 38 29 25 27 29 32 32 36 39 30 29 30 31 33 23 31 27 30 30 41 31 37 28 25 40 28 24 35 38 26 34 38 34 38 30 26 33 37 31 29 26 36 31 30 29 29 33 29 34 25 41 34 36 34 43 36 33 36 33 32 38 33 32 35 29 29 33 33 39 38 38 40 30 28 41 47 35 34 36 37 38 28 34 44 45 32 28 28 23 43 36 51 31 29 28 48 37 34 32 37 33 29 34 36 42 47 30 30 36 36 28 28 32 35 31 31 37 42 33 32 33 30 30 35 31 41 41 35 33 31 32 44 35 36 26 35 32 28 34 34 32 37 41 37 36 41 39 24 38 34 37 33 42 33 32 40 39 35 31 19 38 31 39 43 40 37 42 43 35 36 30 24 36 41 47 33 31 34 39 36 33 34 36 33 29 37 28 36 22 31 32 31 28 28 37 43 33 47 43 28 40 43 38 32 29 41 27 33 38 45 33 31 36 43 29 30 43 32 26 34 28 31 31 24 27 29 29 29 44 34 31 44 35 29 47 34 27 34 28 33 44 43 40 31 37 32 35 28 42 26 39 28 29 29 28 25 42 28 30 31 32 33 49 36 32 45 37 36 33 32 39 35 31 46 40 26 26 37 33 39 37 29 35 25 34 42 34 39 32 26 34 35 51 30 41 37 40 27 34 30 36 31 37 43 35 30 32 43 38 32 28 32 36 33 32 28 28 41 40 32 34 37 26 35 32 50 27 34 26 29 28 27 35 36 20 27 28 25 45 35 35 29 45 24 33 26 29 35 34 30 28 37 32 30 37 33 34 40 25 26 32 32 47 41 29 26 47 28 30 26 30 45 36 36 25 29 29 30 31 36 34 36 32 30 30 39 38 36 34 34 38 45 36 33 38 27 31 37 30 35 37 37 39 26 38 41 41 33 35 38 33 37 27 42 33 34 37 33 35 37 34 38 24 27 36 47 29 29 32 35 36 43 36 31 40 32 20 26 35 35 40 37 26 36 24 35 34 28 34 28 38 34 33 26 33 34 24 34 34 32 50 31 40 31 33 39 33 39 23 33 40 32 28 40 38 42 34 36 35 32 38 26 40 39 32 26 35 39 42 31 31 28 25 44 38 26 31 36 32 37 28 28 40 32 46 31 43 29 33 35 41 25 21 35 37 38 32 26 30 26 31 34 31 32 24 39 42 32 34 33 37 23 33 45 31 29 38 35 42 51 31 32 35 31 38 22 33 38 30 31 34 40 33 33 45 32 33 42 42 28 39 33 37 30 25 34 37 39 36 39 42 34 33 42 27 31 46 39 30 26 43 30 28 35 34 35 40 37 35 32 42 33 29 38 43 34 39 23 30 45 36 29 38 29 36 40 30 30 30 30 27 35 35 45 24 22 40 36 37 41 26 32 37 37 26 27 33 35 42 38 27 25 38 41 39 32 33 30 36 40 32 30 40 44 45 29 40 37 30 30 35 40 24 38 41 27 29 31 34 33 33 38 30 40 32 29 38 29 25 30 30 39 34 27 49 46 39 39 32 34 40 35 37 30 22 33 32 33 39 33 27 36 45 33 33 40 36 41 27 44 33 31 33 32 33 34 38 33 33 35 30 34 53 30 39 33 28 29 24 35 34 42 41 36 39 24 32 28 32 24 21 30 21 49 32 19 41 28 33 29 56 44 34 33 43 30 30 23 34 36 30 37 28 34 38 33 39 33 36 44 36 29 28 37 45 34 31 36 40 38 34 34 29 41 34 36 34 34 38 38 44 31 37 34 36 39 34 37 22 34 23 42 26 33 38 29 32 31 43 28 31 38 42 44 28 43 30 29 33 31 48 30 31 40 33 32 28 36 29 46 33 36 28 34 36 30 31 26 32 42 26 40 32 40 23 33 49 35 40 36 35 29 34 23 33 28 36 34 28 39 43 29 30 31 27 30 32 33 43 30 29 33 33 29 40 38 47 41 40 32 32 28 29 34 51 41 31 32 33 26 33 34 40 29 29 29 28 31 35 34 37 41 35 52 25 31 31 39 27 33 32 30 35 32 36 41 25 26 33 28 37 35 34 32 25 24 38 31 36 37 31 36 34 48 28 34 42 33 33 26 35 38 38 37 35 26 26 35 30 34 35 32 28 30 34 33 34 43 24 29 36 31 39 27 26 28 39 32 36 37 26 43 31 37 28 31 37 31 26 35 37 30 29 28 31 26 43 38 27 36 28 31 25 30 38 24 32 27 30 38 39 48 34 27 31 34 38 33 45 32 31 41 31 37 41 32 36 25 33 33 28 32 43 32 42 37 40 46 36 41 32 42 41 32 34 33 34 24 43 31 30 28 39 30 32 36 33 24 32 40 35 36 41 31 33 35 34 43 30 32 31 34 29 27 26 39 33 33 33 29 32 29 46 39 45 23 36 30 39 23 40 27 34 28 26 36 29 33 29 36 28 37 37 26 32 35 41 34 35 30 37 26 30 42 46 46 33 35 43 28 28 34 42 32 45 53 36 33 29 38 40 36 31 26 38 36 45 35 40 41 30 38 26 26 40 35 37 34 36 22 32 30 38 38 33 27 31 32 46 30 33 36 38 26 24 34 28 28 28 35 35 35 21 38 30 38 31 37 22 29 38 36 28 37 36 25 47 32 40 22 34 31 46 34 41 32 36 33 30 33 42 22 28 32 34 32 48 38 41 39 33 28 30 26 32 22 24 37 33 35 40 35 39 34 33 34 21 18 29 25 34 34 36 36 35 38 39 24 30 32 39 60 26 35 28 28 32 26 29 38 37 24 27 41 38 39 43 37 27 30 35 42 36 33 28 35 25 33 26 34 43 30 27 32 24 40 31 30 34 44 24 34 30 32 33 37 33 27 37 35 41 16 27 37 44 28 34 33 36 43 32 32 36 35 29 42 21 40 41 30 30 39 33 37 30 35 40 33 40 31 34 41 32 35 43 34 23 35 34 33 38 35 39 23 32 36 39 46 32 38 27 29 31 28 32 38 27 33 36 34 31 28 40 33 27 31 29 37 27 25 47 32 44 39 27 45 41 32 36 40 39 35 41 35 32 37 37 35 37 40 40 29 33 41 37 39 46 34 30 32 43 32 40 32 41 38 39 24 28 30 37 28 42 38 26 35 27 43 18 44 29 37 35 41 34 31 32 29 27 45 34 30 41 43 37 42 42 37 38 27 32 32 41 37 40 40 39 35 26 34 35 41 32 31 44 35 38 29 38 23 33 41 40 26 42 43 27 35 38 29 35 39 30 41 35 33 30 29 53 28 32 37 40 39 31 27 36 32 36 40 23 33 43 34 35 31 32 29 32 29 31 36 42 33 42 29 31 38 26 20 42 32 30 31 17 31 34 24 30 31 28 40 29 27 32 36 36 40 35 35 29 29 31 37 25 36 25 33 31 45 33 36 24 37 37 29 48 21 30 37 38 29 30 28 26 37 35 25 33 39 39 29 39 27 28 33 42 29 45 22 35 30 28 24 31 45 46 29 32 27 42 23 25 29 41 34 43 31 24 35 28 39 33 36 39 37 35 38 29 29 26 39 37 40 41 32 29 41 35 36 23 36 30 32 24 38 33 33 44 42 41 32 29 41 30 34 28 38 28 29 31 40 29 30 30 33 47 28 24 38 39 43 26 42 31 43 35 34 39 31 43 35 36 34 38 36 48 41 31 31 45 35 40 28 29 32 30 26 29 51 29 41 33 28 32 35 35 37 38 30 36 39 38 24 26 33 27 35 29 35 40 31 33 30 44 49 32 39 24 27 27 28 29 28 28 38 21 36 30 31 36 40 30 30 28 27 23 35 35 37 40 27 31 24 28 35 41 33 42 40 38 35 32 40 34 36 20 26 44 23 32 28 23 29 26 45 26 32 27 38 34 25 28 40 32 41 24 41 41 32 32 35 39 37 26 32 39 31 28 24 32 30 36 36 23 27 31 36 34 28 47 33 37 35 35 34 33 32 41 35 26 41 30 30 46 28 29 31 28 25 30 40 35 36 35 43 28 34 36 41 38 34 34 26 38 34 37 35 35 24 35 34 39 34 38 42 32 28 19 36 26 25 35 28 30 35 38 38 34 31 39 39 43 43 34 42 39 29 23 42 44 30 41 38 40 25 34 41 33 25 26 39 31 43 42 46 38 38 38 30 34 26 28 27 35 53 38 39 32 38 39 29 41 40 33 34 25 44 34 29 28 30 27 29 31 47 33 36 23 37 36 28 40 32 30 30 36 36 27 36 31 36 26 34 40 38 35 45 29 36 34 30 36 33 26 29 27 32 38 33 31 37 30 28 39 30 31 27 37 30 44 28 37 36 39 32 23 36 34 33 29 29 37 38 38 31 39 40 32 31 37 32 44 30 36 41 29 32 37 31 42 30 35 30 32 24 44 37 38 34 37 36 32 33 29 33 32 23 34 37 38 33 31 44 36 32 35 28 44 26 31 26 34 43 30 31 30 37 33 30 29 28 33 37 44 34 36 31 35 36 47 32 26 35 34 32 32 44 34 48 36 36 38 33 32 41 41 28 29 32 43 33 27 41 29 35 33 38 40 27 25 30 30 29 41 33 33 37 35 34 37 37 33 39 34 33 36 32 28 29 27 34 31 32 38 45 39 45 44 28 37 38 38 32 25 39 41 27 29 39 40 30 24 29 37 33 29 42 35 34 38 34 39 46 32 25 38 49 27 34 40 25 27 33 34 38 39 28 40 36 29 33 36 36 36 41 31 30 35 40 41 31 33 29 35 32 24 35 33 34 40 33 24 33 32 30 31 42 37 37 39 35 33 28 32 25 35 28 32 32 38 30 41 21 39 36 30 22 34 31 41 47 32 30 27 26 40 38 33 32 28 25 37 29 30 44 44 33 34 29 34 27 48 36 23 40 35 31 40 30 32 40 39 30 36 42 35 29 31 33 41 28 29 39 31 36 46 39 35 37 30 27 34 38 35 34 32 31 32 38 37 24 21 47 37 28 36 36 25 37 40 27 37 48 43 29 25 30 33 31 28 27 37 24 26 34 33 39 36 27 30 35 38 37 32 29 37 32 35 32 28 27 38 37 26 33 32 31 36 31 26 29 34 28 35 30 31 46 36 37 33 28 49 31 38 43 31 34 26 29 36 39 26 37 32 28 24 34 29 44 41 45 37 39 31 39 35 27 36 37 31 36 33 34 55 31 33 33 27 31 34 32 31 40 26 45 32 37 41 32 34 37 42 42 40 40 38 38 34 41 34 33 30 28 35 27 26 36 31 34 46 25 32 35 35 33 31 35 32 43 30 32 24 35 42 28 40 32 28 30 21 27 37 31 40 31 23 23 38 34 30 36 34 38 32 40 37 28 41 38 29 36 36 36 34 25 32 44 34 27 34 40 39 20 37 34 26 31 38 35 29 32 26 27 30 32 28 29 38 35 30 39 33 35 33 42 26 34 28 33 39 38 26 33 33 31 31 35 33 40 28 33 29 25 37 33 43 30 44 35 33 38 32 31 29 35 41 32 36 30 37 27 39 39 31 29 34 36 28 39 36 32 43 36 28 32 42 37 33 42 39 34 30 40 36 24 36 39 39 43 29 37 39 33 31 33 41 32 39 33 24 39 30 30 25 39 33 32 39 41 30 29 34 28 45 27 29 27 31 29 37 29 30 40 32 30 34 34 29 32 35 32 36 31 28 40 37 23 29 38 30 39 49 31 30 28 42 21 30 34 31 33 24 38 28 26 42 34 37 36 33 35 31 38 34 37 31 30 38 32 41 29 28 23 26 40 34 26 36 32 44 36 33 30 29 39 37 33 28 35 30 30 47 35 30 32 27 46 35 37 28 29 33 38 30 30 33 35 30 33 38 23 37 31 24 35 34 27 32 35 30 31 45 32 38 36 40 31 43 31 29 41 34 37 43 29 31 35 31 31 31 30 34 28 27 28 31 27 37 26 35 33 36 31 39 36 30 34 39 28 35 40 49 32 40 26 33 50 32 30 35 29 24 23 34 37 33 24 36 31 32 32 38 30 28 37 36 50 33 31 31 46 30 30 37 30 31 31 31 43 25 29 32 33 36 41 32 37 28 28 35 31 45 32 41 45 38 32 39 32 31 31 39 38 33 38 28 37 23 26 30 34 36 26 22 44 33 44 34 37 34 32 34 35 24 23 27 42 37 41 21 32 37 28 39 29 33 30 33 37 33 42 46 29 28 35 21 21 33 22 27 31 29 27 40 28 34 37 25 34 37 32 32 25 28 30 25 32 33 33 35 30 29 30 45 29 30 29 31 40 39 35 35 31 38 31 43 38 28 38 43 32 44 38 40 35 37 41 19 30 27 44 31 44 39 31 45 30 34 41 43 31 33 30 28 35 25 32 30 33 36 38 29 36 41 33 25 36 32 38 31 50 29 30 36 40 25 29 33 38 35 39 30 28 38 37 38 37 37 39 37 31 40 43 37 31 29 48 46 40 34 36 45 38 40 32 33 33 35 31 31 38 21 37 35 32 35 28 34 29 35 34 29 37 28 31 49 38 25 42 33 39 31 35 29 34 36 39 27 31 39 37 36 33 34 32 32 22 34 36 34 33 26 28 36 41 32 28 32 31 30 37 39 23 27 30 30 32 35 38 31 39 31 33 39 31 29 45 36 32 34 42 36 35 40 35 35 39 30 27 31 33 34 43 30 40 33 34 29 38 25 37 39 45 31 32 37 41 36 37 34 30 32 28 37 29 31 38 33 41 26 35 30 28 40 37 37 28 29 41 36 31 39 21 44 41 37 33 36 32 37 35 38 29 33 29 35 32 33 36 30 19 35 31 37 27 41 34 29 28 37 30 39 45 31 26 34 44 31 30 41 33 37 31 34 32 36 35 24 36 42 31 32 25 41 34 25 29 22 32 33 24 29 35 26 26 34 40 34 32 31 31 33 25 56 29 35 37 35 34 37 34 25 36 33 30 39 43 32 30 27 36 35 39 28 35 34 29 34 23 32 35 30 27 26 46 32 28 25 30 27 28 40 42 43 41 33 34 19 34 45 27 34 38 42 39 36 32 28 32 28 30 33 35 28 38 34 31 31 35 28 28 30 39 32 29 33 36 38 41 31 40 32 29 42 35 40 35 37 31 30 42 37 24 32 47 35 41 30 32 33 34 31 40 26 35 34 28 34 28 41 36 34 42 31 43 35 36 31 43 43 23 30 32 32 24 30 25 33 45 31 35 38 37 33 40 31 33 33 37 26 34 32 39 32 46 32 37 32 40 33 43 34 31 28 30 38 36 39 43 20 30 31 34 33 30 41 28 35 31 38 31 33 36 43 39 45 36 37 32 30 28 34 30 33 31 32 29 29 26 34 32 31 29 40 27 30 34 40 30 31 30 42 32 31 36 26 30 30 35 29 28 33 29 35 40 40 28 33 41 34 43 28 44 35 20 51 24 45 29 34 26 30 39 28 38 29 41 31 35 37 35 37 35 35 37 35 32 33 34 36 44 31 27 27 27 36 35 38 33 35 35 33 38 27 35 38 25 32 27 34 40 33 21 29 28 37 40 35 37 33 32 34 43 35 27 32 27 34 37 38 34 27 38 41 30 36 38 30 37 24 32 41 25 27 37 30 29 35 21 35 38 34 37 32 35 31 39 33 30 33 38 29 39 32 50 33 39 34 31 34 34 34 37 27 40 38 35 37 26 32 40 24 34 32 26 32 36 37 37 26 34 33 34 32 33 33 28 42 35 43 33 31 35 34 36 32 34 34 27 31 36 26 43 38 31 33 47 40 26 34 24 31 37 45 34 36 37 39 32 28 28 38 32 40 37 24 39 29 38 30 35 34 47 27 34 43 34 27 30 28 33 35 28 28 37 40 37 37 35 28 23 35 48 33 33 37 43 27 32 48 31 39 31 34 25 37 43 37 44 31 30 40 36 25 35 25 30 27 38 34 35 35 28 26 35 37 40 34 50 39 34 38 37 38 30 27 34 34 33 37 40 39 24 37 31 30 34 41 40 40 52 30 35 28 43 36 48 46 25 27 30 33 23 27 42 37 37 32 38 44 42 36 24 36 35 26 44 32 33 36 40 36 26 31 40 42 35 34 35 42 29 31 38 38 33 39 28 27 40 37 29 32 37 26 40 29 39 37 33 32 44 30 35 41 32 27 39 46 37 33 25 42 25 24 40 30 38 37 37 39 30 42 37 46 48 32 38 34 27 36 31 25 38 32 37 33 36 35 34 39 34 40 23 40 36 26 19 42 27 34 38 47 26 35 35 33 29 29 47 37 32 32 30 48 39 30 34 39 37 30 43 31 35 33 34 23 40 38 28 33 28 39 39 35 34 25 38 32 31 29 35 31 33 42 24 40 26 47 33 33 26 24 30 37 49 35 35 38 32 31 45 33 34 28 41 26 29 27 38 26 38 44 48 47 31 37 27 30 36 25 33 36 32 17 32 28 39 46 35 29 30 30 33 28 30 39 34 33 38 33 23 31 34 43 33 31 27 44 43 46 35 36 35 44 38 52 26 31 27 33 21 42 36 37 28 24 43 25 26 25 35 35 26 44 42 44 31 37 38 32 36 31 35 25 35 25 27 44 24 30 40 43 23 36 30 22 34 33 30 39 40 41 31 32 32 39 37 29 41 38 33 31 40 26 38 30 33 37 38 24 28 42 36 26 36 32 41 27 27 31 29 37 34 26 38 40 41 34 32 34 33 35 38 43 40 36 29 34 28 39 35 38 33 42 26 28 42 36 37 30 34 43 43 35 38 30 44 25 39 37 31 35 43 29 46 32 42 37 33 37 34 28 36 37 33 26 38 31 36 32 35 33 36 38 31 30 37 40 36 47 32 27 41 38 24 31 34 33 27 37 34 28 33 31 31 31 35 32 33 39 25 32 30 42 28 31 34 44 28 37 42 28 38 32 36 34 24 34 27 38 38 31 29 32 35 25 38 32 48 37 31 36 34 32 34 34 33 24 39 32 30 29 28 28 22 37 32 33 25 36 32 32 34 39 33 34 33 29 38 37 26 30 34 26 37 28 44 38 31 31 29 27 37 29 50 37 36 38 39 35 36 38 34 34 39 36 26 43 33 43 26 34 47 36 25 34 31 26 29 32 29 29 31 28 39 24 27 34 34 34 41 31 29 34 38 35 40 27 44 39 33 32 29 34 41 31 32 40 25 27 28 38 31 35 29 33 33 37 32 40 31 41 31 40 30 42 25 29 28 28 23 31 28 37 35 25 39 26 32 36 38 32 29 30 34 36 39 41 27 36 38 35 37 42 38 23 31 29 36 28 41 27 41 28 30 30 28 34 32 28 32 35 32 34 48 43 36 35 28 37 37 33 35 32 43 41 34 39 31 32 22 46 25 33 32 30 35 33 25 45 44 26 34 36 37 35 45 40 34 39 32 29 29 20 41 40 25 28 28 39 39 31 35 38 30 41 33 24 38 52 33 25 38 28 26 25 50 43 24 27 34 29 44 38 30 30 34 29 18 34 24 36 33 29 34 34 31 22 29 32 27 34 41 37 36 34 37 43 42 35 35 41 33 46 39 40 35 32 30 36 39 32 26 35 38 32 29 24 26 34 32 40 40 47 23 30 31 32 33 35 35 21 30 34 33 30 34 30 36 35 40 40 31 34 32 33 30 24 37 26 32 37 25 33 24 31 31 40 28 40 31 35 40 42 35 33 29 32 40 35 36 39 36 41 28 28 43 32 31 27 35 34 28 33 32 35 37 36 27 36 31 36 33 39 39 25 24 33 24 33 37 29 27 35 39 33 33 31 27 32 28 36 35 27 34 28 23 29 30 34 32 43 44 43 23 31 40 28 40 30 32 31 36 32 30 30 22 42 28 27 30 30 41 31 36 32 38 46 32 29 33 28 26 31 25 41 37 35 38 30 37 39 27 41 38 38 36 38 33 29 25 35 34 37 40 40 26 38 31 44 28 44 32 43 38 34 37 20 28 31 30 40 28 38 44 56 29 27 36 31 42 28 29 36 36 51 38 38 26 27 29 44 32 27 26 43 34 44 30 32 29 31 22 40 36 38 30 43 26 33 34 43 33 37 24 36 27 33 40 40 34 27 34 34 42 36 20 37 26 21 42 22 31 46 46 32 50 26 37 44 31 32 30 33 35 25 38 23 33 35 34 39 28 37 23 32 40 27 27 38 34 28 34 34 27 29 33 35 21 29 38 23 38 40 37 26 39 29 39 39 35 40 31 35 42 33 35 30 29 27 35 29 25 33 36 24 35 39 35 37 32 31 31 36 29 36 41 36 30 31 40 39 36 38 31 39 36 25 38 30 32 36 34 35 35 45 39 46 33 29 24 33 23 50 36 23 45 45 30 35 23 27 31 33 45 32 27 30 32 36 22 33 38 23 35 31 26 26 50 52 41 28 36 36 39 24 38 40 29 42 34 32 36 43 28 28 30 26 34 26 33 37 36 29 37 34 27 37 40 37 21 37 37 29 34 45 32 28 24 26 36 37 39 33 30 33 38 39 26 28 37 34 19 33 32 24 33 24 25 29 40 31 43 34 25 36 33 28 27 40 32 43 28 29 32 31 35 37 32 41 31 43 34 26 34 26 44 31 33 30 35 40 29 33 36 33 25 30 34 29 37 38 27 34 31 34 33 28 34 42 26 27 29 32 22 28 34 29 32 36 27 32 33 33 27 22 32 38 31 36 26 29 26 33 19 33 46 29 36 26 39 35 36 39 17 31 32 38 29 36 27 34 33 31 15 34 32 36 33 29 31 27 33 41 42 28 39 31 38 42 34 33 40 39 47 33 37 23 44 35 32 38 43 36 32 43 26 34 39 32 41 34 33 28 31 29 24 41 30 32 35 28 34 25 34 32 27 38 45 37 31 24 37 45 36 37 33 41 35 43 30 31 28 31 38 31 35 38 33 31 41 29 29 27 28 24 38 43 30 36 36 22 46 30 40 33 33 42 38 42 28 31 32 26 32 32 29 35 26 29 38 31 32 34 35 28 33 35 34 28 27 24 29 24 34 28 35 28 40 33 30 39 32 39 35 27 36 36 31 25 43 28 26 28 31 32 26 33 36 41 31 42 37 34 36 27 39 39 42 44 36 26 34 39 33 37 36 32 31 31 21 32 38 33 27 28 36 21 32 32 41 35 34 36 29 34 41 32 35 41 26 34 33 35 31 34 28 28 38 51 38 37 32 33 30 35 35 37 34 27 38 37 39 38 31 35 35 28 40 30 27 35 38 27 37 44 30 29 40 36 31 39 46 41 40 32 38 28 39 31 24 38 41 31 38 37 35 33 28 37 27 34 30 35 34 35 34 29 30 25 29 35 32 30 29 33 34 39 36 27 32 34 39 26 36 39 41 41 37 32 39 36 31 28 36 33 26 40 33 35 36 34 30 38 37 35 36 31 29 27 37 36 25 27 26 34 30 42 36 29 32 39 36 40 32 31 30 26 23 29 33 23 33 30 30 29 38 28 33 37 40 29 35 45 29 38 29 28 33 33 36 42 35 29 29 31 30 32 32 36 37 40 28 31 28 30 28 39 33 29 27 33 27 36 33 33 37 26 46 44 28 30 29 31 34 40 34 40 31 20 40 41 44 27 30 32 36 31 36 30 27 30 41 38 38 38 29 22 33 35 24 34 40 29 37 35 31 33 30 17 33 28 35 38 23 36 38 23 33 28 38 32 46 35 30 32 40 32 35 28 36 33 23 28 40 35 30 43 31 30 26 40 33 36 36 31 32 41 32 29 31 40 50 26 36 33 44 36 34 41 39 33 31 33 28 39 42 32 28 37 31 38 33 36 44 32 34 30 35 32 38 42 37 34 34 36 40 29 38 29 40 43 35 39 33 29 29 44 48 44 36 31 36 33 34 38 36 36 40 31 37 25 28 31 26 45 33 34 41 35 29 36 27 24 45 33 33 43 43 36 40 40 39 37 35 36 25 27 27 31 44 38 36 31 29 40 39 44 38 41 35 45 42 35 34 25 30 34 26 35 36 39 34 31 36 26 32 35 36 30 31 40 40 44 38 33 39 36 39 31 48 32 40 28 38 38 27 34 32 34 30 39 28 50 31 24 29 42 33 31 25 36 38 29 32 36 32 35 26 31 24 43 36 34 38 37 36 41 39 33 32 35 32 35 30 29 34 29 37 44 29 35 39 22 31 31 22 36 36 35 38 36 28 37 33 37 32 29 38 36 32 46 33 38 38 30 43 40 31 41 39 40 33 27 42 33 33 31 36 25 31 29 27 33 31 38 28 31 39 33 38 31 32 29 30 52 36 29 28 26 37 36 34 29 36 37 45 39 36 25 33 40 34 44 40 33 37 39 40 36 33 36 35 39 34 37 31 32 38 29 38 26 28 23 32 33 31 41 35 43 40 34 31 37 49 33 36 25 45 29 31 41 38 28 28 30 36 28 50 29 44 46 33 34 33 32 29 32 27 35 35 37 44 29 28 31 24 33 32 39 38 29 35 47 32 27 46 30 36 33 30 27 36 28 39 36 47 39 26 36 36 33 39 41 32 27 34 26 34 30 38 30 31 37 31 26 26 34 30 36 23 29 41 42 39 41 35 28 42 32 30 28 32 36 34 33 25 29 34 37 28 39 34 42 42 38 30 39 40 26 29 35 41 35 46 24 35 39 31 36 30 32 33 39 42 24 35 37 42 28 44 32 40 45 34 27 26 41 41 32 38 34 36 29 38 32 39 34 28 35 47 21 36 32 36 27 37 33 29 30 35 31 39 33 24 31 23 35 31 34 32 30 26 37 24 33 37 27 33 33 44 32 30 39 35 31 41 28 42 34 30 31 35 34 29 42 44 40 38 34 29 49 36 36 48 31 35 30 30 35 30 30 45 39 41 29 32 34 30 29 35 34 27 32 31 32 36 25 35 36 28 36 36 45 53 33 37 42 33 47 42 29 26 35 50 27 31 36 43 34 24 32 30 31 27 36 35 31 37 22 47 34 42 37 27 36 32 35 41 40 44 44 27 43 37 34 31 38 34 34 27 45 25 38 33 30 26 32 26 45 29 40 42 33 36 36 32 31 36 36 26 41 40 39 41 33 31 45 36 35 37 25 36 31 28 31 29 35 24 32 45 38 32 37 33 33 28 25 33 29 37 33 28 27 37 21 32 38 22 29 21 27 40 41 34 39 36 34 34 23 48 26 35 32 30 25 39 30 38 35 31 39 30 30 27 40 27 34 37 28 38 19 43 30 17 38 26 38 36 30 35 31 37 28 31 33 33 33 31 38 31 40 37 36 33 34 30 41 24 28 36 40 41 33 33 26 37 25 33 42 40 31 32 43 41 52 28 42 32 29 31 30 20 40 38 36 34 31 45 29 31 26 32 35 39 29 32 29 32 29 31 40 44 42 28 40 27 36 42 17 36 34 25 35 26 34 34 34 36 30 37 30 31 26 38 35 27 34 26 29 33 27 34 39 31 32 40 33 32 44 34 40 32 28 37 28 33 30 35 33 22 30 40 37 30 31 33 36 34 39 43 44 35 39 47 40 31 43 27 43 35 28 32 38 31 28 33 32 35 32 27 39 33 36 23 43 34 36 33 36 34 24 32 35 38 32 45 38 38 35 29 35 33 37 29 26 33 32 35 36 52 39 30 35 41 40 31 37 35 40 23 46 30 47 39 37 29 29 41 37 35 28 31 25 32 35 29 30 27 28 33 40 33 25 30 27 39 31 41 25 35 29 37 44 33 28 42 33 34 29 39 31 38 41 30 33 28 43 33 29 27 37 27 33 31 29 33 29 29 35 38 24 44 33 34 30 31 29 31 34 32 41 27 32 24 32 33 37 30 30 27 32 40 34 28 30 40 33 41 27 30 32 34 32 38 28 33 27 37 33 30 34 46 30 44 34 33 36 36 27 30 33 31 44 34 30 42 44 32 28 31 34 36 39 31 29 34 39 26 29 34 37 30 35 32 34 29 40 35 34 31 45 33 33 35 41 37 31 33 30 35 41 27 37 39 27 34 24 40 33 32 38 41 37 21 36 36 36 28 35 32 31 32 35 28 34 26 28 27 36 40 25 33 40 30 43 30 29 37 34 35 26 25 31 36 34 22 40 32 24 43 33 34 37 34 40 33 45 40 36 23 31 35 29 23 37 29 23 47 28 32 32 32 44 46 28 36 33 30 40 28 37 36 34 36 28 27 39 32 27 30 26 33 40 34 30 35 32 43 25 30 25 31 35 41 34 32 31 37 33 29 33 32 23 41 31 42 43 35 34 46 40 33 32 35 33 34 37 30 43 37 31 33 41 34 29 35 32 28 30 30 47 41 37 30 29 32 40 35 24 36 36 28 30 35 29 42 35 41 29 33 34 33 35 39 37 34 22 34 48 39 21 43 34 32 35 37 34 30 37 39 31 39 32 36 34 30 36 35 25 26 35 34 30 32 21 41 33 38 32 30 40 30 40 25 36 38 27 36 31 35 35 23 50 42 32 38 39 36 42 33 26 31 38 38 25 48 33 38 33 38 31 38 30 30 35 27 34 35 39 38 31 39 31 34 39 30 31 30 40 38 29 40 37 24 30 30 33 32 31 33 33 35 31 33 39 27 34 34 33 42 52 31 30 38 26 36 30 27 34 29 37 33 33 31 23 25 27 32 33 36 23 33 34 27 39 38 37 30 25 35 39 40 35 25 33 35 33 39 37 43 35 28 37 36 45 19 35 19 34 38 29 39 30 42 34 34 31 33 34 27 33 35 36 41 31 23 21 37 44 24 39 26 31 39 25 36 33 35 41 36 25 31 32 48 34 21 39 35 27 31 28 37 29 34 35 39 38 33 34 30 31 23 43 30 32 33 28 20 37 34 25 32 40 37 32 27 35 40 36 30 37 42 37 26 29 33 35 39 37 33 31 33 27 33 41 33 29 30 27 47 40 32 38 38 44 48 36 39 37 30 44 37 29 31 33 23 28 30 38 41 37 28 33 31 37 38 35 34 34 41 31 18 42 38 34 31 35 32 37 49 26 29 29 33 36 45 39 32 31 32 26 36 32 35 27 41 30 28 39 34 24 30 31 30 38 37 20 38 40 34 34 43 32 42 31 23 45 27 38 28 24 28 24 33 43 29 39 35 30 38 34 34 35 39 31 38 29 35 28 29 35 38 31 31 33 31 37 31 35 26 36 28 39 39 37 29 22 30 28 36 28 28 24 33 23 44 30 34 30 33 38 34 25 41 32 37 45 32 40 37 43 32 34 30 28 42 38 27 31 43 34 35 36 30 29 39 25 35 36 38 43 45 30 38 34 22 33 25 34 38 41 31 28 37 39 40 37 30 36 36 34 38 29 40 30 31 40 38 37 33 30 42 36 32 33 30 40 20 33 36 29 40 35 42 38 30 34 38 41 31 32 30 40 20 44 27 37 35 34 45 30 39 28 36 40 28 36 29 34 37 37 39 32 34 39 35 28 34 36 41 25 34 32 49 34 41 38 35 45 35 35 35 34 34 38 29 29 35 33 26 30 38 36 42 25 30 41 36 34 31 31 39 32 28 30 33 23 30 24 37 33 49 34 34 23 29 38 37 30 29 31 33 42 39 30 34 31 39 38 36 34 48 37 34 31 28 34 36 43 38 28 40 31 29 34 34 29 32 37 33 24 33 33 45 42 31 47 37 39 32 40 41 30 37 27 44 33 48 22 36 35 37 39 46 38 30 24 35 34 47 34 33 37 31 34 26 32 35 30 37 35 37 30 45 29 26 39 31 28 31 22 31 29 38 26 37 45 41 30 38 46 44 26 44 23 43 28 33 38 31 42 32 29 33 31 30 35 33 48 39 29 31 41 28 36 41 22 35 36 26 31 30 41 26 40 24 30 38 33 35 39 44 28 36 36 35 34 32 32 37 32 34 35 37 29 35 36 37 36 35 40 36 42 32 30 31 28 28 40 29 29 40 33 35 34 31 29 30 36 38 29 42 37 35 25 36 38 38 45 35 26 49 24 47 36 32 48 41 43 38 34 35 32 38 36 27 36 32 37 33 39 33 28 39 38 37 37 46 39 29 29 32 47 35 39 33 37 33 27 29 38 32 32 33 36 41 29 35 39 29 34 31 28 30 25 38 37 32 34 40 48 32 19 35 38 41 33 30 37 35 32 36 35 26 27 29 40 27 43 35 35 31 42 27 39 36 28 28 32 32 31 38 42 35 41 36 37 34 31 37 36 29 29 38 26 25 40 43 26 31 31 36 29 33 35 40 34 32 36 32 36 25 42 35 30 34 33 31 33 31 29 34 34 29 25 34 29 34 29 29 35 31 34 24 44 26 29 37 33 31 44 31 35 35 24 40 32 49 32 34 37 22 36 25 30 36 40 30 34 26 37 27 47 39 29 39 36 34 37 31 28 34 41 35 41 32 31 35 37 32 35 31 35 28 43 36 43 29 40 31 25 30 32 26 30 34 35 37 35 39 37 39 30 37 37 26 42 27 38 33 31 45 29 32 37 28 30 47 32 37 41 27 29 43 33 30 37 33 30 26 49 31 32 33 40 39 37 37 31 38 26 41 39 30 40 52 44 39 38 47 29 29 36 41 39 30 28 34 34 34 39 25 37 29 38 37 31 33 28 38 31 36 32 30 31 33 37 31 30 45 29 31 46 32 31 38 32 38 32 36 26 32 43 32 34 30 41 28 32 33 42 40 38 36 28 29 28 36 34 32 26 35 32 33 34 26 39 36 32 39 32 28 39 42 24 34 36 40 31 34 34 32 34 45 38 33 31 33 29 28 34 33 21 22 30 35 30 32 26 33 33 36 39 36 25 27 38 32 37 30 21 22 31 29 33 36 25 36 34 20 29 32 34 38 32 36 43 36 35 32 30 37 26 32 38 33 36 32 26 24 28 35 29 35 24 38 28 36 43 40 29 32 38 40 37 36 38 39 34 26 30 33 47 38 39 28 33 39 33 25 33 34 33 26 37 32 30 33 34 35 31 35 40 19 39 38 34 33 33 39 28 38 34 33 24 39 46 30 32 41 38 42 39 27 29 33 44 31 28 35 39 37 33 37 41 38 37 42 38 36 37 31 28 30 33 37 30 24 38 47 39 43 41 39 27 52 35 43 27 38 37 38 41 35 25 38 42 35 35 36 36 50 19 29 46 29 43 34 25 32 33 39 40 42 40 32 33 36 37 38 37 24 36 35 34 36 39 34 29 38 32 32 34 41 35 26 34 38 33 31 31 31 33 26 33 26 37 24 32 30 29 33 32 31 39 28 31 24 37 51 33 28 37 30 32 36 39 41 23 21 28 43 38 35 34 36 36 37 43 32 37 29 37 33 31 34 37 25 33 35 32 33 30 38 39 19 23 31 41 29 43 28 37 34 30 37 27 30 46 28 35 28 36 36 29 28 46 32 38 25 39 29 36 33 36 38 25 37 38 29 29 29 36 33 24 34 23 33 41 31 42 38 41 43 35 39 32 33 36 32 31 33 36 33 35 22 25 26 32 32 30 38 38 34 37 28 35 37 30 34 32 39 48 31 29 28 29 34 29 22 31 38 32 28 40 32 31 31 35 36 33 34 31 29 23 34 36 42 42 37 26 35 38 38 40 33 30 47 31 34 40 32 24 32 41 35 34 30 33 28 37 33 46 33 33 36 31 30 27 34 39 34 34 32 35 27 41 40 35 25 32 27 29 37 32 35 35 39 28 33 33 32 35 36 43 36 28 27 28 32 33 33 39 38 32 30 40 33 27 26 29 43 23 42 34 39 34 37 37 45 31 46 39 34 36 23 35 30 42 35 24 28 40 29 27 27 35 29 44 36 34 24 28 30 30 35 33 32 40 31 29 30 31 32 28 36 37 40 30 34 35 30 29 24 34 22 38 26 35 31 35 36 29 36 43 38 36 26 39 29 36 33 26 28 28 42 30 37 40 29 30 20 30 39 30 39 30 36 33 45 27 34 33 36 29 46 39 34 35 21 35 30 33 34 44 29 33 25 35 26 36 41 34 37 43 27 41 29 34 30 40 32 31 31 36 32 29 24 29 48 46 46 37 39 44 34 30 40 44 41 38 37 32 38 32 35 36 34 29 33 29 29 40 33 29 30 30 37 29 34 24 36 38 33 28 39 30 35 33 31 32 37 41 27 33 37 48 37 28 27 31 39 36 33 55 34 31 37 40 38 34 24 37 33 36 31 37 45 27 34 45 40 48 36 31 46 41 28 29 38 31 32 33 26 37 32 32 28 35 29 36 33 29 40 43 35 33 36 35 25 42 34 34 28 36 31 37 34 20 27 29 43 38 37 36 18 32 40 45 37 33 32 33 40 28 31 29 33 29 25 39 45 40 30 29 37 33 45 40 23 36 30 28 31 34 39 35 29 33 30 40 50 29 46 23 29 31 40 40 34 37 33 42 28 34 36 43 31 28 43 35 32 35 32 26 26 32 26 21 38 28 40 35 30 38 36 26 38 34 37 35 29 31 42 32 29 30 35 27 26 34 40 38 29 31 31 35 27 34 33 28 28 26 36 28 20 27 41 35 19 37 29 37 34 23 31 36 41 44 25 32 34 32 28 43 33 30 40 36 27 40 23 38 27 24 41 37 28 39 36 23 40 27 29 37 37 33 36 37 31 33 29 27 34 38 36 39 41 25 29 33 31 45 38 42 40 24 36 39 32 27 35 29 30 34 26 38 38 31 31 26 31 25 28 37 33 45 38 30 35 33 30 35 37 35 29 39 25 41 38 27 34 33 38 33 28 29 36 33 35 26 44 30 33 37 31 23 23 38 37 38 33 27 34 30 32 33 43 36 37 39 33 29 31 33 33 35 30 32 42 31 34 37 39 33 31 39 29 33 23 34 25 33 22 30 32 32 30 32 30 37 39 33 32 43 33 49 37 33 34 36 27 46 32 48 43 36 42 26 43 33 31 38 23 40 52 29 30 35 34 34 37 38 46 22 44 34 37 35 32 23 33 33 29 35 27 37 31 37 31 41 32 33 37 34 48 28 28 33 36 28 27 23 34 35 36 34 36 36 34 30 47 28 29 34 44 35 37 29 33 36 20 39 21 34 29 41 39 34 48 36 39 29 28 30 38 41 40 50 33 22 45 28 43 32 32 30 32 35 35 32 38 27 28 36 29 30 34 30 31 31 29 33 21 22 33 43 32 34 42 27 32 30 26 33 33 34 33 26 32 38 25 32 31 27 33 29 32 31 26 41 42 38 40 33 36 37 42 39 40 36 37 30 38 26 24 36 26 35 41 34 38 46 40 33 35 37 23 25 22 30 26 33 27 34 30 33 35 41 33 44 34 36 32 30 38 30 28 29 36 37 28 37 34 45 35 40 30 36 29 28 37 27 39 46 31 35 32 26 28 36 26 29 36 37 28 29 25 25 40 34 32 28 36 36 34 32 30 37 44 52 32 31 30 36 38 30 40 31 32 27 29 35 34 42 28 28 37 30 37 29 34 39 23 37 37 36 25 25 40 37 40 33 39 26 36 31 27 38 31 33 41 32 45 39 38 37 38 26 31 37 33 30 28 41 28 35 39 24 35 29 28 38 37 26 31 30 36 35 42 36 28 32 33 32 24 28 43 27 30 39 36 35 42 49 24 42 39 35 28 29 33 34 26 31 24 40 32 41 34 33 31 37 30 30 32 36 31 50 37 36 38 29 31 27 37 24 22 42 30 31 43 30 47 21 36 27 30 36 36 32 28 38 31 30 28 34 42 35 27 31 31 31 34 36 31 28 38 32 41 27 30 29 43 27 43 35 31 32 45 26 28 42 31 23 24 36 26 29 42 37 26 31 45 34 34 35 30 30 38 39 36 32 30 31 27 36 28 34 37 31 38 32 29 41 36 31 43 30 40 30 39 30 36 32 23 28 32 26 30 32 29 31 45 21 33 31 35 32 38 24 35 38 29 30 34 33 32 29 38 48 36 26 39 39 37 36 31 33 39 37 27 31 28 37 28 37 35 30 31 33 40 30 24 39 39 29 32 30 33 38 28 47 31 35 36 35 35 26 26 31 32 29 46 29 36 40 27 34 29 33 32 38 36 25 40 26 39 42 36 35 36 31 24 36 26 36 34 37 22 19 34 28 22 29 39 30 28 31 32 34 27 40 43 42 31 26 39 28 41 33 41 34 29 38 37 28 34 41 42 25 33 32 34 32 26 34 26 30 31 37 31 32 26 41 38 29 38 36 35 28 28 23 30 36 37 35 32 32 37 29 34 33 29 28 35 38 29 28 35 27 25 41 33 35 29 37 41 47 30 39 33 35 33 32 34 28 33 37 40 39 40 38 42 30 29 33 32 35 23 39 45 37 32 30 27 28 34 36 36 29 31 44 34 31 39 37 36 25 32 38 33 50 36 30 26 36 37 39 28 36 29 27 40 34 34 37 39 42 29 33 31 40 37 31 38 33 28 33 34 30 23 38 31 32 36 32 33 37 30 24 30 36 29 28 36 41 28 34 38 32 34 33 29 25 31 37 35 44 35 25 41 29 31 34 31 35 33 35 28 36 38 34 32 33 39 32 26 44 48 35 39 32 26 32 40 28 37 36 34 34 37 39 33 34 34 29 38 27 39 38 29 31 40 32 38 27 37 30 32 29 30 28 36 40 30 33 35 31 37 44 27 36 39 43 29 28 33 30 40 29 34 34 46 33 36 32 29 32 33 29 37 36 41 40 36 39 32 40 29 24 25 36 28 34 27 39 30 39 36 37 44 31 39 32 39 39 42 33 36 28 38 30 39 46 34 51 31 43 38 41 38 41 32 33 34 33 31 41 44 36 25 37 32 27 26 34 24 27 27 30 29 30 35 35 39 40 25 42 39 30 44 27 32 31 37 41 32 26 33 29 36 44 25 50 34 40 36 33 34 41 33 38 31 31 31 39 30 39 29 37 37 45 39 30 35 32 38 26 39 29 39 32 37 37 32 23 35 37 35 36 38 43 34 31 33 39 27 29 35 33 28 40</t>
+  </si>
+  <si>
+    <t>JSU(-21.015324289939684, 16.165558938717293, -436.13388790052903, 399.4381072106483)</t>
+  </si>
+  <si>
+    <t>285 254 270 214 236 236 278 319 308 259 278 249 193 256 198 266 276 259 199 243 282 254 210 218 363 349 252 329 318 257 184 272 192 216 307 274 152 274 146 170 233 265 324 214 207 172 282 296 253 244 252 262 218 198 280 271 217 191 219 238 196 236 249 236 208 252 142 226 154 307 163 301 235 222 193 249 180 170 295 326 317 205 209 280 248 184 215 245 271 219 246 283 223 260 209 277 188 204 208 302 351 224 243 322 356 238 175 180 273 236 266 246 268 301 226 215 242 214 188 233 140 222 172 265 148 208 209 246 243 302 220 209 268 244 298 237 221 322 386 241 218 202 275 193 250 218 336 238 306 207 287 255 133 172 255 212 233 309 173 313 188 260 229 242 183 224 256 210 272 173 285 262 262 232 266 224 208 165 204 330 222 176 169 266 280 228 259 178 242 228 247 245 270 218 215 219 240 226 262 296 286 234 204 255 291 291 175 236 252 199 336 234 265 208 258 132 147 351 152 222 187 202 302 266 284 234 311 178 174 202 188 179 257 244 215 298 198 329 258 214 341 341 293 235 271 207 196 220 234 268 146 245 245 246 235 216 202 254 160 225 202 236 170 252 211 333 146 347 182 256 288 415 312 261 301 183 215 242 249 254 343 249 349 267 275 180 192 292 204 241 226 272 307 265 202 152 175 198 245 240 211 219 184 195 206 337 291 238 295 234 248 265 222 311 221 189 293 209 219 236 307 259 233 184 270 267 213 221 247 252 237 229 229 233 246 184 302 264 194 313 338 263 269 218 223 144 171 173 241 239 275 274 317 266 259 311 216 231 133 211 254 223 267 176 211 253 202 254 219 279 173 227 209 269 282 218 234 280 296 132 147 255 207 183 299 200 221 241 212 228 269 205 273 206 248 240 238 266 196 135 316 148 285 291 280 235 198 252 189 162 239 326 270 229 146 288 245 227 213 196 212 229 271 313 272 213 185 210 198 299 263 260 339 215 234 254 154 133 273 236 149 256 128 277 182 241 262 239 212 192 211 208 286 290 411 196 211 173 264 300 284 276 285 262 246 275 277 286 348 284 227 288 150 243 301 272 248 336 216 229 175 249 219 298 267 188 316 404 319 230 247 261 319 245 328 300 219 294 179 303 244 234 261 268 175 223 297 286 275 223 201 227 258 265 264 271 282 303 215 212 271 253 275 224 208 286 294 238 247 243 219 260 294 185 301 342 357 273 210 360 219 302 223 154 235 194 278 286 243 204 229 238 126 252 283 343 202 281 326 204 216 296 192 315 289 216 278 202 292 256 246 280 285 307 201 181 221 253 267 298 203 262 194 183 264 219 238 221 230 288 279 174 297 270 240 264 227 187 190 313 304 231 210 239 201 303 232 176 291 263 221 308 278 212 308 240 322 221 151 321 294 148 241 329 283 167 243 244 261 281 180 211 187 240 193 229 309 174 287 211 229 194 230 254 165 271 277 291 184 214 170 225 223 269 249 186 242 268 219 315 188 212 187 259 195 226 189 271 147 252 247 262 280 308 319 276 205 302 236 219 355 180 232 262 143 299 321 233 283 156 292 350 238 275 245 177 260 190 273 288 219 203 265 181 242 347 227 225 226 255 171 297 207 204 274 257 216 208 200 257 263 266 304 258 238 204 182 275 212 206 181 177 259 242 323 241 183 174 259 285 202 165 232 229 207 260 272 221 289 142 164 232 280 280 225 235 265 195 251 220 227 229 183 246 164 256 274 284 231 294 204 224 266 288 243 225 239 194 209 162 213 212 253 347 248 225 280 231 164 259 279 250 206 310 246 322 156 250 280 357 235 191 169 146 269 256 334 258 194 228 287 266 187 211 299 295 180 251 264 339 376 194 281 327 263 146 164 194 289 271 262 174 259 295 286 192 213 207 246 245 354 239 224 267 251 264 291 281 314 218 158 267 235 228 222 230 304 223 230 271 307 280 165 321 237 233 224 281 267 254 263 304 196 212 200 217 220 363 223 257 255 244 311 285 238 258 186 243 321 261 216 256 219 326 303 268 198 292 309 215 229 227 258 162 286 229 217 232 197 262 319 192 328 274 188 273 311 284 191 220 171 262 237 259 379 255 187 266 320 238 284 309 255 251 230 189 243 347 176 227 202 188 237 332 250 279 243 232 245 321 280 270 280 198 207 289 226 328 259 288 236 269 174 271 244 299 217 187 256 150 218 289 208 233 226 258 293 322 254 260 322 295 185 250 257 269 298 226 335 288 153 206 240 241 288 353 211 254 178 249 228 258 250 211 160 218 229 418 256 266 300 263 222 227 228 238 242 284 277 244 263 197 250 290 237 230 221 261 251 204 212 228 313 247 289 254 183 197 204 172 260 262 258 153 238 167 143 194 234 165 209 165 150 362 286 291 235 283 223 199 170 226 234 237 274 211 269 226 219 226 233 323 278 142 197 227 242 262 359 211 182 375 188 220 268 168 241 282 303 190 234 203 242 246 289 279 293 249 172 225 291 301 302 244 270 285 324 342 290 277 221 223 284 222 264 278 259 272 199 225 280 315 243 275 305 252 214 212 317 247 261 262 210 222 212 201 188 167 171 268 270 187 211 205 321 232 274 204 230 252 231 197 220 263 267 261 307 231 303 162 289 244 213 270 232 280 288 225 220 262 277 201 221 223 185 318 302 310 242 207 269 251 252 213 201 319 257 213 241 246 265 275 323 225 269 313 227 261 300 239 156 229 258 264 197 206 173 231 328 235 216 272 283 246 316 187 199 280 205 264 242 355 202 223 213 239 171 149 241 288 300 278 216 162 238 251 197 283 298 190 308 288 256 264 253 310 195 232 323 247 204 285 250 311 357 241 135 298 264 273 155 291 295 241 189 225 303 258 277 304 220 255 250 294 205 202 221 250 180 190 304 271 301 225 340 294 220 250 262 171 251 348 291 327 196 284 185 158 209 259 219 282 223 208 208 304 269 233 234 386 255 327 175 204 241 255 221 271 237 284 276 175 209 194 152 202 256 330 275 154 126 291 285 247 266 203 222 337 251 202 193 229 277 302 293 196 192 216 337 285 233 279 261 305 296 196 161 333 416 273 238 291 243 191 256 243 234 221 306 314 200 250 243 218 226 219 244 205 318 200 255 286 202 151 221 231 263 213 192 257 282 319 232 245 225 246 239 295 259 156 238 197 274 334 233 224 257 279 218 232 298 278 346 235 324 162 201 189 228 188 205 302 202 268 265 214 242 314 186 306 226 195 239 181 259 230 311 279 231 255 166 218 182 263 188 168 200 189 378 155 131 287 230 221 239 383 407 201 233 296 210 201 162 233 243 231 252 183 203 256 249 311 279 274 335 267 202 213 295 305 285 201 281 226 349 249 261 270 298 269 265 255 264 263 238 334 211 255 259 259 294 292 268 170 236 173 255 208 239 282 217 199 211 244 232 220 305 326 264 189 311 210 212 187 182 301 231 269 205 244 253 198 235 322 373 199 310 216 251 302 176 337 162 252 322 223 333 191 234 180 288 357 278 291 198 275 256 221 161 287 149 230 209 234 301 329 182 190 182 206 167 195 296 301 233 229 185 239 214 268 252 367 263 326 289 220 234 230 199 343 228 173 196 251 179 265 247 279 195 219 230 211 196 235 203 265 297 287 384 138 209 217 263 211 221 230 194 214 255 273 287 154 241 213 183 304 256 288 178 213 195 280 270 284 291 292 188 205 297 165 204 248 179 217 200 183 297 208 252 239 168 173 181 229 204 275 209 245 202 284 242 292 299 213 265 209 207 209 172 189 214 235 210 276 298 186 268 178 298 217 203 262 226 168 233 267 215 215 203 276 168 377 278 235 241 146 269 143 243 265 157 273 225 245 304 342 330 196 232 236 315 284 212 283 189 233 317 191 249 258 203 254 173 214 203 178 207 328 231 345 314 302 233 241 293 233 283 224 279 282 254 259 198 308 185 228 203 235 253 243 246 193 119 273 300 253 209 311 188 268 221 259 288 169 263 295 222 235 145 165 283 276 241 262 151 250 152 310 309 375 219 284 277 252 167 266 177 317 217 163 282 201 272 227 285 236 230 304 210 279 190 280 270 231 228 279 257 258 306 349 306 294 267 262 229 195 235 261 263 304 336 312 230 228 270 261 292 259 218 269 243 269 312 247 322 291 243 235 233 310 198 208 252 252 166 199 276 343 280 250 154 280 175 333 207 273 275 251 223 144 228 174 251 217 220 282 286 143 242 241 304 275 270 128 174 243 168 238 238 186 166 331 255 326 145 186 256 367 270 330 199 208 187 241 219 267 180 194 192 227 216 318 309 230 310 221 187 203 217 273 202 191 256 250 210 290 197 352 215 220 248 164 162 213 191 220 249 281 234 308 243 330 201 205 218 322 329 243 276 174 197 286 237 181 257 324 154 168 265 276 278 309 291 172 236 267 272 250 244 203 277 230 233 184 236 327 235 200 241 179 291 207 164 217 303 240 201 249 241 247 288 248 190 286 238 300 125 214 264 270 235 251 282 247 278 271 240 266 298 189 221 152 316 227 238 203 288 265 256 206 227 246 227 301 256 199 184 306 191 313 250 149 287 274 207 296 231 234 164 238 370 238 290 246 298 168 244 282 196 219 291 234 255 284 269 272 214 273 230 200 199 211 278 228 172 324 280 348 272 254 351 302 250 270 235 213 274 257 228 271 221 261 298 239 221 326 179 251 289 227 265 324 277 281 251 306 257 275 278 290 306 267 194 154 258 264 257 312 219 221 231 208 266 124 341 210 315 280 343 286 273 198 243 219 293 258 240 359 283 336 355 324 290 246 233 311 232 299 216 276 238 286 279 222 247 302 255 193 258 257 294 227 182 311 212 229 304 310 203 259 315 187 256 278 222 231 331 201 311 268 275 206 194 339 224 213 280 291 225 261 188 229 229 226 272 153 299 312 237 223 201 193 243 266 245 209 224 333 214 299 228 258 321 169 179 329 241 228 210 139 195 228 177 213 222 157 276 197 164 215 256 233 241 203 216 267 253 185 290 191 244 175 233 161 261 279 262 155 206 229 290 318 199 266 280 292 226 303 251 175 237 258 175 272 245 273 231 276 174 253 273 308 214 281 168 220 247 212 137 266 326 235 213 206 208 290 176 174 266 221 276 254 259 167 217 211 322 260 212 257 272 268 304 250 207 192 258 299 272 255 195 227 359 252 237 166 264 217 234 196 225 284 268 330 264 327 275 217 311 238 190 212 322 238 234 205 237 208 209 210 263 316 221 215 302 278 320 188 255 207 246 261 241 235 211 386 252 258 273 287 247 358 289 229 262 341 261 263 162 243 221 170 187 219 308 240 297 224 218 228 200 190 228 268 206 240 301 261 240 194 186 203 313 241 261 307 236 237 262 293 314 228 235 180 236 216 232 260 224 221 319 155 319 215 242 309 347 228 149 223 222 171 211 258 257 271 197 208 156 252 257 272 272 315 244 206 228 296 298 227 269 121 177 323 194 228 245 201 241 171 303 223 229 288 288 208 177 220 298 255 256 176 321 359 207 202 237 320 286 210 256 262 216 278 162 211 232 293 186 189 232 191 262 202 142 334 242 266 304 258 268 213 233 264 277 128 305 181 226 338 185 158 221 246 146 207 312 257 284 230 293 219 228 271 347 241 244 213 161 277 185 357 279 267 151 227 221 339 243 304 253 247 171 161 267 184 189 239 220 190 251 313 257 217 239 248 281 286 290 220 287 227 213 170 325 284 249 282 259 326 216 248 315 290 184 160 314 259 243 312 260 265 256 319 180 294 135 217 221 272 387 286 278 241 251 328 225 267 327 243 276 185 338 289 202 272 180 215 233 200 282 220 261 150 260 271 221 213 214 217 183 241 284 161 284 226 305 168 211 369 218 230 360 197 323 162 211 269 253 160 184 181 255 316 244 167 318 235 231 281 224 228 208 237 254 279 181 210 329 278 284 164 317 210 231 174 202 260 344 324 189 290 353 204 223 286 246 291 245 211 343 192 251 207 222 291 239 296 219 310 176 324 200 253 245 328 214 250 228 212 244 247 153 179 252 237 227 228 318 262 247 254 185 252 254 259 183 302 290 260 175 184 255 256 235 191 184 199 320 300 275 318 212 269 301 321 206 217 216 253 298 193 343 286 296 267 254 267 300 202 256 254 185 193 282 310 237 180 319 212 264 194 257 259 161 187 210 198 154 300 229 265 255 242 234 261 280 320 287 215 214 267 250 252 229 233 216 207 269 299 318 266 327 269 190 248 300 283 252 109 308 245 225 252 258 275 231 214 236 285 230 170 308 270 210 270 182 296 305 251 185 296 388 187 244 297 151 237 191 280 201 282 231 312 271 242 246 284 308 251 371 253 293 197 167 296 202 217 232 276 251 212 229 292 197 294 240 125 231 249 252 292 258 252 265 201 243 260 177 213 141 233 188 273 219 318 185 273 168 326 269 259 161 228 191 317 333 234 248 153 176 294 272 241 247 221 208 383 244 176 292 289 215 250 222 216 184 342 294 192 220 199 268 220 218 194 256 313 204 313 267 214 219 250 184 276 241 151 251 151 244 329 274 279 302 201 197 201 266 306 209 266 201 278 322 288 213 182 302 275 156 271 271 166 303 294 235 328 377 285 224 213 273 237 206 246 263 247 185 169 283 247 271 271 190 195 245 349 263 262 195 250 287 262 261 258 199 261 304 179 240 225 246 290 227 222 217 257 228 296 200 255 384 287 306 219 247 333 242 217 246 238 235 206 228 263 229 125 227 298 189 213 231 230 300 221 316 282 296 267 280 324 172 276 275 248 233 271 248 347 255 230 231 141 205 287 209 214 284 131 348 253 330 334 244 242 290 284 299 336 240 240 251 278 307 226 224 244 234 281 174 108 243 206 252 278 127 249 299 251 242 210 196 215 337 199 239 161 265 423 165 240 238 200 221 139 198 231 173 344 191 158 186 319 272 294 293 277 210 235 365 235 220 284 240 175 322 233 225 201 201 215 342 252 215 225 314 365 144 291 245 228 213 232 216 197 189 160 176 267 237 199 273 281 278 238 319 205 307 255 320 211 281 167 235 287 281 187 215 236 246 186 215 258 274 193 237 198 154 275 222 355 206 288 290 298 314 243 224 192 277 298 223 224 207 252 247 265 315 258 271 249 292 213 269 281 263 307 241 204 215 243 230 191 339 293 259 240 260 266 184 161 312 260 218 210 243 289 234 249 282 214 224 240 198 182 264 208 168 184 291 180 228 263 280 222 215 219 195 328 196 226 226 180 176 284 204 200 238 197 167 207 265 219 210 223 276 277 193 221 240 281 140 157 258 232 304 306 189 232 237 354 178 199 271 206 264 214 209 182 170 303 270 245 309 250 224 259 279 216 199 205 165 217 251 292 207 235 129 182 204 192 236 276 243 295 233 231 190 219 242 303 164 199 258 242 184 327 199 202 234 264 330 220 289 218 172 301 272 226 204 281 315 173 252 276 131 262 257 251 233 250 226 266 162 195 239 247 210 253 216 300 212 268 271 199 368 307 270 326 253 222 253 203 218 206 229 211 207 186 198 220 183 237 177 243 255 224 233 313 290 176 275 249 295 283 302 391 277 270 206 279 344 211 228 216 269 213 128 241 242 214 218 307 223 283 197 217 224 160 257 307 303 226 224 203 347 209 197 290 248 254 248 243 311 162 192 269 283 274 243 172 269 252 223 297 247 338 219 206 317 251 237 247 205 240 196 269 258 267 253 218 240 177 150 238 211 265 218 166 292 249 323 272 245 219 299 217 248 167 173 197 346 234 341 171 227 230 239 333 240 217 230 231 244 276 283 336 161 146 204 217 149 238 175 239 259 226 183 280 221 267 236 160 223 278 281 183 183 221 210 218 239 223 246 195 239 264 232 334 196 220 250 255 281 303 236 238 232 280 247 393 281 231 292 264 182 299 258 241 274 181 224 153 178 238 263 252 388 329 264 364 246 279 260 285 198 230 188 216 209 171 234 237 254 270 211 149 251 347 226 248 317 221 226 254 289 213 259 304 336 163 196 254 303 276 265 216 193 281 296 264 253 255 287 240 202 335 232 322 225 209 314 292 352 265 277 243 243 293 283 258 216 245 231 222 215 142 247 218 228 251 221 266 222 187 317 247 263 185 182 309 248 191 349 268 309 241 273 249 226 286 303 173 203 270 268 263 280 298 267 226 179 224 204 221 223 205 264 262 297 268 210 220 225 224 300 308 178 187 231 169 227 212 265 260 273 249 237 206 223 217 307 275 230 248 320 245 233 247 246 201 332 243 190 261 251 239 330 185 256 226 283 197 261 170 250 284 329 291 196 205 339 279 255 270 213 255 219 294 236 243 278 207 288 211 301 251 264 257 240 270 201 211 325 238 228 251 159 273 245 237 234 183 194 204 252 215 191 196 202 262 292 275 249 153 101 282 253 345 157 351 226 200 238 279 174 232 330 233 180 224 363 180 283 340 243 281 233 304 243 234 234 173 292 313 194 225 207 341 278 198 194 168 217 226 161 180 240 230 221 273 380 281 242 268 255 191 157 365 247 205 331 244 199 197 303 147 240 233 241 280 323 218 201 241 264 254 235 150 287 161 235 241 225 235 283 225 216 259 381 255 182 206 209 243 176 251 295 314 253 264 264 123 246 278 89 244 336 339 199 251 227 190 223 210 236 261 262 146 257 283 275 233 292 188 147 232 257 248 233 245 178 267 299 267 332 237 188 274 289 306 227 209 248 174 267 252 191 279 353 233 284 208 228 194 224 214 322 193 299 306 159 291 277 301 236 260 267 190 261 237 237 177 226 257 187 189 273 158 198 215 130 323 282 212 258 294 225 221 266 251 256 209 211 232 241 217 263 227 290 245 311 280 357 251 373 247 227 190 237 280 267 326 267 165 237 192 210 203 251 241 191 263 180 204 173 203 256 325 241 268 236 298 198 191 221 262 202 219 189 202 219 242 198 290 256 234 245 288 183 262 348 276 203 238 253 348 263 251 273 171 178 202 266 145 225 256 225 221 277 269 176 283 336 216 356 124 349 230 148 348 186 345 185 255 166 193 265 186 233 174 269 193 215 290 201 260 205 296 273 243 257 238 259 281 325 204 207 250 188 228 278 297 271 202 364 237 242 190 250 268 172 190 190 249 275 262 154 210 203 271 305 239 315 286 199 263 301 265 200 278 201 237 203 303 234 186 248 304 216 259 316 253 274 190 206 309 210 209 226 111 196 247 171 215 257 303 248 267 273 253 338 202 253 215 190 222 268 198 309 248 239 264 250 235 241 270 339 185 292 252 292 350 216 244 236 163 249 204 216 224 200 239 294 144 273 173 235 249 269 126 217 247 292 287 257 218 269 258 250 218 272 276 197 209 295 241 352 292 231 297 319 301 225 292 114 247 352 335 265 237 288 279 230 192 168 287 294 324 208 233 235 198 176 240 254 275 352 202 242 280 241 217 175 187 180 251 206 281 260 274 281 243 176 226 143 324 339 273 254 301 274 264 306 292 265 315 273 241 128 278 340 254 349 220 296 271 219 135 156 188 243 184 252 222 211 307 219 211 228 323 253 262 332 278 234 211 260 213 273 151 280 302 254 236 233 263 138 329 324 183 225 326 277 329 402 215 224 230 240 254 316 364 221 273 254 224 199 281 347 238 299 233 287 338 319 258 156 250 249 252 295 197 296 202 233 271 198 253 289 293 284 178 279 315 189 181 320 217 259 262 212 174 272 279 267 307 184 213 319 203 258 209 215 210 338 214 300 205 238 209 263 305 257 248 213 267 173 188 327 247 185 185 234 320 222 331 307 227 305 240 286 232 215 299 185 168 290 299 240 239 256 212 228 276 221 309 119 281 237 172 153 362 242 231 300 356 159 243 219 197 197 231 373 372 231 240 215 412 217 265 229 324 280 220 233 196 241 276 283 204 254 269 248 193 216 264 250 210 285 179 259 262 218 186 243 236 261 237 199 253 230 295 240 250 188 187 235 275 258 208 275 301 259 226 325 215 243 212 215 241 147 129 276 228 252 337 274 317 208 249 198 261 262 159 191 263 277 110 222 239 316 290 236 254 191 265 274 222 224 304 286 289 277 249 193 193 239 288 282 255 210 309 292 320 242 302 209 388 163 301 157 254 210 226 147 333 215 258 208 156 312 203 234 161 224 190 189 320 301 304 283 305 296 299 264 230 207 217 227 183 225 321 146 155 295 260 146 265 233 115 255 273 217 269 294 318 243 346 149 330 245 159 256 302 207 198 290 209 297 206 215 323 186 183 194 356 264 147 274 214 212 222 173 228 237 219 326 192 228 253 309 250 212 186 274 253 273 262 274 285 179 222 214 272 179 274 219 288 225 183 294 292 258 218 267 262 266 279 342 224 269 172 319 310 215 276 300 225 317 254 302 225 253 259 260 191 271 241 281 185 300 193 227 290 216 262 259 299 268 192 335 240 261 295 172 194 245 295 219 188 295 256 221 232 262 200 246 271 217 209 214 229 212 290 169 204 202 266 224 214 199 311 196 244 383 202 277 223 281 238 219 235 161 285 248 176 228 193 189 201 257 214 365 296 175 211 267 163 263 272 279 236 248 219 238 215 183 209 165 283 231 242 157 232 232 245 170 262 270 220 227 192 215 239 237 193 288 204 237 201 268 219 164 196 220 199 244 190 367 267 221 245 304 269 272 282 225 228 293 256 255 239 243 255 169 205 314 273 172 199 282 221 188 195 234 294 287 168 276 199 228 213 264 270 340 292 210 233 292 246 350 159 349 361 213 254 228 251 249 235 194 265 169 155 181 277 254 193 205 247 171 278 299 279 184 255 157 316 230 309 204 202 186 249 147 298 211 265 217 191 245 191 255 254 288 240 230 221 244 317 292 252 205 290 315 272 275 262 277 153 207 170 328 177 291 172 409 234 207 183 175 264 329 206 206 264 178 304 286 277 247 297 243 269 281 231 256 188 357 302 229 267 198 168 177 305 220 193 221 196 191 252 187 331 395 223 327 296 256 285 333 315 258 268 173 236 206 136 277 295 202 180 141 332 258 227 236 277 228 299 246 196 274 293 240 150 256 280 197 227 344 262 206 222 227 205 333 280 209 195 239 237 115 250 188 289 214 187 208 243 210 186 179 244 235 246 327 269 182 325 268 315 256 222 249 297 293 250 295 301 234 218 223 272 287 199 190 233 279 285 240 111 189 261 253 361 316 331 201 215 249 278 297 264 288 97 183 279 295 229 206 182 289 297 219 244 243 234 240 226 237 224 246 184 236 236 190 295 227 248 225 289 191 220 163 286 293 270 250 273 219 244 259 273 226 300 304 312 257 208 286 239 200 150 240 206 183 200 243 239 242 216 214 296 260 250 219 242 234 211 200 297 210 256 268 207 176 253 266 221 230 199 206 207 179 264 237 194 217 211 159 222 230 178 235 273 270 256 173 219 299 271 307 225 210 238 287 236 293 207 189 263 185 174 244 203 265 212 245 233 278 321 203 190 200 171 202 226 149 303 206 280 245 224 227 223 93 319 307 257 269 271 267 181 187 246 222 317 285 269 203 313 196 297 188 321 181 328 287 268 239 175 223 226 196 262 180 275 228 363 236 157 272 271 231 193 207 277 245 357 205 336 161 248 177 270 237 197 196 327 325 287 224 200 240 233 155 266 238 252 262 293 195 292 214 329 263 219 144 241 196 218 313 313 241 175 246 202 278 266 163 262 174 134 299 130 205 244 306 232 376 186 282 253 223 203 242 230 295 149 232 194 285 254 237 267 169 322 177 204 265 187 196 228 274 191 261 260 216 225 249 220 168 252 240 158 198 340 332 197 240 170 290 304 284 308 243 279 335 244 291 192 302 205 251 206 143 278 266 234 180 296 265 224 215 251 162 297 222 171 229 288 166 212 343 269 235 277 259 274 236 208 261 149 250 294 173 227 214 216 211 357 192 201 159 290 174 337 216 168 325 262 122 267 200 192 188 250 270 244 198 271 189 251 166 231 302 121 293 192 151 186 310 352 265 140 202 212 315 159 247 350 226 279 208 217 222 316 242 198 239 220 256 248 212 336 247 220 233 236 178 239 307 205 141 273 268 204 283 223 251 188 160 220 253 240 265 240 180 248 330 256 107 245 276 244 145 314 201 216 216 174 185 141 243 238 248 220 206 291 212 238 189 267 252 256 267 220 278 266 276 294 227 230 252 266 267 158 225 123 348 183 256 263 256 268 160 246 254 247 201 242 249 169 290 326 211 180 179 289 191 178 277 342 225 215 165 236 130 211 316 232 241 239 216 234 240 282 177 209 267 232 225 210 220 256 193 212 169 259 298 220 221 213 279 314 270 285 120 173 241 319 158 298 228 170 242 222 93 262 201 273 275 231 226 181 227 217 274 211 286 230 314 299 268 290 276 326 259 232 230 184 302 279 191 292 349 229 228 256 173 257 332 194 319 249 309 234 193 185 137 267 212 220 299 186 237 186 248 187 208 276 293 287 262 186 227 332 230 218 192 266 233 264 191 233 248 227 239 253 300 250 214 207 291 226 178 205 211 205 261 277 217 230 281 158 367 188 258 231 217 209 324 287 192 249 244 225 241 182 260 282 198 252 272 243 262 239 190 223 222 225 186 187 168 194 207 186 250 212 296 199 375 254 160 317 240 322 281 159 240 234 274 192 338 286 162 209 235 201 194 268 248 296 271 363 220 217 276 229 288 226 281 310 220 226 288 261 262 233 290 261 228 222 136 243 212 226 209 217 277 165 267 218 261 212 233 254 215 256 253 242 267 307 160 332 255 191 216 303 220 229 203 356 225 260 206 253 189 226 237 223 229 170 271 242 277 317 218 269 236 207 252 185 182 276 234 254 279 275 262 205 285 255 258 325 331 252 264 223 258 136 271 207 251 312 278 181 247 243 265 254 148 264 241 276 247 249 259 281 273 211 176 130 231 308 168 221 213 243 257 278 294 206 201 192 283 247 321 297 357 324 242 229 258 275 211 223 252 250 153 290 270 215 259 275 190 192 293 297 221 229 204 253 258 244 194 197 161 229 159 312 393 206 207 287 195 293 242 254 184 190 206 256 208 149 266 203 224 237 253 216 215 275 256 320 306 303 197 245 229 227 215 275 261 296 214 233 199 177 209 264 194 209 315 276 161 235 168 255 231 276 265 202 190 220 219 234 266 226 286 226 282 368 181 200 187 166 304 282 224 369 251 193 269 259 351 156 226 274 240 194 219 224 257 266 270 361 310 274 210 145 270 237 218 236 296 248 274 296 210 169 223 101 216 163 240 301 157 299 269 190 307 252 214 230 333 203 280 226 328 204 263 267 337 250 166 224 380 287 236 275 278 203 214 307 255 252 208 223 207 325 265 188 207 322 305 205 248 187 251 288 282 321 332 203 208 181 189 261 364 238 236 162 221 279 252 279 358 214 188 135 247 220 293 280 294 245 244 235 375 193 336 186 286 270 312 275 260 200 253 283 371 249 217 201 250 183 199 333 278 259 373 170 256 122 200 243 172 279 254 217 310 279 212 255 210 161 312 296 215 386 257 244 286 174 325 211 246 252 226 228 250 279 231 290 247 154 187 385 278 356 283 232 221 328 330 264 310 144 253 337 175 241 251 235 241 198 262 251 196 288 235 244 241 304 255 270 298 210 211 235 270 215 265 180 285 230 285 298 222 278 253 283 204 235 187 303 244 162 245 302 203 221 146 269 314 187 228 270 241 237 160 206 215 296 245 282 322 232 239 389 287 192 248 239 255 219 256 215 194 221 267 293 206 238 293 188 207 205 152 254 214 278 264 320 215 265 286 224 182 249 285 246 248 295 279 258 278 180 285 365 234 245 239 359 238 247 266 226 201 194 278 178 227 253 226 270 272 255 213 265 274 295 252 232 284 213 229 375 225 244 189 203 248 238 225 228 247 296 294 247 302 189 216 308 243 267 302 215 290 269 242 282 225 283 242 257 202 262 258 287 319 214 264 242 247 201 177 216 246 300 252 326 286 265 216 239 352 193 297 210 325 282 246 224 250 220 212 207 265 176 333 147 276 296 226 137 258 208 219 249 201 221 304 252 365 208 191 186 127 194 230 266 319 203 271 358 282 206 370 210 249 174 221 199 225 218 256 243 271 301 196 195 347 250 333 255 226 193 234 197 214 168 226 210 223 218 204 231 228 256 240 218 244 166 286 255 279 291 263 192 208 177 231 180 224 257 287 287 161 211 312 259 179 323 245 258 335 270 240 245 274 158 229 297 318 250 378 202 258 304 227 195 164 227 209 271 332 189 224 228 343 277 399 234 265 293 212 206 278 322 291 232 258 263 224 233 252 257 400 186 215 226 298 165 263 194 273 186 245 241 256 183 263 198 298 234 181 240 186 312 211 239 273 211 166 248 180 258 262 175 251 248 218 269 226 327 268 228 333 178 289 283 243 241 229 206 215 382 223 348 270 249 179 304 275 198 216 272 241 192 201 241 261 225 357 280 252 261 279 217 173 217 267 250 166 208 238 251 309 168 275 267 149 298 301 309 343 217 246 292 228 349 316 165 215 258 364 218 175 269 297 246 153 211 233 214 217 332 232 184 292 161 285 193 269 295 141 288 202 225 307 290 269 242 160 299 237 237 275 282 259 206 186 298 123 299 209 246 216 242 170 351 180 299 275 242 230 246 195 225 249 296 221 261 282 230 308 262 273 268 275 237 227 219 300 218 221 239 228 232 224 231 298 295 241 298 175 244 245 139 210 211 286 234 254 161 301 164 256 269 177 199 140 146 319 320 248 283 229 194 266 88 384 181 232 267 187 176 281 230 233 283 210 265 222 232 217 302 208 220 303 139 171 114 329 201 133 308 197 307 203 222 246 229 335 212 226 230 233 280 254 312 222 286 279 249 308 236 156 311 142 216 166 323 231 213 205 232 258 151 247 287 264 162 276 236 312 422 239 335 284 246 198 208 174 301 257 225 267 232 311 171 290 226 201 241 247 193 240 184 282 221 235 246 244 306 159 265 203 255 252 197 223 186 241 237 213 234 203 252 325 237 233 239 286 231 284 204 253 208 233 187 200 248 222 297 267 226 311 219 233 333 273 278 232 193 256 193 179 284 305 229 164 229 209 235 238 222 246 233 240 288 356 312 246 201 275 290 229 222 165 291 237 214 256 304 119 176 235 206 244 243 270 330 253 255 195 269 259 278 232 277 209 152 240 219 272 260 295 276 194 231 162 195 215 260 154 155 298 223 290 277 391 324 218 290 250 274 255 284 264 312 223 321 200 324 236 246 175 201 298 263 256 191 218 240 234 258 276 216 201 211 310 289 230 180 206 230 319 208 224 218 221 156 289 282 194 214 285 288 295 154 277 201 281 313 169 249 190 277 259 217 174 201 190 246 222 230 249 190 226 198 254 172 285 258 221 244 292 232 203 274 226 276 169 278 190 269 237 314 197 205 250 213 228 255 192 236 309 259 328 220 195 238 281 223 243 233 239 167 230 215 173 271 307 240 291 194 290 235 233 196 243 237 210 317 215 240 277 203 242 211 298 232 235 276 246 256 352 278 205 232 203 287 262 189 200 278 242 301 172 244 171 305 195 252 275 261 325 213 243 270 248 254 218 310 303 249 221 169 273 216 259 234 264 276 136 271 237 245 245 266 232 208 189 216 206 215 209 168 264 238 361 176 219 277 241 247 223 227 272 257 236 173 188 246 220 263 195 278 265 173 299 265 222 194 239 293 219 247 248 289 215 208 290 195 139 293 204 188 351 196 194 180 241 253 320 186 240 329 214 274 170 246 242 216 233 260 232 263 209 194 258 200 265 273 241 203 268 221 291 177 193 226 214 289 304 292 192 243 242 210 193 187 267 180 277 178 324 360 269 241 335 276 237 209 228 241 193 248 206 298 281 251 231 298 247 180 289 201 225 225 207 299 274 228 149 200 252 317 294 166 253 324 205 261 214 193 253 251 257 225 267 245 222 244 271 243 288 155 231 326 242 168 339 235 241 263 256 200 235 264 216 221 259 241 262 265 230 257 282 209 180 241 274 230 267 163 293 261 267 188 200 284 221 302 190 250 271 219 298 204 247 232 180 383 362 261 300 253 246 278 218 184 227 222 228 231 286 274 265 243 214 198 314 208 235 266 227 223 276 226 269 266 322 213 210 298 239 240 212 290 232 150 239 285 169 217 244 252 248 230 207 304 235 194 231 303 186 226 247 270 264 334 204 224 257 227 247 235 250 242 199 256 224 262 242 187 151 184 220 265 244 190 250 246 233 223 335 261 165 211 259 267 251 194 185 236 252 239 315 275 245 227 177 250 274 309 149 222 120 266 314 192 247 236 251 188 221 216 228 235 190 226 277 301 341 247 139 119 269 237 145 299 180 193 338 209 244 223 249 268 238 162 215 206 353 222 162 272 289 258 191 235 231 222 223 243 181 288 243 192 250 184 187 327 183 255 231 204 88 304 282 141 163 373 254 293 194 279 303 272 236 312 363 274 171 208 248 272 350 236 236 230 194 242 251 339 229 203 204 193 312 268 281 308 270 283 267 281 301 295 226 315 279 225 173 256 162 200 223 264 252 267 175 220 223 219 303 250 267 230 296 167 111 270 319 208 223 306 194 277 328 205 195 261 263 240 322 278 230 184 223 135 233 179 277 159 280 213 219 260 258 136 230 180 233 292 278 130 251 281 238 270 302 245 274 223 205 334 230 241 287 225 149 162 249 290 225 282 292 248 241 255 247 275 305 261 263 189 245 249 149 285 289 254 212 231 224 277 220 342 191 263 163 291 222 255 216 176 282 215 294 222 197 218 255 234 324 197 230 192 223 270 194 148 255 239 288 307 254 292 263 348 238 278 237 207 217 279 212 241 264 262 275 240 239 255 282 170 220 243 241 333 360 203 221 287 171 186 189 262 324 259 279 224 196 288 350 264 263 253 262 253 211 179 298 224 232 286 218 300 210 187 328 252 156 300 245 224 169 268 264 235 305 246 271 180 209 302 286 212 151 276 206 245 141 311 167 219 294 226 264 150 237 227 254 305 221 231 247 260 294 217 308 311 247 203 268 258 212 263 409 179 209 266 335 230 309 284 243 322 220 177 271 299 220 313 204 191 284 247 184 244 325 282 294 214 225 254 204 270 221 188 261 252 213 226 276 202 227 219 268 191 301 251 297 217 205 251 243 247 247 234 217 283 222 181 272 263 251 276 268 245 365 229 262 240 262 242 265 299 209 199 264 205 200 228 253 250 210 212 221 120 208 208 229 319 207 319 326 308 267 289 307 203 244 224 282 275 331 120 259 205 268 224 304 303 170 162 195 220 230 264 190 241 284 276 170 209 231 237 219 206 185 275 335 222 171 273 232 197 257 172 203 217 271 178 273 213 313 188 250 333 272 252 307 129 283 178 241 235 191 318 244 125 197 218 286 218 248 361 229 180 262 354 220 252 263 185 221 301 166 299 218 264 291 321 208 222 289 247 232 262 305 192 212 264 280 258 212 190 226 254 249 299 267 230 296 226 228 236 226 287 170 310 281 183 234 235 238 249 217 154 286 269 229 305 214 148 253 328 216 217 247 260 309 186 298 249 272 311 314 187 306 129 287 282 246 310 320 311 280 233 187 209 259 264 201 211 322 224 218 335 267 153 301 245 207 160 354 280 240 231 300 299 260 248 207 327 205 167 184 305 232 230 268 222 342 250 262 314 188 246 235 191 228 158 275 221 273 213 331 328 220 113 300 296 303 281 209 210 273 243 321 223 189 164 181 307 228 346 267 221 176 287 168 279 254 227 239 237 211 239 349 291 275 241 229 274 253 218 198 274 225 185 258 262 175 313 280 239 225 207 306 210 271 261 280 244 289 243 231 262 168 298 225 204 216 215 212 220 234 178 267 252 251 169 221 153 210 235 188 243 246 328 219 274 190 233 253 232 198 265 258 245 271 208 307 261 334 242 272 261 153 267 171 200 246 285 300 205 144 335 255 370 262 204 243 311 292 234 270 216 218 269 310 241 238 210 148 254 276 230 188 258 191 311 199 285 217 264 253 165 240 276 224 183 278 287 313 259 217 261 303 222 271 324 146 302 163 261 234 216 275 231 270 209 166 234 308 189 274 307 195 256 306 273 257 211 299 164 201 236 187 255 258 271 277 277 279 236 350 153 288 406 151 290 282 308 275 306 272 227 178 302 364 340 193 193 216 219 260 290 177 230 235 274 271 242 248 180 250 205 247 199 149 217 251 292 239 221 332 262 222 296 213 251 315 230 246 241 266 222 250 319 177 208 257 327 243 234 253 265 277 275 272 164 236 242 292 258 203 149 220 293 240 263 204 308 225 214 265 221 180 266 377 222 182 223 296 260 139 247 251 256 249 310 259 231 193 253 227 247 247 136 159 260 273 210 287 200 249 194 254 247 193 122 185 284 237 264 214 137 172 197 221 249 267 225 260 154 158 213 292 288 248 223 328 270 285 305 174 272 208 234 205 259 279 264 277 195 186 254 288 212 330 221 255 2</t>
+  </si>
+  <si>
+    <t>F(1.439726817026352, 1.2228876321811435, -1.9123459933260866e-30, 1.3389965485950968)</t>
+  </si>
+  <si>
+    <t>1 2 2 3 1 0 1 2 1 2 4 2 1 0 0 1 3 0 2 3 1 2 0 1 3 2 2 1 2 2 2 1 0 2 3 2 0 2 0 1 2 1 2 1 0 0 1 2 0 2 1 3 2 1 0 1 1 1 1 0 0 2 0 2 3 2 1 0 0 1 1 1 1 0 1 1 1 2 2 5 4 0 1 1 2 1 0 1 3 1 2 3 1 1 2 2 0 1 1 1 2 0 2 2 2 1 1 1 2 1 1 3 3 1 2 2 3 0 0 2 0 1 1 1 0 1 3 3 2 2 2 2 3 1 3 2 3 3 2 1 2 1 2 2 0 2 1 1 1 1 3 0 0 3 0 3 3 2 1 2 2 0 1 1 1 1 1 1 1 1 2 2 0 2 0 1 1 0 2 2 0 1 1 0 3 1 2 1 3 0 1 2 1 2 3 2 3 3 1 2 1 0 1 2 3 2 0 2 1 1 1 1 1 1 2 1 0 3 1 1 0 0 2 4 3 2 1 1 1 1 1 1 0 2 2 0 2 1 3 1 1 3 2 1 0 1 1 3 0 0 1 2 3 1 2 1 2 2 1 1 0 3 0 2 3 2 0 2 0 1 0 2 2 1 0 0 1 2 1 1 1 1 2 1 1 2 1 2 1 3 2 0 1 0 3 3 2 1 2 1 2 1 2 0 0 4 1 2 0 3 1 2 1 1 1 0 2 2 1 0 1 0 2 1 1 2 1 1 1 1 2 1 0 1 0 0 3 2 0 2 3 2 2 3 2 0 0 1 1 2 1 1 1 0 0 3 2 1 2 2 3 1 1 1 1 3 1 1 1 1 1 2 3 1 3 1 2 1 2 0 0 1 2 1 3 3 2 3 0 0 1 1 1 1 1 1 2 2 1 0 1 1 2 2 0 1 1 2 1 1 0 1 1 0 1 1 2 2 2 3 2 0 0 2 3 2 1 3 1 1 2 2 1 1 1 2 0 2 0 3 0 1 0 3 1 2 3 1 1 1 1 0 5 1 3 0 1 3 2 0 4 3 1 2 2 4 2 1 3 1 2 0 1 0 2 2 2 5 1 1 2 2 1 1 1 1 2 3 2 4 1 1 2 3 1 3 0 2 1 1 1 1 2 1 0 1 1 1 0 1 2 3 2 1 1 2 2 1 1 2 2 1 0 1 1 2 2 2 2 1 2 2 3 0 1 2 2 1 1 2 1 3 1 2 1 1 2 2 1 1 1 1 0 1 3 2 0 3 1 3 2 1 0 2 2 3 1 0 3 1 1 2 3 1 1 0 2 3 0 2 1 3 0 1 1 2 1 0 1 0 2 2 2 3 0 2 3 1 2 1 2 1 0 1 2 1 0 0 1 1 3 0 2 1 2 1 0 0 2 1 0 1 0 3 1 0 1 0 4 3 1 2 2 1 1 2 1 2 1 1 2 2 4 3 1 1 2 1 1 1 1 1 1 0 1 1 1 0 1 2 2 1 3 1 0 1 2 1 0 0 1 0 3 0 3 2 0 2 3 3 0 0 1 0 1 1 3 3 1 1 2 2 0 1 2 0 2 2 2 1 3 0 1 0 3 4 1 1 2 2 1 1 1 2 2 1 1 2 1 1 0 2 2 0 0 1 3 3 1 2 1 0 1 2 2 3 0 1 2 0 1 2 2 1 1 0 0 1 2 0 1 3 1 1 2 2 0 0 0 2 2 2 1 2 1 1 4 3 2 3 2 0 2 2 1 0 0 1 0 1 1 1 2 0 2 0 1 0 1 0 2 1 0 2 2 1 0 1 2 1 0 1 1 0 1 1 1 1 1 2 0 0 1 0 3 3 0 0 3 4 4 2 0 2 2 2 1 0 1 3 1 0 2 0 1 1 3 0 1 1 4 2 1 0 1 2 3 1 0 1 0 2 2 0 1 1 2 2 2 2 2 3 2 2 0 1 1 1 4 3 2 2 0 1 1 1 1 1 1 1 2 3 1 2 4 1 0 1 1 2 1 0 1 1 0 1 0 3 1 0 1 0 1 0 2 2 1 1 2 2 2 2 1 0 2 2 2 1 0 2 1 1 0 1 3 2 1 1 1 1 1 0 1 2 2 1 2 1 3 2 1 1 1 4 2 4 3 1 2 2 1 2 3 1 0 2 1 3 0 4 0 2 1 0 2 3 1 2 3 0 1 1 1 1 3 2 2 1 1 3 2 2 1 1 1 5 1 1 2 1 0 0 0 1 4 2 2 3 1 2 0 1 1 1 0 1 3 2 2 2 2 4 0 0 1 0 3 1 4 1 3 2 0 0 2 0 3 1 0 1 0 1 2 1 0 1 1 1 2 0 1 3 2 1 2 0 1 2 1 1 2 1 1 1 2 0 2 4 1 2 0 1 1 1 2 1 0 0 0 1 1 2 3 2 2 3 2 1 1 3 2 2 0 1 3 2 3 1 3 2 1 1 1 2 1 1 2 2 1 3 2 2 1 3 0 3 1 2 1 1 1 1 2 0 0 2 2 1 0 0 1 3 2 2 1 3 0 1 1 0 2 0 2 1 2 1 1 0 1 2 2 1 3 2 2 1 2 0 0 2 1 0 3 1 1 2 3 1 0 0 3 0 2 1 2 1 1 2 1 3 3 1 1 2 2 0 4 2 4 1 2 2 1 0 1 4 0 1 4 0 2 1 1 1 3 1 0 1 3 1 1 1 0 1 1 1 1 0 1 1 0 3 2 0 4 2 2 1 2 1 2 3 1 0 2 0 0 0 1 2 2 3 2 2 1 2 2 3 1 1 3 1 2 2 1 1 2 2 1 1 2 2 2 0 0 1 0 4 1 1 1 3 3 2 1 1 4 2 1 1 2 3 0 2 0 1 1 3 2 2 3 2 1 0 1 0 1 0 1 0 1 4 1 2 2 2 0 1 1 2 2 2 0 0 1 1 3 2 1 4 2 2 0 1 2 1 1 2 3 2 0 1 1 1 1 0 2 2 1 1 0 0 2 0 1 1 3 1 1 3 0 0 3 1 1 1 3 0 3 3 3 0 1 2 2 2 1 3 2 1 2 6 1 1 2 1 0 2 2 1 1 2 2 0 2 2 2 1 2 1 1 1 1 1 0 1 2 1 1 1 1 2 0 1 2 0 2 2 3 0 1 2 4 1 1 1 0 2 2 0 3 1 0 1 2 1 2 1 1 3 1 1 0 5 2 1 1 1 1 0 2 1 1 1 0 0 1 2 1 1 1 1 0 1 2 2 2 2 2 1 2 1 3 1 2 1 2 1 1 1 1 1 1 2 2 1 0 1 0 2 0 3 0 3 3 2 0 1 2 2 2 1 0 0 1 1 1 2 1 1 3 2 2 0 1 3 1 2 1 0 0 0 2 1 1 2 0 0 1 0 2 0 1 1 1 3 3 3 2 1 1 4 0 3 2 2 2 2 1 2 4 1 1 2 7 2 3 1 1 1 0 3 0 3 0 2 2 1 2 2 3 2 2 1 2 1 2 3 1 1 0 1 2 3 2 3 2 1 0 2 2 1 3 3 1 2 1 1 1 2 2 4 1 4 2 3 3 1 2 0 2 2 0 3 2 3 0 1 2 2 1 1 1 3 0 2 3 1 2 0 1 1 2 2 3 0 0 1 2 2 2 2 2 2 1 1 1 1 0 2 0 0 0 0 0 2 0 1 1 0 3 2 0 2 1 1 3 0 4 0 1 1 1 2 2 1 2 1 1 2 1 1 2 0 3 2 1 1 2 1 1 1 1 1 4 0 1 0 0 2 1 2 3 0 2 0 0 1 1 1 1 3 2 2 2 1 1 0 1 1 1 0 1 2 4 2 1 2 2 1 2 2 1 2 1 1 0 3 0 2 1 2 0 1 1 1 0 2 2 1 1 1 1 1 4 3 4 1 1 1 0 2 2 1 1 2 0 1 1 0 1 1 0 1 2 0 3 1 0 0 1 1 2 0 1 4 0 1 1 2 1 1 3 1 0 2 0 3 2 2 2 1 3 2 0 1 2 1 2 0 2 1 2 1 1 1 0 2 1 0 1 0 0 1 1 2 1 1 3 3 3 2 2 0 0 2 0 3 2 1 2 2 2 2 3 2 2 2 0 1 0 2 1 2 1 1 1 1 0 3 2 3 3 1 1 2 1 2 3 1 2 1 1 0 1 1 2 1 2 1 1 0 1 1 1 4 3 0 2 2 3 0 2 1 2 0 0 1 1 0 0 2 2 4 1 0 0 2 1 2 1 2 0 1 2 1 0 0 2 0 1 2 5 0 3 1 1 1 0 2 1 1 0 2 2 5 1 3 2 2 2 2 0 1 0 3 1 3 1 1 0 0 2 2 1 4 3 2 3 0 4 1 1 1 1 0 1 1 1 1 1 4 2 3 1 2 2 1 0 1 3 1 4 1 4 1 1 1 2 0 1 0 1 1 2 1 2 2 1 1 1 0 2 3 2 1 2 0 2 2 2 1 1 2 0 0 1 4 2 2 0 0 2 1 3 2 0 1 2 1 0 1 0 0 2 1 1 2 1 1 2 1 2 2 0 2 3 1 1 2 2 1 1 3 2 0 1 2 2 0 2 3 2 2 3 2 2 4 2 0 0 1 1 1 2 2 3 3 2 1 0 2 1 1 0 1 4 1 1 1 2 2 2 2 1 3 0 1 1 1 2 2 1 2 2 1 3 3 2 2 2 1 0 1 2 4 1 1 1 0 1 1 1 1 2 1 1 1 3 3 0 0 2 1 1 3 0 2 2 3 3 1 2 4 0 2 2 2 2 0 3 1 3 2 2 3 3 0 4 1 2 0 0 1 2 1 1 4 1 1 1 0 2 2 1 1 2 0 1 2 1 1 2 2 0 1 1 3 2 2 0 1 2 2 2 1 1 0 2 1 1 2 1 2 0 2 1 2 1 2 0 0 4 1 1 2 2 0 1 0 2 0 1 1 2 1 2 2 1 1 1 1 1 0 0 2 2 2 3 1 1 2 2 0 1 3 1 0 0 1 3 4 1 3 2 1 1 1 0 0 2 3 1 2 0 1 2 0 1 2 2 3 2 1 0 0 0 0 0 1 2 1 1 0 0 1 0 1 3 2 1 1 2 0 1 1 4 5 1 1 3 3 2 1 1 0 2 2 2 0 1 3 3 3 2 0 1 3 3 2 1 4 1 2 0 0 0 1 4 1 2 1 3 1 0 1 1 2 0 0 4 2 1 1 2 1 3 1 1 2 1 1 2 0 0 2 3 1 1 2 1 1 3 1 2 2 2 2 0 1 2 1 1 0 3 1 3 1 2 0 1 0 2 1 1 0 1 2 0 1 0 2 2 0 2 2 2 0 1 2 0 1 3 0 2 1 3 1 2 2 2 2 3 1 1 3 1 1 1 1 2 0 2 3 1 1 1 2 2 2 1 2 3 2 3 0 1 2 2 1 1 0 2 2 2 1 1 3 0 1 1 3 0 1 1 2 0 0 1 2 3 3 1 2 2 2 0 2 0 1 0 3 2 2 1 0 2 1 1 1 2 1 0 1 0 2 1 2 3 0 1 0 1 0 1 0 2 1 0 1 1 0 1 3 0 2 1 1 2 1 3 2 1 2 2 2 0 1 2 2 0 1 1 2 1 1 2 3 1 2 1 0 0 2 2 2 1 1 1 1 2 4 2 1 2 1 1 0 2 0 2 0 1 2 0 3 4 2 3 2 0 0 0 1 1 0 3 2 1 2 1 1 1 1 2 2 1 2 4 1 3 0 1 3 1 1 2 1 3 1 1 2 3 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 1 2 1 1 3 0 2 2 0 5 2 2 5 1 0 0 1 1 1 2 0 1 1 2 2 1 1 3 2 0 2 1 2 2 1 0 1 0 0 2 1 0 1 2 3 2 1 1 3 2 1 3 4 0 3 1 0 1 2 2 2 1 1 1 0 3 0 0 0 2 1 1 1 1 1 2 0 0 1 1 1 1 2 0 2 1 0 1 0 1 2 2 2 2 0 0 2 2 2 3 1 0 3 3 0 1 0 1 0 3 2 2 1 1 4 2 1 3 1 1 2 1 1 1 0 1 2 2 1 1 2 2 1 2 2 2 0 2 1 0 1 0 2 1 1 0 1 1 0 1 2 3 1 0 1 0 0 3 2 2 2 2 1 1 2 2 1 0 2 1 2 2 0 1 1 0 2 2 2 0 2 2 2 1 2 3 0 0 2 2 3 0 1 3 1 1 2 1 1 1 2 1 1 1 0 2 3 1 4 1 1 0 2 3 2 2 0 3 3 2 5 2 2 1 0 2 0 0 3 2 4 2 2 2 2 1 2 0 1 1 2 1 2 1 0 1 1 2 0 1 2 1 0 2 2 1 2 3 2 2 1 1 2 2 0 2 2 1 0 1 0 1 1 0 0 1 0 2 3 1 2 0 0 0 0 2 0 3 1 3 0 1 1 1 0 1 1 3 0 2 1 1 2 1 0 1 1 1 2 1 1 3 1 2 2 0 0 0 2 4 1 3 0 1 2 4 1 1 1 0 1 1 2 2 1 2 1 3 2 1 1 0 2 2 2 2 0 2 2 1 2 3 1 2 0 0 2 2 1 1 0 1 3 3 2 0 1 1 3 1 1 0 2 2 2 2 2 4 0 4 1 1 4 2 2 2 3 1 2 0 0 1 2 2 0 1 3 0 0 1 2 1 1 0 1 1 3 3 2 1 1 4 0 1 1 3 0 2 0 2 0 3 1 1 1 1 1 0 3 1 3 3 0 2 1 2 2 2 1 3 1 2 0 0 3 1 3 0 1 2 1 0 2 1 1 1 0 2 2 2 1 1 1 3 4 1 1 1 2 3 0 1 1 2 1 0 1 0 1 1 0 0 2 1 2 4 1 0 1 2 3 0 1 1 1 0 1 3 0 0 0 2 2 1 0 1 0 2 0 1 2 1 2 2 2 2 2 0 1 1 2 2 1 2 2 2 3 2 2 0 1 2 1 0 2 1 4 1 1 1 1 1 2 1 1 2 1 1 1 3 1 2 0 0 2 5 3 1 0 2 2 2 0 4 0 1 1 2 1 3 1 1 5 1 3 2 1 1 3 0 1 0 2 0 2 3 1 2 1 1 0 1 0 0 3 1 0 1 1 1 2 1 1 1 1 1 2 1 2 1 1 2 0 3 0 2 1 2 2 2 1 2 2 0 0 0 1 2 2 1 2 2 1 1 0 2 3 0 1 1 0 2 0 1 1 2 2 0 0 1 2 3 1 2 3 2 2 3 1 1 0 3 1 0 2 2 2 2 1 2 0 1 0 2 0 0 2 0 1 2 0 0 1 0 1 1 2 2 0 3 2 1 0 0 2 1 2 2 0 2 1 0 2 2 1 2 0 1 1 1 2 2 3 1 1 2 1 2 1 2 1 1 1 1 0 1 2 1 0 0 1 2 1 1 3 1 1 2 2 2 3 0 2 2 1 1 2 0 1 0 2 3 1 2 0 0 1 2 0 2 1 0 1 1 1 3 3 0 1 0 0 1 4 1 1 0 1 2 1 0 0 1 1 3 0 1 0 0 1 3 4 2 2 1 2 2 2 2 2 2 3 1 1 1 0 2 1 2 3 1 1 0 2 2 2 2 2 1 1 1 2 1 0 0 2 0 2 2 3 2 1 1 2 1 1 1 0 1 3 0 3 1 2 3 1 0 4 0 1 1 1 0 3 2 3 1 1 2 3 1 2 1 0 1 1 1 1 4 0 1 1 1 0 1 1 2 2 2 2 1 4 2 2 1 2 1 3 1 1 3 2 2 1 2 1 1 2 2 1 2 2 1 1 1 2 1 1 3 1 3 0 3 1 1 2 1 1 2 1 2 1 0 1 1 1 1 3 0 1 2 1 1 2 0 2 2 1 1 0 3 1 1 1 2 2 2 0 2 3 4 2 1 3 0 0 1 0 2 1 2 1 0 0 2 2 1 2 2 3 2 2 4 1 2 1 2 2 3 1 3 2 1 2 1 4 2 2 0 2 1 1 1 2 0 0 1 2 1 0 1 3 2 1 1 0 0 2 2 1 1 0 3 3 0 3 2 1 0 3 0 2 1 3 0 2 1 2 0 2 4 2 2 1 2 1 1 2 0 1 3 2 3 1 2 2 1 1 2 0 2 2 2 1 2 2 1 1 0 2 0 2 2 1 2 1 3 3 1 3 0 1 1 3 2 0 1 1 1 1 0 0 1 3 2 1 1 0 0 1 1 1 0 4 3 2 2 1 2 1 3 1 1 1 1 1 2 1 0 0 1 1 1 3 2 2 3 1 0 1 0 1 2 0 1 3 0 1 3 2 0 0 2 1 3 3 0 1 2 1 1 2 3 1 2 0 4 1 1 1 1 2 1 4 1 4 2 1 1 0 2 1 2 1 1 3 1 2 2 0 3 2 0 1 1 1 1 1 3 2 2 2 2 5 1 0 2 2 0 0 3 1 1 3 0 2 3 0 0 1 0 1 0 2 0 1 1 1 1 1 1 2 0 2 2 1 0 2 2 3 0 3 2 3 2 1 1 1 1 0 0 0 1 2 1 1 1 1 2 2 1 1 1 2 3 1 1 2 0 2 2 1 3 2 0 0 2 0 0 3 2 2 0 2 2 2 1 2 2 0 1 2 0 1 1 1 1 1 2 1 2 1 2 2 1 2 0 1 0 1 2 2 1 2 1 0 2 2 3 0 0 1 3 1 1 1 0 1 1 1 1 1 1 1 3 1 2 2 3 0 0 1 0 2 1 1 0 1 1 0 1 1 0 3 1 4 0 1 2 3 1 2 1 1 1 1 2 1 0 2 0 2 1 1 1 0 2 2 0 3 1 0 2 1 2 1 1 2 2 1 2 2 2 2 1 0 3 1 1 1 0 0 1 1 0 1 1 2 3 2 1 3 2 1 1 1 1 2 3 0 2 1 0 1 3 1 2 2 0 3 1 2 1 1 2 0 2 1 2 2 2 1 0 2 1 1 3 0 2 0 2 2 1 0 2 2 1 5 2 3 1 2 2 1 4 1 2 2 1 5 3 1 1 1 1 2 2 2 1 1 0 1 3 2 0 1 2 1 2 2 1 1 1 2 2 1 1 1 1 2 2 3 1 4 4 2 1 2 2 2 1 1 1 0 1 1 1 4 2 2 2 1 2 2 0 3 1 1 0 1 2 0 2 1 1 3 1 0 1 4 1 1 1 2 2 1 1 0 2 1 4 2 2 1 1 3 0 2 1 2 0 1 0 3 2 3 1 2 2 2 2 2 1 2 2 3 0 3 2 0 3 1 3 2 3 2 3 0 3 2 2 1 1 2 3 3 1 0 1 1 1 0 2 2 1 0 1 1 3 2 0 1 1 3 1 0 0 0 2 0 2 0 1 3 1 1 1 0 3 2 2 1 2 1 4 2 1 3 2 1 0 0 1 2 2 2 2 3 1 1 1 1 1 1 0 0 0 0 0 2 1 1 3 3 1 0 0 3 1 1 0 1 1 2 0 0 1 1 2 1 2 1 1 2 2 2 3 3 3 1 0 1 1 2 1 1 2 1 1 2 2 2 1 1 1 1 1 3 2 0 1 2 4 2 0 5 1 1 1 3 3 1 2 3 0 1 2 1 1 3 3 2 3 0 0 3 3 3 1 0 2 3 1 2 1 0 1 1 1 2 1 1 1 4 2 2 2 1 1 0 1 1 2 0 0 1 2 0 0 2 0 3 3 2 3 1 1 1 2 1 2 2 1 4 0 0 3 2 1 0 0 1 2 1 4 0 1 4 4 1 2 1 0 0 0 2 2 1 1 2 1 1 3 1 3 3 1 3 2 1 2 1 0 2 0 2 1 0 2 2 2 0 1 2 2 2 0 2 3 1 1 1 1 1 1 0 1 2 2 1 1 1 0 1 3 3 1 3 2 2 1 1 0 0 0 1 1 2 2 1 2 0 2 0 1 1 0 1 2 2 1 1 1 3 3 1 1 0 3 1 3 1 1 2 0 0 1 1 0 0 1 0 1 0 3 1 2 2 2 1 3 0 1 1 2 2 1 0 1 2 1 1 2 3 0 2 1 0 1 0 2 3 3 0 1 2 3 1 3 2 2 1 1 3 2 1 2 3 1 1 1 2 1 1 1 1 1 2 3 1 1 1 3 2 1 1 2 1 0 2 1 1 2 2 3 1 2 2 2 2 0 1 1 1 1 0 2 3 0 2 2 2 1 1 2 1 0 1 3 3 0 2 0 1 1 1 2 2 3 0 1 3 1 3 1 2 2 2 0 1 0 2 3 1 0 3 2 1 1 0 2 2 1 2 1 1 1 1 1 0 2 0 0 4 1 1 1 1 1 1 1 2 1 3 1 2 2 0 2 0 3 0 2 0 1 0 3 2 1 1 3 2 2 2 1 1 1 0 1 1 2 2 1 0 1 1 1 2 3 1 2 1 1 0 1 0 0 1 0 0 1 1 1 3 2 3 2 0 2 1 1 2 3 1 4 1 1 1 1 0 1 1 3 0 0 0 0 2 1 0 0 0 2 2 0 1 3 1 1 3 3 3 1 1 1 1 1 1 1 1 0 3 2 0 1 4 2 3 1 0 1 1 1 2 1 1 2 0 2 3 1 1 3 2 1 1 2 1 2 3 1 3 3 1 1 1 2 3 1 1 1 1 1 2 1 1 1 1 1 0 2 1 1 0 2 1 1 1 1 0 1 2 1 1 3 2 1 3 2 1 2 1 0 1 1 1 1 0 3 1 2 1 0 0 0 1 3 1 3 1 0 2 1 2 0 1 3 3 1 2 1 3 2 2 0 1 1 3 1 5 0 3 0 1 1 1 0 1 1 1 1 1 3 1 1 1 1 2 1 3 1 3 2 1 1 1 0 2 1 1 0 0 0 1 1 2 2 0 3 1 3 1 1 0 1 1 2 0 2 1 0 3 1 1 2 0 1 1 3 2 2 0 1 1 0 1 0 1 1 2 1 0 0 2 1 1 2 1 0 3 1 2 2 1 3 2 0 0 1 1 0 2 1 0 2 1 3 1 1 1 2 1 3 0 0 2 0 1 1 3 2 2 3 0 0 3 0 1 0 0 0 1 1 1 2 2 3 2 2 1 0 1 1 1 2 1 2 2 1 0 2 1 2 4 1 1 1 1 1 3 0 1 2 2 2 0 0 2 0 1 0 3 1 2 1 0 1 0 5 2 0 1 1 1 2 0 1 2 2 2 2 2 0 3 3 1 2 1 0 1 1 1 2 2 0 2 3 1 3 1 2 1 0 2 3 1 0 2 1 0 4 1 2 2 0 0 1 1 1 2 1 1 0 0 1 1 1 1 0 1 1 1 0 3 2 2 1 1 3 1 0 1 3 2 1 0 1 1 1 0 1 1 1 1 2 1 2 2 1 2 1 0 3 2 1 3 0 2 1 0 3 2 1 1 2 2 0 2 1 1 2 1 1 0 2 1 0 0 2 0 4 2 2 1 1 2 2 1 0 1 1 3 1 2 1 1 2 1 1 2 4 2 1 1 2 1 0 0 1 0 1 2 2 2 2 1 0 1 2 1 1 3 1 2 2 1 1 2 3 2 0 0 1 1 1 3 2 0 1 1 2 1 1 0 0 1 2 1 0 3 2 2 2 1 0 2 0 1 0 1 2 1 1 1 1 1 1 1 2 1 2 1 0 2 0 1 3 3 2 1 3 2 1 1 1 1 4 1 2 1 2 5 2 1 1 3 2 2 2 2 2 3 3 1 2 2 2 1 1 1 3 1 1 0 0 1 0 1 0 0 4 0 1 1 2 0 1 0 1 2 2 2 2 2 1 1 1 1 2 0 2 0 1 0 0 1 1 2 1 0 2 1 0 1 1 2 2 3 1 0 1 0 3 0 3 1 3 1 1 2 0 3 0 0 1 2 0 2 1 0 1 1 1 1 2 0 3 3 1 1 3 3 1 2 0 1 1 3 4 1 1 1 0 1 2 0 1 0 1 3 0 3 2 1 2 1 1 4 2 2 2 0 1 2 1 0 1 1 1 2 2 1 0 1 0 1 1 1 2 1 1 1 4 2 0 0 1 2 2 2 0 2 3 3 2 1 1 2 1 1 0 1 1 1 1 2 2 3 1 0 0 3 2 2 1 1 2 4 3 2 1 0 2 1 1 3 1 0 1 3 1 0 1 1 1 2 3 2 2 0 2 1 0 2 0 3 0 1 0 1 2 1 2 1 1 2 2 2 2 4 1 0 3 1 4 2 2 1 1 2 2 1 0 3 3 1 1 1 0 2 0 2 1 1 2 2 3 1 2 1 5 0 2 1 0 3 1 3 2 2 2 2 3 1 2 3 2 2 0 1 1 1 1 0 2 3 1 1 2 1 1 1 0 1 3 2 2 2 0 0 2 2 1 2 0 3 1 0 1 2 3 3 1 3 2 0 2 2 1 0 1 0 1 1 1 1 1 2 1 3 0 2 2 1 1 2 1 0 1 1 0 1 0 1 3 2 2 3 2 0 1 1 1 1 1 1 1 0 0 1 2 1 2 2 0 4 2 1 1 0 6 1 0 1 1 2 0 2 1 1 2 0 0 2 2 2 3 2 3 1 0 1 0 1 2 2 1 0 1 2 1 1 3 1 1 1 2 0 3 1 3 1 1 1 1 2 1 0 1 1 1 0 1 2 1 0 2 0 3 2 3 2 3 0 1 1 4 0 1 1 3 1 2 0 1 4 1 1 3 2 2 3 0 1 1 2 1 1 3 1 2 0 2 1 0 2 0 2 1 1 4 2 2 1 1 2 1 2 4 2 1 2 2 0 2 1 1 2 1 0 2 2 3 2 0 2 1 2 1 0 2 2 2 2 2 2 0 2 0 1 3 5 2 4 1 2 2 1 2 0 1 2 2 0 2 3 2 2 3 1 2 2 1 1 0 1 2 1 2 2 0 1 0 1 1 4 1 4 0 1 3 1 1 2 1 2 1 2 1 2 0 1 2 0 2 1 2 1 2 1 3 0 1 1 0 3 4 1 3 0 3 0 1 2 2 1 1 3 1 2 1 0 0 1 0 1 0 0 3 2 2 1 1 2 2 4 3 2 1 1 0 1 2 2 3 1 1 1 2 3 0 0 1 3 3 1 0 1 0 1 3 1 2 1 1 1 1 1 2 1 1 3 2 2 2 2 1 0 1 2 2 1 1 4 1 5 4 1 1 0 2 3 0 2 1 3 2 3 1 1 1 2 0 0 4 1 0 2 3 1 2 1 0 2 2 0 1 1 3 1 0 0 0 2 1 3 2 2 0 2 1 2 1 4 3 2 0 1 2 1 1 1 1 1 1 2 1 2 2 1 2 0 2 4 1 3 0 1 3 1 1 2 1 1 2 4 1 1 1 2 1 1 2 4 2 3 0 0 0 1 1 0 3 1 1 3 0 3 2 0 1 1 1 0 5 2 2 3 0 2 1 3 0 1 0 3 1 1 0 2 3 2 2 3 3 2 2 1 1 1 2 2 0 4 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 3 0 1 0 1 1 2 1 1 1 0 1 2 2 0 1 0 2 0 0 2 1 2 1 1 0 2 2 1 1 3 3 0 1 2 0 1 1 1 4 2 1 4 1 2 3 2 2 1 1 1 2 1 2 0 3 2 2 3 0 4 1 1 2 2 4 0 1 1 3 0 3 3 0 1 1 4 2 1 2 3 2 1 0 1 3 1 2 1 3 2 3 2 2 1 0 1 1 2 3 1 1 4 1 2 3 2 1 2 0 3 2 2 1 1 2 2 1 1 1 0 0 2 1 2 4 2 1 1 3 2 1 2 1 1 2 1 0 2 0 0 1 3 1 1 2 1 3 3 1 1 0 1 2 3 0 3 2 4 1 0 1 4 1 2 1 3 1 1 2 2 1 1 0 4 2 1 0 2 3 1 0 2 1 1 2 2 0 1 2 2 0 1 0 1 1 1 2 3 1 1 1 1 2 5 0 1 0 1 0 0 2 3 1 0 3 0 2 1 2 3 2 1 1 2 1 1 2 1 2 1 0 1 2 2 2 0 2 1 1 0 1 2 1 2 1 1 0 1 0 0 2 3 1 1 1 4 2 2 3 0 1 0 1 0 2 1 0 2 2 1 1 5 0 1 4 3 0 1 1 2 2 3 2 0 3 4 2 4 1 4 2 0 1 3 4 1 1 2 2 0 1 2 2 2 0 2 1 2 2 3 1 1 1 1 1 2 3 1 0 2 0 0 1 1 2 1 1 5 2 0 1 0 2 1 2 1 1 1 1 1 3 0 2 3 3 3 2 1 2 3 2 0 1 1 3 2 1 1 0 1 0 1 3 2 1 1 3 1 2 5 1 1 4 2 3 0 1 3 1 0 1 2 0 1 2 3 3 0 0 3 3 3 1 0 2 2 1 3 1 3 1 3 1 1 2 2 0 0 0 2 3 0 2 1 1 1 1 1 0 2 0 0 2 1 2 4 2 2 2 1 2 0 3 1 2 1 2 2 1 1 2 1 0 2 3 3 3 0 4 3 3 0 3 0 1 2 1 1 0 1 0 2 0 1 0 2 2 1 0 0 0 0 1 0 3 0 2 1 1 1 1 0 0 2 1 1 2 3 2 2 2 1 2 1 1 1 0 0 1 2 3 1 2 1 0 2 0 1 1 2 3 1 0 1 2 1 2 1 1 0 2 2 2 2 1 2 0 1 0 2 0 0 1 2 4 2 1 2 1 1 1 0 1 2 2 1 3 0 1 2 1 2 2 3 1 1 1 0 2 0 1 1 1 2 2 0 1 2 1 3 2 1 2 4 3 3 2 0 0 1 3 1 1 1 1 2 0 2 0 3 2 1 2 1 2 3 0 0 2 0 3 0 0 1 1 3 1 2 3 3 1 1 3 1 3 2 2 2 3 1 1 1 0 1 0 1 1 2 2 1 1 2 2 1 2 1 1 1 1 2 0 1 2 0 3 4 1 0 0 0 0 2 3 0 1 1 1 0 1 2 0 3 1 1 0 0 2 2 0 1 0 0 1 3 0 1 2 3 3 3 3 1 3 1 1 1 2 1 0 2 1 1 3 2 1 1 2 1 0 2 2 1 1 1 1 3 2 3 1 0 2 0 1 1 3 3 0 1 1 1 2 1 1 1 2 2 1 2 2 1 2 2 2 3 3 0 1 2 3 2 1 0 2 3 1 0 0 2 0 3 2 2 2 1 2 2 0 1 2 0 3 1 2 2 1 2 2 1 0 2 1 1 1 2 0 2 1 4 1 1 2 1 1 2 2 2 2 1 1 2 5 1 0 1 1 1 0 2 1 2 2 0 1 1 1 2 2 2 1 2 1 2 1 1 1 4 2 1 1 0 1 2 2 3 0 0 2 0 1 1 1 1 2 0 0 1 1 0 1 1 1 2 3 1 1 0 4 2 3 1 2 0 2 1 1 1 2 1 1 0 1 1 2 1 1 3 0 1 2 1 0 1 2 0 3 3 1 1 1 2 0 1 1 1 1 2 2 2 0 1 2 1 1 1 2 3 2 1 2 2 3 3 1 1 1 2 3 3 0 1 1 1 2 1 3 1 2 1 1 2 0 2 1 2 0 1 0 0 1 1 3 1 4 2 1 3 0 0 1 1 1 2 0 0 1 2 2 2 1 1 1 0 1 2 0 1 1 3 0 1 0 0 2 2 2 1 0 1 2 0 3 4 1 1 4 2 0 0 0 2 0 2 2 2 3 3 2 3 1 2 1 1 2 0 1 2 3 2 3 2 1 2 1 2 2 1 2 3 2 1 1 2 0 1 0 2 0 1 3 1 1 1 1 3 2 2 2 0 2 1 2 2 2 0 1 1 3 0 1 2 1 0 1 0 1 0 1 1 1 1 1 1 1 3 3 1 0 1 2 2 0 3 1 2 2 0 1 1 4 3 2 1 2 2 1 3 3 2 1 2 3 1 2 2 1 0 1 2 1 0 1 1 2 1 5 2 1 0 3 3 1 1 3 1 4 0 1 2 2 2 2 0 2 1 0 0 1 1 2 0 2 0 3 1 1 0 2 1 4 1 1 1 2 2 1 1 1 3 1 2 1 2 2 2 0 2 1 2 1 0 3 1 1 0 3 3 0 0 1 3 2 2 0 2 1 0 1 2 1 1 2 1 2 1 0 5 0 0 0 2 1 1 0 0 0 1 3 1 1 1 1 1 1 1 1 2 0 0 2 1 1 1 2 1 0 3 2 1 1 1 1 3 0 1 1 1 2 2 0 1 2 3 2 1 1 2 1 1 0 1 1 1 2 1 2 2 1 3 1 1 2 0 2 2 2 0 0 3 0 2 4 1 2 1 2 1 2 3 1 4 3 1 2 1 1 3 2 2 1 0 1 1 2 2 0 2 2 1 2 0 1 1 4 1 2 4 2 1 3 3 1 1 2 1 2 0 1 2 3 0 1 0 1 1 0 3 1 1 1 1 1 3 2 1 4 3 2 1 0 1 1 0 2 2 2 0 0 0 0 0 1 2 0 3 3 1 1 2 0 1 1 1 2 2 0 1 2 2 2 2 3 1 2 1 1 1 2 1 1 2 1 0 2 0 2 1 1 2 0 3 3 3 1 2 2 0 3 0 2 1 1 2 0 1 3 1 2 2 0 0 1 1 2 1 1 1 1 0 1 1 1 3 0 2 3 2 1 1 2 1 1 2 1 3 2 2 2 2 3 0 1 0 2 0 4 2 2 1 1 1 1 1 2 3 0 1 2 2 3 1 0 3 2 0 1 1 3 2 2 1 1 1 1 3 3 1 0 1 1 3 1 0 1 1 0 2 3 2 1 1 2 0 2 1 1 1 0 2 2 2 1 3 0 1 3 2 1 2 1 1 1 2 3 1 1 2 1 1 1 0 2 1 0 1 1 0 3 2 1 2 1 2 1 2 1 1 2 4 1 1 1 1 2 2 0 2 1 1 1 2 0 1 2 0 1 1 1 0 2 0 2 0 1 1 1 1 1 3 1 2 1 2 3 3 3 0 3 1 2 2 2 3 2 1 3 1 0 1 2 2 1 3 1 1 2 0 2 3 1 2 1 2 2 2 0 2 1 2 1 2 2 3 2 2 1 1 2 0 0 2 1 3 2 1 0 1 1 1 0 4 2 0 0 1 2 3 0 1 0 1 2 1 3 1 0 2 1 1 2 1 1 1 2 1 0 1 2 1 0 1 2 4 2 3 1 1 2 2 0 1 1 2 2 2 2 2 0 1 3 2 1 3 1 1 0 1 1 1 3 2 0 1 3 1 0 1 2 2 1 2 1 1 2 2 3 0 0 0 1 2 2 1 2 2 1 2 1 1 3 2 2 1 3 0 2 2 0 2 1 1 5 0 1 1 2 1 2 1 1 2 2 3 1 1 2 1 4 1 0 0 2 1 1 0 0 2 1 2 2 2 1 3 0 0 1 1 4 1 2 1 1 2 1 2 1 4 3 1 2 1 0 1 0 2 1 2 1 0 1 3 0 2 1 1 1 2 2 1 1 1 2 1 1 1 2 0 0 0 0 3 2 3 1 2 2 2 5 0 2 2 1 2 1 0 2 3 2 2 2 3 1 1 2 1 0 3 0 0 1 1 3 1 0 1 1 1 3 2 1 2 1 0 4 3 1 1 1 0 1 0 3 1 1 1 3 1 0 2 2 1 1 1 0 0 3 0 0 1 1 2 2 2 2 0 2 1 2 0 1 1 2 0 2 0 3 1 1 1 0 1 1 2 1 2 0 0 2 0 2 2 1 1 1 0 3 0 0 2 0 1 0 1 0 4 1 2 1 3 0 1 2 1 2 1 1 3 1 0 4 2 5 2 1 0 4 2 1 3 1 1 2 2 3 1 1 0 1 1 2 1 2 2 1 1 0 0 3 0 0 2 2 1 2 2 2 1 3 0 3 3 1 1 3 1 1 0 2 1 1 2 0 2 1 0 2 0 1 1 1 0 3 2 2 1 1 2 0 2 2 3 4 2 0 1 0 2 1 0 2 3 1 0 1 2 2 3 2 2 1 1 2 1 2 2 0 0 2 1 2 1 1 2 2 1 2 0 1 1 1 2 0 0 2 1 2 1 2 2 1 1 1 0 3 1 1 0 2 2 3 0 3 0 1 2 3 3 2 1 1 1 1 1 1 2 2 1 1 0 0 0 1 0 2 2 2 3 0 1 2 0 1 3 2 0 2 4 2 0 1 3 2 0 2 2 1 1 2 3 2 0 0 2 1 2 4 1 0 1 1 0 2 0 0 2 1 3 1 2 1 1 0 0 1 1 0 3 0 0 1 3 1 1 1 4 1 2 3 0 2 2 1 1 0 3 1 3 1 1 2 1 2 1 1 2 1 2 3 1 2 2 1 4 0 1 1 1 1 2 3 1 1 1 3 1 3 3 2 2 0 0 1 1 3 1 2 2 0 0 4 2 0 0 0 1 0 1 0 2 0 1 3 3 1 0 1 0 2 1 1 1 1 1 4 1 1 2 3 0 2 2 1 0 1 1 2 2 2 0 0 1 1 0 2 3 0 0 2 3 0 2 2 2 0 3 4 2 1 3 3 1 4 0 0 0 2 1 2 1 1 1 2 0 1 1 0 1 2 1 1 1 2 1 4 1 1 0 1 1 1 0 1 2 2 2 2 1 3 1 3 3 1 1 1 2 2 1 1 0 1 3 3 2 2 1 2 0 3 1 0 2 0 1 1 2 1 2 0 1 1 1 2 1 3 2 2 1 1 0 2 2 1 1 1 1 1 2 2 2 3 2 2 3 2 4 2 0 1 1 0 2 2 0 1 2 0 1 3 3 3 2 2 1 2 0 0 0 3 1 3 1 0 3 1 1 3 1 1 1 2 3 1 0 2 4 1 3 1 2 2 3 1 2 2 2 2 2 4 0 0 1 0 1 1 3 1 1 2 3 1 0 0 1 2 0 3 1 1 2 0 1 2 1 1 2 1 0 2 3 1 1 5 3 1 1 1 3 1 0 1 2 1 1 0 1 1 0 2 2 0 0 1 2 0 1 2 3 2 1 2 1 0 1 1 1 2 1 1 1 0 3 1 0 1 0 1 1 0 2 0 1 2 2 2 2 1 2 1 2 1 1 1 1 1 0 3 3 2 1 1 2 0 3 1 2 2 1 1 3 1 0 2 2 2 1 1 1 2 1 2 1 1 1 1 0 2 0 0 1 2 2 1 3 1 0 1 2 1 2 1 2 2 1 2 0 1 2 1 2 1 1 0 0 1 1 0 1 1 1 0 0 1 1 2 0 1 2 1 2 2 1 1 1 2 2 1 2 1 3 2 2 2 1 1 0 1 0 0 2 2 2 0 2 4 2 1 1 0 1 1 1 0 0 4 1 1 3 3 0 1 1 0 1 0 5 2 3 2 2 2 1 2 1 0 1 2 2 2 1 3 0 0 1 0 1 1 2 2 1 2 1 2 0 2 1 0 1 2 1 4 2 2 0 2 1 2 0 2 2 3 2 3 2 1 1 3 1 0 2 0 2 2 1 2 2 4 0 0 2 1 2 1 1 2 2 2 0 2 3 1 1 3 0 2 0 2 0 4 3 3 1 0 1 3 3 1 1 1 1 1 2 0 2 2 2 0 2 1 1 4 1 1 0 1 1 0 4 1 2 2 1 2 1 2 1 1 0 3 1 3 2 1 1 2 2 3 0 2 3 1 0 2 3 2 1 1 1 2 1 1 1 0 0 1 1 2 2 0 1 1 0 1 1 2 0 1 2 1 3 0 1 1 1 0 1 2 1 1 1 3 2 1 1 2 1 1 2 1 0 5 1 1 2 1 3 2 1 3 1 0 1 0 1 0 2 1 1 2 2 1 2 0 1 2 2 0 0 2 1 1 0 1 0 3 0 0 1 1 0 1 3 2 1 1 2 1 2 0 0 2 3 2 1 2 0 2 0 1 2 0 2 1 1 2 1 3 0 1 1 1 1 0 3 3 1 1 1 0 2 2 0 0 2 2 3 2 2 3 1 2 1 0 1 2 0 0 1 3 2 3 0 1 0 2 2 2 1 2 1 2 4 1 3 1 3 2 0 3 2 1 2 1 2 1 2 1 3 2 2 2 1 1 2 2 3 0 2 1 2 1 5 0 1 2 1 1 2 2 1 1 1 2 1 1 2 1 2 0 1 1 1 1 3 1 1 0 0 1 1 0 3 1 3 2 1 1 2 0 1 1 1 2 3 0 1 1 0 3 2 1 3 1 1 1 2 0 4 1 2 2 1 0 1 0 0 2 2 0 1 2 3 2 2 2 1 0 1 2 0 0 2 1 1 1 3 1 3 1 3 1 2 2 0 2 3 3 2 2 2 2 0 2 0 1 1 1 2 1 1 2 2 3 1 2 1 1 1 1 1 1 1 1 2 1 2 2 0 3 1 1 1 4 2 1 1 1 2 1 1 2 1 3 2 3 2 1 2 1 1 2 2 1 0 3 4 2 2 2 3 1 1 2 2 1 1 1 3 1 2 2 0 3 0 4 1 2 1 1 1 2 0 1 0 2 1 2 0 2 2 2 1 2 2 2 0 2 1 1 2 1 1 1 0 2 1 0 1 1 1 1 1 2 0 2 2 2 2 2 1 0 2 1 0 2 1 2 0 1 1 1 1 2 0 0 1 2 3 0 0 2 1 1 1 0 1 1 0 2 4 1 4 0 1 0 0 0 1 1 3 3 1 1 1 1 4 1 2 2 0 4 0 2 2 1 1 1 0 1 0 5 1 3 0 0 1 1 1 1 1 0 1 0 2 0 1 1 1 3 1 2 4 0 4 1 1 3 2 1 1 1 1 2 1 1 0 1 2 1 2 2 1 0 1 1 4 2 1 2 4 3 2 1 0 1 2 0 2 1 1 0 4 1 1 2 1 1 4 1 2 0 2 1 1 2 2 2 1 0 1 1 1 0 1 2 3 1 1 1 2 1 1 3 2 3 2 3 2 1 0 1 1 0 2 0 1 1 2 2 1 2 1 1 2 0 2 2 3 2 1 2 3 2 0 2 1 1 1 1 3 1 3 0 1 6 0 1 1 2 4 0 1 2 1 3 1 2 0 0 1 1 1 2 1 2 1 0 1 0 1 2 2 1 2 3 0 0 1 2 1 3 2 3 1 0 1 2 0 2 2 1 1 1 5 0 2 2 2 1 1 0 2 1 2 4 0 2 1 3 0 0 2 0 1 1 1 3 0 1 1 1 2 2 1 1 1 3 1 1 3 2 1 1 2 1 2 1 1 2 0 0 2 4 0 1 0 0 1 0 1 0 0 1 0 2 0 0 2 3 1 1 2 1 3 2 1 1 1 2 2 2 2 2 2 1 1 0 1 1 3 2 0 2 2 2 1 2 3 2 0 2 0 1 1 2 1 0 0 2 1 2 2 0 0 0 1 0 3 3 2 1 1 2 0 2 1 1 2 0 1 3 1 1 0 1 1 0 1 0 1 1 1 0 1 2 0 2 2 3 1 3 2 1 1 1 4 2 3 2 1 1 0 2 2 3 2 2 1 1 0 2 1 1 1 0 3 1 2 2 1 1 0 1 2 2 1 1 1 1 1 0 3 1 0 1 1 0 0 1 1 0 2 2 1 1 1 1 0 3 0 0 2 1 2 1 0 1 1 1 1 2 2 0 1 1 3 3 0 2 2 1 0 2 2 1 2 2 1 0 4 2 1 3 3 3 1 1 1 0 2 1 2 3 1 3 1 2 2 1 1 1 1 1 2 1 0 2 0 3 0 1 2 0 1 1 2 1 2 1 1 1 2 1 1 1 0 2 2 1 1 2 1 0 1 2 1 1 0 2 1 2 1 1 1 1 2 2 1 3 1 4 2 1 0 2 1 1 2 0 0 1 0 0 1 0 2 1 0 3 1 1 3 1 2 0 2 0 1 0 1 0 1 2 1 2 0 0 2 4 0 0 1 2 0 1 1 0 2 0 0 2 2 2 0 1 2 1 2 4 2 2 1 1 2 1 2 2 2 0 0 1 3 1 1 1 1 2 0 1 0 2 2 0 2 1 1 0 1 1 1 1 1 1 0 3 0 0 3 0 2 2 1 1 3 3 1 0 2 2 0 0 3 3 3 0 2 1 1 1 0 1 2 4 0 2 2 3 1 0 3 1 3 0 2 0 1 1 2 1 3 2 1 1 2 1 1 0 1 1 1 0 1 1 3 2 2 3 1 1 1 2 1 3 0 1 2 1 3 2 1 1 2 2 1 2 1 3 2 1 3 1 0 2 2 1 1 0 1 1 3 1 3 2 2 2 0 4 1 1 2 1 2 3 1 2 2 0 1 1 1 3 1 2 1 1 1 2 2 2 2 1 0 0 3 2 0 0 1 1 2 2 1 2 2 1 2 1 2 0 0 0 3 2 1 1 0 0 1 0 1 2 2 2</t>
+  </si>
+  <si>
+    <t>GAM(0.1663868949839553, -3.682412682808478e-28, 0.5111015086849005)</t>
+  </si>
+  <si>
+    <t>0 0 0 0 3 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 2 0 0 0 2 0 0 0 1 1 0 0 1 0 1 0 2 0 1 2 0 0 0 0 0 0 1 0 0 1 2 1 1 0 0 1 0 0 0 2 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 2 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 2 4 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 3 0 0 0 2 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 0 2 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 3 0 0 2 1 0 0 0 0 0 1 0 0 1 1 1 0 0 2 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 3 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 2 0 1 0 2 1 1 0 0 0 1 1 0 1 1 0 2 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 2 0 0 1 2 1 0 0 0 0 0 1 0 0 0 0 0 3 0 1 0 1 1 4 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 2 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 2 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 1 3 0 0 0 1 0 0 0 0 1 0 1 1 1 2 0 0 0 2 0 0 0 1 1 2 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 3 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 3 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 2 1 1 0 1 0 0 0 1 1 0 1 1 1 2 3 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 3 1 1 0 0 0 0 2 1 1 0 0 1 2 0 2 0 1 0 0 0 0 2 3 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 1 0 1 0 2 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 2 1 0 2 1 1 0 0 2 0 0 2 0 1 0 0 1 1 0 1 2 0 0 0 2 0 1 1 0 1 0 0 1 0 0 0 2 1 1 2 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 2 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 1 2 1 0 0 1 1 1 0 1 0 2 1 0 0 0 1 0 0 0 2 2 0 0 1 0 0 0 2 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 2 0 1 1 0 1 1 1 0 1 1 0 2 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 3 1 0 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 3 0 0 4 1 1 1 2 0 0 0 2 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 1 1 2 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 2 0 1 1 2 1 0 1 2 1 0 0 0 1 1 0 2 1 1 1 1 2 0 1 1 1 0 2 0 0 0 0 1 0 1 1 1 0 2 0 1 1 0 0 0 1 1 1 0 0 1 0 1 2 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 1 0 0 0 0 1 2 0 0 1 0 1 0 0 2 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 2 0 0 1 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 1 1 2 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 1 0 2 3 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 0 0 2 0 0 3 0 0 1 2 1 0 2 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 1 0 0 2 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 2 1 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 2 1 1 0 0 2 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 2 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 2 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 1 1 0 0 1 1 0 0 1 2 0 0 1 0 0 0 0 1 1 0 1 0 1 0 2 1 0 1 0 0 0 0 1 1 1 0 1 0 2 0 2 0 1 1 0 1 2 1 1 2 3 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 2 2 1 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 1 2 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 3 1 0 2 0 0 2 1 2 0 0 0 1 1 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 1 0 1 0 0 2 3 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 2 0 3 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 2 1 0 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 1 0 1 0 0 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 2 4 0 0 0 0 0 0 0 0 1 2 0 1 2 1 1 0 0 0 1 0 0 0 1 2 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 3 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 2 0 1 0 1 1 1 0 2 0 3 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 2 0 2 1 0 0 0 0 1 1 1 0 0 0 0 0 1 2 0 0 1 1 2 0 0 0 0 1 4 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 2 1 0 0 1 0 2 0 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 2 0 0 1 1 1 0 1 0 1 1 0 2 0 0 3 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 2 0 1 0 1 0 2 2 0 1 0 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 3 0 1 1 0 1 0 1 3 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 2 0 1 1 1 0 1 0 0 0 1 0 1 2 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 0 2 0 0 2 0 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 2 0 2 1 0 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0 1 0 1 2 1 3 1 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 2 1 0 0 1 2 0 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 2 0 0 3 1 1 3 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 1 2 0 1 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 2 1 0 0 0 0 0 0 1 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 3 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 0 2 0 0 1 1 1 0 2 0 0 3 2 1 1 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 3 0 1 0 0 1 0 1 1 0 0 1 0 2 3 1 1 0 0 0 0 0 1 0 0 0 3 2 0 0 1 1 0 0 1 1 0 1 0 1 0 2 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 2 2 2 1 0 0 0 1 1 1 0 0 0 0 2 0 1 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 2 1 2 1 1 0 1 0 0 2 0 0 0 1 0 1 0 1 0 0 0 0 1 2 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 1 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 2 0 2 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 2 1 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 2 0 0 2 1 0 0 1 2 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 2 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 1 1 1 0 1 0 2 0 0 0 0 0 0 1 0 1 0 1 1 0 2 0 2 0 0 0 1 1 2 1 2 0 2 1 2 2 1 0 0 1 0 0 0 0 0 2 0 2 1 1 0 0 0 1 1 0 0 0 1 1 2 0 0 1 1 0 1 0 0 0 0 0 2 0 1 0 1 0 1 1 0 1 2 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 2 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 2 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 2 1 1 1 0 1 0 2 2 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 2 1 0 2 2 0 0 0 2 1 0 0 0 1 1 0 1 1 0 1 0 2 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 2 1 1 0 0 2 0 1 0 0 0 0 2 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 2 0 3 2 0 0 0 0 0 1 0 0 0 0 0 2 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 3 1 2 0 2 0 0 0 0 1 1 1 0 1 3 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 2 1 2 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 1 1 0 2 1 0 1 1 0 0 0 0 1 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 1 1 0 2 0 1 0 2 0 3 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 3 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 2 0 0 1 1 1 0 1 1 1 1 0 0 0 0 2 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 1 2 0 0 0 0 0 0 0 0 0 0 3 0 1 0 2 1 0 1 0 2 1 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 2 0 1 3 0 1 0 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 2 0 2 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 3 0 0 2 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 2 1 1 0 1 1 3 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 3 1 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 2 1 0 1 0 0 0 0 0 1 2 1 0 0 1 0 2 0 0 1 0 0 1 1 0 3 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 2 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 2 2 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 1 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 2 1 3 1 2 0 1 0 0 1 1 0 2 1 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 2 0 1 0 0 2 2 0 2 1 0 1 0 0 0 2 0 0 1 1 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 2 0 0 0 2 0 0 0 0 1 2 0 0 2 0 0 2 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 1 3 1 1 1 2 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 2 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 2 0 1 3 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1 0 2 0 0 0 1 0 0 3 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 1 1 0 1 0 1 2 0 0 1 1 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 2 1 1 0 1 1 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 1 0 1 3 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 2 1 0 0 1 1 0 2 1 2 0 1 0 1 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 2 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 2 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 2 0 1 0 1 0 0 2 0 0 0 2 0 0 2 1 2 0 1 2 0 2 0 0 0 0 0 0 2 2 1 1 0 1 0 0 2 0 0 1 0 1 0 1 1 1 2 1 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 2 0 2 2 2 0 1 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 0 2 1 1 0 0 1 1 1 1 0 1 1 0 2 2 0 0 2 0 1 2 0 3 0 1 0 0 1 1 0 0 2 0 0 0 1 1 1 1 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 1 2 1 1 0 1 0 1 0 3 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 4 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 3 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 2 1 1 0 0 0 1 1 2 1 0 1 0 1 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 2 1 0 0 0 1 1 2 0 1 0 2 2 1 2 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 2 2 1 1 2 1 1 0 1 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 0 1 1 2 1 2 2 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 2 0 0 1 0 1 3 0 1 0 2 0 1 1 0 0 2 0 2 1 1 0 0 1 3 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 2 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 2 1 1 1 0 1 2 1 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 1 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 2 1 3 0 0 0 1 0 1 1 0 0 0 0 0 0 2 0 1 0 1 0 0 2 1 0 1 0 0 0 3 0 0 0 0 1 1 1 0 1 1 0 0 0 2 0 1 3 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 3 0 1 0 1 0 0 0 2 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 2 1 0 1 0 0 2 1 0 1 1 1 1 1 0 1 3 0 0 0 0 1 0 1 0 1 0 2 0 2 0 1 2 1 0 0 0 0 0 0 1 2 1 1 2 1 1 0 0 0 1 0 1 0 0 0 0 0 0 3 0 1 1 0 1 0 0 2 0 0 0 1 1 0 0 1 2 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 2 0 0 0 1 0 1 1 0 0 0 1 2 0 0 0 0 1 1 1 1 1 1 0 0 0 3 0 1 0 0 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 1 0 2 1 0 2 1 0 0 2 2 0 0 0 2 0 0 2 0 1 0 0 2 1 0 1 0 1 0 0 1 0 0 0 2 2 0 1 2 1 2 2 1 2 1 0 1 0 0 0 0 2 1 1 2 1 0 0 1 2 0 0 2 2 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 1 1 0 2 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 2 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 1 3 0 0 0 1 2 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 1 1 0 0 0 1 2 0 2 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 1 0 2 0 0 0 0 1 1 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 3 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 1 1 0 1 0 0 3 1 1 0 1 0 1 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 2 0 2 0 2 2 0 0 2 0 1 1 1 0 0 0 0 0 0 1 0 0 2 0 1 0 1 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0 4 1 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 3 0 1 0 0 0 0 0 1 3 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 2 0 1 0 2 1 1 0 0 2 1 0 0 1 0 1 3 0 0 0 1 2 2 0 2 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 2 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 2 1 1 0 0 0 0 2 0 1 0 1 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 2 1 2 0 0 0 0 1 1 0 2 1 1 1 0 0 2 1 0 2 1 1 1 1 0 0 0 0 2 2 0 1 1 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 3 0 0 0 1 1 0 0 0 0 0 2 1 1 0 2 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 2 1 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 3 0 0 1 0 1 0 1 0 0 0 0 0 0 2 0 0 2 1 0 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 1 1 0 0 0 0 1 0 0 0 0 3 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 2 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 2 0 1 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 0 1 1 0 0 0 0 0 2 1 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 2 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 1 2 0 1 0 1 2 0 1 0 3 1 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 1 0 0 0 1 0 2 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 0 2 0 0 2 0 1 1 0 1 1 0 1 1 0 0 2 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 1 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 2 0 2 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 2 1 0 2 0 2 0 0 0 0 0 0 0 3 0 1 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 4 0 0 0 1 0 2 0 1 0 0 1 0 0 2 1 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 3 1 0 0 1 0 2 1 1 0 1 0 1 0 2 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 3 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 2 1 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 1 2 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 1 2 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 3 0 1 1 0 1 0 0 0 2 0 1 0 1 1 1 0 0 0 2 2 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 1 0 0 0 0 0 1 0 3 0 2 1 0 1 0 0 0 0 1 1 1 0 0 0 2 0 2 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 3 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 2 0 2 2 0 2 0 0 0 0 2 0 1 1 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 2 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 2 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 2 1 1 0 0 0 1 0 2 2 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 2 1 1 0 1 0 1 1 0 0 0 1 2 0 1 0 0 1 0 1 0 0 0 2 3 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 4 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 2 0 2 0 0 0 1 0 2 0 0 0 1 0 0 0 2 0 0 4 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 2 0 0 1 0 1 0 0 2 0 0 1 2 3 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 1 1 1 0 1 2 1 0 1 0 0 1 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 2 1 1 0 0 2 1 0 1 0 0 2 0 0 1 0 1 3 0 0 0 1 1 0 0 0 0 0 2 1 1 2 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 2 1 1 0 1 2 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 2 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 3 0 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 2 0 1 0 0 1 1 0 1 1 0 3 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 2 0 0 0 0 0 2 0 2 1 2 0 1 0 0 1 0 1 1 0 0 2 1 0 0 1 1 0 0 1 1 1 1 0 0 0 0 1 1 2 0 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 1 2 0 1 0 2 2 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 2 1 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 3 0 0 2 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 2 0 0 1 2 2 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 1 1 0 1 0 1 0 0 1 0 3 0 0 1 1 0 0 0 0 0 2 3 0 1 1 0 0 2 1 0 0 1 1 1 0 1 0 1 0 0 0 0 2 0 3 1 0 1 4 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 2 0 0 0 1 1 1 1 2 2 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 1 2 0 0 0 1 0 0 1 0 2 0 1 0 1 0 1 0 0 2 2 0 1 0 1 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 3 0 1 1 1 0 0 1 2 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 2 0 0 0 3 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 2 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 2 0 1 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 1 2 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 2 2 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 3 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 2 0 1 2 0 0 1 1 1 1 1 2 0 1 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 1 1 0 1 1 1 0 0 2 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 2 1 1 1 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0 0 3 0 1 1 0 0 1 2 2 1 2 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 1 1 4 0 0 1 1 0 2 1 1 2 2 0 1 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 3 2 0 1 1 0 0 0 1 0 2 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 2 0 0 2 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 1 1 2 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 2 1 2 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 0 1 0 1 1 1 2 0 1 1 1 0 0 0 0 2 1 0 1 1 1 2 0 0 0 0 1 1 2 1 2 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 2 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 0 2 0 1 1 0 0 1 3 0 2 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t>EXN(0.4981574368711495, 97.07907548181095, 34.05717735011851)</t>
+  </si>
+  <si>
+    <t>137 22 69 153 71 58 92 68 97 171 123 154 98 109 136 102 135 169 193 120 102 113 106 155 95 89 128 77 47 134 146 82 130 97 134 62 110 95 104 101 192 150 26 93 97 113 120 101 170 123 173 99 70 42 115 127 125 124 138 42 149 113 155 134 99 114 103 123 97 95 111 115 127 67 103 110 86 180 107 109 102 65 118 97 189 172 80 121 101 164 165 106 184 79 123 70 148 38 85 122 94 123 129 21 108 72 128 51 56 82 159 115 105 127 80 114 162 87 148 179 130 153 129 148 106 93 107 144 155 84 197 148 149 95 45 166 158 140 119 187 187 93 167 112 94 146 124 127 125 151 126 141 153 190 58 101 115 142 100 80 53 85 172 170 131 100 118 108 81 112 73 51 79 97 99 186 99 66 51 186 188 72 133 110 145 123 97 108 169 124 75 132 92 91 91 112 76 105 72 94 75 111 106 95 122 119 124 111 70 101 75 27 126 225 71 80 149 129 125 167 199 104 79 182 108 132 35 121 133 88 65 196 140 107 95 94 160 117 74 95 147 146 118 143 119 151 151 181 58 56 61 128 151 46 138 121 174 47 92 129 88 83 68 135 106 75 143 179 66 42 85 114 61 44 42 123 181 88 110 155 31 70 130 135 175 154 138 120 99 133 110 177 163 92 173 258 161 84 72 169 176 111 117 119 85 109 73 88 69 151 153 74 155 86 48 152 67 102 124 103 177 152 160 119 64 110 136 125 130 106 147 135 162 175 106 158 83 77 91 147 103 116 125 153 74 102 122 157 168 98 143 56 112 188 88 137 101 80 54 152 136 51 74 166 165 90 78 123 24 45 156 111 194 124 149 77 140 97 88 150 55 143 121 171 165 139 125 85 48 142 70 109 128 95 218 76 196 136 61 39 120 138 23 167 91 86 115 107 130 186 80 87 45 151 95 98 55 99 97 126 145 110 99 182 93 95 163 204 117 100 105 70 82 107 127 86 112 200 54 106 160 146 85 69 85 53 171 98 114 126 190 97 115 21 98 124 124 154 220 140 152 180 134 122 155 161 88 125 35 56 103 71 104 74 67 90 158 166 100 185 164 131 149 132 118 117 142 139 52 202 132 100 107 190 67 117 71 143 66 48 114 64 138 140 100 117 104 130 123 76 75 161 107 162 123 144 173 98 126 184 51 133 131 162 95 127 95 100 111 134 44 45 70 55 128 116 94 99 19 75 54 124 150 49 53 92 123 104 118 83 119 114 191 132 69 129 34 204 102 137 182 98 132 119 125 145 88 59 168 107 139 157 147 164 157 178 140 102 165 194 64 150 130 119 114 170 130 75 101 98 146 107 64 68 66 119 153 76 55 109 150 174 143 85 140 134 176 85 100 114 151 74 45 126 91 127 167 56 109 64 131 88 78 109 118 81 171 43 133 74 216 125 111 84 86 114 57 139 148 98 158 126 127 113 121 89 99 85 83 73 149 132 113 121 55 132 103 115 111 158 194 189 135 139 126 77 134 71 119 98 90 148 73 85 189 49 139 89 82 161 82 161 44 69 155 64 65 126 139 118 176 136 113 129 144 126 62 166 21 140 112 59 140 101 119 157 99 162 120 131 159 129 134 128 174 129 123 135 27 91 112 83 79 59 83 113 242 97 161 110 53 91 117 42 113 123 83 205 139 105 148 140 43 39 133 95 79 72 156 61 66 165 113 106 95 133 125 140 118 94 121 143 137 98 147 64 45 126 112 119 76 202 49 73 73 92 31 100 145 81 112 153 59 149 66 56 95 92 107 149 89 121 116 108 180 53 36 108 138 43 95 65 100 83 90 40 96 94 84 108 35 53 109 91 164 151 105 147 140 177 91 84 120 51 158 111 117 102 81 114 81 53 111 153 157 125 138 89 175 116 93 126 80 38 72 137 131 103 140 80 37 153 96 121 72 150 73 46 112 117 75 48 149 112 87 154 84 60 211 133 155 182 164 183 109 121 94 150 108 119 113 175 133 124 125 120 194 78 144 88 170 91 168 56 94 98 78 136 62 193 144 101 127 146 148 90 74 143 156 145 134 133 88 180 145 103 46 74 42 119 34 157 125 112 97 77 81 68 33 92 116 46 117 88 172 171 128 120 194 168 113 78 134 111 80 77 142 189 93 16 103 198 105 60 146 92 31 135 90 79 94 117 86 124 127 82 196 118 137 139 139 97 163 106 168 101 86 49 125 175 122 98 109 105 110 165 133 123 69 106 110 91 125 139 117 112 134 136 129 155 58 85 95 105 72 157 128 99 69 79 172 137 29 86 98 81 126 136 123 158 125 85 82 64 118 83 93 90 60 83 133 78 195 139 125 176 93 115 139 115 80 82 116 176 186 97 139 138 56 114 148 106 72 207 160 97 185 108 160 123 112 113 121 131 175 105 95 123 124 124 146 117 147 150 109 159 79 121 100 95 119 126 72 79 114 97 139 170 96 170 107 151 137 124 156 92 94 58 116 122 149 135 74 143 177 120 126 43 94 96 91 168 110 163 132 114 159 85 149 38 80 94 132 58 88 130 88 115 83 104 148 108 123 116 154 93 108 69 45 84 74 76 193 166 88 75 71 112 73 51 136 79 129 165 130 113 18 97 157 117 152 109 227 108 107 75 120 102 141 143 153 92 130 83 123 77 149 97 79 87 130 104 119 112 143 104 164 106 154 46 53 134 149 114 81 158 193 141 121 103 159 109 115 164 67 112 208 129 77 93 110 144 175 167 123 108 158 103 140 48 155 138 115 105 150 194 144 96 57 60 109 159 185 126 102 120 121 176 94 135 115 52 132 72 68 113 82 100 201 115 149 114 107 68 104 125 92 127 146 133 104 114 129 120 86 82 105 120 89 107 119 156 124 128 78 158 125 84 225 128 124 116 75 93 138 137 67 107 94 116 99 121 144 164 68 129 115 103 124 93 78 83 121 80 116 83 159 165 41 114 139 26 181 100 47 163 250 114 105 81 32 142 191 51 39 61 84 71 100 135 52 87 84 53 110 156 134 78 72 88 98 45 103 113 151 112 126 63 82 55 108 106 153 153 135 181 96 157 118 173 98 103 60 78 144 60 42 126 122 121 190 138 140 103 114 161 116 124 126 146 138 140 104 49 112 131 108 88 80 67 136 176 118 103 136 125 119 85 83 142 104 119 195 111 105 111 116 56 106 112 150 79 115 139 98 98 104 117 141 157 102 106 151 184 39 170 188 56 130 93 118 113 122 112 91 113 105 30 105 131 91 77 60 149 118 167 85 131 117 100 144 100 174 143 94 66 153 33 77 101 127 107 164 102 83 151 150 196 154 86 54 125 89 110 126 153 95 85 174 77 133 76 114 105 127 60 103 63 101 158 91 42 120 142 104 60 161 91 73 161 67 83 113 141 42 100 105 86 160 128 211 162 116 189 129 150 147 198 151 131 94 163 115 168 78 41 95 108 84 101 126 86 113 153 112 101 125 95 136 86 19 121 179 132 101 149 150 133 117 155 66 35 49 98 173 104 90 156 57 115 138 108 116 176 68 145 120 175 142 179 71 48 170 69 95 117 96 66 75 92 96 99 88 125 126 70 110 109 117 75 71 109 174 138 104 163 152 88 107 110 114 127 57 105 140 112 128 92 45 102 82 109 100 141 130 92 163 120 216 145 104 128 130 93 93 110 57 150 119 113 100 114 72 103 104 86 98 109 51 65 167 122 116 180 119 121 127 58 171 70 162 121 136 132 60 162 125 188 75 137 76 106 79 109 120 141 77 99 56 103 153 122 130 110 100 81 113 136 144 99 107 148 125 120 121 178 149 173 88 112 129 148 146 114 96 111 145 174 141 119 89 98 60 180 128 153 79 88 98 123 139 53 132 69 125 105 164 146 51 116 84 122 171 142 68 107 114 201 105 125 133 124 48 90 175 159 128 98 110 89 168 93 104 40 92 167 112 72 165 74 164 68 118 136 80 92 158 115 61 125 99 93 104 146 180 134 72 150 103 123 105 110 97 130 89 111 120 156 95 51 114 133 120 163 166 88 156 123 128 99 90 131 155 80 129 52 151 64 156 115 152 83 128 83 98 147 134 133 101 98 93 103 124 81 143 78 116 69 90 78 6 128 149 125 75 82 136 149 158 85 128 89 127 150 108 199 79 112 159 121 88 104 39 134 111 113 126 140 108 121 120 140 110 131 134 43 94 134 123 140 33 121 141 199 95 145 107 124 155 72 102 117 83 163 48 140 125 122 76 84 85 49 136 130 84 14 130 172 73 77 144 64 69 115 118 171 128 59 103 69 76 125 170 120 186 79 110 83 99 106 82 142 88 127 109 147 111 117 111 158 102 124 180 140 190 128 94 81 110 104 86 73 132 137 132 113 45 180 105 167 118 37 146 175 63 111 67 138 121 148 102 129 100 136 104 91 41 66 125 137 137 154 188 142 194 104 147 87 73 106 107 80 55 96 96 109 173 157 137 118 115 109 179 154 176 123 249 107 81 135 140 124 129 149 115 81 109 168 113 106 55 94 123 107 87 135 70 123 139 110 47 106 86 115 204 112 140 114 82 35 184 168 86 167 101 158 141 83 119 102 103 185 110 125 123 140 67 115 154 140 67 137 96 84 172 158 126 109 89 74 94 131 172 119 177 68 147 54 244 107 124 97 133 87 87 129 144 111 114 98 213 106 112 146 35 54 102 150 126 125 45 56 60 80 117 103 113 90 63 129 59 107 134 77 129 121 133 92 137 98 101 112 69 189 127 114 59 140 138 112 68 144 191 102 106 101 50 95 115 142 168 54 136 126 137 136 45 93 137 121 124 87 111 190 90 93 88 139 147 66 131 83 66 102 116 181 142 148 55 46 140 187 99 108 81 63 98 103 36 106 72 107 118 124 95 95 73 179 103 105 85 51 136 13 112 118 132 195 142 105 155 81 179 112 153 71 138 88 191 172 155 99 117 157 87 137 133 141 84 68 165 98 105 119 175 154 108 119 171 59 166 141 103 47 77 203 172 215 110 51 77 150 139 87 75 107 102 86 102 79 108 79 129 114 139 51 58 141 181 130 80 121 58 176 95 103 221 83 93 113 146 164 131 82 66 98 66 182 155 65 122 98 99 99 124 45 69 148 123 90 130 74 129 73 175 55 143 130 50 101 176 201 99 177 158 159 88 102 55 97 108 186 71 169 125 131 179 153 132 114 125 79 109 155 128 86 80 179 100 152 163 131 55 120 166 43 170 169 65 109 146 91 126 129 112 35 133 131 100 110 110 111 85 91 93 81 167 91 137 127 79 79 114 91 112 152 120 117 150 98 100 176 108 136 47 142 100 155 166 114 61 60 173 49 84 101 33 122 96 121 80 162 152 76 218 120 187 48 87 73 84 203 90 110 192 144 147 91 149 169 125 159 112 97 27 114 108 121 166 132 91 135 134 113 118 89 91 73 75 101 72 148 94 119 149 160 128 214 120 82 66 90 165 104 205 105 106 166 102 169 76 92 120 103 114 135 95 72 100 102 97 120 196 76 70 191 109 161 115 156 91 124 141 107 114 107 73 198 133 84 126 113 71 122 125 127 101 93 112 81 197 138 53 124 51 45 106 131 176 112 145 76 136 158 87 201 81 118 178 102 114 100 143 137 150 152 97 96 102 124 78 101 168 149 160 99 67 113 125 90 134 41 132 120 105 161 164 149 116 148 76 123 90 107 96 176 2 83 101 122 129 94 156 131 77 109 191 115 111 147 186 142 108 112 67 78 124 153 34 49 38 97 151 117 81 123 84 114 89 136 86 58 145 116 72 94 128 58 151 127 125 131 97 129 201 100 185 102 97 65 138 147 69 100 151 164 126 76 60 87 39 136 99 148 218 84 159 154 133 94 62 151 87 218 48 25 76 66 164 105 143 129 89 130 58 202 90 104 136 125 67 90 170 109 100 145 156 96 160 82 81 66 140 154 120 94 110 130 113 118 113 138 133 88 115 100 135 87 76 104 119 129 64 95 148 112 140 143 163 144 157 72 124 178 96 107 118 130 94 138 127 78 147 61 188 132 97 148 72 123 76 118 142 139 151 130 168 117 77 119 103 117 136 77 85 136 89 126 128 56 38 174 85 88 62 85 88 103 71 84 92 103 82 91 68 99 119 67 115 101 62 108 84 135 151 99 108 129 106 128 114 41 197 88 131 110 122 131 125 99 189 120 126 53 79 74 73 125 99 117 142 73 132 174 128 159 138 150 97 99 50 127 78 120 121 111 134 88 72 59 79 96 75 81 26 122 50 156 98 127 96 107 51 146 110 93 118 133 77 68 62 40 54 77 150 139 151 90 164 104 153 142 132 126 66 162 99 94 128 76 152 124 141 166 99 121 139 57 241 122 157 111 92 161 117 120 169 75 68 130 147 87 64 130 86 114 165 91 115 94 102 92 144 111 130 149 164 147 152 99 29 102 66 84 151 92 69 129 111 166 119 133 74 91 139 143 76 154 179 129 162 75 131 75 110 76 167 57 180 103 136 140 138 153 93 82 131 92 69 138 101 169 118 60 129 107 123 91 143 96 80 123 95 197 172 102 89 95 107 92 158 207 73 120 127 90 117 126 124 76 36 34 200 103 121 102 119 146 30 63 204 78 76 114 108 163 99 142 165 88 103 162 118 30 134 147 116 86 14 107 104 99 150 122 98 142 137 69 129 102 125 112 136 158 123 77 118 104 59 120 152 151 92 98 153 163 150 78 150 100 106 58 69 115 136 114 189 84 63 139 132 86 61 105 115 96 51 138 111 118 67 151 155 102 85 101 94 108 48 28 119 104 104 105 121 151 103 148 108 156 30 133 105 134 124 143 100 25 115 119 127 137 104 148 161 112 117 99 58 141 116 115 156 123 117 78 68 160 106 120 171 74 74 122 130 147 73 103 103 113 101 120 146 108 67 67 109 87 45 81 81 129 134 136 121 121 75 111 92 148 80 74 93 127 117 57 118 148 193 111 111 141 66 99 132 72 68 122 154 117 83 119 140 144 78 151 114 45 124 111 150 118 175 154 127 151 108 130 103 126 62 124 170 138 198 51 119 88 73 112 107 85 115 114 104 168 103 95 125 99 85 70 105 61 88 182 27 99 80 89 85 145 131 136 84 146 105 114 107 104 149 149 174 132 144 113 91 89 91 114 83 61 95 96 130 122 160 97 109 123 47 159 105 47 64 92 107 130 129 97 137 122 160 107 88 133 102 151 130 61 162 130 143 134 67 106 155 139 148 39 83 123 128 106 31 147 128 106 56 76 82 140 98 74 75 153 105 99 85 117 113 110 177 99 161 194 94 56 165 164 81 74 196 102 121 147 198 164 39 180 118 89 148 85 60 90 137 78 128 139 96 110 120 82 51 74 183 67 159 94 75 115 140 156 131 123 98 77 148 122 98 75 133 125 161 150 119 121 113 117 139 112 169 89 75 185 127 78 112 195 216 173 81 116 73 82 99 106 97 151 40 92 140 86 87 156 116 44 69 47 97 119 117 38 117 76 113 113 126 96 75 92 102 121 189 92 91 42 117 63 121 114 124 112 138 127 60 79 185 61 104 62 92 134 109 98 170 108 165 135 109 143 30 61 137 138 140 175 141 113 136 97 173 105 155 40 78 57 89 182 159 82 118 92 133 109 136 149 162 88 108 83 115 65 113 135 62 113 98 70 64 33 94 46 59 111 167 46 99 68 121 92 104 56 103 117 161 103 135 73 140 261 156 162 155 121 120 119 128 153 115 94 124 106 34 183 174 106 76 164 137 86 82 119 79 108 117 127 95 75 176 117 80 169 149 110 93 106 57 89 100 148 126 109 106 178 120 98 141 148 81 222 101 126 124 58 154 105 142 47 132 78 104 102 103 46 117 124 78 117 163 81 181 73 88 93 82 180 86 144 90 103 76 137 85 218 130 140 77 154 184 108 33 167 82 138 86 168 119 112 109 148 145 104 65 120 127 100 130 139 73 101 87 104 78 159 96 162 134 113 129 162 79 53 74 138 107 87 94 118 105 70 116 237 60 88 103 176 103 80 84 199 170 125 87 71 103 61 52 159 81 91 104 76 179 119 153 108 73 146 62 111 87 101 110 120 54 134 65 119 114 124 73 82 107 114 71 189 50 123 109 53 125 80 66 111 55 86 157 132 119 129 112 100 164 47 137 78 136 99 104 109 114 190 75 150 158 136 121 127 150 102 156 139 119 118 112 111 166 135 110 129 34 134 80 110 100 55 65 82 88 134 13 130 171 140 141 133 95 102 149 162 153 116 116 194 31 96 98 97 124 132 113 106 99 93 33 140 78 152 182 105 142 122 145 103 114 137 126 109 138 98 106 100 87 143 121 116 170 45 129 169 147 144 85 100 44 82 151 67 132 173 150 77 132 47 126 214 167 102 134 145 100 152 101 128 131 130 116 188 162 152 160 162 119 159 123 128 57 66 154 101 149 149 180 115 49 93 143 110 148 77 133 116 55 69 128 173 81 140 138 121 72 184 84 97 101 189 108 145 157 50 92 123 182 113 142 134 139 128 151 123 99 71 149 133 92 104 111 135 130 94 89 141 119 105 136 119 95 171 130 115 92 71 142 111 151 106 123 130 109 106 213 181 3 113 72 80 133 124 112 146 164 137 91 67 130 120 111 61 50 128 87 151 86 109 135 81 91 111 110 149 138 174 118 108 172 87 115 62 127 106 122 123 88 111 53 76 151 100 82 147 177 53 125 86 42 62 109 114 100 92 92 127 137 38 121 126 144 109 72 146 89 93 120 135 120 109 89 56 73 176 52 96 90 84 177 125 161 117 143 131 165 149 74 135 97 112 105 94 112 70 104 122 166 103 132 113 54 131 18 116 56 207 67 130 69 153 111 165 155 145 124 201 102 130 103 107 116 156 103 66 107 105 103 73 87 163 106 76 2 62 60 92 167 111 145 63 151 110 122 127 136 126 177 116 125 231 156 93 155 154 76 122 54 153 143 27 192 78 133 145 116 94 173 196 168 84 145 124 95 73 126 155 92 111 136 85 67 150 143 47 109 140 143 124 150 86 95 108 59 201 100 101 94 135 124 100 92 52 124 87 76 243 207 90 93 55 177 131 221 138 132 157 58 163 93 61 159 114 83 99 140 160 150 113 142 115 178 70 166 111 142 71 142 148 147 95 124 167 128 107 124 132 148 97 123 186 82 45 161 153 91 163 155 75 89 50 94 110 79 121 130 111 160 90 149 102 61 114 139 168 107 96 130 85 45 119 156 111 86 134 66 40 167 117 153 150 144 157 116 84 48 173 160 131 50 132 115 181 123 92 99 57 115 121 108 92 76 183 89 104 179 146 152 92 123 93 69 56 119 115 87 125 110 132 186 145 120 155 51 143 81 122 158 59 168 194 71 84 9 116 126 159 117 65 25 178 149 94 103 135 123 119 19 115 86 141 72 61 212 80 130 149 190 105 68 72 115 119 110 100 128 77 99 115 64 130 146 96 177 133 118 123 95 55 153 99 137 135 110 88 141 96 144 157 133 112 23 74 123 101 169 141 74 140 91 142 155 155 74 157 106 91 115 75 67 92 53 143 84 144 147 142 61 129 130 152 128 104 172 134 68 107 116 171 123 136 149 109 74 115 38 81 91 186 131 133 143 87 68 126 171 117 42 105 126 127 164 98 115 166 107 171 158 72 58 105 180 132 62 129 154 87 115 106 159 91 112 106 111 106 135 97 102 133 106 80 56 139 85 130 80 122 82 137 112 89 65 200 128 56 119 111 151 125 142 73 115 192 130 148 99 65 80 78 182 151 106 19 105 74 172 106 145 148 146 131 136 75 127 131 142 111 128 88 78 165 139 108 120 189 97 163 156 117 177 78 120 71 59 92 95 110 42 132 155 123 95 89 117 149 145 83 207 114 171 140 117 90 77 101 36 89 183 110 135 84 59 94 113 92 74 80 138 100 71 74 95 176 128 140 53 88 131 98 140 131 120 91 93 59 56 162 129 122 104 169 95 89 66 145 159 93 133 127 155 174 2 36 86 184 101 111 107 107 79 111 93 85 97 76 112 63 67 142 144 146 111 87 59 97 72 75 100 123 91 36 140 94 114 79 60 75 184 60 77 66 133 96 83 71 209 143 155 72 100 98 133 146 98 53 96 136 146 92 96 85 101 129 94 78 103 166 121 108 104 130 121 176 128 155 132 67 136 178 129 86 109 111 159 168 129 135 93 114 92 170 114 188 63 214 99 116 80 108 46 140 61 130 113 157 130 128 131 105 62 106 47 145 115 102 87 126 98 133 70 103 155 116 135 75 106 72 148 67 143 135 95 78 195 90 72 103 188 167 146 145 46 123 56 131 47 97 191 131 88 72 128 204 157 59 121 124 64 135 81 166 122 161 93 109 68 123 100 160 137 68 138 160 82 90 135 101 36 73 61 170 113 79 131 91 136 60 113 76 130 134 155 103 178 117 185 139 86 179 116 85 134 138 150 75 91 126 77 104 123 146 137 173 106 101 127 105 66 87 99 172 37 140 130 15 151 59 103 149 76 91 175 121 105 158 183 123 92 53 71 122 98 74 96 138 156 135 91 28 64 69 109 130 181 87 155 157 183 118 66 204 167 124 84 133 124 139 158 180 106 113 72 127 67 121 202 110 127 83 108 145 151 194 124 75 62 125 119 64 88 100 117 81 206 143 65 45 131 43 119 139 138 176 114 110 132 93 95 95 138 157 147 112 121 82 98 82 81 102 141 103 144 102 58 162 68 184 98 118 60 171 112 98 57 111 181 161 129 98 156 62 79 84 126 117 97 95 133 76 89 81 157 102 96 80 102 85 102 60 50 141 128 174 40 153 89 108 138 51 92 159 119 41 172 45 91 79 91 105 139 170 139 112 130 184 159 141 103 123 95 92 115 49 167 128 86 53 164 81 124 124 41 87 82 52 148 131 105 130 131 142 102 118 109 102 72 149 114 163 146 82 132 64 110 114 76 129 143 35 105 173 139 120 108 111 148 42 107 112 31 101 112 91 112 60 140 167 104 135 139 134 150 118 101 93 131 92 103 63 99 179 111 132 133 203 113 33 183 170 213 67 114 153 121 151 74 227 153 130 134 105 150 87 73 110 133 115 85 158 117 139 105 133 183 123 119 103 147 90 100 91 129 48 90 136 103 146 148 149 68 88 109 28 87 150 105 108 111 144 102 65 67 69 177 124 160 106 90 211 96 70 156 163 86 110 244 124 88 184 30 76 135 119 134 159 84 107 158 159 204 77 132 98 138 110 203 97 132 122 78 145 54 73 167 128 122 96 115 115 95 32 105 101 114 124 215 130 109 135 80 68 150 73 139 163 59 108 128 106 148 136 130 160 91 130 208 159 126 80 131 103 124 187 88 83 119 75 112 171 181 119 62 81 121 160 162 114 101 129 41 107 118 88 141 70 105 88 150 169 148 183 93 85 87 159 114 118 104 89 124 86 139 146 104 116 195 52 61 153 71 107 120 135 48 173 121 140 40 87 121 97 103 160 144 115 95 110 112 95 113 104 85 111 131 132 74 112 113 47 82 76 71 112 56 153 70 208 119 185 161 125 129 165 116 48 62 173 79 56 136 148 37 108 90 50 149 158 139 136 134 111 111 176 151 101 135 92 101 162 59 122 125 128 153 110 154 133 140 142 136 144 98 87 130 228 103 122 140 105 100 223 121 156 137 139 110 124 164 144 109 92 138 50 133 129 29 156 109 24 104 154 100 111 87 120 144 109 59 109 171 71 106 84 102 139 98 143 93 104 66 142 98 105 125 156 74 73 199 153 177 164 146 94 138 53 98 129 117 42 81 95 109 115 158 90 124 102 78 101 64 70 150 61 108 107 68 101 133 41 88 95 43 148 118 101 84 150 84 112 57 74 80 65 100 58 138 117 82 81 173 105 86 80 130 98 124 123 133 82 190 161 105 70 89 220 104 81 123 102 115 110 71 139 77 155 75 217 56 87 118 153 72 128 157 105 95 108 35 68 64 107 114 181 107 134 118 171 138 130 124 102 39 89 128 139 129 90 64 67 128 147 118 187 40 83 137 89 54 91 112 148 109 64 157 69 109 197 100 100 82 82 114 133 94 72 168 37 124 146 122 162 109 97 73 119 163 105 62 132 90 117 69 100 114 113 103 181 94 123 108 128 106 126 86 132 87 104 105 105 126 92 238 83 150 119 123 63 165 87 53 126 165 112 131 107 126 145 122 110 44 60 128 94 103 137 142 75 154 126 94 104 100 81 136 74 162 80 91 74 230 67 82 149 144 140 117 76 140 85 114 106 93 97 132 103 42 120 100 110 204 172 147 158 193 203 100 129 205 104 124 75 75 105 112 49 143 124 123 67 53 50 129 147 34 122 190 109 136 69 143 137 139 96 89 91 71 155 148 73 145 188 97 90 198 74 112 83 65 157 67 143 80 165 98 114 53 129 137 118 106 111 117 185 103 36 124 82 85 166 149 156 149 103 83 180 75 83 122 69 127 136 150 182 128 80 142 94 141 218 117 145 158 117 101 176 70 107 58 78 137 104 83 40 105 145 116 70 107 110 80 142 52 82 142 67 70 80 191 114 105 109 81 74 147 156 177 156 152 181 128 99 131 115 50 136 140 123 118 161 137 148 88 207 107 99 8 83 124 78 91 134 37 214 127 138 134 141 131 84 122 68 72 99 43 128 116 130 85 47 87 81 165 95 93 66 140 154 65 159 72 89 177 122 173 41 166 89 141 229 95 141 121 201 146 93 88 74 60 155 181 162 174 152 84 159 139 123 109 107 126 79 78 155 81 142 129 107 190 145 151 117 110 96 205 134 98 83 251 115 162 72 64 108 102 169 130 79 84 64 95 171 88 200 21 155 116 81 110 97 94 156 176 94 62 111 48 101 112 82 118 103 144 109 131 39 137 106 109 102 69 126 151 130 125 174 96 149 63 177 170 150 153 172 132 84 96 136 85 130 71 130 116 84 93 120 102 141 110 152 98 68 118 155 134 113 109 55 150 136 104 119 186 68 62 135 85 67 112 81 113 229 62 127 157 117 90 121 130 101 160 149 114 82 206 129 153 151 118 94 186 76 118 98 102 113 123 66 117 145 78 126 149 191 93 136 154 94 92 78 112 154 137 153 107 111 71 110 47 128 109 144 107 86 30 88 83 108 137 111 87 152 54 126 133 127 113 143 116 86 34 40 135 71 109 31 166 190 77 71 130 129 144 152 139 62 75 138 87 85 99 91 116 169 81 202 82 114 126 200 76 85 55 93 150 126 138 130 147 154 74 91 165 77 149 47 43 129 65 130 69 81 97 130 89 118 157 100 125 150 140 110 118 171 87 120 135 150 122 110 105 102 69 142 132 83 56 112 105 122 122 90 122 63 98 138 139 100 201 109 126 109 160 132 125 70 107 64 154 94 128 94 157 83 90 68 60 104 112 73 101 132 62 77 101 149 129 97 128 123 101 120 95 102 92 142 156 141 133 120 153 154 150 21 67 132 151 116 98 97 146 168 96 118 62 126 115 196 90 61 77 44 115 111 102 133 141 134 130 65 143 98 211 146 119 127 61 117 143 133 105 68 78 61 144 120 194 173 69 85 57 95 33 109 43 140 141 74 126 62 91 99 122 112 102 86 76 111 69 122 46 122 61 104 165 157 153 156 101 100 143 95 156 37 116 152 75 22 149 110 122 104 110 102 126 44 93 76 111 189 145 112 98 101 68 96 80 60 145 154 93 126 117 151 107 70 104 144 151 159 99 86 102 148 105 175 131 98 81 146 151 157 103 151 76 169 51 123 151 161 89 63 116 119 79 134 61 95 192 81 138 125 128 90 96 105 149 159 96 132 116 99 126 124 250 82 132 141 98 46 130 65 161 115 98 52 82 154 170 105 152 119 111 66 144 112 145 109 151 154 121 111 129 56 144 59 82 84 153 98 87 63 99 131 101 72 210 185 122 148 166 129 134 99 41 137 116 22 96 36 127 144 132 127 131 115 105 185 70 160 116 100 89 84 168 71 110 155 22 80 89 8 170 65 147 115 141 99 129 91 101 199 74 131 85 77 78 114 163 68 165 217 145 102 162 129 137 100 116 136 107 82 162 90 163 93 84 136 103 111 100 137 55 46 89 141 110 89 100 91 35 112 166 142 121 177 132 84 135 17 141 107 38 89 85 114 105 136 106 98 94 79 84 141 142 43 159 81 140 96 194 167 135 62 183 137 184 72 95 149 126 132 36 145 115 122 143 117 151 52 79 104 107 137 106 141 115 110 199 141 91 132 127 75 133 141 107 61 84 106 144 106 50 65 106 116 80 103 176 59 100 192 143 129 125 133 143 80 150 140 140 135 129 26 126 117 153 162 59 110 180 113 73 63 97 107 101 162 87 106 56 195 92 117 110 137 131 121 90 108 111 138 150 126 59 92 52 119 111 79 150 60 173 156 60 151 132 54 108 68 101 117 147 123 70 137 78 131 91 156 207 152 85 91 160 136 127 185 188 92 175 162 66 129 72 149 61 132 73 137 114 115 153 61 123 78 98 95 114 142 136 144 134 163 132 91 127 119 130 125 79 117 136 122 157 184 155 96 129 134 89 147 103 149 101 128 118 65 57 107 126 170 170 90 115 87 83 158 193 125 187 125 141 158 165 65 163 133 159 91 146 188 113 88 145 48 184 101 89 40 98 154 106 136 77 112 71 129 124 147 88 146 108 154 139 110 118 86 98 247 90 142 115 105 134 120 48 182 178 132 66 43 109 86 160 103 34 83 164 151 84 142 127 135 99 93 74 135 74 154 64 115 191 102 95 167 169 102 75 47 113 143 119 38 123 91 148 77 131 127 122 129 108 120 86 46 92 205 57 101 109 123 104 89 127 69 135 66 161 170 72 147 64 153 49 126 69 118 91 203 78 119 93 74 111 84 197 130 185 134 100 119 164 67 94 173 89 118 82 80 111 87 125 86 198 120 101 51 140 89 142 116 73 114 165 120 89 112 129 211 203 141 165 72 55 131 102 152 97 185 111 179 116 104 105 187 117 145 161 97 93 72 62 117 201 109 98 112 145 75 128 88 114 138 109 169 57 105 105 126 129 160 155 91 114 129 146 118 106 125 132 76 152 111 120 45 124 42 123 17 89 99 173 55 69 158 132 107 14 100 149 108 152 110 157 86 110 89 92 154 171 132 138 97 66 88 97 70 100 139 107 133 93 65 116 134 155 97 144 110 127 102 100 100 77 80 105 134 102 90 119 126 81 51 97 84 95 124 117 142 155 69 155 123 111 103 209 172 71 61 143 219 67 82 98 194 165 179 79 102 76 90 161 109 112 127 90 105 135 120 108 64 62 98 140 94 113 84 147 126 116 60 53 140 163 134 84 102 145 48 128 74 104 88 195 75 39 145 155 175 71 107 109 120 104 72 129 132 212 117 131 88 151 83 86 105 115 107 160 158 99 100 100 81 151 73 104 101 136 64 86 120 89 121 145 181 145 102 53 64 155 56 111 99 91 196 79 58 109 33 103 135 61 53 95 103 95 99 104 143 81 135 111 143 19 102 103 136 83 108 109 108 109 145 124 75 80 131 91 150 117 89 123 155 113 166 54 139 71 129 144 145 50 116 88 249 69 104 93 79 109 142 90 79 164 100 129 122 97 161 111 145 171 115 127 126 88 88 115 130 143 143 117 127 51 194 167 61 121 114 123 122 100 44 140 126 128 19 130 152 104 134 118 166 127 143 108 149 84 140 115 115 140 151 108 131 68 140 177 141 128 71 72 120 132 108 91 117 102 60 88 124 73 68 128 114 73 145 46 105 109 109 93 132 115 62 64 100 128 160 137 76 121 89 119 137 123 147 136 106 138 86 111 100 46 141 92 87 56 144 115 217 113 94 108 35 119 68 149 165 201 185 85 77 108 171 92 123 67 92 140 135 88 128 108 150 199 125 129 201 125 133 143 150 91 83 108 192 131 121 152 96 135 89 125 123 105 112 178 87 116 142 117 116 142 78 191 184 57 184 150 67 136 134 76 106 164 136 96 62 209 213 98 125 136 124 109 83 144 112 150 77 253 120 82 175 123 102 137 74 136 55 123 111 68 133 18 134 106 138 91 105 138 99 161 146 135 156 114 67 88 33 183 136 101 146 130 130 98 67 118 139 118 94 136 121 100 170 114 109 79 129 79 125 88 138 108 86 103 85 107 25 159 101 88 119 91 112 76 123 114 125 90 137 139 159 68 165 68 89 92 89 158 94 110 138 122 129 80 137 107 75 200 136 87 157 101 122 140 132 141 98 135 101 123 86 121 55 167 133 110 105 69 148 58 86 131 102 166 199 104 138 161 112 95 149 126 66 122 43 112 92 71 169 67 150 130 211 89 54 192 173 85 153 107 123 165 83 83 134 110 149 157 87 96 76 227 97 162 102 184 129 97 144 87 102 102 188 90 116 189 51 125 134 95 115 100 118 85 148 140 142 133 150 96 172 61 121 71 122 135 116 73 157 72 42 116 146 151 101 118 121 101 119 63 171 85 119 118 66 218 145 120 91 93 91 106 129 158 107 97 97 128 152 97 113 118 149 130 163 113 141 204 122 94 123 111 89 198 155 62 122 69 59 97 155 31 135 99 21 142 152 90 57 121 58 160 196 103 109 92 141 159 84 100 138 101 158 31 81 42 103 90 126 108 97 112 62 143 99 144 142 115 155 130 90 138 84 136 116 184 55 116 112 123 129 168 156 95 148 78 108 116 125 71 132 160 128 146 142 108 91 70 115 89 184 98 152 140 102 130 113 121 162 120 200 71 78 107 122 130 139 100 138 146 99 57 108 186 74 90 124 184 98 129 210 17 174 159 70 78 63 143 126 103 130 176 156 169 62 86 127 101 99 100 130 132 190 99 116 115 240 73 163 113 91 124 112 166 95 57 64 194 89 115 97 142 117 84 93 130 106 80 112 131 130 147 96 142 133 144 121 156 142 133 82 110 97 157 18 73 79 140 110 88 77 137 85 131 88 31 97 96 64 101 81 174 184 43 139 36 187 120 150 116 72 151 88 65 134 105 120 26 79 78 159 118 142 116 57 84 77 92 121 151 81 59 128 79 135 120 104 58 77 64 141 109 67 55 85 132 119 94 109 128 132 122 137 105 116 163 105 81 82 110 122 95 120 124 137 92 115 143 56 122 149 93 130 81 129 189 109 91 135 66 158 96 100 81 60 88 126 119 74 158 47 169 122 119 113 158 190 55 110 94 109 167 57 115 81 179 31 106 152 152 78 25 121 105 130 123 103 105 131 96 119 146 150 132 108 73 132 128 123 98 133 130 108 91 154 116 84 94 151 205 113 132 161 138 170 98 127 131 86 94 118 168 163 100 58 85 117 19 104 37 96 69 23 119 198 131 81 106 93 182 90 62 61 89 46 76 148 122 83 122 171 141 137 56 139 134 135 107 119 153 63 137 166 134 32 163 64 88 70 71 104 64 101 180 73 172 144 76 135 86 165 111 42 105 192 123 61 117 74 86 102 125 235 94 146 121 119 79 113 162 106 86 79 125 93 105 80 203 55 108 85 107 53 130 106 127 119 45 133 51 85 144 35 124 94 100 165 166 79 114 160 135 130 130 165 67 87 139 83 137 84 108 53 60 102 138 134 170 180 144 88 98 76 193 149 132 136 134 130 74 156 119 124 108 157 145 75 79 85 164 101 75 136 79 61 84 62 73 161 124 99 123 178 140 102 112 135 57 170 115 103 73 152 106 56 145 177 78 98 102 88 104 172 144 80 95 66 57 86 104 89 132 164 113 79 104 104 95 162 156 158 209 136 146 98 121 99 87 105 135 113 98 174 60 98 121 96 81 97 83 110 155 136 125 110 150 177 115 27 108 120 85 148 224 173 151 126 128 117 116 103 124 132 34 155 149 180 92 119 117 113 101 135 108 145 81 40 191 183 190 184 75 152 43 62 155 82 97 121 99 160 95 204 176 97 73 154 87 120 154 134 87 211 80 213 101 109 100 135 63 63 91 158 94 142 50 66 70 130 92 78 95 162 127 106 143 103 170 123 97 119 131 111 105 48 82 121 116 70 72 128 105 143 146 123 117 133 153 115 51 122 99 145 146 149 168 74 138 153 86 81 108 69 154 115 172 186 105 132 112 147 46 52 177 112 43 102 187 110 126 95 106 133 138 209 75 134 164 116 106 114 71 132 131 92 118 73 27 118 86 127 114 107 192 159 67 90 119 46 152 96 117 136 102 75 156 103 155 93 109 83 112 127 201 82 188 114 113 68 125 93 88 103 120 75 183 56 76 115 57 160 193 125 103 84 168 127 82 80 96 101 108 111 176 141 110 102 164 84 94 114 158 75 83 187 103 116 65 70 177 123 165 176 76 82 49 60 123 71 105 108 72 128 96 105 88 159 100 129 84 120 94 86 124 68 60 163 159 142 81 98 112 107 122 190 65 112 23 108 86 103 96 91 114 129 142 135 161 94 70 182 143 68 84 118 100 120 124 122 111 105 99 150 57 62 143 118 87 99 89 90 158 179 121 166 182 28 32 109 110 187 145 67 129 90 119 126 139 66 135 89 163 107 169 68 100 131 124 78 81 149 74 45 80 111 150 115 21 91 103 164 101 47 125 154 159 71 90 172 58 68 50 91 58 50 68 100 117 93 86 71 112 21 130 130 118 84 160 134 110 156 51 116 91 71 99 160 107 107 160 96 66 133 139 91 118 49 90 227 50 130 94 104 110 91 85 102 74 170 73 124 140 167 48 90 70 128 147 85 102 114 105 102 82 129 51 156 134 146 117 83 78 108 119 139 85 80 120 78 195 145 41 130 80 97 61 130 99 119 126 122 141 126 91 82 147 104 116 101 49 189 56 113 130 130 104 116 85 203 70 48 139 79 153 83 126 207 140 101 125 194 205 111 76 86 156 174 53 100 57 82 100 97 81 181 171 34 84 99 131 122 40 134 120 120 89 185 159 131 85 122 83 66 139 142 104 93 106 120 147 110 172 140 200 117 163 163 155 197 111 122 124 200 147 72 146 41 97 79 83 146 143 138 163 213 134 116 103 159 79 107 146 130 176 118 26 120 188 166 128 108 136 168 90 37 102 118 64 90 107 125 100 129 157 162 101 156 93 146 172 87 138 168 160 111 113 111 61 112 56 126 153 168 98 58 145 210 180 161 98 90 181 170 75 101 113 146 158 99 89 90 125 69 160 115 104 162 86 70 79 97 123 153 114 157 104 107 79 144 82 97 179 144 128 44 75 120 151 110 173 107 133 95 110 70 39 111 111 130 137 107 143 205 128 55 70 126 104 85 139 130 59 121 85 88 127 195 64 149 127 152 154 153 164 118 13 90 150 161 160 98 121 172 98 156 100 202 133 104 92 77 136 66 125 101 81 90 122 138 96 119 100 41 92 125 128 80 165 152 105 108 90 132 89 117 144 101 124 148 131 126 66 108 88 94 100 86 142 150 140 179 86 135 118 100 105 175 137 117 119 127 33 58 114 87 90 40 194 110 121 123 116 167 142 119 96 133 90 90 135 95 71 109 109 121 78 153 88 58 105 74 41 68 159 108 145 162 58 101 49 8 155 147 111 142 105 124 66 155 88 38 141 157 211 187 80 100 69 91 70 47 92 82 129 124 99 91 91 109 130 130 83 154 99 117 100 69 98 120 108 163 173 86 94 71 132 91 132 201 130 166 84 128 98 93 82 87 101 123 99 128 144 36 144 87 133 126 84 120 114 73 77 65 117 92 165 148 82 85 68 85 149 49 74 90 80 66 81 47 93 94 62 57 58 135 91 107 156 148 54 123 150 121 101 89 176 164 115 69 82 101 121 94 148 64 110 83 103 103 86 80 137 91 150 73 200 62 85 96 54 72 115 179 144 54 55 103 114 100 193 91 126 67 190 99 152 131 118 89 94 113 93 83 46 103 86 99 144 64 100 103 49 52 135 162 100 137 115 128 58 150 129 96 139 132 87 136 131 94 160 98 88 136 135 80 97 123 93 88 136 66 97 166 170 86 95 140 54 134 204 134 83 76 96 83 112 64 187 101 54 67 130 80 93 49 114 96 90 106 115 134 228 92 62 103 76 130 117 134 115 171 153 74 73 81 219 112 138 74 117 173 153 92 85 115 77 156 113 116 142 99 200 122 74 227 154 105 146 83 152 129 101 86 83 116 108 167 96 86 112 67 114 90 109 164 138 136 69 148 111 165 120 66 91 161 126 147 103 131 145 95 122 166 121 94 142 89 223 76 45 130 74 103 138 136 165 53 117 79 85 49 1</t>
+  </si>
+  <si>
+    <t>GAM(0.17222659828646097, -2.4394284731787546e-27, 1.5757823446663095)</t>
+  </si>
+  <si>
+    <t>3 0 1 0 0 0 1 0 0 2 0 1 0 0 0 3 1 3 1 0 3 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 2 1 0 0 2 1 2 1 0 1 2 0 0 0 2 0 0 1 1 0 2 0 4 0 1 1 0 1 0 2 1 2 0 1 0 1 1 3 1 0 0 1 1 2 1 1 1 1 0 0 1 0 2 1 2 1 4 0 0 0 2 2 1 0 4 0 0 0 0 1 3 0 1 2 0 0 0 0 2 2 1 2 0 0 0 0 0 0 1 1 2 0 2 1 0 2 1 1 3 2 1 0 1 1 1 1 1 1 1 2 2 1 1 0 1 0 0 0 1 0 0 0 1 3 0 1 2 0 2 1 0 0 0 1 2 1 1 0 1 4 2 1 2 3 2 0 1 2 1 1 0 3 1 0 0 0 0 0 1 0 0 2 2 0 2 0 1 1 1 0 1 0 2 2 1 0 2 1 0 1 3 1 0 1 1 1 0 1 1 0 0 0 1 1 1 2 1 2 0 1 1 0 0 1 1 1 3 0 1 1 0 0 1 0 1 0 2 0 0 2 0 0 1 2 0 0 1 3 0 0 2 0 0 0 0 3 3 0 1 2 0 0 2 2 3 0 0 0 2 1 0 3 4 0 1 0 1 1 0 3 1 2 0 2 0 0 0 0 0 0 0 0 2 1 0 0 1 0 2 1 2 1 1 1 0 1 1 0 1 2 0 1 1 1 3 2 1 0 1 2 0 1 1 1 1 1 0 1 1 1 1 1 0 5 2 2 0 1 0 0 1 1 1 0 1 1 0 0 0 2 1 0 1 2 1 0 1 0 0 3 1 3 2 1 1 1 1 0 0 2 0 0 1 2 2 1 0 1 2 1 1 1 0 0 1 0 2 1 1 1 1 1 0 3 0 2 0 0 0 0 0 1 2 2 0 0 2 1 1 0 1 0 1 2 1 2 1 1 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 2 2 0 2 2 0 1 0 1 3 1 0 0 1 1 0 0 1 1 0 0 1 0 1 1 0 1 2 0 2 0 1 1 0 3 2 1 0 1 1 0 0 1 0 1 3 1 1 0 1 1 0 0 0 2 0 2 1 2 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 2 3 1 1 1 0 1 1 0 0 0 1 0 2 1 2 0 2 0 2 1 0 1 0 1 0 1 3 2 1 0 3 0 1 0 0 1 3 2 0 3 0 3 1 1 3 0 1 0 1 1 1 2 1 2 2 1 2 0 0 0 0 1 0 1 0 0 1 0 2 2 0 1 3 1 1 0 1 0 0 1 0 2 2 0 1 0 2 0 2 2 2 1 2 1 0 0 0 0 0 0 0 1 2 1 2 1 1 0 1 1 1 0 1 0 0 0 0 0 2 2 0 1 1 3 3 1 0 1 0 2 1 1 1 0 1 1 0 5 1 1 1 0 2 1 1 0 2 3 0 3 1 0 0 0 1 1 3 0 2 2 1 1 0 1 0 1 0 1 0 0 0 3 0 1 2 1 2 2 2 1 3 1 1 1 0 0 3 1 0 1 2 2 2 0 1 1 0 3 2 0 1 1 0 1 3 0 1 1 0 0 3 2 3 0 1 1 1 0 2 3 0 2 2 2 2 0 1 2 2 2 2 0 0 0 0 0 1 3 0 1 2 0 0 1 1 0 0 2 0 3 1 1 0 2 1 0 0 0 1 2 2 2 0 2 0 0 1 0 1 1 2 0 1 1 0 1 0 1 2 0 1 1 1 3 1 1 1 1 2 0 2 0 0 2 1 1 1 0 0 3 1 1 0 0 0 3 0 0 2 0 1 1 1 2 2 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 4 3 1 2 0 2 4 1 2 0 0 1 1 0 2 3 2 3 0 2 0 0 1 1 3 0 2 2 2 2 1 1 2 1 0 0 2 1 2 2 0 0 2 1 0 0 0 0 0 0 2 0 2 1 1 0 2 0 1 1 0 0 1 2 0 1 2 0 2 0 0 3 0 0 0 1 3 0 0 0 1 3 0 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 1 1 2 1 0 0 0 0 1 2 0 1 0 1 2 0 4 2 0 2 0 1 3 1 0 1 1 1 1 1 0 2 1 1 2 0 0 2 2 1 0 0 0 1 0 1 0 2 0 0 1 0 2 0 2 0 1 1 0 0 2 1 2 1 2 2 0 1 0 0 1 0 0 1 1 2 0 0 0 2 1 0 1 1 3 1 1 0 2 2 3 1 3 2 2 2 1 2 1 0 0 2 2 1 1 0 1 0 2 0 0 1 2 1 0 0 0 1 0 0 1 1 2 2 1 1 0 1 0 0 1 3 0 1 2 1 2 1 1 0 1 1 1 2 1 1 1 0 2 0 1 0 2 0 1 1 1 2 2 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 3 0 0 1 2 2 2 0 3 2 0 0 0 1 2 0 1 0 0 0 1 0 2 0 0 2 1 1 1 2 0 1 3 0 0 0 0 1 2 0 0 3 1 2 2 1 1 1 0 2 0 1 2 2 0 0 2 1 4 3 0 0 1 0 0 0 1 1 0 0 1 2 1 2 2 0 0 1 1 0 2 2 1 1 0 1 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 3 0 0 2 2 1 1 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 3 0 1 0 3 2 1 2 0 0 0 0 1 3 0 1 1 0 1 1 0 0 1 1 1 0 1 0 0 2 2 0 3 1 0 2 3 2 0 0 0 1 1 0 0 1 0 0 1 2 0 1 1 2 2 4 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 2 0 1 0 1 1 2 1 0 2 2 2 1 1 1 0 1 0 1 0 2 1 2 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 0 0 0 1 2 1 1 1 1 1 1 0 0 1 1 2 1 0 1 1 1 1 3 1 0 1 2 0 0 3 3 0 0 3 1 0 0 3 0 1 2 0 2 1 1 1 0 0 1 1 0 1 1 1 0 0 1 2 0 2 1 0 1 2 0 0 2 0 0 1 2 2 1 1 0 1 1 0 0 1 1 0 1 0 0 0 1 0 2 0 2 0 1 1 0 0 0 1 0 0 2 2 0 1 0 1 0 0 0 0 0 1 3 1 2 3 1 0 3 0 1 2 0 2 1 0 1 0 0 0 1 2 1 0 1 0 1 1 0 0 2 1 1 1 0 1 0 2 2 1 1 0 0 1 0 0 0 0 0 0 1 1 0 3 1 2 2 1 0 1 2 0 2 0 0 0 1 0 1 0 1 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 2 2 1 1 0 1 1 0 0 2 0 1 1 0 1 1 1 0 0 0 3 1 1 2 1 1 0 2 0 0 3 0 5 1 0 0 1 2 2 2 0 1 0 0 0 0 1 2 0 3 2 2 1 1 0 0 1 1 1 0 1 2 3 0 1 0 1 0 0 1 1 1 1 0 2 2 1 1 1 0 2 1 2 1 0 1 0 0 1 1 1 0 3 1 2 1 2 3 2 0 1 1 1 2 1 0 3 0 0 0 4 0 0 0 2 0 0 1 0 1 0 2 0 0 0 0 2 2 0 0 0 2 3 0 1 1 1 0 0 2 1 0 1 1 1 2 0 1 1 0 0 2 1 3 1 3 1 0 2 0 2 0 0 1 3 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 0 1 4 0 1 2 0 1 2 1 1 0 1 0 1 2 0 1 1 3 1 1 2 2 0 1 1 4 2 0 1 0 2 1 0 3 0 0 0 1 0 0 1 1 0 0 0 0 1 2 0 2 0 2 2 1 2 1 2 2 0 0 0 0 1 0 1 1 3 0 1 0 1 0 1 0 0 0 1 2 1 0 1 2 1 1 0 0 0 0 1 1 5 1 1 0 2 1 2 1 0 0 0 1 0 1 0 1 3 1 0 2 0 0 2 1 2 1 2 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 0 3 2 1 1 1 0 1 1 0 1 1 0 0 0 0 2 0 3 0 0 1 2 1 2 1 1 0 2 1 1 0 0 1 0 0 1 0 2 1 3 0 1 0 2 2 0 0 1 1 0 0 0 0 1 3 1 0 1 2 2 2 3 2 1 1 2 0 1 1 1 2 2 3 2 1 0 0 2 1 1 1 1 1 0 0 2 1 1 0 1 0 4 1 1 0 1 1 1 2 1 0 1 2 1 1 1 0 0 2 1 1 0 1 1 0 2 2 2 0 0 1 1 2 1 0 0 0 1 2 1 2 2 2 0 1 0 4 1 3 1 1 0 0 2 0 1 2 2 1 0 2 0 0 0 0 3 2 2 0 1 0 0 1 1 0 0 1 1 1 0 2 0 1 0 2 1 1 1 1 1 2 2 3 0 1 2 0 0 0 1 3 3 1 1 1 1 0 2 3 0 1 0 1 1 0 1 0 2 0 1 0 2 1 0 0 1 0 0 2 0 0 1 0 2 1 0 0 0 3 1 0 0 1 0 2 2 1 0 0 1 1 0 0 0 1 1 0 1 1 1 1 0 1 1 1 2 1 0 0 0 4 1 4 0 1 2 3 2 2 1 0 1 1 2 2 2 1 1 1 0 2 2 2 0 0 0 2 0 1 1 0 1 2 3 2 1 1 0 1 1 0 1 0 1 1 0 1 1 0 0 1 1 0 1 1 2 3 1 0 0 1 2 1 1 1 0 1 1 0 3 1 0 1 1 2 2 2 2 1 0 2 1 2 0 2 0 2 0 1 0 1 0 1 0 0 0 0 2 1 2 1 3 3 2 1 0 0 0 1 2 0 1 1 1 1 0 1 0 1 0 2 1 0 3 1 2 1 2 0 0 0 1 2 0 0 2 1 2 0 0 1 2 1 1 1 2 2 0 0 1 0 2 0 1 1 1 3 1 1 0 1 1 2 1 2 1 1 0 0 1 0 2 0 1 0 1 0 1 0 0 0 1 1 1 1 0 2 0 1 1 0 2 3 1 3 1 1 0 0 0 0 2 2 2 0 1 1 1 1 1 2 0 0 1 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 0 2 0 1 0 3 2 1 0 2 2 1 3 2 0 1 3 1 0 0 2 2 1 0 1 1 1 0 1 0 2 1 0 1 1 1 2 2 1 0 1 0 0 1 0 2 0 0 0 0 1 1 2 2 2 0 0 2 4 1 0 2 1 0 1 1 3 3 0 0 0 2 1 1 1 1 2 0 1 0 3 1 2 1 1 0 0 0 0 3 1 1 0 0 0 1 0 1 2 0 2 1 1 1 1 2 1 3 0 1 0 1 0 0 0 0 0 1 1 0 2 1 2 2 0 0 0 2 1 1 3 1 0 2 0 1 0 1 1 2 0 1 1 1 1 1 0 1 0 1 0 0 0 2 1 0 0 2 2 1 0 0 1 2 0 1 1 0 2 1 1 0 1 2 2 0 0 1 0 1 0 1 1 1 3 0 1 1 0 0 0 1 2 0 2 0 2 1 1 0 1 0 0 1 1 0 1 1 0 2 2 0 1 0 1 0 3 1 1 0 0 1 0 2 1 2 2 1 2 2 1 0 1 2 1 0 0 0 1 1 1 0 3 1 2 3 1 1 2 0 0 3 2 1 2 2 1 1 1 0 0 1 1 2 1 1 1 0 0 0 0 1 3 2 0 2 0 0 0 0 1 0 1 2 0 2 3 1 0 1 2 1 0 2 0 0 0 1 0 1 1 0 1 1 0 0 3 0 0 1 1 1 2 0 1 1 2 1 2 1 2 0 0 3 1 1 3 1 1 0 2 2 1 1 2 3 2 0 0 0 2 3 2 2 0 1 0 2 0 1 0 0 1 1 3 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 2 0 0 1 1 1 0 1 0 1 0 1 3 1 1 2 2 1 0 0 0 1 3 1 1 0 1 1 1 1 0 1 2 1 0 1 1 1 1 1 2 0 2 2 0 0 0 0 0 0 0 1 1 0 1 1 0 3 0 0 2 0 0 2 1 2 0 1 0 1 3 1 1 2 1 0 2 2 2 0 2 1 4 0 3 0 1 1 3 0 0 1 0 1 0 1 1 1 1 3 1 2 1 1 1 1 3 2 2 2 3 2 1 0 1 0 1 0 1 1 0 0 2 1 1 2 0 0 2 0 1 3 2 1 0 0 3 3 0 0 0 0 1 2 1 0 0 2 3 0 0 2 1 2 0 0 2 0 2 1 0 3 2 1 1 0 1 3 2 1 0 0 1 0 1 0 1 2 1 1 1 0 1 1 2 1 0 1 0 1 1 2 1 0 0 1 0 2 0 2 0 0 0 0 0 2 0 1 2 1 0 0 0 1 1 0 1 2 0 0 1 2 1 2 0 0 0 2 2 1 1 1 2 0 1 1 1 0 0 2 2 1 0 3 1 2 2 1 1 1 1 0 0 2 0 2 1 0 0 0 0 1 1 0 2 3 2 1 1 1 0 2 0 0 0 2 0 2 1 0 1 1 0 2 0 1 2 1 1 1 3 0 2 0 2 2 2 1 0 0 1 0 1 1 3 2 0 3 1 0 0 0 1 0 1 1 4 1 2 2 1 1 1 1 1 2 1 2 1 1 1 0 0 1 0 2 1 1 1 1 0 1 1 0 0 1 0 2 2 1 1 2 0 1 1 0 0 1 1 0 1 2 2 0 2 0 3 2 1 1 1 2 1 1 0 0 0 0 0 2 2 0 1 1 2 1 1 0 2 2 0 2 1 0 2 2 1 0 1 0 1 2 1 2 1 1 5 0 1 1 1 1 3 2 0 1 0 0 1 2 0 3 1 0 1 1 0 1 1 0 1 1 1 2 1 0 1 2 1 1 0 1 1 0 1 2 0 0 3 0 1 0 2 2 1 3 2 0 1 1 0 2 1 1 2 0 0 0 1 0 0 0 2 2 1 1 1 1 2 1 3 0 0 0 1 0 0 1 1 1 0 2 1 1 0 0 1 3 1 0 0 1 0 1 0 2 2 1 0 1 0 0 0 0 1 2 0 0 1 2 0 1 0 0 0 1 0 3 1 0 1 1 2 2 2 2 0 1 2 0 2 1 0 0 1 1 1 1 1 0 1 1 1 0 2 0 1 0 1 0 1 0 1 2 3 0 1 4 0 1 1 2 3 1 2 1 2 0 1 1 2 0 1 0 1 0 0 3 0 0 1 0 2 1 1 0 1 1 0 0 1 1 2 1 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 2 1 0 0 0 1 3 1 3 1 1 1 1 0 3 0 2 2 1 1 0 1 2 2 1 1 0 1 0 1 0 3 0 0 1 1 1 1 2 1 0 0 1 0 0 1 2 0 0 1 1 2 1 0 1 0 0 1 0 0 0 2 1 2 0 0 1 2 1 0 0 0 1 1 1 1 2 1 1 0 2 0 0 0 0 1 1 1 2 0 2 0 1 0 1 3 1 0 3 1 2 0 2 3 2 2 4 0 2 1 1 0 1 1 0 0 1 0 1 1 0 1 1 0 1 1 2 0 1 1 2 0 0 1 1 2 0 2 2 0 0 1 3 0 2 2 2 4 1 1 0 0 0 0 2 0 1 0 1 2 2 4 0 0 2 1 3 0 3 2 1 0 1 1 0 0 3 1 1 2 0 0 4 0 1 1 0 0 0 0 1 2 0 1 2 0 1 1 1 1 1 2 1 2 0 0 0 1 2 0 2 1 3 1 1 1 0 2 0 0 1 1 0 2 0 2 0 0 0 1 1 1 1 0 0 0 1 0 2 2 2 1 1 0 2 1 0 0 0 3 3 0 1 0 0 2 1 0 0 2 0 0 3 1 3 1 1 1 0 1 0 0 2 2 1 1 2 1 0 1 0 0 1 3 1 1 2 1 0 0 2 0 0 2 1 0 0 0 0 0 0 1 3 2 2 2 0 2 1 0 1 0 0 1 5 0 3 0 0 3 2 0 0 0 1 1 0 2 0 1 1 0 3 0 2 2 0 1 1 0 2 1 2 1 0 0 1 0 1 2 0 0 0 1 2 1 1 1 4 1 1 2 1 2 1 1 1 1 0 0 1 2 1 1 1 1 2 1 0 0 2 1 1 0 1 3 1 2 0 1 1 2 0 0 2 1 0 1 2 0 2 1 1 1 2 0 3 2 1 0 1 0 0 2 1 0 2 0 0 0 1 0 1 0 0 1 0 1 1 2 0 2 1 0 0 1 2 1 0 0 1 0 0 2 2 0 4 1 0 2 0 0 1 2 0 1 0 2 1 0 0 1 1 3 0 1 3 0 1 1 2 0 0 1 1 0 0 0 1 1 0 1 1 2 0 0 1 0 2 0 1 1 2 0 0 0 1 0 1 1 2 1 0 2 1 0 1 0 3 0 2 0 1 1 2 1 5 2 5 0 0 2 0 1 3 0 0 0 1 3 0 0 0 1 1 0 0 0 2 1 1 0 1 2 1 1 1 0 1 2 0 1 2 3 0 3 4 2 3 0 0 0 1 2 0 2 0 0 0 2 2 0 0 2 2 1 3 1 1 3 1 3 1 0 2 1 2 0 2 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 2 2 3 1 0 1 1 2 1 0 1 2 0 1 1 1 1 0 1 2 1 0 1 0 1 2 0 2 1 2 0 1 2 1 1 2 1 0 2 0 0 0 1 0 0 1 1 1 2 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 1 1 2 1 1 1 2 0 1 0 0 0 1 0 0 1 0 2 2 1 2 3 1 1 2 1 0 1 0 1 0 0 1 0 1 0 1 0 2 0 3 0 0 1 3 1 1 1 1 1 0 1 2 0 0 0 1 2 2 3 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 2 2 3 2 1 0 1 1 3 1 1 1 2 2 0 0 1 3 2 1 0 1 2 1 2 0 0 0 2 0 1 3 0 2 2 0 0 1 1 2 0 0 0 1 1 2 1 3 1 0 3 0 0 0 1 0 3 1 2 0 3 1 2 1 2 0 2 2 2 0 0 1 1 1 1 4 3 1 1 0 0 0 0 4 1 0 2 0 3 2 1 0 2 1 1 1 1 2 2 0 2 1 1 1 1 3 1 0 4 2 0 0 1 1 2 1 1 0 0 0 1 0 0 1 1 1 2 2 1 0 0 2 0 1 0 3 2 1 0 1 2 1 0 1 1 0 1 1 0 3 1 0 2 1 0 0 3 1 1 2 0 0 1 3 1 0 0 0 0 4 3 3 0 0 0 4 0 1 1 1 0 3 1 0 2 0 2 1 0 0 1 1 1 0 1 1 3 4 0 1 0 1 0 1 1 2 2 0 1 0 1 0 3 0 2 2 1 1 0 0 1 1 0 0 1 0 2 3 1 2 1 0 0 2 0 0 1 1 2 0 0 2 3 0 1 0 0 1 0 2 1 2 0 0 0 0 2 0 0 0 1 0 1 0 2 2 0 0 1 1 0 0 0 1 0 1 1 2 0 0 1 1 0 1 1 0 0 1 1 2 1 1 0 0 2 2 4 2 2 1 0 2 0 3 1 1 0 5 0 0 1 1 2 1 0 2 1 3 1 1 1 0 1 0 0 0 3 2 0 1 1 1 1 2 0 3 2 1 2 0 0 0 1 0 1 1 1 1 0 0 1 0 2 0 1 1 2 0 2 0 2 2 3 0 2 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 1 1 3 1 1 0 2 0 2 1 2 2 1 0 0 2 0 2 0 1 0 1 0 1 3 0 2 2 1 1 2 0 3 0 1 0 1 2 1 1 1 2 3 1 1 1 2 0 1 0 1 0 2 0 1 1 1 1 2 1 1 1 0 1 0 1 0 0 1 1 1 1 0 2 0 2 0 1 1 0 0 2 0 3 1 3 1 2 1 1 1 2 0 1 1 0 2 0 0 2 2 1 1 0 1 2 2 1 1 1 2 0 0 0 0 1 0 0 1 0 0 2 0 2 2 1 0 0 0 1 0 1 0 1 1 2 0 0 0 0 0 2 2 1 1 2 3 3 0 0 3 1 1 2 1 0 3 0 1 1 0 1 1 0 1 2 1 0 1 1 1 0 0 2 0 0 0 0 1 0 1 0 1 3 3 0 0 1 0 2 0 1 2 0 0 1 0 0 0 1 2 0 0 0 0 1 1 1 1 0 2 3 0 0 1 1 1 2 3 0 2 1 2 0 1 1 0 1 0 1 1 2 0 1 0 0 0 0 1 0 0 0 1 1 0 2 0 0 2 0 1 2 1 0 2 3 1 1 0 0 0 1 1 0 0 2 1 0 0 0 2 1 1 0 1 1 0 1 1 3 0 0 1 1 1 0 0 3 1 0 1 0 1 0 0 1 1 3 1 0 2 0 0 1 1 0 2 0 2 1 0 1 1 2 0 0 1 0 0 0 2 1 0 0 2 1 0 0 1 0 1 2 2 0 0 0 2 1 2 2 0 0 2 2 0 1 1 1 1 1 1 0 1 1 3 1 0 2 2 2 3 1 1 1 1 0 2 0 1 1 2 1 0 0 2 3 1 2 0 2 2 1 0 1 1 1 0 1 2 0 1 0 0 0 1 0 1 0 2 0 3 2 0 0 1 1 1 0 1 2 1 0 1 2 1 0 1 2 4 0 0 1 3 2 0 2 1 2 4 0 0 0 1 0 3 1 0 1 2 2 0 0 3 1 1 3 3 2 1 1 0 0 0 1 3 1 0 1 2 0 0 2 0 1 3 0 1 0 0 0 0 1 0 0 1 0 1 1 0 2 1 1 0 0 1 1 1 1 1 1 2 0 0 2 1 2 1 2 1 2 1 0 1 0 3 2 1 0 3 0 2 0 0 2 0 2 2 2 2 1 2 1 1 2 0 1 1 1 1 1 0 2 1 1 1 0 0 0 2 0 0 0 2 0 0 1 1 0 2 0 0 0 1 3 1 0 0 1 1 1 1 1 1 3 0 1 1 0 0 1 0 0 0 1 1 0 2 1 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 2 1 1 1 1 1 2 0 1 3 1 0 3 0 1 2 1 1 0 2 0 1 0 3 1 2 1 2 0 1 1 1 2 0 1 1 1 2 1 0 1 1 2 4 2 0 0 1 0 0 1 2 0 2 0 0 1 1 1 0 2 0 0 1 0 1 1 0 1 0 0 1 0 1 1 0 0 1 1 0 0 2 1 1 3 1 3 1 1 2 1 0 0 0 1 0 0 0 1 2 0 0 2 1 1 0 1 0 0 0 2 2 0 1 2 1 0 1 1 0 1 0 0 1 1 0 2 1 1 0 0 0 0 0 1 0 0 2 1 0 1 0 1 3 0 0 1 2 1 0 1 3 0 1 0 0 0 0 0 2 0 1 1 3 0 0 0 2 1 1 1 1 0 0 0 1 0 1 1 1 3 1 1 3 2 0 0 1 0 0 0 2 0 4 1 1 0 0 0 0 0 1 2 1 1 0 1 2 0 1 2 0 2 2 1 1 0 1 0 0 0 1 1 0 1 2 2 2 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 3 1 2 0 1 1 1 1 2 2 0 0 0 2 2 2 1 1 0 0 0 0 1 0 1 0 2 1 1 0 3 0 0 0 0 1 0 2 1 2 1 2 1 0 1 0 0 1 0 1 0 1 0 2 0 1 2 0 3 1 0 0 1 2 2 0 0 1 0 0 1 0 0 2 1 0 2 1 0 2 1 1 1 2 0 0 0 1 1 0 0 0 1 0 0 2 1 0 1 1 1 2 1 3 0 1 0 1 1 0 2 1 0 0 2 1 0 1 0 1 0 1 2 0 1 1 1 0 1 0 0 0 2 3 0 1 1 2 1 1 0 0 2 1 0 2 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 2 1 2 1 1 0 2 3 0 0 1 1 1 0 1 0 1 1 1 0 2 2 0 2 1 1 1 0 2 1 0 1 2 1 3 4 1 3 1 0 2 1 1 1 0 1 1 1 1 2 1 1 1 0 1 1 0 1 1 0 2 1 0 1 1 1 1 1 1 1 2 1 0 1 0 2 2 0 1 1 1 2 1 0 2 0 3 2 0 1 0 0 1 0 1 1 1 0 1 4 1 0 1 0 2 1 2 1 3 2 1 2 2 0 1 3 2 0 0 0 1 1 0 1 1 1 2 0 2 0 1 1 0 1 1 1 1 2 1 0 2 0 0 0 0 3 1 1 0 0 0 2 0 0 0 1 2 0 0 1 2 1 0 1 1 1 0 0 0 2 0 2 3 0 0 1 1 2 0 1 0 0 4 1 0 2 0 2 0 2 2 1 1 0 0 1 1 3 0 1 2 0 2 1 1 0 1 2 0 0 0 0 1 0 1 2 0 2 0 1 1 1 2 0 0 1 0 1 1 1 0 4 1 0 3 3 0 1 1 0 0 0 1 1 0 2 2 3 1 1 1 2 2 0 0 2 2 2 0 1 0 0 2 1 1 2 1 0 0 0 0 3 1 0 2 1 2 0 1 2 1 2 1 1 0 0 0 0 1 1 1 1 1 2 1 0 1 2 0 2 0 0 2 0 2 1 0 1 0 1 1 2 0 1 2 0 0 0 0 0 2 0 2 2 0 3 1 0 1 2 2 0 0 1 2 3 0 1 0 1 1 0 1 0 1 1 0 3 0 1 2 1 0 0 2 2 2 0 4 2 0 1 2 0 0 2 0 3 1 0 1 1 0 3 3 0 0 0 0 0 2 3 2 0 1 1 1 0 1 0 2 1 1 1 1 1 0 0 1 1 1 0 3 0 2 0 0 1 1 0 1 1 1 0 0 2 0 1 0 0 2 2 1 0 2 2 1 1 2 2 3 1 1 0 0 0 1 2 1 3 1 2 0 0 0 2 2 3 1 0 0 0 1 0 1 3 1 2 0 1 1 1 3 0 0 1 0 1 2 1 1 0 0 1 4 1 2 3 0 0 2 1 0 2 1 2 1 1 2 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 1 4 3 3 2 0 1 1 0 1 0 2 0 2 2 1 2 2 0 2 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 2 0 2 1 0 1 0 0 1 0 0 0 0 0 1 2 1 0 0 1 0 3 1 1 2 0 2 0 2 0 0 2 2 0 0 4 1 0 1 0 0 4 0 1 0 0 1 2 3 0 0 0 0 0 0 0 3 0 0 0 0 1 1 1 1 0 2 0 1 2 0 1 3 1 0 0 0 0 1 1 1 1 1 2 0 1 2 1 0 0 5 1 1 0 0 2 1 1 0 1 0 0 0 0 0 3 2 1 0 0 1 2 0 2 2 0 0 1 0 0 1 0 1 0 0 0 2 0 2 0 1 1 1 2 1 1 0 2 1 0 1 1 1 0 0 1 1 1 3 1 0 3 1 2 1 1 3 0 0 2 1 0 2 0 2 0 1 0 0 1 2 0 0 1 0 1 1 0 0 1 1 0 3 0 1 2 0 0 1 1 2 1 1 0 1 0 2 0 2 0 1 0 1 0 1 2 4 0 4 3 3 1 1 1 0 2 0 2 1 1 1 0 0 1 0 1 0 1 0 1 2 0 1 3 0 2 0 0 1 2 3 0 2 1 1 2 1 0 0 0 0 1 2 0 1 0 1 0 0 0 2 2 2 0 1 2 1 1 1 2 0 3 1 4 1 1 1 0 2 1 1 0 0 3 0 3 2 2 2 1 1 0 0 0 1 2 0 1 0 2 0 0 1 2 3 1 1 2 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 4 0 0 0 1 3 3 0 0 0 0 1 0 3 1 1 1 1 0 3 0 0 0 1 1 2 0 0 0 3 2 1 1 0 2 1 1 2 1 1 0 0 2 0 0 3 0 0 1 1 2 0 0 2 1 1 1 0 0 0 0 1 1 0 1 2 0 1 0 2 2 1 1 1 1 0 1 2 3 0 2 1 3 1 0 1 1 1 0 0 1 3 4 2 0 2 3 0 2 0 1 2 0 1 1 2 1 1 1 2 0 1 2 1 2 1 1 2 3 2 1 0 2 1 1 0 0 0 2 1 3 1 1 1 0 0 0 1 0 3 0 0 3 1 2 2 1 0 0 0 0 2 1 0 1 3 0 0 0 0 1 2 3 3 1 0 0 2 1 1 1 1 2 0 2 0 0 1 1 1 0 3 0 1 0 2 0 1 1 3 2 0 0 0 2 1 1 2 2 1 1 2 3 0 1 1 1 0 0 1 2 0 0 0 2 1 1 0 1 2 2 1 0 1 0 1 1 1 0 3 0 0 0 0 1 1 1 1 2 2 1 3 1 1 1 1 1 2 2 1 1 2 0 2 1 1 0 1 1 1 0 2 1 2 0 2 0 0 1 1 2 1 0 0 1 0 0 0 1 3 2 0 2 1 1 1 3 1 2 0 2 2 3 2 1 0 1 2 0 1 2 1 1 0 0 0 1 0 2 2 0 0 1 0 2 0 0 0 1 2 1 1 0 0 1 1 2 2 2 3 2 1 2 2 0 1 1 0 0 3 1 2 0 0 2 1 0 0 3 2 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 2 0 1 1 0 1 2 3 2 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 3 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 2 1 1 1 2 2 1 2 1 2 0 0 0 2 1 2 2 2 2 1 1 2 0 1 0 0 1 0 1 0 2 2 0 0 1 1 0 0 0 3 0 2 2 1 1 2 0 0 0 2 2 1 0 0 0 0 1 2 1 0 0 1 0 0 1 2 1 0 1 0 1 0 1 0 0 1 2 0 4 1 0 2 4 1 1 1 0 0 1 2 1 0 3 0 3 0 1 1 1 1 0 0 0 2 0 2 0 0 2 2 0 0 1 0 1 1 0 2 1 1 1 2 1 1 2 3 0 2 1 2 1 1 0 0 2 0 0 1 2 2 1 0 1 0 1 0 1 1 1 1 0 3 1 1 1 1 3 1 0 0 0 0 0 0 2 0 2 1 0 0 2 0 2 3 1 0 0 0 2 2 0 2 1 0 2 0 0 0 1 2 1 2 0 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 2 2 2 0 1 0 0 1 1 2 0 0 1 1 0 1 1 1 1 0 0 1 0 0 1 1 1 0 3 3 0 0 2 0 3 0 2 3 2 0 2 1 0 1 0 1 1 1 2 1 0 3 2 0 3 3 1 1 0 2 3 0 1 1 0 1 1 2 1 2 1 0 0 0 1 1 1 3 1 0 1 0 0 0 0 1 1 1 1 0 0 2 1 0 0 1 3 0 1 0 1 1 0 0 3 0 1 0 1 1 1 1 1 0 1 2 1 1 1 3 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1 1 2 1 3 1 0 0 0 2 1 0 1 0 2 1 2 1 0 2 2 2 1 2 0 1 1 1 1 2 1 1 0 1 1 1 2 0 1 1 1 2 0 1 0 0 1 1 0 2 1 2 2 0 2 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 2 1 1 1 0 0 1 3 1 2 2 3 0 1 1 0 1 1 1 0 3 2 1 2 0 1 2 0 0 1 2 1 0 1 1 0 1 0 0 2 2 3 2 1 0 0 0 1 0 0 0 1 0 3 0 0 0 1 2 1 1 2 1 2 0 1 0 1 0 0 2 1 1 0 1 1 1 1 2 2 1 0 1 3 0 0 3 2 0 1 2 1 1 0 0 0 1 0 0 0 1 1 2 1 0 0 0 0 3 0 2 2 1 0 1 0 1 1 3 0 0 0 3 0 0 1 1 2 0 1 0 0 0 1 1 1 1 1 1 1 4 1 1 1 1 0 1 2 0 1 2 1 0 2 1 0 1 0 1 1 0 1 1 2 0 1 1 2 1 2 0 1 0 2 0 1 1 0 3 1 1 2 1 1 0 1 0 0 0 1 2 1 0 0 0 1 1 0 2 0 0 1 3 0 2 1 0 0 1 1 0 1 2 1 1 0 2 1 1 0 0 1 1 0 0 2 3 2 1 0 2 1 2 2 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 1 1 1 3 1 0 2 2 1 0 2 0 0 0 0 1 2 0 0 1 1 0 0 1 0 1 2 0 1 0 1 0 0 2 2 3 1 2 0 2 0 0 1 0 1 0 0 1 1 2 0 0 2 0 1 2 0 0 1 0 1 3 2 0 2 1 0 0 2 1 1 0 0 2 2 0 0 0 0 0 1 0 1 0 1 0 4 0 2 0 0 0 1 1 1 0 2 3 1 1 0 0 0 1 1 1 0 1 1 0 0 2 0 0 1 2 0 1 0 2 0 0 0 0 2 2 1 0 3 2 0 0 0 3 1 0 2 1 2 0 0 0 2 0 1 2 0 0 3 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 2 0 2 0 2 0 0 1 1 1 0 2 4 1 2 0 0 1 1 3 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 1 0 2 0 2 1 1 0 0 1 0 2 1 1 0 0 0 3 0 4 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 2 2 0 1 1 1 0 1 1 1 1 1 1 1 0 2 0 0 2 1 1 0 0 1 2 0 1 0 0 1 2 2 0 0 1 3 2 0 0 0 2 2 0 2 0 2 2 2 0 2 1 2 0 2 2 0 2 0 2 1 0 1 1 0 0 2 0 3 2 1 0 0 2 2 1 1 1 1 0 1 0 2 2 0 0 0 0 1 0 0 1 1 1 0 0 2 0 0 1 1 2 0 4 0 1 2 2 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 1 3 1 1 0 1 0 3 2 0 1 2 0 1 0 2 1 0 4 1 0 1 1 1 1 1 0 2 1 1 2 1 0 0 0 1 0 0 1 1 0 1 1 2 1 1 0 0 0 0 3 2 1 2 1 0 2 1 0 2 0 1 0 1 2 2 2 2 3 0 1 3 1 1 0 1 2 1 1 1 1 0 0 0 2 0 1 0 1 1 3 1 0 0 2 0 0 4 0 0 2 0 3 1 0 1 1 0 0 0 3 0 0 0 1 1 1 1 0 1 1 2 0 1 0 2 1 3 0 0 1 2 0 0 0 0 3 0 2 1 0 1 2 2 2 3 1 0 0 1 2 2 1 3 0 0 2 1 0 1 0 0 1 4 1 1 3 1 2 0 0 2 3 0 1 2 2 3 1 0 1 3 3 2 1 1 2 1 1 0 0 2 1 0 0 0 1 0 1 2 1 1 1 0 0 2 0 2 0 2 1 2 0 2 1 1 0 1 0 1 1 2 1 4 1 1 2 1 0 0 1 0 0 1 1 0 1 1 0 2 3 0 0 0 0 0 0 2 0 0 0 0 2 1 2 0 0 2 2 1 1 0 2 1 0 1 0 1 1 1 1 0 1 1 1 2 0 2 0 0 1 0 1 0 1 0 0 0 2 0 1 0 1 0 2 1 2 1 1 1 0 0 2 0 1 0 2 1 1 0 0 2 2 3 1 1 0 1 2 1 0 0 2 3 1 0 1 1 1 0 2 1 1 0 0 1 2 0 0 2 1 1 1 1 0 1 0 2 2 2 1 0 3 1 0 1 1 3 0 3 1 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 2 0 0 0 1 0 1 2 0 1 2 1 0 2 0 0 0 0 1 1 0 3 0 0 0 0 0 1 2 1 1 1 3 1 0 2 0 1 2 0 0 1 1 0 0 1 0 1 1 1 3 1 2 0 1 1 0 1 0 0 1 1 0 1 3 0 1 0 1 2 0 1 0 0 0 1 1 0 2 0 2 0 1 0 0 2 2 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 2 1 1 2 0 0 0 3 0 1 0 1 2 1 1 0 2 2 0 1 4 0 2 0 0 1 0 2 0 1 2 1 0 0 2 3 0 1 1 0 0 3 1 3 1 0 0 0 3 0 0 1 3 0 1 2 2 1 1 0 0 0 1 2 0 1 1 0 2 3 1 2 1 0 2 1 0 4 1 2 1 1 1 0 2 0 2 1 0 1 0 1 3 3 1 0 2 0 0 2 2 1 1 1 0 0 4 1 1 2 1 2 0 0 0 1 0 1 1 1 0 3 0 2 1 3 1 1 1 1 0 2 3 0 1 2 0 1 1 1 0 1 0 0 1 3 3 2 3 2 1 3 0 2 3 1 0 0 2 0 2 1 2 1 1 3 1 0 2 1 0 1 0 1 1 2 1 2 1 0 2 0 1 0 0 1 2 1 0 1 2 2 1 0 1 1 2 1 0 1 1 2 2 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 4 2 1 2 2 1 2 1 3 2 2 0 0 1 1 2 1 0 0 3 1 1 1 1 1 1 2 1 0 2 1 2 2 0 2 1 0 1 1 1 2 2 2 0 1 1 1 0 1 1 3 2 1 0 2 2 1 1 2 0 2 1 1 0 0 1 0 2 0 1 0 1 1 1 2 3 1 1 2 2 1 0 1 1 1 1 2 0 2 2 0 0 1 0 0 2 1 2 1 0 1 0 0 2 3 2 1 1 0 0 2 1 0 1 0 2 2 1 0 0 0 0 0 1 0 0 3 0 2 0 1 1 1 0 0 3 1 1 0 1 2 0 1 0 1 0 0 2 2 1 1 2 0 2 1 1 0 1 0 0 2 2 0 1 0 2 1 2 1 1 1 3 0 0 2 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 3 0 1 1 0 1 1 1 2 1 1 0 0 2 0 2 0 1 0 1 2 1 1 0 3 0 2 3 0 0 1 1 0 1 1 0 0 1 1 2 0 1 1 1 0 2 0 2 0 1 0 0 0 1 1 1 3 2 0 3 1 1 2 0 0 2 3 1 2 0 1 0 1 1 0 1 1 0 2 0 3 3 0 0 2 2 2 2 0 0 0 2 0 0 2 2 1 0 1 0 1 1 0 0 0 0 1 0 1 2 0 2 0 2 1 0 1 0 0 0 1 1 1 3 0 1 0 0 2 2 1 1 1 1 0 0 3 2 1 1 3 1 0 1 3 0 1 0 0 2 2 2 0 1 0 0 3 1 1 0 1 2 1 0 0 1 0 0 3 1 1 0 1 1 0 2 1 1 2 1 1 2 2 1 2 0 0 0 3 1 1 0 2 1 2 0 1 1 0 1 2 0 0 0 1 2 0 2 0 2 1 1 0 2 1 0 1 0 1 1 1 1 2 0 2 1 0 0 0 0 0 1 0 1 0 0 0 2 2 0 2 1 0 0 1 1 1 0 2 0 1 2 0 1 1 0 1 1 1 4 0 0 1 3 1 0 2 0 0 0 0 0 0 1 1 2 0 1 1 1 4 2 0 1 1 1 0 0 1 0 0 1 0 1 0 1 0 2 2 3 1 2 0 1 1 1 2 0 0 1 0 2 1 1 2 2 0 4 1 1 1 0 1 0 2 1 1 1 1 3 1 0 0 2 1 0 2 0 0 1 0 1 1 0 1 0 1 0 0 0 1 4 2 1 3 1 0 0 1 0 2 1 2 1 0 0 1 0 0 0 0 1 2 2 1 0 0 0 1 2 0 2 1 1 0 0 0 0 0 0 0 2 0 1 2 2 0 0 0 3 0 0 0 0 0 0 2 1 1 0 0 2 0 0 0 0 0 1 2 0 1 0 1 3 2 1 1 1 1 2 0 3 1 2 0 1 1 3 0 0 2 1 1 1 0 1 0 1 2 0 0 0 2 2 2 0 1 0 1 0 0 0 0 1 2 0 3 2 0 0 3 0 1 2 1 0 0 1 0 0 0 2 2 0 1 0 0 2 0 1 0 0 1 2 0 0 1 2 1 0 4 0 0 2 1 1 2 1 0 2 1 2 1 1 2 0 0 1 0 2 3 1 1 0 0 1 1 0 1 2 0 3 1 1 2 0 0 2 2 0 0 0 0 1 1 2 0 1 3 1 0 1 2 1 2 0 2 1 0 2 0 0 1 0 0 3 1 0 3 3 0 0 0 0 0 0 1 2 1 0 1 0 1 0 1 0 1 2 0 1 0 1 1 1 0 0 2 0 0 1 0 2 2 1 1 4 3 2 0 1 1 0 0 0 1 0 2 1 0 2 2 2 0 1 0 1 2 0 1 1 2 1 2 4 3 1 1 2 2 1 2 1 1 1 0 2 1 1 0 1 0 1 1 2 0 2 0 1 0 1 1 0 1 0 0 1 1 1 0 0 1 1 1 2 1 3 0 1 0 1 1 1 1 1 1 3 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0 0 1 2 0 1 0 0 1 2 1 1 0 0 0 0 0 1 1 2 0 0 2 0 2 0 1 0 3 0 1 0 0 1 1 0 0 2 1 0 2 0 1 2 2 0 2 2 0 0 0 0 1 2 3 1 0 3 1 1 2 0 0 1 1 0 1 0 0 0 0 1 3 2 1 0 1 3 1 3 1 2 0 0 0 1 1 0 1 0 0 0 1 1 2 0 3 1 0 0 0 1 1 1 2 0 0 1 0 2 0 0 2 0 2 1 1 1 0 2 0 0 0 0 1 2 0 1 0 2 1 1 1 1 1 2 1 1 0 2 0 0 1 0 4 3 1 1 1 1 0 3 1 0 3 1 3 1 0 1 0 1 0 1 3 2 0 3 1 0 1 1 1 2 2 2 2 2 1 1 0 3 1 1 0 2 2 0 0 1 1 1 2 0 3 2 0 0 2 0 0 1 1 0 1 0 0 0 0 0 0 1 0 4 0 1 0 0 0 2 2 0 3 1 1 1 1 1 2 1 1 3 2 0 0 1 1 1 2 1 1 1 3 0 0 0 2 0 0 0 2 3 1 1 2 2 0 2 1 1 1 0 3 2 1 0 1 1 1 0 1 1 1 2 1 0 0 0 0 0 1 2 1 0 1 1 0 0 1 0 4 0 1 0 2 0 0 0 0 1 1 2 0 3 4 0 1 2 2 0 1 2 1 1 1 1 1 4 0 0 1 2 1 0 2 1 1 0 0 1 1 1 3 0 2 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 2 0 1 1 1 0 2 0 1 2 1 0 2 2 1 2 0 0 0 1 1 0 2 1 3 0 0 3 0 0 0 2 3 1 0 3 4 0 2 0 0 1 2 0 0 2 1 0 1 2 0 0 1 1 1 0 0 0 1 1 0 1 3 1 1 0 0 1 2 1 0 2 3 1 0 0 0 1 1 1 0 2 2 0 2 1 1 0 0 1 0 2 2 2 0 0 2 0 3 0 0 1 2 0 0 1 2 2 0 0 1 1 0 0 0 2 1 1 0 2 0 4 0 0 2 1 2 0 0 2 1 1 0 1 1 0 0 5 1 0 1 1 0 2 3 1 0 0 1 3 3 0 1 1 1 2 4 0 0 0 1 1 1 1 1 0 0 2 0 0 0</t>
   </si>
   <si>
     <t>P.Mahomes</t>
@@ -767,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.5</v>
+        <v>41.4</v>
       </c>
       <c r="C2">
-        <v>56.9</v>
+        <v>58.1</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>-2.2</v>
+        <v>-2.5</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -794,7 +794,7 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>5.16</v>
+        <v>5.02</v>
       </c>
       <c r="L2">
         <v>5.24</v>
@@ -853,19 +853,19 @@
         <v>36.3</v>
       </c>
       <c r="E2">
-        <v>242.21</v>
+        <v>242.18</v>
       </c>
       <c r="F2">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G2">
         <v>0.51</v>
       </c>
       <c r="H2">
-        <v>91.68000000000001</v>
+        <v>91.13</v>
       </c>
       <c r="I2">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -991,10 +991,10 @@
         <v>36.3</v>
       </c>
       <c r="E2">
-        <v>242.21</v>
+        <v>242.18</v>
       </c>
       <c r="F2">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G2">
         <v>0.51</v>
@@ -1006,13 +1006,13 @@
         <v>0.9</v>
       </c>
       <c r="J2">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="K2">
         <v>0.02</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M2">
         <v>14.09</v>
@@ -1047,10 +1047,10 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1197,34 +1197,34 @@
         <v>56</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="D2">
-        <v>44.05</v>
+        <v>43.63</v>
       </c>
       <c r="E2">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F2">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="G2">
         <v>17.5</v>
       </c>
       <c r="H2">
-        <v>73.76000000000001</v>
+        <v>73.28</v>
       </c>
       <c r="I2">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="J2">
         <v>0.03</v>
       </c>
       <c r="K2">
-        <v>20.23</v>
+        <v>20.15</v>
       </c>
       <c r="L2">
-        <v>15.64</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1235,13 +1235,13 @@
         <v>57</v>
       </c>
       <c r="C3">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="D3">
-        <v>65.31999999999999</v>
+        <v>64.84</v>
       </c>
       <c r="E3">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F3">
         <v>0.11</v>
@@ -1250,7 +1250,7 @@
         <v>0.4</v>
       </c>
       <c r="H3">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -1259,10 +1259,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>15.22</v>
+        <v>15.05</v>
       </c>
       <c r="L3">
-        <v>8.65</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1276,10 +1276,10 @@
         <v>3.62</v>
       </c>
       <c r="D4">
-        <v>36.81</v>
+        <v>36.75</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F4">
         <v>0.07000000000000001</v>
@@ -1288,7 +1288,7 @@
         <v>0.8</v>
       </c>
       <c r="H4">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
         <v>0.02</v>
@@ -1297,10 +1297,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.81</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1311,10 +1311,10 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>3.43</v>
+        <v>3.51</v>
       </c>
       <c r="D5">
-        <v>33.04</v>
+        <v>33.83</v>
       </c>
       <c r="E5">
         <v>0.18</v>
@@ -1335,10 +1335,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.68</v>
+        <v>7.87</v>
       </c>
       <c r="L5">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1349,22 +1349,22 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="D6">
-        <v>19.64</v>
+        <v>19.2</v>
       </c>
       <c r="E6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="L6">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1387,13 +1387,13 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="D7">
-        <v>18.88</v>
+        <v>19.15</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F7">
         <v>0.03</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.39</v>
+        <v>4.51</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1425,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="D8">
-        <v>9.460000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -1440,7 +1440,7 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L8">
         <v>1.29</v>
@@ -1463,13 +1463,13 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D9">
-        <v>6.47</v>
+        <v>6.57</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1501,10 +1501,10 @@
         <v>64</v>
       </c>
       <c r="C10">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D10">
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
       <c r="E10">
         <v>0.02</v>
@@ -1516,7 +1516,7 @@
         <v>0.8</v>
       </c>
       <c r="H10">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="I10">
         <v>0.02</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="L10">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1542,7 +1542,7 @@
         <v>0.18</v>
       </c>
       <c r="D11">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -1554,19 +1554,19 @@
         <v>1.2</v>
       </c>
       <c r="H11">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="I11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="L11">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1580,7 +1580,7 @@
         <v>0.12</v>
       </c>
       <c r="D12">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -1618,19 +1618,19 @@
         <v>0.06</v>
       </c>
       <c r="D13">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0.2</v>
       </c>
       <c r="H13">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="L14">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1694,7 +1694,7 @@
         <v>0.06</v>
       </c>
       <c r="D15">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="D2">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="E2">
         <v>1.12</v>
       </c>
       <c r="F2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G2">
         <v>0.5</v>
@@ -1824,7 +1824,7 @@
         <v>0.68</v>
       </c>
       <c r="I2">
-        <v>7.58</v>
+        <v>7.54</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1871,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>23.1</v>
@@ -1880,19 +1880,19 @@
         <v>33.8</v>
       </c>
       <c r="E2">
-        <v>243.56</v>
+        <v>243.58</v>
       </c>
       <c r="F2">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G2">
         <v>0.47</v>
       </c>
       <c r="H2">
-        <v>114.21</v>
+        <v>114.04</v>
       </c>
       <c r="I2">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2018,10 +2018,10 @@
         <v>33.8</v>
       </c>
       <c r="E2">
-        <v>243.56</v>
+        <v>243.58</v>
       </c>
       <c r="F2">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G2">
         <v>0.47</v>
@@ -2033,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>15.68</v>
+        <v>16.06</v>
       </c>
       <c r="K2">
         <v>0.14</v>
@@ -2042,7 +2042,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>16.52</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2142,13 +2142,13 @@
         <v>96</v>
       </c>
       <c r="C2">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="D2">
-        <v>76.81</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E2">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F2">
         <v>0.15</v>
@@ -2157,19 +2157,19 @@
         <v>0.7</v>
       </c>
       <c r="H2">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>17.66</v>
+        <v>17.81</v>
       </c>
       <c r="L2">
-        <v>10.45</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2180,10 +2180,10 @@
         <v>97</v>
       </c>
       <c r="C3">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="D3">
-        <v>33.68</v>
+        <v>32.93</v>
       </c>
       <c r="E3">
         <v>0.19</v>
@@ -2192,10 +2192,10 @@
         <v>0.29</v>
       </c>
       <c r="G3">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H3">
-        <v>53.66</v>
+        <v>53</v>
       </c>
       <c r="I3">
         <v>0.42</v>
@@ -2204,10 +2204,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>15.08</v>
+        <v>14.96</v>
       </c>
       <c r="L3">
-        <v>11.8</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2218,16 +2218,16 @@
         <v>98</v>
       </c>
       <c r="C4">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="D4">
-        <v>48.06</v>
+        <v>48.5</v>
       </c>
       <c r="E4">
         <v>0.28</v>
       </c>
       <c r="F4">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.82</v>
+        <v>10.92</v>
       </c>
       <c r="L4">
-        <v>6.3</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2256,22 +2256,22 @@
         <v>99</v>
       </c>
       <c r="C5">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="D5">
-        <v>24.67</v>
+        <v>25.1</v>
       </c>
       <c r="E5">
         <v>0.14</v>
       </c>
       <c r="F5">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G5">
         <v>5.6</v>
       </c>
       <c r="H5">
-        <v>26.44</v>
+        <v>26.55</v>
       </c>
       <c r="I5">
         <v>0.21</v>
@@ -2280,10 +2280,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>9.289999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="L5">
-        <v>6.92</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2294,13 +2294,13 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="D6">
-        <v>29.19</v>
+        <v>28.92</v>
       </c>
       <c r="E6">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F6">
         <v>0.05</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K6">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2332,10 +2332,10 @@
         <v>101</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="D7">
-        <v>7.25</v>
+        <v>7.58</v>
       </c>
       <c r="E7">
         <v>0.04</v>
@@ -2347,7 +2347,7 @@
         <v>0.3</v>
       </c>
       <c r="H7">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -2356,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="L7">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2373,7 +2373,7 @@
         <v>0.26</v>
       </c>
       <c r="D8">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -2385,7 +2385,7 @@
         <v>1.4</v>
       </c>
       <c r="H8">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="I8">
         <v>0.05</v>
@@ -2397,7 +2397,7 @@
         <v>1.54</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2411,10 +2411,10 @@
         <v>0.55</v>
       </c>
       <c r="D9">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -2432,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="L9">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2449,7 +2449,7 @@
         <v>0.52</v>
       </c>
       <c r="D10">
-        <v>5.41</v>
+        <v>5.26</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -2470,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="L10">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2487,7 +2487,7 @@
         <v>0.45</v>
       </c>
       <c r="D11">
-        <v>4.71</v>
+        <v>4.74</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="L11">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2522,10 +2522,10 @@
         <v>106</v>
       </c>
       <c r="C12">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D12">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -2537,7 +2537,7 @@
         <v>0.3</v>
       </c>
       <c r="H12">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -2546,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="L12">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2563,7 +2563,7 @@
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -2575,10 +2575,10 @@
         <v>0.3</v>
       </c>
       <c r="H13">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="I13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2598,10 +2598,10 @@
         <v>108</v>
       </c>
       <c r="C14">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D14">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -2651,7 +2651,7 @@
         <v>0.6</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I15">
         <v>0.02</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="L15">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2689,7 +2689,7 @@
         <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2698,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="L16">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2827,25 +2827,25 @@
         <v>113</v>
       </c>
       <c r="C2">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="D2">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="E2">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F2">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G2">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I2">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
     </row>
   </sheetData>
